--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="1665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="1666">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19815897941589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18187689781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14388418197632</t>
+    <t xml:space="preserve">2.19815945625305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18187713623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14388394355774</t>
   </si>
   <si>
     <t xml:space="preserve">2.11945986747742</t>
@@ -62,25 +62,25 @@
     <t xml:space="preserve">2.10860466957092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09775018692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00819540023804</t>
+    <t xml:space="preserve">2.09774971008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00819492340088</t>
   </si>
   <si>
     <t xml:space="preserve">2.03370475769043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00765228271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06247043609619</t>
+    <t xml:space="preserve">2.00765252113342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06247067451477</t>
   </si>
   <si>
     <t xml:space="preserve">2.06138515472412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04618811607361</t>
+    <t xml:space="preserve">2.04618787765503</t>
   </si>
   <si>
     <t xml:space="preserve">2.04564523696899</t>
@@ -92,28 +92,28 @@
     <t xml:space="preserve">2.04944443702698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06355619430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02176403999329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94035077095032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97020208835602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98214268684387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95663321018219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97562968730927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95934677124023</t>
+    <t xml:space="preserve">2.06355595588684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02176380157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94035065174103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97020220756531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98214292526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95663344860077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97563004493713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9593471288681</t>
   </si>
   <si>
     <t xml:space="preserve">1.98919892311096</t>
@@ -122,118 +122,118 @@
     <t xml:space="preserve">1.99896824359894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98648500442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13845634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1167459487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13031482696533</t>
+    <t xml:space="preserve">1.98648452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13845682144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11674618721008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13031530380249</t>
   </si>
   <si>
     <t xml:space="preserve">2.14062714576721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21986961364746</t>
+    <t xml:space="preserve">2.21986985206604</t>
   </si>
   <si>
     <t xml:space="preserve">2.15473937988281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18676137924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14931154251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19164681434631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19273209571838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20087361335754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1954460144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19870233535767</t>
+    <t xml:space="preserve">2.18676161766052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14931178092957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19164657592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1927318572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20087337493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19544577598572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19870209693909</t>
   </si>
   <si>
     <t xml:space="preserve">2.21607065200806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23072504997253</t>
+    <t xml:space="preserve">2.23072457313538</t>
   </si>
   <si>
     <t xml:space="preserve">2.27143144607544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2035870552063</t>
+    <t xml:space="preserve">2.20358681678772</t>
   </si>
   <si>
     <t xml:space="preserve">2.19218897819519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17644906044006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1520254611969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1330292224884</t>
+    <t xml:space="preserve">2.17644929885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15202522277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13302874565125</t>
   </si>
   <si>
     <t xml:space="preserve">2.11783170700073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16830801963806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18730425834656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17102193832397</t>
+    <t xml:space="preserve">2.16830825805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18730449676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1710216999054</t>
   </si>
   <si>
     <t xml:space="preserve">2.1601665019989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11131882667542</t>
+    <t xml:space="preserve">2.11131858825684</t>
   </si>
   <si>
     <t xml:space="preserve">2.09829258918762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11403274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11457490921021</t>
+    <t xml:space="preserve">2.11403226852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11457514762878</t>
   </si>
   <si>
     <t xml:space="preserve">2.16505146026611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17156434059143</t>
+    <t xml:space="preserve">2.17156481742859</t>
   </si>
   <si>
     <t xml:space="preserve">2.20901465415955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20304465293884</t>
+    <t xml:space="preserve">2.20304441452026</t>
   </si>
   <si>
     <t xml:space="preserve">2.22529745101929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29314184188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30128288269043</t>
+    <t xml:space="preserve">2.29314160346985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30128335952759</t>
   </si>
   <si>
     <t xml:space="preserve">2.34470319747925</t>
@@ -242,28 +242,28 @@
     <t xml:space="preserve">2.30725336074829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27360248565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26329016685486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27414560317993</t>
+    <t xml:space="preserve">2.27360224723816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26329040527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27414536476135</t>
   </si>
   <si>
     <t xml:space="preserve">2.29585552215576</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28011536598206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37184119224548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4006073474884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37726926803589</t>
+    <t xml:space="preserve">2.28011560440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3718409538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40060710906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37726902961731</t>
   </si>
   <si>
     <t xml:space="preserve">2.50318789482117</t>
@@ -275,55 +275,55 @@
     <t xml:space="preserve">2.57320356369019</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62205123901367</t>
+    <t xml:space="preserve">2.62205147743225</t>
   </si>
   <si>
     <t xml:space="preserve">2.58568692207336</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67307043075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72425150871277</t>
+    <t xml:space="preserve">2.67307066917419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72425103187561</t>
   </si>
   <si>
     <t xml:space="preserve">2.72591996192932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76096749305725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74705982208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78155088424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85498404502869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87723636627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02410221099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.055255651474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06860733032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01075053215027</t>
+    <t xml:space="preserve">2.76096796989441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7470600605011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78155064582825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85498380661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87723612785339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02410244941711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05525541305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06860709190369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01075077056885</t>
   </si>
   <si>
     <t xml:space="preserve">2.90393924713135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9818229675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97069644927979</t>
+    <t xml:space="preserve">2.98182249069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97069668769836</t>
   </si>
   <si>
     <t xml:space="preserve">2.96179580688477</t>
@@ -332,43 +332,43 @@
     <t xml:space="preserve">2.88168668746948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82605576515198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79712796211243</t>
+    <t xml:space="preserve">2.82605600357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79712748527527</t>
   </si>
   <si>
     <t xml:space="preserve">2.75484800338745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84830832481384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92841696739197</t>
+    <t xml:space="preserve">2.84830856323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92841672897339</t>
   </si>
   <si>
     <t xml:space="preserve">3.04857993125916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91061520576477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83718252182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92619156837463</t>
+    <t xml:space="preserve">2.91061496734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83718228340149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92619180679321</t>
   </si>
   <si>
     <t xml:space="preserve">2.98404788970947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03745341300964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05748105049133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03967881202698</t>
+    <t xml:space="preserve">3.03745365142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05748057365417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03967905044556</t>
   </si>
   <si>
     <t xml:space="preserve">3.06415700912476</t>
@@ -377,10 +377,10 @@
     <t xml:space="preserve">3.04412937164307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10198545455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11533689498901</t>
+    <t xml:space="preserve">3.10198569297791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11533737182617</t>
   </si>
   <si>
     <t xml:space="preserve">3.13758969306946</t>
@@ -389,25 +389,25 @@
     <t xml:space="preserve">3.22659945487976</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37124013900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38014101982117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41574478149414</t>
+    <t xml:space="preserve">3.37123942375183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38014054298401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41574454307556</t>
   </si>
   <si>
     <t xml:space="preserve">3.36456418037415</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36011409759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33341073989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31560897827148</t>
+    <t xml:space="preserve">3.3601131439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33341026306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31560873985291</t>
   </si>
   <si>
     <t xml:space="preserve">3.36233901977539</t>
@@ -419,85 +419,85 @@
     <t xml:space="preserve">3.32896018028259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33786129951477</t>
+    <t xml:space="preserve">3.33786153793335</t>
   </si>
   <si>
     <t xml:space="preserve">3.24440097808838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32673478126526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33118557929993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40461850166321</t>
+    <t xml:space="preserve">3.32673525810242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33118534088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40461826324463</t>
   </si>
   <si>
     <t xml:space="preserve">3.42464566230774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41796970367432</t>
+    <t xml:space="preserve">3.4179699420929</t>
   </si>
   <si>
     <t xml:space="preserve">3.39794278144836</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35788869857788</t>
+    <t xml:space="preserve">3.35788798332214</t>
   </si>
   <si>
     <t xml:space="preserve">3.34453678131104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42687082290649</t>
+    <t xml:space="preserve">3.42687058448792</t>
   </si>
   <si>
     <t xml:space="preserve">3.39349222183228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34898734092712</t>
+    <t xml:space="preserve">3.3489875793457</t>
   </si>
   <si>
     <t xml:space="preserve">3.38681650161743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38236594200134</t>
+    <t xml:space="preserve">3.38236570358276</t>
   </si>
   <si>
     <t xml:space="preserve">3.21992349624634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25997757911682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28000497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32228469848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27110385894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29335641860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15984201431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40684390068054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33563590049744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.275554895401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4468982219696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50697922706604</t>
+    <t xml:space="preserve">3.25997734069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28000473976135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32228446006775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27110409736633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2933566570282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15984153747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40684366226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33563566207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27555465698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44689798355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50697946548462</t>
   </si>
   <si>
     <t xml:space="preserve">3.67164778709412</t>
@@ -506,28 +506,28 @@
     <t xml:space="preserve">3.76065683364868</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86969375610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99430751800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09889364242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18345308303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08331680297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04548788070679</t>
+    <t xml:space="preserve">3.86969351768494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99430775642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09889316558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18345260620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08331775665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04548740386963</t>
   </si>
   <si>
     <t xml:space="preserve">4.20570516586304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28581380844116</t>
+    <t xml:space="preserve">4.28581428527832</t>
   </si>
   <si>
     <t xml:space="preserve">4.43267965316772</t>
@@ -542,19 +542,19 @@
     <t xml:space="preserve">4.57286977767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79316902160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75978994369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74866437911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86437702178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06242275238037</t>
+    <t xml:space="preserve">4.79316854476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75979042053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74866390228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86437654495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06242322921753</t>
   </si>
   <si>
     <t xml:space="preserve">5.05129718780518</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">4.84212398529053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74643850326538</t>
+    <t xml:space="preserve">4.74643898010254</t>
   </si>
   <si>
     <t xml:space="preserve">4.6730055809021</t>
@@ -578,58 +578,58 @@
     <t xml:space="preserve">4.47050857543945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44603061676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43712949752808</t>
+    <t xml:space="preserve">4.44603109359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43712997436523</t>
   </si>
   <si>
     <t xml:space="preserve">4.32141780853271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28358888626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17900228500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31919288635254</t>
+    <t xml:space="preserve">4.28358936309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17900276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31919240951538</t>
   </si>
   <si>
     <t xml:space="preserve">4.33921957015991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46160697937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45048189163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43490505218506</t>
+    <t xml:space="preserve">4.46160793304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45048141479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43490552902222</t>
   </si>
   <si>
     <t xml:space="preserve">4.76201486587524</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73976278305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73753786087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71751117706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75088977813721</t>
+    <t xml:space="preserve">4.73976230621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73753881454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71751070022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75088882446289</t>
   </si>
   <si>
     <t xml:space="preserve">4.82654762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69525766372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76646566390991</t>
+    <t xml:space="preserve">4.69525814056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76646518707275</t>
   </si>
   <si>
     <t xml:space="preserve">4.6908073425293</t>
@@ -641,19 +641,19 @@
     <t xml:space="preserve">4.62405061721802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83767414093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74421358108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89107942581177</t>
+    <t xml:space="preserve">4.83767366409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74421310424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89107894897461</t>
   </si>
   <si>
     <t xml:space="preserve">4.87995290756226</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85102462768555</t>
+    <t xml:space="preserve">4.85102415084839</t>
   </si>
   <si>
     <t xml:space="preserve">4.87105178833008</t>
@@ -662,85 +662,85 @@
     <t xml:space="preserve">5.21151399612427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50524616241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40733528137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36728096008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3450288772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34280252456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31832551956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14698266983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22264003753662</t>
+    <t xml:space="preserve">5.50524568557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40733480453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36728143692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34502840042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34280347824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31832504272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14698219299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22263956069946</t>
   </si>
   <si>
     <t xml:space="preserve">5.34057760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39175844192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42736291885376</t>
+    <t xml:space="preserve">5.39175891876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42736196517944</t>
   </si>
   <si>
     <t xml:space="preserve">5.28494691848755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25824451446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17368459701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0179181098938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20261287689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15143203735352</t>
+    <t xml:space="preserve">5.25824403762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17368507385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01791763305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20261240005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15143251419067</t>
   </si>
   <si>
     <t xml:space="preserve">5.22709035873413</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2137393951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20483827590942</t>
+    <t xml:space="preserve">5.21373891830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20483779907227</t>
   </si>
   <si>
     <t xml:space="preserve">5.24044227600098</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22931575775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15588331222534</t>
+    <t xml:space="preserve">5.22931623458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15588283538818</t>
   </si>
   <si>
     <t xml:space="preserve">5.06687355041504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13808107376099</t>
+    <t xml:space="preserve">5.13808155059814</t>
   </si>
   <si>
     <t xml:space="preserve">5.09802675247192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9934401512146</t>
+    <t xml:space="preserve">4.99344062805176</t>
   </si>
   <si>
     <t xml:space="preserve">4.97341299057007</t>
@@ -749,13 +749,13 @@
     <t xml:space="preserve">4.96228694915771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95338582992554</t>
+    <t xml:space="preserve">4.9533863067627</t>
   </si>
   <si>
     <t xml:space="preserve">4.90665531158447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83989906311035</t>
+    <t xml:space="preserve">4.83989953994751</t>
   </si>
   <si>
     <t xml:space="preserve">4.89552974700928</t>
@@ -764,16 +764,16 @@
     <t xml:space="preserve">4.84880018234253</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86215162277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78426790237427</t>
+    <t xml:space="preserve">4.86215114593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78426742553711</t>
   </si>
   <si>
     <t xml:space="preserve">4.92668294906616</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02681922912598</t>
+    <t xml:space="preserve">5.02681875228882</t>
   </si>
   <si>
     <t xml:space="preserve">5.25156879425049</t>
@@ -785,13 +785,13 @@
     <t xml:space="preserve">5.31165027618408</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2315411567688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20706367492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41846179962158</t>
+    <t xml:space="preserve">5.23154067993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2070631980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41846132278442</t>
   </si>
   <si>
     <t xml:space="preserve">5.50302028656006</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">5.53639888763428</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67436504364014</t>
+    <t xml:space="preserve">5.67436456680298</t>
   </si>
   <si>
     <t xml:space="preserve">5.8078784942627</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">6.04152870178223</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07490682601929</t>
+    <t xml:space="preserve">6.07490730285645</t>
   </si>
   <si>
     <t xml:space="preserve">6.24847650527954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94139289855957</t>
+    <t xml:space="preserve">5.94139337539673</t>
   </si>
   <si>
     <t xml:space="preserve">6.00815010070801</t>
@@ -842,22 +842,22 @@
     <t xml:space="preserve">6.10828638076782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23067378997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07935762405396</t>
+    <t xml:space="preserve">6.23067474365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07935810089111</t>
   </si>
   <si>
     <t xml:space="preserve">6.12163782119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13721466064453</t>
+    <t xml:space="preserve">6.13721418380737</t>
   </si>
   <si>
     <t xml:space="preserve">6.11941242218018</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17504405975342</t>
+    <t xml:space="preserve">6.1750431060791</t>
   </si>
   <si>
     <t xml:space="preserve">6.19061946868896</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">6.09493494033813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20842170715332</t>
+    <t xml:space="preserve">6.20842123031616</t>
   </si>
   <si>
     <t xml:space="preserve">6.27517938613892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56446075439453</t>
+    <t xml:space="preserve">6.56446027755737</t>
   </si>
   <si>
     <t xml:space="preserve">6.40646839141846</t>
@@ -884,70 +884,70 @@
     <t xml:space="preserve">6.67349720001221</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68684816360474</t>
+    <t xml:space="preserve">6.68684911727905</t>
   </si>
   <si>
     <t xml:space="preserve">6.7335786819458</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9538779258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05401372909546</t>
+    <t xml:space="preserve">6.95387744903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05401420593262</t>
   </si>
   <si>
     <t xml:space="preserve">7.16527557373047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22090625762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27431154251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4812593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28766441345215</t>
+    <t xml:space="preserve">7.22090721130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27431201934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48126077651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28766345977783</t>
   </si>
   <si>
     <t xml:space="preserve">7.38334941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38112449645996</t>
+    <t xml:space="preserve">7.38112306594849</t>
   </si>
   <si>
     <t xml:space="preserve">7.26986122131348</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45455646514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53911638259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52576494216919</t>
+    <t xml:space="preserve">7.45455598831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53911685943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52576446533203</t>
   </si>
   <si>
     <t xml:space="preserve">7.44565534591675</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46568202972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35442066192627</t>
+    <t xml:space="preserve">7.46568298339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35442161560059</t>
   </si>
   <si>
     <t xml:space="preserve">6.60896492004395</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36418867111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61564016342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54220771789551</t>
+    <t xml:space="preserve">6.3641881942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61564064025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54220819473267</t>
   </si>
   <si>
     <t xml:space="preserve">6.758056640625</t>
@@ -956,34 +956,34 @@
     <t xml:space="preserve">6.64011859893799</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66682147979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72245264053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66832971572876</t>
+    <t xml:space="preserve">6.66682052612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72245216369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66833019256592</t>
   </si>
   <si>
     <t xml:space="preserve">6.70666694641113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75853395462036</t>
+    <t xml:space="preserve">6.75853443145752</t>
   </si>
   <si>
     <t xml:space="preserve">6.69313621520996</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59616708755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70215606689453</t>
+    <t xml:space="preserve">6.59616661071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70215654373169</t>
   </si>
   <si>
     <t xml:space="preserve">7.06973791122437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91188097000122</t>
+    <t xml:space="preserve">6.91188049316406</t>
   </si>
   <si>
     <t xml:space="preserve">6.97276878356934</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">6.64803457260132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56233978271484</t>
+    <t xml:space="preserve">6.562340259552</t>
   </si>
   <si>
     <t xml:space="preserve">6.62999296188354</t>
@@ -1016,22 +1016,22 @@
     <t xml:space="preserve">6.46762561798096</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47213649749756</t>
+    <t xml:space="preserve">6.47213697433472</t>
   </si>
   <si>
     <t xml:space="preserve">6.5149827003479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29623794555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27819728851318</t>
+    <t xml:space="preserve">6.2962384223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27819776535034</t>
   </si>
   <si>
     <t xml:space="preserve">6.2736873626709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08876943588257</t>
+    <t xml:space="preserve">6.08876895904541</t>
   </si>
   <si>
     <t xml:space="preserve">6.04366779327393</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">6.03239154815674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06847333908081</t>
+    <t xml:space="preserve">6.06847381591797</t>
   </si>
   <si>
     <t xml:space="preserve">5.91287136077881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09102439880371</t>
+    <t xml:space="preserve">6.09102487564087</t>
   </si>
   <si>
     <t xml:space="preserve">6.05043268203735</t>
@@ -1055,25 +1055,25 @@
     <t xml:space="preserve">6.06396293640137</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0729832649231</t>
+    <t xml:space="preserve">6.07298421859741</t>
   </si>
   <si>
     <t xml:space="preserve">5.96473932266235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97601413726807</t>
+    <t xml:space="preserve">5.97601461410522</t>
   </si>
   <si>
     <t xml:space="preserve">6.1203408241272</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82266712188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62872886657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59039258956909</t>
+    <t xml:space="preserve">5.82266759872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62872838973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59039306640625</t>
   </si>
   <si>
     <t xml:space="preserve">5.73246383666992</t>
@@ -1085,37 +1085,37 @@
     <t xml:space="preserve">5.88806533813477</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02111673355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84070777893066</t>
+    <t xml:space="preserve">6.02111721038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84070825576782</t>
   </si>
   <si>
     <t xml:space="preserve">5.84747362136841</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71442317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68059635162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50469875335693</t>
+    <t xml:space="preserve">5.71442270278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68059682846069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50469923019409</t>
   </si>
   <si>
     <t xml:space="preserve">5.66706562042236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56333160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57009696960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51822900772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53852462768555</t>
+    <t xml:space="preserve">5.56333112716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57009649276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51822853088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53852510452271</t>
   </si>
   <si>
     <t xml:space="preserve">5.61294269561768</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">5.64902496337891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57911682128906</t>
+    <t xml:space="preserve">5.5791163444519</t>
   </si>
   <si>
     <t xml:space="preserve">5.53176021575928</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">5.78884124755859</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93091249465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99856615066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85649442672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21956539154053</t>
+    <t xml:space="preserve">5.93091201782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99856567382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85649394989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21956491470337</t>
   </si>
   <si>
     <t xml:space="preserve">6.10004472732544</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">5.64225959777832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59941244125366</t>
+    <t xml:space="preserve">5.59941291809082</t>
   </si>
   <si>
     <t xml:space="preserve">5.61519861221313</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">5.47989225387573</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41449403762817</t>
+    <t xml:space="preserve">5.41449499130249</t>
   </si>
   <si>
     <t xml:space="preserve">5.34458684921265</t>
@@ -1193,25 +1193,25 @@
     <t xml:space="preserve">5.35586214065552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36939239501953</t>
+    <t xml:space="preserve">5.36939191818237</t>
   </si>
   <si>
     <t xml:space="preserve">5.53401517868042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5159740447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39419889450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33782196044922</t>
+    <t xml:space="preserve">5.51597309112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39419841766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3378210067749</t>
   </si>
   <si>
     <t xml:space="preserve">5.25438213348389</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23183155059814</t>
+    <t xml:space="preserve">5.23183107376099</t>
   </si>
   <si>
     <t xml:space="preserve">5.32203578948975</t>
@@ -1229,19 +1229,19 @@
     <t xml:space="preserve">5.14839267730713</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11682224273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07397413253784</t>
+    <t xml:space="preserve">5.11682176589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.073974609375</t>
   </si>
   <si>
     <t xml:space="preserve">5.06720876693726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08073997497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15966749191284</t>
+    <t xml:space="preserve">5.08074045181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15966796875</t>
   </si>
   <si>
     <t xml:space="preserve">5.30850553512573</t>
@@ -1253,46 +1253,46 @@
     <t xml:space="preserve">5.3400764465332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3603720664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.229576587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1416277885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97926044464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8304238319397</t>
+    <t xml:space="preserve">5.36037254333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22957611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14162731170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97925996780396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83042287826538</t>
   </si>
   <si>
     <t xml:space="preserve">4.81463861465454</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75374984741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04014778137207</t>
+    <t xml:space="preserve">4.75375032424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04014825820923</t>
   </si>
   <si>
     <t xml:space="preserve">5.33331108093262</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72795343399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93993282318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97375965118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89483022689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03464698791504</t>
+    <t xml:space="preserve">5.72795295715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93993234634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97375917434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89483118057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0346474647522</t>
   </si>
   <si>
     <t xml:space="preserve">5.99405527114868</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">5.90385150909424</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9466986656189</t>
+    <t xml:space="preserve">5.94669818878174</t>
   </si>
   <si>
     <t xml:space="preserve">5.77756595611572</t>
@@ -1310,16 +1310,16 @@
     <t xml:space="preserve">5.76403522491455</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82492256164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70765686035156</t>
+    <t xml:space="preserve">5.82492208480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70765781402588</t>
   </si>
   <si>
     <t xml:space="preserve">6.15642166137695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33006477355957</t>
+    <t xml:space="preserve">6.33006572723389</t>
   </si>
   <si>
     <t xml:space="preserve">6.19701433181763</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">6.2759428024292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26015663146973</t>
+    <t xml:space="preserve">6.26015710830688</t>
   </si>
   <si>
     <t xml:space="preserve">6.15867757797241</t>
@@ -1337,16 +1337,16 @@
     <t xml:space="preserve">6.09553480148315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1676983833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93767786026001</t>
+    <t xml:space="preserve">6.16769790649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93767738342285</t>
   </si>
   <si>
     <t xml:space="preserve">6.00984048843384</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03013706207275</t>
+    <t xml:space="preserve">6.0301365852356</t>
   </si>
   <si>
     <t xml:space="preserve">5.95346355438232</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">5.87002468109131</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77531051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74148416519165</t>
+    <t xml:space="preserve">5.77531003952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74148368835449</t>
   </si>
   <si>
     <t xml:space="preserve">5.75952529907227</t>
@@ -1367,10 +1367,10 @@
     <t xml:space="preserve">6.15191221237183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98503494262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84521818161011</t>
+    <t xml:space="preserve">5.98503541946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84521865844727</t>
   </si>
   <si>
     <t xml:space="preserve">5.97150468826294</t>
@@ -1379,19 +1379,19 @@
     <t xml:space="preserve">6.165442943573</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17897319793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08425903320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0752387046814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42703485488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42252445220947</t>
+    <t xml:space="preserve">6.17897272109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08425855636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07523918151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42703437805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42252492904663</t>
   </si>
   <si>
     <t xml:space="preserve">6.35938167572021</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">6.66607522964478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51272821426392</t>
+    <t xml:space="preserve">6.51272773742676</t>
   </si>
   <si>
     <t xml:space="preserve">6.30525875091553</t>
@@ -1409,43 +1409,43 @@
     <t xml:space="preserve">6.23309564590454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22407579421997</t>
+    <t xml:space="preserve">6.22407531738281</t>
   </si>
   <si>
     <t xml:space="preserve">5.67834138870239</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24662637710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05268812179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92189168930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79560565948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80913686752319</t>
+    <t xml:space="preserve">6.24662685394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0526876449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9218921661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79560708999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80913734436035</t>
   </si>
   <si>
     <t xml:space="preserve">5.54754543304443</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89032125473022</t>
+    <t xml:space="preserve">5.89032077789307</t>
   </si>
   <si>
     <t xml:space="preserve">6.00307607650757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11132049560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09327983856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31427907943726</t>
+    <t xml:space="preserve">6.11132001876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09327936172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31427955627441</t>
   </si>
   <si>
     <t xml:space="preserve">6.4089937210083</t>
@@ -1457,10 +1457,10 @@
     <t xml:space="preserve">6.87354421615601</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83295249938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08101320266724</t>
+    <t xml:space="preserve">6.83295202255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08101272583008</t>
   </si>
   <si>
     <t xml:space="preserve">7.05846214294434</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">7.13062572479248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25691080093384</t>
+    <t xml:space="preserve">7.256911277771</t>
   </si>
   <si>
     <t xml:space="preserve">7.02238082885742</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10356378555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3877067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3065242767334</t>
+    <t xml:space="preserve">7.10356426239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38770723342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30652332305908</t>
   </si>
   <si>
     <t xml:space="preserve">7.20278882980347</t>
@@ -1493,91 +1493,91 @@
     <t xml:space="preserve">7.27044248580933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21631908416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65831804275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48693227767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34260559082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60419654846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44183015823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41927766799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2794623374939</t>
+    <t xml:space="preserve">7.21631956100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65831851959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48693132400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34260511398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60419607162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44182968139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41927862167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27946186065674</t>
   </si>
   <si>
     <t xml:space="preserve">7.22082948684692</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41025733947754</t>
+    <t xml:space="preserve">7.4102578163147</t>
   </si>
   <si>
     <t xml:space="preserve">7.37417602539062</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35162496566772</t>
+    <t xml:space="preserve">7.35162544250488</t>
   </si>
   <si>
     <t xml:space="preserve">7.37868595123291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62674808502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7891149520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73048162460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70342111587524</t>
+    <t xml:space="preserve">7.62674760818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78911542892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73048257827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70342063903809</t>
   </si>
   <si>
     <t xml:space="preserve">7.56360483169556</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72146224975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59066581726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55007314682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22533941268921</t>
+    <t xml:space="preserve">7.72146272659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5906662940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55007362365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22533988952637</t>
   </si>
   <si>
     <t xml:space="preserve">6.77431964874268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99080896377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7833399772644</t>
+    <t xml:space="preserve">6.99080944061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78334045410156</t>
   </si>
   <si>
     <t xml:space="preserve">6.66156530380249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76529979705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68862581253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86001396179199</t>
+    <t xml:space="preserve">6.76529884338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68862628936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86001348495483</t>
   </si>
   <si>
     <t xml:space="preserve">6.52302837371826</t>
@@ -1586,28 +1586,28 @@
     <t xml:space="preserve">6.44531917572021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74244403839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81101036071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74701499938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77901268005371</t>
+    <t xml:space="preserve">6.74244356155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81101083755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74701452255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77901220321655</t>
   </si>
   <si>
     <t xml:space="preserve">6.69216060638428</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80643939971924</t>
+    <t xml:space="preserve">6.8064398765564</t>
   </si>
   <si>
     <t xml:space="preserve">6.7241587638855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62816524505615</t>
+    <t xml:space="preserve">6.62816476821899</t>
   </si>
   <si>
     <t xml:space="preserve">6.86129331588745</t>
@@ -1616,10 +1616,10 @@
     <t xml:space="preserve">6.9024338722229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90700435638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76072788238525</t>
+    <t xml:space="preserve">6.90700483322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76072835922241</t>
   </si>
   <si>
     <t xml:space="preserve">6.63730764389038</t>
@@ -1631,34 +1631,34 @@
     <t xml:space="preserve">6.59159564971924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55959749221802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45903253555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36303853988647</t>
+    <t xml:space="preserve">6.55959796905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45903158187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36303806304932</t>
   </si>
   <si>
     <t xml:space="preserve">6.35846710205078</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25790214538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960718154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27618598937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31732654571533</t>
+    <t xml:space="preserve">6.25790119171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39960765838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27618646621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31732702255249</t>
   </si>
   <si>
     <t xml:space="preserve">6.34018278121948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48645877838135</t>
+    <t xml:space="preserve">6.48645925521851</t>
   </si>
   <si>
     <t xml:space="preserve">6.38589382171631</t>
@@ -1667,22 +1667,22 @@
     <t xml:space="preserve">6.34932518005371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47731637954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73330116271973</t>
+    <t xml:space="preserve">6.47731685638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73330068588257</t>
   </si>
   <si>
     <t xml:space="preserve">6.63273572921753</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67387676239014</t>
+    <t xml:space="preserve">6.67387628555298</t>
   </si>
   <si>
     <t xml:space="preserve">6.58245325088501</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58702421188354</t>
+    <t xml:space="preserve">6.5870246887207</t>
   </si>
   <si>
     <t xml:space="preserve">6.53217077255249</t>
@@ -1703,25 +1703,25 @@
     <t xml:space="preserve">6.64644956588745</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46817445755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37675142288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32646942138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41789150238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.605309009552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78815460205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23504638671875</t>
+    <t xml:space="preserve">6.46817398071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37675189971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32646894454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41789197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60530948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78815507888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23504590988159</t>
   </si>
   <si>
     <t xml:space="preserve">6.53674173355103</t>
@@ -1730,19 +1730,19 @@
     <t xml:space="preserve">6.32189750671387</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1161961555481</t>
+    <t xml:space="preserve">6.11619663238525</t>
   </si>
   <si>
     <t xml:space="preserve">5.59508514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45338010787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35738611221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1928243637085</t>
+    <t xml:space="preserve">5.45337963104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35738563537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19282484054565</t>
   </si>
   <si>
     <t xml:space="preserve">5.08311653137207</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">5.18825340270996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16539812088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09682989120483</t>
+    <t xml:space="preserve">5.16539716720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09683036804199</t>
   </si>
   <si>
     <t xml:space="preserve">5.03740549087524</t>
@@ -1772,19 +1772,19 @@
     <t xml:space="preserve">4.68999814987183</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71742534637451</t>
+    <t xml:space="preserve">4.71742486953735</t>
   </si>
   <si>
     <t xml:space="preserve">4.85455942153931</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81799030303955</t>
+    <t xml:space="preserve">4.81798982620239</t>
   </si>
   <si>
     <t xml:space="preserve">4.46829700469971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21916961669922</t>
+    <t xml:space="preserve">4.21916913986206</t>
   </si>
   <si>
     <t xml:space="preserve">4.30145072937012</t>
@@ -1793,34 +1793,34 @@
     <t xml:space="preserve">4.20545625686646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13003206253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14374542236328</t>
+    <t xml:space="preserve">4.13003158569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14374589920044</t>
   </si>
   <si>
     <t xml:space="preserve">4.04546594619751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17345809936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24659633636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22145509719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10717630386353</t>
+    <t xml:space="preserve">4.17345905303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2465968132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22145557403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10717678070068</t>
   </si>
   <si>
     <t xml:space="preserve">3.95404314994812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78719663619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83976459503174</t>
+    <t xml:space="preserve">3.78719592094421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83976435661316</t>
   </si>
   <si>
     <t xml:space="preserve">3.90147471427917</t>
@@ -1829,22 +1829,22 @@
     <t xml:space="preserve">3.81690907478333</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92204523086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93118786811829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05232286453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24888277053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09117698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01118183135986</t>
+    <t xml:space="preserve">3.92204475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93118739128113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05232334136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24888181686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09117746353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01118278503418</t>
   </si>
   <si>
     <t xml:space="preserve">4.01803922653198</t>
@@ -1859,22 +1859,22 @@
     <t xml:space="preserve">3.9471869468689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92890191078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53121185302734</t>
+    <t xml:space="preserve">3.92890167236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53121161460876</t>
   </si>
   <si>
     <t xml:space="preserve">3.43293237686157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31408262252808</t>
+    <t xml:space="preserve">3.3140823841095</t>
   </si>
   <si>
     <t xml:space="preserve">3.09923839569092</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10838055610657</t>
+    <t xml:space="preserve">3.10838079452515</t>
   </si>
   <si>
     <t xml:space="preserve">3.23180174827576</t>
@@ -1889,13 +1889,13 @@
     <t xml:space="preserve">3.3415093421936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29808354377747</t>
+    <t xml:space="preserve">3.29808330535889</t>
   </si>
   <si>
     <t xml:space="preserve">3.52892637252808</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46950149536133</t>
+    <t xml:space="preserve">3.46950125694275</t>
   </si>
   <si>
     <t xml:space="preserve">3.56549572944641</t>
@@ -1913,37 +1913,37 @@
     <t xml:space="preserve">3.17923355102539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99181628227234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99638748168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0763828754425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17237687110901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10609531402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02152919769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9483904838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98953080177307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83868288993835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80897045135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85011100769043</t>
+    <t xml:space="preserve">2.9918167591095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99638724327087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07638263702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17237663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1060950756073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02152895927429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94839024543762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98953104019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83868312835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80897068977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85011124610901</t>
   </si>
   <si>
     <t xml:space="preserve">2.89582228660583</t>
@@ -1952,22 +1952,22 @@
     <t xml:space="preserve">2.95296168327332</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14037871360779</t>
+    <t xml:space="preserve">3.14037895202637</t>
   </si>
   <si>
     <t xml:space="preserve">3.17466259002686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23865818977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30036878585815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22951626777649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29351210594177</t>
+    <t xml:space="preserve">3.23865842819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30036902427673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22951579093933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29351234436035</t>
   </si>
   <si>
     <t xml:space="preserve">3.30722570419312</t>
@@ -1979,28 +1979,28 @@
     <t xml:space="preserve">3.26379990577698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39407730102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62034964561462</t>
+    <t xml:space="preserve">3.39407753944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62034940719604</t>
   </si>
   <si>
     <t xml:space="preserve">3.55635333061218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61120700836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57235264778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69120216369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74605560302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65463256835938</t>
+    <t xml:space="preserve">3.6112072467804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57235240936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69120192527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74605584144592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65463280677795</t>
   </si>
   <si>
     <t xml:space="preserve">3.58835124969482</t>
@@ -2009,19 +2009,19 @@
     <t xml:space="preserve">3.59977912902832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66148972511292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51292753219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60206460952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66377544403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77576851844788</t>
+    <t xml:space="preserve">3.66148996353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51292729377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60206484794617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66377520561218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77576804161072</t>
   </si>
   <si>
     <t xml:space="preserve">3.70263004302979</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">3.78491044044495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88776159286499</t>
+    <t xml:space="preserve">3.88776135444641</t>
   </si>
   <si>
     <t xml:space="preserve">3.98147010803223</t>
@@ -2042,19 +2042,19 @@
     <t xml:space="preserve">3.85576367378235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91747403144836</t>
+    <t xml:space="preserve">3.91747379302979</t>
   </si>
   <si>
     <t xml:space="preserve">3.94261527061462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02718210220337</t>
+    <t xml:space="preserve">4.02718114852905</t>
   </si>
   <si>
     <t xml:space="preserve">4.079749584198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15974521636963</t>
+    <t xml:space="preserve">4.15974473953247</t>
   </si>
   <si>
     <t xml:space="preserve">4.22374105453491</t>
@@ -2066,37 +2066,37 @@
     <t xml:space="preserve">4.34487628936768</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28087949752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03632354736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09346342086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11631870269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06603574752808</t>
+    <t xml:space="preserve">4.28087997436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03632402420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09346294403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11631917953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06603670120239</t>
   </si>
   <si>
     <t xml:space="preserve">4.32430648803711</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37687397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4797248840332</t>
+    <t xml:space="preserve">4.3768744468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47972536087036</t>
   </si>
   <si>
     <t xml:space="preserve">4.52543687820435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45001268386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25802421569824</t>
+    <t xml:space="preserve">4.45001220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2580246925354</t>
   </si>
   <si>
     <t xml:space="preserve">4.29687881469727</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">4.33116292953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38601684570312</t>
+    <t xml:space="preserve">4.38601636886597</t>
   </si>
   <si>
     <t xml:space="preserve">4.34259080886841</t>
@@ -2120,10 +2120,10 @@
     <t xml:space="preserve">4.33344793319702</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3471622467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29230785369873</t>
+    <t xml:space="preserve">4.34716176986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29230833053589</t>
   </si>
   <si>
     <t xml:space="preserve">4.16431617736816</t>
@@ -2135,22 +2135,22 @@
     <t xml:space="preserve">4.27859449386597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36316108703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05917930603027</t>
+    <t xml:space="preserve">4.36316061019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05917978286743</t>
   </si>
   <si>
     <t xml:space="preserve">4.02032470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98604106903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08432054519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12774705886841</t>
+    <t xml:space="preserve">3.98604083061218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08432149887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12774658203125</t>
   </si>
   <si>
     <t xml:space="preserve">4.12546110153198</t>
@@ -2159,10 +2159,10 @@
     <t xml:space="preserve">4.1048903465271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00432586669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96318578720093</t>
+    <t xml:space="preserve">4.00432634353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96318626403809</t>
   </si>
   <si>
     <t xml:space="preserve">3.85119223594666</t>
@@ -2174,19 +2174,19 @@
     <t xml:space="preserve">3.73234248161316</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93575811386108</t>
+    <t xml:space="preserve">3.93575835227966</t>
   </si>
   <si>
     <t xml:space="preserve">4.18945693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90833163261414</t>
+    <t xml:space="preserve">3.90833139419556</t>
   </si>
   <si>
     <t xml:space="preserve">4.04407024383545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96683979034424</t>
+    <t xml:space="preserve">3.96684002876282</t>
   </si>
   <si>
     <t xml:space="preserve">3.84514331817627</t>
@@ -2195,46 +2195,46 @@
     <t xml:space="preserve">3.82876110076904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84748363494873</t>
+    <t xml:space="preserve">3.84748339653015</t>
   </si>
   <si>
     <t xml:space="preserve">3.77025318145752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75387120246887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81471872329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92705464363098</t>
+    <t xml:space="preserve">3.75387096405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8147189617157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9270544052124</t>
   </si>
   <si>
     <t xml:space="preserve">3.95747828483582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.011305809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05343151092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98322176933289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03704929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95981884002686</t>
+    <t xml:space="preserve">4.01130533218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05343103408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98322200775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03704881668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95981907844543</t>
   </si>
   <si>
     <t xml:space="preserve">3.99258327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07215404510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13066244125366</t>
+    <t xml:space="preserve">4.07215452194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1306619644165</t>
   </si>
   <si>
     <t xml:space="preserve">4.28980350494385</t>
@@ -2246,16 +2246,16 @@
     <t xml:space="preserve">4.18214893341064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20321130752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19151067733765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23597621917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.280442237854</t>
+    <t xml:space="preserve">4.20321178436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19151020050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2359766960144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28044271469116</t>
   </si>
   <si>
     <t xml:space="preserve">4.37171506881714</t>
@@ -2270,10 +2270,10 @@
     <t xml:space="preserve">4.50511312484741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39745903015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44660520553589</t>
+    <t xml:space="preserve">4.39745855331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44660472869873</t>
   </si>
   <si>
     <t xml:space="preserve">4.33895063400269</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">4.4278826713562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3319296836853</t>
+    <t xml:space="preserve">4.33192920684814</t>
   </si>
   <si>
     <t xml:space="preserve">4.31554746627808</t>
@@ -2300,7 +2300,7 @@
     <t xml:space="preserve">4.14938449859619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18916940689087</t>
+    <t xml:space="preserve">4.18917036056519</t>
   </si>
   <si>
     <t xml:space="preserve">4.24299716949463</t>
@@ -2315,37 +2315,37 @@
     <t xml:space="preserve">4.2149133682251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16576671600342</t>
+    <t xml:space="preserve">4.16576623916626</t>
   </si>
   <si>
     <t xml:space="preserve">4.09555721282959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14470434188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05811262130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03236865997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93173503875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.971519947052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96215891838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93641543388367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03938961029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08853626251221</t>
+    <t xml:space="preserve">4.14470386505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05811214447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03236818313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93173456192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97152090072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9621593952179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93641519546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03939008712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08853673934937</t>
   </si>
   <si>
     <t xml:space="preserve">4.06981325149536</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">4.22193479537964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20555210113525</t>
+    <t xml:space="preserve">4.20555257797241</t>
   </si>
   <si>
     <t xml:space="preserve">4.25937986373901</t>
@@ -2363,22 +2363,22 @@
     <t xml:space="preserve">4.13300228118896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14236354827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2781023979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22661542892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15172529220581</t>
+    <t xml:space="preserve">4.14236402511597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27810192108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2266149520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15172481536865</t>
   </si>
   <si>
     <t xml:space="preserve">4.43958425521851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43256378173828</t>
+    <t xml:space="preserve">4.43256330490112</t>
   </si>
   <si>
     <t xml:space="preserve">4.41384077072144</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">5.11125564575195</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28912019729614</t>
+    <t xml:space="preserve">5.28911972045898</t>
   </si>
   <si>
     <t xml:space="preserve">5.44826126098633</t>
@@ -2399,10 +2399,10 @@
     <t xml:space="preserve">5.47634553909302</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75250244140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60740232467651</t>
+    <t xml:space="preserve">5.75250291824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60740280151367</t>
   </si>
   <si>
     <t xml:space="preserve">5.50910949707031</t>
@@ -2411,28 +2411,28 @@
     <t xml:space="preserve">5.73377990722656</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83207321166992</t>
+    <t xml:space="preserve">5.83207368850708</t>
   </si>
   <si>
     <t xml:space="preserve">5.67761278152466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57463836669922</t>
+    <t xml:space="preserve">5.57463884353638</t>
   </si>
   <si>
     <t xml:space="preserve">5.60272216796875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38273286819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39209413528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48102569580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5699577331543</t>
+    <t xml:space="preserve">5.38273239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39209365844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48102617263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56995725631714</t>
   </si>
   <si>
     <t xml:space="preserve">5.46230363845825</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">5.5793194770813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68229389190674</t>
+    <t xml:space="preserve">5.68229293823242</t>
   </si>
   <si>
     <t xml:space="preserve">5.82271194458008</t>
@@ -2459,16 +2459,16 @@
     <t xml:space="preserve">5.86951875686646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90696334838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85079622268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80398941040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84143495559692</t>
+    <t xml:space="preserve">5.90696382522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85079574584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80398988723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84143447875977</t>
   </si>
   <si>
     <t xml:space="preserve">5.93504762649536</t>
@@ -2477,25 +2477,25 @@
     <t xml:space="preserve">5.836754322052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94909000396729</t>
+    <t xml:space="preserve">5.94908952713013</t>
   </si>
   <si>
     <t xml:space="preserve">6.0286602973938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18312168121338</t>
+    <t xml:space="preserve">6.18312120437622</t>
   </si>
   <si>
     <t xml:space="preserve">6.25801134109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36098575592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22056579589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.126953125</t>
+    <t xml:space="preserve">6.36098527908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22056674957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12695360183716</t>
   </si>
   <si>
     <t xml:space="preserve">6.15503787994385</t>
@@ -2504,37 +2504,37 @@
     <t xml:space="preserve">6.37970781326294</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86181354522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25966787338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35796117782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4468936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7792181968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78389883041382</t>
+    <t xml:space="preserve">6.86181402206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25966835021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35796165466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44689321517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77921867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78389930725098</t>
   </si>
   <si>
     <t xml:space="preserve">7.88219261169434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00856971740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84006690979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7932596206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32519626617432</t>
+    <t xml:space="preserve">8.00857067108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84006643295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79326009750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32519674301147</t>
   </si>
   <si>
     <t xml:space="preserve">7.44221258163452</t>
@@ -2549,10 +2549,10 @@
     <t xml:space="preserve">7.45157384872437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4375319480896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27370929718018</t>
+    <t xml:space="preserve">7.43753242492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27370977401733</t>
   </si>
   <si>
     <t xml:space="preserve">7.31115484237671</t>
@@ -2579,10 +2579,10 @@
     <t xml:space="preserve">7.84474754333496</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73241233825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83538627624512</t>
+    <t xml:space="preserve">7.73241186141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83538675308228</t>
   </si>
   <si>
     <t xml:space="preserve">7.52646398544312</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">7.61539649963379</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2783899307251</t>
+    <t xml:space="preserve">7.27839088439941</t>
   </si>
   <si>
     <t xml:space="preserve">7.57795095443726</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41880989074707</t>
+    <t xml:space="preserve">7.41880941390991</t>
   </si>
   <si>
     <t xml:space="preserve">7.46561527252197</t>
@@ -2606,40 +2606,40 @@
     <t xml:space="preserve">7.38136434555054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69496726989746</t>
+    <t xml:space="preserve">7.6949667930603</t>
   </si>
   <si>
     <t xml:space="preserve">7.60135412216187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65284204483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6856050491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47965717315674</t>
+    <t xml:space="preserve">7.65284156799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68560600280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4796576499939</t>
   </si>
   <si>
     <t xml:space="preserve">7.33455801010132</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18477773666382</t>
+    <t xml:space="preserve">7.18477725982666</t>
   </si>
   <si>
     <t xml:space="preserve">6.65586566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66054630279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88989782333374</t>
+    <t xml:space="preserve">6.66054582595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88989734649658</t>
   </si>
   <si>
     <t xml:space="preserve">6.94606494903564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86649417877197</t>
+    <t xml:space="preserve">6.86649465560913</t>
   </si>
   <si>
     <t xml:space="preserve">6.91798114776611</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">7.1800971031189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.044358253479</t>
+    <t xml:space="preserve">7.04435873031616</t>
   </si>
   <si>
     <t xml:space="preserve">7.04903936386108</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9788293838501</t>
+    <t xml:space="preserve">6.97882986068726</t>
   </si>
   <si>
     <t xml:space="preserve">6.95074558258057</t>
@@ -2666,10 +2666,10 @@
     <t xml:space="preserve">6.82436847686768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98351001739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91330146789551</t>
+    <t xml:space="preserve">6.98351049423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91330099105835</t>
   </si>
   <si>
     <t xml:space="preserve">6.78224277496338</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">5.76186418533325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89760303497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84611558914185</t>
+    <t xml:space="preserve">5.89760255813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84611511230469</t>
   </si>
   <si>
     <t xml:space="preserve">5.59804201126099</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">5.228271484375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85850143432617</t>
+    <t xml:space="preserve">4.85850095748901</t>
   </si>
   <si>
     <t xml:space="preserve">4.69935941696167</t>
@@ -2711,25 +2711,25 @@
     <t xml:space="preserve">4.30384588241577</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89897060394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74450945854187</t>
+    <t xml:space="preserve">3.89897036552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74450969696045</t>
   </si>
   <si>
     <t xml:space="preserve">3.39346194267273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29516839981079</t>
+    <t xml:space="preserve">3.29516816139221</t>
   </si>
   <si>
     <t xml:space="preserve">3.25304269790649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29750895500183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51983904838562</t>
+    <t xml:space="preserve">3.29750847816467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51983880996704</t>
   </si>
   <si>
     <t xml:space="preserve">4.08151531219482</t>
@@ -2738,34 +2738,34 @@
     <t xml:space="preserve">3.94811749458313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69302248954773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5806872844696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75153064727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69770312309265</t>
+    <t xml:space="preserve">3.69302225112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58068752288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75153040885925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69770336151123</t>
   </si>
   <si>
     <t xml:space="preserve">3.79131579399109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70238375663757</t>
+    <t xml:space="preserve">3.70238351821899</t>
   </si>
   <si>
     <t xml:space="preserve">3.88024806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82408022880554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15640544891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11896085739136</t>
+    <t xml:space="preserve">3.82407999038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15640592575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1189603805542</t>
   </si>
   <si>
     <t xml:space="preserve">4.47936916351318</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">4.10023784637451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26406049728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18448925018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58702373504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55425930023193</t>
+    <t xml:space="preserve">4.26406002044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18448877334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58702421188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55425977706909</t>
   </si>
   <si>
     <t xml:space="preserve">4.45596647262573</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">4.36235332489014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35767364501953</t>
+    <t xml:space="preserve">4.35767269134521</t>
   </si>
   <si>
     <t xml:space="preserve">4.41852140426636</t>
@@ -2804,28 +2804,28 @@
     <t xml:space="preserve">4.45128583908081</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40447950363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39979839324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2687406539917</t>
+    <t xml:space="preserve">4.40447902679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39979791641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26874113082886</t>
   </si>
   <si>
     <t xml:space="preserve">4.77424955368042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62446975708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58234310150146</t>
+    <t xml:space="preserve">4.62446928024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58234357833862</t>
   </si>
   <si>
     <t xml:space="preserve">4.48405027389526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52149534225464</t>
+    <t xml:space="preserve">4.52149486541748</t>
   </si>
   <si>
     <t xml:space="preserve">4.85616064071655</t>
@@ -2834,19 +2834,19 @@
     <t xml:space="preserve">5.0667896270752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00828123092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99658012390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16040229797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30082082748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34762763977051</t>
+    <t xml:space="preserve">5.00828170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99658060073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16040182113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30082130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34762811660767</t>
   </si>
   <si>
     <t xml:space="preserve">5.60506248474121</t>
@@ -2855,10 +2855,10 @@
     <t xml:space="preserve">5.46464395523071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27741813659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04338645935059</t>
+    <t xml:space="preserve">5.27741765975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04338550567627</t>
   </si>
   <si>
     <t xml:space="preserve">5.13699913024902</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">5.31252288818359</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4295392036438</t>
+    <t xml:space="preserve">5.42953872680664</t>
   </si>
   <si>
     <t xml:space="preserve">5.37103080749512</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">5.51144981384277</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3242244720459</t>
+    <t xml:space="preserve">5.32422399520874</t>
   </si>
   <si>
     <t xml:space="preserve">5.26571655273438</t>
@@ -2888,25 +2888,25 @@
     <t xml:space="preserve">5.39443397521973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35932922363281</t>
+    <t xml:space="preserve">5.35932970046997</t>
   </si>
   <si>
     <t xml:space="preserve">5.20720815658569</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03168487548828</t>
+    <t xml:space="preserve">5.03168439865112</t>
   </si>
   <si>
     <t xml:space="preserve">5.12529754638672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23061180114746</t>
+    <t xml:space="preserve">5.23061227798462</t>
   </si>
   <si>
     <t xml:space="preserve">5.17210388183594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3359260559082</t>
+    <t xml:space="preserve">5.33592557907104</t>
   </si>
   <si>
     <t xml:space="preserve">5.18380546569824</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">5.218909740448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24231386184692</t>
+    <t xml:space="preserve">5.24231338500977</t>
   </si>
   <si>
     <t xml:space="preserve">5.44124031066895</t>
@@ -2927,13 +2927,13 @@
     <t xml:space="preserve">5.14870023727417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19550657272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07849168777466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05508756637573</t>
+    <t xml:space="preserve">5.19550704956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0784912109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05508804321289</t>
   </si>
   <si>
     <t xml:space="preserve">5.09019231796265</t>
@@ -2945,40 +2945,40 @@
     <t xml:space="preserve">5.01998281478882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10189342498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11359596252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68063688278198</t>
+    <t xml:space="preserve">5.10189390182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11359643936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68063640594482</t>
   </si>
   <si>
     <t xml:space="preserve">4.28278207778931</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30618572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17044687271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39511775970459</t>
+    <t xml:space="preserve">4.30618619918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17044734954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39511823654175</t>
   </si>
   <si>
     <t xml:space="preserve">4.43724346160889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71574115753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66357088088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74548149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88590049743652</t>
+    <t xml:space="preserve">4.71574211120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66357040405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74548196792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88590097427368</t>
   </si>
   <si>
     <t xml:space="preserve">5.86249780654907</t>
@@ -2990,19 +2990,19 @@
     <t xml:space="preserve">5.76888513565063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79228830337524</t>
+    <t xml:space="preserve">5.79228782653809</t>
   </si>
   <si>
     <t xml:space="preserve">6.02631998062134</t>
   </si>
   <si>
-    <t xml:space="preserve">5.827392578125</t>
+    <t xml:space="preserve">5.82739305496216</t>
   </si>
   <si>
     <t xml:space="preserve">5.94440889358521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28375482559204</t>
+    <t xml:space="preserve">6.2837553024292</t>
   </si>
   <si>
     <t xml:space="preserve">6.09652948379517</t>
@@ -3011,13 +3011,13 @@
     <t xml:space="preserve">6.08482789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00291681289673</t>
+    <t xml:space="preserve">6.00291728973389</t>
   </si>
   <si>
     <t xml:space="preserve">6.04972314834595</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22524690628052</t>
+    <t xml:space="preserve">6.22524738311768</t>
   </si>
   <si>
     <t xml:space="preserve">6.33056116104126</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">6.26035165786743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2954568862915</t>
+    <t xml:space="preserve">6.29545640945435</t>
   </si>
   <si>
     <t xml:space="preserve">6.31885957717896</t>
@@ -3035,13 +3035,13 @@
     <t xml:space="preserve">6.21354532241821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27205324172974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35396432876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49438381195068</t>
+    <t xml:space="preserve">6.27205371856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35396480560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49438333511353</t>
   </si>
   <si>
     <t xml:space="preserve">6.45927906036377</t>
@@ -3059,16 +3059,16 @@
     <t xml:space="preserve">6.68160915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70501232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75181818008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72841596603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77522230148315</t>
+    <t xml:space="preserve">6.70501184463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75181913375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72841548919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.775221824646</t>
   </si>
   <si>
     <t xml:space="preserve">6.55289125442505</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">6.34226322174072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56459283828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64650392532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81032705307007</t>
+    <t xml:space="preserve">6.56459331512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64650440216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81032657623291</t>
   </si>
   <si>
     <t xml:space="preserve">6.65820598602295</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93904447555542</t>
+    <t xml:space="preserve">6.9390435218811</t>
   </si>
   <si>
     <t xml:space="preserve">6.90393972396851</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83373022079468</t>
+    <t xml:space="preserve">6.83372974395752</t>
   </si>
   <si>
     <t xml:space="preserve">6.85713291168213</t>
@@ -3113,16 +3113,16 @@
     <t xml:space="preserve">6.92734289169312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84543085098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5411901473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51778697967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47098064422607</t>
+    <t xml:space="preserve">6.84543180465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54118967056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51778745651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47098016738892</t>
   </si>
   <si>
     <t xml:space="preserve">6.52948808670044</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">7.02095556259155</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95708322525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94538068771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42514705657959</t>
+    <t xml:space="preserve">7.95708274841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9453821182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42514610290527</t>
   </si>
   <si>
     <t xml:space="preserve">8.35493659973145</t>
@@ -3149,40 +3149,40 @@
     <t xml:space="preserve">8.19111442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16771125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23792171478271</t>
+    <t xml:space="preserve">8.16771221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2379207611084</t>
   </si>
   <si>
     <t xml:space="preserve">8.20281600952148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30813121795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28472709655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21451663970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17941284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10920429229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26132488250732</t>
+    <t xml:space="preserve">8.30813026428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28472805023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21451759338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17941379547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10920333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26132392883301</t>
   </si>
   <si>
     <t xml:space="preserve">8.49535655975342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48365497589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47195243835449</t>
+    <t xml:space="preserve">8.4836540222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47195339202881</t>
   </si>
   <si>
     <t xml:space="preserve">8.51875972747803</t>
@@ -3191,7 +3191,7 @@
     <t xml:space="preserve">8.4602518081665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33153343200684</t>
+    <t xml:space="preserve">8.33153247833252</t>
   </si>
   <si>
     <t xml:space="preserve">8.29642963409424</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">8.53046131134033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41344451904297</t>
+    <t xml:space="preserve">8.41344547271729</t>
   </si>
   <si>
     <t xml:space="preserve">8.34323501586914</t>
@@ -3212,34 +3212,34 @@
     <t xml:space="preserve">8.2496223449707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39004135131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12090396881104</t>
+    <t xml:space="preserve">8.39004230499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12090492248535</t>
   </si>
   <si>
     <t xml:space="preserve">8.13260650634766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01559066772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09750175476074</t>
+    <t xml:space="preserve">8.01558971405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09750080108643</t>
   </si>
   <si>
     <t xml:space="preserve">7.99218845367432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0389928817749</t>
+    <t xml:space="preserve">8.03899383544922</t>
   </si>
   <si>
     <t xml:space="preserve">8.56556415557861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36127376556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1974515914917</t>
+    <t xml:space="preserve">9.36127281188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19745254516602</t>
   </si>
   <si>
     <t xml:space="preserve">9.40808010101318</t>
@@ -3248,10 +3248,10 @@
     <t xml:space="preserve">9.68891906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86615371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81889247894287</t>
+    <t xml:space="preserve">9.86615562438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81889152526855</t>
   </si>
   <si>
     <t xml:space="preserve">9.99612808227539</t>
@@ -3293,25 +3293,25 @@
     <t xml:space="preserve">10.6341791152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5987310409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9768362045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7050724029541</t>
+    <t xml:space="preserve">10.5987319946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9768352508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7050733566284</t>
   </si>
   <si>
     <t xml:space="preserve">10.6105480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269691467285</t>
+    <t xml:space="preserve">10.3269701004028</t>
   </si>
   <si>
     <t xml:space="preserve">10.4923896789551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6223640441895</t>
+    <t xml:space="preserve">10.6223630905151</t>
   </si>
   <si>
     <t xml:space="preserve">10.2797060012817</t>
@@ -3320,13 +3320,13 @@
     <t xml:space="preserve">10.1733636856079</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2442598342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3742332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2915210723877</t>
+    <t xml:space="preserve">10.2442588806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3742322921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.291522026062</t>
   </si>
   <si>
     <t xml:space="preserve">10.3151540756226</t>
@@ -3338,16 +3338,16 @@
     <t xml:space="preserve">10.4805736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4451274871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7168884277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4096794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560758590698</t>
+    <t xml:space="preserve">10.4451265335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7168893814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4096784591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560749053955</t>
   </si>
   <si>
     <t xml:space="preserve">10.6459941864014</t>
@@ -3356,37 +3356,37 @@
     <t xml:space="preserve">10.3978633880615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3624153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.437650680542</t>
+    <t xml:space="preserve">10.3624172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4376497268677</t>
   </si>
   <si>
     <t xml:space="preserve">11.7590379714966</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1673908233643</t>
+    <t xml:space="preserve">12.1673917770386</t>
   </si>
   <si>
     <t xml:space="preserve">12.163610458374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0048055648804</t>
+    <t xml:space="preserve">12.0048065185547</t>
   </si>
   <si>
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968492507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6815280914307</t>
+    <t xml:space="preserve">11.7968482971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6815271377563</t>
   </si>
   <si>
     <t xml:space="preserve">11.834659576416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7023229598999</t>
+    <t xml:space="preserve">11.7023239135742</t>
   </si>
   <si>
     <t xml:space="preserve">11.6077966690063</t>
@@ -3401,31 +3401,31 @@
     <t xml:space="preserve">11.6456069946289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7212285995483</t>
+    <t xml:space="preserve">11.721227645874</t>
   </si>
   <si>
     <t xml:space="preserve">12.3640050888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1182374954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3261957168579</t>
+    <t xml:space="preserve">12.118236541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3261947631836</t>
   </si>
   <si>
     <t xml:space="preserve">12.3072900772095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5152473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5719623565674</t>
+    <t xml:space="preserve">12.5152463912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5719633102417</t>
   </si>
   <si>
     <t xml:space="preserve">12.1560468673706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2147388458252</t>
+    <t xml:space="preserve">13.2147397994995</t>
   </si>
   <si>
     <t xml:space="preserve">13.9142322540283</t>
@@ -3440,7 +3440,7 @@
     <t xml:space="preserve">13.4416027069092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.800802230835</t>
+    <t xml:space="preserve">13.8008012771606</t>
   </si>
   <si>
     <t xml:space="preserve">14.1221885681152</t>
@@ -3449,10 +3449,10 @@
     <t xml:space="preserve">14.027663230896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9540176391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3490524291992</t>
+    <t xml:space="preserve">14.9540185928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3490514755249</t>
   </si>
   <si>
     <t xml:space="preserve">14.0465679168701</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">13.7062749862671</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0654735565186</t>
+    <t xml:space="preserve">14.0654745101929</t>
   </si>
   <si>
     <t xml:space="preserve">13.7251806259155</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">13.3281707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7610149383545</t>
+    <t xml:space="preserve">12.7610139846802</t>
   </si>
   <si>
     <t xml:space="preserve">13.2525501251221</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">13.3848867416382</t>
   </si>
   <si>
-    <t xml:space="preserve">13.176929473877</t>
+    <t xml:space="preserve">13.1769285202026</t>
   </si>
   <si>
     <t xml:space="preserve">13.6684646606445</t>
@@ -3497,13 +3497,13 @@
     <t xml:space="preserve">15.7858486175537</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8425636291504</t>
+    <t xml:space="preserve">15.8425626754761</t>
   </si>
   <si>
     <t xml:space="preserve">16.1261405944824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9201583862305</t>
+    <t xml:space="preserve">16.9201602935791</t>
   </si>
   <si>
     <t xml:space="preserve">16.7311096191406</t>
@@ -3512,34 +3512,34 @@
     <t xml:space="preserve">16.9012546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.61767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7122039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3719100952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1450462341309</t>
+    <t xml:space="preserve">16.6176776885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7122020721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3719081878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1450481414795</t>
   </si>
   <si>
     <t xml:space="preserve">16.504243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3530044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2584800720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614702224731</t>
+    <t xml:space="preserve">16.3530025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2584781646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614683151245</t>
   </si>
   <si>
     <t xml:space="preserve">15.8047523498535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2395725250244</t>
+    <t xml:space="preserve">16.239574432373</t>
   </si>
   <si>
     <t xml:space="preserve">16.0883312225342</t>
@@ -3551,25 +3551,25 @@
     <t xml:space="preserve">15.2375974655151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7460622787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8216819763184</t>
+    <t xml:space="preserve">14.7460613250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8216829299927</t>
   </si>
   <si>
     <t xml:space="preserve">14.5570087432861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9331369400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9520435333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.630654335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2356204986572</t>
+    <t xml:space="preserve">13.9331378936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9520425796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6306533813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2356214523315</t>
   </si>
   <si>
     <t xml:space="preserve">14.3679571151733</t>
@@ -3578,43 +3578,43 @@
     <t xml:space="preserve">14.481388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">14.197811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271556854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4624834060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1032838821411</t>
+    <t xml:space="preserve">14.1978101730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271566390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4624843597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1032848358154</t>
   </si>
   <si>
     <t xml:space="preserve">14.084379196167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5550336837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8386106491089</t>
+    <t xml:space="preserve">13.5550327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8386116027832</t>
   </si>
   <si>
     <t xml:space="preserve">13.6873693466187</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6495580673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2734317779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4435768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6137256622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.594820022583</t>
+    <t xml:space="preserve">13.6495590209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2734308242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4435777664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6137247085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5948190689087</t>
   </si>
   <si>
     <t xml:space="preserve">14.4246730804443</t>
@@ -3623,34 +3623,34 @@
     <t xml:space="preserve">13.2336444854736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4226961135864</t>
+    <t xml:space="preserve">13.4226970672607</t>
   </si>
   <si>
     <t xml:space="preserve">13.3470764160156</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7440853118896</t>
+    <t xml:space="preserve">13.744086265564</t>
   </si>
   <si>
     <t xml:space="preserve">12.4774360656738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6664876937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4794130325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7629919052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1013088226318</t>
+    <t xml:space="preserve">12.6664886474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4794120788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7629909515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1013078689575</t>
   </si>
   <si>
     <t xml:space="preserve">12.1749534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9122562408447</t>
+    <t xml:space="preserve">12.9122552871704</t>
   </si>
   <si>
     <t xml:space="preserve">12.6097726821899</t>
@@ -3662,7 +3662,7 @@
     <t xml:space="preserve">12.4018154144287</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2127628326416</t>
+    <t xml:space="preserve">12.2127637863159</t>
   </si>
   <si>
     <t xml:space="preserve">11.9291858673096</t>
@@ -3671,16 +3671,16 @@
     <t xml:space="preserve">11.8535652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2694787979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0426168441772</t>
+    <t xml:space="preserve">12.2694797515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0426158905029</t>
   </si>
   <si>
     <t xml:space="preserve">12.288384437561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.23166847229</t>
+    <t xml:space="preserve">12.2316675186157</t>
   </si>
   <si>
     <t xml:space="preserve">11.2675037384033</t>
@@ -3698,22 +3698,22 @@
     <t xml:space="preserve">12.0804271697998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6645135879517</t>
+    <t xml:space="preserve">11.6645126342773</t>
   </si>
   <si>
     <t xml:space="preserve">12.9500665664673</t>
   </si>
   <si>
-    <t xml:space="preserve">13.006781578064</t>
+    <t xml:space="preserve">13.0067825317383</t>
   </si>
   <si>
     <t xml:space="preserve">13.0824031829834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.51722240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6212005615234</t>
+    <t xml:space="preserve">13.5172233581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6212015151978</t>
   </si>
   <si>
     <t xml:space="preserve">13.6590118408203</t>
@@ -3722,19 +3722,19 @@
     <t xml:space="preserve">12.9973297119141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9406147003174</t>
+    <t xml:space="preserve">12.9406137466431</t>
   </si>
   <si>
     <t xml:space="preserve">12.7042989730835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6759414672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7893714904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6192264556885</t>
+    <t xml:space="preserve">12.6759405136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7893724441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6192255020142</t>
   </si>
   <si>
     <t xml:space="preserve">12.6003198623657</t>
@@ -3755,16 +3755,16 @@
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0237112045288</t>
+    <t xml:space="preserve">12.6286783218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0237121582031</t>
   </si>
   <si>
     <t xml:space="preserve">12.146595954895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8630170822144</t>
+    <t xml:space="preserve">11.8630180358887</t>
   </si>
   <si>
     <t xml:space="preserve">11.8063011169434</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">11.5416288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8799467086792</t>
+    <t xml:space="preserve">10.8799457550049</t>
   </si>
   <si>
     <t xml:space="preserve">11.0028305053711</t>
@@ -3782,7 +3782,7 @@
     <t xml:space="preserve">11.3431243896484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8252077102661</t>
+    <t xml:space="preserve">11.8252067565918</t>
   </si>
   <si>
     <t xml:space="preserve">11.6834173202515</t>
@@ -3797,31 +3797,31 @@
     <t xml:space="preserve">11.6518430709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8151416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8247480392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.940016746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4107007980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1129217147827</t>
+    <t xml:space="preserve">11.8151407241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8247470855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9400177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.410701751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1129207611084</t>
   </si>
   <si>
     <t xml:space="preserve">11.920804977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.016863822937</t>
+    <t xml:space="preserve">12.0168628692627</t>
   </si>
   <si>
     <t xml:space="preserve">12.2377967834473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050384521484</t>
+    <t xml:space="preserve">12.3050374984741</t>
   </si>
   <si>
     <t xml:space="preserve">12.4010953903198</t>
@@ -3833,7 +3833,7 @@
     <t xml:space="preserve">11.4116973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9890413284302</t>
+    <t xml:space="preserve">10.9890422821045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7969255447388</t>
@@ -3842,16 +3842,16 @@
     <t xml:space="preserve">11.2964277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8161382675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0658893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1235227584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2676105499268</t>
+    <t xml:space="preserve">10.8161373138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0658884048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1235237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2676095962524</t>
   </si>
   <si>
     <t xml:space="preserve">11.1619462966919</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">11.7479000091553</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382946014404</t>
+    <t xml:space="preserve">11.7382955551147</t>
   </si>
   <si>
     <t xml:space="preserve">11.6134195327759</t>
@@ -3887,19 +3887,19 @@
     <t xml:space="preserve">12.6604528427124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8141450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198093414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9678382873535</t>
+    <t xml:space="preserve">12.8141460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198083877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9678373336792</t>
   </si>
   <si>
     <t xml:space="preserve">12.823751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8045387268066</t>
+    <t xml:space="preserve">12.804539680481</t>
   </si>
   <si>
     <t xml:space="preserve">13.0446844100952</t>
@@ -3908,7 +3908,7 @@
     <t xml:space="preserve">13.1311368942261</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2848291397095</t>
+    <t xml:space="preserve">13.2848300933838</t>
   </si>
   <si>
     <t xml:space="preserve">13.4577341079712</t>
@@ -3917,13 +3917,13 @@
     <t xml:space="preserve">13.7651205062866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.91881275177</t>
+    <t xml:space="preserve">13.9188117980957</t>
   </si>
   <si>
     <t xml:space="preserve">13.8611783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9092063903809</t>
+    <t xml:space="preserve">13.9092073440552</t>
   </si>
   <si>
     <t xml:space="preserve">14.0052652359009</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">13.957236289978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0436878204346</t>
+    <t xml:space="preserve">14.0436887741089</t>
   </si>
   <si>
     <t xml:space="preserve">13.976448059082</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">13.938024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6018218994141</t>
+    <t xml:space="preserve">13.6018209457397</t>
   </si>
   <si>
     <t xml:space="preserve">13.2752237319946</t>
@@ -3971,31 +3971,31 @@
     <t xml:space="preserve">13.1983766555786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1023197174072</t>
+    <t xml:space="preserve">13.1023187637329</t>
   </si>
   <si>
     <t xml:space="preserve">13.3232526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3040418624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3424654006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1503486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0062608718872</t>
+    <t xml:space="preserve">13.3040409088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3424644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1503477096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0062618255615</t>
   </si>
   <si>
     <t xml:space="preserve">12.7372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1695604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8621740341187</t>
+    <t xml:space="preserve">13.1695594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.862174987793</t>
   </si>
   <si>
     <t xml:space="preserve">12.8525686264038</t>
@@ -4010,7 +4010,7 @@
     <t xml:space="preserve">12.372278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0841045379639</t>
+    <t xml:space="preserve">12.0841035842896</t>
   </si>
   <si>
     <t xml:space="preserve">11.9496221542358</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">11.3444566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7873201370239</t>
+    <t xml:space="preserve">10.7873191833496</t>
   </si>
   <si>
     <t xml:space="preserve">10.7777147293091</t>
@@ -4037,10 +4037,10 @@
     <t xml:space="preserve">10.7296848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8929834365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6240224838257</t>
+    <t xml:space="preserve">10.8929843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6240215301514</t>
   </si>
   <si>
     <t xml:space="preserve">11.2195816040039</t>
@@ -4055,16 +4055,16 @@
     <t xml:space="preserve">11.3636684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1907634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9025897979736</t>
+    <t xml:space="preserve">11.1907644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9025907516479</t>
   </si>
   <si>
     <t xml:space="preserve">11.0274648666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2099761962891</t>
+    <t xml:space="preserve">11.2099752426147</t>
   </si>
   <si>
     <t xml:space="preserve">11.5749959945679</t>
@@ -4073,7 +4073,7 @@
     <t xml:space="preserve">11.5365724563599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1321325302124</t>
+    <t xml:space="preserve">12.1321334838867</t>
   </si>
   <si>
     <t xml:space="preserve">12.2570085525513</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">12.0072574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3818836212158</t>
+    <t xml:space="preserve">12.3818845748901</t>
   </si>
   <si>
     <t xml:space="preserve">12.3914890289307</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">13.0158672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791667938232</t>
+    <t xml:space="preserve">13.1791658401489</t>
   </si>
   <si>
     <t xml:space="preserve">12.9582328796387</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">12.7469053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0542907714844</t>
+    <t xml:space="preserve">13.0542898178101</t>
   </si>
   <si>
     <t xml:space="preserve">13.3328590393066</t>
@@ -4130,25 +4130,25 @@
     <t xml:space="preserve">13.8131494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2165937423706</t>
+    <t xml:space="preserve">14.2165927886963</t>
   </si>
   <si>
     <t xml:space="preserve">14.1109285354614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284191131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6210327148438</t>
+    <t xml:space="preserve">13.9284181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6210336685181</t>
   </si>
   <si>
     <t xml:space="preserve">13.7747259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.841965675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0244779586792</t>
+    <t xml:space="preserve">13.8419666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0244770050049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5720081329346</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">13.8515720367432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6402435302734</t>
+    <t xml:space="preserve">13.6402444839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.5441865921021</t>
@@ -4196,7 +4196,7 @@
     <t xml:space="preserve">14.0628995895386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0340814590454</t>
+    <t xml:space="preserve">14.0340824127197</t>
   </si>
   <si>
     <t xml:space="preserve">14.370285987854</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">14.312650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3894968032837</t>
+    <t xml:space="preserve">14.389497756958</t>
   </si>
   <si>
     <t xml:space="preserve">14.0821113586426</t>
@@ -4220,25 +4220,25 @@
     <t xml:space="preserve">13.7170906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3991031646729</t>
+    <t xml:space="preserve">14.3991022109985</t>
   </si>
   <si>
     <t xml:space="preserve">14.8793926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1003265380859</t>
+    <t xml:space="preserve">15.1003274917603</t>
   </si>
   <si>
     <t xml:space="preserve">15.1675672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3500776290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3404722213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0234813690186</t>
+    <t xml:space="preserve">15.350076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3404731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0234804153442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0522985458374</t>
@@ -4256,7 +4256,7 @@
     <t xml:space="preserve">15.0619039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1291437149048</t>
+    <t xml:space="preserve">15.1291446685791</t>
   </si>
   <si>
     <t xml:space="preserve">15.0907211303711</t>
@@ -4268,13 +4268,13 @@
     <t xml:space="preserve">14.9850578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1387500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0138750076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1963844299316</t>
+    <t xml:space="preserve">15.1387510299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0138740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.196385383606</t>
   </si>
   <si>
     <t xml:space="preserve">15.4365301132202</t>
@@ -4283,7 +4283,7 @@
     <t xml:space="preserve">15.3116540908813</t>
   </si>
   <si>
-    <t xml:space="preserve">15.21559715271</t>
+    <t xml:space="preserve">15.2155961990356</t>
   </si>
   <si>
     <t xml:space="preserve">15.4557418823242</t>
@@ -4292,25 +4292,25 @@
     <t xml:space="preserve">14.68727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4855546951294</t>
+    <t xml:space="preserve">14.4855556488037</t>
   </si>
   <si>
     <t xml:space="preserve">14.8121528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922155380249</t>
+    <t xml:space="preserve">13.5922145843506</t>
   </si>
   <si>
     <t xml:space="preserve">11.7671117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.623025894165</t>
+    <t xml:space="preserve">11.6230249404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5173606872559</t>
+    <t xml:space="preserve">11.5173616409302</t>
   </si>
   <si>
     <t xml:space="preserve">11.526967048645</t>
@@ -4337,13 +4337,13 @@
     <t xml:space="preserve">11.3540620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4693326950073</t>
+    <t xml:space="preserve">11.469331741333</t>
   </si>
   <si>
     <t xml:space="preserve">11.2387933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3252449035645</t>
+    <t xml:space="preserve">11.3252458572388</t>
   </si>
   <si>
     <t xml:space="preserve">11.2772159576416</t>
@@ -4352,7 +4352,7 @@
     <t xml:space="preserve">11.113917350769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2003698348999</t>
+    <t xml:space="preserve">11.2003688812256</t>
   </si>
   <si>
     <t xml:space="preserve">11.1427354812622</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">10.6432332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5663862228394</t>
+    <t xml:space="preserve">10.5663871765137</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452299118042</t>
@@ -5007,6 +5007,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.98499965667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88500022888184</t>
   </si>
 </sst>
 </file>
@@ -61040,7 +61043,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6495833333</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>125812</v>
@@ -61061,6 +61064,32 @@
         <v>1664</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6504166667</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>271540</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>10.0299997329712</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>9.61499977111816</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>9.94999980926514</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>9.88500022888184</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -44,43 +44,43 @@
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19815945625305</t>
+    <t xml:space="preserve">2.19815969467163</t>
   </si>
   <si>
     <t xml:space="preserve">2.18187713623047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14388394355774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11945986747742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06789827346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10860466957092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09774971008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00819492340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03370475769043</t>
+    <t xml:space="preserve">2.14388418197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.119460105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06789803504944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1086049079895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09774994850159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00819516181946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03370499610901</t>
   </si>
   <si>
     <t xml:space="preserve">2.00765252113342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06247067451477</t>
+    <t xml:space="preserve">2.06247019767761</t>
   </si>
   <si>
     <t xml:space="preserve">2.06138515472412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04618787765503</t>
+    <t xml:space="preserve">2.04618811607361</t>
   </si>
   <si>
     <t xml:space="preserve">2.04564523696899</t>
@@ -89,58 +89,58 @@
     <t xml:space="preserve">2.10534834861755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04944443702698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06355595588684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02176380157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94035065174103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97020220756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98214292526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95663344860077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97563004493713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9593471288681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98919892311096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99896824359894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98648452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13845682144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11674618721008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13031530380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14062714576721</t>
+    <t xml:space="preserve">2.04944467544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.063556432724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02176403999329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94035077095032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97020208835602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98214268684387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95663356781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97562968730927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95934677124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98919868469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99896836280823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98648500442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13845634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11674642562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13031482696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14062738418579</t>
   </si>
   <si>
     <t xml:space="preserve">2.21986985206604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15473937988281</t>
+    <t xml:space="preserve">2.15473866462708</t>
   </si>
   <si>
     <t xml:space="preserve">2.18676161766052</t>
@@ -152,16 +152,16 @@
     <t xml:space="preserve">2.19164657592773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1927318572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20087337493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19544577598572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19870209693909</t>
+    <t xml:space="preserve">2.19273209571838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20087361335754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19544529914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19870233535767</t>
   </si>
   <si>
     <t xml:space="preserve">2.21607065200806</t>
@@ -170,46 +170,46 @@
     <t xml:space="preserve">2.23072457313538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27143144607544</t>
+    <t xml:space="preserve">2.27143120765686</t>
   </si>
   <si>
     <t xml:space="preserve">2.20358681678772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19218897819519</t>
+    <t xml:space="preserve">2.19218921661377</t>
   </si>
   <si>
     <t xml:space="preserve">2.17644929885864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15202522277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13302874565125</t>
+    <t xml:space="preserve">2.1520254611969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13302898406982</t>
   </si>
   <si>
     <t xml:space="preserve">2.11783170700073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16830825805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18730449676514</t>
+    <t xml:space="preserve">2.16830801963806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18730425834656</t>
   </si>
   <si>
     <t xml:space="preserve">2.1710216999054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1601665019989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11131858825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09829258918762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11403226852417</t>
+    <t xml:space="preserve">2.16016674041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11131882667542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09829235076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11403250694275</t>
   </si>
   <si>
     <t xml:space="preserve">2.11457514762878</t>
@@ -218,100 +218,100 @@
     <t xml:space="preserve">2.16505146026611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17156481742859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20901465415955</t>
+    <t xml:space="preserve">2.17156457901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2090151309967</t>
   </si>
   <si>
     <t xml:space="preserve">2.20304441452026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22529745101929</t>
+    <t xml:space="preserve">2.22529721260071</t>
   </si>
   <si>
     <t xml:space="preserve">2.29314160346985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30128335952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34470319747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30725336074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27360224723816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26329040527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27414536476135</t>
+    <t xml:space="preserve">2.30128312110901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34470343589783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30725359916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27360272407532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26328992843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27414560317993</t>
   </si>
   <si>
     <t xml:space="preserve">2.29585552215576</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28011560440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3718409538269</t>
+    <t xml:space="preserve">2.28011536598206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37184143066406</t>
   </si>
   <si>
     <t xml:space="preserve">2.40060710906982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37726902961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50318789482117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55800628662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57320356369019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62205147743225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58568692207336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67307066917419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72425103187561</t>
+    <t xml:space="preserve">2.37726855278015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50318765640259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55800652503967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57320332527161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62205171585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58568668365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67307019233704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72425127029419</t>
   </si>
   <si>
     <t xml:space="preserve">2.72591996192932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76096796989441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7470600605011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78155064582825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85498380661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87723612785339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02410244941711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05525541305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06860709190369</t>
+    <t xml:space="preserve">2.76096773147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74705958366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78155088424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85498404502869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87723684310913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02410221099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.055255651474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06860685348511</t>
   </si>
   <si>
     <t xml:space="preserve">3.01075077056885</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">2.90393924713135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98182249069214</t>
+    <t xml:space="preserve">2.98182272911072</t>
   </si>
   <si>
     <t xml:space="preserve">2.97069668769836</t>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">2.96179580688477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88168668746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82605600357056</t>
+    <t xml:space="preserve">2.88168692588806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82605576515198</t>
   </si>
   <si>
     <t xml:space="preserve">2.79712748527527</t>
@@ -341,19 +341,19 @@
     <t xml:space="preserve">2.75484800338745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84830856323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92841672897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04857993125916</t>
+    <t xml:space="preserve">2.84830832481384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92841696739197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04858016967773</t>
   </si>
   <si>
     <t xml:space="preserve">2.91061496734619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83718228340149</t>
+    <t xml:space="preserve">2.83718204498291</t>
   </si>
   <si>
     <t xml:space="preserve">2.92619180679321</t>
@@ -362,16 +362,16 @@
     <t xml:space="preserve">2.98404788970947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03745365142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05748057365417</t>
+    <t xml:space="preserve">3.0374538898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05748081207275</t>
   </si>
   <si>
     <t xml:space="preserve">3.03967905044556</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06415700912476</t>
+    <t xml:space="preserve">3.06415677070618</t>
   </si>
   <si>
     <t xml:space="preserve">3.04412937164307</t>
@@ -380,10 +380,10 @@
     <t xml:space="preserve">3.10198569297791</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11533737182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13758969306946</t>
+    <t xml:space="preserve">3.11533689498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13758945465088</t>
   </si>
   <si>
     <t xml:space="preserve">3.22659945487976</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">3.37123942375183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38014054298401</t>
+    <t xml:space="preserve">3.38014078140259</t>
   </si>
   <si>
     <t xml:space="preserve">3.41574454307556</t>
@@ -401,10 +401,10 @@
     <t xml:space="preserve">3.36456418037415</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3601131439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33341026306152</t>
+    <t xml:space="preserve">3.36011362075806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33341097831726</t>
   </si>
   <si>
     <t xml:space="preserve">3.31560873985291</t>
@@ -413,43 +413,43 @@
     <t xml:space="preserve">3.36233901977539</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35121297836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32896018028259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33786153793335</t>
+    <t xml:space="preserve">3.35121250152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32896065711975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33786106109619</t>
   </si>
   <si>
     <t xml:space="preserve">3.24440097808838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32673525810242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33118534088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40461826324463</t>
+    <t xml:space="preserve">3.32673478126526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33118557929993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40461850166321</t>
   </si>
   <si>
     <t xml:space="preserve">3.42464566230774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4179699420929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39794278144836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35788798332214</t>
+    <t xml:space="preserve">3.41796970367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39794301986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35788869857788</t>
   </si>
   <si>
     <t xml:space="preserve">3.34453678131104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42687058448792</t>
+    <t xml:space="preserve">3.42687082290649</t>
   </si>
   <si>
     <t xml:space="preserve">3.39349222183228</t>
@@ -461,16 +461,16 @@
     <t xml:space="preserve">3.38681650161743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38236570358276</t>
+    <t xml:space="preserve">3.38236618041992</t>
   </si>
   <si>
     <t xml:space="preserve">3.21992349624634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25997734069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28000473976135</t>
+    <t xml:space="preserve">3.2599778175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28000497817993</t>
   </si>
   <si>
     <t xml:space="preserve">3.32228446006775</t>
@@ -479,16 +479,16 @@
     <t xml:space="preserve">3.27110409736633</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2933566570282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15984153747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40684366226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33563566207886</t>
+    <t xml:space="preserve">3.29335641860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15984201431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40684390068054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33563590049744</t>
   </si>
   <si>
     <t xml:space="preserve">3.27555465698242</t>
@@ -497,67 +497,67 @@
     <t xml:space="preserve">3.44689798355103</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50697946548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67164778709412</t>
+    <t xml:space="preserve">3.5069797039032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67164754867554</t>
   </si>
   <si>
     <t xml:space="preserve">3.76065683364868</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86969351768494</t>
+    <t xml:space="preserve">3.86969375610352</t>
   </si>
   <si>
     <t xml:space="preserve">3.99430775642395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09889316558838</t>
+    <t xml:space="preserve">4.09889364242554</t>
   </si>
   <si>
     <t xml:space="preserve">4.18345260620117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08331775665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04548740386963</t>
+    <t xml:space="preserve">4.08331680297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04548835754395</t>
   </si>
   <si>
     <t xml:space="preserve">4.20570516586304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28581428527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43267965316772</t>
+    <t xml:space="preserve">4.28581380844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43267917633057</t>
   </si>
   <si>
     <t xml:space="preserve">4.32809352874756</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35702133178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57286977767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79316854476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75979042053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74866390228271</t>
+    <t xml:space="preserve">4.35702180862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57286930084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79316902160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75978994369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74866437911987</t>
   </si>
   <si>
     <t xml:space="preserve">4.86437654495239</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06242322921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05129718780518</t>
+    <t xml:space="preserve">5.06242275238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05129671096802</t>
   </si>
   <si>
     <t xml:space="preserve">4.82432222366333</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">4.8465747833252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84212398529053</t>
+    <t xml:space="preserve">4.84212446212769</t>
   </si>
   <si>
     <t xml:space="preserve">4.74643898010254</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6730055809021</t>
+    <t xml:space="preserve">4.67300605773926</t>
   </si>
   <si>
     <t xml:space="preserve">4.47050857543945</t>
@@ -581,19 +581,19 @@
     <t xml:space="preserve">4.44603109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43712997436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32141780853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28358936309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17900276184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31919240951538</t>
+    <t xml:space="preserve">4.43712949752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32141733169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28358888626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17900228500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31919288635254</t>
   </si>
   <si>
     <t xml:space="preserve">4.33921957015991</t>
@@ -605,34 +605,34 @@
     <t xml:space="preserve">4.45048141479492</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43490552902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76201486587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73976230621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73753881454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71751070022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75088882446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82654762268066</t>
+    <t xml:space="preserve">4.43490505218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7620153427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73976278305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73753833770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71751022338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75088930130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82654809951782</t>
   </si>
   <si>
     <t xml:space="preserve">4.69525814056396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76646518707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6908073425293</t>
+    <t xml:space="preserve">4.76646614074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69080781936646</t>
   </si>
   <si>
     <t xml:space="preserve">4.61069917678833</t>
@@ -644,19 +644,19 @@
     <t xml:space="preserve">4.83767366409302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74421310424805</t>
+    <t xml:space="preserve">4.74421358108521</t>
   </si>
   <si>
     <t xml:space="preserve">4.89107894897461</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87995290756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85102415084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87105178833008</t>
+    <t xml:space="preserve">4.87995386123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85102558135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87105226516724</t>
   </si>
   <si>
     <t xml:space="preserve">5.21151399612427</t>
@@ -665,43 +665,43 @@
     <t xml:space="preserve">5.50524568557739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40733480453491</t>
+    <t xml:space="preserve">5.40733528137207</t>
   </si>
   <si>
     <t xml:space="preserve">5.36728143692017</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34502840042114</t>
+    <t xml:space="preserve">5.34502792358398</t>
   </si>
   <si>
     <t xml:space="preserve">5.34280347824097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31832504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14698219299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22263956069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34057760238647</t>
+    <t xml:space="preserve">5.31832551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14698266983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22264003753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34057855606079</t>
   </si>
   <si>
     <t xml:space="preserve">5.39175891876221</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42736196517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28494691848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25824403762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17368507385254</t>
+    <t xml:space="preserve">5.4273624420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28494739532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25824356079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17368459701538</t>
   </si>
   <si>
     <t xml:space="preserve">5.01791763305664</t>
@@ -710,52 +710,52 @@
     <t xml:space="preserve">5.20261240005493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15143251419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22709035873413</t>
+    <t xml:space="preserve">5.15143299102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22709131240845</t>
   </si>
   <si>
     <t xml:space="preserve">5.21373891830444</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20483779907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24044227600098</t>
+    <t xml:space="preserve">5.20483827590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24044179916382</t>
   </si>
   <si>
     <t xml:space="preserve">5.22931623458862</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15588283538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06687355041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13808155059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09802675247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99344062805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97341299057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96228694915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9533863067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90665531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83989953994751</t>
+    <t xml:space="preserve">5.15588235855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06687307357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13808107376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09802627563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9934401512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97341346740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96228647232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95338678359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90665626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83989858627319</t>
   </si>
   <si>
     <t xml:space="preserve">4.89552974700928</t>
@@ -764,85 +764,85 @@
     <t xml:space="preserve">4.84880018234253</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86215114593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78426742553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92668294906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02681875228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25156879425049</t>
+    <t xml:space="preserve">4.86215162277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78426790237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.926682472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02681922912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25156927108765</t>
   </si>
   <si>
     <t xml:space="preserve">5.1959376335144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31165027618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23154067993164</t>
+    <t xml:space="preserve">5.31164979934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23154163360596</t>
   </si>
   <si>
     <t xml:space="preserve">5.2070631980896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41846132278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50302028656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53639888763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67436456680298</t>
+    <t xml:space="preserve">5.41846084594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50302076339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53639936447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67436408996582</t>
   </si>
   <si>
     <t xml:space="preserve">5.8078784942627</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76337337493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97254657745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04152870178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07490730285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24847650527954</t>
+    <t xml:space="preserve">5.76337385177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97254610061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04152917861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0749077796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24847602844238</t>
   </si>
   <si>
     <t xml:space="preserve">5.94139337539673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00815010070801</t>
+    <t xml:space="preserve">6.00815057754517</t>
   </si>
   <si>
     <t xml:space="preserve">5.88576221466064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.890212059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01927614212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02595233917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10828638076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23067474365234</t>
+    <t xml:space="preserve">5.89021253585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0192756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02595281600952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10828590393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23067378997803</t>
   </si>
   <si>
     <t xml:space="preserve">6.07935810089111</t>
@@ -851,97 +851,97 @@
     <t xml:space="preserve">6.12163782119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13721418380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11941242218018</t>
+    <t xml:space="preserve">6.13721370697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11941194534302</t>
   </si>
   <si>
     <t xml:space="preserve">6.1750431060791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19061946868896</t>
+    <t xml:space="preserve">6.19061994552612</t>
   </si>
   <si>
     <t xml:space="preserve">6.2173228263855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09493494033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20842123031616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27517938613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56446027755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40646839141846</t>
+    <t xml:space="preserve">6.09493446350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20842218399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27517890930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56446075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40646886825562</t>
   </si>
   <si>
     <t xml:space="preserve">6.67349720001221</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68684911727905</t>
+    <t xml:space="preserve">6.68684864044189</t>
   </si>
   <si>
     <t xml:space="preserve">6.7335786819458</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95387744903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05401420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16527557373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22090721130371</t>
+    <t xml:space="preserve">6.9538779258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05401372909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16527605056763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22090673446655</t>
   </si>
   <si>
     <t xml:space="preserve">7.27431201934814</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48126077651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28766345977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38334941864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38112306594849</t>
+    <t xml:space="preserve">7.4812593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28766393661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38334894180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3811240196228</t>
   </si>
   <si>
     <t xml:space="preserve">7.26986122131348</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45455598831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53911685943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52576446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44565534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46568298339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35442161560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60896492004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3641881942749</t>
+    <t xml:space="preserve">7.45455694198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53911590576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52576398849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44565629959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4656834602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35442066192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60896587371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36418867111206</t>
   </si>
   <si>
     <t xml:space="preserve">6.61564064025879</t>
@@ -953,22 +953,22 @@
     <t xml:space="preserve">6.758056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64011859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66682052612305</t>
+    <t xml:space="preserve">6.64011907577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66682195663452</t>
   </si>
   <si>
     <t xml:space="preserve">6.72245216369629</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66833019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70666694641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75853443145752</t>
+    <t xml:space="preserve">6.66832971572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70666646957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7585334777832</t>
   </si>
   <si>
     <t xml:space="preserve">6.69313621520996</t>
@@ -980,61 +980,61 @@
     <t xml:space="preserve">6.70215654373169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06973791122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91188049316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97276878356934</t>
+    <t xml:space="preserve">7.06973838806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91188097000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97276830673218</t>
   </si>
   <si>
     <t xml:space="preserve">6.55783033370972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72921752929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64803457260132</t>
+    <t xml:space="preserve">6.72921800613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64803409576416</t>
   </si>
   <si>
     <t xml:space="preserve">6.562340259552</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62999296188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49694204330444</t>
+    <t xml:space="preserve">6.6299934387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4969425201416</t>
   </si>
   <si>
     <t xml:space="preserve">6.47439098358154</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57587099075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46762561798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47213697433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5149827003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2962384223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27819776535034</t>
+    <t xml:space="preserve">6.57587051391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46762657165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47213649749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51498365402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29623889923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27819728851318</t>
   </si>
   <si>
     <t xml:space="preserve">6.2736873626709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08876895904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04366779327393</t>
+    <t xml:space="preserve">6.08876991271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04366731643677</t>
   </si>
   <si>
     <t xml:space="preserve">6.03239154815674</t>
@@ -1046,22 +1046,22 @@
     <t xml:space="preserve">5.91287136077881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09102487564087</t>
+    <t xml:space="preserve">6.09102392196655</t>
   </si>
   <si>
     <t xml:space="preserve">6.05043268203735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06396293640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07298421859741</t>
+    <t xml:space="preserve">6.06396341323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07298469543457</t>
   </si>
   <si>
     <t xml:space="preserve">5.96473932266235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97601461410522</t>
+    <t xml:space="preserve">5.97601413726807</t>
   </si>
   <si>
     <t xml:space="preserve">6.1203408241272</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">5.82266759872437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62872838973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59039306640625</t>
+    <t xml:space="preserve">5.62872886657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59039258956909</t>
   </si>
   <si>
     <t xml:space="preserve">5.73246383666992</t>
@@ -1085,16 +1085,16 @@
     <t xml:space="preserve">5.88806533813477</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02111721038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84070825576782</t>
+    <t xml:space="preserve">6.02111673355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84070873260498</t>
   </si>
   <si>
     <t xml:space="preserve">5.84747362136841</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71442270278931</t>
+    <t xml:space="preserve">5.71442317962646</t>
   </si>
   <si>
     <t xml:space="preserve">5.68059682846069</t>
@@ -1106,61 +1106,61 @@
     <t xml:space="preserve">5.66706562042236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56333112716675</t>
+    <t xml:space="preserve">5.56333160400391</t>
   </si>
   <si>
     <t xml:space="preserve">5.57009649276733</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51822853088379</t>
+    <t xml:space="preserve">5.51822948455811</t>
   </si>
   <si>
     <t xml:space="preserve">5.53852510452271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61294269561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68285131454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6016674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64902496337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5791163444519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53176021575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61068773269653</t>
+    <t xml:space="preserve">5.61294317245483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68285179138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60166788101196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64902544021606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57911682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53175973892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61068820953369</t>
   </si>
   <si>
     <t xml:space="preserve">5.69187164306641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86551475524902</t>
+    <t xml:space="preserve">5.86551523208618</t>
   </si>
   <si>
     <t xml:space="preserve">5.78884124755859</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93091201782227</t>
+    <t xml:space="preserve">5.93091249465942</t>
   </si>
   <si>
     <t xml:space="preserve">5.99856567382812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85649394989014</t>
+    <t xml:space="preserve">5.85649490356445</t>
   </si>
   <si>
     <t xml:space="preserve">6.21956491470337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10004472732544</t>
+    <t xml:space="preserve">6.10004425048828</t>
   </si>
   <si>
     <t xml:space="preserve">5.93316745758057</t>
@@ -1175,61 +1175,61 @@
     <t xml:space="preserve">5.64225959777832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59941291809082</t>
+    <t xml:space="preserve">5.59941244125366</t>
   </si>
   <si>
     <t xml:space="preserve">5.61519861221313</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47989225387573</t>
+    <t xml:space="preserve">5.47989273071289</t>
   </si>
   <si>
     <t xml:space="preserve">5.41449499130249</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34458684921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35586214065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36939191818237</t>
+    <t xml:space="preserve">5.34458637237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35586261749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36939239501953</t>
   </si>
   <si>
     <t xml:space="preserve">5.53401517868042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51597309112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39419841766357</t>
+    <t xml:space="preserve">5.5159740447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39419889450073</t>
   </si>
   <si>
     <t xml:space="preserve">5.3378210067749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25438213348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23183107376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32203578948975</t>
+    <t xml:space="preserve">5.25438261032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2318320274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3220362663269</t>
   </si>
   <si>
     <t xml:space="preserve">5.28144359588623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24536228179932</t>
+    <t xml:space="preserve">5.24536180496216</t>
   </si>
   <si>
     <t xml:space="preserve">5.24987268447876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14839267730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11682176589966</t>
+    <t xml:space="preserve">5.14839315414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1168212890625</t>
   </si>
   <si>
     <t xml:space="preserve">5.073974609375</t>
@@ -1238,37 +1238,37 @@
     <t xml:space="preserve">5.06720876693726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08074045181274</t>
+    <t xml:space="preserve">5.08073997497559</t>
   </si>
   <si>
     <t xml:space="preserve">5.15966796875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30850553512573</t>
+    <t xml:space="preserve">5.30850505828857</t>
   </si>
   <si>
     <t xml:space="preserve">5.39194345474243</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3400764465332</t>
+    <t xml:space="preserve">5.34007692337036</t>
   </si>
   <si>
     <t xml:space="preserve">5.36037254333496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22957611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14162731170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97925996780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83042287826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81463861465454</t>
+    <t xml:space="preserve">5.229576587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14162683486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97926044464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8304238319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81463813781738</t>
   </si>
   <si>
     <t xml:space="preserve">4.75375032424927</t>
@@ -1277,19 +1277,19 @@
     <t xml:space="preserve">5.04014825820923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33331108093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72795295715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93993234634399</t>
+    <t xml:space="preserve">5.33331060409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72795343399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93993282318115</t>
   </si>
   <si>
     <t xml:space="preserve">5.97375917434692</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89483118057251</t>
+    <t xml:space="preserve">5.89483070373535</t>
   </si>
   <si>
     <t xml:space="preserve">6.0346474647522</t>
@@ -1304,25 +1304,25 @@
     <t xml:space="preserve">5.94669818878174</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77756595611572</t>
+    <t xml:space="preserve">5.77756547927856</t>
   </si>
   <si>
     <t xml:space="preserve">5.76403522491455</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82492208480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70765781402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15642166137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33006572723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19701433181763</t>
+    <t xml:space="preserve">5.82492256164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70765733718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15642261505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33006525039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19701385498047</t>
   </si>
   <si>
     <t xml:space="preserve">6.2759428024292</t>
@@ -1340,22 +1340,22 @@
     <t xml:space="preserve">6.16769790649414</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93767738342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00984048843384</t>
+    <t xml:space="preserve">5.93767786026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.009840965271</t>
   </si>
   <si>
     <t xml:space="preserve">6.0301365852356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95346355438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87002468109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77531003952026</t>
+    <t xml:space="preserve">5.95346307754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87002515792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77531051635742</t>
   </si>
   <si>
     <t xml:space="preserve">5.74148368835449</t>
@@ -1367,55 +1367,55 @@
     <t xml:space="preserve">6.15191221237183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98503541946411</t>
+    <t xml:space="preserve">5.98503494262695</t>
   </si>
   <si>
     <t xml:space="preserve">5.84521865844727</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97150468826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.165442943573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17897272109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08425855636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07523918151855</t>
+    <t xml:space="preserve">5.97150421142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16544342041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17897367477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08425903320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0752387046814</t>
   </si>
   <si>
     <t xml:space="preserve">6.42703437805176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42252492904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35938167572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66607522964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51272773742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30525875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23309564590454</t>
+    <t xml:space="preserve">6.42252397537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35938119888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66607475280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51272869110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30525922775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23309516906738</t>
   </si>
   <si>
     <t xml:space="preserve">6.22407531738281</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67834138870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24662685394287</t>
+    <t xml:space="preserve">5.67834186553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24662733078003</t>
   </si>
   <si>
     <t xml:space="preserve">6.0526876449585</t>
@@ -1424,43 +1424,43 @@
     <t xml:space="preserve">5.9218921661377</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79560708999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80913734436035</t>
+    <t xml:space="preserve">5.79560661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80913686752319</t>
   </si>
   <si>
     <t xml:space="preserve">5.54754543304443</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89032077789307</t>
+    <t xml:space="preserve">5.89032173156738</t>
   </si>
   <si>
     <t xml:space="preserve">6.00307607650757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11132001876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09327936172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31427955627441</t>
+    <t xml:space="preserve">6.11132049560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09327983856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31427907943726</t>
   </si>
   <si>
     <t xml:space="preserve">6.4089937210083</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49468755722046</t>
+    <t xml:space="preserve">6.4946870803833</t>
   </si>
   <si>
     <t xml:space="preserve">6.87354421615601</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83295202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08101272583008</t>
+    <t xml:space="preserve">6.83295154571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08101320266724</t>
   </si>
   <si>
     <t xml:space="preserve">7.05846214294434</t>
@@ -1472,13 +1472,13 @@
     <t xml:space="preserve">7.13062572479248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.256911277771</t>
+    <t xml:space="preserve">7.25691080093384</t>
   </si>
   <si>
     <t xml:space="preserve">7.02238082885742</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10356426239014</t>
+    <t xml:space="preserve">7.10356521606445</t>
   </si>
   <si>
     <t xml:space="preserve">7.38770723342896</t>
@@ -1490,22 +1490,22 @@
     <t xml:space="preserve">7.20278882980347</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27044248580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21631956100464</t>
+    <t xml:space="preserve">7.27044200897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21631908416748</t>
   </si>
   <si>
     <t xml:space="preserve">7.65831851959229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48693132400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34260511398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60419607162476</t>
+    <t xml:space="preserve">7.48693180084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.342604637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60419702529907</t>
   </si>
   <si>
     <t xml:space="preserve">7.44182968139648</t>
@@ -1514,43 +1514,43 @@
     <t xml:space="preserve">7.41927862167358</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27946186065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22082948684692</t>
+    <t xml:space="preserve">7.2794623374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22082996368408</t>
   </si>
   <si>
     <t xml:space="preserve">7.4102578163147</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37417602539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35162544250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37868595123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62674760818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78911542892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73048257827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70342063903809</t>
+    <t xml:space="preserve">7.37417697906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35162496566772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37868690490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62674713134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78911447525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73048210144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7034215927124</t>
   </si>
   <si>
     <t xml:space="preserve">7.56360483169556</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72146272659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5906662940979</t>
+    <t xml:space="preserve">7.72146224975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59066581726074</t>
   </si>
   <si>
     <t xml:space="preserve">7.55007362365723</t>
@@ -1562,52 +1562,52 @@
     <t xml:space="preserve">6.77431964874268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99080944061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78334045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66156530380249</t>
+    <t xml:space="preserve">6.99080896377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7833399772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66156482696533</t>
   </si>
   <si>
     <t xml:space="preserve">6.76529884338379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68862628936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86001348495483</t>
+    <t xml:space="preserve">6.68862533569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86001396179199</t>
   </si>
   <si>
     <t xml:space="preserve">6.52302837371826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44531917572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74244356155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81101083755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74701452255249</t>
+    <t xml:space="preserve">6.44531869888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7424430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81101036071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74701499938965</t>
   </si>
   <si>
     <t xml:space="preserve">6.77901220321655</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69216060638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8064398765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7241587638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62816476821899</t>
+    <t xml:space="preserve">6.69216156005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80644035339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72415828704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62816429138184</t>
   </si>
   <si>
     <t xml:space="preserve">6.86129331588745</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">6.9024338722229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90700483322144</t>
+    <t xml:space="preserve">6.90700435638428</t>
   </si>
   <si>
     <t xml:space="preserve">6.76072835922241</t>
@@ -1631,46 +1631,46 @@
     <t xml:space="preserve">6.59159564971924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55959796905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45903158187866</t>
+    <t xml:space="preserve">6.55959701538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45903253555298</t>
   </si>
   <si>
     <t xml:space="preserve">6.36303806304932</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35846710205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25790119171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960765838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27618646621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31732702255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34018278121948</t>
+    <t xml:space="preserve">6.35846662521362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25790166854858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39960670471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2761869430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31732654571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34018230438232</t>
   </si>
   <si>
     <t xml:space="preserve">6.48645925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38589382171631</t>
+    <t xml:space="preserve">6.38589429855347</t>
   </si>
   <si>
     <t xml:space="preserve">6.34932518005371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47731685638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73330068588257</t>
+    <t xml:space="preserve">6.47731733322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73330163955688</t>
   </si>
   <si>
     <t xml:space="preserve">6.63273572921753</t>
@@ -1679,16 +1679,16 @@
     <t xml:space="preserve">6.67387628555298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58245325088501</t>
+    <t xml:space="preserve">6.58245277404785</t>
   </si>
   <si>
     <t xml:space="preserve">6.5870246887207</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53217077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54131364822388</t>
+    <t xml:space="preserve">6.53217124938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54131317138672</t>
   </si>
   <si>
     <t xml:space="preserve">6.51388597488403</t>
@@ -1697,16 +1697,16 @@
     <t xml:space="preserve">6.56873989105225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57331085205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64644956588745</t>
+    <t xml:space="preserve">6.57331132888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64645004272461</t>
   </si>
   <si>
     <t xml:space="preserve">6.46817398071289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37675189971924</t>
+    <t xml:space="preserve">6.37675142288208</t>
   </si>
   <si>
     <t xml:space="preserve">6.32646894454956</t>
@@ -1715,34 +1715,34 @@
     <t xml:space="preserve">6.41789197921753</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60530948638916</t>
+    <t xml:space="preserve">6.60530853271484</t>
   </si>
   <si>
     <t xml:space="preserve">6.78815507888794</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23504590988159</t>
+    <t xml:space="preserve">6.23504638671875</t>
   </si>
   <si>
     <t xml:space="preserve">6.53674173355103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32189750671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11619663238525</t>
+    <t xml:space="preserve">6.32189846038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11619710922241</t>
   </si>
   <si>
     <t xml:space="preserve">5.59508514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45337963104248</t>
+    <t xml:space="preserve">5.45338010787964</t>
   </si>
   <si>
     <t xml:space="preserve">5.35738563537598</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19282484054565</t>
+    <t xml:space="preserve">5.1928243637085</t>
   </si>
   <si>
     <t xml:space="preserve">5.08311653137207</t>
@@ -1751,16 +1751,16 @@
     <t xml:space="preserve">5.24310684204102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12882852554321</t>
+    <t xml:space="preserve">5.12882804870605</t>
   </si>
   <si>
     <t xml:space="preserve">5.18825340270996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16539716720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09683036804199</t>
+    <t xml:space="preserve">5.16539764404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09682989120483</t>
   </si>
   <si>
     <t xml:space="preserve">5.03740549087524</t>
@@ -1772,46 +1772,46 @@
     <t xml:space="preserve">4.68999814987183</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71742486953735</t>
+    <t xml:space="preserve">4.7174243927002</t>
   </si>
   <si>
     <t xml:space="preserve">4.85455942153931</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81798982620239</t>
+    <t xml:space="preserve">4.81799030303955</t>
   </si>
   <si>
     <t xml:space="preserve">4.46829700469971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21916913986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30145072937012</t>
+    <t xml:space="preserve">4.21917009353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30145025253296</t>
   </si>
   <si>
     <t xml:space="preserve">4.20545625686646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13003158569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14374589920044</t>
+    <t xml:space="preserve">4.13003301620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14374542236328</t>
   </si>
   <si>
     <t xml:space="preserve">4.04546594619751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17345905303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2465968132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22145557403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10717678070068</t>
+    <t xml:space="preserve">4.17345857620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24659585952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22145509719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10717630386353</t>
   </si>
   <si>
     <t xml:space="preserve">3.95404314994812</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">3.78719592094421</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83976435661316</t>
+    <t xml:space="preserve">3.83976411819458</t>
   </si>
   <si>
     <t xml:space="preserve">3.90147471427917</t>
@@ -1829,25 +1829,25 @@
     <t xml:space="preserve">3.81690907478333</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92204475402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93118739128113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05232334136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24888181686401</t>
+    <t xml:space="preserve">3.92204451560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93118762969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05232238769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24888229370117</t>
   </si>
   <si>
     <t xml:space="preserve">4.09117746353149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01118278503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01803922653198</t>
+    <t xml:space="preserve">4.01118230819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01803874969482</t>
   </si>
   <si>
     <t xml:space="preserve">4.02946710586548</t>
@@ -1856,19 +1856,19 @@
     <t xml:space="preserve">3.95861434936523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9471869468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92890167236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53121161460876</t>
+    <t xml:space="preserve">3.94718670845032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92890238761902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53121185302734</t>
   </si>
   <si>
     <t xml:space="preserve">3.43293237686157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3140823841095</t>
+    <t xml:space="preserve">3.31408214569092</t>
   </si>
   <si>
     <t xml:space="preserve">3.09923839569092</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">3.10838079452515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23180174827576</t>
+    <t xml:space="preserve">3.23180198669434</t>
   </si>
   <si>
     <t xml:space="preserve">3.45807361602783</t>
@@ -1889,52 +1889,52 @@
     <t xml:space="preserve">3.3415093421936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29808330535889</t>
+    <t xml:space="preserve">3.29808354377747</t>
   </si>
   <si>
     <t xml:space="preserve">3.52892637252808</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46950125694275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56549572944641</t>
+    <t xml:space="preserve">3.46950173377991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56549549102783</t>
   </si>
   <si>
     <t xml:space="preserve">3.59292244911194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39179182052612</t>
+    <t xml:space="preserve">3.39179229736328</t>
   </si>
   <si>
     <t xml:space="preserve">3.31865382194519</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17923355102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9918167591095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99638724327087</t>
+    <t xml:space="preserve">3.17923331260681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99181652069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99638748168945</t>
   </si>
   <si>
     <t xml:space="preserve">3.07638263702393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17237663269043</t>
+    <t xml:space="preserve">3.17237687110901</t>
   </si>
   <si>
     <t xml:space="preserve">3.1060950756073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02152895927429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94839024543762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98953104019165</t>
+    <t xml:space="preserve">3.02152919769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9483904838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98953080177307</t>
   </si>
   <si>
     <t xml:space="preserve">2.83868312835693</t>
@@ -1946,25 +1946,25 @@
     <t xml:space="preserve">2.85011124610901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89582228660583</t>
+    <t xml:space="preserve">2.89582252502441</t>
   </si>
   <si>
     <t xml:space="preserve">2.95296168327332</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14037895202637</t>
+    <t xml:space="preserve">3.14037871360779</t>
   </si>
   <si>
     <t xml:space="preserve">3.17466259002686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23865842819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30036902427673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22951579093933</t>
+    <t xml:space="preserve">3.23865866661072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30036926269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22951626777649</t>
   </si>
   <si>
     <t xml:space="preserve">3.29351234436035</t>
@@ -1988,10 +1988,10 @@
     <t xml:space="preserve">3.55635333061218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6112072467804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57235240936279</t>
+    <t xml:space="preserve">3.61120700836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57235264778137</t>
   </si>
   <si>
     <t xml:space="preserve">3.69120192527771</t>
@@ -2000,25 +2000,25 @@
     <t xml:space="preserve">3.74605584144592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65463280677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58835124969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59977912902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66148996353149</t>
+    <t xml:space="preserve">3.65463304519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58835101127625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5997793674469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66148972511292</t>
   </si>
   <si>
     <t xml:space="preserve">3.51292729377747</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60206484794617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66377520561218</t>
+    <t xml:space="preserve">3.60206460952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66377544403076</t>
   </si>
   <si>
     <t xml:space="preserve">3.77576804161072</t>
@@ -2036,34 +2036,34 @@
     <t xml:space="preserve">3.88776135444641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98147010803223</t>
+    <t xml:space="preserve">3.98146963119507</t>
   </si>
   <si>
     <t xml:space="preserve">3.85576367378235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91747379302979</t>
+    <t xml:space="preserve">3.91747403144836</t>
   </si>
   <si>
     <t xml:space="preserve">3.94261527061462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02718114852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.079749584198</t>
+    <t xml:space="preserve">4.02718162536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07975006103516</t>
   </si>
   <si>
     <t xml:space="preserve">4.15974473953247</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22374105453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1826000213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34487628936768</t>
+    <t xml:space="preserve">4.22374057769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18260049819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34487676620483</t>
   </si>
   <si>
     <t xml:space="preserve">4.28087997436523</t>
@@ -2078,52 +2078,52 @@
     <t xml:space="preserve">4.11631917953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06603670120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32430648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3768744468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47972536087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52543687820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45001220703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2580246925354</t>
+    <t xml:space="preserve">4.06603622436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32430601119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37687397003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4797248840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52543640136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45001268386841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25802421569824</t>
   </si>
   <si>
     <t xml:space="preserve">4.29687881469727</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3723030090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29459428787231</t>
+    <t xml:space="preserve">4.37230253219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29459381103516</t>
   </si>
   <si>
     <t xml:space="preserve">4.33116292953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38601636886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34259080886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33344793319702</t>
+    <t xml:space="preserve">4.38601684570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34259033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33344841003418</t>
   </si>
   <si>
     <t xml:space="preserve">4.34716176986694</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29230833053589</t>
+    <t xml:space="preserve">4.29230785369873</t>
   </si>
   <si>
     <t xml:space="preserve">4.16431617736816</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">4.27859449386597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36316061019897</t>
+    <t xml:space="preserve">4.36316108703613</t>
   </si>
   <si>
     <t xml:space="preserve">4.05917978286743</t>
@@ -2144,67 +2144,67 @@
     <t xml:space="preserve">4.02032470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98604083061218</t>
+    <t xml:space="preserve">3.98604154586792</t>
   </si>
   <si>
     <t xml:space="preserve">4.08432149887085</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12774658203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12546110153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1048903465271</t>
+    <t xml:space="preserve">4.12774705886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12546062469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10489130020142</t>
   </si>
   <si>
     <t xml:space="preserve">4.00432634353638</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96318626403809</t>
+    <t xml:space="preserve">3.96318578720093</t>
   </si>
   <si>
     <t xml:space="preserve">3.85119223594666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85804867744446</t>
+    <t xml:space="preserve">3.85804915428162</t>
   </si>
   <si>
     <t xml:space="preserve">3.73234248161316</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93575835227966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18945693969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90833139419556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04407024383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96684002876282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84514331817627</t>
+    <t xml:space="preserve">3.93575811386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18945741653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90833163261414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04407072067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96683955192566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84514284133911</t>
   </si>
   <si>
     <t xml:space="preserve">3.82876110076904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84748339653015</t>
+    <t xml:space="preserve">3.84748363494873</t>
   </si>
   <si>
     <t xml:space="preserve">3.77025318145752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75387096405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8147189617157</t>
+    <t xml:space="preserve">3.75387120246887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81471920013428</t>
   </si>
   <si>
     <t xml:space="preserve">3.9270544052124</t>
@@ -2213,37 +2213,37 @@
     <t xml:space="preserve">3.95747828483582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01130533218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05343103408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98322200775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03704881668091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95981907844543</t>
+    <t xml:space="preserve">4.01130628585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05343151092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98322176933289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03704977035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95981884002686</t>
   </si>
   <si>
     <t xml:space="preserve">3.99258327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07215452194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1306619644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28980350494385</t>
+    <t xml:space="preserve">4.07215404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13066148757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28980398178101</t>
   </si>
   <si>
     <t xml:space="preserve">4.24533748626709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18214893341064</t>
+    <t xml:space="preserve">4.1821494102478</t>
   </si>
   <si>
     <t xml:space="preserve">4.20321178436279</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">4.37171506881714</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37873554229736</t>
+    <t xml:space="preserve">4.37873601913452</t>
   </si>
   <si>
     <t xml:space="preserve">4.40915966033936</t>
@@ -2270,22 +2270,22 @@
     <t xml:space="preserve">4.50511312484741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39745855331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44660472869873</t>
+    <t xml:space="preserve">4.39745807647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44660520553589</t>
   </si>
   <si>
     <t xml:space="preserve">4.33895063400269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4278826713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33192920684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31554746627808</t>
+    <t xml:space="preserve">4.42788219451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3319296836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31554698944092</t>
   </si>
   <si>
     <t xml:space="preserve">4.28746318817139</t>
@@ -2294,19 +2294,19 @@
     <t xml:space="preserve">4.34129047393799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26640033721924</t>
+    <t xml:space="preserve">4.26639986038208</t>
   </si>
   <si>
     <t xml:space="preserve">4.14938449859619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18917036056519</t>
+    <t xml:space="preserve">4.18916988372803</t>
   </si>
   <si>
     <t xml:space="preserve">4.24299716949463</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25469923019409</t>
+    <t xml:space="preserve">4.25469875335693</t>
   </si>
   <si>
     <t xml:space="preserve">4.20087194442749</t>
@@ -2324,40 +2324,40 @@
     <t xml:space="preserve">4.14470386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05811214447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03236818313599</t>
+    <t xml:space="preserve">4.05811262130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03236865997314</t>
   </si>
   <si>
     <t xml:space="preserve">3.93173456192017</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97152090072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9621593952179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93641519546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03939008712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08853673934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06981325149536</t>
+    <t xml:space="preserve">3.97152042388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96215891838074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93641567230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03938961029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08853578567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06981372833252</t>
   </si>
   <si>
     <t xml:space="preserve">4.22193479537964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20555257797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25937986373901</t>
+    <t xml:space="preserve">4.2055516242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25937938690186</t>
   </si>
   <si>
     <t xml:space="preserve">4.13300228118896</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">4.27810192108154</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2266149520874</t>
+    <t xml:space="preserve">4.22661447525024</t>
   </si>
   <si>
     <t xml:space="preserve">4.15172481536865</t>
@@ -2381,13 +2381,13 @@
     <t xml:space="preserve">4.43256330490112</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41384077072144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70404005050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11125564575195</t>
+    <t xml:space="preserve">4.41384029388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70404052734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11125516891479</t>
   </si>
   <si>
     <t xml:space="preserve">5.28911972045898</t>
@@ -2396,55 +2396,55 @@
     <t xml:space="preserve">5.44826126098633</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47634553909302</t>
+    <t xml:space="preserve">5.4763445854187</t>
   </si>
   <si>
     <t xml:space="preserve">5.75250291824341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60740280151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50910949707031</t>
+    <t xml:space="preserve">5.60740232467651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50910997390747</t>
   </si>
   <si>
     <t xml:space="preserve">5.73377990722656</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83207368850708</t>
+    <t xml:space="preserve">5.83207321166992</t>
   </si>
   <si>
     <t xml:space="preserve">5.67761278152466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57463884353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60272216796875</t>
+    <t xml:space="preserve">5.57463836669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60272264480591</t>
   </si>
   <si>
     <t xml:space="preserve">5.38273239135742</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39209365844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48102617263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56995725631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46230363845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59336137771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5793194770813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68229293823242</t>
+    <t xml:space="preserve">5.39209413528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48102569580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5699577331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46230316162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59336090087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57931900024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68229341506958</t>
   </si>
   <si>
     <t xml:space="preserve">5.82271194458008</t>
@@ -2459,34 +2459,34 @@
     <t xml:space="preserve">5.86951875686646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90696382522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85079574584961</t>
+    <t xml:space="preserve">5.90696334838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85079622268677</t>
   </si>
   <si>
     <t xml:space="preserve">5.80398988723755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84143447875977</t>
+    <t xml:space="preserve">5.84143495559692</t>
   </si>
   <si>
     <t xml:space="preserve">5.93504762649536</t>
   </si>
   <si>
-    <t xml:space="preserve">5.836754322052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94908952713013</t>
+    <t xml:space="preserve">5.83675479888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94909000396729</t>
   </si>
   <si>
     <t xml:space="preserve">6.0286602973938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18312120437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25801134109497</t>
+    <t xml:space="preserve">6.18312168121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25801181793213</t>
   </si>
   <si>
     <t xml:space="preserve">6.36098527908325</t>
@@ -2495,10 +2495,10 @@
     <t xml:space="preserve">6.22056674957275</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12695360183716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15503787994385</t>
+    <t xml:space="preserve">6.12695407867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15503740310669</t>
   </si>
   <si>
     <t xml:space="preserve">6.37970781326294</t>
@@ -2507,28 +2507,28 @@
     <t xml:space="preserve">6.86181402206421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25966835021973</t>
+    <t xml:space="preserve">7.25966787338257</t>
   </si>
   <si>
     <t xml:space="preserve">7.35796165466309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44689321517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77921867370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78389930725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88219261169434</t>
+    <t xml:space="preserve">7.4468936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77921915054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78389835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88219213485718</t>
   </si>
   <si>
     <t xml:space="preserve">8.00857067108154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84006643295288</t>
+    <t xml:space="preserve">7.84006595611572</t>
   </si>
   <si>
     <t xml:space="preserve">7.79326009750366</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">7.32519674301147</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44221258163452</t>
+    <t xml:space="preserve">7.44221305847168</t>
   </si>
   <si>
     <t xml:space="preserve">7.58263158798218</t>
@@ -2549,25 +2549,25 @@
     <t xml:space="preserve">7.45157384872437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43753242492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27370977401733</t>
+    <t xml:space="preserve">7.43753147125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27370929718018</t>
   </si>
   <si>
     <t xml:space="preserve">7.31115484237671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42817068099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55922842025757</t>
+    <t xml:space="preserve">7.4281702041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55922794342041</t>
   </si>
   <si>
     <t xml:space="preserve">7.54050636291504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74177360534668</t>
+    <t xml:space="preserve">7.74177312850952</t>
   </si>
   <si>
     <t xml:space="preserve">8.09282207489014</t>
@@ -2576,70 +2576,70 @@
     <t xml:space="preserve">8.03197288513184</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84474754333496</t>
+    <t xml:space="preserve">7.84474802017212</t>
   </si>
   <si>
     <t xml:space="preserve">7.73241186141968</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83538675308228</t>
+    <t xml:space="preserve">7.83538579940796</t>
   </si>
   <si>
     <t xml:space="preserve">7.52646398544312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61539649963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27839088439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57795095443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41880941390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46561527252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38136434555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6949667930603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60135412216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65284156799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68560600280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4796576499939</t>
+    <t xml:space="preserve">7.61539697647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2783899307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57795143127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41880989074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46561574935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3813648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69496726989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60135459899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65284204483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68560552597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47965812683105</t>
   </si>
   <si>
     <t xml:space="preserve">7.33455801010132</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18477725982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65586566925049</t>
+    <t xml:space="preserve">7.18477773666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65586614608765</t>
   </si>
   <si>
     <t xml:space="preserve">6.66054582595825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88989734649658</t>
+    <t xml:space="preserve">6.88989782333374</t>
   </si>
   <si>
     <t xml:space="preserve">6.94606494903564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86649465560913</t>
+    <t xml:space="preserve">6.86649417877197</t>
   </si>
   <si>
     <t xml:space="preserve">6.91798114776611</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">7.04903936386108</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97882986068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95074558258057</t>
+    <t xml:space="preserve">6.9788293838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95074605941772</t>
   </si>
   <si>
     <t xml:space="preserve">6.82436847686768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98351049423218</t>
+    <t xml:space="preserve">6.98351001739502</t>
   </si>
   <si>
     <t xml:space="preserve">6.91330099105835</t>
@@ -2678,76 +2678,76 @@
     <t xml:space="preserve">6.25333070755005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09886980056763</t>
+    <t xml:space="preserve">6.09887027740479</t>
   </si>
   <si>
     <t xml:space="preserve">5.91632509231567</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76186418533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89760255813599</t>
+    <t xml:space="preserve">5.76186370849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89760208129883</t>
   </si>
   <si>
     <t xml:space="preserve">5.84611511230469</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59804201126099</t>
+    <t xml:space="preserve">5.59804153442383</t>
   </si>
   <si>
     <t xml:space="preserve">5.228271484375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85850095748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69935941696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74148511886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30384588241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89897036552429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74450969696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39346194267273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29516816139221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25304269790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29750847816467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51983880996704</t>
+    <t xml:space="preserve">4.85850048065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69935894012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74148559570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30384540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89897060394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74450945854187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39346170425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29516839981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25304245948792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29750895500183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51983904838562</t>
   </si>
   <si>
     <t xml:space="preserve">4.08151531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94811749458313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69302225112915</t>
+    <t xml:space="preserve">3.94811725616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69302248954773</t>
   </si>
   <si>
     <t xml:space="preserve">3.58068752288818</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75153040885925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69770336151123</t>
+    <t xml:space="preserve">3.75153064727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69770312309265</t>
   </si>
   <si>
     <t xml:space="preserve">3.79131579399109</t>
@@ -2756,10 +2756,10 @@
     <t xml:space="preserve">3.70238351821899</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88024806976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82407999038696</t>
+    <t xml:space="preserve">3.8802478313446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82408022880554</t>
   </si>
   <si>
     <t xml:space="preserve">4.15640592575073</t>
@@ -2768,10 +2768,10 @@
     <t xml:space="preserve">4.1189603805542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47936916351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20789241790771</t>
+    <t xml:space="preserve">4.47936964035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20789289474487</t>
   </si>
   <si>
     <t xml:space="preserve">4.10023784637451</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">4.26406002044678</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18448877334595</t>
+    <t xml:space="preserve">4.18448925018311</t>
   </si>
   <si>
     <t xml:space="preserve">4.58702421188354</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">4.55425977706909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45596647262573</t>
+    <t xml:space="preserve">4.45596694946289</t>
   </si>
   <si>
     <t xml:space="preserve">4.36235332489014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35767269134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41852140426636</t>
+    <t xml:space="preserve">4.35767364501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4185209274292</t>
   </si>
   <si>
     <t xml:space="preserve">4.45128583908081</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40447902679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39979791641235</t>
+    <t xml:space="preserve">4.40447950363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39979839324951</t>
   </si>
   <si>
     <t xml:space="preserve">4.26874113082886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77424955368042</t>
+    <t xml:space="preserve">4.77425003051758</t>
   </si>
   <si>
     <t xml:space="preserve">4.62446928024292</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">4.48405027389526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52149486541748</t>
+    <t xml:space="preserve">4.52149534225464</t>
   </si>
   <si>
     <t xml:space="preserve">4.85616064071655</t>
@@ -2834,31 +2834,31 @@
     <t xml:space="preserve">5.0667896270752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00828170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99658060073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16040182113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30082130432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34762811660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60506248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46464395523071</t>
+    <t xml:space="preserve">5.00828075408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99658012390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16040229797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30082082748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34762763977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60506296157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4646430015564</t>
   </si>
   <si>
     <t xml:space="preserve">5.27741765975952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04338550567627</t>
+    <t xml:space="preserve">5.04338598251343</t>
   </si>
   <si>
     <t xml:space="preserve">5.13699913024902</t>
@@ -2867,19 +2867,19 @@
     <t xml:space="preserve">5.31252288818359</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42953872680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37103080749512</t>
+    <t xml:space="preserve">5.4295392036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37103128433228</t>
   </si>
   <si>
     <t xml:space="preserve">5.51144981384277</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32422399520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26571655273438</t>
+    <t xml:space="preserve">5.3242244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26571607589722</t>
   </si>
   <si>
     <t xml:space="preserve">5.25401496887207</t>
@@ -2888,31 +2888,31 @@
     <t xml:space="preserve">5.39443397521973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35932970046997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20720815658569</t>
+    <t xml:space="preserve">5.35932922363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20720911026001</t>
   </si>
   <si>
     <t xml:space="preserve">5.03168439865112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12529754638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23061227798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17210388183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33592557907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18380546569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.218909740448</t>
+    <t xml:space="preserve">5.12529706954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23061180114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17210340499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3359260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18380498886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21891021728516</t>
   </si>
   <si>
     <t xml:space="preserve">5.24231338500977</t>
@@ -2924,10 +2924,10 @@
     <t xml:space="preserve">5.45294141769409</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14870023727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19550704956055</t>
+    <t xml:space="preserve">5.14870071411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19550752639771</t>
   </si>
   <si>
     <t xml:space="preserve">5.0784912109375</t>
@@ -2948,19 +2948,19 @@
     <t xml:space="preserve">5.10189390182495</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11359643936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68063640594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28278207778931</t>
+    <t xml:space="preserve">5.11359596252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68063688278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28278255462646</t>
   </si>
   <si>
     <t xml:space="preserve">4.30618619918823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17044734954834</t>
+    <t xml:space="preserve">4.1704478263855</t>
   </si>
   <si>
     <t xml:space="preserve">4.39511823654175</t>
@@ -2969,13 +2969,13 @@
     <t xml:space="preserve">4.43724346160889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71574211120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66357040405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74548196792603</t>
+    <t xml:space="preserve">4.71574115753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66357135772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74548149108887</t>
   </si>
   <si>
     <t xml:space="preserve">5.88590097427368</t>
@@ -2987,10 +2987,10 @@
     <t xml:space="preserve">5.81569147109985</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76888513565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79228782653809</t>
+    <t xml:space="preserve">5.76888465881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7922887802124</t>
   </si>
   <si>
     <t xml:space="preserve">6.02631998062134</t>
@@ -3011,43 +3011,43 @@
     <t xml:space="preserve">6.08482789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00291728973389</t>
+    <t xml:space="preserve">6.00291681289673</t>
   </si>
   <si>
     <t xml:space="preserve">6.04972314834595</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22524738311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33056116104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26035165786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29545640945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31885957717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21354532241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27205371856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35396480560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49438333511353</t>
+    <t xml:space="preserve">6.22524690628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33056163787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26035213470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2954568862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31886005401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21354484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27205324172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35396432876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49438381195068</t>
   </si>
   <si>
     <t xml:space="preserve">6.45927906036377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50608539581299</t>
+    <t xml:space="preserve">6.50608491897583</t>
   </si>
   <si>
     <t xml:space="preserve">6.62310123443604</t>
@@ -3056,10 +3056,10 @@
     <t xml:space="preserve">6.66990756988525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68160915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70501184463501</t>
+    <t xml:space="preserve">6.6816086769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70501279830933</t>
   </si>
   <si>
     <t xml:space="preserve">6.75181913375854</t>
@@ -3068,10 +3068,10 @@
     <t xml:space="preserve">6.72841548919678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.775221824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55289125442505</t>
+    <t xml:space="preserve">6.77522230148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55289173126221</t>
   </si>
   <si>
     <t xml:space="preserve">6.48268222808838</t>
@@ -3080,16 +3080,16 @@
     <t xml:space="preserve">6.61139965057373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.435875415802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34226322174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56459331512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64650440216064</t>
+    <t xml:space="preserve">6.43587589263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34226274490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56459283828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64650392532349</t>
   </si>
   <si>
     <t xml:space="preserve">6.81032657623291</t>
@@ -3098,10 +3098,10 @@
     <t xml:space="preserve">6.65820598602295</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9390435218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90393972396851</t>
+    <t xml:space="preserve">6.93904399871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90393924713135</t>
   </si>
   <si>
     <t xml:space="preserve">6.83372974395752</t>
@@ -3110,34 +3110,34 @@
     <t xml:space="preserve">6.85713291168213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92734289169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84543180465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54118967056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51778745651245</t>
+    <t xml:space="preserve">6.92734241485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84543132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5411901473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51778697967529</t>
   </si>
   <si>
     <t xml:space="preserve">6.47098016738892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52948808670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69331073760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02095556259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95708274841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9453821182251</t>
+    <t xml:space="preserve">6.5294885635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69331121444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02095508575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95708227157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94538116455078</t>
   </si>
   <si>
     <t xml:space="preserve">8.42514610290527</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">8.19111442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16771221160889</t>
+    <t xml:space="preserve">8.16771125793457</t>
   </si>
   <si>
     <t xml:space="preserve">8.2379207611084</t>
@@ -3158,7 +3158,7 @@
     <t xml:space="preserve">8.20281600952148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30813026428223</t>
+    <t xml:space="preserve">8.30813121795654</t>
   </si>
   <si>
     <t xml:space="preserve">8.28472805023193</t>
@@ -3170,13 +3170,13 @@
     <t xml:space="preserve">8.17941379547119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10920333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26132392883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49535655975342</t>
+    <t xml:space="preserve">8.10920429229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26132297515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4953556060791</t>
   </si>
   <si>
     <t xml:space="preserve">8.4836540222168</t>
@@ -3185,46 +3185,46 @@
     <t xml:space="preserve">8.47195339202881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51875972747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4602518081665</t>
+    <t xml:space="preserve">8.51875877380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46025085449219</t>
   </si>
   <si>
     <t xml:space="preserve">8.33153247833252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29642963409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36663818359375</t>
+    <t xml:space="preserve">8.29642868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36663913726807</t>
   </si>
   <si>
     <t xml:space="preserve">8.53046131134033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41344547271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34323501586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2496223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39004230499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12090492248535</t>
+    <t xml:space="preserve">8.41344451904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34323596954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24962139129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39004135131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12090587615967</t>
   </si>
   <si>
     <t xml:space="preserve">8.13260650634766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01558971405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09750080108643</t>
+    <t xml:space="preserve">8.01559162139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09750175476074</t>
   </si>
   <si>
     <t xml:space="preserve">7.99218845367432</t>
@@ -3233,22 +3233,22 @@
     <t xml:space="preserve">8.03899383544922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56556415557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36127281188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19745254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40808010101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68891906738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86615562438965</t>
+    <t xml:space="preserve">8.56556510925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36127376556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1974515914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4080810546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6889181137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86615467071533</t>
   </si>
   <si>
     <t xml:space="preserve">9.81889152526855</t>
@@ -3260,10 +3260,10 @@
     <t xml:space="preserve">9.92523288726807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.303337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5160207748413</t>
+    <t xml:space="preserve">10.3033380508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5160217285156</t>
   </si>
   <si>
     <t xml:space="preserve">10.5278367996216</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">10.7759675979614</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7287044525146</t>
+    <t xml:space="preserve">10.728705406189</t>
   </si>
   <si>
     <t xml:space="preserve">10.5632848739624</t>
@@ -3308,13 +3308,13 @@
     <t xml:space="preserve">10.3269701004028</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4923896789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6223630905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797060012817</t>
+    <t xml:space="preserve">10.4923906326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6223640441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797069549561</t>
   </si>
   <si>
     <t xml:space="preserve">10.1733636856079</t>
@@ -3323,7 +3323,7 @@
     <t xml:space="preserve">10.2442588806152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3742322921753</t>
+    <t xml:space="preserve">10.3742332458496</t>
   </si>
   <si>
     <t xml:space="preserve">10.291522026062</t>
@@ -3332,22 +3332,22 @@
     <t xml:space="preserve">10.3151540756226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3387851715088</t>
+    <t xml:space="preserve">10.3387861251831</t>
   </si>
   <si>
     <t xml:space="preserve">10.4805736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4451265335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7168893814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4096784591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560749053955</t>
+    <t xml:space="preserve">10.4451274871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7168884277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4096794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560758590698</t>
   </si>
   <si>
     <t xml:space="preserve">10.6459941864014</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">10.3624172210693</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4376497268677</t>
+    <t xml:space="preserve">11.437650680542</t>
   </si>
   <si>
     <t xml:space="preserve">11.7590379714966</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">12.163610458374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0048065185547</t>
+    <t xml:space="preserve">12.0048055648804</t>
   </si>
   <si>
     <t xml:space="preserve">11.8157539367676</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">11.834659576416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7023239135742</t>
+    <t xml:space="preserve">11.7023229598999</t>
   </si>
   <si>
     <t xml:space="preserve">11.6077966690063</t>
@@ -3407,13 +3407,13 @@
     <t xml:space="preserve">12.3640050888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.118236541748</t>
+    <t xml:space="preserve">12.1182374954224</t>
   </si>
   <si>
     <t xml:space="preserve">12.3261947631836</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3072900772095</t>
+    <t xml:space="preserve">12.3072910308838</t>
   </si>
   <si>
     <t xml:space="preserve">12.5152463912964</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">12.5719633102417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1560468673706</t>
+    <t xml:space="preserve">12.1560478210449</t>
   </si>
   <si>
     <t xml:space="preserve">13.2147397994995</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">14.1599998474121</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0087585449219</t>
+    <t xml:space="preserve">14.0087575912476</t>
   </si>
   <si>
     <t xml:space="preserve">13.4416027069092</t>
@@ -3443,22 +3443,22 @@
     <t xml:space="preserve">13.8008012771606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1221885681152</t>
+    <t xml:space="preserve">14.1221895217896</t>
   </si>
   <si>
     <t xml:space="preserve">14.027663230896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9540185928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3490514755249</t>
+    <t xml:space="preserve">14.9540176391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3490524291992</t>
   </si>
   <si>
     <t xml:space="preserve">14.0465679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7062749862671</t>
+    <t xml:space="preserve">13.7062759399414</t>
   </si>
   <si>
     <t xml:space="preserve">14.0654745101929</t>
@@ -3470,10 +3470,10 @@
     <t xml:space="preserve">13.3281707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7610139846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2525501251221</t>
+    <t xml:space="preserve">12.7610149383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2525510787964</t>
   </si>
   <si>
     <t xml:space="preserve">13.3848867416382</t>
@@ -3488,16 +3488,16 @@
     <t xml:space="preserve">13.1958341598511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3659820556641</t>
+    <t xml:space="preserve">13.3659811019897</t>
   </si>
   <si>
     <t xml:space="preserve">14.7649660110474</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7858486175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8425626754761</t>
+    <t xml:space="preserve">15.7858476638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8425636291504</t>
   </si>
   <si>
     <t xml:space="preserve">16.1261405944824</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">16.9201602935791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7311096191406</t>
+    <t xml:space="preserve">16.731107711792</t>
   </si>
   <si>
     <t xml:space="preserve">16.9012546539307</t>
@@ -3515,31 +3515,31 @@
     <t xml:space="preserve">16.6176776885986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7122020721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3719081878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1450481414795</t>
+    <t xml:space="preserve">16.7122039794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3719100952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1450462341309</t>
   </si>
   <si>
     <t xml:space="preserve">16.504243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3530025482178</t>
+    <t xml:space="preserve">16.3530044555664</t>
   </si>
   <si>
     <t xml:space="preserve">16.2584781646729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8614683151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047523498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.239574432373</t>
+    <t xml:space="preserve">15.8614692687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047513961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2395725250244</t>
   </si>
   <si>
     <t xml:space="preserve">16.0883312225342</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">13.6306533813477</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2356214523315</t>
+    <t xml:space="preserve">14.2356204986572</t>
   </si>
   <si>
     <t xml:space="preserve">14.3679571151733</t>
@@ -3578,19 +3578,19 @@
     <t xml:space="preserve">14.481388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1978101730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271566390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4624843597412</t>
+    <t xml:space="preserve">14.197811126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271556854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4624834060669</t>
   </si>
   <si>
     <t xml:space="preserve">14.1032848358154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.084379196167</t>
+    <t xml:space="preserve">14.0843782424927</t>
   </si>
   <si>
     <t xml:space="preserve">13.5550327301025</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">13.6873693466187</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6495590209961</t>
+    <t xml:space="preserve">13.6495580673218</t>
   </si>
   <si>
     <t xml:space="preserve">14.2734308242798</t>
@@ -3611,19 +3611,19 @@
     <t xml:space="preserve">14.4435777664185</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6137247085571</t>
+    <t xml:space="preserve">14.6137256622314</t>
   </si>
   <si>
     <t xml:space="preserve">14.5948190689087</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4246730804443</t>
+    <t xml:space="preserve">14.4246740341187</t>
   </si>
   <si>
     <t xml:space="preserve">13.2336444854736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4226970672607</t>
+    <t xml:space="preserve">13.4226961135864</t>
   </si>
   <si>
     <t xml:space="preserve">13.3470764160156</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve">12.6664886474609</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4794120788574</t>
+    <t xml:space="preserve">13.4794130325317</t>
   </si>
   <si>
     <t xml:space="preserve">13.7629909515381</t>
@@ -3653,7 +3653,7 @@
     <t xml:space="preserve">12.9122552871704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6097726821899</t>
+    <t xml:space="preserve">12.6097736358643</t>
   </si>
   <si>
     <t xml:space="preserve">12.0993328094482</t>
@@ -3665,13 +3665,13 @@
     <t xml:space="preserve">12.2127637863159</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9291858673096</t>
+    <t xml:space="preserve">11.9291849136353</t>
   </si>
   <si>
     <t xml:space="preserve">11.8535652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2694797515869</t>
+    <t xml:space="preserve">12.2694787979126</t>
   </si>
   <si>
     <t xml:space="preserve">12.0426158905029</t>
@@ -3692,16 +3692,16 @@
     <t xml:space="preserve">10.7381572723389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3620290756226</t>
+    <t xml:space="preserve">11.3620300292969</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804271697998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6645126342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9500665664673</t>
+    <t xml:space="preserve">11.6645135879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.950065612793</t>
   </si>
   <si>
     <t xml:space="preserve">13.0067825317383</t>
@@ -3716,7 +3716,7 @@
     <t xml:space="preserve">13.6212015151978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6590118408203</t>
+    <t xml:space="preserve">13.6590127944946</t>
   </si>
   <si>
     <t xml:space="preserve">12.9973297119141</t>
@@ -3734,19 +3734,19 @@
     <t xml:space="preserve">12.7893724441528</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6192255020142</t>
+    <t xml:space="preserve">12.6192264556885</t>
   </si>
   <si>
     <t xml:space="preserve">12.6003198623657</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7704668045044</t>
+    <t xml:space="preserve">12.7704677581787</t>
   </si>
   <si>
     <t xml:space="preserve">12.8933515548706</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7137517929077</t>
+    <t xml:space="preserve">12.7137508392334</t>
   </si>
   <si>
     <t xml:space="preserve">12.0615224838257</t>
@@ -3782,7 +3782,7 @@
     <t xml:space="preserve">11.3431243896484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8252067565918</t>
+    <t xml:space="preserve">11.8252077102661</t>
   </si>
   <si>
     <t xml:space="preserve">11.6834173202515</t>
@@ -3797,31 +3797,31 @@
     <t xml:space="preserve">11.6518430709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8151407241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8247470855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9400177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.410701751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1129207611084</t>
+    <t xml:space="preserve">11.8151416778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8247480392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.940016746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4107007980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1129217147827</t>
   </si>
   <si>
     <t xml:space="preserve">11.920804977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0168628692627</t>
+    <t xml:space="preserve">12.016863822937</t>
   </si>
   <si>
     <t xml:space="preserve">12.2377967834473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050374984741</t>
+    <t xml:space="preserve">12.3050384521484</t>
   </si>
   <si>
     <t xml:space="preserve">12.4010953903198</t>
@@ -3833,7 +3833,7 @@
     <t xml:space="preserve">11.4116973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9890422821045</t>
+    <t xml:space="preserve">10.9890413284302</t>
   </si>
   <si>
     <t xml:space="preserve">10.7969255447388</t>
@@ -3842,16 +3842,16 @@
     <t xml:space="preserve">11.2964277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8161373138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0658884048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1235237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2676095962524</t>
+    <t xml:space="preserve">10.8161382675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0658893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1235227584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2676105499268</t>
   </si>
   <si>
     <t xml:space="preserve">11.1619462966919</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">11.7479000091553</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382955551147</t>
+    <t xml:space="preserve">11.7382946014404</t>
   </si>
   <si>
     <t xml:space="preserve">11.6134195327759</t>
@@ -3887,19 +3887,19 @@
     <t xml:space="preserve">12.6604528427124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8141460418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198083877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9678373336792</t>
+    <t xml:space="preserve">12.8141450881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198093414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9678382873535</t>
   </si>
   <si>
     <t xml:space="preserve">12.823751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.804539680481</t>
+    <t xml:space="preserve">12.8045387268066</t>
   </si>
   <si>
     <t xml:space="preserve">13.0446844100952</t>
@@ -3908,7 +3908,7 @@
     <t xml:space="preserve">13.1311368942261</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2848300933838</t>
+    <t xml:space="preserve">13.2848291397095</t>
   </si>
   <si>
     <t xml:space="preserve">13.4577341079712</t>
@@ -3917,13 +3917,13 @@
     <t xml:space="preserve">13.7651205062866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9188117980957</t>
+    <t xml:space="preserve">13.91881275177</t>
   </si>
   <si>
     <t xml:space="preserve">13.8611783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9092073440552</t>
+    <t xml:space="preserve">13.9092063903809</t>
   </si>
   <si>
     <t xml:space="preserve">14.0052652359009</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">13.957236289978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0436887741089</t>
+    <t xml:space="preserve">14.0436878204346</t>
   </si>
   <si>
     <t xml:space="preserve">13.976448059082</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">13.938024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6018209457397</t>
+    <t xml:space="preserve">13.6018218994141</t>
   </si>
   <si>
     <t xml:space="preserve">13.2752237319946</t>
@@ -3971,31 +3971,31 @@
     <t xml:space="preserve">13.1983766555786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1023187637329</t>
+    <t xml:space="preserve">13.1023197174072</t>
   </si>
   <si>
     <t xml:space="preserve">13.3232526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3040409088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3424644470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1503477096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0062618255615</t>
+    <t xml:space="preserve">13.3040418624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3424654006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1503486633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0062608718872</t>
   </si>
   <si>
     <t xml:space="preserve">12.7372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1695594787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.862174987793</t>
+    <t xml:space="preserve">13.1695604324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8621740341187</t>
   </si>
   <si>
     <t xml:space="preserve">12.8525686264038</t>
@@ -4010,7 +4010,7 @@
     <t xml:space="preserve">12.372278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0841035842896</t>
+    <t xml:space="preserve">12.0841045379639</t>
   </si>
   <si>
     <t xml:space="preserve">11.9496221542358</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">11.3444566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7873191833496</t>
+    <t xml:space="preserve">10.7873201370239</t>
   </si>
   <si>
     <t xml:space="preserve">10.7777147293091</t>
@@ -4037,10 +4037,10 @@
     <t xml:space="preserve">10.7296848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8929843902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6240215301514</t>
+    <t xml:space="preserve">10.8929834365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6240224838257</t>
   </si>
   <si>
     <t xml:space="preserve">11.2195816040039</t>
@@ -4055,16 +4055,16 @@
     <t xml:space="preserve">11.3636684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1907644271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9025907516479</t>
+    <t xml:space="preserve">11.1907634735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9025897979736</t>
   </si>
   <si>
     <t xml:space="preserve">11.0274648666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2099752426147</t>
+    <t xml:space="preserve">11.2099761962891</t>
   </si>
   <si>
     <t xml:space="preserve">11.5749959945679</t>
@@ -4073,7 +4073,7 @@
     <t xml:space="preserve">11.5365724563599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1321334838867</t>
+    <t xml:space="preserve">12.1321325302124</t>
   </si>
   <si>
     <t xml:space="preserve">12.2570085525513</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">12.0072574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3818845748901</t>
+    <t xml:space="preserve">12.3818836212158</t>
   </si>
   <si>
     <t xml:space="preserve">12.3914890289307</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">13.0158672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791658401489</t>
+    <t xml:space="preserve">13.1791667938232</t>
   </si>
   <si>
     <t xml:space="preserve">12.9582328796387</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">12.7469053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0542898178101</t>
+    <t xml:space="preserve">13.0542907714844</t>
   </si>
   <si>
     <t xml:space="preserve">13.3328590393066</t>
@@ -4130,25 +4130,25 @@
     <t xml:space="preserve">13.8131494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2165927886963</t>
+    <t xml:space="preserve">14.2165937423706</t>
   </si>
   <si>
     <t xml:space="preserve">14.1109285354614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284181594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6210336685181</t>
+    <t xml:space="preserve">13.9284191131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6210327148438</t>
   </si>
   <si>
     <t xml:space="preserve">13.7747259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8419666290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0244770050049</t>
+    <t xml:space="preserve">13.841965675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0244779586792</t>
   </si>
   <si>
     <t xml:space="preserve">14.5720081329346</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">13.8515720367432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6402444839478</t>
+    <t xml:space="preserve">13.6402435302734</t>
   </si>
   <si>
     <t xml:space="preserve">13.5441865921021</t>
@@ -4196,7 +4196,7 @@
     <t xml:space="preserve">14.0628995895386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0340824127197</t>
+    <t xml:space="preserve">14.0340814590454</t>
   </si>
   <si>
     <t xml:space="preserve">14.370285987854</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">14.312650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.389497756958</t>
+    <t xml:space="preserve">14.3894968032837</t>
   </si>
   <si>
     <t xml:space="preserve">14.0821113586426</t>
@@ -4220,25 +4220,25 @@
     <t xml:space="preserve">13.7170906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3991022109985</t>
+    <t xml:space="preserve">14.3991031646729</t>
   </si>
   <si>
     <t xml:space="preserve">14.8793926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1003274917603</t>
+    <t xml:space="preserve">15.1003265380859</t>
   </si>
   <si>
     <t xml:space="preserve">15.1675672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">15.350076675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3404731750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0234804153442</t>
+    <t xml:space="preserve">15.3500776290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3404722213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0234813690186</t>
   </si>
   <si>
     <t xml:space="preserve">15.0522985458374</t>
@@ -4256,7 +4256,7 @@
     <t xml:space="preserve">15.0619039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1291446685791</t>
+    <t xml:space="preserve">15.1291437149048</t>
   </si>
   <si>
     <t xml:space="preserve">15.0907211303711</t>
@@ -4268,13 +4268,13 @@
     <t xml:space="preserve">14.9850578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1387510299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0138740539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.196385383606</t>
+    <t xml:space="preserve">15.1387500762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0138750076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1963844299316</t>
   </si>
   <si>
     <t xml:space="preserve">15.4365301132202</t>
@@ -4283,7 +4283,7 @@
     <t xml:space="preserve">15.3116540908813</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2155961990356</t>
+    <t xml:space="preserve">15.21559715271</t>
   </si>
   <si>
     <t xml:space="preserve">15.4557418823242</t>
@@ -4292,25 +4292,25 @@
     <t xml:space="preserve">14.68727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4855556488037</t>
+    <t xml:space="preserve">14.4855546951294</t>
   </si>
   <si>
     <t xml:space="preserve">14.8121528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922145843506</t>
+    <t xml:space="preserve">13.5922155380249</t>
   </si>
   <si>
     <t xml:space="preserve">11.7671117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6230249404907</t>
+    <t xml:space="preserve">11.623025894165</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5173616409302</t>
+    <t xml:space="preserve">11.5173606872559</t>
   </si>
   <si>
     <t xml:space="preserve">11.526967048645</t>
@@ -4337,13 +4337,13 @@
     <t xml:space="preserve">11.3540620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.469331741333</t>
+    <t xml:space="preserve">11.4693326950073</t>
   </si>
   <si>
     <t xml:space="preserve">11.2387933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3252458572388</t>
+    <t xml:space="preserve">11.3252449035645</t>
   </si>
   <si>
     <t xml:space="preserve">11.2772159576416</t>
@@ -4352,7 +4352,7 @@
     <t xml:space="preserve">11.113917350769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2003688812256</t>
+    <t xml:space="preserve">11.2003698348999</t>
   </si>
   <si>
     <t xml:space="preserve">11.1427354812622</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">10.6432332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5663871765137</t>
+    <t xml:space="preserve">10.5663862228394</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452299118042</t>
@@ -61069,7 +61069,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6504166667</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>271540</v>
@@ -61090,6 +61090,32 @@
         <v>1665</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6496296296</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>108422</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>9.94999980926514</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>9.84000015258789</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>9.92000007629395</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>9.88500022888184</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -38,100 +38,100 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14659762382507</t>
+    <t xml:space="preserve">2.14659786224365</t>
   </si>
   <si>
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19815969467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18187713623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14388418197632</t>
+    <t xml:space="preserve">2.19815921783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18187665939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14388394355774</t>
   </si>
   <si>
     <t xml:space="preserve">2.119460105896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06789803504944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1086049079895</t>
+    <t xml:space="preserve">2.06789779663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10860466957092</t>
   </si>
   <si>
     <t xml:space="preserve">2.09774994850159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00819516181946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03370499610901</t>
+    <t xml:space="preserve">2.00819540023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03370451927185</t>
   </si>
   <si>
     <t xml:space="preserve">2.00765252113342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06247019767761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06138515472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04618811607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04564523696899</t>
+    <t xml:space="preserve">2.06247091293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06138491630554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04618787765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04564499855042</t>
   </si>
   <si>
     <t xml:space="preserve">2.10534834861755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04944467544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.063556432724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02176403999329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94035077095032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97020208835602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98214268684387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95663356781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97562968730927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95934677124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98919868469238</t>
+    <t xml:space="preserve">2.04944443702698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06355619430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02176427841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94035089015961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97020196914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98214292526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95663344860077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97563016414642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95934689044952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98919880390167</t>
   </si>
   <si>
     <t xml:space="preserve">1.99896836280823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98648500442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13845634460449</t>
+    <t xml:space="preserve">1.98648452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13845682144165</t>
   </si>
   <si>
     <t xml:space="preserve">2.11674642562866</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13031482696533</t>
+    <t xml:space="preserve">2.13031506538391</t>
   </si>
   <si>
     <t xml:space="preserve">2.14062738418579</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">2.21986985206604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15473866462708</t>
+    <t xml:space="preserve">2.15473914146423</t>
   </si>
   <si>
     <t xml:space="preserve">2.18676161766052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14931178092957</t>
+    <t xml:space="preserve">2.14931130409241</t>
   </si>
   <si>
     <t xml:space="preserve">2.19164657592773</t>
@@ -155,10 +155,10 @@
     <t xml:space="preserve">2.19273209571838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20087361335754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19544529914856</t>
+    <t xml:space="preserve">2.20087337493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19544577598572</t>
   </si>
   <si>
     <t xml:space="preserve">2.19870233535767</t>
@@ -167,31 +167,31 @@
     <t xml:space="preserve">2.21607065200806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23072457313538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27143120765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20358681678772</t>
+    <t xml:space="preserve">2.23072481155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27143144607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20358729362488</t>
   </si>
   <si>
     <t xml:space="preserve">2.19218921661377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17644929885864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1520254611969</t>
+    <t xml:space="preserve">2.17644906044006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15202569961548</t>
   </si>
   <si>
     <t xml:space="preserve">2.13302898406982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11783170700073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16830801963806</t>
+    <t xml:space="preserve">2.11783194541931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16830825805664</t>
   </si>
   <si>
     <t xml:space="preserve">2.18730425834656</t>
@@ -200,10 +200,10 @@
     <t xml:space="preserve">2.1710216999054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16016674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11131882667542</t>
+    <t xml:space="preserve">2.1601665019989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11131858825684</t>
   </si>
   <si>
     <t xml:space="preserve">2.09829235076904</t>
@@ -215,19 +215,19 @@
     <t xml:space="preserve">2.11457514762878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16505146026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17156457901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2090151309967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20304441452026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22529721260071</t>
+    <t xml:space="preserve">2.16505122184753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17156434059143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20901489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20304417610168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22529745101929</t>
   </si>
   <si>
     <t xml:space="preserve">2.29314160346985</t>
@@ -239,34 +239,34 @@
     <t xml:space="preserve">2.34470343589783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30725359916687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27360272407532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26328992843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27414560317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29585552215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28011536598206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37184143066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40060710906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37726855278015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50318765640259</t>
+    <t xml:space="preserve">2.30725312232971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27360248565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26329040527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27414512634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29585528373718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28011560440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37184119224548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4006073474884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37726902961731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50318789482117</t>
   </si>
   <si>
     <t xml:space="preserve">2.55800652503967</t>
@@ -278,10 +278,10 @@
     <t xml:space="preserve">2.62205171585083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58568668365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67307019233704</t>
+    <t xml:space="preserve">2.58568716049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67307043075562</t>
   </si>
   <si>
     <t xml:space="preserve">2.72425127029419</t>
@@ -290,10 +290,10 @@
     <t xml:space="preserve">2.72591996192932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76096773147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74705958366394</t>
+    <t xml:space="preserve">2.76096749305725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74705982208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.78155088424683</t>
@@ -302,28 +302,28 @@
     <t xml:space="preserve">2.85498404502869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87723684310913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02410221099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.055255651474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06860685348511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01075077056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90393924713135</t>
+    <t xml:space="preserve">2.87723660469055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02410197257996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05525541305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06860709190369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01075100898743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90393948554993</t>
   </si>
   <si>
     <t xml:space="preserve">2.98182272911072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97069668769836</t>
+    <t xml:space="preserve">2.97069644927979</t>
   </si>
   <si>
     <t xml:space="preserve">2.96179580688477</t>
@@ -332,10 +332,10 @@
     <t xml:space="preserve">2.88168692588806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82605576515198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79712748527527</t>
+    <t xml:space="preserve">2.82605600357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79712772369385</t>
   </si>
   <si>
     <t xml:space="preserve">2.75484800338745</t>
@@ -344,25 +344,25 @@
     <t xml:space="preserve">2.84830832481384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92841696739197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04858016967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91061496734619</t>
+    <t xml:space="preserve">2.92841672897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04857993125916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91061520576477</t>
   </si>
   <si>
     <t xml:space="preserve">2.83718204498291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92619180679321</t>
+    <t xml:space="preserve">2.92619156837463</t>
   </si>
   <si>
     <t xml:space="preserve">2.98404788970947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0374538898468</t>
+    <t xml:space="preserve">3.03745365142822</t>
   </si>
   <si>
     <t xml:space="preserve">3.05748081207275</t>
@@ -374,22 +374,22 @@
     <t xml:space="preserve">3.06415677070618</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04412937164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10198569297791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11533689498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13758945465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22659945487976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37123942375183</t>
+    <t xml:space="preserve">3.04412961006165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10198545455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11533713340759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13758969306946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22659921646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37124013900757</t>
   </si>
   <si>
     <t xml:space="preserve">3.38014078140259</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">3.41574454307556</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36456418037415</t>
+    <t xml:space="preserve">3.36456394195557</t>
   </si>
   <si>
     <t xml:space="preserve">3.36011362075806</t>
@@ -416,13 +416,13 @@
     <t xml:space="preserve">3.35121250152588</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32896065711975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33786106109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24440097808838</t>
+    <t xml:space="preserve">3.32896041870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33786129951477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24440121650696</t>
   </si>
   <si>
     <t xml:space="preserve">3.32673478126526</t>
@@ -443,10 +443,10 @@
     <t xml:space="preserve">3.39794301986694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35788869857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34453678131104</t>
+    <t xml:space="preserve">3.35788822174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34453725814819</t>
   </si>
   <si>
     <t xml:space="preserve">3.42687082290649</t>
@@ -455,25 +455,25 @@
     <t xml:space="preserve">3.39349222183228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3489875793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38681650161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38236618041992</t>
+    <t xml:space="preserve">3.34898734092712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38681674003601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38236594200134</t>
   </si>
   <si>
     <t xml:space="preserve">3.21992349624634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2599778175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28000497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32228446006775</t>
+    <t xml:space="preserve">3.25997757911682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28000473976135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32228469848633</t>
   </si>
   <si>
     <t xml:space="preserve">3.27110409736633</t>
@@ -482,16 +482,16 @@
     <t xml:space="preserve">3.29335641860962</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15984201431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40684390068054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33563590049744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27555465698242</t>
+    <t xml:space="preserve">3.15984153747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40684366226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33563566207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.275554895401</t>
   </si>
   <si>
     <t xml:space="preserve">3.44689798355103</t>
@@ -506,16 +506,16 @@
     <t xml:space="preserve">3.76065683364868</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86969375610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99430775642395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09889364242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18345260620117</t>
+    <t xml:space="preserve">3.86969327926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99430727958679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0988941192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18345308303833</t>
   </si>
   <si>
     <t xml:space="preserve">4.08331680297852</t>
@@ -524,19 +524,19 @@
     <t xml:space="preserve">4.04548835754395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20570516586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28581380844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43267917633057</t>
+    <t xml:space="preserve">4.20570468902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28581428527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43268013000488</t>
   </si>
   <si>
     <t xml:space="preserve">4.32809352874756</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35702180862427</t>
+    <t xml:space="preserve">4.35702133178711</t>
   </si>
   <si>
     <t xml:space="preserve">4.57286930084229</t>
@@ -545,10 +545,10 @@
     <t xml:space="preserve">4.79316902160645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75978994369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74866437911987</t>
+    <t xml:space="preserve">4.75979042053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74866342544556</t>
   </si>
   <si>
     <t xml:space="preserve">4.86437654495239</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">5.06242275238037</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05129671096802</t>
+    <t xml:space="preserve">5.05129718780518</t>
   </si>
   <si>
     <t xml:space="preserve">4.82432222366333</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">4.8465747833252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84212446212769</t>
+    <t xml:space="preserve">4.84212350845337</t>
   </si>
   <si>
     <t xml:space="preserve">4.74643898010254</t>
@@ -575,61 +575,61 @@
     <t xml:space="preserve">4.67300605773926</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47050857543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44603109359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43712949752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32141733169556</t>
+    <t xml:space="preserve">4.47050952911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44603157043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43713045120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32141828536987</t>
   </si>
   <si>
     <t xml:space="preserve">4.28358888626099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17900228500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31919288635254</t>
+    <t xml:space="preserve">4.17900276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31919240951538</t>
   </si>
   <si>
     <t xml:space="preserve">4.33921957015991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46160793304443</t>
+    <t xml:space="preserve">4.46160745620728</t>
   </si>
   <si>
     <t xml:space="preserve">4.45048141479492</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43490505218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7620153427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73976278305054</t>
+    <t xml:space="preserve">4.4349045753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76201581954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73976230621338</t>
   </si>
   <si>
     <t xml:space="preserve">4.73753833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71751022338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75088930130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82654809951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69525814056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76646614074707</t>
+    <t xml:space="preserve">4.71751070022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75088882446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82654714584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69525861740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76646518707275</t>
   </si>
   <si>
     <t xml:space="preserve">4.69080781936646</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">4.61069917678833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62405061721802</t>
+    <t xml:space="preserve">4.62405014038086</t>
   </si>
   <si>
     <t xml:space="preserve">4.83767366409302</t>
@@ -647,163 +647,163 @@
     <t xml:space="preserve">4.74421358108521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89107894897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87995386123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85102558135986</t>
+    <t xml:space="preserve">4.89107990264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87995338439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85102462768555</t>
   </si>
   <si>
     <t xml:space="preserve">4.87105226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21151399612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50524568557739</t>
+    <t xml:space="preserve">5.21151351928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50524616241455</t>
   </si>
   <si>
     <t xml:space="preserve">5.40733528137207</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36728143692017</t>
+    <t xml:space="preserve">5.36728096008301</t>
   </si>
   <si>
     <t xml:space="preserve">5.34502792358398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34280347824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31832551956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14698266983032</t>
+    <t xml:space="preserve">5.34280252456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31832599639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14698219299316</t>
   </si>
   <si>
     <t xml:space="preserve">5.22264003753662</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34057855606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39175891876221</t>
+    <t xml:space="preserve">5.34057807922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39175796508789</t>
   </si>
   <si>
     <t xml:space="preserve">5.4273624420166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28494739532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25824356079102</t>
+    <t xml:space="preserve">5.28494644165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25824308395386</t>
   </si>
   <si>
     <t xml:space="preserve">5.17368459701538</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01791763305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20261240005493</t>
+    <t xml:space="preserve">5.0179181098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20261335372925</t>
   </si>
   <si>
     <t xml:space="preserve">5.15143299102783</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22709131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21373891830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20483827590942</t>
+    <t xml:space="preserve">5.22709035873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21373987197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20483875274658</t>
   </si>
   <si>
     <t xml:space="preserve">5.24044179916382</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22931623458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15588235855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06687307357788</t>
+    <t xml:space="preserve">5.22931575775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15588331222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06687355041504</t>
   </si>
   <si>
     <t xml:space="preserve">5.13808107376099</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09802627563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9934401512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97341346740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96228647232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95338678359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90665626525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83989858627319</t>
+    <t xml:space="preserve">5.09802722930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99344062805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97341299057007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96228694915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95338582992554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90665531158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83989810943604</t>
   </si>
   <si>
     <t xml:space="preserve">4.89552974700928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84880018234253</t>
+    <t xml:space="preserve">4.84879970550537</t>
   </si>
   <si>
     <t xml:space="preserve">4.86215162277222</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78426790237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.926682472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02681922912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25156927108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1959376335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31164979934692</t>
+    <t xml:space="preserve">4.78426742553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92668294906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02681875228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25156879425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19593715667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31165027618408</t>
   </si>
   <si>
     <t xml:space="preserve">5.23154163360596</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2070631980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41846084594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50302076339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53639936447144</t>
+    <t xml:space="preserve">5.20706367492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41846132278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5030198097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53639984130859</t>
   </si>
   <si>
     <t xml:space="preserve">5.67436408996582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8078784942627</t>
+    <t xml:space="preserve">5.80787897109985</t>
   </si>
   <si>
     <t xml:space="preserve">5.76337385177612</t>
@@ -812,37 +812,37 @@
     <t xml:space="preserve">5.97254610061646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04152917861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0749077796936</t>
+    <t xml:space="preserve">6.04152870178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07490730285645</t>
   </si>
   <si>
     <t xml:space="preserve">6.24847602844238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94139337539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00815057754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88576221466064</t>
+    <t xml:space="preserve">5.94139289855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00815010070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88576173782349</t>
   </si>
   <si>
     <t xml:space="preserve">5.89021253585815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0192756652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02595281600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10828590393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23067378997803</t>
+    <t xml:space="preserve">6.01927614212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02595186233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10828685760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23067426681519</t>
   </si>
   <si>
     <t xml:space="preserve">6.07935810089111</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">6.12163782119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13721370697021</t>
+    <t xml:space="preserve">6.13721418380737</t>
   </si>
   <si>
     <t xml:space="preserve">6.11941194534302</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1750431060791</t>
+    <t xml:space="preserve">6.17504358291626</t>
   </si>
   <si>
     <t xml:space="preserve">6.19061994552612</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">6.2173228263855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09493446350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20842218399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27517890930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56446075439453</t>
+    <t xml:space="preserve">6.09493398666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20842170715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27517938613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56446027755737</t>
   </si>
   <si>
     <t xml:space="preserve">6.40646886825562</t>
@@ -887,28 +887,28 @@
     <t xml:space="preserve">6.68684864044189</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7335786819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9538779258728</t>
+    <t xml:space="preserve">6.73357915878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95387744903564</t>
   </si>
   <si>
     <t xml:space="preserve">7.05401372909546</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16527605056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22090673446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27431201934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4812593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28766393661499</t>
+    <t xml:space="preserve">7.16527557373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22090625762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2743124961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48125982284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28766345977783</t>
   </si>
   <si>
     <t xml:space="preserve">7.38334894180298</t>
@@ -920,19 +920,19 @@
     <t xml:space="preserve">7.26986122131348</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45455694198608</t>
+    <t xml:space="preserve">7.45455598831177</t>
   </si>
   <si>
     <t xml:space="preserve">7.53911590576172</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52576398849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44565629959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4656834602356</t>
+    <t xml:space="preserve">7.52576446533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44565582275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46568250656128</t>
   </si>
   <si>
     <t xml:space="preserve">7.35442066192627</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">6.36418867111206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61564064025879</t>
+    <t xml:space="preserve">6.61564111709595</t>
   </si>
   <si>
     <t xml:space="preserve">6.54220819473267</t>
@@ -959,91 +959,91 @@
     <t xml:space="preserve">6.66682195663452</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72245216369629</t>
+    <t xml:space="preserve">6.72245168685913</t>
   </si>
   <si>
     <t xml:space="preserve">6.66832971572876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70666646957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7585334777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69313621520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59616661071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70215654373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06973838806152</t>
+    <t xml:space="preserve">6.70666694641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75853395462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69313669204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59616708755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70215606689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06973791122437</t>
   </si>
   <si>
     <t xml:space="preserve">6.91188097000122</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97276830673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55783033370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72921800613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64803409576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.562340259552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6299934387207</t>
+    <t xml:space="preserve">6.97276878356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55782985687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72921752929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.648033618927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56234073638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62999296188354</t>
   </si>
   <si>
     <t xml:space="preserve">6.4969425201416</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47439098358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57587051391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46762657165527</t>
+    <t xml:space="preserve">6.4743914604187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57587194442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46762609481812</t>
   </si>
   <si>
     <t xml:space="preserve">6.47213649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51498365402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29623889923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27819728851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2736873626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08876991271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04366731643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03239154815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06847381591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91287136077881</t>
+    <t xml:space="preserve">6.5149827003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2962384223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27819776535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27368783950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08876943588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04366683959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0323920249939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06847333908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91287183761597</t>
   </si>
   <si>
     <t xml:space="preserve">6.09102392196655</t>
@@ -1052,13 +1052,13 @@
     <t xml:space="preserve">6.05043268203735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06396341323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07298469543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96473932266235</t>
+    <t xml:space="preserve">6.06396245956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07298421859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9647388458252</t>
   </si>
   <si>
     <t xml:space="preserve">5.97601413726807</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">5.59039258956909</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73246383666992</t>
+    <t xml:space="preserve">5.73246431350708</t>
   </si>
   <si>
     <t xml:space="preserve">5.86325979232788</t>
@@ -1085,10 +1085,10 @@
     <t xml:space="preserve">5.88806533813477</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02111673355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84070873260498</t>
+    <t xml:space="preserve">6.02111625671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84070777893066</t>
   </si>
   <si>
     <t xml:space="preserve">5.84747362136841</t>
@@ -1100,67 +1100,67 @@
     <t xml:space="preserve">5.68059682846069</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50469923019409</t>
+    <t xml:space="preserve">5.50469827651978</t>
   </si>
   <si>
     <t xml:space="preserve">5.66706562042236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56333160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57009649276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51822948455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53852510452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61294317245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68285179138184</t>
+    <t xml:space="preserve">5.56333112716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57009601593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51822900772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53852462768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61294364929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68285131454468</t>
   </si>
   <si>
     <t xml:space="preserve">5.60166788101196</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64902544021606</t>
+    <t xml:space="preserve">5.64902496337891</t>
   </si>
   <si>
     <t xml:space="preserve">5.57911682128906</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53175973892212</t>
+    <t xml:space="preserve">5.53176021575928</t>
   </si>
   <si>
     <t xml:space="preserve">5.61068820953369</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69187164306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86551523208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78884124755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93091249465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99856567382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85649490356445</t>
+    <t xml:space="preserve">5.69187211990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86551427841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78884077072144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93091201782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99856519699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85649394989014</t>
   </si>
   <si>
     <t xml:space="preserve">6.21956491470337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10004425048828</t>
+    <t xml:space="preserve">6.1000452041626</t>
   </si>
   <si>
     <t xml:space="preserve">5.93316745758057</t>
@@ -1175,115 +1175,115 @@
     <t xml:space="preserve">5.64225959777832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59941244125366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61519861221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47989273071289</t>
+    <t xml:space="preserve">5.59941291809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61519813537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47989225387573</t>
   </si>
   <si>
     <t xml:space="preserve">5.41449499130249</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34458637237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35586261749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36939239501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53401517868042</t>
+    <t xml:space="preserve">5.34458684921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35586214065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36939191818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53401565551758</t>
   </si>
   <si>
     <t xml:space="preserve">5.5159740447998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39419889450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3378210067749</t>
+    <t xml:space="preserve">5.39419841766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33782148361206</t>
   </si>
   <si>
     <t xml:space="preserve">5.25438261032104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2318320274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3220362663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28144359588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24536180496216</t>
+    <t xml:space="preserve">5.23183250427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32203578948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28144407272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24536228179932</t>
   </si>
   <si>
     <t xml:space="preserve">5.24987268447876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14839315414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1168212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.073974609375</t>
+    <t xml:space="preserve">5.14839267730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11682176589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07397508621216</t>
   </si>
   <si>
     <t xml:space="preserve">5.06720876693726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08073997497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15966796875</t>
+    <t xml:space="preserve">5.08073949813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15966844558716</t>
   </si>
   <si>
     <t xml:space="preserve">5.30850505828857</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39194345474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34007692337036</t>
+    <t xml:space="preserve">5.39194393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3400764465332</t>
   </si>
   <si>
     <t xml:space="preserve">5.36037254333496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.229576587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14162683486938</t>
+    <t xml:space="preserve">5.22957611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1416277885437</t>
   </si>
   <si>
     <t xml:space="preserve">4.97926044464111</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8304238319397</t>
+    <t xml:space="preserve">4.83042335510254</t>
   </si>
   <si>
     <t xml:space="preserve">4.81463813781738</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75375032424927</t>
+    <t xml:space="preserve">4.75375080108643</t>
   </si>
   <si>
     <t xml:space="preserve">5.04014825820923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33331060409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72795343399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93993282318115</t>
+    <t xml:space="preserve">5.33331155776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72795295715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93993330001831</t>
   </si>
   <si>
     <t xml:space="preserve">5.97375917434692</t>
@@ -1292,10 +1292,10 @@
     <t xml:space="preserve">5.89483070373535</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0346474647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99405527114868</t>
+    <t xml:space="preserve">6.03464794158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99405574798584</t>
   </si>
   <si>
     <t xml:space="preserve">5.90385150909424</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">5.94669818878174</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77756547927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76403522491455</t>
+    <t xml:space="preserve">5.77756595611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76403474807739</t>
   </si>
   <si>
     <t xml:space="preserve">5.82492256164551</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">5.70765733718872</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15642261505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33006525039673</t>
+    <t xml:space="preserve">6.15642166137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33006477355957</t>
   </si>
   <si>
     <t xml:space="preserve">6.19701385498047</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">6.2759428024292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26015710830688</t>
+    <t xml:space="preserve">6.26015758514404</t>
   </si>
   <si>
     <t xml:space="preserve">6.15867757797241</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">6.16769790649414</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93767786026001</t>
+    <t xml:space="preserve">5.93767738342285</t>
   </si>
   <si>
     <t xml:space="preserve">6.009840965271</t>
@@ -1352,13 +1352,13 @@
     <t xml:space="preserve">5.95346307754517</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87002515792847</t>
+    <t xml:space="preserve">5.87002468109131</t>
   </si>
   <si>
     <t xml:space="preserve">5.77531051635742</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74148368835449</t>
+    <t xml:space="preserve">5.74148416519165</t>
   </si>
   <si>
     <t xml:space="preserve">5.75952529907227</t>
@@ -1370,22 +1370,22 @@
     <t xml:space="preserve">5.98503494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84521865844727</t>
+    <t xml:space="preserve">5.84521818161011</t>
   </si>
   <si>
     <t xml:space="preserve">5.97150421142578</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16544342041016</t>
+    <t xml:space="preserve">6.165442943573</t>
   </si>
   <si>
     <t xml:space="preserve">6.17897367477417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08425903320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0752387046814</t>
+    <t xml:space="preserve">6.08425951004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07523918151855</t>
   </si>
   <si>
     <t xml:space="preserve">6.42703437805176</t>
@@ -1397,97 +1397,97 @@
     <t xml:space="preserve">6.35938119888306</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66607475280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51272869110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30525922775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23309516906738</t>
+    <t xml:space="preserve">6.66607522964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51272773742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30525875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2330961227417</t>
   </si>
   <si>
     <t xml:space="preserve">6.22407531738281</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67834186553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24662733078003</t>
+    <t xml:space="preserve">5.67834138870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24662637710571</t>
   </si>
   <si>
     <t xml:space="preserve">6.0526876449585</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9218921661377</t>
+    <t xml:space="preserve">5.92189168930054</t>
   </si>
   <si>
     <t xml:space="preserve">5.79560661315918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80913686752319</t>
+    <t xml:space="preserve">5.80913734436035</t>
   </si>
   <si>
     <t xml:space="preserve">5.54754543304443</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89032173156738</t>
+    <t xml:space="preserve">5.89032077789307</t>
   </si>
   <si>
     <t xml:space="preserve">6.00307607650757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11132049560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09327983856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31427907943726</t>
+    <t xml:space="preserve">6.11132001876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09328031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31427955627441</t>
   </si>
   <si>
     <t xml:space="preserve">6.4089937210083</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4946870803833</t>
+    <t xml:space="preserve">6.49468755722046</t>
   </si>
   <si>
     <t xml:space="preserve">6.87354421615601</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83295154571533</t>
+    <t xml:space="preserve">6.83295249938965</t>
   </si>
   <si>
     <t xml:space="preserve">7.08101320266724</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05846214294434</t>
+    <t xml:space="preserve">7.05846261978149</t>
   </si>
   <si>
     <t xml:space="preserve">7.26142168045044</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13062572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25691080093384</t>
+    <t xml:space="preserve">7.13062524795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.256911277771</t>
   </si>
   <si>
     <t xml:space="preserve">7.02238082885742</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10356521606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38770723342896</t>
+    <t xml:space="preserve">7.10356473922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38770627975464</t>
   </si>
   <si>
     <t xml:space="preserve">7.30652332305908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20278882980347</t>
+    <t xml:space="preserve">7.20278930664062</t>
   </si>
   <si>
     <t xml:space="preserve">7.27044200897217</t>
@@ -1499,31 +1499,31 @@
     <t xml:space="preserve">7.65831851959229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48693180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.342604637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60419702529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44182968139648</t>
+    <t xml:space="preserve">7.48693132400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34260511398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60419607162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44182920455933</t>
   </si>
   <si>
     <t xml:space="preserve">7.41927862167358</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2794623374939</t>
+    <t xml:space="preserve">7.27946186065674</t>
   </si>
   <si>
     <t xml:space="preserve">7.22082996368408</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4102578163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37417697906494</t>
+    <t xml:space="preserve">7.41025829315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37417650222778</t>
   </si>
   <si>
     <t xml:space="preserve">7.35162496566772</t>
@@ -1535,31 +1535,31 @@
     <t xml:space="preserve">7.62674713134766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78911447525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73048210144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7034215927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56360483169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72146224975586</t>
+    <t xml:space="preserve">7.78911399841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73048162460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70342016220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5636043548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72146272659302</t>
   </si>
   <si>
     <t xml:space="preserve">7.59066581726074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55007362365723</t>
+    <t xml:space="preserve">7.55007457733154</t>
   </si>
   <si>
     <t xml:space="preserve">7.22533988952637</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77431964874268</t>
+    <t xml:space="preserve">6.77432060241699</t>
   </si>
   <si>
     <t xml:space="preserve">6.99080896377563</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">6.7833399772644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66156482696533</t>
+    <t xml:space="preserve">6.66156530380249</t>
   </si>
   <si>
     <t xml:space="preserve">6.76529884338379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68862533569336</t>
+    <t xml:space="preserve">6.68862581253052</t>
   </si>
   <si>
     <t xml:space="preserve">6.86001396179199</t>
@@ -1586,25 +1586,25 @@
     <t xml:space="preserve">6.44531869888306</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7424430847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81101036071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74701499938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77901220321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69216156005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80644035339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72415828704834</t>
+    <t xml:space="preserve">6.74244356155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81101083755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74701452255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77901268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69216108322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8064398765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7241587638855</t>
   </si>
   <si>
     <t xml:space="preserve">6.62816429138184</t>
@@ -1616,37 +1616,37 @@
     <t xml:space="preserve">6.9024338722229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90700435638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76072835922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63730764389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62359380722046</t>
+    <t xml:space="preserve">6.90700483322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7607274055481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63730716705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6235933303833</t>
   </si>
   <si>
     <t xml:space="preserve">6.59159564971924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55959701538086</t>
+    <t xml:space="preserve">6.55959749221802</t>
   </si>
   <si>
     <t xml:space="preserve">6.45903253555298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36303806304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35846662521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25790166854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960670471191</t>
+    <t xml:space="preserve">6.36303853988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35846710205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25790119171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39960765838623</t>
   </si>
   <si>
     <t xml:space="preserve">6.2761869430542</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">6.31732654571533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34018230438232</t>
+    <t xml:space="preserve">6.34018278121948</t>
   </si>
   <si>
     <t xml:space="preserve">6.48645925521851</t>
@@ -1664,34 +1664,34 @@
     <t xml:space="preserve">6.38589429855347</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34932518005371</t>
+    <t xml:space="preserve">6.34932470321655</t>
   </si>
   <si>
     <t xml:space="preserve">6.47731733322144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73330163955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63273572921753</t>
+    <t xml:space="preserve">6.73330116271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63273620605469</t>
   </si>
   <si>
     <t xml:space="preserve">6.67387628555298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58245277404785</t>
+    <t xml:space="preserve">6.58245325088501</t>
   </si>
   <si>
     <t xml:space="preserve">6.5870246887207</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53217124938965</t>
+    <t xml:space="preserve">6.53217077255249</t>
   </si>
   <si>
     <t xml:space="preserve">6.54131317138672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51388597488403</t>
+    <t xml:space="preserve">6.51388549804688</t>
   </si>
   <si>
     <t xml:space="preserve">6.56873989105225</t>
@@ -1700,40 +1700,40 @@
     <t xml:space="preserve">6.57331132888794</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64645004272461</t>
+    <t xml:space="preserve">6.64644908905029</t>
   </si>
   <si>
     <t xml:space="preserve">6.46817398071289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37675142288208</t>
+    <t xml:space="preserve">6.37675189971924</t>
   </si>
   <si>
     <t xml:space="preserve">6.32646894454956</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41789197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60530853271484</t>
+    <t xml:space="preserve">6.41789150238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.605309009552</t>
   </si>
   <si>
     <t xml:space="preserve">6.78815507888794</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23504638671875</t>
+    <t xml:space="preserve">6.23504590988159</t>
   </si>
   <si>
     <t xml:space="preserve">6.53674173355103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32189846038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11619710922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59508514404297</t>
+    <t xml:space="preserve">6.32189798355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11619663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59508562088013</t>
   </si>
   <si>
     <t xml:space="preserve">5.45338010787964</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">5.1928243637085</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08311653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24310684204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12882804870605</t>
+    <t xml:space="preserve">5.08311700820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24310731887817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12882852554321</t>
   </si>
   <si>
     <t xml:space="preserve">5.18825340270996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16539764404297</t>
+    <t xml:space="preserve">5.16539812088013</t>
   </si>
   <si>
     <t xml:space="preserve">5.09682989120483</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">4.68999814987183</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7174243927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85455942153931</t>
+    <t xml:space="preserve">4.71742486953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85455894470215</t>
   </si>
   <si>
     <t xml:space="preserve">4.81799030303955</t>
@@ -1784,28 +1784,28 @@
     <t xml:space="preserve">4.46829700469971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21917009353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30145025253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20545625686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13003301620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14374542236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04546594619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17345857620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24659585952759</t>
+    <t xml:space="preserve">4.21916961669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30145072937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20545673370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13003253936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14374589920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04546642303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17345809936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24659633636475</t>
   </si>
   <si>
     <t xml:space="preserve">4.22145509719849</t>
@@ -1814,64 +1814,64 @@
     <t xml:space="preserve">4.10717630386353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95404314994812</t>
+    <t xml:space="preserve">3.95404291152954</t>
   </si>
   <si>
     <t xml:space="preserve">3.78719592094421</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83976411819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90147471427917</t>
+    <t xml:space="preserve">3.83976459503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90147495269775</t>
   </si>
   <si>
     <t xml:space="preserve">3.81690907478333</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92204451560974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93118762969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05232238769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24888229370117</t>
+    <t xml:space="preserve">3.92204475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93118715286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05232286453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24888277053833</t>
   </si>
   <si>
     <t xml:space="preserve">4.09117746353149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01118230819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01803874969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02946710586548</t>
+    <t xml:space="preserve">4.01118183135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01803922653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02946758270264</t>
   </si>
   <si>
     <t xml:space="preserve">3.95861434936523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94718670845032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92890238761902</t>
+    <t xml:space="preserve">3.94718599319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92890214920044</t>
   </si>
   <si>
     <t xml:space="preserve">3.53121185302734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43293237686157</t>
+    <t xml:space="preserve">3.43293261528015</t>
   </si>
   <si>
     <t xml:space="preserve">3.31408214569092</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09923839569092</t>
+    <t xml:space="preserve">3.0992386341095</t>
   </si>
   <si>
     <t xml:space="preserve">3.10838079452515</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">3.23180198669434</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45807361602783</t>
+    <t xml:space="preserve">3.45807385444641</t>
   </si>
   <si>
     <t xml:space="preserve">3.46264457702637</t>
@@ -1889,28 +1889,28 @@
     <t xml:space="preserve">3.3415093421936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29808354377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52892637252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46950173377991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56549549102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59292244911194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39179229736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31865382194519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17923331260681</t>
+    <t xml:space="preserve">3.29808378219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5289261341095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46950149536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56549572944641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59292268753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3917920589447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31865358352661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17923355102539</t>
   </si>
   <si>
     <t xml:space="preserve">2.99181652069092</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">2.99638748168945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07638263702393</t>
+    <t xml:space="preserve">3.0763828754425</t>
   </si>
   <si>
     <t xml:space="preserve">3.17237687110901</t>
@@ -1937,31 +1937,31 @@
     <t xml:space="preserve">2.98953080177307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83868312835693</t>
+    <t xml:space="preserve">2.83868288993835</t>
   </si>
   <si>
     <t xml:space="preserve">2.80897068977356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85011124610901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89582252502441</t>
+    <t xml:space="preserve">2.85011076927185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89582228660583</t>
   </si>
   <si>
     <t xml:space="preserve">2.95296168327332</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14037871360779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17466259002686</t>
+    <t xml:space="preserve">3.14037847518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17466235160828</t>
   </si>
   <si>
     <t xml:space="preserve">3.23865866661072</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30036926269531</t>
+    <t xml:space="preserve">3.30036854743958</t>
   </si>
   <si>
     <t xml:space="preserve">3.22951626777649</t>
@@ -1973,37 +1973,37 @@
     <t xml:space="preserve">3.30722570419312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25694298744202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26379990577698</t>
+    <t xml:space="preserve">3.25694274902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2637996673584</t>
   </si>
   <si>
     <t xml:space="preserve">3.39407753944397</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62034940719604</t>
+    <t xml:space="preserve">3.62034916877747</t>
   </si>
   <si>
     <t xml:space="preserve">3.55635333061218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61120700836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57235264778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69120192527771</t>
+    <t xml:space="preserve">3.6112072467804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57235240936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69120216369629</t>
   </si>
   <si>
     <t xml:space="preserve">3.74605584144592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65463304519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58835101127625</t>
+    <t xml:space="preserve">3.65463280677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58835124969482</t>
   </si>
   <si>
     <t xml:space="preserve">3.5997793674469</t>
@@ -2012,22 +2012,22 @@
     <t xml:space="preserve">3.66148972511292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51292729377747</t>
+    <t xml:space="preserve">3.51292753219604</t>
   </si>
   <si>
     <t xml:space="preserve">3.60206460952759</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66377544403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77576804161072</t>
+    <t xml:space="preserve">3.66377520561218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77576851844788</t>
   </si>
   <si>
     <t xml:space="preserve">3.70263004302979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69348764419556</t>
+    <t xml:space="preserve">3.69348788261414</t>
   </si>
   <si>
     <t xml:space="preserve">3.78491044044495</t>
@@ -2036,22 +2036,22 @@
     <t xml:space="preserve">3.88776135444641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98146963119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85576367378235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91747403144836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94261527061462</t>
+    <t xml:space="preserve">3.98147058486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85576343536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91747379302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94261479377747</t>
   </si>
   <si>
     <t xml:space="preserve">4.02718162536621</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07975006103516</t>
+    <t xml:space="preserve">4.07974910736084</t>
   </si>
   <si>
     <t xml:space="preserve">4.15974473953247</t>
@@ -2060,16 +2060,16 @@
     <t xml:space="preserve">4.22374057769775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18260049819946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34487676620483</t>
+    <t xml:space="preserve">4.18260097503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34487628936768</t>
   </si>
   <si>
     <t xml:space="preserve">4.28087997436523</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03632402420044</t>
+    <t xml:space="preserve">4.03632354736328</t>
   </si>
   <si>
     <t xml:space="preserve">4.09346294403076</t>
@@ -2087,22 +2087,22 @@
     <t xml:space="preserve">4.37687397003174</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4797248840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52543640136719</t>
+    <t xml:space="preserve">4.47972536087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52543687820435</t>
   </si>
   <si>
     <t xml:space="preserve">4.45001268386841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25802421569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29687881469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37230253219604</t>
+    <t xml:space="preserve">4.2580246925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29687929153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37230348587036</t>
   </si>
   <si>
     <t xml:space="preserve">4.29459381103516</t>
@@ -2114,22 +2114,22 @@
     <t xml:space="preserve">4.38601684570312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34259033203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33344841003418</t>
+    <t xml:space="preserve">4.34259128570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33344745635986</t>
   </si>
   <si>
     <t xml:space="preserve">4.34716176986694</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29230785369873</t>
+    <t xml:space="preserve">4.29230833053589</t>
   </si>
   <si>
     <t xml:space="preserve">4.16431617736816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24431133270264</t>
+    <t xml:space="preserve">4.24431085586548</t>
   </si>
   <si>
     <t xml:space="preserve">4.27859449386597</t>
@@ -2144,58 +2144,58 @@
     <t xml:space="preserve">4.02032470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98604154586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08432149887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12774705886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12546062469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10489130020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00432634353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96318578720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85119223594666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85804915428162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73234248161316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93575811386108</t>
+    <t xml:space="preserve">3.9860417842865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08432102203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12774658203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12546110153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10489082336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00432586669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96318602561951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85119247436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85804891586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73234272003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93575835227966</t>
   </si>
   <si>
     <t xml:space="preserve">4.18945741653442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90833163261414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04407072067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96683955192566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84514284133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82876110076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84748363494873</t>
+    <t xml:space="preserve">3.90833210945129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04407024383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96683979034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84514331817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82876086235046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84748387336731</t>
   </si>
   <si>
     <t xml:space="preserve">3.77025318145752</t>
@@ -2204,28 +2204,28 @@
     <t xml:space="preserve">3.75387120246887</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81471920013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9270544052124</t>
+    <t xml:space="preserve">3.81471872329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92705464363098</t>
   </si>
   <si>
     <t xml:space="preserve">3.95747828483582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01130628585815</t>
+    <t xml:space="preserve">4.011305809021</t>
   </si>
   <si>
     <t xml:space="preserve">4.05343151092529</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98322176933289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03704977035522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95981884002686</t>
+    <t xml:space="preserve">3.98322224617004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03704929351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95981931686401</t>
   </si>
   <si>
     <t xml:space="preserve">3.99258327484131</t>
@@ -2234,34 +2234,34 @@
     <t xml:space="preserve">4.07215404510498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13066148757935</t>
+    <t xml:space="preserve">4.1306619644165</t>
   </si>
   <si>
     <t xml:space="preserve">4.28980398178101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24533748626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1821494102478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20321178436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19151020050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2359766960144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28044271469116</t>
+    <t xml:space="preserve">4.24533700942993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18214893341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20321130752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19151067733765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23597621917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.280442237854</t>
   </si>
   <si>
     <t xml:space="preserve">4.37171506881714</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37873601913452</t>
+    <t xml:space="preserve">4.37873554229736</t>
   </si>
   <si>
     <t xml:space="preserve">4.40915966033936</t>
@@ -2270,31 +2270,31 @@
     <t xml:space="preserve">4.50511312484741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39745807647705</t>
+    <t xml:space="preserve">4.39745903015137</t>
   </si>
   <si>
     <t xml:space="preserve">4.44660520553589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33895063400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42788219451904</t>
+    <t xml:space="preserve">4.33895015716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4278826713562</t>
   </si>
   <si>
     <t xml:space="preserve">4.3319296836853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31554698944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28746318817139</t>
+    <t xml:space="preserve">4.31554746627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28746366500854</t>
   </si>
   <si>
     <t xml:space="preserve">4.34129047393799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26639986038208</t>
+    <t xml:space="preserve">4.26640033721924</t>
   </si>
   <si>
     <t xml:space="preserve">4.14938449859619</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">4.18916988372803</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24299716949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25469875335693</t>
+    <t xml:space="preserve">4.24299764633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25469923019409</t>
   </si>
   <si>
     <t xml:space="preserve">4.20087194442749</t>
@@ -2315,13 +2315,13 @@
     <t xml:space="preserve">4.2149133682251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16576623916626</t>
+    <t xml:space="preserve">4.16576671600342</t>
   </si>
   <si>
     <t xml:space="preserve">4.09555721282959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14470386505127</t>
+    <t xml:space="preserve">4.14470434188843</t>
   </si>
   <si>
     <t xml:space="preserve">4.05811262130737</t>
@@ -2333,19 +2333,19 @@
     <t xml:space="preserve">3.93173456192017</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97152042388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96215891838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93641567230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03938961029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08853578567505</t>
+    <t xml:space="preserve">3.971519947052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9621593952179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93641543388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03938913345337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08853626251221</t>
   </si>
   <si>
     <t xml:space="preserve">4.06981372833252</t>
@@ -2354,22 +2354,22 @@
     <t xml:space="preserve">4.22193479537964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2055516242981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25937938690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13300228118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14236402511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27810192108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22661447525024</t>
+    <t xml:space="preserve">4.20555210113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25937986373901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13300180435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14236354827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2781023979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22661542892456</t>
   </si>
   <si>
     <t xml:space="preserve">4.15172481536865</t>
@@ -2381,31 +2381,31 @@
     <t xml:space="preserve">4.43256330490112</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41384029388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70404052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11125516891479</t>
+    <t xml:space="preserve">4.41384077072144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70404005050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11125564575195</t>
   </si>
   <si>
     <t xml:space="preserve">5.28911972045898</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44826126098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4763445854187</t>
+    <t xml:space="preserve">5.44826173782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47634553909302</t>
   </si>
   <si>
     <t xml:space="preserve">5.75250291824341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60740232467651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50910997390747</t>
+    <t xml:space="preserve">5.60740280151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50910949707031</t>
   </si>
   <si>
     <t xml:space="preserve">5.73377990722656</t>
@@ -2420,13 +2420,13 @@
     <t xml:space="preserve">5.57463836669922</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60272264480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38273239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39209413528442</t>
+    <t xml:space="preserve">5.60272216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38273286819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39209365844727</t>
   </si>
   <si>
     <t xml:space="preserve">5.48102569580078</t>
@@ -2438,19 +2438,19 @@
     <t xml:space="preserve">5.46230316162109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59336090087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57931900024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68229341506958</t>
+    <t xml:space="preserve">5.59336137771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5793194770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68229389190674</t>
   </si>
   <si>
     <t xml:space="preserve">5.82271194458008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85547685623169</t>
+    <t xml:space="preserve">5.85547637939453</t>
   </si>
   <si>
     <t xml:space="preserve">6.05674362182617</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">5.85079622268677</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80398988723755</t>
+    <t xml:space="preserve">5.80398893356323</t>
   </si>
   <si>
     <t xml:space="preserve">5.84143495559692</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">5.93504762649536</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83675479888916</t>
+    <t xml:space="preserve">5.836754322052</t>
   </si>
   <si>
     <t xml:space="preserve">5.94909000396729</t>
@@ -2486,25 +2486,25 @@
     <t xml:space="preserve">6.18312168121338</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25801181793213</t>
+    <t xml:space="preserve">6.25801134109497</t>
   </si>
   <si>
     <t xml:space="preserve">6.36098527908325</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22056674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12695407867432</t>
+    <t xml:space="preserve">6.2205662727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12695360183716</t>
   </si>
   <si>
     <t xml:space="preserve">6.15503740310669</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37970781326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86181402206421</t>
+    <t xml:space="preserve">6.3797082901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86181354522705</t>
   </si>
   <si>
     <t xml:space="preserve">7.25966787338257</t>
@@ -2513,31 +2513,31 @@
     <t xml:space="preserve">7.35796165466309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4468936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77921915054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78389835357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88219213485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00857067108154</t>
+    <t xml:space="preserve">7.44689321517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77921867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78389883041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88219261169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00856971740723</t>
   </si>
   <si>
     <t xml:space="preserve">7.84006595611572</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79326009750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32519674301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44221305847168</t>
+    <t xml:space="preserve">7.7932596206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32519626617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44221258163452</t>
   </si>
   <si>
     <t xml:space="preserve">7.58263158798218</t>
@@ -2549,52 +2549,52 @@
     <t xml:space="preserve">7.45157384872437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43753147125244</t>
+    <t xml:space="preserve">7.4375319480896</t>
   </si>
   <si>
     <t xml:space="preserve">7.27370929718018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31115484237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4281702041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55922794342041</t>
+    <t xml:space="preserve">7.31115531921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42817068099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55922842025757</t>
   </si>
   <si>
     <t xml:space="preserve">7.54050636291504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74177312850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09282207489014</t>
+    <t xml:space="preserve">7.74177408218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09282112121582</t>
   </si>
   <si>
     <t xml:space="preserve">8.03197288513184</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84474802017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73241186141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83538579940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52646398544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61539697647095</t>
+    <t xml:space="preserve">7.84474754333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73241233825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83538627624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52646350860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61539649963379</t>
   </si>
   <si>
     <t xml:space="preserve">7.2783899307251</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57795143127441</t>
+    <t xml:space="preserve">7.57795095443726</t>
   </si>
   <si>
     <t xml:space="preserve">7.41880989074707</t>
@@ -2603,22 +2603,22 @@
     <t xml:space="preserve">7.46561574935913</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3813648223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69496726989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60135459899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65284204483032</t>
+    <t xml:space="preserve">7.38136434555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69496774673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60135412216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65284109115601</t>
   </si>
   <si>
     <t xml:space="preserve">7.68560552597046</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47965812683105</t>
+    <t xml:space="preserve">7.47965669631958</t>
   </si>
   <si>
     <t xml:space="preserve">7.33455801010132</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">7.18477773666382</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65586614608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66054582595825</t>
+    <t xml:space="preserve">6.65586566925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66054630279541</t>
   </si>
   <si>
     <t xml:space="preserve">6.88989782333374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94606494903564</t>
+    <t xml:space="preserve">6.9460654258728</t>
   </si>
   <si>
     <t xml:space="preserve">6.86649417877197</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">6.76352024078369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1800971031189</t>
+    <t xml:space="preserve">7.18009662628174</t>
   </si>
   <si>
     <t xml:space="preserve">7.04435873031616</t>
@@ -2657,10 +2657,10 @@
     <t xml:space="preserve">7.04903936386108</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9788293838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95074605941772</t>
+    <t xml:space="preserve">6.97882986068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95074558258057</t>
   </si>
   <si>
     <t xml:space="preserve">6.82436847686768</t>
@@ -2672,25 +2672,25 @@
     <t xml:space="preserve">6.91330099105835</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78224277496338</t>
+    <t xml:space="preserve">6.78224229812622</t>
   </si>
   <si>
     <t xml:space="preserve">6.25333070755005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09887027740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91632509231567</t>
+    <t xml:space="preserve">6.09886980056763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91632556915283</t>
   </si>
   <si>
     <t xml:space="preserve">5.76186370849609</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89760208129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84611511230469</t>
+    <t xml:space="preserve">5.89760255813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.846116065979</t>
   </si>
   <si>
     <t xml:space="preserve">5.59804153442383</t>
@@ -2699,19 +2699,19 @@
     <t xml:space="preserve">5.228271484375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85850048065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69935894012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74148559570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30384540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89897060394287</t>
+    <t xml:space="preserve">4.85850095748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69935941696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74148511886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30384588241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89897012710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.74450945854187</t>
@@ -2723,25 +2723,25 @@
     <t xml:space="preserve">3.29516839981079</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25304245948792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29750895500183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51983904838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08151531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94811725616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69302248954773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58068752288818</t>
+    <t xml:space="preserve">3.25304269790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29750871658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51983880996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08151578903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94811701774597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69302225112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5806872844696</t>
   </si>
   <si>
     <t xml:space="preserve">3.75153064727783</t>
@@ -2753,25 +2753,25 @@
     <t xml:space="preserve">3.79131579399109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70238351821899</t>
+    <t xml:space="preserve">3.70238399505615</t>
   </si>
   <si>
     <t xml:space="preserve">3.8802478313446</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82408022880554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15640592575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1189603805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47936964035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20789289474487</t>
+    <t xml:space="preserve">3.82408046722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15640544891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11896085739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47936916351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20789241790771</t>
   </si>
   <si>
     <t xml:space="preserve">4.10023784637451</t>
@@ -2786,19 +2786,19 @@
     <t xml:space="preserve">4.58702421188354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55425977706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45596694946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36235332489014</t>
+    <t xml:space="preserve">4.55425930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45596647262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36235284805298</t>
   </si>
   <si>
     <t xml:space="preserve">4.35767364501953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4185209274292</t>
+    <t xml:space="preserve">4.41852140426636</t>
   </si>
   <si>
     <t xml:space="preserve">4.45128583908081</t>
@@ -2810,13 +2810,13 @@
     <t xml:space="preserve">4.39979839324951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26874113082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77425003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62446928024292</t>
+    <t xml:space="preserve">4.2687406539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77424955368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62446975708008</t>
   </si>
   <si>
     <t xml:space="preserve">4.58234357833862</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">4.48405027389526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52149534225464</t>
+    <t xml:space="preserve">4.5214958190918</t>
   </si>
   <si>
     <t xml:space="preserve">4.85616064071655</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">5.0667896270752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00828075408936</t>
+    <t xml:space="preserve">5.00828170776367</t>
   </si>
   <si>
     <t xml:space="preserve">4.99658012390137</t>
@@ -2843,16 +2843,16 @@
     <t xml:space="preserve">5.16040229797363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30082082748413</t>
+    <t xml:space="preserve">5.30082130432129</t>
   </si>
   <si>
     <t xml:space="preserve">5.34762763977051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60506296157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4646430015564</t>
+    <t xml:space="preserve">5.60506248474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46464395523071</t>
   </si>
   <si>
     <t xml:space="preserve">5.27741765975952</t>
@@ -2864,13 +2864,13 @@
     <t xml:space="preserve">5.13699913024902</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31252288818359</t>
+    <t xml:space="preserve">5.31252336502075</t>
   </si>
   <si>
     <t xml:space="preserve">5.4295392036438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37103128433228</t>
+    <t xml:space="preserve">5.37103080749512</t>
   </si>
   <si>
     <t xml:space="preserve">5.51144981384277</t>
@@ -2879,7 +2879,7 @@
     <t xml:space="preserve">5.3242244720459</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26571607589722</t>
+    <t xml:space="preserve">5.26571655273438</t>
   </si>
   <si>
     <t xml:space="preserve">5.25401496887207</t>
@@ -2891,19 +2891,19 @@
     <t xml:space="preserve">5.35932922363281</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20720911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03168439865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12529706954956</t>
+    <t xml:space="preserve">5.20720815658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03168487548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12529754638672</t>
   </si>
   <si>
     <t xml:space="preserve">5.23061180114746</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17210340499878</t>
+    <t xml:space="preserve">5.17210388183594</t>
   </si>
   <si>
     <t xml:space="preserve">5.3359260559082</t>
@@ -2915,22 +2915,22 @@
     <t xml:space="preserve">5.21891021728516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24231338500977</t>
+    <t xml:space="preserve">5.24231386184692</t>
   </si>
   <si>
     <t xml:space="preserve">5.44124031066895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45294141769409</t>
+    <t xml:space="preserve">5.45294189453125</t>
   </si>
   <si>
     <t xml:space="preserve">5.14870071411133</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19550752639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0784912109375</t>
+    <t xml:space="preserve">5.19550704956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07849168777466</t>
   </si>
   <si>
     <t xml:space="preserve">5.05508804321289</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">5.09019231796265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94977378845215</t>
+    <t xml:space="preserve">4.94977331161499</t>
   </si>
   <si>
     <t xml:space="preserve">5.01998281478882</t>
@@ -2951,34 +2951,34 @@
     <t xml:space="preserve">5.11359596252441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68063688278198</t>
+    <t xml:space="preserve">4.68063735961914</t>
   </si>
   <si>
     <t xml:space="preserve">4.28278255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30618619918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1704478263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39511823654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43724346160889</t>
+    <t xml:space="preserve">4.30618572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17044734954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39511775970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43724298477173</t>
   </si>
   <si>
     <t xml:space="preserve">4.71574115753174</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66357135772705</t>
+    <t xml:space="preserve">5.66357040405273</t>
   </si>
   <si>
     <t xml:space="preserve">5.74548149108887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88590097427368</t>
+    <t xml:space="preserve">5.88590049743652</t>
   </si>
   <si>
     <t xml:space="preserve">5.86249780654907</t>
@@ -2987,22 +2987,22 @@
     <t xml:space="preserve">5.81569147109985</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76888465881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7922887802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02631998062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82739305496216</t>
+    <t xml:space="preserve">5.76888513565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79228830337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0263204574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.827392578125</t>
   </si>
   <si>
     <t xml:space="preserve">5.94440889358521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2837553024292</t>
+    <t xml:space="preserve">6.28375482559204</t>
   </si>
   <si>
     <t xml:space="preserve">6.09652948379517</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">6.08482789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00291681289673</t>
+    <t xml:space="preserve">6.00291633605957</t>
   </si>
   <si>
     <t xml:space="preserve">6.04972314834595</t>
@@ -3026,19 +3026,19 @@
     <t xml:space="preserve">6.26035213470459</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2954568862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31886005401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21354484558105</t>
+    <t xml:space="preserve">6.29545640945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3188591003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21354532241821</t>
   </si>
   <si>
     <t xml:space="preserve">6.27205324172974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35396432876587</t>
+    <t xml:space="preserve">6.35396480560303</t>
   </si>
   <si>
     <t xml:space="preserve">6.49438381195068</t>
@@ -3047,61 +3047,61 @@
     <t xml:space="preserve">6.45927906036377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50608491897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62310123443604</t>
+    <t xml:space="preserve">6.50608539581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62310075759888</t>
   </si>
   <si>
     <t xml:space="preserve">6.66990756988525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6816086769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70501279830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75181913375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72841548919678</t>
+    <t xml:space="preserve">6.68160915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70501232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75181865692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72841596603394</t>
   </si>
   <si>
     <t xml:space="preserve">6.77522230148315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55289173126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48268222808838</t>
+    <t xml:space="preserve">6.55289125442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48268175125122</t>
   </si>
   <si>
     <t xml:space="preserve">6.61139965057373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43587589263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34226274490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56459283828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64650392532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81032657623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65820598602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93904399871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90393924713135</t>
+    <t xml:space="preserve">6.435875415802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34226322174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56459331512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64650440216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81032705307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65820646286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93904447555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90393972396851</t>
   </si>
   <si>
     <t xml:space="preserve">6.83372974395752</t>
@@ -3122,25 +3122,25 @@
     <t xml:space="preserve">6.51778697967529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47098016738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5294885635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69331121444702</t>
+    <t xml:space="preserve">6.47098064422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52948808670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69331073760986</t>
   </si>
   <si>
     <t xml:space="preserve">7.02095508575439</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95708227157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94538116455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42514610290527</t>
+    <t xml:space="preserve">7.95708322525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94538068771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42514705657959</t>
   </si>
   <si>
     <t xml:space="preserve">8.35493659973145</t>
@@ -3152,52 +3152,52 @@
     <t xml:space="preserve">8.16771125793457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2379207611084</t>
+    <t xml:space="preserve">8.23792171478271</t>
   </si>
   <si>
     <t xml:space="preserve">8.20281600952148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30813121795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28472805023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21451759338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17941379547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10920429229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26132297515869</t>
+    <t xml:space="preserve">8.30813026428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28472709655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21451663970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17941284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10920333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26132392883301</t>
   </si>
   <si>
     <t xml:space="preserve">8.4953556060791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4836540222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47195339202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51875877380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46025085449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33153247833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29642868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36663913726807</t>
+    <t xml:space="preserve">8.48365497589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47195243835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51875972747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4602518081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33153343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29642963409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36663818359375</t>
   </si>
   <si>
     <t xml:space="preserve">8.53046131134033</t>
@@ -3209,19 +3209,19 @@
     <t xml:space="preserve">8.34323596954346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24962139129639</t>
+    <t xml:space="preserve">8.2496223449707</t>
   </si>
   <si>
     <t xml:space="preserve">8.39004135131836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12090587615967</t>
+    <t xml:space="preserve">8.12090396881104</t>
   </si>
   <si>
     <t xml:space="preserve">8.13260650634766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01559162139893</t>
+    <t xml:space="preserve">8.01559066772461</t>
   </si>
   <si>
     <t xml:space="preserve">8.09750175476074</t>
@@ -3230,40 +3230,40 @@
     <t xml:space="preserve">7.99218845367432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03899383544922</t>
+    <t xml:space="preserve">8.0389928817749</t>
   </si>
   <si>
     <t xml:space="preserve">8.56556510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36127376556396</t>
+    <t xml:space="preserve">9.36127471923828</t>
   </si>
   <si>
     <t xml:space="preserve">9.1974515914917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4080810546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6889181137085</t>
+    <t xml:space="preserve">9.40808010101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68891906738281</t>
   </si>
   <si>
     <t xml:space="preserve">9.86615467071533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81889152526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99612808227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92523288726807</t>
+    <t xml:space="preserve">9.81889247894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99612712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92523384094238</t>
   </si>
   <si>
     <t xml:space="preserve">10.3033380508423</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5160217285156</t>
+    <t xml:space="preserve">10.5160207748413</t>
   </si>
   <si>
     <t xml:space="preserve">10.5278367996216</t>
@@ -3293,10 +3293,10 @@
     <t xml:space="preserve">10.6341791152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5987319946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9768352508545</t>
+    <t xml:space="preserve">10.5987300872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9768362045288</t>
   </si>
   <si>
     <t xml:space="preserve">10.7050733566284</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">10.6105480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269701004028</t>
+    <t xml:space="preserve">10.3269691467285</t>
   </si>
   <si>
     <t xml:space="preserve">10.4923906326294</t>
@@ -3314,7 +3314,7 @@
     <t xml:space="preserve">10.6223640441895</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2797069549561</t>
+    <t xml:space="preserve">10.2797060012817</t>
   </si>
   <si>
     <t xml:space="preserve">10.1733636856079</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">10.3151540756226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3387861251831</t>
+    <t xml:space="preserve">10.3387851715088</t>
   </si>
   <si>
     <t xml:space="preserve">10.4805736541748</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">10.7168884277344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4096794128418</t>
+    <t xml:space="preserve">10.4096784591675</t>
   </si>
   <si>
     <t xml:space="preserve">10.2560758590698</t>
@@ -3353,19 +3353,19 @@
     <t xml:space="preserve">10.6459941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3978633880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3624172210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.437650680542</t>
+    <t xml:space="preserve">10.3978643417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3624153137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4376497268677</t>
   </si>
   <si>
     <t xml:space="preserve">11.7590379714966</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1673917770386</t>
+    <t xml:space="preserve">12.1673898696899</t>
   </si>
   <si>
     <t xml:space="preserve">12.163610458374</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968482971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6815271377563</t>
+    <t xml:space="preserve">11.7968492507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6815280914307</t>
   </si>
   <si>
     <t xml:space="preserve">11.834659576416</t>
@@ -3389,13 +3389,13 @@
     <t xml:space="preserve">11.7023229598999</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6077966690063</t>
+    <t xml:space="preserve">11.6077976226807</t>
   </si>
   <si>
     <t xml:space="preserve">11.5699863433838</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9102811813354</t>
+    <t xml:space="preserve">11.9102802276611</t>
   </si>
   <si>
     <t xml:space="preserve">11.6456069946289</t>
@@ -3410,19 +3410,19 @@
     <t xml:space="preserve">12.1182374954224</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3261947631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3072910308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5152463912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5719633102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1560478210449</t>
+    <t xml:space="preserve">12.3261957168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3072900772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5152473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5719623565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1560468673706</t>
   </si>
   <si>
     <t xml:space="preserve">13.2147397994995</t>
@@ -3431,10 +3431,10 @@
     <t xml:space="preserve">13.9142322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1599998474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0087575912476</t>
+    <t xml:space="preserve">14.1600008010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0087585449219</t>
   </si>
   <si>
     <t xml:space="preserve">13.4416027069092</t>
@@ -3443,13 +3443,13 @@
     <t xml:space="preserve">13.8008012771606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1221895217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.027663230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9540176391602</t>
+    <t xml:space="preserve">14.1221885681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0276641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9540185928345</t>
   </si>
   <si>
     <t xml:space="preserve">14.3490524291992</t>
@@ -3458,7 +3458,7 @@
     <t xml:space="preserve">14.0465679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7062759399414</t>
+    <t xml:space="preserve">13.7062740325928</t>
   </si>
   <si>
     <t xml:space="preserve">14.0654745101929</t>
@@ -3470,13 +3470,13 @@
     <t xml:space="preserve">13.3281707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7610149383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2525510787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3848867416382</t>
+    <t xml:space="preserve">12.7610139846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2525501251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3848857879639</t>
   </si>
   <si>
     <t xml:space="preserve">13.1769285202026</t>
@@ -3491,10 +3491,10 @@
     <t xml:space="preserve">13.3659811019897</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7649660110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7858476638794</t>
+    <t xml:space="preserve">14.7649669647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7858486175537</t>
   </si>
   <si>
     <t xml:space="preserve">15.8425636291504</t>
@@ -3506,16 +3506,16 @@
     <t xml:space="preserve">16.9201602935791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.731107711792</t>
+    <t xml:space="preserve">16.7311096191406</t>
   </si>
   <si>
     <t xml:space="preserve">16.9012546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6176776885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7122039794922</t>
+    <t xml:space="preserve">16.61767578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7122020721436</t>
   </si>
   <si>
     <t xml:space="preserve">16.3719100952148</t>
@@ -3530,19 +3530,19 @@
     <t xml:space="preserve">16.3530044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2584781646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614692687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047513961792</t>
+    <t xml:space="preserve">16.2584800720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614702224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047523498535</t>
   </si>
   <si>
     <t xml:space="preserve">16.2395725250244</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0883312225342</t>
+    <t xml:space="preserve">16.0883331298828</t>
   </si>
   <si>
     <t xml:space="preserve">16.1828575134277</t>
@@ -3551,31 +3551,31 @@
     <t xml:space="preserve">15.2375974655151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7460613250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8216829299927</t>
+    <t xml:space="preserve">14.7460622787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8216819763184</t>
   </si>
   <si>
     <t xml:space="preserve">14.5570087432861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9331378936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9520425796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6306533813477</t>
+    <t xml:space="preserve">13.9331369400024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9520435333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.630654335022</t>
   </si>
   <si>
     <t xml:space="preserve">14.2356204986572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3679571151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.481388092041</t>
+    <t xml:space="preserve">14.367956161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4813890457153</t>
   </si>
   <si>
     <t xml:space="preserve">14.197811126709</t>
@@ -3587,28 +3587,28 @@
     <t xml:space="preserve">14.4624834060669</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1032848358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0843782424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5550327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8386116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6873693466187</t>
+    <t xml:space="preserve">14.1032838821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.084379196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5550336837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8386106491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.687370300293</t>
   </si>
   <si>
     <t xml:space="preserve">13.6495580673218</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2734308242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4435777664185</t>
+    <t xml:space="preserve">14.2734317779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4435768127441</t>
   </si>
   <si>
     <t xml:space="preserve">14.6137256622314</t>
@@ -3617,25 +3617,25 @@
     <t xml:space="preserve">14.5948190689087</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4246740341187</t>
+    <t xml:space="preserve">14.4246730804443</t>
   </si>
   <si>
     <t xml:space="preserve">13.2336444854736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4226961135864</t>
+    <t xml:space="preserve">13.4226970672607</t>
   </si>
   <si>
     <t xml:space="preserve">13.3470764160156</t>
   </si>
   <si>
-    <t xml:space="preserve">13.744086265564</t>
+    <t xml:space="preserve">13.7440853118896</t>
   </si>
   <si>
     <t xml:space="preserve">12.4774360656738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6664886474609</t>
+    <t xml:space="preserve">12.6664876937866</t>
   </si>
   <si>
     <t xml:space="preserve">13.4794130325317</t>
@@ -3650,13 +3650,13 @@
     <t xml:space="preserve">12.1749534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9122552871704</t>
+    <t xml:space="preserve">12.9122562408447</t>
   </si>
   <si>
     <t xml:space="preserve">12.6097736358643</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0993328094482</t>
+    <t xml:space="preserve">12.0993318557739</t>
   </si>
   <si>
     <t xml:space="preserve">12.4018154144287</t>
@@ -3665,7 +3665,7 @@
     <t xml:space="preserve">12.2127637863159</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9291849136353</t>
+    <t xml:space="preserve">11.9291858673096</t>
   </si>
   <si>
     <t xml:space="preserve">11.8535652160645</t>
@@ -3674,13 +3674,13 @@
     <t xml:space="preserve">12.2694787979126</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0426158905029</t>
+    <t xml:space="preserve">12.0426168441772</t>
   </si>
   <si>
     <t xml:space="preserve">12.288384437561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2316675186157</t>
+    <t xml:space="preserve">12.23166847229</t>
   </si>
   <si>
     <t xml:space="preserve">11.2675037384033</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">10.7381572723389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3620300292969</t>
+    <t xml:space="preserve">11.3620290756226</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804271697998</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">11.6645135879517</t>
   </si>
   <si>
-    <t xml:space="preserve">12.950065612793</t>
+    <t xml:space="preserve">12.9500665664673</t>
   </si>
   <si>
     <t xml:space="preserve">13.0067825317383</t>
@@ -3710,13 +3710,13 @@
     <t xml:space="preserve">13.0824031829834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5172233581543</t>
+    <t xml:space="preserve">13.51722240448</t>
   </si>
   <si>
     <t xml:space="preserve">13.6212015151978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6590127944946</t>
+    <t xml:space="preserve">13.6590118408203</t>
   </si>
   <si>
     <t xml:space="preserve">12.9973297119141</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">12.7042989730835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6759405136108</t>
+    <t xml:space="preserve">12.6759414672852</t>
   </si>
   <si>
     <t xml:space="preserve">12.7893724441528</t>
@@ -3737,13 +3737,13 @@
     <t xml:space="preserve">12.6192264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6003198623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7704677581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8933515548706</t>
+    <t xml:space="preserve">12.60032081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7704668045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8933506011963</t>
   </si>
   <si>
     <t xml:space="preserve">12.7137508392334</t>
@@ -3755,34 +3755,34 @@
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286783218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0237121582031</t>
+    <t xml:space="preserve">12.6286773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0237112045288</t>
   </si>
   <si>
     <t xml:space="preserve">12.146595954895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8630180358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8063011169434</t>
+    <t xml:space="preserve">11.8630170822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8063020706177</t>
   </si>
   <si>
     <t xml:space="preserve">11.5416288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8799457550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0028305053711</t>
+    <t xml:space="preserve">10.8799467086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0028314590454</t>
   </si>
   <si>
     <t xml:space="preserve">11.3431243896484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8252077102661</t>
+    <t xml:space="preserve">11.8252067565918</t>
   </si>
   <si>
     <t xml:space="preserve">11.6834173202515</t>
@@ -3797,31 +3797,31 @@
     <t xml:space="preserve">11.6518430709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8151416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8247480392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.940016746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4107007980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1129217147827</t>
+    <t xml:space="preserve">11.8151407241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8247470855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9400177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.410701751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1129207611084</t>
   </si>
   <si>
     <t xml:space="preserve">11.920804977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.016863822937</t>
+    <t xml:space="preserve">12.0168628692627</t>
   </si>
   <si>
     <t xml:space="preserve">12.2377967834473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050384521484</t>
+    <t xml:space="preserve">12.3050374984741</t>
   </si>
   <si>
     <t xml:space="preserve">12.4010953903198</t>
@@ -3833,7 +3833,7 @@
     <t xml:space="preserve">11.4116973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9890413284302</t>
+    <t xml:space="preserve">10.9890422821045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7969255447388</t>
@@ -3842,16 +3842,16 @@
     <t xml:space="preserve">11.2964277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8161382675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0658893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1235227584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2676105499268</t>
+    <t xml:space="preserve">10.8161373138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0658884048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1235237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2676095962524</t>
   </si>
   <si>
     <t xml:space="preserve">11.1619462966919</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">11.7479000091553</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382946014404</t>
+    <t xml:space="preserve">11.7382955551147</t>
   </si>
   <si>
     <t xml:space="preserve">11.6134195327759</t>
@@ -3887,19 +3887,19 @@
     <t xml:space="preserve">12.6604528427124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8141450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198093414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9678382873535</t>
+    <t xml:space="preserve">12.8141460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198083877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9678373336792</t>
   </si>
   <si>
     <t xml:space="preserve">12.823751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8045387268066</t>
+    <t xml:space="preserve">12.804539680481</t>
   </si>
   <si>
     <t xml:space="preserve">13.0446844100952</t>
@@ -3908,7 +3908,7 @@
     <t xml:space="preserve">13.1311368942261</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2848291397095</t>
+    <t xml:space="preserve">13.2848300933838</t>
   </si>
   <si>
     <t xml:space="preserve">13.4577341079712</t>
@@ -3917,13 +3917,13 @@
     <t xml:space="preserve">13.7651205062866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.91881275177</t>
+    <t xml:space="preserve">13.9188117980957</t>
   </si>
   <si>
     <t xml:space="preserve">13.8611783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9092063903809</t>
+    <t xml:space="preserve">13.9092073440552</t>
   </si>
   <si>
     <t xml:space="preserve">14.0052652359009</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">13.957236289978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0436878204346</t>
+    <t xml:space="preserve">14.0436887741089</t>
   </si>
   <si>
     <t xml:space="preserve">13.976448059082</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">13.938024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6018218994141</t>
+    <t xml:space="preserve">13.6018209457397</t>
   </si>
   <si>
     <t xml:space="preserve">13.2752237319946</t>
@@ -3971,31 +3971,31 @@
     <t xml:space="preserve">13.1983766555786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1023197174072</t>
+    <t xml:space="preserve">13.1023187637329</t>
   </si>
   <si>
     <t xml:space="preserve">13.3232526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3040418624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3424654006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1503486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0062608718872</t>
+    <t xml:space="preserve">13.3040409088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3424644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1503477096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0062618255615</t>
   </si>
   <si>
     <t xml:space="preserve">12.7372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1695604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8621740341187</t>
+    <t xml:space="preserve">13.1695594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.862174987793</t>
   </si>
   <si>
     <t xml:space="preserve">12.8525686264038</t>
@@ -4010,7 +4010,7 @@
     <t xml:space="preserve">12.372278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0841045379639</t>
+    <t xml:space="preserve">12.0841035842896</t>
   </si>
   <si>
     <t xml:space="preserve">11.9496221542358</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">11.3444566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7873201370239</t>
+    <t xml:space="preserve">10.7873191833496</t>
   </si>
   <si>
     <t xml:space="preserve">10.7777147293091</t>
@@ -4037,10 +4037,10 @@
     <t xml:space="preserve">10.7296848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8929834365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6240224838257</t>
+    <t xml:space="preserve">10.8929843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6240215301514</t>
   </si>
   <si>
     <t xml:space="preserve">11.2195816040039</t>
@@ -4055,16 +4055,16 @@
     <t xml:space="preserve">11.3636684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1907634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9025897979736</t>
+    <t xml:space="preserve">11.1907644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9025907516479</t>
   </si>
   <si>
     <t xml:space="preserve">11.0274648666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2099761962891</t>
+    <t xml:space="preserve">11.2099752426147</t>
   </si>
   <si>
     <t xml:space="preserve">11.5749959945679</t>
@@ -4073,7 +4073,7 @@
     <t xml:space="preserve">11.5365724563599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1321325302124</t>
+    <t xml:space="preserve">12.1321334838867</t>
   </si>
   <si>
     <t xml:space="preserve">12.2570085525513</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">12.0072574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3818836212158</t>
+    <t xml:space="preserve">12.3818845748901</t>
   </si>
   <si>
     <t xml:space="preserve">12.3914890289307</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">13.0158672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791667938232</t>
+    <t xml:space="preserve">13.1791658401489</t>
   </si>
   <si>
     <t xml:space="preserve">12.9582328796387</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">12.7469053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0542907714844</t>
+    <t xml:space="preserve">13.0542898178101</t>
   </si>
   <si>
     <t xml:space="preserve">13.3328590393066</t>
@@ -4130,25 +4130,25 @@
     <t xml:space="preserve">13.8131494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2165937423706</t>
+    <t xml:space="preserve">14.2165927886963</t>
   </si>
   <si>
     <t xml:space="preserve">14.1109285354614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284191131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6210327148438</t>
+    <t xml:space="preserve">13.9284181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6210336685181</t>
   </si>
   <si>
     <t xml:space="preserve">13.7747259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.841965675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0244779586792</t>
+    <t xml:space="preserve">13.8419666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0244770050049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5720081329346</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">13.8515720367432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6402435302734</t>
+    <t xml:space="preserve">13.6402444839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.5441865921021</t>
@@ -4196,7 +4196,7 @@
     <t xml:space="preserve">14.0628995895386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0340814590454</t>
+    <t xml:space="preserve">14.0340824127197</t>
   </si>
   <si>
     <t xml:space="preserve">14.370285987854</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">14.312650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3894968032837</t>
+    <t xml:space="preserve">14.389497756958</t>
   </si>
   <si>
     <t xml:space="preserve">14.0821113586426</t>
@@ -4220,25 +4220,25 @@
     <t xml:space="preserve">13.7170906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3991031646729</t>
+    <t xml:space="preserve">14.3991022109985</t>
   </si>
   <si>
     <t xml:space="preserve">14.8793926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1003265380859</t>
+    <t xml:space="preserve">15.1003274917603</t>
   </si>
   <si>
     <t xml:space="preserve">15.1675672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3500776290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3404722213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0234813690186</t>
+    <t xml:space="preserve">15.350076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3404731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0234804153442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0522985458374</t>
@@ -4256,7 +4256,7 @@
     <t xml:space="preserve">15.0619039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1291437149048</t>
+    <t xml:space="preserve">15.1291446685791</t>
   </si>
   <si>
     <t xml:space="preserve">15.0907211303711</t>
@@ -4268,13 +4268,13 @@
     <t xml:space="preserve">14.9850578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1387500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0138750076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1963844299316</t>
+    <t xml:space="preserve">15.1387510299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0138740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.196385383606</t>
   </si>
   <si>
     <t xml:space="preserve">15.4365301132202</t>
@@ -4283,7 +4283,7 @@
     <t xml:space="preserve">15.3116540908813</t>
   </si>
   <si>
-    <t xml:space="preserve">15.21559715271</t>
+    <t xml:space="preserve">15.2155961990356</t>
   </si>
   <si>
     <t xml:space="preserve">15.4557418823242</t>
@@ -4292,25 +4292,25 @@
     <t xml:space="preserve">14.68727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4855546951294</t>
+    <t xml:space="preserve">14.4855556488037</t>
   </si>
   <si>
     <t xml:space="preserve">14.8121528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922155380249</t>
+    <t xml:space="preserve">13.5922145843506</t>
   </si>
   <si>
     <t xml:space="preserve">11.7671117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.623025894165</t>
+    <t xml:space="preserve">11.6230249404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5173606872559</t>
+    <t xml:space="preserve">11.5173616409302</t>
   </si>
   <si>
     <t xml:space="preserve">11.526967048645</t>
@@ -4337,13 +4337,13 @@
     <t xml:space="preserve">11.3540620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4693326950073</t>
+    <t xml:space="preserve">11.469331741333</t>
   </si>
   <si>
     <t xml:space="preserve">11.2387933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3252449035645</t>
+    <t xml:space="preserve">11.3252458572388</t>
   </si>
   <si>
     <t xml:space="preserve">11.2772159576416</t>
@@ -4352,7 +4352,7 @@
     <t xml:space="preserve">11.113917350769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2003698348999</t>
+    <t xml:space="preserve">11.2003688812256</t>
   </si>
   <si>
     <t xml:space="preserve">11.1427354812622</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">10.6432332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5663862228394</t>
+    <t xml:space="preserve">10.5663871765137</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452299118042</t>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -44,43 +44,43 @@
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19815921783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18187665939331</t>
+    <t xml:space="preserve">2.19815969467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18187689781189</t>
   </si>
   <si>
     <t xml:space="preserve">2.14388394355774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.119460105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06789779663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10860466957092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09774994850159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00819540023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03370451927185</t>
+    <t xml:space="preserve">2.11946034431458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06789827346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1086049079895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09774971008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00819516181946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03370475769043</t>
   </si>
   <si>
     <t xml:space="preserve">2.00765252113342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06247091293335</t>
+    <t xml:space="preserve">2.06247043609619</t>
   </si>
   <si>
     <t xml:space="preserve">2.06138491630554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04618787765503</t>
+    <t xml:space="preserve">2.04618811607361</t>
   </si>
   <si>
     <t xml:space="preserve">2.04564499855042</t>
@@ -89,46 +89,46 @@
     <t xml:space="preserve">2.10534834861755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04944443702698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06355619430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02176427841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94035089015961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97020196914673</t>
+    <t xml:space="preserve">2.0494441986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06355595588684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02176380157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94035065174103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9702023267746</t>
   </si>
   <si>
     <t xml:space="preserve">1.98214292526245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95663344860077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97563016414642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95934689044952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98919880390167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99896836280823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98648452758789</t>
+    <t xml:space="preserve">1.95663356781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97562944889069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9593471288681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98919892311096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99896812438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98648500442505</t>
   </si>
   <si>
     <t xml:space="preserve">2.13845682144165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11674642562866</t>
+    <t xml:space="preserve">2.11674618721008</t>
   </si>
   <si>
     <t xml:space="preserve">2.13031506538391</t>
@@ -146,58 +146,58 @@
     <t xml:space="preserve">2.18676161766052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14931130409241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19164657592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19273209571838</t>
+    <t xml:space="preserve">2.14931178092957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19164633750916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19273233413696</t>
   </si>
   <si>
     <t xml:space="preserve">2.20087337493896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19544577598572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19870233535767</t>
+    <t xml:space="preserve">2.1954460144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19870209693909</t>
   </si>
   <si>
     <t xml:space="preserve">2.21607065200806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23072481155396</t>
+    <t xml:space="preserve">2.23072457313538</t>
   </si>
   <si>
     <t xml:space="preserve">2.27143144607544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20358729362488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19218921661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17644906044006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15202569961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13302898406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11783194541931</t>
+    <t xml:space="preserve">2.20358681678772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19218945503235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17644882202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15202498435974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13302874565125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11783170700073</t>
   </si>
   <si>
     <t xml:space="preserve">2.16830825805664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18730425834656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1710216999054</t>
+    <t xml:space="preserve">2.18730449676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17102146148682</t>
   </si>
   <si>
     <t xml:space="preserve">2.1601665019989</t>
@@ -206,16 +206,16 @@
     <t xml:space="preserve">2.11131858825684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09829235076904</t>
+    <t xml:space="preserve">2.09829258918762</t>
   </si>
   <si>
     <t xml:space="preserve">2.11403250694275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11457514762878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16505122184753</t>
+    <t xml:space="preserve">2.11457490921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16505169868469</t>
   </si>
   <si>
     <t xml:space="preserve">2.17156434059143</t>
@@ -227,22 +227,22 @@
     <t xml:space="preserve">2.20304417610168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22529745101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29314160346985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30128312110901</t>
+    <t xml:space="preserve">2.22529721260071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29314136505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30128335952759</t>
   </si>
   <si>
     <t xml:space="preserve">2.34470343589783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30725312232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27360248565674</t>
+    <t xml:space="preserve">2.30725336074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27360272407532</t>
   </si>
   <si>
     <t xml:space="preserve">2.26329040527344</t>
@@ -251,13 +251,13 @@
     <t xml:space="preserve">2.27414512634277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29585528373718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28011560440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37184119224548</t>
+    <t xml:space="preserve">2.29585552215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28011536598206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37184143066406</t>
   </si>
   <si>
     <t xml:space="preserve">2.4006073474884</t>
@@ -266,19 +266,19 @@
     <t xml:space="preserve">2.37726902961731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50318789482117</t>
+    <t xml:space="preserve">2.50318765640259</t>
   </si>
   <si>
     <t xml:space="preserve">2.55800652503967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57320332527161</t>
+    <t xml:space="preserve">2.57320308685303</t>
   </si>
   <si>
     <t xml:space="preserve">2.62205171585083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58568716049194</t>
+    <t xml:space="preserve">2.58568692207336</t>
   </si>
   <si>
     <t xml:space="preserve">2.67307043075562</t>
@@ -287,31 +287,31 @@
     <t xml:space="preserve">2.72425127029419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72591996192932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76096749305725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74705982208252</t>
+    <t xml:space="preserve">2.72591972351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76096796989441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7470600605011</t>
   </si>
   <si>
     <t xml:space="preserve">2.78155088424683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85498404502869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87723660469055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02410197257996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05525541305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06860709190369</t>
+    <t xml:space="preserve">2.85498380661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87723636627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02410221099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.055255651474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06860685348511</t>
   </si>
   <si>
     <t xml:space="preserve">3.01075100898743</t>
@@ -323,22 +323,22 @@
     <t xml:space="preserve">2.98182272911072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97069644927979</t>
+    <t xml:space="preserve">2.97069692611694</t>
   </si>
   <si>
     <t xml:space="preserve">2.96179580688477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88168692588806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82605600357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79712772369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75484800338745</t>
+    <t xml:space="preserve">2.88168668746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82605576515198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79712748527527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75484824180603</t>
   </si>
   <si>
     <t xml:space="preserve">2.84830832481384</t>
@@ -347,49 +347,49 @@
     <t xml:space="preserve">2.92841672897339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04857993125916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91061520576477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83718204498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92619156837463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98404788970947</t>
+    <t xml:space="preserve">3.04857969284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91061496734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83718228340149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92619180679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98404765129089</t>
   </si>
   <si>
     <t xml:space="preserve">3.03745365142822</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05748081207275</t>
+    <t xml:space="preserve">3.05748105049133</t>
   </si>
   <si>
     <t xml:space="preserve">3.03967905044556</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06415677070618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04412961006165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10198545455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11533713340759</t>
+    <t xml:space="preserve">3.06415700912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04412937164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10198569297791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11533689498901</t>
   </si>
   <si>
     <t xml:space="preserve">3.13758969306946</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22659921646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37124013900757</t>
+    <t xml:space="preserve">3.22659945487976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37123942375183</t>
   </si>
   <si>
     <t xml:space="preserve">3.38014078140259</t>
@@ -404,97 +404,97 @@
     <t xml:space="preserve">3.36011362075806</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33341097831726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31560873985291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36233901977539</t>
+    <t xml:space="preserve">3.33341073989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31560826301575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36233878135681</t>
   </si>
   <si>
     <t xml:space="preserve">3.35121250152588</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32896041870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33786129951477</t>
+    <t xml:space="preserve">3.32896065711975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33786153793335</t>
   </si>
   <si>
     <t xml:space="preserve">3.24440121650696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32673478126526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33118557929993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40461850166321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42464566230774</t>
+    <t xml:space="preserve">3.32673501968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33118534088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40461874008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42464542388916</t>
   </si>
   <si>
     <t xml:space="preserve">3.41796970367432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39794301986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35788822174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34453725814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42687082290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39349222183228</t>
+    <t xml:space="preserve">3.39794278144836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35788869857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34453701972961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42687058448792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39349246025085</t>
   </si>
   <si>
     <t xml:space="preserve">3.34898734092712</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38681674003601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38236594200134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21992349624634</t>
+    <t xml:space="preserve">3.38681626319885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38236618041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21992325782776</t>
   </si>
   <si>
     <t xml:space="preserve">3.25997757911682</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28000473976135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32228469848633</t>
+    <t xml:space="preserve">3.28000521659851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32228446006775</t>
   </si>
   <si>
     <t xml:space="preserve">3.27110409736633</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29335641860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15984153747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40684366226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33563566207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.275554895401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44689798355103</t>
+    <t xml:space="preserve">3.29335618019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15984201431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40684390068054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33563613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27555441856384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4468982219696</t>
   </si>
   <si>
     <t xml:space="preserve">3.5069797039032</t>
@@ -503,34 +503,34 @@
     <t xml:space="preserve">3.67164754867554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76065683364868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86969327926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99430727958679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0988941192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18345308303833</t>
+    <t xml:space="preserve">3.76065731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86969375610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99430775642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09889364242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18345260620117</t>
   </si>
   <si>
     <t xml:space="preserve">4.08331680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04548835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20570468902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28581428527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43268013000488</t>
+    <t xml:space="preserve">4.04548740386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20570516586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28581380844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43267965316772</t>
   </si>
   <si>
     <t xml:space="preserve">4.32809352874756</t>
@@ -539,52 +539,52 @@
     <t xml:space="preserve">4.35702133178711</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57286930084229</t>
+    <t xml:space="preserve">4.57286882400513</t>
   </si>
   <si>
     <t xml:space="preserve">4.79316902160645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75979042053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74866342544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86437654495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06242275238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05129718780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82432222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8465747833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84212350845337</t>
+    <t xml:space="preserve">4.75978994369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74866390228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86437606811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06242322921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05129671096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82432270050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84657430648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84212446212769</t>
   </si>
   <si>
     <t xml:space="preserve">4.74643898010254</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67300605773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47050952911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44603157043457</t>
+    <t xml:space="preserve">4.6730055809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47050905227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44603109359741</t>
   </si>
   <si>
     <t xml:space="preserve">4.43713045120239</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32141828536987</t>
+    <t xml:space="preserve">4.3214168548584</t>
   </si>
   <si>
     <t xml:space="preserve">4.28358888626099</t>
@@ -596,10 +596,10 @@
     <t xml:space="preserve">4.31919240951538</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33921957015991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46160745620728</t>
+    <t xml:space="preserve">4.33921909332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46160697937012</t>
   </si>
   <si>
     <t xml:space="preserve">4.45048141479492</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">4.76201581954956</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73976230621338</t>
+    <t xml:space="preserve">4.7397632598877</t>
   </si>
   <si>
     <t xml:space="preserve">4.73753833770752</t>
@@ -620,16 +620,16 @@
     <t xml:space="preserve">4.71751070022583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75088882446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82654714584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69525861740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76646518707275</t>
+    <t xml:space="preserve">4.75088930130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82654762268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69525766372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76646566390991</t>
   </si>
   <si>
     <t xml:space="preserve">4.69080781936646</t>
@@ -638,67 +638,67 @@
     <t xml:space="preserve">4.61069917678833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62405014038086</t>
+    <t xml:space="preserve">4.62405061721802</t>
   </si>
   <si>
     <t xml:space="preserve">4.83767366409302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74421358108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89107990264893</t>
+    <t xml:space="preserve">4.74421310424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89107894897461</t>
   </si>
   <si>
     <t xml:space="preserve">4.87995338439941</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85102462768555</t>
+    <t xml:space="preserve">4.85102510452271</t>
   </si>
   <si>
     <t xml:space="preserve">4.87105226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21151351928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50524616241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40733528137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36728096008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34502792358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34280252456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31832599639893</t>
+    <t xml:space="preserve">5.21151399612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50524568557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40733432769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36728143692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3450288772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34280300140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31832551956177</t>
   </si>
   <si>
     <t xml:space="preserve">5.14698219299316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22264003753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34057807922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39175796508789</t>
+    <t xml:space="preserve">5.22264051437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34057760238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39175891876221</t>
   </si>
   <si>
     <t xml:space="preserve">5.4273624420166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28494644165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25824308395386</t>
+    <t xml:space="preserve">5.28494691848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25824403762817</t>
   </si>
   <si>
     <t xml:space="preserve">5.17368459701538</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">5.0179181098938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20261335372925</t>
+    <t xml:space="preserve">5.20261240005493</t>
   </si>
   <si>
     <t xml:space="preserve">5.15143299102783</t>
@@ -716,13 +716,13 @@
     <t xml:space="preserve">5.22709035873413</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21373987197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20483875274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24044179916382</t>
+    <t xml:space="preserve">5.21373891830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20483827590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24044275283813</t>
   </si>
   <si>
     <t xml:space="preserve">5.22931575775146</t>
@@ -737,43 +737,43 @@
     <t xml:space="preserve">5.13808107376099</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09802722930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99344062805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97341299057007</t>
+    <t xml:space="preserve">5.09802627563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9934401512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97341346740723</t>
   </si>
   <si>
     <t xml:space="preserve">4.96228694915771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95338582992554</t>
+    <t xml:space="preserve">4.9533863067627</t>
   </si>
   <si>
     <t xml:space="preserve">4.90665531158447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83989810943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89552974700928</t>
+    <t xml:space="preserve">4.83989858627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89552927017212</t>
   </si>
   <si>
     <t xml:space="preserve">4.84879970550537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86215162277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78426742553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92668294906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02681875228882</t>
+    <t xml:space="preserve">4.86215114593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78426790237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92668342590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02681922912598</t>
   </si>
   <si>
     <t xml:space="preserve">5.25156879425049</t>
@@ -782,10 +782,10 @@
     <t xml:space="preserve">5.19593715667725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31165027618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23154163360596</t>
+    <t xml:space="preserve">5.31164979934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2315411567688</t>
   </si>
   <si>
     <t xml:space="preserve">5.20706367492676</t>
@@ -794,19 +794,19 @@
     <t xml:space="preserve">5.41846132278442</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5030198097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53639984130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67436408996582</t>
+    <t xml:space="preserve">5.50302076339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53639936447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67436456680298</t>
   </si>
   <si>
     <t xml:space="preserve">5.80787897109985</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76337385177612</t>
+    <t xml:space="preserve">5.76337337493896</t>
   </si>
   <si>
     <t xml:space="preserve">5.97254610061646</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">6.07490730285645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24847602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94139289855957</t>
+    <t xml:space="preserve">6.24847650527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94139385223389</t>
   </si>
   <si>
     <t xml:space="preserve">6.00815010070801</t>
@@ -836,22 +836,22 @@
     <t xml:space="preserve">6.01927614212036</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02595186233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10828685760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23067426681519</t>
+    <t xml:space="preserve">6.02595138549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10828638076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23067378997803</t>
   </si>
   <si>
     <t xml:space="preserve">6.07935810089111</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12163782119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13721418380737</t>
+    <t xml:space="preserve">6.12163734436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13721370697021</t>
   </si>
   <si>
     <t xml:space="preserve">6.11941194534302</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">6.17504358291626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19061994552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2173228263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09493398666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20842170715332</t>
+    <t xml:space="preserve">6.19062042236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21732330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09493446350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20842218399048</t>
   </si>
   <si>
     <t xml:space="preserve">6.27517938613892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56446027755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40646886825562</t>
+    <t xml:space="preserve">6.56446123123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40646839141846</t>
   </si>
   <si>
     <t xml:space="preserve">6.67349720001221</t>
@@ -890,13 +890,13 @@
     <t xml:space="preserve">6.73357915878296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95387744903564</t>
+    <t xml:space="preserve">6.95387697219849</t>
   </si>
   <si>
     <t xml:space="preserve">7.05401372909546</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16527557373047</t>
+    <t xml:space="preserve">7.16527605056763</t>
   </si>
   <si>
     <t xml:space="preserve">7.22090625762939</t>
@@ -905,16 +905,16 @@
     <t xml:space="preserve">7.2743124961853</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48125982284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28766345977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38334894180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3811240196228</t>
+    <t xml:space="preserve">7.4812593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28766393661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38334846496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38112354278564</t>
   </si>
   <si>
     <t xml:space="preserve">7.26986122131348</t>
@@ -926,25 +926,25 @@
     <t xml:space="preserve">7.53911590576172</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52576446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44565582275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46568250656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35442066192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60896587371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36418867111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61564111709595</t>
+    <t xml:space="preserve">7.52576351165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44565486907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46568298339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35442113876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6089653968811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3641881942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61564016342163</t>
   </si>
   <si>
     <t xml:space="preserve">6.54220819473267</t>
@@ -953,28 +953,28 @@
     <t xml:space="preserve">6.758056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64011907577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66682195663452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72245168685913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66832971572876</t>
+    <t xml:space="preserve">6.64011859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66682147979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72245311737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66833066940308</t>
   </si>
   <si>
     <t xml:space="preserve">6.70666694641113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75853395462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69313669204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59616708755493</t>
+    <t xml:space="preserve">6.75853443145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69313621520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59616661071777</t>
   </si>
   <si>
     <t xml:space="preserve">6.70215606689453</t>
@@ -983,46 +983,46 @@
     <t xml:space="preserve">7.06973791122437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91188097000122</t>
+    <t xml:space="preserve">6.91188049316406</t>
   </si>
   <si>
     <t xml:space="preserve">6.97276878356934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55782985687256</t>
+    <t xml:space="preserve">6.55783033370972</t>
   </si>
   <si>
     <t xml:space="preserve">6.72921752929688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.648033618927</t>
+    <t xml:space="preserve">6.64803457260132</t>
   </si>
   <si>
     <t xml:space="preserve">6.56234073638916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62999296188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4969425201416</t>
+    <t xml:space="preserve">6.6299934387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49694204330444</t>
   </si>
   <si>
     <t xml:space="preserve">6.4743914604187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57587194442749</t>
+    <t xml:space="preserve">6.57587099075317</t>
   </si>
   <si>
     <t xml:space="preserve">6.46762609481812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47213649749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5149827003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2962384223938</t>
+    <t xml:space="preserve">6.47213697433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51498317718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29623889923096</t>
   </si>
   <si>
     <t xml:space="preserve">6.27819776535034</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">6.08876943588257</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04366683959961</t>
+    <t xml:space="preserve">6.04366731643677</t>
   </si>
   <si>
     <t xml:space="preserve">6.0323920249939</t>
@@ -1043,19 +1043,19 @@
     <t xml:space="preserve">6.06847333908081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91287183761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09102392196655</t>
+    <t xml:space="preserve">5.91287088394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09102487564087</t>
   </si>
   <si>
     <t xml:space="preserve">6.05043268203735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06396245956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07298421859741</t>
+    <t xml:space="preserve">6.06396293640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0729832649231</t>
   </si>
   <si>
     <t xml:space="preserve">5.9647388458252</t>
@@ -1070,64 +1070,64 @@
     <t xml:space="preserve">5.82266759872437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62872886657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59039258956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73246431350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86325979232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88806533813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02111625671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84070777893066</t>
+    <t xml:space="preserve">5.62872838973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59039211273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73246335983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86325931549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88806581497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02111721038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84070825576782</t>
   </si>
   <si>
     <t xml:space="preserve">5.84747362136841</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71442317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68059682846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50469827651978</t>
+    <t xml:space="preserve">5.71442270278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68059635162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50469875335693</t>
   </si>
   <si>
     <t xml:space="preserve">5.66706562042236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56333112716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57009601593018</t>
+    <t xml:space="preserve">5.56333160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57009649276733</t>
   </si>
   <si>
     <t xml:space="preserve">5.51822900772095</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53852462768555</t>
+    <t xml:space="preserve">5.53852510452271</t>
   </si>
   <si>
     <t xml:space="preserve">5.61294364929199</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68285131454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60166788101196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64902496337891</t>
+    <t xml:space="preserve">5.68285226821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60166835784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64902544021606</t>
   </si>
   <si>
     <t xml:space="preserve">5.57911682128906</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">5.61068820953369</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69187211990356</t>
+    <t xml:space="preserve">5.69187164306641</t>
   </si>
   <si>
     <t xml:space="preserve">5.86551427841187</t>
@@ -1148,55 +1148,55 @@
     <t xml:space="preserve">5.78884077072144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93091201782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99856519699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85649394989014</t>
+    <t xml:space="preserve">5.93091249465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99856567382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85649442672729</t>
   </si>
   <si>
     <t xml:space="preserve">6.21956491470337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1000452041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93316745758057</t>
+    <t xml:space="preserve">6.10004472732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93316698074341</t>
   </si>
   <si>
     <t xml:space="preserve">5.76177978515625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68736171722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64225959777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59941291809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61519813537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47989225387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41449499130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34458684921265</t>
+    <t xml:space="preserve">5.68736124038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64226007461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59941244125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61519861221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47989177703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41449451446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34458589553833</t>
   </si>
   <si>
     <t xml:space="preserve">5.35586214065552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36939191818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53401565551758</t>
+    <t xml:space="preserve">5.36939287185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53401517868042</t>
   </si>
   <si>
     <t xml:space="preserve">5.5159740447998</t>
@@ -1205,25 +1205,25 @@
     <t xml:space="preserve">5.39419841766357</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33782148361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25438261032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23183250427246</t>
+    <t xml:space="preserve">5.3378210067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25438213348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23183155059814</t>
   </si>
   <si>
     <t xml:space="preserve">5.32203578948975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28144407272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24536228179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24987268447876</t>
+    <t xml:space="preserve">5.28144359588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24536275863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2498722076416</t>
   </si>
   <si>
     <t xml:space="preserve">5.14839267730713</t>
@@ -1232,22 +1232,22 @@
     <t xml:space="preserve">5.11682176589966</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07397508621216</t>
+    <t xml:space="preserve">5.073974609375</t>
   </si>
   <si>
     <t xml:space="preserve">5.06720876693726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08073949813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15966844558716</t>
+    <t xml:space="preserve">5.08074045181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15966796875</t>
   </si>
   <si>
     <t xml:space="preserve">5.30850505828857</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39194393157959</t>
+    <t xml:space="preserve">5.39194345474243</t>
   </si>
   <si>
     <t xml:space="preserve">5.3400764465332</t>
@@ -1256,13 +1256,13 @@
     <t xml:space="preserve">5.36037254333496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22957611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1416277885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97926044464111</t>
+    <t xml:space="preserve">5.22957754135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14162683486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97925996780396</t>
   </si>
   <si>
     <t xml:space="preserve">4.83042335510254</t>
@@ -1271,31 +1271,31 @@
     <t xml:space="preserve">4.81463813781738</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75375080108643</t>
+    <t xml:space="preserve">4.75375032424927</t>
   </si>
   <si>
     <t xml:space="preserve">5.04014825820923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33331155776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72795295715332</t>
+    <t xml:space="preserve">5.33331060409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72795343399048</t>
   </si>
   <si>
     <t xml:space="preserve">5.93993330001831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97375917434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89483070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03464794158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99405574798584</t>
+    <t xml:space="preserve">5.97376012802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89483022689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03464698791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99405527114868</t>
   </si>
   <si>
     <t xml:space="preserve">5.90385150909424</t>
@@ -1310,40 +1310,40 @@
     <t xml:space="preserve">5.76403474807739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82492256164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70765733718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15642166137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33006477355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19701385498047</t>
+    <t xml:space="preserve">5.82492303848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70765781402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15642213821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33006525039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19701433181763</t>
   </si>
   <si>
     <t xml:space="preserve">6.2759428024292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26015758514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15867757797241</t>
+    <t xml:space="preserve">6.26015710830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15867710113525</t>
   </si>
   <si>
     <t xml:space="preserve">6.09553480148315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16769790649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93767738342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.009840965271</t>
+    <t xml:space="preserve">6.1676983833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93767786026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00984048843384</t>
   </si>
   <si>
     <t xml:space="preserve">6.0301365852356</t>
@@ -1355,19 +1355,19 @@
     <t xml:space="preserve">5.87002468109131</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77531051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74148416519165</t>
+    <t xml:space="preserve">5.77531099319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74148368835449</t>
   </si>
   <si>
     <t xml:space="preserve">5.75952529907227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15191221237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98503494262695</t>
+    <t xml:space="preserve">6.15191268920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98503541946411</t>
   </si>
   <si>
     <t xml:space="preserve">5.84521818161011</t>
@@ -1379,22 +1379,22 @@
     <t xml:space="preserve">6.165442943573</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17897367477417</t>
+    <t xml:space="preserve">6.17897272109985</t>
   </si>
   <si>
     <t xml:space="preserve">6.08425951004028</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07523918151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42703437805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42252397537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35938119888306</t>
+    <t xml:space="preserve">6.0752387046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42703485488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42252492904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35938167572021</t>
   </si>
   <si>
     <t xml:space="preserve">6.66607522964478</t>
@@ -1409,10 +1409,10 @@
     <t xml:space="preserve">6.2330961227417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22407531738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67834138870239</t>
+    <t xml:space="preserve">6.22407579421997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67834186553955</t>
   </si>
   <si>
     <t xml:space="preserve">6.24662637710571</t>
@@ -1421,103 +1421,103 @@
     <t xml:space="preserve">6.0526876449585</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92189168930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79560661315918</t>
+    <t xml:space="preserve">5.9218921661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79560708999634</t>
   </si>
   <si>
     <t xml:space="preserve">5.80913734436035</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54754543304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89032077789307</t>
+    <t xml:space="preserve">5.54754590988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89032125473022</t>
   </si>
   <si>
     <t xml:space="preserve">6.00307607650757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11132001876831</t>
+    <t xml:space="preserve">6.11132049560547</t>
   </si>
   <si>
     <t xml:space="preserve">6.09328031539917</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31427955627441</t>
+    <t xml:space="preserve">6.31427907943726</t>
   </si>
   <si>
     <t xml:space="preserve">6.4089937210083</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49468755722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87354421615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83295249938965</t>
+    <t xml:space="preserve">6.4946870803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87354373931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83295154571533</t>
   </si>
   <si>
     <t xml:space="preserve">7.08101320266724</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05846261978149</t>
+    <t xml:space="preserve">7.05846166610718</t>
   </si>
   <si>
     <t xml:space="preserve">7.26142168045044</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13062524795532</t>
+    <t xml:space="preserve">7.13062572479248</t>
   </si>
   <si>
     <t xml:space="preserve">7.256911277771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02238082885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10356473922729</t>
+    <t xml:space="preserve">7.02238035202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10356426239014</t>
   </si>
   <si>
     <t xml:space="preserve">7.38770627975464</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30652332305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20278930664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27044200897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21631908416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65831851959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48693132400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34260511398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60419607162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44182920455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41927862167358</t>
+    <t xml:space="preserve">7.30652379989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20278882980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27044153213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21631956100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65831899642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48693084716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.342604637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60419702529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44182968139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41927909851074</t>
   </si>
   <si>
     <t xml:space="preserve">7.27946186065674</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22082996368408</t>
+    <t xml:space="preserve">7.22082948684692</t>
   </si>
   <si>
     <t xml:space="preserve">7.41025829315186</t>
@@ -1526,58 +1526,58 @@
     <t xml:space="preserve">7.37417650222778</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35162496566772</t>
+    <t xml:space="preserve">7.35162448883057</t>
   </si>
   <si>
     <t xml:space="preserve">7.37868690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62674713134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78911399841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73048162460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70342016220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5636043548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72146272659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59066581726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55007457733154</t>
+    <t xml:space="preserve">7.6267466545105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78911542892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73048114776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70342111587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56360530853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72146129608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5906662940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55007362365723</t>
   </si>
   <si>
     <t xml:space="preserve">7.22533988952637</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77432060241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99080896377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7833399772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66156530380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76529884338379</t>
+    <t xml:space="preserve">6.77432012557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99080991744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78334045410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66156482696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76529979705811</t>
   </si>
   <si>
     <t xml:space="preserve">6.68862581253052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86001396179199</t>
+    <t xml:space="preserve">6.86001348495483</t>
   </si>
   <si>
     <t xml:space="preserve">6.52302837371826</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">6.44531869888306</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74244356155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81101083755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74701452255249</t>
+    <t xml:space="preserve">6.74244403839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81100988388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74701499938965</t>
   </si>
   <si>
     <t xml:space="preserve">6.77901268005371</t>
@@ -1604,10 +1604,10 @@
     <t xml:space="preserve">6.8064398765564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7241587638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62816429138184</t>
+    <t xml:space="preserve">6.72415924072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62816476821899</t>
   </si>
   <si>
     <t xml:space="preserve">6.86129331588745</t>
@@ -1616,49 +1616,49 @@
     <t xml:space="preserve">6.9024338722229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90700483322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7607274055481</t>
+    <t xml:space="preserve">6.90700435638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76072788238525</t>
   </si>
   <si>
     <t xml:space="preserve">6.63730716705322</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6235933303833</t>
+    <t xml:space="preserve">6.62359380722046</t>
   </si>
   <si>
     <t xml:space="preserve">6.59159564971924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55959749221802</t>
+    <t xml:space="preserve">6.55959796905518</t>
   </si>
   <si>
     <t xml:space="preserve">6.45903253555298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36303853988647</t>
+    <t xml:space="preserve">6.36303806304932</t>
   </si>
   <si>
     <t xml:space="preserve">6.35846710205078</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25790119171143</t>
+    <t xml:space="preserve">6.25790166854858</t>
   </si>
   <si>
     <t xml:space="preserve">6.39960765838623</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2761869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31732654571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34018278121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48645925521851</t>
+    <t xml:space="preserve">6.27618646621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31732702255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34018230438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48645877838135</t>
   </si>
   <si>
     <t xml:space="preserve">6.38589429855347</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">6.34932470321655</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47731733322144</t>
+    <t xml:space="preserve">6.47731685638428</t>
   </si>
   <si>
     <t xml:space="preserve">6.73330116271973</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">6.58245325088501</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5870246887207</t>
+    <t xml:space="preserve">6.58702421188354</t>
   </si>
   <si>
     <t xml:space="preserve">6.53217077255249</t>
@@ -1691,37 +1691,37 @@
     <t xml:space="preserve">6.54131317138672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51388549804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56873989105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57331132888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64644908905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46817398071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37675189971924</t>
+    <t xml:space="preserve">6.51388645172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56873941421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57331085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64644956588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46817493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37675142288208</t>
   </si>
   <si>
     <t xml:space="preserve">6.32646894454956</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41789150238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.605309009552</t>
+    <t xml:space="preserve">6.41789245605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60530948638916</t>
   </si>
   <si>
     <t xml:space="preserve">6.78815507888794</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23504590988159</t>
+    <t xml:space="preserve">6.23504638671875</t>
   </si>
   <si>
     <t xml:space="preserve">6.53674173355103</t>
@@ -1730,13 +1730,13 @@
     <t xml:space="preserve">6.32189798355103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11619663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59508562088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45338010787964</t>
+    <t xml:space="preserve">6.1161961555481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59508514404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45337963104248</t>
   </si>
   <si>
     <t xml:space="preserve">5.35738563537598</t>
@@ -1748,31 +1748,31 @@
     <t xml:space="preserve">5.08311700820923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24310731887817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12882852554321</t>
+    <t xml:space="preserve">5.24310684204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12882804870605</t>
   </si>
   <si>
     <t xml:space="preserve">5.18825340270996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16539812088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09682989120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03740549087524</t>
+    <t xml:space="preserve">5.16539764404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09683036804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03740501403809</t>
   </si>
   <si>
     <t xml:space="preserve">4.84084606170654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68999814987183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71742486953735</t>
+    <t xml:space="preserve">4.68999767303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71742534637451</t>
   </si>
   <si>
     <t xml:space="preserve">4.85455894470215</t>
@@ -1787,115 +1787,115 @@
     <t xml:space="preserve">4.21916961669922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30145072937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20545673370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13003253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14374589920044</t>
+    <t xml:space="preserve">4.30145025253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20545625686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13003206253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14374542236328</t>
   </si>
   <si>
     <t xml:space="preserve">4.04546642303467</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17345809936523</t>
+    <t xml:space="preserve">4.17345857620239</t>
   </si>
   <si>
     <t xml:space="preserve">4.24659633636475</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22145509719849</t>
+    <t xml:space="preserve">4.22145557403564</t>
   </si>
   <si>
     <t xml:space="preserve">4.10717630386353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95404291152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78719592094421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83976459503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90147495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81690907478333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92204475402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93118715286255</t>
+    <t xml:space="preserve">3.95404314994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78719615936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83976435661316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9014744758606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81690859794617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9220449924469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93118739128113</t>
   </si>
   <si>
     <t xml:space="preserve">4.05232286453247</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24888277053833</t>
+    <t xml:space="preserve">4.24888181686401</t>
   </si>
   <si>
     <t xml:space="preserve">4.09117746353149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01118183135986</t>
+    <t xml:space="preserve">4.01118230819702</t>
   </si>
   <si>
     <t xml:space="preserve">4.01803922653198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02946758270264</t>
+    <t xml:space="preserve">4.02946710586548</t>
   </si>
   <si>
     <t xml:space="preserve">3.95861434936523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94718599319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92890214920044</t>
+    <t xml:space="preserve">3.9471869468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92890191078186</t>
   </si>
   <si>
     <t xml:space="preserve">3.53121185302734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43293261528015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31408214569092</t>
+    <t xml:space="preserve">3.43293237686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3140823841095</t>
   </si>
   <si>
     <t xml:space="preserve">3.0992386341095</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10838079452515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23180198669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45807385444641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46264457702637</t>
+    <t xml:space="preserve">3.10838103294373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23180174827576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45807361602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46264433860779</t>
   </si>
   <si>
     <t xml:space="preserve">3.3415093421936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29808378219604</t>
+    <t xml:space="preserve">3.29808330535889</t>
   </si>
   <si>
     <t xml:space="preserve">3.5289261341095</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46950149536133</t>
+    <t xml:space="preserve">3.46950173377991</t>
   </si>
   <si>
     <t xml:space="preserve">3.56549572944641</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">3.59292268753052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3917920589447</t>
+    <t xml:space="preserve">3.39179182052612</t>
   </si>
   <si>
     <t xml:space="preserve">3.31865358352661</t>
@@ -1913,13 +1913,13 @@
     <t xml:space="preserve">3.17923355102539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99181652069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99638748168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0763828754425</t>
+    <t xml:space="preserve">2.9918167591095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99638724327087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07638263702393</t>
   </si>
   <si>
     <t xml:space="preserve">3.17237687110901</t>
@@ -1928,16 +1928,16 @@
     <t xml:space="preserve">3.1060950756073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02152919769287</t>
+    <t xml:space="preserve">3.02152895927429</t>
   </si>
   <si>
     <t xml:space="preserve">2.9483904838562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98953080177307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83868288993835</t>
+    <t xml:space="preserve">2.98953104019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83868312835693</t>
   </si>
   <si>
     <t xml:space="preserve">2.80897068977356</t>
@@ -1949,31 +1949,31 @@
     <t xml:space="preserve">2.89582228660583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95296168327332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14037847518921</t>
+    <t xml:space="preserve">2.95296144485474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14037871360779</t>
   </si>
   <si>
     <t xml:space="preserve">3.17466235160828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23865866661072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30036854743958</t>
+    <t xml:space="preserve">3.23865842819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30036902427673</t>
   </si>
   <si>
     <t xml:space="preserve">3.22951626777649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29351234436035</t>
+    <t xml:space="preserve">3.29351210594177</t>
   </si>
   <si>
     <t xml:space="preserve">3.30722570419312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25694274902344</t>
+    <t xml:space="preserve">3.2569432258606</t>
   </si>
   <si>
     <t xml:space="preserve">3.2637996673584</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">3.39407753944397</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62034916877747</t>
+    <t xml:space="preserve">3.62034940719604</t>
   </si>
   <si>
     <t xml:space="preserve">3.55635333061218</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">3.69120216369629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74605584144592</t>
+    <t xml:space="preserve">3.74605560302734</t>
   </si>
   <si>
     <t xml:space="preserve">3.65463280677795</t>
@@ -2006,103 +2006,103 @@
     <t xml:space="preserve">3.58835124969482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5997793674469</t>
+    <t xml:space="preserve">3.59977912902832</t>
   </si>
   <si>
     <t xml:space="preserve">3.66148972511292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51292753219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60206460952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66377520561218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77576851844788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70263004302979</t>
+    <t xml:space="preserve">3.51292729377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60206484794617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66377544403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7757682800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70263028144836</t>
   </si>
   <si>
     <t xml:space="preserve">3.69348788261414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78491044044495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88776135444641</t>
+    <t xml:space="preserve">3.78491067886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88776159286499</t>
   </si>
   <si>
     <t xml:space="preserve">3.98147058486938</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85576343536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91747379302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94261479377747</t>
+    <t xml:space="preserve">3.85576415061951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91747355461121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94261527061462</t>
   </si>
   <si>
     <t xml:space="preserve">4.02718162536621</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07974910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15974473953247</t>
+    <t xml:space="preserve">4.07975006103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15974426269531</t>
   </si>
   <si>
     <t xml:space="preserve">4.22374057769775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18260097503662</t>
+    <t xml:space="preserve">4.18260049819946</t>
   </si>
   <si>
     <t xml:space="preserve">4.34487628936768</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28087997436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03632354736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09346294403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11631917953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06603622436523</t>
+    <t xml:space="preserve">4.28088045120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03632402420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09346342086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11631870269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06603670120239</t>
   </si>
   <si>
     <t xml:space="preserve">4.32430601119995</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37687397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47972536087036</t>
+    <t xml:space="preserve">4.3768744468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47972583770752</t>
   </si>
   <si>
     <t xml:space="preserve">4.52543687820435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45001268386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2580246925354</t>
+    <t xml:space="preserve">4.45001220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25802421569824</t>
   </si>
   <si>
     <t xml:space="preserve">4.29687929153442</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37230348587036</t>
+    <t xml:space="preserve">4.37230253219604</t>
   </si>
   <si>
     <t xml:space="preserve">4.29459381103516</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">4.38601684570312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34259128570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33344745635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34716176986694</t>
+    <t xml:space="preserve">4.34259033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33344793319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3471622467041</t>
   </si>
   <si>
     <t xml:space="preserve">4.29230833053589</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">4.24431085586548</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27859449386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36316108703613</t>
+    <t xml:space="preserve">4.27859497070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36316061019897</t>
   </si>
   <si>
     <t xml:space="preserve">4.05917978286743</t>
@@ -2144,10 +2144,10 @@
     <t xml:space="preserve">4.02032470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9860417842865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08432102203369</t>
+    <t xml:space="preserve">3.98604130744934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08432149887085</t>
   </si>
   <si>
     <t xml:space="preserve">4.12774658203125</t>
@@ -2159,28 +2159,28 @@
     <t xml:space="preserve">4.10489082336426</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00432586669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96318602561951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85119247436523</t>
+    <t xml:space="preserve">4.00432538986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96318578720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85119271278381</t>
   </si>
   <si>
     <t xml:space="preserve">3.85804891586304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73234272003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93575835227966</t>
+    <t xml:space="preserve">3.73234224319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93575811386108</t>
   </si>
   <si>
     <t xml:space="preserve">4.18945741653442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90833210945129</t>
+    <t xml:space="preserve">3.90833139419556</t>
   </si>
   <si>
     <t xml:space="preserve">4.04407024383545</t>
@@ -2192,79 +2192,79 @@
     <t xml:space="preserve">3.84514331817627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82876086235046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84748387336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77025318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75387120246887</t>
+    <t xml:space="preserve">3.82876110076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84748363494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77025294303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75387096405029</t>
   </si>
   <si>
     <t xml:space="preserve">3.81471872329712</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92705464363098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95747828483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.011305809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05343151092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98322224617004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03704929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95981931686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99258327484131</t>
+    <t xml:space="preserve">3.9270544052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95747852325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01130533218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05343198776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98322200775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03704977035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95981907844543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99258303642273</t>
   </si>
   <si>
     <t xml:space="preserve">4.07215404510498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1306619644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28980398178101</t>
+    <t xml:space="preserve">4.13066148757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28980350494385</t>
   </si>
   <si>
     <t xml:space="preserve">4.24533700942993</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18214893341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20321130752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19151067733765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23597621917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.280442237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37171506881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37873554229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40915966033936</t>
+    <t xml:space="preserve">4.1821494102478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20321178436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19150972366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2359766960144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28044271469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37171459197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37873601913452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40916013717651</t>
   </si>
   <si>
     <t xml:space="preserve">4.50511312484741</t>
@@ -2273,37 +2273,37 @@
     <t xml:space="preserve">4.39745903015137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44660520553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33895015716553</t>
+    <t xml:space="preserve">4.44660472869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33895063400269</t>
   </si>
   <si>
     <t xml:space="preserve">4.4278826713562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3319296836853</t>
+    <t xml:space="preserve">4.33192920684814</t>
   </si>
   <si>
     <t xml:space="preserve">4.31554746627808</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28746366500854</t>
+    <t xml:space="preserve">4.28746318817139</t>
   </si>
   <si>
     <t xml:space="preserve">4.34129047393799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26640033721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14938449859619</t>
+    <t xml:space="preserve">4.2664008140564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14938497543335</t>
   </si>
   <si>
     <t xml:space="preserve">4.18916988372803</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24299764633179</t>
+    <t xml:space="preserve">4.24299716949463</t>
   </si>
   <si>
     <t xml:space="preserve">4.25469923019409</t>
@@ -2312,37 +2312,37 @@
     <t xml:space="preserve">4.20087194442749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2149133682251</t>
+    <t xml:space="preserve">4.21491384506226</t>
   </si>
   <si>
     <t xml:space="preserve">4.16576671600342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09555721282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14470434188843</t>
+    <t xml:space="preserve">4.09555768966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14470338821411</t>
   </si>
   <si>
     <t xml:space="preserve">4.05811262130737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03236865997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93173456192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.971519947052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9621593952179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93641543388367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03938913345337</t>
+    <t xml:space="preserve">4.03236818313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93173503875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97152066230774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96215915679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93641567230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03939008712769</t>
   </si>
   <si>
     <t xml:space="preserve">4.08853626251221</t>
@@ -2351,16 +2351,16 @@
     <t xml:space="preserve">4.06981372833252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22193479537964</t>
+    <t xml:space="preserve">4.22193431854248</t>
   </si>
   <si>
     <t xml:space="preserve">4.20555210113525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25937986373901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13300180435181</t>
+    <t xml:space="preserve">4.25937938690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13300228118896</t>
   </si>
   <si>
     <t xml:space="preserve">4.14236354827881</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">4.2781023979187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22661542892456</t>
+    <t xml:space="preserve">4.2266149520874</t>
   </si>
   <si>
     <t xml:space="preserve">4.15172481536865</t>
@@ -2381,34 +2381,34 @@
     <t xml:space="preserve">4.43256330490112</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41384077072144</t>
+    <t xml:space="preserve">4.41384124755859</t>
   </si>
   <si>
     <t xml:space="preserve">4.70404005050659</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11125564575195</t>
+    <t xml:space="preserve">5.11125516891479</t>
   </si>
   <si>
     <t xml:space="preserve">5.28911972045898</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44826173782349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47634553909302</t>
+    <t xml:space="preserve">5.44826126098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47634506225586</t>
   </si>
   <si>
     <t xml:space="preserve">5.75250291824341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60740280151367</t>
+    <t xml:space="preserve">5.60740232467651</t>
   </si>
   <si>
     <t xml:space="preserve">5.50910949707031</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73377990722656</t>
+    <t xml:space="preserve">5.73378038406372</t>
   </si>
   <si>
     <t xml:space="preserve">5.83207321166992</t>
@@ -2417,13 +2417,13 @@
     <t xml:space="preserve">5.67761278152466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57463836669922</t>
+    <t xml:space="preserve">5.57463884353638</t>
   </si>
   <si>
     <t xml:space="preserve">5.60272216796875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38273286819458</t>
+    <t xml:space="preserve">5.38273239135742</t>
   </si>
   <si>
     <t xml:space="preserve">5.39209365844727</t>
@@ -2432,10 +2432,10 @@
     <t xml:space="preserve">5.48102569580078</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5699577331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46230316162109</t>
+    <t xml:space="preserve">5.56995725631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46230363845825</t>
   </si>
   <si>
     <t xml:space="preserve">5.59336137771606</t>
@@ -2444,13 +2444,13 @@
     <t xml:space="preserve">5.5793194770813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68229389190674</t>
+    <t xml:space="preserve">5.68229293823242</t>
   </si>
   <si>
     <t xml:space="preserve">5.82271194458008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85547637939453</t>
+    <t xml:space="preserve">5.85547733306885</t>
   </si>
   <si>
     <t xml:space="preserve">6.05674362182617</t>
@@ -2462,34 +2462,34 @@
     <t xml:space="preserve">5.90696334838867</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85079622268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80398893356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84143495559692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93504762649536</t>
+    <t xml:space="preserve">5.85079574584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80398941040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84143447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93504810333252</t>
   </si>
   <si>
     <t xml:space="preserve">5.836754322052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94909000396729</t>
+    <t xml:space="preserve">5.94908905029297</t>
   </si>
   <si>
     <t xml:space="preserve">6.0286602973938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18312168121338</t>
+    <t xml:space="preserve">6.18312120437622</t>
   </si>
   <si>
     <t xml:space="preserve">6.25801134109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36098527908325</t>
+    <t xml:space="preserve">6.36098575592041</t>
   </si>
   <si>
     <t xml:space="preserve">6.2205662727356</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">6.12695360183716</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15503740310669</t>
+    <t xml:space="preserve">6.15503787994385</t>
   </si>
   <si>
     <t xml:space="preserve">6.3797082901001</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">6.86181354522705</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25966787338257</t>
+    <t xml:space="preserve">7.25966835021973</t>
   </si>
   <si>
     <t xml:space="preserve">7.35796165466309</t>
@@ -2522,13 +2522,13 @@
     <t xml:space="preserve">7.78389883041382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88219261169434</t>
+    <t xml:space="preserve">7.88219356536865</t>
   </si>
   <si>
     <t xml:space="preserve">8.00856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84006595611572</t>
+    <t xml:space="preserve">7.84006643295288</t>
   </si>
   <si>
     <t xml:space="preserve">7.7932596206665</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">7.44221258163452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58263158798218</t>
+    <t xml:space="preserve">7.58263206481934</t>
   </si>
   <si>
     <t xml:space="preserve">7.51710271835327</t>
@@ -2549,28 +2549,28 @@
     <t xml:space="preserve">7.45157384872437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4375319480896</t>
+    <t xml:space="preserve">7.43753242492676</t>
   </si>
   <si>
     <t xml:space="preserve">7.27370929718018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31115531921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42817068099976</t>
+    <t xml:space="preserve">7.31115436553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4281702041626</t>
   </si>
   <si>
     <t xml:space="preserve">7.55922842025757</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54050636291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74177408218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09282112121582</t>
+    <t xml:space="preserve">7.54050588607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74177360534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09282207489014</t>
   </si>
   <si>
     <t xml:space="preserve">8.03197288513184</t>
@@ -2579,22 +2579,22 @@
     <t xml:space="preserve">7.84474754333496</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73241233825684</t>
+    <t xml:space="preserve">7.73241186141968</t>
   </si>
   <si>
     <t xml:space="preserve">7.83538627624512</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52646350860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61539649963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2783899307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57795095443726</t>
+    <t xml:space="preserve">7.52646398544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61539697647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27839088439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57795143127441</t>
   </si>
   <si>
     <t xml:space="preserve">7.41880989074707</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">7.38136434555054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69496774673462</t>
+    <t xml:space="preserve">7.69496726989746</t>
   </si>
   <si>
     <t xml:space="preserve">7.60135412216187</t>
@@ -2615,49 +2615,49 @@
     <t xml:space="preserve">7.65284109115601</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68560552597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47965669631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33455801010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18477773666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65586566925049</t>
+    <t xml:space="preserve">7.68560647964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4796576499939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33455848693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18477725982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65586614608765</t>
   </si>
   <si>
     <t xml:space="preserve">6.66054630279541</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88989782333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9460654258728</t>
+    <t xml:space="preserve">6.88989734649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94606494903564</t>
   </si>
   <si>
     <t xml:space="preserve">6.86649417877197</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91798114776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76352024078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18009662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04435873031616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04903936386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97882986068726</t>
+    <t xml:space="preserve">6.91798162460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76352071762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1800971031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.044358253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04903888702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9788293838501</t>
   </si>
   <si>
     <t xml:space="preserve">6.95074558258057</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">6.82436847686768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98351001739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91330099105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78224229812622</t>
+    <t xml:space="preserve">6.98351049423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91330051422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78224325180054</t>
   </si>
   <si>
     <t xml:space="preserve">6.25333070755005</t>
@@ -2684,22 +2684,22 @@
     <t xml:space="preserve">5.91632556915283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76186370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89760255813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.846116065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59804153442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.228271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85850095748901</t>
+    <t xml:space="preserve">5.76186418533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89760303497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84611511230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59804201126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22827100753784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85850143432617</t>
   </si>
   <si>
     <t xml:space="preserve">4.69935941696167</t>
@@ -2708,34 +2708,34 @@
     <t xml:space="preserve">4.74148511886597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30384588241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89897012710571</t>
+    <t xml:space="preserve">4.30384540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89897060394287</t>
   </si>
   <si>
     <t xml:space="preserve">3.74450945854187</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39346170425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29516839981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25304269790649</t>
+    <t xml:space="preserve">3.39346194267273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29516816139221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25304245948792</t>
   </si>
   <si>
     <t xml:space="preserve">3.29750871658325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51983880996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08151578903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94811701774597</t>
+    <t xml:space="preserve">3.51983904838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08151531219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94811773300171</t>
   </si>
   <si>
     <t xml:space="preserve">3.69302225112915</t>
@@ -2747,22 +2747,22 @@
     <t xml:space="preserve">3.75153064727783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69770312309265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79131579399109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70238399505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8802478313446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82408046722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15640544891357</t>
+    <t xml:space="preserve">3.69770336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79131603240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70238351821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88024806976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82407999038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15640592575073</t>
   </si>
   <si>
     <t xml:space="preserve">4.11896085739136</t>
@@ -2786,25 +2786,25 @@
     <t xml:space="preserve">4.58702421188354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55425930023193</t>
+    <t xml:space="preserve">4.55425977706909</t>
   </si>
   <si>
     <t xml:space="preserve">4.45596647262573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36235284805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35767364501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41852140426636</t>
+    <t xml:space="preserve">4.36235332489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35767269134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4185209274292</t>
   </si>
   <si>
     <t xml:space="preserve">4.45128583908081</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40447950363159</t>
+    <t xml:space="preserve">4.40447902679443</t>
   </si>
   <si>
     <t xml:space="preserve">4.39979839324951</t>
@@ -2816,31 +2816,31 @@
     <t xml:space="preserve">4.77424955368042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62446975708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58234357833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48405027389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5214958190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85616064071655</t>
+    <t xml:space="preserve">4.62446928024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58234310150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48404979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52149534225464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85616111755371</t>
   </si>
   <si>
     <t xml:space="preserve">5.0667896270752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00828170776367</t>
+    <t xml:space="preserve">5.00828123092651</t>
   </si>
   <si>
     <t xml:space="preserve">4.99658012390137</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16040229797363</t>
+    <t xml:space="preserve">5.16040182113647</t>
   </si>
   <si>
     <t xml:space="preserve">5.30082130432129</t>
@@ -2849,25 +2849,25 @@
     <t xml:space="preserve">5.34762763977051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60506248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46464395523071</t>
+    <t xml:space="preserve">5.60506296157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46464347839355</t>
   </si>
   <si>
     <t xml:space="preserve">5.27741765975952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04338598251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13699913024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31252336502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4295392036438</t>
+    <t xml:space="preserve">5.04338550567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13699960708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31252288818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42953872680664</t>
   </si>
   <si>
     <t xml:space="preserve">5.37103080749512</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">5.26571655273438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25401496887207</t>
+    <t xml:space="preserve">5.25401544570923</t>
   </si>
   <si>
     <t xml:space="preserve">5.39443397521973</t>
@@ -2891,10 +2891,10 @@
     <t xml:space="preserve">5.35932922363281</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20720815658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03168487548828</t>
+    <t xml:space="preserve">5.20720863342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03168392181396</t>
   </si>
   <si>
     <t xml:space="preserve">5.12529754638672</t>
@@ -2909,13 +2909,13 @@
     <t xml:space="preserve">5.3359260559082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18380498886108</t>
+    <t xml:space="preserve">5.18380546569824</t>
   </si>
   <si>
     <t xml:space="preserve">5.21891021728516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24231386184692</t>
+    <t xml:space="preserve">5.24231338500977</t>
   </si>
   <si>
     <t xml:space="preserve">5.44124031066895</t>
@@ -2924,19 +2924,19 @@
     <t xml:space="preserve">5.45294189453125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14870071411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19550704956055</t>
+    <t xml:space="preserve">5.14870023727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19550752639771</t>
   </si>
   <si>
     <t xml:space="preserve">5.07849168777466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05508804321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09019231796265</t>
+    <t xml:space="preserve">5.05508756637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0901927947998</t>
   </si>
   <si>
     <t xml:space="preserve">4.94977331161499</t>
@@ -2945,13 +2945,13 @@
     <t xml:space="preserve">5.01998281478882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10189390182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11359596252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68063735961914</t>
+    <t xml:space="preserve">5.10189437866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11359643936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68063688278198</t>
   </si>
   <si>
     <t xml:space="preserve">4.28278255462646</t>
@@ -2963,22 +2963,22 @@
     <t xml:space="preserve">4.17044734954834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39511775970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43724298477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71574115753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66357040405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74548149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88590049743652</t>
+    <t xml:space="preserve">4.39511871337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43724346160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71574211120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66357088088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74548196792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88590097427368</t>
   </si>
   <si>
     <t xml:space="preserve">5.86249780654907</t>
@@ -2990,16 +2990,16 @@
     <t xml:space="preserve">5.76888513565063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79228830337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0263204574585</t>
+    <t xml:space="preserve">5.79228782653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02631998062134</t>
   </si>
   <si>
     <t xml:space="preserve">5.827392578125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94440889358521</t>
+    <t xml:space="preserve">5.94440841674805</t>
   </si>
   <si>
     <t xml:space="preserve">6.28375482559204</t>
@@ -3011,16 +3011,16 @@
     <t xml:space="preserve">6.08482789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00291633605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04972314834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22524690628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33056163787842</t>
+    <t xml:space="preserve">6.00291681289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04972267150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22524738311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33056116104126</t>
   </si>
   <si>
     <t xml:space="preserve">6.26035213470459</t>
@@ -3029,10 +3029,10 @@
     <t xml:space="preserve">6.29545640945435</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3188591003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21354532241821</t>
+    <t xml:space="preserve">6.31886005401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21354579925537</t>
   </si>
   <si>
     <t xml:space="preserve">6.27205324172974</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">6.45927906036377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50608539581299</t>
+    <t xml:space="preserve">6.50608491897583</t>
   </si>
   <si>
     <t xml:space="preserve">6.62310075759888</t>
@@ -3065,40 +3065,40 @@
     <t xml:space="preserve">6.75181865692139</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72841596603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77522230148315</t>
+    <t xml:space="preserve">6.72841548919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77522277832031</t>
   </si>
   <si>
     <t xml:space="preserve">6.55289125442505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48268175125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61139965057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.435875415802</t>
+    <t xml:space="preserve">6.48268222808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61139917373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43587589263916</t>
   </si>
   <si>
     <t xml:space="preserve">6.34226322174072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56459331512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64650440216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81032705307007</t>
+    <t xml:space="preserve">6.56459283828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64650392532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81032657623291</t>
   </si>
   <si>
     <t xml:space="preserve">6.65820646286011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93904447555542</t>
+    <t xml:space="preserve">6.93904399871826</t>
   </si>
   <si>
     <t xml:space="preserve">6.90393972396851</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">6.51778697967529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47098064422607</t>
+    <t xml:space="preserve">6.47098016738892</t>
   </si>
   <si>
     <t xml:space="preserve">6.52948808670044</t>
@@ -3131,10 +3131,10 @@
     <t xml:space="preserve">6.69331073760986</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02095508575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95708322525024</t>
+    <t xml:space="preserve">7.02095556259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95708274841309</t>
   </si>
   <si>
     <t xml:space="preserve">7.94538068771362</t>
@@ -3143,37 +3143,37 @@
     <t xml:space="preserve">8.42514705657959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35493659973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19111442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16771125793457</t>
+    <t xml:space="preserve">8.35493755340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1911153793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16771221160889</t>
   </si>
   <si>
     <t xml:space="preserve">8.23792171478271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20281600952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30813026428223</t>
+    <t xml:space="preserve">8.2028169631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30813121795654</t>
   </si>
   <si>
     <t xml:space="preserve">8.28472709655762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21451663970947</t>
+    <t xml:space="preserve">8.21451759338379</t>
   </si>
   <si>
     <t xml:space="preserve">8.17941284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10920333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26132392883301</t>
+    <t xml:space="preserve">8.10920429229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26132297515869</t>
   </si>
   <si>
     <t xml:space="preserve">8.4953556060791</t>
@@ -3182,10 +3182,10 @@
     <t xml:space="preserve">8.48365497589111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47195243835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51875972747803</t>
+    <t xml:space="preserve">8.47195339202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51875877380371</t>
   </si>
   <si>
     <t xml:space="preserve">8.4602518081665</t>
@@ -3194,28 +3194,28 @@
     <t xml:space="preserve">8.33153343200684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29642963409424</t>
+    <t xml:space="preserve">8.29642868041992</t>
   </si>
   <si>
     <t xml:space="preserve">8.36663818359375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53046131134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41344451904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34323596954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2496223449707</t>
+    <t xml:space="preserve">8.53046035766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41344547271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34323501586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24962329864502</t>
   </si>
   <si>
     <t xml:space="preserve">8.39004135131836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12090396881104</t>
+    <t xml:space="preserve">8.12090587615967</t>
   </si>
   <si>
     <t xml:space="preserve">8.13260650634766</t>
@@ -3227,16 +3227,16 @@
     <t xml:space="preserve">8.09750175476074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99218845367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0389928817749</t>
+    <t xml:space="preserve">7.99218797683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03899383544922</t>
   </si>
   <si>
     <t xml:space="preserve">8.56556510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36127471923828</t>
+    <t xml:space="preserve">9.36127376556396</t>
   </si>
   <si>
     <t xml:space="preserve">9.1974515914917</t>
@@ -3251,19 +3251,19 @@
     <t xml:space="preserve">9.86615467071533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81889247894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99612712860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92523384094238</t>
+    <t xml:space="preserve">9.81889152526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99612808227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92523288726807</t>
   </si>
   <si>
     <t xml:space="preserve">10.3033380508423</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5160207748413</t>
+    <t xml:space="preserve">10.5160217285156</t>
   </si>
   <si>
     <t xml:space="preserve">10.5278367996216</t>
@@ -3293,10 +3293,10 @@
     <t xml:space="preserve">10.6341791152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5987300872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9768362045288</t>
+    <t xml:space="preserve">10.5987319946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9768352508545</t>
   </si>
   <si>
     <t xml:space="preserve">10.7050733566284</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">10.6105480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269691467285</t>
+    <t xml:space="preserve">10.3269701004028</t>
   </si>
   <si>
     <t xml:space="preserve">10.4923906326294</t>
@@ -3314,7 +3314,7 @@
     <t xml:space="preserve">10.6223640441895</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2797060012817</t>
+    <t xml:space="preserve">10.2797069549561</t>
   </si>
   <si>
     <t xml:space="preserve">10.1733636856079</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">10.3151540756226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3387851715088</t>
+    <t xml:space="preserve">10.3387861251831</t>
   </si>
   <si>
     <t xml:space="preserve">10.4805736541748</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">10.7168884277344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4096784591675</t>
+    <t xml:space="preserve">10.4096794128418</t>
   </si>
   <si>
     <t xml:space="preserve">10.2560758590698</t>
@@ -3353,19 +3353,19 @@
     <t xml:space="preserve">10.6459941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3978643417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3624153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4376497268677</t>
+    <t xml:space="preserve">10.3978633880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3624172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.437650680542</t>
   </si>
   <si>
     <t xml:space="preserve">11.7590379714966</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1673898696899</t>
+    <t xml:space="preserve">12.1673917770386</t>
   </si>
   <si>
     <t xml:space="preserve">12.163610458374</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968492507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6815280914307</t>
+    <t xml:space="preserve">11.7968482971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6815271377563</t>
   </si>
   <si>
     <t xml:space="preserve">11.834659576416</t>
@@ -3389,13 +3389,13 @@
     <t xml:space="preserve">11.7023229598999</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6077976226807</t>
+    <t xml:space="preserve">11.6077966690063</t>
   </si>
   <si>
     <t xml:space="preserve">11.5699863433838</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9102802276611</t>
+    <t xml:space="preserve">11.9102811813354</t>
   </si>
   <si>
     <t xml:space="preserve">11.6456069946289</t>
@@ -3410,19 +3410,19 @@
     <t xml:space="preserve">12.1182374954224</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3261957168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3072900772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5152473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5719623565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1560468673706</t>
+    <t xml:space="preserve">12.3261947631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3072910308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5152463912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5719633102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1560478210449</t>
   </si>
   <si>
     <t xml:space="preserve">13.2147397994995</t>
@@ -3431,10 +3431,10 @@
     <t xml:space="preserve">13.9142322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1600008010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0087585449219</t>
+    <t xml:space="preserve">14.1599998474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0087575912476</t>
   </si>
   <si>
     <t xml:space="preserve">13.4416027069092</t>
@@ -3443,13 +3443,13 @@
     <t xml:space="preserve">13.8008012771606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1221885681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0276641845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9540185928345</t>
+    <t xml:space="preserve">14.1221895217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.027663230896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9540176391602</t>
   </si>
   <si>
     <t xml:space="preserve">14.3490524291992</t>
@@ -3458,7 +3458,7 @@
     <t xml:space="preserve">14.0465679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7062740325928</t>
+    <t xml:space="preserve">13.7062759399414</t>
   </si>
   <si>
     <t xml:space="preserve">14.0654745101929</t>
@@ -3470,13 +3470,13 @@
     <t xml:space="preserve">13.3281707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7610139846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2525501251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3848857879639</t>
+    <t xml:space="preserve">12.7610149383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2525510787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3848867416382</t>
   </si>
   <si>
     <t xml:space="preserve">13.1769285202026</t>
@@ -3491,10 +3491,10 @@
     <t xml:space="preserve">13.3659811019897</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7649669647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7858486175537</t>
+    <t xml:space="preserve">14.7649660110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7858476638794</t>
   </si>
   <si>
     <t xml:space="preserve">15.8425636291504</t>
@@ -3506,16 +3506,16 @@
     <t xml:space="preserve">16.9201602935791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7311096191406</t>
+    <t xml:space="preserve">16.731107711792</t>
   </si>
   <si>
     <t xml:space="preserve">16.9012546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.61767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7122020721436</t>
+    <t xml:space="preserve">16.6176776885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7122039794922</t>
   </si>
   <si>
     <t xml:space="preserve">16.3719100952148</t>
@@ -3530,19 +3530,19 @@
     <t xml:space="preserve">16.3530044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2584800720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614702224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047523498535</t>
+    <t xml:space="preserve">16.2584781646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614692687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047513961792</t>
   </si>
   <si>
     <t xml:space="preserve">16.2395725250244</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0883331298828</t>
+    <t xml:space="preserve">16.0883312225342</t>
   </si>
   <si>
     <t xml:space="preserve">16.1828575134277</t>
@@ -3551,31 +3551,31 @@
     <t xml:space="preserve">15.2375974655151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7460622787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8216819763184</t>
+    <t xml:space="preserve">14.7460613250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8216829299927</t>
   </si>
   <si>
     <t xml:space="preserve">14.5570087432861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9331369400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9520435333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.630654335022</t>
+    <t xml:space="preserve">13.9331378936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9520425796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6306533813477</t>
   </si>
   <si>
     <t xml:space="preserve">14.2356204986572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.367956161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4813890457153</t>
+    <t xml:space="preserve">14.3679571151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.481388092041</t>
   </si>
   <si>
     <t xml:space="preserve">14.197811126709</t>
@@ -3587,28 +3587,28 @@
     <t xml:space="preserve">14.4624834060669</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1032838821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.084379196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5550336837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8386106491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.687370300293</t>
+    <t xml:space="preserve">14.1032848358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0843782424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5550327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8386116027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6873693466187</t>
   </si>
   <si>
     <t xml:space="preserve">13.6495580673218</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2734317779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4435768127441</t>
+    <t xml:space="preserve">14.2734308242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4435777664185</t>
   </si>
   <si>
     <t xml:space="preserve">14.6137256622314</t>
@@ -3617,25 +3617,25 @@
     <t xml:space="preserve">14.5948190689087</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4246730804443</t>
+    <t xml:space="preserve">14.4246740341187</t>
   </si>
   <si>
     <t xml:space="preserve">13.2336444854736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4226970672607</t>
+    <t xml:space="preserve">13.4226961135864</t>
   </si>
   <si>
     <t xml:space="preserve">13.3470764160156</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7440853118896</t>
+    <t xml:space="preserve">13.744086265564</t>
   </si>
   <si>
     <t xml:space="preserve">12.4774360656738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6664876937866</t>
+    <t xml:space="preserve">12.6664886474609</t>
   </si>
   <si>
     <t xml:space="preserve">13.4794130325317</t>
@@ -3650,13 +3650,13 @@
     <t xml:space="preserve">12.1749534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9122562408447</t>
+    <t xml:space="preserve">12.9122552871704</t>
   </si>
   <si>
     <t xml:space="preserve">12.6097736358643</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0993318557739</t>
+    <t xml:space="preserve">12.0993328094482</t>
   </si>
   <si>
     <t xml:space="preserve">12.4018154144287</t>
@@ -3665,7 +3665,7 @@
     <t xml:space="preserve">12.2127637863159</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9291858673096</t>
+    <t xml:space="preserve">11.9291849136353</t>
   </si>
   <si>
     <t xml:space="preserve">11.8535652160645</t>
@@ -3674,13 +3674,13 @@
     <t xml:space="preserve">12.2694787979126</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0426168441772</t>
+    <t xml:space="preserve">12.0426158905029</t>
   </si>
   <si>
     <t xml:space="preserve">12.288384437561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.23166847229</t>
+    <t xml:space="preserve">12.2316675186157</t>
   </si>
   <si>
     <t xml:space="preserve">11.2675037384033</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">10.7381572723389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3620290756226</t>
+    <t xml:space="preserve">11.3620300292969</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804271697998</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">11.6645135879517</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9500665664673</t>
+    <t xml:space="preserve">12.950065612793</t>
   </si>
   <si>
     <t xml:space="preserve">13.0067825317383</t>
@@ -3710,13 +3710,13 @@
     <t xml:space="preserve">13.0824031829834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.51722240448</t>
+    <t xml:space="preserve">13.5172233581543</t>
   </si>
   <si>
     <t xml:space="preserve">13.6212015151978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6590118408203</t>
+    <t xml:space="preserve">13.6590127944946</t>
   </si>
   <si>
     <t xml:space="preserve">12.9973297119141</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">12.7042989730835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6759414672852</t>
+    <t xml:space="preserve">12.6759405136108</t>
   </si>
   <si>
     <t xml:space="preserve">12.7893724441528</t>
@@ -3737,13 +3737,13 @@
     <t xml:space="preserve">12.6192264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">12.60032081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7704668045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8933506011963</t>
+    <t xml:space="preserve">12.6003198623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7704677581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8933515548706</t>
   </si>
   <si>
     <t xml:space="preserve">12.7137508392334</t>
@@ -3755,34 +3755,34 @@
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0237112045288</t>
+    <t xml:space="preserve">12.6286783218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0237121582031</t>
   </si>
   <si>
     <t xml:space="preserve">12.146595954895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8630170822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8063020706177</t>
+    <t xml:space="preserve">11.8630180358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8063011169434</t>
   </si>
   <si>
     <t xml:space="preserve">11.5416288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8799467086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0028314590454</t>
+    <t xml:space="preserve">10.8799457550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0028305053711</t>
   </si>
   <si>
     <t xml:space="preserve">11.3431243896484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8252067565918</t>
+    <t xml:space="preserve">11.8252077102661</t>
   </si>
   <si>
     <t xml:space="preserve">11.6834173202515</t>
@@ -3797,31 +3797,31 @@
     <t xml:space="preserve">11.6518430709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8151407241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8247470855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9400177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.410701751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1129207611084</t>
+    <t xml:space="preserve">11.8151416778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8247480392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.940016746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4107007980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1129217147827</t>
   </si>
   <si>
     <t xml:space="preserve">11.920804977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0168628692627</t>
+    <t xml:space="preserve">12.016863822937</t>
   </si>
   <si>
     <t xml:space="preserve">12.2377967834473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050374984741</t>
+    <t xml:space="preserve">12.3050384521484</t>
   </si>
   <si>
     <t xml:space="preserve">12.4010953903198</t>
@@ -3833,7 +3833,7 @@
     <t xml:space="preserve">11.4116973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9890422821045</t>
+    <t xml:space="preserve">10.9890413284302</t>
   </si>
   <si>
     <t xml:space="preserve">10.7969255447388</t>
@@ -3842,16 +3842,16 @@
     <t xml:space="preserve">11.2964277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8161373138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0658884048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1235237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2676095962524</t>
+    <t xml:space="preserve">10.8161382675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0658893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1235227584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2676105499268</t>
   </si>
   <si>
     <t xml:space="preserve">11.1619462966919</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">11.7479000091553</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382955551147</t>
+    <t xml:space="preserve">11.7382946014404</t>
   </si>
   <si>
     <t xml:space="preserve">11.6134195327759</t>
@@ -3887,19 +3887,19 @@
     <t xml:space="preserve">12.6604528427124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8141460418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198083877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9678373336792</t>
+    <t xml:space="preserve">12.8141450881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198093414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9678382873535</t>
   </si>
   <si>
     <t xml:space="preserve">12.823751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.804539680481</t>
+    <t xml:space="preserve">12.8045387268066</t>
   </si>
   <si>
     <t xml:space="preserve">13.0446844100952</t>
@@ -3908,7 +3908,7 @@
     <t xml:space="preserve">13.1311368942261</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2848300933838</t>
+    <t xml:space="preserve">13.2848291397095</t>
   </si>
   <si>
     <t xml:space="preserve">13.4577341079712</t>
@@ -3917,13 +3917,13 @@
     <t xml:space="preserve">13.7651205062866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9188117980957</t>
+    <t xml:space="preserve">13.91881275177</t>
   </si>
   <si>
     <t xml:space="preserve">13.8611783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9092073440552</t>
+    <t xml:space="preserve">13.9092063903809</t>
   </si>
   <si>
     <t xml:space="preserve">14.0052652359009</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">13.957236289978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0436887741089</t>
+    <t xml:space="preserve">14.0436878204346</t>
   </si>
   <si>
     <t xml:space="preserve">13.976448059082</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">13.938024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6018209457397</t>
+    <t xml:space="preserve">13.6018218994141</t>
   </si>
   <si>
     <t xml:space="preserve">13.2752237319946</t>
@@ -3971,31 +3971,31 @@
     <t xml:space="preserve">13.1983766555786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1023187637329</t>
+    <t xml:space="preserve">13.1023197174072</t>
   </si>
   <si>
     <t xml:space="preserve">13.3232526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3040409088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3424644470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1503477096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0062618255615</t>
+    <t xml:space="preserve">13.3040418624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3424654006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1503486633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0062608718872</t>
   </si>
   <si>
     <t xml:space="preserve">12.7372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1695594787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.862174987793</t>
+    <t xml:space="preserve">13.1695604324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8621740341187</t>
   </si>
   <si>
     <t xml:space="preserve">12.8525686264038</t>
@@ -4010,7 +4010,7 @@
     <t xml:space="preserve">12.372278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0841035842896</t>
+    <t xml:space="preserve">12.0841045379639</t>
   </si>
   <si>
     <t xml:space="preserve">11.9496221542358</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">11.3444566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7873191833496</t>
+    <t xml:space="preserve">10.7873201370239</t>
   </si>
   <si>
     <t xml:space="preserve">10.7777147293091</t>
@@ -4037,10 +4037,10 @@
     <t xml:space="preserve">10.7296848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8929843902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6240215301514</t>
+    <t xml:space="preserve">10.8929834365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6240224838257</t>
   </si>
   <si>
     <t xml:space="preserve">11.2195816040039</t>
@@ -4055,16 +4055,16 @@
     <t xml:space="preserve">11.3636684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1907644271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9025907516479</t>
+    <t xml:space="preserve">11.1907634735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9025897979736</t>
   </si>
   <si>
     <t xml:space="preserve">11.0274648666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2099752426147</t>
+    <t xml:space="preserve">11.2099761962891</t>
   </si>
   <si>
     <t xml:space="preserve">11.5749959945679</t>
@@ -4073,7 +4073,7 @@
     <t xml:space="preserve">11.5365724563599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1321334838867</t>
+    <t xml:space="preserve">12.1321325302124</t>
   </si>
   <si>
     <t xml:space="preserve">12.2570085525513</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">12.0072574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3818845748901</t>
+    <t xml:space="preserve">12.3818836212158</t>
   </si>
   <si>
     <t xml:space="preserve">12.3914890289307</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">13.0158672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791658401489</t>
+    <t xml:space="preserve">13.1791667938232</t>
   </si>
   <si>
     <t xml:space="preserve">12.9582328796387</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">12.7469053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0542898178101</t>
+    <t xml:space="preserve">13.0542907714844</t>
   </si>
   <si>
     <t xml:space="preserve">13.3328590393066</t>
@@ -4130,25 +4130,25 @@
     <t xml:space="preserve">13.8131494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2165927886963</t>
+    <t xml:space="preserve">14.2165937423706</t>
   </si>
   <si>
     <t xml:space="preserve">14.1109285354614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284181594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6210336685181</t>
+    <t xml:space="preserve">13.9284191131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6210327148438</t>
   </si>
   <si>
     <t xml:space="preserve">13.7747259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8419666290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0244770050049</t>
+    <t xml:space="preserve">13.841965675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0244779586792</t>
   </si>
   <si>
     <t xml:space="preserve">14.5720081329346</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">13.8515720367432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6402444839478</t>
+    <t xml:space="preserve">13.6402435302734</t>
   </si>
   <si>
     <t xml:space="preserve">13.5441865921021</t>
@@ -4196,7 +4196,7 @@
     <t xml:space="preserve">14.0628995895386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0340824127197</t>
+    <t xml:space="preserve">14.0340814590454</t>
   </si>
   <si>
     <t xml:space="preserve">14.370285987854</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">14.312650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.389497756958</t>
+    <t xml:space="preserve">14.3894968032837</t>
   </si>
   <si>
     <t xml:space="preserve">14.0821113586426</t>
@@ -4220,25 +4220,25 @@
     <t xml:space="preserve">13.7170906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3991022109985</t>
+    <t xml:space="preserve">14.3991031646729</t>
   </si>
   <si>
     <t xml:space="preserve">14.8793926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1003274917603</t>
+    <t xml:space="preserve">15.1003265380859</t>
   </si>
   <si>
     <t xml:space="preserve">15.1675672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">15.350076675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3404731750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0234804153442</t>
+    <t xml:space="preserve">15.3500776290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3404722213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0234813690186</t>
   </si>
   <si>
     <t xml:space="preserve">15.0522985458374</t>
@@ -4256,7 +4256,7 @@
     <t xml:space="preserve">15.0619039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1291446685791</t>
+    <t xml:space="preserve">15.1291437149048</t>
   </si>
   <si>
     <t xml:space="preserve">15.0907211303711</t>
@@ -4268,13 +4268,13 @@
     <t xml:space="preserve">14.9850578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1387510299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0138740539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.196385383606</t>
+    <t xml:space="preserve">15.1387500762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0138750076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1963844299316</t>
   </si>
   <si>
     <t xml:space="preserve">15.4365301132202</t>
@@ -4283,7 +4283,7 @@
     <t xml:space="preserve">15.3116540908813</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2155961990356</t>
+    <t xml:space="preserve">15.21559715271</t>
   </si>
   <si>
     <t xml:space="preserve">15.4557418823242</t>
@@ -4292,25 +4292,25 @@
     <t xml:space="preserve">14.68727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4855556488037</t>
+    <t xml:space="preserve">14.4855546951294</t>
   </si>
   <si>
     <t xml:space="preserve">14.8121528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922145843506</t>
+    <t xml:space="preserve">13.5922155380249</t>
   </si>
   <si>
     <t xml:space="preserve">11.7671117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6230249404907</t>
+    <t xml:space="preserve">11.623025894165</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5173616409302</t>
+    <t xml:space="preserve">11.5173606872559</t>
   </si>
   <si>
     <t xml:space="preserve">11.526967048645</t>
@@ -4337,13 +4337,13 @@
     <t xml:space="preserve">11.3540620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.469331741333</t>
+    <t xml:space="preserve">11.4693326950073</t>
   </si>
   <si>
     <t xml:space="preserve">11.2387933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3252458572388</t>
+    <t xml:space="preserve">11.3252449035645</t>
   </si>
   <si>
     <t xml:space="preserve">11.2772159576416</t>
@@ -4352,7 +4352,7 @@
     <t xml:space="preserve">11.113917350769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2003688812256</t>
+    <t xml:space="preserve">11.2003698348999</t>
   </si>
   <si>
     <t xml:space="preserve">11.1427354812622</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">10.6432332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5663871765137</t>
+    <t xml:space="preserve">10.5663862228394</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452299118042</t>
@@ -61095,7 +61095,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6496296296</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>108422</v>
@@ -61116,6 +61116,32 @@
         <v>1665</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6496296296</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>99096</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>9.94999980926514</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>9.82999992370605</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>9.92000007629395</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>9.89999961853027</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="1670">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,106 +38,106 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14659786224365</t>
+    <t xml:space="preserve">2.14659762382507</t>
   </si>
   <si>
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19815969467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18187689781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14388418197632</t>
+    <t xml:space="preserve">2.19815945625305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18187713623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14388370513916</t>
   </si>
   <si>
     <t xml:space="preserve">2.119460105896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0678985118866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10860466957092</t>
+    <t xml:space="preserve">2.06789827346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10860443115234</t>
   </si>
   <si>
     <t xml:space="preserve">2.09774994850159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00819516181946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03370428085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00765252113342</t>
+    <t xml:space="preserve">2.00819540023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03370475769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00765204429626</t>
   </si>
   <si>
     <t xml:space="preserve">2.06247067451477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0613853931427</t>
+    <t xml:space="preserve">2.06138515472412</t>
   </si>
   <si>
     <t xml:space="preserve">2.04618811607361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04564499855042</t>
+    <t xml:space="preserve">2.04564523696899</t>
   </si>
   <si>
     <t xml:space="preserve">2.10534811019897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04944467544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06355619430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02176427841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94035089015961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9702023267746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98214316368103</t>
+    <t xml:space="preserve">2.04944443702698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06355595588684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02176403999329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94035065174103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97020244598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98214292526245</t>
   </si>
   <si>
     <t xml:space="preserve">1.95663321018219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97563016414642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95934724807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98919868469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99896848201752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98648476600647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13845634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11674642562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13031482696533</t>
+    <t xml:space="preserve">1.97562980651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9593471288681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98919916152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99896824359894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98648452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13845658302307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1167459487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13031506538391</t>
   </si>
   <si>
     <t xml:space="preserve">2.14062714576721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21986961364746</t>
+    <t xml:space="preserve">2.21986985206604</t>
   </si>
   <si>
     <t xml:space="preserve">2.15473914146423</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">2.14931154251099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19164657592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19273209571838</t>
+    <t xml:space="preserve">2.19164681434631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1927318572998</t>
   </si>
   <si>
     <t xml:space="preserve">2.20087337493896</t>
@@ -161,34 +161,34 @@
     <t xml:space="preserve">2.19544577598572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19870233535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21607065200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23072457313538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27143120765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2035870552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19218897819519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17644906044006</t>
+    <t xml:space="preserve">2.19870185852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21607041358948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23072481155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27143168449402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20358657836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19218873977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17644929885864</t>
   </si>
   <si>
     <t xml:space="preserve">2.15202522277832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1330292224884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11783170700073</t>
+    <t xml:space="preserve">2.13302898406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11783194541931</t>
   </si>
   <si>
     <t xml:space="preserve">2.16830801963806</t>
@@ -197,10 +197,10 @@
     <t xml:space="preserve">2.18730425834656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17102193832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16016674041748</t>
+    <t xml:space="preserve">2.1710216999054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1601665019989</t>
   </si>
   <si>
     <t xml:space="preserve">2.11131882667542</t>
@@ -209,34 +209,34 @@
     <t xml:space="preserve">2.09829258918762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11403250694275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11457514762878</t>
+    <t xml:space="preserve">2.11403226852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11457538604736</t>
   </si>
   <si>
     <t xml:space="preserve">2.16505146026611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17156410217285</t>
+    <t xml:space="preserve">2.17156457901001</t>
   </si>
   <si>
     <t xml:space="preserve">2.20901489257812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20304441452026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22529721260071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29314160346985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30128335952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34470319747925</t>
+    <t xml:space="preserve">2.20304465293884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22529745101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29314136505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30128312110901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34470343589783</t>
   </si>
   <si>
     <t xml:space="preserve">2.30725336074829</t>
@@ -245,19 +245,19 @@
     <t xml:space="preserve">2.27360248565674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26329040527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27414560317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29585552215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28011536598206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37184143066406</t>
+    <t xml:space="preserve">2.26329016685486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27414512634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29585576057434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28011560440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37184119224548</t>
   </si>
   <si>
     <t xml:space="preserve">2.4006073474884</t>
@@ -266,106 +266,106 @@
     <t xml:space="preserve">2.37726879119873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50318837165833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55800652503967</t>
+    <t xml:space="preserve">2.50318813323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55800604820251</t>
   </si>
   <si>
     <t xml:space="preserve">2.57320356369019</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62205171585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58568644523621</t>
+    <t xml:space="preserve">2.62205147743225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58568668365479</t>
   </si>
   <si>
     <t xml:space="preserve">2.67307066917419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72425103187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72591972351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76096725463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74705982208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78155088424683</t>
+    <t xml:space="preserve">2.72425079345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72591996192932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76096773147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7470600605011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78155064582825</t>
   </si>
   <si>
     <t xml:space="preserve">2.85498380661011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87723660469055</t>
+    <t xml:space="preserve">2.87723612785339</t>
   </si>
   <si>
     <t xml:space="preserve">3.02410221099854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.055255651474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06860733032227</t>
+    <t xml:space="preserve">3.05525541305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06860709190369</t>
   </si>
   <si>
     <t xml:space="preserve">3.01075053215027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90393948554993</t>
+    <t xml:space="preserve">2.90393924713135</t>
   </si>
   <si>
     <t xml:space="preserve">2.98182272911072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97069668769836</t>
+    <t xml:space="preserve">2.97069692611694</t>
   </si>
   <si>
     <t xml:space="preserve">2.96179556846619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88168716430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82605576515198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79712796211243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75484800338745</t>
+    <t xml:space="preserve">2.88168668746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82605600357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79712748527527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75484776496887</t>
   </si>
   <si>
     <t xml:space="preserve">2.84830832481384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92841696739197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04857993125916</t>
+    <t xml:space="preserve">2.92841672897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04857969284058</t>
   </si>
   <si>
     <t xml:space="preserve">2.91061496734619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83718180656433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92619156837463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98404812812805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03745365142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05748081207275</t>
+    <t xml:space="preserve">2.83718204498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92619180679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98404788970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03745341300964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05748057365417</t>
   </si>
   <si>
     <t xml:space="preserve">3.03967905044556</t>
@@ -374,16 +374,16 @@
     <t xml:space="preserve">3.06415677070618</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04412937164307</t>
+    <t xml:space="preserve">3.04412961006165</t>
   </si>
   <si>
     <t xml:space="preserve">3.10198569297791</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11533689498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13758945465088</t>
+    <t xml:space="preserve">3.11533713340759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13758969306946</t>
   </si>
   <si>
     <t xml:space="preserve">3.22659945487976</t>
@@ -398,52 +398,52 @@
     <t xml:space="preserve">3.41574454307556</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36456418037415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36011385917664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3334105014801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31560873985291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36233854293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35121273994446</t>
+    <t xml:space="preserve">3.36456441879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36011338233948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33341026306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31560897827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36233901977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35121297836304</t>
   </si>
   <si>
     <t xml:space="preserve">3.32896018028259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33786129951477</t>
+    <t xml:space="preserve">3.33786153793335</t>
   </si>
   <si>
     <t xml:space="preserve">3.24440097808838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32673501968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33118581771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40461850166321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42464590072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41796970367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39794254302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35788822174072</t>
+    <t xml:space="preserve">3.32673525810242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33118510246277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40461826324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42464566230774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4179699420929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39794301986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35788798332214</t>
   </si>
   <si>
     <t xml:space="preserve">3.34453678131104</t>
@@ -452,25 +452,25 @@
     <t xml:space="preserve">3.42687058448792</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39349222183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34898734092712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38681674003601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38236618041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21992301940918</t>
+    <t xml:space="preserve">3.39349246025085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3489875793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38681650161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38236570358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21992349624634</t>
   </si>
   <si>
     <t xml:space="preserve">3.25997757911682</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28000497817993</t>
+    <t xml:space="preserve">3.28000473976135</t>
   </si>
   <si>
     <t xml:space="preserve">3.32228469848633</t>
@@ -485,58 +485,58 @@
     <t xml:space="preserve">3.15984177589417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40684342384338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33563613891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27555441856384</t>
+    <t xml:space="preserve">3.40684390068054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33563566207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27555465698242</t>
   </si>
   <si>
     <t xml:space="preserve">3.44689798355103</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50697946548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67164731025696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76065731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86969375610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99430751800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09889364242554</t>
+    <t xml:space="preserve">3.50697922706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67164754867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7606565952301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86969351768494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99430727958679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09889268875122</t>
   </si>
   <si>
     <t xml:space="preserve">4.18345260620117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08331680297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04548788070679</t>
+    <t xml:space="preserve">4.08331727981567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04548740386963</t>
   </si>
   <si>
     <t xml:space="preserve">4.20570516586304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28581380844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43268013000488</t>
+    <t xml:space="preserve">4.28581428527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43267965316772</t>
   </si>
   <si>
     <t xml:space="preserve">4.32809352874756</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35702085494995</t>
+    <t xml:space="preserve">4.35702133178711</t>
   </si>
   <si>
     <t xml:space="preserve">4.57286977767944</t>
@@ -545,19 +545,19 @@
     <t xml:space="preserve">4.79316902160645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75978994369507</t>
+    <t xml:space="preserve">4.75979042053223</t>
   </si>
   <si>
     <t xml:space="preserve">4.74866390228271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86437702178955</t>
+    <t xml:space="preserve">4.86437654495239</t>
   </si>
   <si>
     <t xml:space="preserve">5.06242322921753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05129671096802</t>
+    <t xml:space="preserve">5.05129623413086</t>
   </si>
   <si>
     <t xml:space="preserve">4.82432222366333</t>
@@ -569,40 +569,40 @@
     <t xml:space="preserve">4.84212398529053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74643898010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67300510406494</t>
+    <t xml:space="preserve">4.74643850326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6730055809021</t>
   </si>
   <si>
     <t xml:space="preserve">4.47050857543945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44603061676025</t>
+    <t xml:space="preserve">4.44603109359741</t>
   </si>
   <si>
     <t xml:space="preserve">4.43713045120239</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32141828536987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28358840942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1790018081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31919288635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33922052383423</t>
+    <t xml:space="preserve">4.32141780853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28358888626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17900276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31919240951538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33922004699707</t>
   </si>
   <si>
     <t xml:space="preserve">4.46160793304443</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45048189163208</t>
+    <t xml:space="preserve">4.45048141479492</t>
   </si>
   <si>
     <t xml:space="preserve">4.43490552902222</t>
@@ -611,22 +611,22 @@
     <t xml:space="preserve">4.76201486587524</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7397632598877</t>
+    <t xml:space="preserve">4.73976230621338</t>
   </si>
   <si>
     <t xml:space="preserve">4.73753833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71751117706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75088930130005</t>
+    <t xml:space="preserve">4.71751070022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75088882446289</t>
   </si>
   <si>
     <t xml:space="preserve">4.82654762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69525861740112</t>
+    <t xml:space="preserve">4.69525814056396</t>
   </si>
   <si>
     <t xml:space="preserve">4.76646566390991</t>
@@ -635,37 +635,37 @@
     <t xml:space="preserve">4.69080781936646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61069869995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62405109405518</t>
+    <t xml:space="preserve">4.61069917678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62405061721802</t>
   </si>
   <si>
     <t xml:space="preserve">4.83767366409302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74421310424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89107942581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87995290756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85102462768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87105226516724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21151351928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50524616241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40733528137207</t>
+    <t xml:space="preserve">4.74421358108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89107894897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87995338439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85102415084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87105178833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21151399612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50524568557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40733480453491</t>
   </si>
   <si>
     <t xml:space="preserve">5.36728143692017</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">5.3450288772583</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34280300140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31832551956177</t>
+    <t xml:space="preserve">5.34280347824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31832504272461</t>
   </si>
   <si>
     <t xml:space="preserve">5.14698219299316</t>
@@ -689,52 +689,52 @@
     <t xml:space="preserve">5.34057807922363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39175844192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42736196517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28494739532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25824451446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17368507385254</t>
+    <t xml:space="preserve">5.39175891876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4273624420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28494691848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25824356079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17368459701538</t>
   </si>
   <si>
     <t xml:space="preserve">5.0179181098938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20261335372925</t>
+    <t xml:space="preserve">5.20261240005493</t>
   </si>
   <si>
     <t xml:space="preserve">5.15143203735352</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22709131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2137393951416</t>
+    <t xml:space="preserve">5.22709035873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21373891830444</t>
   </si>
   <si>
     <t xml:space="preserve">5.20483779907227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24044179916382</t>
+    <t xml:space="preserve">5.24044275283813</t>
   </si>
   <si>
     <t xml:space="preserve">5.22931623458862</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15588331222534</t>
+    <t xml:space="preserve">5.15588283538818</t>
   </si>
   <si>
     <t xml:space="preserve">5.06687355041504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13808155059814</t>
+    <t xml:space="preserve">5.13808107376099</t>
   </si>
   <si>
     <t xml:space="preserve">5.09802675247192</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">4.99344062805176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97341346740723</t>
+    <t xml:space="preserve">4.97341299057007</t>
   </si>
   <si>
     <t xml:space="preserve">4.96228694915771</t>
@@ -755,25 +755,25 @@
     <t xml:space="preserve">4.90665578842163</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83989858627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89552927017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84879970550537</t>
+    <t xml:space="preserve">4.83989906311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89552974700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84880018234253</t>
   </si>
   <si>
     <t xml:space="preserve">4.86215114593506</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78426742553711</t>
+    <t xml:space="preserve">4.78426790237427</t>
   </si>
   <si>
     <t xml:space="preserve">4.92668294906616</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02681970596313</t>
+    <t xml:space="preserve">5.02681875228882</t>
   </si>
   <si>
     <t xml:space="preserve">5.25156831741333</t>
@@ -788,61 +788,61 @@
     <t xml:space="preserve">5.2315411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20706367492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41846179962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50302028656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53639936447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67436361312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80787897109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76337432861328</t>
+    <t xml:space="preserve">5.2070631980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41846132278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50302076339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53639888763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67436408996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8078784942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76337337493896</t>
   </si>
   <si>
     <t xml:space="preserve">5.97254657745361</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04152822494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07490730285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24847602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94139337539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00815057754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88576316833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.890212059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0192756652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02595233917236</t>
+    <t xml:space="preserve">6.04152870178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07490682601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24847650527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94139385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00815010070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8857626914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89021301269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01927614212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02595186233521</t>
   </si>
   <si>
     <t xml:space="preserve">6.10828638076782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23067378997803</t>
+    <t xml:space="preserve">6.23067426681519</t>
   </si>
   <si>
     <t xml:space="preserve">6.07935810089111</t>
@@ -851,31 +851,31 @@
     <t xml:space="preserve">6.12163734436035</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13721466064453</t>
+    <t xml:space="preserve">6.13721418380737</t>
   </si>
   <si>
     <t xml:space="preserve">6.11941242218018</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17504358291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19062042236328</t>
+    <t xml:space="preserve">6.17504262924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19061994552612</t>
   </si>
   <si>
     <t xml:space="preserve">6.2173228263855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09493446350098</t>
+    <t xml:space="preserve">6.09493541717529</t>
   </si>
   <si>
     <t xml:space="preserve">6.20842170715332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27517890930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56446075439453</t>
+    <t xml:space="preserve">6.27517938613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56446027755737</t>
   </si>
   <si>
     <t xml:space="preserve">6.40646839141846</t>
@@ -893,58 +893,58 @@
     <t xml:space="preserve">6.95387744903564</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0540132522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16527557373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22090673446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27431201934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48125982284546</t>
+    <t xml:space="preserve">7.05401372909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16527605056763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22090721130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2743124961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48126077651978</t>
   </si>
   <si>
     <t xml:space="preserve">7.28766393661499</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38334894180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3811240196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26986217498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45455646514893</t>
+    <t xml:space="preserve">7.38334941864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38112258911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26986169815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45455741882324</t>
   </si>
   <si>
     <t xml:space="preserve">7.53911638259888</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52576398849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44565582275391</t>
+    <t xml:space="preserve">7.52576303482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44565629959106</t>
   </si>
   <si>
     <t xml:space="preserve">7.46568250656128</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35442066192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60896492004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36418867111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61564111709595</t>
+    <t xml:space="preserve">7.35442113876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6089653968811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3641881942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61564064025879</t>
   </si>
   <si>
     <t xml:space="preserve">6.54220819473267</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">6.64011859893799</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66682100296021</t>
+    <t xml:space="preserve">6.66682052612305</t>
   </si>
   <si>
     <t xml:space="preserve">6.72245216369629</t>
@@ -965,10 +965,10 @@
     <t xml:space="preserve">6.66833019256592</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70666742324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75853395462036</t>
+    <t xml:space="preserve">6.70666694641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75853443145752</t>
   </si>
   <si>
     <t xml:space="preserve">6.6931357383728</t>
@@ -980,64 +980,64 @@
     <t xml:space="preserve">6.70215606689453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06973791122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91188097000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97276926040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55783033370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72921752929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64803409576416</t>
+    <t xml:space="preserve">7.06973838806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9118800163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97276830673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55783081054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72921800613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64803457260132</t>
   </si>
   <si>
     <t xml:space="preserve">6.562340259552</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6299934387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49694204330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4743914604187</t>
+    <t xml:space="preserve">6.62999296188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4969425201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47439050674438</t>
   </si>
   <si>
     <t xml:space="preserve">6.57587099075317</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46762609481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47213649749756</t>
+    <t xml:space="preserve">6.46762561798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47213697433472</t>
   </si>
   <si>
     <t xml:space="preserve">6.5149827003479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2962384223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2781982421875</t>
+    <t xml:space="preserve">6.29623889923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27819776535034</t>
   </si>
   <si>
     <t xml:space="preserve">6.27368783950806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08876943588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04366683959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03239154815674</t>
+    <t xml:space="preserve">6.08876895904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04366731643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0323920249939</t>
   </si>
   <si>
     <t xml:space="preserve">6.06847381591797</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">5.91287136077881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09102439880371</t>
+    <t xml:space="preserve">6.09102487564087</t>
   </si>
   <si>
     <t xml:space="preserve">6.05043268203735</t>
@@ -1055,34 +1055,34 @@
     <t xml:space="preserve">6.06396293640137</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07298374176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96473979949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97601461410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12034034729004</t>
+    <t xml:space="preserve">6.07298421859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96473932266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97601413726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12034130096436</t>
   </si>
   <si>
     <t xml:space="preserve">5.82266759872437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62872886657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59039354324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73246383666992</t>
+    <t xml:space="preserve">5.62872838973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59039306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73246431350708</t>
   </si>
   <si>
     <t xml:space="preserve">5.86325931549072</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88806581497192</t>
+    <t xml:space="preserve">5.88806533813477</t>
   </si>
   <si>
     <t xml:space="preserve">6.02111721038818</t>
@@ -1094,28 +1094,28 @@
     <t xml:space="preserve">5.84747409820557</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71442222595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68059682846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50469827651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66706514358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56333160400391</t>
+    <t xml:space="preserve">5.71442270278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68059635162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50469875335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66706562042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56333112716675</t>
   </si>
   <si>
     <t xml:space="preserve">5.57009649276733</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51822805404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53852462768555</t>
+    <t xml:space="preserve">5.51822900772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53852558135986</t>
   </si>
   <si>
     <t xml:space="preserve">5.61294317245483</t>
@@ -1130,28 +1130,28 @@
     <t xml:space="preserve">5.64902496337891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57911729812622</t>
+    <t xml:space="preserve">5.5791163444519</t>
   </si>
   <si>
     <t xml:space="preserve">5.53176021575928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61068773269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69187211990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86551475524902</t>
+    <t xml:space="preserve">5.61068820953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69187164306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86551427841187</t>
   </si>
   <si>
     <t xml:space="preserve">5.78884124755859</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93091249465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99856519699097</t>
+    <t xml:space="preserve">5.93091201782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99856567382812</t>
   </si>
   <si>
     <t xml:space="preserve">5.85649394989014</t>
@@ -1160,49 +1160,49 @@
     <t xml:space="preserve">6.21956491470337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10004425048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93316745758057</t>
+    <t xml:space="preserve">6.10004472732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93316793441772</t>
   </si>
   <si>
     <t xml:space="preserve">5.76178026199341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68736171722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64226007461548</t>
+    <t xml:space="preserve">5.68736124038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64225959777832</t>
   </si>
   <si>
     <t xml:space="preserve">5.59941244125366</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61519861221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47989225387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41449451446533</t>
+    <t xml:space="preserve">5.61519813537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47989177703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41449499130249</t>
   </si>
   <si>
     <t xml:space="preserve">5.34458637237549</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35586214065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36939287185669</t>
+    <t xml:space="preserve">5.35586166381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36939239501953</t>
   </si>
   <si>
     <t xml:space="preserve">5.53401517868042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5159740447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39419889450073</t>
+    <t xml:space="preserve">5.51597309112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39419841766357</t>
   </si>
   <si>
     <t xml:space="preserve">5.3378210067749</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">5.25438213348389</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2318320274353</t>
+    <t xml:space="preserve">5.23183107376099</t>
   </si>
   <si>
     <t xml:space="preserve">5.32203531265259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28144311904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24536228179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2498722076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14839315414429</t>
+    <t xml:space="preserve">5.28144407272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24536275863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24987268447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14839267730713</t>
   </si>
   <si>
     <t xml:space="preserve">5.11682176589966</t>
@@ -1235,37 +1235,37 @@
     <t xml:space="preserve">5.07397508621216</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06720924377441</t>
+    <t xml:space="preserve">5.06720876693726</t>
   </si>
   <si>
     <t xml:space="preserve">5.08073997497559</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15966796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30850458145142</t>
+    <t xml:space="preserve">5.15966844558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30850505828857</t>
   </si>
   <si>
     <t xml:space="preserve">5.39194345474243</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34007596969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36037302017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.229576587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14162731170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97926044464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8304238319397</t>
+    <t xml:space="preserve">5.3400764465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36037254333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22957611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14162683486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9792594909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83042335510254</t>
   </si>
   <si>
     <t xml:space="preserve">4.81463861465454</t>
@@ -1274,16 +1274,16 @@
     <t xml:space="preserve">4.75375032424927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04014825820923</t>
+    <t xml:space="preserve">5.04014873504639</t>
   </si>
   <si>
     <t xml:space="preserve">5.33331108093262</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72795343399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93993282318115</t>
+    <t xml:space="preserve">5.72795295715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93993234634399</t>
   </si>
   <si>
     <t xml:space="preserve">5.97375917434692</t>
@@ -1292,13 +1292,13 @@
     <t xml:space="preserve">5.89483070373535</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03464698791504</t>
+    <t xml:space="preserve">6.0346474647522</t>
   </si>
   <si>
     <t xml:space="preserve">5.99405479431152</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90385103225708</t>
+    <t xml:space="preserve">5.90385150909424</t>
   </si>
   <si>
     <t xml:space="preserve">5.94669818878174</t>
@@ -1307,34 +1307,34 @@
     <t xml:space="preserve">5.77756595611572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76403522491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82492256164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70765733718872</t>
+    <t xml:space="preserve">5.76403474807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82492303848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70765781402588</t>
   </si>
   <si>
     <t xml:space="preserve">6.15642213821411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33006477355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19701385498047</t>
+    <t xml:space="preserve">6.33006525039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19701480865479</t>
   </si>
   <si>
     <t xml:space="preserve">6.2759428024292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26015663146973</t>
+    <t xml:space="preserve">6.26015710830688</t>
   </si>
   <si>
     <t xml:space="preserve">6.15867757797241</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09553480148315</t>
+    <t xml:space="preserve">6.095534324646</t>
   </si>
   <si>
     <t xml:space="preserve">6.1676983833313</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">6.00984048843384</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0301365852356</t>
+    <t xml:space="preserve">6.03013610839844</t>
   </si>
   <si>
     <t xml:space="preserve">5.95346307754517</t>
@@ -1355,16 +1355,16 @@
     <t xml:space="preserve">5.87002468109131</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77531099319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74148368835449</t>
+    <t xml:space="preserve">5.77531051635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74148321151733</t>
   </si>
   <si>
     <t xml:space="preserve">5.75952529907227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15191268920898</t>
+    <t xml:space="preserve">6.15191221237183</t>
   </si>
   <si>
     <t xml:space="preserve">5.98503541946411</t>
@@ -1376,316 +1376,316 @@
     <t xml:space="preserve">5.97150421142578</t>
   </si>
   <si>
-    <t xml:space="preserve">6.165442943573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17897319793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08425951004028</t>
+    <t xml:space="preserve">6.16544246673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17897272109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08425903320312</t>
   </si>
   <si>
     <t xml:space="preserve">6.07523918151855</t>
   </si>
   <si>
+    <t xml:space="preserve">6.4270339012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42252492904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35938167572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66607475280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51272773742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30525875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2330961227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22407531738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67834138870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24662733078003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05268716812134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9218921661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79560708999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80913734436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54754590988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89032077789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00307559967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11132049560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09327936172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31427907943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4089937210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49468755722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87354421615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83295249938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08101272583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05846214294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26142120361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13062572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.256911277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02238035202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10356426239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3877067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30652332305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20278882980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27044248580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21631956100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65831851959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48693084716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34260511398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60419654846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44183015823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41927909851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27946186065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22082996368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4102578163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37417650222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35162496566772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37868642807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6267466545105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78911542892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73048257827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7034215927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56360483169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7214617729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59066581726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55007410049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22533988952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77431964874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99080991744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78334093093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66156482696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76529932022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68862581253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86001396179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52302837371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44531917572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74244356155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81101083755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74701452255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77901220321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69216060638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8064398765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7241587638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62816476821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86129331588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9024338722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90700483322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76072835922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63730764389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62359380722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59159564971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55959796905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45903158187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36303806304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35846710205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25790119171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39960765838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27618646621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31732702255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34018278121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48645925521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38589382171631</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.42703437805176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42252397537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35938119888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66607475280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51272821426392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30525875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23309564590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22407579421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67834186553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24662637710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05268812179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9218921661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79560613632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80913734436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54754543304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89032077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00307559967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11132049560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09327936172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31427907943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40899324417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49468755722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87354421615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83295202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08101367950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05846214294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26142120361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13062620162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.256911277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02238082885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10356378555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38770627975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30652332305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20278930664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27044200897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21631908416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65831851959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48693180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34260606765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60419750213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44182968139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41927814483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2794623374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22082996368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4102578163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37417697906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35162496566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37868690490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62674760818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7891149520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73048210144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70342063903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56360578536987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72146129608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5906662940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55007410049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22533988952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77431964874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99080944061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78334045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66156482696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76529979705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68862533569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86001348495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52302837371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44531917572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74244356155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81101083755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74701499938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77901268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69216012954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80643939971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7241587638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62816476821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86129379272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9024338722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90700435638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76072835922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63730764389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62359380722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59159564971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55959796905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45903253555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36303901672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35846710205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25790214538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960718154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27618598937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31732654571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34018230438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48645877838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38589429855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42703485488892</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.34932518005371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47731637954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73330163955688</t>
+    <t xml:space="preserve">6.47731685638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73330068588257</t>
   </si>
   <si>
     <t xml:space="preserve">6.63273572921753</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67387676239014</t>
+    <t xml:space="preserve">6.67387628555298</t>
   </si>
   <si>
     <t xml:space="preserve">6.58245325088501</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58702421188354</t>
+    <t xml:space="preserve">6.5870246887207</t>
   </si>
   <si>
     <t xml:space="preserve">6.53217077255249</t>
@@ -1706,28 +1706,28 @@
     <t xml:space="preserve">6.64644956588745</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46817445755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37675142288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32646942138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41789150238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.605309009552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78815460205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23504638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53674125671387</t>
+    <t xml:space="preserve">6.46817398071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37675189971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32646894454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41789197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60530948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78815507888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23504590988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53674173355103</t>
   </si>
   <si>
     <t xml:space="preserve">6.32189750671387</t>
@@ -1739,13 +1739,13 @@
     <t xml:space="preserve">5.59508514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45338010787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35738611221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1928243637085</t>
+    <t xml:space="preserve">5.45337963104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35738563537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19282484054565</t>
   </si>
   <si>
     <t xml:space="preserve">5.08311653137207</t>
@@ -1760,16 +1760,16 @@
     <t xml:space="preserve">5.073974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1882529258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16539812088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09682989120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0374059677124</t>
+    <t xml:space="preserve">5.18825340270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16539716720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09683036804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03740549087524</t>
   </si>
   <si>
     <t xml:space="preserve">4.84084606170654</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">4.85455942153931</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81799030303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46829748153687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21916961669922</t>
+    <t xml:space="preserve">4.81798982620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46829700469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21916913986206</t>
   </si>
   <si>
     <t xml:space="preserve">4.30145072937012</t>
@@ -1799,34 +1799,34 @@
     <t xml:space="preserve">4.20545625686646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13003206253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14374542236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04546642303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17345857620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24659633636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22145509719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10717630386353</t>
+    <t xml:space="preserve">4.13003158569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14374589920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04546594619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17345905303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2465968132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22145557403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10717678070068</t>
   </si>
   <si>
     <t xml:space="preserve">3.95404314994812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78719663619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83976459503174</t>
+    <t xml:space="preserve">3.78719592094421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83976435661316</t>
   </si>
   <si>
     <t xml:space="preserve">3.90147471427917</t>
@@ -1835,22 +1835,22 @@
     <t xml:space="preserve">3.81690907478333</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92204523086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93118786811829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05232286453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24888229370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09117698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01118183135986</t>
+    <t xml:space="preserve">3.92204475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93118739128113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05232334136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24888181686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09117746353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01118278503418</t>
   </si>
   <si>
     <t xml:space="preserve">4.01803922653198</t>
@@ -1859,16 +1859,16 @@
     <t xml:space="preserve">4.02946710586548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95861482620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94718647003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92890191078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53121185302734</t>
+    <t xml:space="preserve">3.95861434936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9471869468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92890167236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53121161460876</t>
   </si>
   <si>
     <t xml:space="preserve">3.43293237686157</t>
@@ -1880,10 +1880,10 @@
     <t xml:space="preserve">3.09923839569092</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10838055610657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23180198669434</t>
+    <t xml:space="preserve">3.10838079452515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23180174827576</t>
   </si>
   <si>
     <t xml:space="preserve">3.45807361602783</t>
@@ -1895,13 +1895,13 @@
     <t xml:space="preserve">3.3415093421936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29808354377747</t>
+    <t xml:space="preserve">3.29808330535889</t>
   </si>
   <si>
     <t xml:space="preserve">3.52892637252808</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46950149536133</t>
+    <t xml:space="preserve">3.46950125694275</t>
   </si>
   <si>
     <t xml:space="preserve">3.56549572944641</t>
@@ -1919,64 +1919,64 @@
     <t xml:space="preserve">3.17923355102539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99181628227234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99638748168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0763828754425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17237687110901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10609531402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02152919769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9483904838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98953080177307</t>
+    <t xml:space="preserve">2.9918167591095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99638724327087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07638263702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17237663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1060950756073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02152895927429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94839024543762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98953104019165</t>
   </si>
   <si>
     <t xml:space="preserve">2.83868312835693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80897045135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85011100769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89582204818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95296144485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14037847518921</t>
+    <t xml:space="preserve">2.80897068977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85011124610901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89582228660583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95296168327332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14037895202637</t>
   </si>
   <si>
     <t xml:space="preserve">3.17466259002686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23865818977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30036878585815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22951626777649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29351210594177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30722546577454</t>
+    <t xml:space="preserve">3.23865842819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30036902427673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22951579093933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29351234436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30722570419312</t>
   </si>
   <si>
     <t xml:space="preserve">3.25694298744202</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">3.26379990577698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39407730102539</t>
+    <t xml:space="preserve">3.39407753944397</t>
   </si>
   <si>
     <t xml:space="preserve">3.62034940719604</t>
@@ -1997,40 +1997,40 @@
     <t xml:space="preserve">3.6112072467804</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57235264778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69120216369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74605560302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65463256835938</t>
+    <t xml:space="preserve">3.57235240936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69120192527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74605584144592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65463280677795</t>
   </si>
   <si>
     <t xml:space="preserve">3.58835124969482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59977889060974</t>
+    <t xml:space="preserve">3.59977912902832</t>
   </si>
   <si>
     <t xml:space="preserve">3.66148996353149</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51292753219604</t>
+    <t xml:space="preserve">3.51292729377747</t>
   </si>
   <si>
     <t xml:space="preserve">3.60206484794617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66377544403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77576851844788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70263028144836</t>
+    <t xml:space="preserve">3.66377520561218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77576804161072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70263004302979</t>
   </si>
   <si>
     <t xml:space="preserve">3.69348764419556</t>
@@ -2039,40 +2039,40 @@
     <t xml:space="preserve">3.78491044044495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88776159286499</t>
+    <t xml:space="preserve">3.88776135444641</t>
   </si>
   <si>
     <t xml:space="preserve">3.98147010803223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85576391220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91747403144836</t>
+    <t xml:space="preserve">3.85576367378235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91747379302979</t>
   </si>
   <si>
     <t xml:space="preserve">3.94261527061462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02718162536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07975006103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15974521636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22374057769775</t>
+    <t xml:space="preserve">4.02718114852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.079749584198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15974473953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22374105453491</t>
   </si>
   <si>
     <t xml:space="preserve">4.1826000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34487581253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28087949752808</t>
+    <t xml:space="preserve">4.34487628936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28087997436523</t>
   </si>
   <si>
     <t xml:space="preserve">4.03632402420044</t>
@@ -2084,22 +2084,22 @@
     <t xml:space="preserve">4.11631917953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06603622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32430601119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37687397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4797248840332</t>
+    <t xml:space="preserve">4.06603670120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32430648803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3768744468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47972536087036</t>
   </si>
   <si>
     <t xml:space="preserve">4.52543687820435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45001268386841</t>
+    <t xml:space="preserve">4.45001220703125</t>
   </si>
   <si>
     <t xml:space="preserve">4.2580246925354</t>
@@ -2108,25 +2108,25 @@
     <t xml:space="preserve">4.29687881469727</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37230348587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29459381103516</t>
+    <t xml:space="preserve">4.3723030090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29459428787231</t>
   </si>
   <si>
     <t xml:space="preserve">4.33116292953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38601684570312</t>
+    <t xml:space="preserve">4.38601636886597</t>
   </si>
   <si>
     <t xml:space="preserve">4.34259080886841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33344841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3471622467041</t>
+    <t xml:space="preserve">4.33344793319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34716176986694</t>
   </si>
   <si>
     <t xml:space="preserve">4.29230833053589</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">4.27859449386597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36316108703613</t>
+    <t xml:space="preserve">4.36316061019897</t>
   </si>
   <si>
     <t xml:space="preserve">4.05917978286743</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">4.02032470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98604106903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08432054519653</t>
+    <t xml:space="preserve">3.98604083061218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08432149887085</t>
   </si>
   <si>
     <t xml:space="preserve">4.12774658203125</t>
@@ -2165,85 +2165,85 @@
     <t xml:space="preserve">4.1048903465271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00432586669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96318578720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85119247436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85804891586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73234272003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93575811386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18945646286011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90833163261414</t>
+    <t xml:space="preserve">4.00432634353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96318626403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85119223594666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85804867744446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73234248161316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93575835227966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18945693969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90833139419556</t>
   </si>
   <si>
     <t xml:space="preserve">4.04407024383545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96683979034424</t>
+    <t xml:space="preserve">3.96684002876282</t>
   </si>
   <si>
     <t xml:space="preserve">3.84514331817627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82876133918762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84748363494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7702534198761</t>
+    <t xml:space="preserve">3.82876110076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84748339653015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77025318145752</t>
   </si>
   <si>
     <t xml:space="preserve">3.75387096405029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81471872329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92705464363098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95747852325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.011305809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05343198776245</t>
+    <t xml:space="preserve">3.8147189617157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9270544052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95747828483582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01130533218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05343103408813</t>
   </si>
   <si>
     <t xml:space="preserve">3.98322200775146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03704929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95981884002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99258303642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07215404510498</t>
+    <t xml:space="preserve">4.03704881668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95981907844543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99258327484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07215452194214</t>
   </si>
   <si>
     <t xml:space="preserve">4.1306619644165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28980302810669</t>
+    <t xml:space="preserve">4.28980350494385</t>
   </si>
   <si>
     <t xml:space="preserve">4.24533748626709</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">4.18214893341064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20321130752563</t>
+    <t xml:space="preserve">4.20321178436279</t>
   </si>
   <si>
     <t xml:space="preserve">4.19151020050049</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">4.28044271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37171459197998</t>
+    <t xml:space="preserve">4.37171506881714</t>
   </si>
   <si>
     <t xml:space="preserve">4.37873554229736</t>
@@ -2279,16 +2279,16 @@
     <t xml:space="preserve">4.39745855331421</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44660520553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33895111083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42788219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3319296836853</t>
+    <t xml:space="preserve">4.44660472869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33895063400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4278826713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33192920684814</t>
   </si>
   <si>
     <t xml:space="preserve">4.31554746627808</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">4.34129047393799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2664008140564</t>
+    <t xml:space="preserve">4.26640033721924</t>
   </si>
   <si>
     <t xml:space="preserve">4.14938449859619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18916940689087</t>
+    <t xml:space="preserve">4.18917036056519</t>
   </si>
   <si>
     <t xml:space="preserve">4.24299716949463</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">4.20087194442749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21491384506226</t>
+    <t xml:space="preserve">4.2149133682251</t>
   </si>
   <si>
     <t xml:space="preserve">4.16576623916626</t>
@@ -2330,28 +2330,28 @@
     <t xml:space="preserve">4.14470386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05811262130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0323691368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93173503875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97152018547058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96215867996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93641543388367</t>
+    <t xml:space="preserve">4.05811214447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03236818313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93173456192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97152090072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9621593952179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93641519546509</t>
   </si>
   <si>
     <t xml:space="preserve">4.03939008712769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08853578567505</t>
+    <t xml:space="preserve">4.08853673934937</t>
   </si>
   <si>
     <t xml:space="preserve">4.06981325149536</t>
@@ -2360,19 +2360,19 @@
     <t xml:space="preserve">4.22193479537964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20555210113525</t>
+    <t xml:space="preserve">4.20555257797241</t>
   </si>
   <si>
     <t xml:space="preserve">4.25937986373901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13300275802612</t>
+    <t xml:space="preserve">4.13300228118896</t>
   </si>
   <si>
     <t xml:space="preserve">4.14236402511597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2781023979187</t>
+    <t xml:space="preserve">4.27810192108154</t>
   </si>
   <si>
     <t xml:space="preserve">4.2266149520874</t>
@@ -2393,10 +2393,10 @@
     <t xml:space="preserve">4.70404005050659</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11125516891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28912019729614</t>
+    <t xml:space="preserve">5.11125564575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28911972045898</t>
   </si>
   <si>
     <t xml:space="preserve">5.44826126098633</t>
@@ -2405,10 +2405,10 @@
     <t xml:space="preserve">5.47634553909302</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75250244140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60740232467651</t>
+    <t xml:space="preserve">5.75250291824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60740280151367</t>
   </si>
   <si>
     <t xml:space="preserve">5.50910949707031</t>
@@ -2417,28 +2417,28 @@
     <t xml:space="preserve">5.73377990722656</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83207321166992</t>
+    <t xml:space="preserve">5.83207368850708</t>
   </si>
   <si>
     <t xml:space="preserve">5.67761278152466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57463836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60272264480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38273286819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39209413528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48102569580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5699577331543</t>
+    <t xml:space="preserve">5.57463884353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60272216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38273239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39209365844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48102617263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56995725631714</t>
   </si>
   <si>
     <t xml:space="preserve">5.46230363845825</t>
@@ -2450,16 +2450,16 @@
     <t xml:space="preserve">5.5793194770813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68229389190674</t>
+    <t xml:space="preserve">5.68229293823242</t>
   </si>
   <si>
     <t xml:space="preserve">5.82271194458008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85547733306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05674409866333</t>
+    <t xml:space="preserve">5.85547685623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05674362182617</t>
   </si>
   <si>
     <t xml:space="preserve">5.86951875686646</t>
@@ -2474,10 +2474,10 @@
     <t xml:space="preserve">5.80398988723755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84143495559692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93504810333252</t>
+    <t xml:space="preserve">5.84143447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93504762649536</t>
   </si>
   <si>
     <t xml:space="preserve">5.836754322052</t>
@@ -2489,64 +2489,64 @@
     <t xml:space="preserve">6.0286602973938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18312168121338</t>
+    <t xml:space="preserve">6.18312120437622</t>
   </si>
   <si>
     <t xml:space="preserve">6.25801134109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36098575592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22056579589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15503740310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3797082901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86181354522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25966787338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35796117782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4468936920166</t>
+    <t xml:space="preserve">6.36098527908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22056674957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12695360183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15503787994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37970781326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86181402206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25966835021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35796165466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44689321517944</t>
   </si>
   <si>
     <t xml:space="preserve">7.77921867370605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78389883041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88219308853149</t>
+    <t xml:space="preserve">7.78389930725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88219261169434</t>
   </si>
   <si>
     <t xml:space="preserve">8.00857067108154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84006690979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7932596206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32519626617432</t>
+    <t xml:space="preserve">7.84006643295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79326009750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32519674301147</t>
   </si>
   <si>
     <t xml:space="preserve">7.44221258163452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58263206481934</t>
+    <t xml:space="preserve">7.58263158798218</t>
   </si>
   <si>
     <t xml:space="preserve">7.51710271835327</t>
@@ -2558,10 +2558,10 @@
     <t xml:space="preserve">7.43753242492676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27370929718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31115436553955</t>
+    <t xml:space="preserve">7.27370977401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31115484237671</t>
   </si>
   <si>
     <t xml:space="preserve">7.42817068099976</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">7.55922842025757</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5405068397522</t>
+    <t xml:space="preserve">7.54050636291504</t>
   </si>
   <si>
     <t xml:space="preserve">7.74177360534668</t>
@@ -2585,22 +2585,22 @@
     <t xml:space="preserve">7.84474754333496</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73241233825684</t>
+    <t xml:space="preserve">7.73241186141968</t>
   </si>
   <si>
     <t xml:space="preserve">7.83538675308228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52646446228027</t>
+    <t xml:space="preserve">7.52646398544312</t>
   </si>
   <si>
     <t xml:space="preserve">7.61539649963379</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27839040756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57795143127441</t>
+    <t xml:space="preserve">7.27839088439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57795095443726</t>
   </si>
   <si>
     <t xml:space="preserve">7.41880941390991</t>
@@ -2609,10 +2609,10 @@
     <t xml:space="preserve">7.46561527252197</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3813648223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69496726989746</t>
+    <t xml:space="preserve">7.38136434555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6949667930603</t>
   </si>
   <si>
     <t xml:space="preserve">7.60135412216187</t>
@@ -2621,22 +2621,22 @@
     <t xml:space="preserve">7.65284156799316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68560552597046</t>
+    <t xml:space="preserve">7.68560600280762</t>
   </si>
   <si>
     <t xml:space="preserve">7.4796576499939</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33455848693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18477773666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65586614608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66054630279541</t>
+    <t xml:space="preserve">7.33455801010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18477725982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65586566925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66054582595825</t>
   </si>
   <si>
     <t xml:space="preserve">6.88989734649658</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">6.94606494903564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86649417877197</t>
+    <t xml:space="preserve">6.86649465560913</t>
   </si>
   <si>
     <t xml:space="preserve">6.91798114776611</t>
@@ -2657,13 +2657,13 @@
     <t xml:space="preserve">7.1800971031189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.044358253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04903888702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9788293838501</t>
+    <t xml:space="preserve">7.04435873031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04903936386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97882986068726</t>
   </si>
   <si>
     <t xml:space="preserve">6.95074558258057</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">6.82436847686768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98351001739502</t>
+    <t xml:space="preserve">6.98351049423218</t>
   </si>
   <si>
     <t xml:space="preserve">6.91330099105835</t>
@@ -2690,10 +2690,10 @@
     <t xml:space="preserve">5.91632509231567</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76186466217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89760303497314</t>
+    <t xml:space="preserve">5.76186418533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89760255813599</t>
   </si>
   <si>
     <t xml:space="preserve">5.84611511230469</t>
@@ -2702,10 +2702,10 @@
     <t xml:space="preserve">5.59804201126099</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22827100753784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85850143432617</t>
+    <t xml:space="preserve">5.228271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85850095748901</t>
   </si>
   <si>
     <t xml:space="preserve">4.69935941696167</t>
@@ -2714,49 +2714,49 @@
     <t xml:space="preserve">4.74148511886597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30384540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89897060394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74450945854187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39346170425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29516839981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25304245948792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29750895500183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5198392868042</t>
+    <t xml:space="preserve">4.30384588241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89897036552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74450969696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39346194267273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29516816139221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25304269790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29750847816467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51983880996704</t>
   </si>
   <si>
     <t xml:space="preserve">4.08151531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94811773300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69302248954773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5806872844696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75153064727783</t>
+    <t xml:space="preserve">3.94811749458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69302225112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58068752288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75153040885925</t>
   </si>
   <si>
     <t xml:space="preserve">3.69770336151123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79131603240967</t>
+    <t xml:space="preserve">3.79131579399109</t>
   </si>
   <si>
     <t xml:space="preserve">3.70238351821899</t>
@@ -2765,13 +2765,13 @@
     <t xml:space="preserve">3.88024806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82408022880554</t>
+    <t xml:space="preserve">3.82407999038696</t>
   </si>
   <si>
     <t xml:space="preserve">4.15640592575073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11896085739136</t>
+    <t xml:space="preserve">4.1189603805542</t>
   </si>
   <si>
     <t xml:space="preserve">4.47936916351318</t>
@@ -2783,13 +2783,13 @@
     <t xml:space="preserve">4.10023784637451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26406049728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18448925018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58702373504639</t>
+    <t xml:space="preserve">4.26406002044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18448877334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58702421188354</t>
   </si>
   <si>
     <t xml:space="preserve">4.55425977706909</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">4.36235332489014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35767364501953</t>
+    <t xml:space="preserve">4.35767269134521</t>
   </si>
   <si>
     <t xml:space="preserve">4.41852140426636</t>
@@ -2810,22 +2810,22 @@
     <t xml:space="preserve">4.45128583908081</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40447950363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39979839324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26874017715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77425003051758</t>
+    <t xml:space="preserve">4.40447902679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39979791641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26874113082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77424955368042</t>
   </si>
   <si>
     <t xml:space="preserve">4.62446928024292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58234310150146</t>
+    <t xml:space="preserve">4.58234357833862</t>
   </si>
   <si>
     <t xml:space="preserve">4.48405027389526</t>
@@ -2837,22 +2837,22 @@
     <t xml:space="preserve">4.85616064071655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06678915023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00828075408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99658012390137</t>
+    <t xml:space="preserve">5.0667896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00828170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99658060073853</t>
   </si>
   <si>
     <t xml:space="preserve">5.16040182113647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30082082748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34762763977051</t>
+    <t xml:space="preserve">5.30082130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34762811660767</t>
   </si>
   <si>
     <t xml:space="preserve">5.60506248474121</t>
@@ -2861,16 +2861,16 @@
     <t xml:space="preserve">5.46464395523071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27741813659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04338645935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13699960708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31252241134644</t>
+    <t xml:space="preserve">5.27741765975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04338550567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13699913024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31252288818359</t>
   </si>
   <si>
     <t xml:space="preserve">5.42953872680664</t>
@@ -2879,22 +2879,22 @@
     <t xml:space="preserve">5.37103080749512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51144933700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3242244720459</t>
+    <t xml:space="preserve">5.51144981384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32422399520874</t>
   </si>
   <si>
     <t xml:space="preserve">5.26571655273438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25401544570923</t>
+    <t xml:space="preserve">5.25401496887207</t>
   </si>
   <si>
     <t xml:space="preserve">5.39443397521973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35932922363281</t>
+    <t xml:space="preserve">5.35932970046997</t>
   </si>
   <si>
     <t xml:space="preserve">5.20720815658569</t>
@@ -2903,16 +2903,16 @@
     <t xml:space="preserve">5.03168439865112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12529706954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23061180114746</t>
+    <t xml:space="preserve">5.12529754638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23061227798462</t>
   </si>
   <si>
     <t xml:space="preserve">5.17210388183594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3359260559082</t>
+    <t xml:space="preserve">5.33592557907104</t>
   </si>
   <si>
     <t xml:space="preserve">5.18380546569824</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">5.44124031066895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45294189453125</t>
+    <t xml:space="preserve">5.45294141769409</t>
   </si>
   <si>
     <t xml:space="preserve">5.14870023727417</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">5.19550704956055</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07849168777466</t>
+    <t xml:space="preserve">5.0784912109375</t>
   </si>
   <si>
     <t xml:space="preserve">5.05508804321289</t>
@@ -2945,43 +2945,43 @@
     <t xml:space="preserve">5.09019231796265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94977331161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01998329162598</t>
+    <t xml:space="preserve">4.94977378845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01998281478882</t>
   </si>
   <si>
     <t xml:space="preserve">5.10189390182495</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11359596252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68063688278198</t>
+    <t xml:space="preserve">5.11359643936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68063640594482</t>
   </si>
   <si>
     <t xml:space="preserve">4.28278207778931</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30618572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17044687271118</t>
+    <t xml:space="preserve">4.30618619918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17044734954834</t>
   </si>
   <si>
     <t xml:space="preserve">4.39511823654175</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43724393844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7157416343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66357088088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74548149108887</t>
+    <t xml:space="preserve">4.43724346160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71574211120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66357040405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74548196792603</t>
   </si>
   <si>
     <t xml:space="preserve">5.88590097427368</t>
@@ -2999,61 +2999,61 @@
     <t xml:space="preserve">5.79228782653809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02631950378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.827392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94440841674805</t>
+    <t xml:space="preserve">6.02631998062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82739305496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94440889358521</t>
   </si>
   <si>
     <t xml:space="preserve">6.2837553024292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09652996063232</t>
+    <t xml:space="preserve">6.09652948379517</t>
   </si>
   <si>
     <t xml:space="preserve">6.08482789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00291681289673</t>
+    <t xml:space="preserve">6.00291728973389</t>
   </si>
   <si>
     <t xml:space="preserve">6.04972314834595</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22524690628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3305606842041</t>
+    <t xml:space="preserve">6.22524738311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33056116104126</t>
   </si>
   <si>
     <t xml:space="preserve">6.26035165786743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2954568862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31886005401611</t>
+    <t xml:space="preserve">6.29545640945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31885957717896</t>
   </si>
   <si>
     <t xml:space="preserve">6.21354532241821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27205276489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35396432876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49438428878784</t>
+    <t xml:space="preserve">6.27205371856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35396480560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49438333511353</t>
   </si>
   <si>
     <t xml:space="preserve">6.45927906036377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50608491897583</t>
+    <t xml:space="preserve">6.50608539581299</t>
   </si>
   <si>
     <t xml:space="preserve">6.62310123443604</t>
@@ -3065,16 +3065,16 @@
     <t xml:space="preserve">6.68160915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70501232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75181818008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72841596603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77522230148315</t>
+    <t xml:space="preserve">6.70501184463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75181913375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72841548919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.775221824646</t>
   </si>
   <si>
     <t xml:space="preserve">6.55289125442505</t>
@@ -3086,16 +3086,16 @@
     <t xml:space="preserve">6.61139965057373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43587589263916</t>
+    <t xml:space="preserve">6.435875415802</t>
   </si>
   <si>
     <t xml:space="preserve">6.34226322174072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56459283828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64650392532349</t>
+    <t xml:space="preserve">6.56459331512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64650440216064</t>
   </si>
   <si>
     <t xml:space="preserve">6.81032657623291</t>
@@ -3104,13 +3104,13 @@
     <t xml:space="preserve">6.65820598602295</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93904447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90393924713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83373022079468</t>
+    <t xml:space="preserve">6.9390435218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90393972396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83372974395752</t>
   </si>
   <si>
     <t xml:space="preserve">6.85713291168213</t>
@@ -3119,10 +3119,10 @@
     <t xml:space="preserve">6.92734289169312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84543085098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5411901473999</t>
+    <t xml:space="preserve">6.84543180465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54118967056274</t>
   </si>
   <si>
     <t xml:space="preserve">6.51778745651245</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">6.52948808670044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69331026077271</t>
+    <t xml:space="preserve">6.69331073760986</t>
   </si>
   <si>
     <t xml:space="preserve">7.02095556259155</t>
@@ -3143,49 +3143,49 @@
     <t xml:space="preserve">7.95708274841309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94538068771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42514705657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35493755340576</t>
+    <t xml:space="preserve">7.9453821182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42514610290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35493659973145</t>
   </si>
   <si>
     <t xml:space="preserve">8.19111442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16771125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23792171478271</t>
+    <t xml:space="preserve">8.16771221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2379207611084</t>
   </si>
   <si>
     <t xml:space="preserve">8.20281600952148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30813121795654</t>
+    <t xml:space="preserve">8.30813026428223</t>
   </si>
   <si>
     <t xml:space="preserve">8.28472805023193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21451663970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17941284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10920524597168</t>
+    <t xml:space="preserve">8.21451759338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17941379547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10920333862305</t>
   </si>
   <si>
     <t xml:space="preserve">8.26132392883301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4953556060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48365497589111</t>
+    <t xml:space="preserve">8.49535655975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4836540222168</t>
   </si>
   <si>
     <t xml:space="preserve">8.47195339202881</t>
@@ -3209,7 +3209,7 @@
     <t xml:space="preserve">8.53046131134033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41344451904297</t>
+    <t xml:space="preserve">8.41344547271729</t>
   </si>
   <si>
     <t xml:space="preserve">8.34323501586914</t>
@@ -3218,22 +3218,22 @@
     <t xml:space="preserve">8.2496223449707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39004135131836</t>
+    <t xml:space="preserve">8.39004230499268</t>
   </si>
   <si>
     <t xml:space="preserve">8.12090492248535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13260555267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01559066772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09750175476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99218797683716</t>
+    <t xml:space="preserve">8.13260650634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01558971405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09750080108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99218845367432</t>
   </si>
   <si>
     <t xml:space="preserve">8.03899383544922</t>
@@ -3242,10 +3242,10 @@
     <t xml:space="preserve">8.56556415557861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36127376556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1974515914917</t>
+    <t xml:space="preserve">9.36127281188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19745254516602</t>
   </si>
   <si>
     <t xml:space="preserve">9.40808010101318</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">9.68891906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86615371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81889247894287</t>
+    <t xml:space="preserve">9.86615562438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81889152526855</t>
   </si>
   <si>
     <t xml:space="preserve">9.99612808227539</t>
@@ -3299,25 +3299,25 @@
     <t xml:space="preserve">10.6341791152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5987310409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9768362045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7050724029541</t>
+    <t xml:space="preserve">10.5987319946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9768352508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7050733566284</t>
   </si>
   <si>
     <t xml:space="preserve">10.6105480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269691467285</t>
+    <t xml:space="preserve">10.3269701004028</t>
   </si>
   <si>
     <t xml:space="preserve">10.4923896789551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6223640441895</t>
+    <t xml:space="preserve">10.6223630905151</t>
   </si>
   <si>
     <t xml:space="preserve">10.2797060012817</t>
@@ -3326,13 +3326,13 @@
     <t xml:space="preserve">10.1733636856079</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2442598342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3742332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2915210723877</t>
+    <t xml:space="preserve">10.2442588806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3742322921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.291522026062</t>
   </si>
   <si>
     <t xml:space="preserve">10.3151540756226</t>
@@ -3344,16 +3344,16 @@
     <t xml:space="preserve">10.4805736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4451274871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7168884277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4096794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560758590698</t>
+    <t xml:space="preserve">10.4451265335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7168893814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4096784591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560749053955</t>
   </si>
   <si>
     <t xml:space="preserve">10.6459941864014</t>
@@ -3362,37 +3362,37 @@
     <t xml:space="preserve">10.3978633880615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3624153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.437650680542</t>
+    <t xml:space="preserve">10.3624172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4376497268677</t>
   </si>
   <si>
     <t xml:space="preserve">11.7590379714966</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1673908233643</t>
+    <t xml:space="preserve">12.1673917770386</t>
   </si>
   <si>
     <t xml:space="preserve">12.163610458374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0048055648804</t>
+    <t xml:space="preserve">12.0048065185547</t>
   </si>
   <si>
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968492507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6815280914307</t>
+    <t xml:space="preserve">11.7968482971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6815271377563</t>
   </si>
   <si>
     <t xml:space="preserve">11.834659576416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7023229598999</t>
+    <t xml:space="preserve">11.7023239135742</t>
   </si>
   <si>
     <t xml:space="preserve">11.6077966690063</t>
@@ -3407,31 +3407,31 @@
     <t xml:space="preserve">11.6456069946289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7212285995483</t>
+    <t xml:space="preserve">11.721227645874</t>
   </si>
   <si>
     <t xml:space="preserve">12.3640050888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1182374954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3261957168579</t>
+    <t xml:space="preserve">12.118236541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3261947631836</t>
   </si>
   <si>
     <t xml:space="preserve">12.3072900772095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5152473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5719623565674</t>
+    <t xml:space="preserve">12.5152463912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5719633102417</t>
   </si>
   <si>
     <t xml:space="preserve">12.1560468673706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2147388458252</t>
+    <t xml:space="preserve">13.2147397994995</t>
   </si>
   <si>
     <t xml:space="preserve">13.9142322540283</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">13.4416027069092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.800802230835</t>
+    <t xml:space="preserve">13.8008012771606</t>
   </si>
   <si>
     <t xml:space="preserve">14.1221885681152</t>
@@ -3455,10 +3455,10 @@
     <t xml:space="preserve">14.027663230896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9540176391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3490524291992</t>
+    <t xml:space="preserve">14.9540185928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3490514755249</t>
   </si>
   <si>
     <t xml:space="preserve">14.0465679168701</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">13.7062749862671</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0654735565186</t>
+    <t xml:space="preserve">14.0654745101929</t>
   </si>
   <si>
     <t xml:space="preserve">13.7251806259155</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">13.3281707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7610149383545</t>
+    <t xml:space="preserve">12.7610139846802</t>
   </si>
   <si>
     <t xml:space="preserve">13.2525501251221</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">13.3848867416382</t>
   </si>
   <si>
-    <t xml:space="preserve">13.176929473877</t>
+    <t xml:space="preserve">13.1769285202026</t>
   </si>
   <si>
     <t xml:space="preserve">13.6684646606445</t>
@@ -3503,13 +3503,13 @@
     <t xml:space="preserve">15.7858486175537</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8425636291504</t>
+    <t xml:space="preserve">15.8425626754761</t>
   </si>
   <si>
     <t xml:space="preserve">16.1261405944824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9201583862305</t>
+    <t xml:space="preserve">16.9201602935791</t>
   </si>
   <si>
     <t xml:space="preserve">16.7311096191406</t>
@@ -3518,34 +3518,34 @@
     <t xml:space="preserve">16.9012546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.61767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7122039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3719100952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1450462341309</t>
+    <t xml:space="preserve">16.6176776885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7122020721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3719081878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1450481414795</t>
   </si>
   <si>
     <t xml:space="preserve">16.504243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3530044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2584800720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614702224731</t>
+    <t xml:space="preserve">16.3530025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2584781646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614683151245</t>
   </si>
   <si>
     <t xml:space="preserve">15.8047523498535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2395725250244</t>
+    <t xml:space="preserve">16.239574432373</t>
   </si>
   <si>
     <t xml:space="preserve">16.0883312225342</t>
@@ -3557,25 +3557,25 @@
     <t xml:space="preserve">15.2375974655151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7460622787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8216819763184</t>
+    <t xml:space="preserve">14.7460613250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8216829299927</t>
   </si>
   <si>
     <t xml:space="preserve">14.5570087432861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9331369400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9520435333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.630654335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2356204986572</t>
+    <t xml:space="preserve">13.9331378936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9520425796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6306533813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2356214523315</t>
   </si>
   <si>
     <t xml:space="preserve">14.3679571151733</t>
@@ -3584,43 +3584,43 @@
     <t xml:space="preserve">14.481388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">14.197811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271556854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4624834060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1032838821411</t>
+    <t xml:space="preserve">14.1978101730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271566390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4624843597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1032848358154</t>
   </si>
   <si>
     <t xml:space="preserve">14.084379196167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5550336837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8386106491089</t>
+    <t xml:space="preserve">13.5550327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8386116027832</t>
   </si>
   <si>
     <t xml:space="preserve">13.6873693466187</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6495580673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2734317779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4435768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6137256622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.594820022583</t>
+    <t xml:space="preserve">13.6495590209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2734308242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4435777664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6137247085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5948190689087</t>
   </si>
   <si>
     <t xml:space="preserve">14.4246730804443</t>
@@ -3629,34 +3629,34 @@
     <t xml:space="preserve">13.2336444854736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4226961135864</t>
+    <t xml:space="preserve">13.4226970672607</t>
   </si>
   <si>
     <t xml:space="preserve">13.3470764160156</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7440853118896</t>
+    <t xml:space="preserve">13.744086265564</t>
   </si>
   <si>
     <t xml:space="preserve">12.4774360656738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6664876937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4794130325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7629919052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1013088226318</t>
+    <t xml:space="preserve">12.6664886474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4794120788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7629909515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1013078689575</t>
   </si>
   <si>
     <t xml:space="preserve">12.1749534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9122562408447</t>
+    <t xml:space="preserve">12.9122552871704</t>
   </si>
   <si>
     <t xml:space="preserve">12.6097726821899</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">12.4018154144287</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2127628326416</t>
+    <t xml:space="preserve">12.2127637863159</t>
   </si>
   <si>
     <t xml:space="preserve">11.9291858673096</t>
@@ -3677,16 +3677,16 @@
     <t xml:space="preserve">11.8535652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2694787979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0426168441772</t>
+    <t xml:space="preserve">12.2694797515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0426158905029</t>
   </si>
   <si>
     <t xml:space="preserve">12.288384437561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.23166847229</t>
+    <t xml:space="preserve">12.2316675186157</t>
   </si>
   <si>
     <t xml:space="preserve">11.2675037384033</t>
@@ -3704,22 +3704,22 @@
     <t xml:space="preserve">12.0804271697998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6645135879517</t>
+    <t xml:space="preserve">11.6645126342773</t>
   </si>
   <si>
     <t xml:space="preserve">12.9500665664673</t>
   </si>
   <si>
-    <t xml:space="preserve">13.006781578064</t>
+    <t xml:space="preserve">13.0067825317383</t>
   </si>
   <si>
     <t xml:space="preserve">13.0824031829834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.51722240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6212005615234</t>
+    <t xml:space="preserve">13.5172233581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6212015151978</t>
   </si>
   <si>
     <t xml:space="preserve">13.6590118408203</t>
@@ -3728,19 +3728,19 @@
     <t xml:space="preserve">12.9973297119141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9406147003174</t>
+    <t xml:space="preserve">12.9406137466431</t>
   </si>
   <si>
     <t xml:space="preserve">12.7042989730835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6759414672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7893714904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6192264556885</t>
+    <t xml:space="preserve">12.6759405136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7893724441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6192255020142</t>
   </si>
   <si>
     <t xml:space="preserve">12.6003198623657</t>
@@ -3761,16 +3761,16 @@
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0237112045288</t>
+    <t xml:space="preserve">12.6286783218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0237121582031</t>
   </si>
   <si>
     <t xml:space="preserve">12.146595954895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8630170822144</t>
+    <t xml:space="preserve">11.8630180358887</t>
   </si>
   <si>
     <t xml:space="preserve">11.8063011169434</t>
@@ -3779,7 +3779,7 @@
     <t xml:space="preserve">11.5416288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8799467086792</t>
+    <t xml:space="preserve">10.8799457550049</t>
   </si>
   <si>
     <t xml:space="preserve">11.0028305053711</t>
@@ -3788,7 +3788,7 @@
     <t xml:space="preserve">11.3431243896484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8252077102661</t>
+    <t xml:space="preserve">11.8252067565918</t>
   </si>
   <si>
     <t xml:space="preserve">11.6834173202515</t>
@@ -3803,31 +3803,31 @@
     <t xml:space="preserve">11.6518430709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8151416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8247480392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.940016746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4107007980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1129217147827</t>
+    <t xml:space="preserve">11.8151407241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8247470855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9400177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.410701751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1129207611084</t>
   </si>
   <si>
     <t xml:space="preserve">11.920804977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.016863822937</t>
+    <t xml:space="preserve">12.0168628692627</t>
   </si>
   <si>
     <t xml:space="preserve">12.2377967834473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050384521484</t>
+    <t xml:space="preserve">12.3050374984741</t>
   </si>
   <si>
     <t xml:space="preserve">12.4010953903198</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">11.4116973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9890413284302</t>
+    <t xml:space="preserve">10.9890422821045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7969255447388</t>
@@ -3848,16 +3848,16 @@
     <t xml:space="preserve">11.2964277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8161382675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0658893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1235227584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2676105499268</t>
+    <t xml:space="preserve">10.8161373138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0658884048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1235237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2676095962524</t>
   </si>
   <si>
     <t xml:space="preserve">11.1619462966919</t>
@@ -3872,7 +3872,7 @@
     <t xml:space="preserve">11.7479000091553</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382946014404</t>
+    <t xml:space="preserve">11.7382955551147</t>
   </si>
   <si>
     <t xml:space="preserve">11.6134195327759</t>
@@ -3893,19 +3893,19 @@
     <t xml:space="preserve">12.6604528427124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8141450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198093414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9678382873535</t>
+    <t xml:space="preserve">12.8141460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198083877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9678373336792</t>
   </si>
   <si>
     <t xml:space="preserve">12.823751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8045387268066</t>
+    <t xml:space="preserve">12.804539680481</t>
   </si>
   <si>
     <t xml:space="preserve">13.0446844100952</t>
@@ -3914,7 +3914,7 @@
     <t xml:space="preserve">13.1311368942261</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2848291397095</t>
+    <t xml:space="preserve">13.2848300933838</t>
   </si>
   <si>
     <t xml:space="preserve">13.4577341079712</t>
@@ -3923,13 +3923,13 @@
     <t xml:space="preserve">13.7651205062866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.91881275177</t>
+    <t xml:space="preserve">13.9188117980957</t>
   </si>
   <si>
     <t xml:space="preserve">13.8611783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9092063903809</t>
+    <t xml:space="preserve">13.9092073440552</t>
   </si>
   <si>
     <t xml:space="preserve">14.0052652359009</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">13.957236289978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0436878204346</t>
+    <t xml:space="preserve">14.0436887741089</t>
   </si>
   <si>
     <t xml:space="preserve">13.976448059082</t>
@@ -3950,7 +3950,7 @@
     <t xml:space="preserve">13.938024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6018218994141</t>
+    <t xml:space="preserve">13.6018209457397</t>
   </si>
   <si>
     <t xml:space="preserve">13.2752237319946</t>
@@ -3977,31 +3977,31 @@
     <t xml:space="preserve">13.1983766555786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1023197174072</t>
+    <t xml:space="preserve">13.1023187637329</t>
   </si>
   <si>
     <t xml:space="preserve">13.3232526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3040418624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3424654006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1503486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0062608718872</t>
+    <t xml:space="preserve">13.3040409088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3424644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1503477096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0062618255615</t>
   </si>
   <si>
     <t xml:space="preserve">12.7372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1695604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8621740341187</t>
+    <t xml:space="preserve">13.1695594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.862174987793</t>
   </si>
   <si>
     <t xml:space="preserve">12.8525686264038</t>
@@ -4016,7 +4016,7 @@
     <t xml:space="preserve">12.372278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0841045379639</t>
+    <t xml:space="preserve">12.0841035842896</t>
   </si>
   <si>
     <t xml:space="preserve">11.9496221542358</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">11.3444566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7873201370239</t>
+    <t xml:space="preserve">10.7873191833496</t>
   </si>
   <si>
     <t xml:space="preserve">10.7777147293091</t>
@@ -4043,10 +4043,10 @@
     <t xml:space="preserve">10.7296848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8929834365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6240224838257</t>
+    <t xml:space="preserve">10.8929843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6240215301514</t>
   </si>
   <si>
     <t xml:space="preserve">11.2195816040039</t>
@@ -4061,16 +4061,16 @@
     <t xml:space="preserve">11.3636684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1907634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9025897979736</t>
+    <t xml:space="preserve">11.1907644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9025907516479</t>
   </si>
   <si>
     <t xml:space="preserve">11.0274648666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2099761962891</t>
+    <t xml:space="preserve">11.2099752426147</t>
   </si>
   <si>
     <t xml:space="preserve">11.5749959945679</t>
@@ -4079,7 +4079,7 @@
     <t xml:space="preserve">11.5365724563599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1321325302124</t>
+    <t xml:space="preserve">12.1321334838867</t>
   </si>
   <si>
     <t xml:space="preserve">12.2570085525513</t>
@@ -4100,7 +4100,7 @@
     <t xml:space="preserve">12.0072574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3818836212158</t>
+    <t xml:space="preserve">12.3818845748901</t>
   </si>
   <si>
     <t xml:space="preserve">12.3914890289307</t>
@@ -4109,7 +4109,7 @@
     <t xml:space="preserve">13.0158672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791667938232</t>
+    <t xml:space="preserve">13.1791658401489</t>
   </si>
   <si>
     <t xml:space="preserve">12.9582328796387</t>
@@ -4118,7 +4118,7 @@
     <t xml:space="preserve">12.7469053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0542907714844</t>
+    <t xml:space="preserve">13.0542898178101</t>
   </si>
   <si>
     <t xml:space="preserve">13.3328590393066</t>
@@ -4136,25 +4136,25 @@
     <t xml:space="preserve">13.8131494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2165937423706</t>
+    <t xml:space="preserve">14.2165927886963</t>
   </si>
   <si>
     <t xml:space="preserve">14.1109285354614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284191131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6210327148438</t>
+    <t xml:space="preserve">13.9284181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6210336685181</t>
   </si>
   <si>
     <t xml:space="preserve">13.7747259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.841965675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0244779586792</t>
+    <t xml:space="preserve">13.8419666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0244770050049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5720081329346</t>
@@ -4178,7 +4178,7 @@
     <t xml:space="preserve">13.8515720367432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6402435302734</t>
+    <t xml:space="preserve">13.6402444839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.5441865921021</t>
@@ -4202,7 +4202,7 @@
     <t xml:space="preserve">14.0628995895386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0340814590454</t>
+    <t xml:space="preserve">14.0340824127197</t>
   </si>
   <si>
     <t xml:space="preserve">14.370285987854</t>
@@ -4214,7 +4214,7 @@
     <t xml:space="preserve">14.312650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3894968032837</t>
+    <t xml:space="preserve">14.389497756958</t>
   </si>
   <si>
     <t xml:space="preserve">14.0821113586426</t>
@@ -4226,25 +4226,25 @@
     <t xml:space="preserve">13.7170906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3991031646729</t>
+    <t xml:space="preserve">14.3991022109985</t>
   </si>
   <si>
     <t xml:space="preserve">14.8793926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1003265380859</t>
+    <t xml:space="preserve">15.1003274917603</t>
   </si>
   <si>
     <t xml:space="preserve">15.1675672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3500776290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3404722213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0234813690186</t>
+    <t xml:space="preserve">15.350076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3404731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0234804153442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0522985458374</t>
@@ -4262,7 +4262,7 @@
     <t xml:space="preserve">15.0619039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1291437149048</t>
+    <t xml:space="preserve">15.1291446685791</t>
   </si>
   <si>
     <t xml:space="preserve">15.0907211303711</t>
@@ -4274,13 +4274,13 @@
     <t xml:space="preserve">14.9850578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1387500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0138750076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1963844299316</t>
+    <t xml:space="preserve">15.1387510299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0138740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.196385383606</t>
   </si>
   <si>
     <t xml:space="preserve">15.4365301132202</t>
@@ -4289,7 +4289,7 @@
     <t xml:space="preserve">15.3116540908813</t>
   </si>
   <si>
-    <t xml:space="preserve">15.21559715271</t>
+    <t xml:space="preserve">15.2155961990356</t>
   </si>
   <si>
     <t xml:space="preserve">15.4557418823242</t>
@@ -4298,25 +4298,25 @@
     <t xml:space="preserve">14.68727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4855546951294</t>
+    <t xml:space="preserve">14.4855556488037</t>
   </si>
   <si>
     <t xml:space="preserve">14.8121528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922155380249</t>
+    <t xml:space="preserve">13.5922145843506</t>
   </si>
   <si>
     <t xml:space="preserve">11.7671117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.623025894165</t>
+    <t xml:space="preserve">11.6230249404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5173606872559</t>
+    <t xml:space="preserve">11.5173616409302</t>
   </si>
   <si>
     <t xml:space="preserve">11.526967048645</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">11.3540620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4693326950073</t>
+    <t xml:space="preserve">11.469331741333</t>
   </si>
   <si>
     <t xml:space="preserve">11.2387933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3252449035645</t>
+    <t xml:space="preserve">11.3252458572388</t>
   </si>
   <si>
     <t xml:space="preserve">11.2772159576416</t>
@@ -4358,7 +4358,7 @@
     <t xml:space="preserve">11.113917350769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2003698348999</t>
+    <t xml:space="preserve">11.2003688812256</t>
   </si>
   <si>
     <t xml:space="preserve">11.1427354812622</t>
@@ -4385,7 +4385,7 @@
     <t xml:space="preserve">10.6432332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5663862228394</t>
+    <t xml:space="preserve">10.5663871765137</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452299118042</t>
@@ -5019,6 +5019,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.77499961853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63500022888184</t>
   </si>
 </sst>
 </file>
@@ -61182,7 +61185,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6493634259</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>93660</v>
@@ -61203,6 +61206,32 @@
         <v>1668</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.649537037</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>111055</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>9.72500038146973</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>9.38000011444092</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>9.63500022888184</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">2.19815945625305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18187713623047</t>
+    <t xml:space="preserve">2.18187665939331</t>
   </si>
   <si>
     <t xml:space="preserve">2.14388370513916</t>
@@ -59,97 +59,97 @@
     <t xml:space="preserve">2.06789827346802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10860443115234</t>
+    <t xml:space="preserve">2.1086049079895</t>
   </si>
   <si>
     <t xml:space="preserve">2.09774994850159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00819540023804</t>
+    <t xml:space="preserve">2.00819516181946</t>
   </si>
   <si>
     <t xml:space="preserve">2.03370475769043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00765204429626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06247067451477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06138515472412</t>
+    <t xml:space="preserve">2.00765228271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06247091293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06138491630554</t>
   </si>
   <si>
     <t xml:space="preserve">2.04618811607361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04564523696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10534811019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04944443702698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06355595588684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02176403999329</t>
+    <t xml:space="preserve">2.04564499855042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10534834861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04944467544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06355619430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02176427841187</t>
   </si>
   <si>
     <t xml:space="preserve">1.94035065174103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97020244598389</t>
+    <t xml:space="preserve">1.97020184993744</t>
   </si>
   <si>
     <t xml:space="preserve">1.98214292526245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95663321018219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97562980651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9593471288681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98919916152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99896824359894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98648452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13845658302307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1167459487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13031506538391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14062714576721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21986985206604</t>
+    <t xml:space="preserve">1.95663344860077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97562992572784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95934677124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98919868469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99896848201752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98648476600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13845634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11674618721008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13031530380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14062762260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21986961364746</t>
   </si>
   <si>
     <t xml:space="preserve">2.15473914146423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18676161766052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14931154251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19164681434631</t>
+    <t xml:space="preserve">2.1867618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14931130409241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19164657592773</t>
   </si>
   <si>
     <t xml:space="preserve">2.1927318572998</t>
@@ -158,61 +158,61 @@
     <t xml:space="preserve">2.20087337493896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19544577598572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19870185852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21607041358948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23072481155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27143168449402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20358657836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19218873977661</t>
+    <t xml:space="preserve">2.19544553756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19870209693909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21607065200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23072457313538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27143120765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2035870552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19218921661377</t>
   </si>
   <si>
     <t xml:space="preserve">2.17644929885864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15202522277832</t>
+    <t xml:space="preserve">2.1520254611969</t>
   </si>
   <si>
     <t xml:space="preserve">2.13302898406982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11783194541931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16830801963806</t>
+    <t xml:space="preserve">2.11783170700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16830778121948</t>
   </si>
   <si>
     <t xml:space="preserve">2.18730425834656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1710216999054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1601665019989</t>
+    <t xml:space="preserve">2.17102193832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16016674041748</t>
   </si>
   <si>
     <t xml:space="preserve">2.11131882667542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09829258918762</t>
+    <t xml:space="preserve">2.09829235076904</t>
   </si>
   <si>
     <t xml:space="preserve">2.11403226852417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11457538604736</t>
+    <t xml:space="preserve">2.11457514762878</t>
   </si>
   <si>
     <t xml:space="preserve">2.16505146026611</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">2.17156457901001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20901489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20304465293884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22529745101929</t>
+    <t xml:space="preserve">2.20901465415955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20304441452026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22529697418213</t>
   </si>
   <si>
     <t xml:space="preserve">2.29314136505127</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">2.30128312110901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34470343589783</t>
+    <t xml:space="preserve">2.34470367431641</t>
   </si>
   <si>
     <t xml:space="preserve">2.30725336074829</t>
@@ -245,13 +245,13 @@
     <t xml:space="preserve">2.27360248565674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26329016685486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27414512634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29585576057434</t>
+    <t xml:space="preserve">2.26328992843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27414536476135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29585528373718</t>
   </si>
   <si>
     <t xml:space="preserve">2.28011560440063</t>
@@ -260,40 +260,40 @@
     <t xml:space="preserve">2.37184119224548</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4006073474884</t>
+    <t xml:space="preserve">2.40060710906982</t>
   </si>
   <si>
     <t xml:space="preserve">2.37726879119873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50318813323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55800604820251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57320356369019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62205147743225</t>
+    <t xml:space="preserve">2.50318765640259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55800652503967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57320332527161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62205171585083</t>
   </si>
   <si>
     <t xml:space="preserve">2.58568668365479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67307066917419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72425079345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72591996192932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76096773147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7470600605011</t>
+    <t xml:space="preserve">2.67307043075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72425150871277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72591972351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76096725463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74705982208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.78155064582825</t>
@@ -302,19 +302,19 @@
     <t xml:space="preserve">2.85498380661011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87723612785339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02410221099854</t>
+    <t xml:space="preserve">2.87723660469055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02410197257996</t>
   </si>
   <si>
     <t xml:space="preserve">3.05525541305542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06860709190369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01075053215027</t>
+    <t xml:space="preserve">3.06860685348511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01075077056885</t>
   </si>
   <si>
     <t xml:space="preserve">2.90393924713135</t>
@@ -323,55 +323,55 @@
     <t xml:space="preserve">2.98182272911072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97069692611694</t>
+    <t xml:space="preserve">2.97069668769836</t>
   </si>
   <si>
     <t xml:space="preserve">2.96179556846619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88168668746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82605600357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79712748527527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75484776496887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84830832481384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92841672897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04857969284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91061496734619</t>
+    <t xml:space="preserve">2.88168692588806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8260555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79712796211243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75484800338745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84830808639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92841696739197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04858016967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91061472892761</t>
   </si>
   <si>
     <t xml:space="preserve">2.83718204498291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92619180679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98404788970947</t>
+    <t xml:space="preserve">2.92619156837463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98404812812805</t>
   </si>
   <si>
     <t xml:space="preserve">3.03745341300964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05748057365417</t>
+    <t xml:space="preserve">3.05748081207275</t>
   </si>
   <si>
     <t xml:space="preserve">3.03967905044556</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06415677070618</t>
+    <t xml:space="preserve">3.06415700912476</t>
   </si>
   <si>
     <t xml:space="preserve">3.04412961006165</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">3.13758969306946</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22659945487976</t>
+    <t xml:space="preserve">3.22659921646118</t>
   </si>
   <si>
     <t xml:space="preserve">3.37123966217041</t>
@@ -401,58 +401,58 @@
     <t xml:space="preserve">3.36456441879272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36011338233948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33341026306152</t>
+    <t xml:space="preserve">3.36011385917664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33341097831726</t>
   </si>
   <si>
     <t xml:space="preserve">3.31560897827148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36233901977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35121297836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32896018028259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33786153793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24440097808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32673525810242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33118510246277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40461826324463</t>
+    <t xml:space="preserve">3.36233878135681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35121273994446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32896041870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33786106109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24440121650696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32673478126526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33118557929993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40461850166321</t>
   </si>
   <si>
     <t xml:space="preserve">3.42464566230774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4179699420929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39794301986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35788798332214</t>
+    <t xml:space="preserve">3.41796970367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39794254302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35788822174072</t>
   </si>
   <si>
     <t xml:space="preserve">3.34453678131104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42687058448792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39349246025085</t>
+    <t xml:space="preserve">3.42687082290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39349222183228</t>
   </si>
   <si>
     <t xml:space="preserve">3.3489875793457</t>
@@ -461,58 +461,58 @@
     <t xml:space="preserve">3.38681650161743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38236570358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21992349624634</t>
+    <t xml:space="preserve">3.38236594200134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21992325782776</t>
   </si>
   <si>
     <t xml:space="preserve">3.25997757911682</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28000473976135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32228469848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27110409736633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2933566570282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15984177589417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40684390068054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33563566207886</t>
+    <t xml:space="preserve">3.28000497817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32228446006775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27110433578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29335641860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15984201431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40684366226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33563590049744</t>
   </si>
   <si>
     <t xml:space="preserve">3.27555465698242</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44689798355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50697922706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67164754867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7606565952301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86969351768494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99430727958679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09889268875122</t>
+    <t xml:space="preserve">3.44689774513245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5069797039032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67164731025696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76065707206726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86969375610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99430799484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09889364242554</t>
   </si>
   <si>
     <t xml:space="preserve">4.18345260620117</t>
@@ -527,10 +527,10 @@
     <t xml:space="preserve">4.20570516586304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28581428527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43267965316772</t>
+    <t xml:space="preserve">4.285813331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43268013000488</t>
   </si>
   <si>
     <t xml:space="preserve">4.32809352874756</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">4.35702133178711</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57286977767944</t>
+    <t xml:space="preserve">4.57286930084229</t>
   </si>
   <si>
     <t xml:space="preserve">4.79316902160645</t>
@@ -551,19 +551,19 @@
     <t xml:space="preserve">4.74866390228271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86437654495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06242322921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05129623413086</t>
+    <t xml:space="preserve">4.86437702178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06242275238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05129718780518</t>
   </si>
   <si>
     <t xml:space="preserve">4.82432222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84657430648804</t>
+    <t xml:space="preserve">4.8465747833252</t>
   </si>
   <si>
     <t xml:space="preserve">4.84212398529053</t>
@@ -572,16 +572,16 @@
     <t xml:space="preserve">4.74643850326538</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6730055809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47050857543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44603109359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43713045120239</t>
+    <t xml:space="preserve">4.67300605773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47050952911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44603061676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43712949752808</t>
   </si>
   <si>
     <t xml:space="preserve">4.32141780853271</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">4.28358888626099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17900276184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31919240951538</t>
+    <t xml:space="preserve">4.1790018081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3191933631897</t>
   </si>
   <si>
     <t xml:space="preserve">4.33922004699707</t>
@@ -602,34 +602,34 @@
     <t xml:space="preserve">4.46160793304443</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45048141479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43490552902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76201486587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73976230621338</t>
+    <t xml:space="preserve">4.45048189163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43490505218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7620153427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7397632598877</t>
   </si>
   <si>
     <t xml:space="preserve">4.73753833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71751070022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75088882446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82654762268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69525814056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76646566390991</t>
+    <t xml:space="preserve">4.71751117706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75088930130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82654714584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69525861740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76646614074707</t>
   </si>
   <si>
     <t xml:space="preserve">4.69080781936646</t>
@@ -638,25 +638,25 @@
     <t xml:space="preserve">4.61069917678833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62405061721802</t>
+    <t xml:space="preserve">4.62405014038086</t>
   </si>
   <si>
     <t xml:space="preserve">4.83767366409302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74421358108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89107894897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87995338439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85102415084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87105178833008</t>
+    <t xml:space="preserve">4.74421310424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89107942581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87995290756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85102510452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87105274200439</t>
   </si>
   <si>
     <t xml:space="preserve">5.21151399612427</t>
@@ -665,22 +665,22 @@
     <t xml:space="preserve">5.50524568557739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40733480453491</t>
+    <t xml:space="preserve">5.40733528137207</t>
   </si>
   <si>
     <t xml:space="preserve">5.36728143692017</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3450288772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34280347824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31832504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14698219299316</t>
+    <t xml:space="preserve">5.34502840042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34280300140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31832551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14698171615601</t>
   </si>
   <si>
     <t xml:space="preserve">5.22264003753662</t>
@@ -689,52 +689,52 @@
     <t xml:space="preserve">5.34057807922363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39175891876221</t>
+    <t xml:space="preserve">5.39175796508789</t>
   </si>
   <si>
     <t xml:space="preserve">5.4273624420166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28494691848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25824356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17368459701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0179181098938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20261240005493</t>
+    <t xml:space="preserve">5.28494739532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25824451446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17368507385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01791763305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20261335372925</t>
   </si>
   <si>
     <t xml:space="preserve">5.15143203735352</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22709035873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21373891830444</t>
+    <t xml:space="preserve">5.22709131240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21373844146729</t>
   </si>
   <si>
     <t xml:space="preserve">5.20483779907227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24044275283813</t>
+    <t xml:space="preserve">5.24044179916382</t>
   </si>
   <si>
     <t xml:space="preserve">5.22931623458862</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15588283538818</t>
+    <t xml:space="preserve">5.15588331222534</t>
   </si>
   <si>
     <t xml:space="preserve">5.06687355041504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13808107376099</t>
+    <t xml:space="preserve">5.1380820274353</t>
   </si>
   <si>
     <t xml:space="preserve">5.09802675247192</t>
@@ -749,13 +749,13 @@
     <t xml:space="preserve">4.96228694915771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95338582992554</t>
+    <t xml:space="preserve">4.9533863067627</t>
   </si>
   <si>
     <t xml:space="preserve">4.90665578842163</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83989906311035</t>
+    <t xml:space="preserve">4.83989858627319</t>
   </si>
   <si>
     <t xml:space="preserve">4.89552974700928</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">4.78426790237427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92668294906616</t>
+    <t xml:space="preserve">4.92668342590332</t>
   </si>
   <si>
     <t xml:space="preserve">5.02681875228882</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">5.2315411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2070631980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41846132278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50302076339722</t>
+    <t xml:space="preserve">5.20706367492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41846179962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50302028656006</t>
   </si>
   <si>
     <t xml:space="preserve">5.53639888763428</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">5.8078784942627</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76337337493896</t>
+    <t xml:space="preserve">5.76337385177612</t>
   </si>
   <si>
     <t xml:space="preserve">5.97254657745361</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">6.24847650527954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94139385223389</t>
+    <t xml:space="preserve">5.94139337539673</t>
   </si>
   <si>
     <t xml:space="preserve">6.00815010070801</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">5.8857626914978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89021301269531</t>
+    <t xml:space="preserve">5.89021253585815</t>
   </si>
   <si>
     <t xml:space="preserve">6.01927614212036</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02595186233521</t>
+    <t xml:space="preserve">6.02595281600952</t>
   </si>
   <si>
     <t xml:space="preserve">6.10828638076782</t>
@@ -851,22 +851,22 @@
     <t xml:space="preserve">6.12163734436035</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13721418380737</t>
+    <t xml:space="preserve">6.13721370697021</t>
   </si>
   <si>
     <t xml:space="preserve">6.11941242218018</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17504262924194</t>
+    <t xml:space="preserve">6.17504358291626</t>
   </si>
   <si>
     <t xml:space="preserve">6.19061994552612</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2173228263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09493541717529</t>
+    <t xml:space="preserve">6.21732330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09493398666382</t>
   </si>
   <si>
     <t xml:space="preserve">6.20842170715332</t>
@@ -884,52 +884,52 @@
     <t xml:space="preserve">6.67349720001221</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68684864044189</t>
+    <t xml:space="preserve">6.68684911727905</t>
   </si>
   <si>
     <t xml:space="preserve">6.73357915878296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95387744903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05401372909546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16527605056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22090721130371</t>
+    <t xml:space="preserve">6.9538779258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0540132522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16527557373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22090625762939</t>
   </si>
   <si>
     <t xml:space="preserve">7.2743124961853</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48126077651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28766393661499</t>
+    <t xml:space="preserve">7.48126029968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28766345977783</t>
   </si>
   <si>
     <t xml:space="preserve">7.38334941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38112258911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26986169815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45455741882324</t>
+    <t xml:space="preserve">7.38112354278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26986122131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45455598831177</t>
   </si>
   <si>
     <t xml:space="preserve">7.53911638259888</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52576303482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44565629959106</t>
+    <t xml:space="preserve">7.52576398849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44565582275391</t>
   </si>
   <si>
     <t xml:space="preserve">7.46568250656128</t>
@@ -938,40 +938,40 @@
     <t xml:space="preserve">7.35442113876343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6089653968811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3641881942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61564064025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54220819473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.758056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64011859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66682052612305</t>
+    <t xml:space="preserve">6.60896492004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36418867111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61564111709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54220867156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75805616378784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64011907577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66682195663452</t>
   </si>
   <si>
     <t xml:space="preserve">6.72245216369629</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66833019256592</t>
+    <t xml:space="preserve">6.66832971572876</t>
   </si>
   <si>
     <t xml:space="preserve">6.70666694641113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75853443145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6931357383728</t>
+    <t xml:space="preserve">6.7585334777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69313621520996</t>
   </si>
   <si>
     <t xml:space="preserve">6.59616661071777</t>
@@ -983,58 +983,58 @@
     <t xml:space="preserve">7.06973838806152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9118800163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97276830673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55783081054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72921800613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64803457260132</t>
+    <t xml:space="preserve">6.91188049316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97276926040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55783033370972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72921752929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64803409576416</t>
   </si>
   <si>
     <t xml:space="preserve">6.562340259552</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62999296188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4969425201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47439050674438</t>
+    <t xml:space="preserve">6.6299934387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49694204330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4743914604187</t>
   </si>
   <si>
     <t xml:space="preserve">6.57587099075317</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46762561798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47213697433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5149827003479</t>
+    <t xml:space="preserve">6.46762609481812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4721360206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51498317718506</t>
   </si>
   <si>
     <t xml:space="preserve">6.29623889923096</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27819776535034</t>
+    <t xml:space="preserve">6.2781982421875</t>
   </si>
   <si>
     <t xml:space="preserve">6.27368783950806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08876895904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04366731643677</t>
+    <t xml:space="preserve">6.08876943588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04366683959961</t>
   </si>
   <si>
     <t xml:space="preserve">6.0323920249939</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">6.06396293640137</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07298421859741</t>
+    <t xml:space="preserve">6.0729832649231</t>
   </si>
   <si>
     <t xml:space="preserve">5.96473932266235</t>
@@ -1064,19 +1064,19 @@
     <t xml:space="preserve">5.97601413726807</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12034130096436</t>
+    <t xml:space="preserve">6.12034034729004</t>
   </si>
   <si>
     <t xml:space="preserve">5.82266759872437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62872838973999</t>
+    <t xml:space="preserve">5.62872934341431</t>
   </si>
   <si>
     <t xml:space="preserve">5.59039306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73246431350708</t>
+    <t xml:space="preserve">5.73246383666992</t>
   </si>
   <si>
     <t xml:space="preserve">5.86325931549072</t>
@@ -1085,46 +1085,46 @@
     <t xml:space="preserve">5.88806533813477</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02111721038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84070825576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84747409820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71442270278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68059635162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50469875335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66706562042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56333112716675</t>
+    <t xml:space="preserve">6.02111673355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84070777893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84747314453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71442222595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68059682846069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50469779968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66706514358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56333160400391</t>
   </si>
   <si>
     <t xml:space="preserve">5.57009649276733</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51822900772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53852558135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61294317245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68285179138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6016674041748</t>
+    <t xml:space="preserve">5.51822853088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53852510452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61294364929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68285131454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60166788101196</t>
   </si>
   <si>
     <t xml:space="preserve">5.64902496337891</t>
@@ -1136,19 +1136,19 @@
     <t xml:space="preserve">5.53176021575928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61068820953369</t>
+    <t xml:space="preserve">5.61068773269653</t>
   </si>
   <si>
     <t xml:space="preserve">5.69187164306641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86551427841187</t>
+    <t xml:space="preserve">5.86551475524902</t>
   </si>
   <si>
     <t xml:space="preserve">5.78884124755859</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93091201782227</t>
+    <t xml:space="preserve">5.93091249465942</t>
   </si>
   <si>
     <t xml:space="preserve">5.99856567382812</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">6.10004472732544</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93316793441772</t>
+    <t xml:space="preserve">5.93316745758057</t>
   </si>
   <si>
     <t xml:space="preserve">5.76178026199341</t>
@@ -1181,46 +1181,46 @@
     <t xml:space="preserve">5.61519813537598</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47989177703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41449499130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34458637237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35586166381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36939239501953</t>
+    <t xml:space="preserve">5.47989225387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41449451446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34458684921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35586214065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36939191818237</t>
   </si>
   <si>
     <t xml:space="preserve">5.53401517868042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51597309112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39419841766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3378210067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25438213348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23183107376099</t>
+    <t xml:space="preserve">5.5159740447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39419889450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33782148361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25438261032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23183155059814</t>
   </si>
   <si>
     <t xml:space="preserve">5.32203531265259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28144407272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24536275863647</t>
+    <t xml:space="preserve">5.28144359588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24536228179932</t>
   </si>
   <si>
     <t xml:space="preserve">5.24987268447876</t>
@@ -1232,538 +1232,538 @@
     <t xml:space="preserve">5.11682176589966</t>
   </si>
   <si>
+    <t xml:space="preserve">5.073974609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06720924377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08073949813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15966844558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30850458145142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39194393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3400764465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36037254333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22957706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1416277885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97926044464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83042430877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81463861465454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75375080108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04014825820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33331108093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72795295715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93993282318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97375917434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89483118057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0346474647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99405527114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90385103225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94669818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77756595611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76403474807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82492303848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70765686035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15642166137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33006477355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19701337814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2759428024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26015710830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15867710113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09553527832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1676983833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93767833709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00984048843384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0301365852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95346307754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87002468109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77531099319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74148416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75952529907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15191221237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98503494262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84521865844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97150468826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.165442943573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17897272109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08425998687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07523918151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42703437805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42252397537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35938119888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66607475280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51272773742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30525922775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23309564590454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22407579421997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67834138870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24662590026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05268812179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92189264297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79560661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80913734436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54754543304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89032077789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00307559967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11132097244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09327936172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31427907943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40899324417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49468755722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87354373931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83295202255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08101272583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05846214294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26142168045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13062620162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25691080093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02238082885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10356426239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38770627975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30652332305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20278978347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27044200897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21631908416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65831851959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48693132400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34260511398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60419607162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44182968139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41927814483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2794623374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22082948684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4102578163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37417554855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35162496566772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37868642807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62674760818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78911447525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73048210144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70342111587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5636043548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72146129608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5906662940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55007457733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22533988952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77431964874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99080944061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78334045410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66156435012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76529932022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68862628936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86001396179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52302885055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44531917572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74244356155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81101083755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74701499938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77901315689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69216012954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80643939971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7241587638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62816429138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86129379272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9024338722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90700483322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76072788238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63730764389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6235933303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59159564971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55959749221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45903253555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36303901672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35846710205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25790166854858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39960718154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27618598937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31732654571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34018230438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48645877838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38589477539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42703485488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34932470321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47731685638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73330163955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63273572921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67387628555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58245325088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5870246887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53217029571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54131364822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51388597488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56873989105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57331085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64644956588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46817445755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37675142288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32646942138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41789150238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.605309009552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78815460205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23504590988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53674125671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32189798355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11619663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59508514404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45338010787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35738611221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1928243637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08311653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24310684204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12882852554321</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.07397508621216</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06720876693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08073997497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15966844558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30850505828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39194345474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3400764465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36037254333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22957611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14162683486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9792594909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83042335510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81463861465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75375032424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04014873504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33331108093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72795295715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93993234634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97375917434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89483070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0346474647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99405479431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90385150909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94669818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77756595611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76403474807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82492303848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70765781402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15642213821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33006525039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19701480865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2759428024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26015710830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15867757797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.095534324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1676983833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93767786026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00984048843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03013610839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95346307754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87002468109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77531051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74148321151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75952529907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15191221237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98503541946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84521865844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97150421142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16544246673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17897272109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08425903320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07523918151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4270339012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42252492904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35938167572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66607475280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51272773742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30525875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2330961227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22407531738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67834138870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24662733078003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05268716812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9218921661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79560708999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80913734436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54754590988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89032077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00307559967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11132049560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09327936172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31427907943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4089937210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49468755722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87354421615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83295249938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08101272583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05846214294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26142120361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13062572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.256911277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02238035202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10356426239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3877067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30652332305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20278882980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27044248580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21631956100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65831851959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48693084716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34260511398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60419654846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44183015823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41927909851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27946186065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22082996368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4102578163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37417650222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35162496566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37868642807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6267466545105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78911542892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73048257827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7034215927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56360483169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7214617729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59066581726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55007410049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22533988952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77431964874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99080991744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78334093093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66156482696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76529932022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68862581253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86001396179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52302837371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44531917572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74244356155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81101083755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74701452255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77901220321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69216060638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8064398765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7241587638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62816476821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86129331588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9024338722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90700483322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76072835922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63730764389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62359380722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59159564971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55959796905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45903158187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36303806304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35846710205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25790119171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960765838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27618646621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31732702255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34018278121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48645925521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38589382171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42703437805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34932518005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47731685638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73330068588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63273572921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67387628555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58245325088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5870246887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53217077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54131364822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51388597488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56873989105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57331085205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64644956588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46817398071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37675189971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32646894454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41789197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60530948638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78815507888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23504590988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53674173355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32189750671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11619663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59508514404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45337963104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35738563537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19282484054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08311653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24310684204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12882852554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.073974609375</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.18825340270996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16539716720581</t>
+    <t xml:space="preserve">5.16539764404297</t>
   </si>
   <si>
     <t xml:space="preserve">5.09683036804199</t>
@@ -1775,22 +1775,22 @@
     <t xml:space="preserve">4.84084606170654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68999814987183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71742486953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85455942153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81798982620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46829700469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21916913986206</t>
+    <t xml:space="preserve">4.68999862670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7174243927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85455894470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81799030303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46829748153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21916961669922</t>
   </si>
   <si>
     <t xml:space="preserve">4.30145072937012</t>
@@ -1799,34 +1799,34 @@
     <t xml:space="preserve">4.20545625686646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13003158569336</t>
+    <t xml:space="preserve">4.13003206253052</t>
   </si>
   <si>
     <t xml:space="preserve">4.14374589920044</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04546594619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17345905303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2465968132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22145557403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10717678070068</t>
+    <t xml:space="preserve">4.04546642303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17345857620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24659633636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22145509719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10717630386353</t>
   </si>
   <si>
     <t xml:space="preserve">3.95404314994812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78719592094421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83976435661316</t>
+    <t xml:space="preserve">3.78719615936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83976411819458</t>
   </si>
   <si>
     <t xml:space="preserve">3.90147471427917</t>
@@ -1835,13 +1835,13 @@
     <t xml:space="preserve">3.81690907478333</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92204475402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93118739128113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05232334136963</t>
+    <t xml:space="preserve">3.92204523086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93118786811829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05232286453247</t>
   </si>
   <si>
     <t xml:space="preserve">4.24888181686401</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">4.09117746353149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01118278503418</t>
+    <t xml:space="preserve">4.01118183135986</t>
   </si>
   <si>
     <t xml:space="preserve">4.01803922653198</t>
@@ -1859,28 +1859,28 @@
     <t xml:space="preserve">4.02946710586548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95861434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9471869468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92890167236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53121161460876</t>
+    <t xml:space="preserve">3.95861482620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94718647003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92890191078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53121185302734</t>
   </si>
   <si>
     <t xml:space="preserve">3.43293237686157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3140823841095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09923839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10838079452515</t>
+    <t xml:space="preserve">3.31408214569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0992386341095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10838055610657</t>
   </si>
   <si>
     <t xml:space="preserve">3.23180174827576</t>
@@ -1892,25 +1892,25 @@
     <t xml:space="preserve">3.46264457702637</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3415093421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29808330535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52892637252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46950125694275</t>
+    <t xml:space="preserve">3.34150958061218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29808354377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5289261341095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46950149536133</t>
   </si>
   <si>
     <t xml:space="preserve">3.56549572944641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59292244911194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39179182052612</t>
+    <t xml:space="preserve">3.59292268753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3917920589447</t>
   </si>
   <si>
     <t xml:space="preserve">3.31865382194519</t>
@@ -1919,16 +1919,16 @@
     <t xml:space="preserve">3.17923355102539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9918167591095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99638724327087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07638263702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17237663269043</t>
+    <t xml:space="preserve">2.99181652069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99638748168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0763828754425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17237687110901</t>
   </si>
   <si>
     <t xml:space="preserve">3.1060950756073</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">3.02152895927429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94839024543762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98953104019165</t>
+    <t xml:space="preserve">2.9483904838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98953080177307</t>
   </si>
   <si>
     <t xml:space="preserve">2.83868312835693</t>
@@ -1949,28 +1949,28 @@
     <t xml:space="preserve">2.80897068977356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85011124610901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89582228660583</t>
+    <t xml:space="preserve">2.85011100769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89582204818726</t>
   </si>
   <si>
     <t xml:space="preserve">2.95296168327332</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14037895202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17466259002686</t>
+    <t xml:space="preserve">3.14037847518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17466235160828</t>
   </si>
   <si>
     <t xml:space="preserve">3.23865842819214</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30036902427673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22951579093933</t>
+    <t xml:space="preserve">3.30036878585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22951626777649</t>
   </si>
   <si>
     <t xml:space="preserve">3.29351234436035</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">3.26379990577698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39407753944397</t>
+    <t xml:space="preserve">3.39407730102539</t>
   </si>
   <si>
     <t xml:space="preserve">3.62034940719604</t>
@@ -2000,16 +2000,16 @@
     <t xml:space="preserve">3.57235240936279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69120192527771</t>
+    <t xml:space="preserve">3.69120216369629</t>
   </si>
   <si>
     <t xml:space="preserve">3.74605584144592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65463280677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58835124969482</t>
+    <t xml:space="preserve">3.65463256835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58835101127625</t>
   </si>
   <si>
     <t xml:space="preserve">3.59977912902832</t>
@@ -2018,64 +2018,64 @@
     <t xml:space="preserve">3.66148996353149</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51292729377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60206484794617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66377520561218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77576804161072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70263004302979</t>
+    <t xml:space="preserve">3.51292753219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60206508636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66377544403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77576851844788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70263028144836</t>
   </si>
   <si>
     <t xml:space="preserve">3.69348764419556</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78491044044495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88776135444641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98147010803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85576367378235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91747379302979</t>
+    <t xml:space="preserve">3.78491020202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88776159286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98147058486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85576343536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91747403144836</t>
   </si>
   <si>
     <t xml:space="preserve">3.94261527061462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02718114852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.079749584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15974473953247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22374105453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1826000213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34487628936768</t>
+    <t xml:space="preserve">4.02718210220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07975006103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15974521636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22374057769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18260049819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34487581253052</t>
   </si>
   <si>
     <t xml:space="preserve">4.28087997436523</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03632402420044</t>
+    <t xml:space="preserve">4.03632354736328</t>
   </si>
   <si>
     <t xml:space="preserve">4.09346294403076</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">4.06603670120239</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32430648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3768744468689</t>
+    <t xml:space="preserve">4.32430601119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37687397003174</t>
   </si>
   <si>
     <t xml:space="preserve">4.47972536087036</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">4.52543687820435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45001220703125</t>
+    <t xml:space="preserve">4.45001268386841</t>
   </si>
   <si>
     <t xml:space="preserve">4.2580246925354</t>
@@ -2108,16 +2108,16 @@
     <t xml:space="preserve">4.29687881469727</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3723030090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29459428787231</t>
+    <t xml:space="preserve">4.37230348587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29459381103516</t>
   </si>
   <si>
     <t xml:space="preserve">4.33116292953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38601636886597</t>
+    <t xml:space="preserve">4.38601684570312</t>
   </si>
   <si>
     <t xml:space="preserve">4.34259080886841</t>
@@ -2126,22 +2126,22 @@
     <t xml:space="preserve">4.33344793319702</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34716176986694</t>
+    <t xml:space="preserve">4.3471622467041</t>
   </si>
   <si>
     <t xml:space="preserve">4.29230833053589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16431617736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24431133270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27859449386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36316061019897</t>
+    <t xml:space="preserve">4.16431570053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24431085586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27859497070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36316108703613</t>
   </si>
   <si>
     <t xml:space="preserve">4.05917978286743</t>
@@ -2150,49 +2150,49 @@
     <t xml:space="preserve">4.02032470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98604083061218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08432149887085</t>
+    <t xml:space="preserve">3.98604154586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08432054519653</t>
   </si>
   <si>
     <t xml:space="preserve">4.12774658203125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12546110153198</t>
+    <t xml:space="preserve">4.12546062469482</t>
   </si>
   <si>
     <t xml:space="preserve">4.1048903465271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00432634353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96318626403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85119223594666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85804867744446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73234248161316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93575835227966</t>
+    <t xml:space="preserve">4.00432586669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96318578720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85119247436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85804891586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73234272003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93575811386108</t>
   </si>
   <si>
     <t xml:space="preserve">4.18945693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90833139419556</t>
+    <t xml:space="preserve">3.90833163261414</t>
   </si>
   <si>
     <t xml:space="preserve">4.04407024383545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96684002876282</t>
+    <t xml:space="preserve">3.96683979034424</t>
   </si>
   <si>
     <t xml:space="preserve">3.84514331817627</t>
@@ -2201,58 +2201,58 @@
     <t xml:space="preserve">3.82876110076904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84748339653015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77025318145752</t>
+    <t xml:space="preserve">3.84748387336731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7702534198761</t>
   </si>
   <si>
     <t xml:space="preserve">3.75387096405029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8147189617157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9270544052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95747828483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01130533218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05343103408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98322200775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03704881668091</t>
+    <t xml:space="preserve">3.81471872329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92705464363098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95747852325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.011305809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05343198776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98322248458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03704929351807</t>
   </si>
   <si>
     <t xml:space="preserve">3.95981907844543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99258327484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07215452194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1306619644165</t>
+    <t xml:space="preserve">3.99258303642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07215404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13066148757935</t>
   </si>
   <si>
     <t xml:space="preserve">4.28980350494385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24533748626709</t>
+    <t xml:space="preserve">4.24533700942993</t>
   </si>
   <si>
     <t xml:space="preserve">4.18214893341064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20321178436279</t>
+    <t xml:space="preserve">4.20321130752563</t>
   </si>
   <si>
     <t xml:space="preserve">4.19151020050049</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">4.28044271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37171506881714</t>
+    <t xml:space="preserve">4.37171459197998</t>
   </si>
   <si>
     <t xml:space="preserve">4.37873554229736</t>
@@ -2279,37 +2279,37 @@
     <t xml:space="preserve">4.39745855331421</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44660472869873</t>
+    <t xml:space="preserve">4.44660520553589</t>
   </si>
   <si>
     <t xml:space="preserve">4.33895063400269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4278826713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33192920684814</t>
+    <t xml:space="preserve">4.42788219451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3319296836853</t>
   </si>
   <si>
     <t xml:space="preserve">4.31554746627808</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28746318817139</t>
+    <t xml:space="preserve">4.28746366500854</t>
   </si>
   <si>
     <t xml:space="preserve">4.34129047393799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26640033721924</t>
+    <t xml:space="preserve">4.2664008140564</t>
   </si>
   <si>
     <t xml:space="preserve">4.14938449859619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18917036056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24299716949463</t>
+    <t xml:space="preserve">4.18916988372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24299764633179</t>
   </si>
   <si>
     <t xml:space="preserve">4.25469923019409</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">4.20087194442749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2149133682251</t>
+    <t xml:space="preserve">4.21491384506226</t>
   </si>
   <si>
     <t xml:space="preserve">4.16576623916626</t>
@@ -2330,37 +2330,37 @@
     <t xml:space="preserve">4.14470386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05811214447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03236818313599</t>
+    <t xml:space="preserve">4.05811262130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0323691368103</t>
   </si>
   <si>
     <t xml:space="preserve">3.93173456192017</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97152090072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9621593952179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93641519546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03939008712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08853673934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06981325149536</t>
+    <t xml:space="preserve">3.97152018547058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96215915679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93641543388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03938961029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08853578567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06981372833252</t>
   </si>
   <si>
     <t xml:space="preserve">4.22193479537964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20555257797241</t>
+    <t xml:space="preserve">4.20555210113525</t>
   </si>
   <si>
     <t xml:space="preserve">4.25937986373901</t>
@@ -2372,13 +2372,13 @@
     <t xml:space="preserve">4.14236402511597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27810192108154</t>
+    <t xml:space="preserve">4.2781023979187</t>
   </si>
   <si>
     <t xml:space="preserve">4.2266149520874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15172481536865</t>
+    <t xml:space="preserve">4.15172433853149</t>
   </si>
   <si>
     <t xml:space="preserve">4.43958425521851</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">4.70404005050659</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11125564575195</t>
+    <t xml:space="preserve">5.11125516891479</t>
   </si>
   <si>
     <t xml:space="preserve">5.28911972045898</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44826126098633</t>
+    <t xml:space="preserve">5.44826173782349</t>
   </si>
   <si>
     <t xml:space="preserve">5.47634553909302</t>
@@ -2417,31 +2417,31 @@
     <t xml:space="preserve">5.73377990722656</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83207368850708</t>
+    <t xml:space="preserve">5.83207321166992</t>
   </si>
   <si>
     <t xml:space="preserve">5.67761278152466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57463884353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60272216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38273239135742</t>
+    <t xml:space="preserve">5.57463836669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60272264480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38273286819458</t>
   </si>
   <si>
     <t xml:space="preserve">5.39209365844727</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48102617263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56995725631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46230363845825</t>
+    <t xml:space="preserve">5.48102569580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5699577331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46230316162109</t>
   </si>
   <si>
     <t xml:space="preserve">5.59336137771606</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">5.5793194770813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68229293823242</t>
+    <t xml:space="preserve">5.68229389190674</t>
   </si>
   <si>
     <t xml:space="preserve">5.82271194458008</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">5.85547685623169</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05674362182617</t>
+    <t xml:space="preserve">6.05674409866333</t>
   </si>
   <si>
     <t xml:space="preserve">5.86951875686646</t>
@@ -2471,13 +2471,13 @@
     <t xml:space="preserve">5.85079574584961</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80398988723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84143447875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93504762649536</t>
+    <t xml:space="preserve">5.80398941040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84143495559692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93504810333252</t>
   </si>
   <si>
     <t xml:space="preserve">5.836754322052</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">6.0286602973938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18312120437622</t>
+    <t xml:space="preserve">6.18312168121338</t>
   </si>
   <si>
     <t xml:space="preserve">6.25801134109497</t>
@@ -2498,22 +2498,22 @@
     <t xml:space="preserve">6.36098527908325</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22056674957275</t>
+    <t xml:space="preserve">6.2205662727356</t>
   </si>
   <si>
     <t xml:space="preserve">6.12695360183716</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15503787994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37970781326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86181402206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25966835021973</t>
+    <t xml:space="preserve">6.15503740310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37970876693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86181354522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25966787338257</t>
   </si>
   <si>
     <t xml:space="preserve">7.35796165466309</t>
@@ -2522,31 +2522,31 @@
     <t xml:space="preserve">7.44689321517944</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77921867370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78389930725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88219261169434</t>
+    <t xml:space="preserve">7.77921915054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78389883041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88219308853149</t>
   </si>
   <si>
     <t xml:space="preserve">8.00857067108154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84006643295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79326009750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32519674301147</t>
+    <t xml:space="preserve">7.84006595611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7932596206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32519626617432</t>
   </si>
   <si>
     <t xml:space="preserve">7.44221258163452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58263158798218</t>
+    <t xml:space="preserve">7.58263206481934</t>
   </si>
   <si>
     <t xml:space="preserve">7.51710271835327</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">7.43753242492676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27370977401733</t>
+    <t xml:space="preserve">7.27370929718018</t>
   </si>
   <si>
     <t xml:space="preserve">7.31115484237671</t>
@@ -2570,13 +2570,13 @@
     <t xml:space="preserve">7.55922842025757</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54050636291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74177360534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09282207489014</t>
+    <t xml:space="preserve">7.5405068397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74177408218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09282112121582</t>
   </si>
   <si>
     <t xml:space="preserve">8.03197288513184</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">7.84474754333496</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73241186141968</t>
+    <t xml:space="preserve">7.73241233825684</t>
   </si>
   <si>
     <t xml:space="preserve">7.83538675308228</t>
@@ -2597,52 +2597,52 @@
     <t xml:space="preserve">7.61539649963379</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27839088439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57795095443726</t>
+    <t xml:space="preserve">7.27839040756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57795143127441</t>
   </si>
   <si>
     <t xml:space="preserve">7.41880941390991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46561527252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38136434555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6949667930603</t>
+    <t xml:space="preserve">7.46561574935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3813648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69496774673462</t>
   </si>
   <si>
     <t xml:space="preserve">7.60135412216187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65284156799316</t>
+    <t xml:space="preserve">7.65284061431885</t>
   </si>
   <si>
     <t xml:space="preserve">7.68560600280762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4796576499939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33455801010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18477725982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65586566925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66054582595825</t>
+    <t xml:space="preserve">7.47965717315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33455848693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18477773666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65586614608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66054630279541</t>
   </si>
   <si>
     <t xml:space="preserve">6.88989734649658</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94606494903564</t>
+    <t xml:space="preserve">6.9460654258728</t>
   </si>
   <si>
     <t xml:space="preserve">6.86649465560913</t>
@@ -2654,13 +2654,13 @@
     <t xml:space="preserve">6.76352024078369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1800971031189</t>
+    <t xml:space="preserve">7.18009662628174</t>
   </si>
   <si>
     <t xml:space="preserve">7.04435873031616</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04903936386108</t>
+    <t xml:space="preserve">7.04903888702393</t>
   </si>
   <si>
     <t xml:space="preserve">6.97882986068726</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">6.82436847686768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98351049423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91330099105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78224277496338</t>
+    <t xml:space="preserve">6.98351001739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91330051422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78224229812622</t>
   </si>
   <si>
     <t xml:space="preserve">6.25333070755005</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">6.09886980056763</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91632509231567</t>
+    <t xml:space="preserve">5.91632556915283</t>
   </si>
   <si>
     <t xml:space="preserve">5.76186418533325</t>
@@ -2696,13 +2696,13 @@
     <t xml:space="preserve">5.89760255813599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84611511230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59804201126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.228271484375</t>
+    <t xml:space="preserve">5.84611558914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59804153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22827100753784</t>
   </si>
   <si>
     <t xml:space="preserve">4.85850095748901</t>
@@ -2714,64 +2714,64 @@
     <t xml:space="preserve">4.74148511886597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30384588241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89897036552429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74450969696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39346194267273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29516816139221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25304269790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29750847816467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51983880996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08151531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94811749458313</t>
+    <t xml:space="preserve">4.30384540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89897012710571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74450945854187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39346146583557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29516839981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25304245948792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29750871658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51983904838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08151578903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94811725616455</t>
   </si>
   <si>
     <t xml:space="preserve">3.69302225112915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58068752288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75153040885925</t>
+    <t xml:space="preserve">3.5806872844696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75153064727783</t>
   </si>
   <si>
     <t xml:space="preserve">3.69770336151123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79131579399109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70238351821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88024806976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82407999038696</t>
+    <t xml:space="preserve">3.79131603240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70238375663757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8802478313446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82408046722412</t>
   </si>
   <si>
     <t xml:space="preserve">4.15640592575073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1189603805542</t>
+    <t xml:space="preserve">4.11896085739136</t>
   </si>
   <si>
     <t xml:space="preserve">4.47936916351318</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">4.26406002044678</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18448877334595</t>
+    <t xml:space="preserve">4.18448925018311</t>
   </si>
   <si>
     <t xml:space="preserve">4.58702421188354</t>
@@ -2798,10 +2798,10 @@
     <t xml:space="preserve">4.45596647262573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36235332489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35767269134521</t>
+    <t xml:space="preserve">4.36235284805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35767364501953</t>
   </si>
   <si>
     <t xml:space="preserve">4.41852140426636</t>
@@ -2810,16 +2810,16 @@
     <t xml:space="preserve">4.45128583908081</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40447902679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39979791641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26874113082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77424955368042</t>
+    <t xml:space="preserve">4.40447950363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39979839324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26874017715454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77425003051758</t>
   </si>
   <si>
     <t xml:space="preserve">4.62446928024292</t>
@@ -2831,19 +2831,19 @@
     <t xml:space="preserve">4.48405027389526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52149486541748</t>
+    <t xml:space="preserve">4.52149534225464</t>
   </si>
   <si>
     <t xml:space="preserve">4.85616064071655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0667896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00828170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99658060073853</t>
+    <t xml:space="preserve">5.06678915023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00828123092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99658012390137</t>
   </si>
   <si>
     <t xml:space="preserve">5.16040182113647</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">5.30082130432129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34762811660767</t>
+    <t xml:space="preserve">5.34762763977051</t>
   </si>
   <si>
     <t xml:space="preserve">5.60506248474121</t>
@@ -2864,10 +2864,10 @@
     <t xml:space="preserve">5.27741765975952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04338550567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13699913024902</t>
+    <t xml:space="preserve">5.04338598251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13699960708618</t>
   </si>
   <si>
     <t xml:space="preserve">5.31252288818359</t>
@@ -2879,22 +2879,22 @@
     <t xml:space="preserve">5.37103080749512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51144981384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32422399520874</t>
+    <t xml:space="preserve">5.51144933700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3242244720459</t>
   </si>
   <si>
     <t xml:space="preserve">5.26571655273438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25401496887207</t>
+    <t xml:space="preserve">5.25401544570923</t>
   </si>
   <si>
     <t xml:space="preserve">5.39443397521973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35932970046997</t>
+    <t xml:space="preserve">5.35932922363281</t>
   </si>
   <si>
     <t xml:space="preserve">5.20720815658569</t>
@@ -2903,22 +2903,22 @@
     <t xml:space="preserve">5.03168439865112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12529754638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23061227798462</t>
+    <t xml:space="preserve">5.12529706954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23061180114746</t>
   </si>
   <si>
     <t xml:space="preserve">5.17210388183594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33592557907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18380546569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.218909740448</t>
+    <t xml:space="preserve">5.3359260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18380498886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21891021728516</t>
   </si>
   <si>
     <t xml:space="preserve">5.24231338500977</t>
@@ -2927,43 +2927,43 @@
     <t xml:space="preserve">5.44124031066895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45294141769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14870023727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19550704956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0784912109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05508804321289</t>
+    <t xml:space="preserve">5.45294189453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14870071411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19550752639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07849168777466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05508852005005</t>
   </si>
   <si>
     <t xml:space="preserve">5.09019231796265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94977378845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01998281478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10189390182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11359643936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68063640594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28278207778931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30618619918823</t>
+    <t xml:space="preserve">4.94977283477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01998329162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10189437866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11359596252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68063688278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28278255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30618572235107</t>
   </si>
   <si>
     <t xml:space="preserve">4.17044734954834</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">4.43724346160889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71574211120605</t>
+    <t xml:space="preserve">4.7157416343689</t>
   </si>
   <si>
     <t xml:space="preserve">5.66357040405273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74548196792603</t>
+    <t xml:space="preserve">5.74548149108887</t>
   </si>
   <si>
     <t xml:space="preserve">5.88590097427368</t>
@@ -3002,34 +3002,34 @@
     <t xml:space="preserve">6.02631998062134</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82739305496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94440889358521</t>
+    <t xml:space="preserve">5.827392578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94440841674805</t>
   </si>
   <si>
     <t xml:space="preserve">6.2837553024292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09652948379517</t>
+    <t xml:space="preserve">6.09652996063232</t>
   </si>
   <si>
     <t xml:space="preserve">6.08482789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00291728973389</t>
+    <t xml:space="preserve">6.00291633605957</t>
   </si>
   <si>
     <t xml:space="preserve">6.04972314834595</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22524738311768</t>
+    <t xml:space="preserve">6.22524690628052</t>
   </si>
   <si>
     <t xml:space="preserve">6.33056116104126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26035165786743</t>
+    <t xml:space="preserve">6.26035213470459</t>
   </si>
   <si>
     <t xml:space="preserve">6.29545640945435</t>
@@ -3041,22 +3041,22 @@
     <t xml:space="preserve">6.21354532241821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27205371856689</t>
+    <t xml:space="preserve">6.27205276489258</t>
   </si>
   <si>
     <t xml:space="preserve">6.35396480560303</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49438333511353</t>
+    <t xml:space="preserve">6.49438428878784</t>
   </si>
   <si>
     <t xml:space="preserve">6.45927906036377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50608539581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62310123443604</t>
+    <t xml:space="preserve">6.50608491897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62310075759888</t>
   </si>
   <si>
     <t xml:space="preserve">6.66990756988525</t>
@@ -3065,28 +3065,28 @@
     <t xml:space="preserve">6.68160915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70501184463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75181913375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72841548919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.775221824646</t>
+    <t xml:space="preserve">6.70501232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75181865692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72841596603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77522230148315</t>
   </si>
   <si>
     <t xml:space="preserve">6.55289125442505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48268222808838</t>
+    <t xml:space="preserve">6.48268175125122</t>
   </si>
   <si>
     <t xml:space="preserve">6.61139965057373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.435875415802</t>
+    <t xml:space="preserve">6.43587589263916</t>
   </si>
   <si>
     <t xml:space="preserve">6.34226322174072</t>
@@ -3101,13 +3101,13 @@
     <t xml:space="preserve">6.81032657623291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65820598602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9390435218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90393972396851</t>
+    <t xml:space="preserve">6.65820646286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93904447555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90393924713135</t>
   </si>
   <si>
     <t xml:space="preserve">6.83372974395752</t>
@@ -3116,13 +3116,13 @@
     <t xml:space="preserve">6.85713291168213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92734289169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84543180465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54118967056274</t>
+    <t xml:space="preserve">6.92734241485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84543132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5411901473999</t>
   </si>
   <si>
     <t xml:space="preserve">6.51778745651245</t>
@@ -3134,31 +3134,31 @@
     <t xml:space="preserve">6.52948808670044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69331073760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02095556259155</t>
+    <t xml:space="preserve">6.69331026077271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02095508575439</t>
   </si>
   <si>
     <t xml:space="preserve">7.95708274841309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9453821182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42514610290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35493659973145</t>
+    <t xml:space="preserve">7.94538068771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42514705657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35493755340576</t>
   </si>
   <si>
     <t xml:space="preserve">8.19111442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16771221160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2379207611084</t>
+    <t xml:space="preserve">8.16771125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23792171478271</t>
   </si>
   <si>
     <t xml:space="preserve">8.20281600952148</t>
@@ -3170,22 +3170,22 @@
     <t xml:space="preserve">8.28472805023193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21451759338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17941379547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10920333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26132392883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49535655975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4836540222168</t>
+    <t xml:space="preserve">8.21451663970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17941284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10920429229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26132297515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49535465240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48365497589111</t>
   </si>
   <si>
     <t xml:space="preserve">8.47195339202881</t>
@@ -3209,16 +3209,16 @@
     <t xml:space="preserve">8.53046131134033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41344547271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34323501586914</t>
+    <t xml:space="preserve">8.41344451904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34323596954346</t>
   </si>
   <si>
     <t xml:space="preserve">8.2496223449707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39004230499268</t>
+    <t xml:space="preserve">8.39004135131836</t>
   </si>
   <si>
     <t xml:space="preserve">8.12090492248535</t>
@@ -3227,25 +3227,25 @@
     <t xml:space="preserve">8.13260650634766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01558971405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09750080108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99218845367432</t>
+    <t xml:space="preserve">8.01559066772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09750175476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99218797683716</t>
   </si>
   <si>
     <t xml:space="preserve">8.03899383544922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56556415557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36127281188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19745254516602</t>
+    <t xml:space="preserve">8.56556510925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36127376556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1974515914917</t>
   </si>
   <si>
     <t xml:space="preserve">9.40808010101318</t>
@@ -3254,19 +3254,19 @@
     <t xml:space="preserve">9.68891906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86615562438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81889152526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99612808227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92523288726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.303337097168</t>
+    <t xml:space="preserve">9.86615467071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81889247894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99612712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92523384094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3033380508423</t>
   </si>
   <si>
     <t xml:space="preserve">10.5160207748413</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">10.7759675979614</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7287044525146</t>
+    <t xml:space="preserve">10.728705406189</t>
   </si>
   <si>
     <t xml:space="preserve">10.5632848739624</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">10.6341791152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5987319946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9768352508545</t>
+    <t xml:space="preserve">10.5987300872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9768362045288</t>
   </si>
   <si>
     <t xml:space="preserve">10.7050733566284</t>
@@ -3311,13 +3311,13 @@
     <t xml:space="preserve">10.6105480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269701004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4923896789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6223630905151</t>
+    <t xml:space="preserve">10.3269691467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4923906326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6223640441895</t>
   </si>
   <si>
     <t xml:space="preserve">10.2797060012817</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">10.2442588806152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3742322921753</t>
+    <t xml:space="preserve">10.3742332458496</t>
   </si>
   <si>
     <t xml:space="preserve">10.291522026062</t>
@@ -3344,25 +3344,25 @@
     <t xml:space="preserve">10.4805736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4451265335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7168893814087</t>
+    <t xml:space="preserve">10.4451274871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7168884277344</t>
   </si>
   <si>
     <t xml:space="preserve">10.4096784591675</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2560749053955</t>
+    <t xml:space="preserve">10.2560758590698</t>
   </si>
   <si>
     <t xml:space="preserve">10.6459941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3978633880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3624172210693</t>
+    <t xml:space="preserve">10.3978643417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3624153137207</t>
   </si>
   <si>
     <t xml:space="preserve">11.4376497268677</t>
@@ -3371,37 +3371,37 @@
     <t xml:space="preserve">11.7590379714966</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1673917770386</t>
+    <t xml:space="preserve">12.1673898696899</t>
   </si>
   <si>
     <t xml:space="preserve">12.163610458374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0048065185547</t>
+    <t xml:space="preserve">12.0048055648804</t>
   </si>
   <si>
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968482971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6815271377563</t>
+    <t xml:space="preserve">11.7968492507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6815280914307</t>
   </si>
   <si>
     <t xml:space="preserve">11.834659576416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7023239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6077966690063</t>
+    <t xml:space="preserve">11.7023229598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6077976226807</t>
   </si>
   <si>
     <t xml:space="preserve">11.5699863433838</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9102811813354</t>
+    <t xml:space="preserve">11.9102802276611</t>
   </si>
   <si>
     <t xml:space="preserve">11.6456069946289</t>
@@ -3413,19 +3413,19 @@
     <t xml:space="preserve">12.3640050888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.118236541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3261947631836</t>
+    <t xml:space="preserve">12.1182374954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3261957168579</t>
   </si>
   <si>
     <t xml:space="preserve">12.3072900772095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5152463912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5719633102417</t>
+    <t xml:space="preserve">12.5152473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5719623565674</t>
   </si>
   <si>
     <t xml:space="preserve">12.1560468673706</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">13.9142322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1599998474121</t>
+    <t xml:space="preserve">14.1600008010864</t>
   </si>
   <si>
     <t xml:space="preserve">14.0087585449219</t>
@@ -3452,19 +3452,19 @@
     <t xml:space="preserve">14.1221885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.027663230896</t>
+    <t xml:space="preserve">14.0276641845703</t>
   </si>
   <si>
     <t xml:space="preserve">14.9540185928345</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3490514755249</t>
+    <t xml:space="preserve">14.3490524291992</t>
   </si>
   <si>
     <t xml:space="preserve">14.0465679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7062749862671</t>
+    <t xml:space="preserve">13.7062740325928</t>
   </si>
   <si>
     <t xml:space="preserve">14.0654745101929</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">13.2525501251221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3848867416382</t>
+    <t xml:space="preserve">13.3848857879639</t>
   </si>
   <si>
     <t xml:space="preserve">13.1769285202026</t>
@@ -3494,16 +3494,16 @@
     <t xml:space="preserve">13.1958341598511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3659820556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7649660110474</t>
+    <t xml:space="preserve">13.3659811019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7649669647217</t>
   </si>
   <si>
     <t xml:space="preserve">15.7858486175537</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8425626754761</t>
+    <t xml:space="preserve">15.8425636291504</t>
   </si>
   <si>
     <t xml:space="preserve">16.1261405944824</t>
@@ -3518,37 +3518,37 @@
     <t xml:space="preserve">16.9012546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6176776885986</t>
+    <t xml:space="preserve">16.61767578125</t>
   </si>
   <si>
     <t xml:space="preserve">16.7122020721436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3719081878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1450481414795</t>
+    <t xml:space="preserve">16.3719100952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1450462341309</t>
   </si>
   <si>
     <t xml:space="preserve">16.504243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3530025482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2584781646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614683151245</t>
+    <t xml:space="preserve">16.3530044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2584800720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614702224731</t>
   </si>
   <si>
     <t xml:space="preserve">15.8047523498535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.239574432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0883312225342</t>
+    <t xml:space="preserve">16.2395725250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0883331298828</t>
   </si>
   <si>
     <t xml:space="preserve">16.1828575134277</t>
@@ -3557,67 +3557,67 @@
     <t xml:space="preserve">15.2375974655151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7460613250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8216829299927</t>
+    <t xml:space="preserve">14.7460622787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8216819763184</t>
   </si>
   <si>
     <t xml:space="preserve">14.5570087432861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9331378936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9520425796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6306533813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2356214523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3679571151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.481388092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1978101730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271566390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4624843597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1032848358154</t>
+    <t xml:space="preserve">13.9331369400024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9520435333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.630654335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2356204986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.367956161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4813890457153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.197811126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271556854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4624834060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1032838821411</t>
   </si>
   <si>
     <t xml:space="preserve">14.084379196167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5550327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8386116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6873693466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6495590209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2734308242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4435777664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6137247085571</t>
+    <t xml:space="preserve">13.5550336837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8386106491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.687370300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6495580673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2734317779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4435768127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6137256622314</t>
   </si>
   <si>
     <t xml:space="preserve">14.5948190689087</t>
@@ -3635,16 +3635,16 @@
     <t xml:space="preserve">13.3470764160156</t>
   </si>
   <si>
-    <t xml:space="preserve">13.744086265564</t>
+    <t xml:space="preserve">13.7440853118896</t>
   </si>
   <si>
     <t xml:space="preserve">12.4774360656738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6664886474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4794120788574</t>
+    <t xml:space="preserve">12.6664876937866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4794130325317</t>
   </si>
   <si>
     <t xml:space="preserve">13.7629909515381</t>
@@ -3656,13 +3656,13 @@
     <t xml:space="preserve">12.1749534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9122552871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6097726821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0993328094482</t>
+    <t xml:space="preserve">12.9122562408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6097736358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0993318557739</t>
   </si>
   <si>
     <t xml:space="preserve">12.4018154144287</t>
@@ -3677,16 +3677,16 @@
     <t xml:space="preserve">11.8535652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2694797515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0426158905029</t>
+    <t xml:space="preserve">12.2694787979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0426168441772</t>
   </si>
   <si>
     <t xml:space="preserve">12.288384437561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2316675186157</t>
+    <t xml:space="preserve">12.23166847229</t>
   </si>
   <si>
     <t xml:space="preserve">11.2675037384033</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">12.0804271697998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6645126342773</t>
+    <t xml:space="preserve">11.6645135879517</t>
   </si>
   <si>
     <t xml:space="preserve">12.9500665664673</t>
@@ -3716,7 +3716,7 @@
     <t xml:space="preserve">13.0824031829834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5172233581543</t>
+    <t xml:space="preserve">13.51722240448</t>
   </si>
   <si>
     <t xml:space="preserve">13.6212015151978</t>
@@ -3734,25 +3734,25 @@
     <t xml:space="preserve">12.7042989730835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6759405136108</t>
+    <t xml:space="preserve">12.6759414672852</t>
   </si>
   <si>
     <t xml:space="preserve">12.7893724441528</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6192255020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6003198623657</t>
+    <t xml:space="preserve">12.6192264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.60032081604</t>
   </si>
   <si>
     <t xml:space="preserve">12.7704668045044</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8933515548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7137517929077</t>
+    <t xml:space="preserve">12.8933506011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7137508392334</t>
   </si>
   <si>
     <t xml:space="preserve">12.0615224838257</t>
@@ -3761,28 +3761,28 @@
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286783218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0237121582031</t>
+    <t xml:space="preserve">12.6286773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0237112045288</t>
   </si>
   <si>
     <t xml:space="preserve">12.146595954895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8630180358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8063011169434</t>
+    <t xml:space="preserve">11.8630170822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8063020706177</t>
   </si>
   <si>
     <t xml:space="preserve">11.5416288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8799457550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0028305053711</t>
+    <t xml:space="preserve">10.8799467086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0028314590454</t>
   </si>
   <si>
     <t xml:space="preserve">11.3431243896484</t>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="1673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1674">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,121 +38,121 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14659786224365</t>
+    <t xml:space="preserve">2.14659762382507</t>
   </si>
   <si>
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19815945625305</t>
+    <t xml:space="preserve">2.19815969467163</t>
   </si>
   <si>
     <t xml:space="preserve">2.18187689781189</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14388394355774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11945986747742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0678985118866</t>
+    <t xml:space="preserve">2.14388370513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.119460105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06789803504944</t>
   </si>
   <si>
     <t xml:space="preserve">2.10860466957092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09775018692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00819540023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03370451927185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00765228271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06247091293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06138515472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04618835449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04564547538757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10534858703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04944467544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06355595588684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02176403999329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94035053253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9702023267746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98214304447174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95663344860077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97562992572784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9593471288681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98919880390167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99896812438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98648488521576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13845634460449</t>
+    <t xml:space="preserve">2.09774994850159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00819516181946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03370475769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00765252113342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06247067451477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06138491630554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04618811607361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04564523696899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10534834861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04944491386414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06355619430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02176380157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94035089015961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97020196914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98214292526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95663321018219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97563004493713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95934736728668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98919868469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99896848201752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98648476600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13845658302307</t>
   </si>
   <si>
     <t xml:space="preserve">2.11674618721008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13031530380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14062738418579</t>
+    <t xml:space="preserve">2.13031506538391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14062762260437</t>
   </si>
   <si>
     <t xml:space="preserve">2.21986985206604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15473866462708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1867618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14931130409241</t>
+    <t xml:space="preserve">2.15473890304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18676137924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14931178092957</t>
   </si>
   <si>
     <t xml:space="preserve">2.19164657592773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1927318572998</t>
+    <t xml:space="preserve">2.19273209571838</t>
   </si>
   <si>
     <t xml:space="preserve">2.20087337493896</t>
@@ -161,10 +161,10 @@
     <t xml:space="preserve">2.19544577598572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19870233535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21607041358948</t>
+    <t xml:space="preserve">2.19870209693909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21607065200806</t>
   </si>
   <si>
     <t xml:space="preserve">2.23072481155396</t>
@@ -176,61 +176,61 @@
     <t xml:space="preserve">2.2035870552063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19218897819519</t>
+    <t xml:space="preserve">2.19218945503235</t>
   </si>
   <si>
     <t xml:space="preserve">2.17644929885864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15202569961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13302874565125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11783146858215</t>
+    <t xml:space="preserve">2.1520254611969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13302898406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11783194541931</t>
   </si>
   <si>
     <t xml:space="preserve">2.16830801963806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18730401992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1710216999054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16016674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11131858825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09829235076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11403250694275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11457514762878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16505146026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17156434059143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20901441574097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20304417610168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22529697418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29314160346985</t>
+    <t xml:space="preserve">2.18730449676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17102193832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1601665019989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11131834983826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0982928276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11403226852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11457490921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16505122184753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17156457901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20901465415955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20304441452026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22529768943787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29314208030701</t>
   </si>
   <si>
     <t xml:space="preserve">2.30128312110901</t>
@@ -239,28 +239,28 @@
     <t xml:space="preserve">2.34470343589783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30725359916687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27360272407532</t>
+    <t xml:space="preserve">2.30725312232971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27360224723816</t>
   </si>
   <si>
     <t xml:space="preserve">2.26329016685486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27414536476135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29585576057434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28011512756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37184119224548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40060710906982</t>
+    <t xml:space="preserve">2.27414560317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29585552215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28011536598206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3718409538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4006073474884</t>
   </si>
   <si>
     <t xml:space="preserve">2.37726879119873</t>
@@ -278,28 +278,28 @@
     <t xml:space="preserve">2.62205171585083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58568692207336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67307066917419</t>
+    <t xml:space="preserve">2.58568716049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67307019233704</t>
   </si>
   <si>
     <t xml:space="preserve">2.72425127029419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7259202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76096773147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74705958366394</t>
+    <t xml:space="preserve">2.72591996192932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76096749305725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74705982208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.78155088424683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85498404502869</t>
+    <t xml:space="preserve">2.85498356819153</t>
   </si>
   <si>
     <t xml:space="preserve">2.87723636627197</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">3.05525541305542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06860709190369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01075100898743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90393948554993</t>
+    <t xml:space="preserve">3.06860733032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01075053215027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90393900871277</t>
   </si>
   <si>
     <t xml:space="preserve">2.9818229675293</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">2.97069668769836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96179533004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88168692588806</t>
+    <t xml:space="preserve">2.96179580688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8816864490509</t>
   </si>
   <si>
     <t xml:space="preserve">2.82605600357056</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">2.92841672897339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04857969284058</t>
+    <t xml:space="preserve">3.04858016967773</t>
   </si>
   <si>
     <t xml:space="preserve">2.91061496734619</t>
@@ -356,10 +356,10 @@
     <t xml:space="preserve">2.83718204498291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92619180679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98404765129089</t>
+    <t xml:space="preserve">2.92619204521179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98404788970947</t>
   </si>
   <si>
     <t xml:space="preserve">3.03745365142822</t>
@@ -374,31 +374,31 @@
     <t xml:space="preserve">3.0641565322876</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04412961006165</t>
+    <t xml:space="preserve">3.04412937164307</t>
   </si>
   <si>
     <t xml:space="preserve">3.10198593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11533737182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13758969306946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2265989780426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37123990058899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38014078140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41574454307556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36456418037415</t>
+    <t xml:space="preserve">3.11533713340759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1375892162323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22659921646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37123966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38014054298401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41574478149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36456441879272</t>
   </si>
   <si>
     <t xml:space="preserve">3.36011338233948</t>
@@ -410,31 +410,31 @@
     <t xml:space="preserve">3.31560873985291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36233925819397</t>
+    <t xml:space="preserve">3.36233878135681</t>
   </si>
   <si>
     <t xml:space="preserve">3.35121273994446</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32896041870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33786129951477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24440145492554</t>
+    <t xml:space="preserve">3.32896018028259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33786106109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24440121650696</t>
   </si>
   <si>
     <t xml:space="preserve">3.32673501968384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33118534088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40461874008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42464566230774</t>
+    <t xml:space="preserve">3.33118581771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40461850166321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42464590072632</t>
   </si>
   <si>
     <t xml:space="preserve">3.4179699420929</t>
@@ -446,10 +446,10 @@
     <t xml:space="preserve">3.3578884601593</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34453725814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42687082290649</t>
+    <t xml:space="preserve">3.34453701972961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42687106132507</t>
   </si>
   <si>
     <t xml:space="preserve">3.39349222183228</t>
@@ -458,25 +458,25 @@
     <t xml:space="preserve">3.3489875793457</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38681674003601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38236594200134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21992349624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25997734069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28000497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32228493690491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27110409736633</t>
+    <t xml:space="preserve">3.38681626319885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38236618041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21992373466492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25997757911682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28000473976135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32228469848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27110433578491</t>
   </si>
   <si>
     <t xml:space="preserve">3.29335641860962</t>
@@ -485,13 +485,13 @@
     <t xml:space="preserve">3.15984201431274</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40684390068054</t>
+    <t xml:space="preserve">3.40684342384338</t>
   </si>
   <si>
     <t xml:space="preserve">3.33563590049744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27555418014526</t>
+    <t xml:space="preserve">3.275554895401</t>
   </si>
   <si>
     <t xml:space="preserve">3.4468982219696</t>
@@ -500,55 +500,55 @@
     <t xml:space="preserve">3.5069797039032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67164778709412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76065707206726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86969327926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99430751800537</t>
+    <t xml:space="preserve">3.67164754867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76065683364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86969399452209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99430775642395</t>
   </si>
   <si>
     <t xml:space="preserve">4.09889364242554</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18345308303833</t>
+    <t xml:space="preserve">4.18345260620117</t>
   </si>
   <si>
     <t xml:space="preserve">4.08331727981567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04548788070679</t>
+    <t xml:space="preserve">4.04548740386963</t>
   </si>
   <si>
     <t xml:space="preserve">4.20570516586304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28581428527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43267965316772</t>
+    <t xml:space="preserve">4.285813331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43268013000488</t>
   </si>
   <si>
     <t xml:space="preserve">4.3280930519104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35702133178711</t>
+    <t xml:space="preserve">4.35702180862427</t>
   </si>
   <si>
     <t xml:space="preserve">4.57286977767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79316854476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75979042053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74866437911987</t>
+    <t xml:space="preserve">4.79316902160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75978994369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74866390228271</t>
   </si>
   <si>
     <t xml:space="preserve">4.86437654495239</t>
@@ -557,19 +557,19 @@
     <t xml:space="preserve">5.06242322921753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05129718780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82432126998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84657430648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84212446212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74643850326538</t>
+    <t xml:space="preserve">5.05129623413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82432222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8465747833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84212493896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7464394569397</t>
   </si>
   <si>
     <t xml:space="preserve">4.67300605773926</t>
@@ -578,10 +578,10 @@
     <t xml:space="preserve">4.47050857543945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44603157043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43712997436523</t>
+    <t xml:space="preserve">4.44603109359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43713045120239</t>
   </si>
   <si>
     <t xml:space="preserve">4.32141780853271</t>
@@ -590,19 +590,19 @@
     <t xml:space="preserve">4.28358888626099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17900228500366</t>
+    <t xml:space="preserve">4.17900276184082</t>
   </si>
   <si>
     <t xml:space="preserve">4.31919240951538</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33921957015991</t>
+    <t xml:space="preserve">4.33922004699707</t>
   </si>
   <si>
     <t xml:space="preserve">4.46160793304443</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45048141479492</t>
+    <t xml:space="preserve">4.45048189163208</t>
   </si>
   <si>
     <t xml:space="preserve">4.43490505218506</t>
@@ -611,49 +611,49 @@
     <t xml:space="preserve">4.76201486587524</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73976230621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73753786087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71751070022583</t>
+    <t xml:space="preserve">4.73976278305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73753833770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71751022338867</t>
   </si>
   <si>
     <t xml:space="preserve">4.75088882446289</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82654762268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69525766372681</t>
+    <t xml:space="preserve">4.82654714584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69525861740112</t>
   </si>
   <si>
     <t xml:space="preserve">4.76646566390991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6908073425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61069822311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62405061721802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83767366409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74421405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89107847213745</t>
+    <t xml:space="preserve">4.69080829620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61069917678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62405109405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83767318725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74421358108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89107942581177</t>
   </si>
   <si>
     <t xml:space="preserve">4.87995338439941</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85102462768555</t>
+    <t xml:space="preserve">4.85102415084839</t>
   </si>
   <si>
     <t xml:space="preserve">4.87105226516724</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">5.21151399612427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50524568557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40733528137207</t>
+    <t xml:space="preserve">5.50524616241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40733480453491</t>
   </si>
   <si>
     <t xml:space="preserve">5.36728143692017</t>
@@ -674,31 +674,31 @@
     <t xml:space="preserve">5.34502840042114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34280347824097</t>
+    <t xml:space="preserve">5.34280443191528</t>
   </si>
   <si>
     <t xml:space="preserve">5.31832551956177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14698171615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22263956069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34057807922363</t>
+    <t xml:space="preserve">5.14698219299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22264051437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34057760238647</t>
   </si>
   <si>
     <t xml:space="preserve">5.39175844192505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42736196517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28494691848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25824403762817</t>
+    <t xml:space="preserve">5.4273624420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28494739532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25824356079102</t>
   </si>
   <si>
     <t xml:space="preserve">5.17368507385254</t>
@@ -710,61 +710,61 @@
     <t xml:space="preserve">5.20261287689209</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15143251419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22709131240845</t>
+    <t xml:space="preserve">5.15143203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22709083557129</t>
   </si>
   <si>
     <t xml:space="preserve">5.21373891830444</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20483827590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24044227600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22931528091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15588283538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06687355041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13808059692383</t>
+    <t xml:space="preserve">5.20483779907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24044179916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22931575775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15588235855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06687307357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13808155059814</t>
   </si>
   <si>
     <t xml:space="preserve">5.09802675247192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99344062805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97341346740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9622859954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95338678359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90665578842163</t>
+    <t xml:space="preserve">4.99344110488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97341299057007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96228694915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95338582992554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90665531158447</t>
   </si>
   <si>
     <t xml:space="preserve">4.83989906311035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89552927017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84880018234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86215114593506</t>
+    <t xml:space="preserve">4.89553022384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84879970550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8621506690979</t>
   </si>
   <si>
     <t xml:space="preserve">4.78426790237427</t>
@@ -773,46 +773,46 @@
     <t xml:space="preserve">4.92668294906616</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02681922912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25156879425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19593715667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31165075302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2315411567688</t>
+    <t xml:space="preserve">5.02681970596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25156831741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1959376335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31165027618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23154163360596</t>
   </si>
   <si>
     <t xml:space="preserve">5.20706367492676</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41846227645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50302076339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53639888763428</t>
+    <t xml:space="preserve">5.41846179962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50302028656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53639841079712</t>
   </si>
   <si>
     <t xml:space="preserve">5.67436408996582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80787897109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76337385177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97254657745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04152870178223</t>
+    <t xml:space="preserve">5.80787801742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76337289810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97254705429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04152917861938</t>
   </si>
   <si>
     <t xml:space="preserve">6.07490730285645</t>
@@ -824,25 +824,25 @@
     <t xml:space="preserve">5.94139337539673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00815057754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8857626914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89021158218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01927614212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02595186233521</t>
+    <t xml:space="preserve">6.00814962387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88576221466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89021253585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0192756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02595233917236</t>
   </si>
   <si>
     <t xml:space="preserve">6.10828638076782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23067474365234</t>
+    <t xml:space="preserve">6.23067426681519</t>
   </si>
   <si>
     <t xml:space="preserve">6.07935762405396</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">6.12163782119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13721418380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11941242218018</t>
+    <t xml:space="preserve">6.13721466064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11941194534302</t>
   </si>
   <si>
     <t xml:space="preserve">6.1750431060791</t>
@@ -863,22 +863,22 @@
     <t xml:space="preserve">6.19062042236328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21732330322266</t>
+    <t xml:space="preserve">6.2173228263855</t>
   </si>
   <si>
     <t xml:space="preserve">6.09493446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20842170715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27517938613892</t>
+    <t xml:space="preserve">6.20842123031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2751784324646</t>
   </si>
   <si>
     <t xml:space="preserve">6.56446027755737</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40646886825562</t>
+    <t xml:space="preserve">6.40646934509277</t>
   </si>
   <si>
     <t xml:space="preserve">6.67349720001221</t>
@@ -890,28 +890,28 @@
     <t xml:space="preserve">6.7335786819458</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95387744903564</t>
+    <t xml:space="preserve">6.9538779258728</t>
   </si>
   <si>
     <t xml:space="preserve">7.05401372909546</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16527605056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22090673446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2743124961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48126029968262</t>
+    <t xml:space="preserve">7.16527509689331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22090625762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27431201934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4812593460083</t>
   </si>
   <si>
     <t xml:space="preserve">7.28766393661499</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38334989547729</t>
+    <t xml:space="preserve">7.38334846496582</t>
   </si>
   <si>
     <t xml:space="preserve">7.38112306594849</t>
@@ -920,61 +920,61 @@
     <t xml:space="preserve">7.26986122131348</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45455741882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53911638259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52576446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44565534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4656834602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35442113876343</t>
+    <t xml:space="preserve">7.45455694198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53911685943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52576398849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44565629959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46568298339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35442066192627</t>
   </si>
   <si>
     <t xml:space="preserve">6.60896492004395</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3641881942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61564111709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54220819473267</t>
+    <t xml:space="preserve">6.36418914794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61564016342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54220867156982</t>
   </si>
   <si>
     <t xml:space="preserve">6.758056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6401195526123</t>
+    <t xml:space="preserve">6.64011812210083</t>
   </si>
   <si>
     <t xml:space="preserve">6.66682147979736</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72245311737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66832971572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70666694641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75853395462036</t>
+    <t xml:space="preserve">6.72245264053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66833019256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70666646957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7585334777832</t>
   </si>
   <si>
     <t xml:space="preserve">6.69313621520996</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59616708755493</t>
+    <t xml:space="preserve">6.59616661071777</t>
   </si>
   <si>
     <t xml:space="preserve">6.70215654373169</t>
@@ -986,70 +986,70 @@
     <t xml:space="preserve">6.91188049316406</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97276878356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55783033370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72921800613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.648033618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.562340259552</t>
+    <t xml:space="preserve">6.97276830673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55782985687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72921752929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64803409576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56234073638916</t>
   </si>
   <si>
     <t xml:space="preserve">6.6299934387207</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4969425201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4743914604187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57587099075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46762561798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47213697433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51498317718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2962384223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27819871902466</t>
+    <t xml:space="preserve">6.49694204330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47439098358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57587051391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46762657165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47213649749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51498365402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29623889923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27819728851318</t>
   </si>
   <si>
     <t xml:space="preserve">6.27368783950806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08876895904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04366731643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03239154815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06847286224365</t>
+    <t xml:space="preserve">6.08876943588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04366683959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0323920249939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06847333908081</t>
   </si>
   <si>
     <t xml:space="preserve">5.91287183761597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09102487564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05043315887451</t>
+    <t xml:space="preserve">6.09102439880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05043268203735</t>
   </si>
   <si>
     <t xml:space="preserve">6.06396341323853</t>
@@ -1058,34 +1058,34 @@
     <t xml:space="preserve">6.07298374176025</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9647388458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97601509094238</t>
+    <t xml:space="preserve">5.96473932266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97601413726807</t>
   </si>
   <si>
     <t xml:space="preserve">6.1203408241272</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82266712188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62872934341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59039258956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73246431350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86325979232788</t>
+    <t xml:space="preserve">5.82266759872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62872886657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59039306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73246383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86325931549072</t>
   </si>
   <si>
     <t xml:space="preserve">5.88806533813477</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02111625671387</t>
+    <t xml:space="preserve">6.02111721038818</t>
   </si>
   <si>
     <t xml:space="preserve">5.84070873260498</t>
@@ -1094,28 +1094,28 @@
     <t xml:space="preserve">5.84747362136841</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71442317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68059682846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50469923019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66706514358521</t>
+    <t xml:space="preserve">5.71442270278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68059635162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50469827651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66706562042236</t>
   </si>
   <si>
     <t xml:space="preserve">5.56333112716675</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57009649276733</t>
+    <t xml:space="preserve">5.57009744644165</t>
   </si>
   <si>
     <t xml:space="preserve">5.51822900772095</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53852510452271</t>
+    <t xml:space="preserve">5.53852462768555</t>
   </si>
   <si>
     <t xml:space="preserve">5.61294269561768</t>
@@ -1124,10 +1124,10 @@
     <t xml:space="preserve">5.68285179138184</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6016674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64902496337891</t>
+    <t xml:space="preserve">5.60166835784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64902400970459</t>
   </si>
   <si>
     <t xml:space="preserve">5.57911729812622</t>
@@ -1136,106 +1136,106 @@
     <t xml:space="preserve">5.53176021575928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61068868637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69187211990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86551427841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78884077072144</t>
+    <t xml:space="preserve">5.61068820953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69187164306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86551523208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78884124755859</t>
   </si>
   <si>
     <t xml:space="preserve">5.93091201782227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99856519699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85649442672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21956539154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1000452041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93316793441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76178026199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68736124038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64226007461548</t>
+    <t xml:space="preserve">5.99856567382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85649394989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21956491470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10004425048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93316745758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76177930831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68736171722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64225959777832</t>
   </si>
   <si>
     <t xml:space="preserve">5.59941244125366</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61519813537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47989225387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41449451446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34458637237549</t>
+    <t xml:space="preserve">5.61519861221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47989177703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41449499130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34458684921265</t>
   </si>
   <si>
     <t xml:space="preserve">5.35586214065552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36939239501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53401517868042</t>
+    <t xml:space="preserve">5.36939287185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53401565551758</t>
   </si>
   <si>
     <t xml:space="preserve">5.51597356796265</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39419841766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33782148361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25438261032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2318320274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32203531265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28144407272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24536228179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24987173080444</t>
+    <t xml:space="preserve">5.39419889450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3378210067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25438165664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23183155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32203578948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28144359588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24536275863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24987268447876</t>
   </si>
   <si>
     <t xml:space="preserve">5.14839267730713</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11682224273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07397413253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06720876693726</t>
+    <t xml:space="preserve">5.11682176589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.073974609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06720924377441</t>
   </si>
   <si>
     <t xml:space="preserve">5.08074045181274</t>
@@ -1253,22 +1253,22 @@
     <t xml:space="preserve">5.3400764465332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36037302017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.229576587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14162731170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97926044464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83042335510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8146390914917</t>
+    <t xml:space="preserve">5.3603720664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22957611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14162683486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97925996780396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8304238319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81463813781738</t>
   </si>
   <si>
     <t xml:space="preserve">4.75375032424927</t>
@@ -1277,25 +1277,25 @@
     <t xml:space="preserve">5.04014825820923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33331060409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72795391082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93993282318115</t>
+    <t xml:space="preserve">5.33331108093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72795343399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93993330001831</t>
   </si>
   <si>
     <t xml:space="preserve">5.97375917434692</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89483022689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03464698791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99405527114868</t>
+    <t xml:space="preserve">5.89483118057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0346474647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99405479431152</t>
   </si>
   <si>
     <t xml:space="preserve">5.90385150909424</t>
@@ -1307,49 +1307,49 @@
     <t xml:space="preserve">5.77756595611572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76403474807739</t>
+    <t xml:space="preserve">5.76403522491455</t>
   </si>
   <si>
     <t xml:space="preserve">5.82492208480835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70765733718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15642261505127</t>
+    <t xml:space="preserve">5.70765781402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15642166137695</t>
   </si>
   <si>
     <t xml:space="preserve">6.33006525039673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19701337814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27594232559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26015710830688</t>
+    <t xml:space="preserve">6.19701433181763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2759428024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26015758514404</t>
   </si>
   <si>
     <t xml:space="preserve">6.15867710113525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.095534324646</t>
+    <t xml:space="preserve">6.09553480148315</t>
   </si>
   <si>
     <t xml:space="preserve">6.16769790649414</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93767786026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00984048843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03013706207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95346307754517</t>
+    <t xml:space="preserve">5.93767738342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.009840965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0301365852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95346355438232</t>
   </si>
   <si>
     <t xml:space="preserve">5.87002468109131</t>
@@ -1373,10 +1373,10 @@
     <t xml:space="preserve">5.84521865844727</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97150421142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16544246673584</t>
+    <t xml:space="preserve">5.97150468826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.165442943573</t>
   </si>
   <si>
     <t xml:space="preserve">6.17897319793701</t>
@@ -1394,13 +1394,13 @@
     <t xml:space="preserve">6.42252445220947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35938119888306</t>
+    <t xml:space="preserve">6.35938167572021</t>
   </si>
   <si>
     <t xml:space="preserve">6.66607475280762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51272773742676</t>
+    <t xml:space="preserve">6.51272821426392</t>
   </si>
   <si>
     <t xml:space="preserve">6.30525875091553</t>
@@ -1415,16 +1415,16 @@
     <t xml:space="preserve">5.67834138870239</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24662637710571</t>
+    <t xml:space="preserve">6.24662685394287</t>
   </si>
   <si>
     <t xml:space="preserve">6.05268812179565</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92189168930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79560661315918</t>
+    <t xml:space="preserve">5.92189264297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7956075668335</t>
   </si>
   <si>
     <t xml:space="preserve">5.80913734436035</t>
@@ -1433,34 +1433,34 @@
     <t xml:space="preserve">5.54754543304443</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89032125473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00307607650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11132097244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09327936172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31427907943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4089937210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4946870803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87354469299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83295202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08101367950439</t>
+    <t xml:space="preserve">5.89032077789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00307559967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11132049560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09327983856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31427955627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40899324417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49468755722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87354373931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83295249938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08101272583008</t>
   </si>
   <si>
     <t xml:space="preserve">7.05846214294434</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">7.26142120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13062620162964</t>
+    <t xml:space="preserve">7.13062524795532</t>
   </si>
   <si>
     <t xml:space="preserve">7.25691080093384</t>
@@ -1478,22 +1478,22 @@
     <t xml:space="preserve">7.02238082885742</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10356426239014</t>
+    <t xml:space="preserve">7.10356378555298</t>
   </si>
   <si>
     <t xml:space="preserve">7.38770627975464</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30652379989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20278930664062</t>
+    <t xml:space="preserve">7.30652332305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20278835296631</t>
   </si>
   <si>
     <t xml:space="preserve">7.27044200897217</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21631908416748</t>
+    <t xml:space="preserve">7.21631956100464</t>
   </si>
   <si>
     <t xml:space="preserve">7.65831851959229</t>
@@ -1502,28 +1502,28 @@
     <t xml:space="preserve">7.48693180084229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34260606765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60419702529907</t>
+    <t xml:space="preserve">7.34260511398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60419654846191</t>
   </si>
   <si>
     <t xml:space="preserve">7.44182920455933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41927862167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27946186065674</t>
+    <t xml:space="preserve">7.41927814483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27946138381958</t>
   </si>
   <si>
     <t xml:space="preserve">7.22082996368408</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41025876998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37417697906494</t>
+    <t xml:space="preserve">7.41025733947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37417650222778</t>
   </si>
   <si>
     <t xml:space="preserve">7.35162496566772</t>
@@ -1532,13 +1532,13 @@
     <t xml:space="preserve">7.37868642807007</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6267466545105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7891149520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73048210144043</t>
+    <t xml:space="preserve">7.62674808502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78911542892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73048162460327</t>
   </si>
   <si>
     <t xml:space="preserve">7.70342063903809</t>
@@ -1550,16 +1550,16 @@
     <t xml:space="preserve">7.72146224975586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59066677093506</t>
+    <t xml:space="preserve">7.59066581726074</t>
   </si>
   <si>
     <t xml:space="preserve">7.55007410049438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22534036636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77432012557983</t>
+    <t xml:space="preserve">7.22533941268921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77432060241699</t>
   </si>
   <si>
     <t xml:space="preserve">6.99080944061279</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">6.66156530380249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76529932022095</t>
+    <t xml:space="preserve">6.76529979705811</t>
   </si>
   <si>
     <t xml:space="preserve">6.68862581253052</t>
@@ -1583,64 +1583,64 @@
     <t xml:space="preserve">6.52302885055542</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44531869888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74244403839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81101083755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74701547622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77901268005371</t>
+    <t xml:space="preserve">6.44531917572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74244356155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81101036071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74701499938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77901220321655</t>
   </si>
   <si>
     <t xml:space="preserve">6.69216108322144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8064398765564</t>
+    <t xml:space="preserve">6.80643939971924</t>
   </si>
   <si>
     <t xml:space="preserve">6.72415828704834</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62816524505615</t>
+    <t xml:space="preserve">6.62816429138184</t>
   </si>
   <si>
     <t xml:space="preserve">6.86129331588745</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90243434906006</t>
+    <t xml:space="preserve">6.9024338722229</t>
   </si>
   <si>
     <t xml:space="preserve">6.90700483322144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76072835922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63730716705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62359428405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59159517288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55959796905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45903205871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36303901672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35846710205078</t>
+    <t xml:space="preserve">6.76072788238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63730764389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62359380722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59159564971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55959749221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45903253555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36303806304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35846757888794</t>
   </si>
   <si>
     <t xml:space="preserve">6.25790166854858</t>
@@ -1649,22 +1649,25 @@
     <t xml:space="preserve">6.39960718154907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27618598937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31732606887817</t>
+    <t xml:space="preserve">6.27618646621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31732654571533</t>
   </si>
   <si>
     <t xml:space="preserve">6.34018230438232</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48645925521851</t>
+    <t xml:space="preserve">6.48645877838135</t>
   </si>
   <si>
     <t xml:space="preserve">6.38589429855347</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34932565689087</t>
+    <t xml:space="preserve">6.42703485488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34932518005371</t>
   </si>
   <si>
     <t xml:space="preserve">6.47731685638428</t>
@@ -1673,49 +1676,49 @@
     <t xml:space="preserve">6.73330116271973</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63273620605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67387628555298</t>
+    <t xml:space="preserve">6.63273572921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67387676239014</t>
   </si>
   <si>
     <t xml:space="preserve">6.58245325088501</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5870246887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53217077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54131269454956</t>
+    <t xml:space="preserve">6.58702516555786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53217124938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54131317138672</t>
   </si>
   <si>
     <t xml:space="preserve">6.51388597488403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56873941421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57331132888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64644956588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46817493438721</t>
+    <t xml:space="preserve">6.56873989105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57331085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64644908905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46817445755005</t>
   </si>
   <si>
     <t xml:space="preserve">6.37675189971924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32646942138672</t>
+    <t xml:space="preserve">6.32646894454956</t>
   </si>
   <si>
     <t xml:space="preserve">6.41789197921753</t>
   </si>
   <si>
-    <t xml:space="preserve">6.605309009552</t>
+    <t xml:space="preserve">6.60530948638916</t>
   </si>
   <si>
     <t xml:space="preserve">6.78815507888794</t>
@@ -1724,37 +1727,34 @@
     <t xml:space="preserve">6.23504590988159</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53674221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32189750671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1161961555481</t>
+    <t xml:space="preserve">6.53674173355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32189798355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11619710922241</t>
   </si>
   <si>
     <t xml:space="preserve">5.59508514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45338010787964</t>
+    <t xml:space="preserve">5.45337963104248</t>
   </si>
   <si>
     <t xml:space="preserve">5.35738563537598</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1928243637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08311700820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24310731887817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12882852554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.073974609375</t>
+    <t xml:space="preserve">5.19282484054565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08311605453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24310684204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12882804870605</t>
   </si>
   <si>
     <t xml:space="preserve">5.18825340270996</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">5.09682989120483</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03740501403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84084606170654</t>
+    <t xml:space="preserve">5.03740549087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84084558486938</t>
   </si>
   <si>
     <t xml:space="preserve">4.68999814987183</t>
@@ -1799,40 +1799,40 @@
     <t xml:space="preserve">4.13003206253052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14374542236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04546642303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17345809936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24659633636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22145509719849</t>
+    <t xml:space="preserve">4.14374589920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04546594619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17345857620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2465968132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22145557403564</t>
   </si>
   <si>
     <t xml:space="preserve">4.10717678070068</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95404291152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78719615936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83976435661316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90147495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81690883636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92204475402832</t>
+    <t xml:space="preserve">3.95404314994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78719592094421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83976459503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90147471427917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81690859794617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92204523086548</t>
   </si>
   <si>
     <t xml:space="preserve">3.93118786811829</t>
@@ -1841,10 +1841,10 @@
     <t xml:space="preserve">4.05232286453247</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24888277053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09117698669434</t>
+    <t xml:space="preserve">4.24888181686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09117746353149</t>
   </si>
   <si>
     <t xml:space="preserve">4.01118230819702</t>
@@ -1853,49 +1853,49 @@
     <t xml:space="preserve">4.01803922653198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02946662902832</t>
+    <t xml:space="preserve">4.02946710586548</t>
   </si>
   <si>
     <t xml:space="preserve">3.95861387252808</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94718647003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92890191078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53121209144592</t>
+    <t xml:space="preserve">3.9471869468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92890214920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53121185302734</t>
   </si>
   <si>
     <t xml:space="preserve">3.43293237686157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31408262252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09923839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10838103294373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23180198669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45807385444641</t>
+    <t xml:space="preserve">3.31408214569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0992386341095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10838055610657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23180174827576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45807361602783</t>
   </si>
   <si>
     <t xml:space="preserve">3.46264457702637</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3415093421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29808354377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52892637252808</t>
+    <t xml:space="preserve">3.34150958061218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29808330535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52892661094666</t>
   </si>
   <si>
     <t xml:space="preserve">3.46950149536133</t>
@@ -1910,25 +1910,25 @@
     <t xml:space="preserve">3.3917920589447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31865358352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17923355102539</t>
+    <t xml:space="preserve">3.31865382194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17923378944397</t>
   </si>
   <si>
     <t xml:space="preserve">2.99181652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99638772010803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07638263702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17237687110901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10609531402588</t>
+    <t xml:space="preserve">2.99638748168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0763828754425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17237663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1060950756073</t>
   </si>
   <si>
     <t xml:space="preserve">3.02152895927429</t>
@@ -1937,40 +1937,40 @@
     <t xml:space="preserve">2.9483904838562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98953104019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83868288993835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8089702129364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85011076927185</t>
+    <t xml:space="preserve">2.98953080177307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83868312835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80897045135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85011100769043</t>
   </si>
   <si>
     <t xml:space="preserve">2.89582252502441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95296144485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14037847518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17466282844543</t>
+    <t xml:space="preserve">2.95296192169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14037895202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17466259002686</t>
   </si>
   <si>
     <t xml:space="preserve">3.23865842819214</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30036878585815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22951602935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29351234436035</t>
+    <t xml:space="preserve">3.30036902427673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22951626777649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29351258277893</t>
   </si>
   <si>
     <t xml:space="preserve">3.30722570419312</t>
@@ -1991,22 +1991,22 @@
     <t xml:space="preserve">3.55635333061218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61120700836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57235217094421</t>
+    <t xml:space="preserve">3.6112072467804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57235240936279</t>
   </si>
   <si>
     <t xml:space="preserve">3.69120216369629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74605560302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65463304519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5883514881134</t>
+    <t xml:space="preserve">3.74605584144592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65463280677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58835101127625</t>
   </si>
   <si>
     <t xml:space="preserve">3.59977912902832</t>
@@ -2015,73 +2015,73 @@
     <t xml:space="preserve">3.66148996353149</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51292753219604</t>
+    <t xml:space="preserve">3.51292729377747</t>
   </si>
   <si>
     <t xml:space="preserve">3.60206484794617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66377520561218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7757682800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70263028144836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69348764419556</t>
+    <t xml:space="preserve">3.66377544403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77576851844788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70263004302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69348788261414</t>
   </si>
   <si>
     <t xml:space="preserve">3.78491044044495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88776111602783</t>
+    <t xml:space="preserve">3.88776159286499</t>
   </si>
   <si>
     <t xml:space="preserve">3.98147010803223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85576343536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91747403144836</t>
+    <t xml:space="preserve">3.85576367378235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91747379302979</t>
   </si>
   <si>
     <t xml:space="preserve">3.94261527061462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02718114852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07975006103516</t>
+    <t xml:space="preserve">4.02718162536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.079749584198</t>
   </si>
   <si>
     <t xml:space="preserve">4.15974473953247</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22374057769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1826000213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34487628936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28087949752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03632354736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09346342086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11631870269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06603670120239</t>
+    <t xml:space="preserve">4.22374105453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18260049819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34487676620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28087997436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03632402420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09346294403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11631917953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06603622436523</t>
   </si>
   <si>
     <t xml:space="preserve">4.32430601119995</t>
@@ -2090,16 +2090,16 @@
     <t xml:space="preserve">4.37687397003174</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47972536087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52543640136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45001268386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25802421569824</t>
+    <t xml:space="preserve">4.4797248840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52543687820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45001220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25802516937256</t>
   </si>
   <si>
     <t xml:space="preserve">4.29687929153442</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">4.29459381103516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33116340637207</t>
+    <t xml:space="preserve">4.33116292953491</t>
   </si>
   <si>
     <t xml:space="preserve">4.38601684570312</t>
@@ -2120,10 +2120,10 @@
     <t xml:space="preserve">4.34259080886841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33344841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34716176986694</t>
+    <t xml:space="preserve">4.33344793319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3471622467041</t>
   </si>
   <si>
     <t xml:space="preserve">4.29230833053589</t>
@@ -2132,22 +2132,22 @@
     <t xml:space="preserve">4.16431617736816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24431085586548</t>
+    <t xml:space="preserve">4.24431037902832</t>
   </si>
   <si>
     <t xml:space="preserve">4.27859449386597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36316061019897</t>
+    <t xml:space="preserve">4.36316108703613</t>
   </si>
   <si>
     <t xml:space="preserve">4.05917978286743</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02032423019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98604130744934</t>
+    <t xml:space="preserve">4.02032518386841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9860417842865</t>
   </si>
   <si>
     <t xml:space="preserve">4.08432102203369</t>
@@ -2159,43 +2159,43 @@
     <t xml:space="preserve">4.12546110153198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10489082336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00432586669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96318602561951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85119199752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85804891586304</t>
+    <t xml:space="preserve">4.1048903465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00432634353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96318531036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85119223594666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8580493927002</t>
   </si>
   <si>
     <t xml:space="preserve">3.73234248161316</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9357578754425</t>
+    <t xml:space="preserve">3.93575859069824</t>
   </si>
   <si>
     <t xml:space="preserve">4.18945741653442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90833139419556</t>
+    <t xml:space="preserve">3.90833187103271</t>
   </si>
   <si>
     <t xml:space="preserve">4.04407024383545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96683979034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84514331817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82876110076904</t>
+    <t xml:space="preserve">3.96683955192566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84514284133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82876133918762</t>
   </si>
   <si>
     <t xml:space="preserve">3.84748363494873</t>
@@ -2204,55 +2204,55 @@
     <t xml:space="preserve">3.77025318145752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75387096405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81471872329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92705464363098</t>
+    <t xml:space="preserve">3.75387120246887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8147189617157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9270544052124</t>
   </si>
   <si>
     <t xml:space="preserve">3.95747828483582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01130628585815</t>
+    <t xml:space="preserve">4.011305809021</t>
   </si>
   <si>
     <t xml:space="preserve">4.05343151092529</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98322176933289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03704929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95981884002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99258327484131</t>
+    <t xml:space="preserve">3.98322200775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03704977035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95981907844543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99258279800415</t>
   </si>
   <si>
     <t xml:space="preserve">4.07215452194214</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13066244125366</t>
+    <t xml:space="preserve">4.1306619644165</t>
   </si>
   <si>
     <t xml:space="preserve">4.28980350494385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24533748626709</t>
+    <t xml:space="preserve">4.24533796310425</t>
   </si>
   <si>
     <t xml:space="preserve">4.1821494102478</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20321130752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19151067733765</t>
+    <t xml:space="preserve">4.20321178436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19151020050049</t>
   </si>
   <si>
     <t xml:space="preserve">4.23597621917725</t>
@@ -2270,34 +2270,34 @@
     <t xml:space="preserve">4.40915966033936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50511360168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39745855331421</t>
+    <t xml:space="preserve">4.50511312484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39745807647705</t>
   </si>
   <si>
     <t xml:space="preserve">4.44660520553589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33895015716553</t>
+    <t xml:space="preserve">4.33895063400269</t>
   </si>
   <si>
     <t xml:space="preserve">4.4278826713562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33192920684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31554746627808</t>
+    <t xml:space="preserve">4.3319296836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31554698944092</t>
   </si>
   <si>
     <t xml:space="preserve">4.28746318817139</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34129047393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26639986038208</t>
+    <t xml:space="preserve">4.34128999710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26640033721924</t>
   </si>
   <si>
     <t xml:space="preserve">4.14938449859619</t>
@@ -2312,16 +2312,16 @@
     <t xml:space="preserve">4.25469923019409</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20087242126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2149133682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16576671600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09555721282959</t>
+    <t xml:space="preserve">4.20087194442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21491384506226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16576623916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09555768966675</t>
   </si>
   <si>
     <t xml:space="preserve">4.14470386505127</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">4.03236865997314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9317352771759</t>
+    <t xml:space="preserve">3.93173456192017</t>
   </si>
   <si>
     <t xml:space="preserve">3.97152042388916</t>
@@ -2342,52 +2342,52 @@
     <t xml:space="preserve">3.96215891838074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93641543388367</t>
+    <t xml:space="preserve">3.93641567230225</t>
   </si>
   <si>
     <t xml:space="preserve">4.03938961029053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08853578567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06981372833252</t>
+    <t xml:space="preserve">4.08853626251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06981325149536</t>
   </si>
   <si>
     <t xml:space="preserve">4.22193479537964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20555210113525</t>
+    <t xml:space="preserve">4.2055516242981</t>
   </si>
   <si>
     <t xml:space="preserve">4.25937986373901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13300228118896</t>
+    <t xml:space="preserve">4.13300275802612</t>
   </si>
   <si>
     <t xml:space="preserve">4.14236354827881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2781023979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2266149520874</t>
+    <t xml:space="preserve">4.27810192108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22661447525024</t>
   </si>
   <si>
     <t xml:space="preserve">4.15172481536865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43958425521851</t>
+    <t xml:space="preserve">4.43958377838135</t>
   </si>
   <si>
     <t xml:space="preserve">4.43256378173828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41384077072144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70404052734375</t>
+    <t xml:space="preserve">4.41384029388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70404005050659</t>
   </si>
   <si>
     <t xml:space="preserve">5.11125564575195</t>
@@ -2402,43 +2402,43 @@
     <t xml:space="preserve">5.47634506225586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75250244140625</t>
+    <t xml:space="preserve">5.75250291824341</t>
   </si>
   <si>
     <t xml:space="preserve">5.60740232467651</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50910997390747</t>
+    <t xml:space="preserve">5.50910949707031</t>
   </si>
   <si>
     <t xml:space="preserve">5.73377990722656</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83207368850708</t>
+    <t xml:space="preserve">5.83207321166992</t>
   </si>
   <si>
     <t xml:space="preserve">5.67761278152466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57463836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60272216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38273286819458</t>
+    <t xml:space="preserve">5.57463884353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60272264480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38273239135742</t>
   </si>
   <si>
     <t xml:space="preserve">5.39209413528442</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48102569580078</t>
+    <t xml:space="preserve">5.48102617263794</t>
   </si>
   <si>
     <t xml:space="preserve">5.5699577331543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46230363845825</t>
+    <t xml:space="preserve">5.46230316162109</t>
   </si>
   <si>
     <t xml:space="preserve">5.59336090087891</t>
@@ -2447,10 +2447,10 @@
     <t xml:space="preserve">5.5793194770813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68229341506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82271242141724</t>
+    <t xml:space="preserve">5.68229293823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82271194458008</t>
   </si>
   <si>
     <t xml:space="preserve">5.85547685623169</t>
@@ -2468,25 +2468,25 @@
     <t xml:space="preserve">5.85079622268677</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80398941040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84143495559692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93504810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83675479888916</t>
+    <t xml:space="preserve">5.80398988723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84143447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93504762649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.836754322052</t>
   </si>
   <si>
     <t xml:space="preserve">5.94909000396729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02866077423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18312120437622</t>
+    <t xml:space="preserve">6.02865982055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18312168121338</t>
   </si>
   <si>
     <t xml:space="preserve">6.25801134109497</t>
@@ -2495,61 +2495,61 @@
     <t xml:space="preserve">6.36098527908325</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2205662727356</t>
+    <t xml:space="preserve">6.22056674957275</t>
   </si>
   <si>
     <t xml:space="preserve">6.12695360183716</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15503787994385</t>
+    <t xml:space="preserve">6.15503740310669</t>
   </si>
   <si>
     <t xml:space="preserve">6.37970781326294</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86181354522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25966835021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35796165466309</t>
+    <t xml:space="preserve">6.86181402206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25966787338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35796117782593</t>
   </si>
   <si>
     <t xml:space="preserve">7.44689321517944</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7792181968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78389930725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88219261169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00857067108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84006690979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7932596206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32519626617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44221210479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58263206481934</t>
+    <t xml:space="preserve">7.77921915054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78389835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88219213485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00856971740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84006643295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79326009750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32519674301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44221258163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58263158798218</t>
   </si>
   <si>
     <t xml:space="preserve">7.51710271835327</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45157384872437</t>
+    <t xml:space="preserve">7.45157337188721</t>
   </si>
   <si>
     <t xml:space="preserve">7.4375319480896</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">7.31115484237671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4281702041626</t>
+    <t xml:space="preserve">7.42817068099976</t>
   </si>
   <si>
     <t xml:space="preserve">7.55922842025757</t>
@@ -2570,34 +2570,34 @@
     <t xml:space="preserve">7.54050636291504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74177312850952</t>
+    <t xml:space="preserve">7.74177360534668</t>
   </si>
   <si>
     <t xml:space="preserve">8.09282207489014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03197193145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8447470664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73241281509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83538675308228</t>
+    <t xml:space="preserve">8.03197288513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84474849700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73241186141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83538627624512</t>
   </si>
   <si>
     <t xml:space="preserve">7.52646398544312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61539649963379</t>
+    <t xml:space="preserve">7.61539697647095</t>
   </si>
   <si>
     <t xml:space="preserve">7.27839040756226</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57795095443726</t>
+    <t xml:space="preserve">7.57795143127441</t>
   </si>
   <si>
     <t xml:space="preserve">7.41880989074707</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">7.46561574935913</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38136434555054</t>
+    <t xml:space="preserve">7.3813648223877</t>
   </si>
   <si>
     <t xml:space="preserve">7.69496726989746</t>
@@ -2615,25 +2615,25 @@
     <t xml:space="preserve">7.60135459899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65284156799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6856050491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4796576499939</t>
+    <t xml:space="preserve">7.65284204483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68560552597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47965812683105</t>
   </si>
   <si>
     <t xml:space="preserve">7.33455801010132</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18477725982666</t>
+    <t xml:space="preserve">7.18477773666382</t>
   </si>
   <si>
     <t xml:space="preserve">6.65586614608765</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66054677963257</t>
+    <t xml:space="preserve">6.66054582595825</t>
   </si>
   <si>
     <t xml:space="preserve">6.88989782333374</t>
@@ -2669,19 +2669,19 @@
     <t xml:space="preserve">6.82436847686768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98351001739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91330146789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78224277496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25333070755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09886980056763</t>
+    <t xml:space="preserve">6.98351049423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91330099105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78224229812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25333023071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09887027740479</t>
   </si>
   <si>
     <t xml:space="preserve">5.91632509231567</t>
@@ -2690,37 +2690,37 @@
     <t xml:space="preserve">5.76186418533325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89760303497314</t>
+    <t xml:space="preserve">5.89760255813599</t>
   </si>
   <si>
     <t xml:space="preserve">5.84611511230469</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59804201126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22827100753784</t>
+    <t xml:space="preserve">5.59804153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.228271484375</t>
   </si>
   <si>
     <t xml:space="preserve">4.85850095748901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69935941696167</t>
+    <t xml:space="preserve">4.69935894012451</t>
   </si>
   <si>
     <t xml:space="preserve">4.74148511886597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30384588241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89897084236145</t>
+    <t xml:space="preserve">4.30384540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89897060394287</t>
   </si>
   <si>
     <t xml:space="preserve">3.74450945854187</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39346194267273</t>
+    <t xml:space="preserve">3.39346170425415</t>
   </si>
   <si>
     <t xml:space="preserve">3.29516839981079</t>
@@ -2729,13 +2729,13 @@
     <t xml:space="preserve">3.25304245948792</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29750895500183</t>
+    <t xml:space="preserve">3.29750871658325</t>
   </si>
   <si>
     <t xml:space="preserve">3.51983904838562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08151483535767</t>
+    <t xml:space="preserve">4.08151531219482</t>
   </si>
   <si>
     <t xml:space="preserve">3.94811749458313</t>
@@ -2744,55 +2744,55 @@
     <t xml:space="preserve">3.69302248954773</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58068752288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75153064727783</t>
+    <t xml:space="preserve">3.5806872844696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75153040885925</t>
   </si>
   <si>
     <t xml:space="preserve">3.69770312309265</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79131603240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70238375663757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88024806976318</t>
+    <t xml:space="preserve">3.79131579399109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70238351821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88024759292603</t>
   </si>
   <si>
     <t xml:space="preserve">3.82408022880554</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15640544891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11896085739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47936964035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20789241790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10023784637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26406049728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18448925018311</t>
+    <t xml:space="preserve">4.15640592575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1189603805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4793701171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20789289474487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10023832321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26406002044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18448877334595</t>
   </si>
   <si>
     <t xml:space="preserve">4.58702373504639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55425930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45596599578857</t>
+    <t xml:space="preserve">4.55425977706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45596647262573</t>
   </si>
   <si>
     <t xml:space="preserve">4.36235332489014</t>
@@ -2804,31 +2804,31 @@
     <t xml:space="preserve">4.41852140426636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45128631591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40447902679443</t>
+    <t xml:space="preserve">4.45128536224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40447950363159</t>
   </si>
   <si>
     <t xml:space="preserve">4.39979839324951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2687406539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77424955368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62446975708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58234310150146</t>
+    <t xml:space="preserve">4.26874113082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77425003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62446928024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58234357833862</t>
   </si>
   <si>
     <t xml:space="preserve">4.48405027389526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52149486541748</t>
+    <t xml:space="preserve">4.52149534225464</t>
   </si>
   <si>
     <t xml:space="preserve">4.85616064071655</t>
@@ -2840,7 +2840,7 @@
     <t xml:space="preserve">5.00828123092651</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99658012390137</t>
+    <t xml:space="preserve">4.99658060073853</t>
   </si>
   <si>
     <t xml:space="preserve">5.16040182113647</t>
@@ -2855,16 +2855,16 @@
     <t xml:space="preserve">5.60506296157837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46464395523071</t>
+    <t xml:space="preserve">5.46464347839355</t>
   </si>
   <si>
     <t xml:space="preserve">5.27741765975952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04338598251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13699960708618</t>
+    <t xml:space="preserve">5.04338550567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13699913024902</t>
   </si>
   <si>
     <t xml:space="preserve">5.31252288818359</t>
@@ -2873,34 +2873,34 @@
     <t xml:space="preserve">5.4295392036438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37103080749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51144981384277</t>
+    <t xml:space="preserve">5.37103128433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51144933700562</t>
   </si>
   <si>
     <t xml:space="preserve">5.3242244720459</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26571655273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25401496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39443397521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35932874679565</t>
+    <t xml:space="preserve">5.26571607589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25401449203491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39443349838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35932922363281</t>
   </si>
   <si>
     <t xml:space="preserve">5.20720863342285</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03168487548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12529754638672</t>
+    <t xml:space="preserve">5.03168439865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12529706954956</t>
   </si>
   <si>
     <t xml:space="preserve">5.23061180114746</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">5.17210388183594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33592653274536</t>
+    <t xml:space="preserve">5.33592557907104</t>
   </si>
   <si>
     <t xml:space="preserve">5.18380546569824</t>
@@ -2918,25 +2918,25 @@
     <t xml:space="preserve">5.218909740448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24231386184692</t>
+    <t xml:space="preserve">5.24231338500977</t>
   </si>
   <si>
     <t xml:space="preserve">5.44124031066895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45294189453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14870023727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19550657272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07849168777466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05508756637573</t>
+    <t xml:space="preserve">5.45294141769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14870071411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19550752639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0784912109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05508804321289</t>
   </si>
   <si>
     <t xml:space="preserve">5.09019231796265</t>
@@ -2948,58 +2948,58 @@
     <t xml:space="preserve">5.01998329162598</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10189342498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11359596252441</t>
+    <t xml:space="preserve">5.10189390182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11359643936157</t>
   </si>
   <si>
     <t xml:space="preserve">4.68063688278198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28278207778931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30618572235107</t>
+    <t xml:space="preserve">4.28278255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30618619918823</t>
   </si>
   <si>
     <t xml:space="preserve">4.17044734954834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39511775970459</t>
+    <t xml:space="preserve">4.39511823654175</t>
   </si>
   <si>
     <t xml:space="preserve">4.43724346160889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71574115753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66357040405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74548149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88590049743652</t>
+    <t xml:space="preserve">4.7157416343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66357135772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74548196792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88590097427368</t>
   </si>
   <si>
     <t xml:space="preserve">5.86249780654907</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81569194793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76888513565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79228782653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0263204574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.827392578125</t>
+    <t xml:space="preserve">5.81569147109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76888465881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79228830337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02631998062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82739305496216</t>
   </si>
   <si>
     <t xml:space="preserve">5.94440889358521</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">6.09652948379517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08482789993286</t>
+    <t xml:space="preserve">6.08482837677002</t>
   </si>
   <si>
     <t xml:space="preserve">6.00291681289673</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">6.26035165786743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29545640945435</t>
+    <t xml:space="preserve">6.2954568862915</t>
   </si>
   <si>
     <t xml:space="preserve">6.31885957717896</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">6.27205324172974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35396385192871</t>
+    <t xml:space="preserve">6.35396432876587</t>
   </si>
   <si>
     <t xml:space="preserve">6.49438381195068</t>
@@ -3053,10 +3053,10 @@
     <t xml:space="preserve">6.50608491897583</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62310075759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6699070930481</t>
+    <t xml:space="preserve">6.62310123443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66990804672241</t>
   </si>
   <si>
     <t xml:space="preserve">6.68160915374756</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">6.70501232147217</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75181865692139</t>
+    <t xml:space="preserve">6.75181913375854</t>
   </si>
   <si>
     <t xml:space="preserve">6.72841596603394</t>
@@ -3080,22 +3080,22 @@
     <t xml:space="preserve">6.48268222808838</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61139917373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43587589263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34226322174072</t>
+    <t xml:space="preserve">6.61139965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.435875415802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34226274490356</t>
   </si>
   <si>
     <t xml:space="preserve">6.56459283828735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64650440216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81032705307007</t>
+    <t xml:space="preserve">6.64650392532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81032657623291</t>
   </si>
   <si>
     <t xml:space="preserve">6.65820598602295</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">6.90393972396851</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83373022079468</t>
+    <t xml:space="preserve">6.83372974395752</t>
   </si>
   <si>
     <t xml:space="preserve">6.85713291168213</t>
@@ -3119,13 +3119,13 @@
     <t xml:space="preserve">6.84543132781982</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5411901473999</t>
+    <t xml:space="preserve">6.54119062423706</t>
   </si>
   <si>
     <t xml:space="preserve">6.51778697967529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47098064422607</t>
+    <t xml:space="preserve">6.47098016738892</t>
   </si>
   <si>
     <t xml:space="preserve">6.5294885635376</t>
@@ -3137,25 +3137,25 @@
     <t xml:space="preserve">7.02095508575439</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95708322525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94538164138794</t>
+    <t xml:space="preserve">7.95708274841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9453821182251</t>
   </si>
   <si>
     <t xml:space="preserve">8.42514610290527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35493755340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19111442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16771125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23792171478271</t>
+    <t xml:space="preserve">8.35493659973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1911153793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16771221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2379207611084</t>
   </si>
   <si>
     <t xml:space="preserve">8.20281600952148</t>
@@ -3167,22 +3167,22 @@
     <t xml:space="preserve">8.28472709655762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21451663970947</t>
+    <t xml:space="preserve">8.21451759338379</t>
   </si>
   <si>
     <t xml:space="preserve">8.17941379547119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10920333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26132488250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49535655975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48365497589111</t>
+    <t xml:space="preserve">8.10920429229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26132392883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4953556060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4836540222168</t>
   </si>
   <si>
     <t xml:space="preserve">8.47195243835449</t>
@@ -3191,28 +3191,28 @@
     <t xml:space="preserve">8.51875972747803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4602518081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33153343200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29642963409424</t>
+    <t xml:space="preserve">8.46025085449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33153247833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29642868041992</t>
   </si>
   <si>
     <t xml:space="preserve">8.36663818359375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53046035766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41344451904297</t>
+    <t xml:space="preserve">8.53046131134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41344547271729</t>
   </si>
   <si>
     <t xml:space="preserve">8.34323501586914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2496223449707</t>
+    <t xml:space="preserve">8.24962139129639</t>
   </si>
   <si>
     <t xml:space="preserve">8.39004135131836</t>
@@ -3227,16 +3227,16 @@
     <t xml:space="preserve">8.01559066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09750080108643</t>
+    <t xml:space="preserve">8.09750175476074</t>
   </si>
   <si>
     <t xml:space="preserve">7.9921875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0389928817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56556415557861</t>
+    <t xml:space="preserve">8.03899383544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56556510925293</t>
   </si>
   <si>
     <t xml:space="preserve">9.36127376556396</t>
@@ -3245,16 +3245,16 @@
     <t xml:space="preserve">9.1974515914917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4080810546875</t>
+    <t xml:space="preserve">9.40808010101318</t>
   </si>
   <si>
     <t xml:space="preserve">9.6889181137085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86615371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81889247894287</t>
+    <t xml:space="preserve">9.86615562438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81889152526855</t>
   </si>
   <si>
     <t xml:space="preserve">9.99612808227539</t>
@@ -3296,25 +3296,25 @@
     <t xml:space="preserve">10.6341791152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5987310409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9768362045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7050724029541</t>
+    <t xml:space="preserve">10.5987319946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9768352508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7050733566284</t>
   </si>
   <si>
     <t xml:space="preserve">10.6105480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269691467285</t>
+    <t xml:space="preserve">10.3269701004028</t>
   </si>
   <si>
     <t xml:space="preserve">10.4923896789551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6223640441895</t>
+    <t xml:space="preserve">10.6223630905151</t>
   </si>
   <si>
     <t xml:space="preserve">10.2797060012817</t>
@@ -3323,13 +3323,13 @@
     <t xml:space="preserve">10.1733636856079</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2442598342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3742332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2915210723877</t>
+    <t xml:space="preserve">10.2442588806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3742322921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.291522026062</t>
   </si>
   <si>
     <t xml:space="preserve">10.3151540756226</t>
@@ -3341,16 +3341,16 @@
     <t xml:space="preserve">10.4805736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4451274871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7168884277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4096794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560758590698</t>
+    <t xml:space="preserve">10.4451265335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7168893814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4096784591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560749053955</t>
   </si>
   <si>
     <t xml:space="preserve">10.6459941864014</t>
@@ -3359,37 +3359,37 @@
     <t xml:space="preserve">10.3978633880615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3624153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.437650680542</t>
+    <t xml:space="preserve">10.3624172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4376497268677</t>
   </si>
   <si>
     <t xml:space="preserve">11.7590379714966</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1673908233643</t>
+    <t xml:space="preserve">12.1673917770386</t>
   </si>
   <si>
     <t xml:space="preserve">12.163610458374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0048055648804</t>
+    <t xml:space="preserve">12.0048065185547</t>
   </si>
   <si>
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968492507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6815280914307</t>
+    <t xml:space="preserve">11.7968482971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6815271377563</t>
   </si>
   <si>
     <t xml:space="preserve">11.834659576416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7023229598999</t>
+    <t xml:space="preserve">11.7023239135742</t>
   </si>
   <si>
     <t xml:space="preserve">11.6077966690063</t>
@@ -3404,31 +3404,31 @@
     <t xml:space="preserve">11.6456069946289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7212285995483</t>
+    <t xml:space="preserve">11.721227645874</t>
   </si>
   <si>
     <t xml:space="preserve">12.3640050888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1182374954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3261957168579</t>
+    <t xml:space="preserve">12.118236541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3261947631836</t>
   </si>
   <si>
     <t xml:space="preserve">12.3072900772095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5152473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5719623565674</t>
+    <t xml:space="preserve">12.5152463912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5719633102417</t>
   </si>
   <si>
     <t xml:space="preserve">12.1560468673706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2147388458252</t>
+    <t xml:space="preserve">13.2147397994995</t>
   </si>
   <si>
     <t xml:space="preserve">13.9142322540283</t>
@@ -3443,7 +3443,7 @@
     <t xml:space="preserve">13.4416027069092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.800802230835</t>
+    <t xml:space="preserve">13.8008012771606</t>
   </si>
   <si>
     <t xml:space="preserve">14.1221885681152</t>
@@ -3452,10 +3452,10 @@
     <t xml:space="preserve">14.027663230896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9540176391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3490524291992</t>
+    <t xml:space="preserve">14.9540185928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3490514755249</t>
   </si>
   <si>
     <t xml:space="preserve">14.0465679168701</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">13.7062749862671</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0654735565186</t>
+    <t xml:space="preserve">14.0654745101929</t>
   </si>
   <si>
     <t xml:space="preserve">13.7251806259155</t>
@@ -3473,7 +3473,7 @@
     <t xml:space="preserve">13.3281707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7610149383545</t>
+    <t xml:space="preserve">12.7610139846802</t>
   </si>
   <si>
     <t xml:space="preserve">13.2525501251221</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">13.3848867416382</t>
   </si>
   <si>
-    <t xml:space="preserve">13.176929473877</t>
+    <t xml:space="preserve">13.1769285202026</t>
   </si>
   <si>
     <t xml:space="preserve">13.6684646606445</t>
@@ -3500,13 +3500,13 @@
     <t xml:space="preserve">15.7858486175537</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8425636291504</t>
+    <t xml:space="preserve">15.8425626754761</t>
   </si>
   <si>
     <t xml:space="preserve">16.1261405944824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9201583862305</t>
+    <t xml:space="preserve">16.9201602935791</t>
   </si>
   <si>
     <t xml:space="preserve">16.7311096191406</t>
@@ -3515,34 +3515,34 @@
     <t xml:space="preserve">16.9012546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.61767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7122039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3719100952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1450462341309</t>
+    <t xml:space="preserve">16.6176776885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7122020721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3719081878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1450481414795</t>
   </si>
   <si>
     <t xml:space="preserve">16.504243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3530044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2584800720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614702224731</t>
+    <t xml:space="preserve">16.3530025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2584781646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614683151245</t>
   </si>
   <si>
     <t xml:space="preserve">15.8047523498535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2395725250244</t>
+    <t xml:space="preserve">16.239574432373</t>
   </si>
   <si>
     <t xml:space="preserve">16.0883312225342</t>
@@ -3554,25 +3554,25 @@
     <t xml:space="preserve">15.2375974655151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7460622787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8216819763184</t>
+    <t xml:space="preserve">14.7460613250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8216829299927</t>
   </si>
   <si>
     <t xml:space="preserve">14.5570087432861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9331369400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9520435333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.630654335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2356204986572</t>
+    <t xml:space="preserve">13.9331378936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9520425796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6306533813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2356214523315</t>
   </si>
   <si>
     <t xml:space="preserve">14.3679571151733</t>
@@ -3581,43 +3581,43 @@
     <t xml:space="preserve">14.481388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">14.197811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271556854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4624834060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1032838821411</t>
+    <t xml:space="preserve">14.1978101730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271566390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4624843597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1032848358154</t>
   </si>
   <si>
     <t xml:space="preserve">14.084379196167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5550336837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8386106491089</t>
+    <t xml:space="preserve">13.5550327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8386116027832</t>
   </si>
   <si>
     <t xml:space="preserve">13.6873693466187</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6495580673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2734317779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4435768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6137256622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.594820022583</t>
+    <t xml:space="preserve">13.6495590209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2734308242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4435777664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6137247085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5948190689087</t>
   </si>
   <si>
     <t xml:space="preserve">14.4246730804443</t>
@@ -3626,34 +3626,34 @@
     <t xml:space="preserve">13.2336444854736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4226961135864</t>
+    <t xml:space="preserve">13.4226970672607</t>
   </si>
   <si>
     <t xml:space="preserve">13.3470764160156</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7440853118896</t>
+    <t xml:space="preserve">13.744086265564</t>
   </si>
   <si>
     <t xml:space="preserve">12.4774360656738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6664876937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4794130325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7629919052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1013088226318</t>
+    <t xml:space="preserve">12.6664886474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4794120788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7629909515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1013078689575</t>
   </si>
   <si>
     <t xml:space="preserve">12.1749534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9122562408447</t>
+    <t xml:space="preserve">12.9122552871704</t>
   </si>
   <si>
     <t xml:space="preserve">12.6097726821899</t>
@@ -3665,7 +3665,7 @@
     <t xml:space="preserve">12.4018154144287</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2127628326416</t>
+    <t xml:space="preserve">12.2127637863159</t>
   </si>
   <si>
     <t xml:space="preserve">11.9291858673096</t>
@@ -3674,16 +3674,16 @@
     <t xml:space="preserve">11.8535652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2694787979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0426168441772</t>
+    <t xml:space="preserve">12.2694797515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0426158905029</t>
   </si>
   <si>
     <t xml:space="preserve">12.288384437561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.23166847229</t>
+    <t xml:space="preserve">12.2316675186157</t>
   </si>
   <si>
     <t xml:space="preserve">11.2675037384033</t>
@@ -3701,22 +3701,22 @@
     <t xml:space="preserve">12.0804271697998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6645135879517</t>
+    <t xml:space="preserve">11.6645126342773</t>
   </si>
   <si>
     <t xml:space="preserve">12.9500665664673</t>
   </si>
   <si>
-    <t xml:space="preserve">13.006781578064</t>
+    <t xml:space="preserve">13.0067825317383</t>
   </si>
   <si>
     <t xml:space="preserve">13.0824031829834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.51722240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6212005615234</t>
+    <t xml:space="preserve">13.5172233581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6212015151978</t>
   </si>
   <si>
     <t xml:space="preserve">13.6590118408203</t>
@@ -3725,19 +3725,19 @@
     <t xml:space="preserve">12.9973297119141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9406147003174</t>
+    <t xml:space="preserve">12.9406137466431</t>
   </si>
   <si>
     <t xml:space="preserve">12.7042989730835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6759414672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7893714904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6192264556885</t>
+    <t xml:space="preserve">12.6759405136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7893724441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6192255020142</t>
   </si>
   <si>
     <t xml:space="preserve">12.6003198623657</t>
@@ -3758,16 +3758,16 @@
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0237112045288</t>
+    <t xml:space="preserve">12.6286783218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0237121582031</t>
   </si>
   <si>
     <t xml:space="preserve">12.146595954895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8630170822144</t>
+    <t xml:space="preserve">11.8630180358887</t>
   </si>
   <si>
     <t xml:space="preserve">11.8063011169434</t>
@@ -3776,7 +3776,7 @@
     <t xml:space="preserve">11.5416288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8799467086792</t>
+    <t xml:space="preserve">10.8799457550049</t>
   </si>
   <si>
     <t xml:space="preserve">11.0028305053711</t>
@@ -3785,7 +3785,7 @@
     <t xml:space="preserve">11.3431243896484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8252077102661</t>
+    <t xml:space="preserve">11.8252067565918</t>
   </si>
   <si>
     <t xml:space="preserve">11.6834173202515</t>
@@ -3800,31 +3800,31 @@
     <t xml:space="preserve">11.6518430709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8151416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8247480392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.940016746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4107007980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1129217147827</t>
+    <t xml:space="preserve">11.8151407241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8247470855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9400177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.410701751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1129207611084</t>
   </si>
   <si>
     <t xml:space="preserve">11.920804977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.016863822937</t>
+    <t xml:space="preserve">12.0168628692627</t>
   </si>
   <si>
     <t xml:space="preserve">12.2377967834473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050384521484</t>
+    <t xml:space="preserve">12.3050374984741</t>
   </si>
   <si>
     <t xml:space="preserve">12.4010953903198</t>
@@ -3836,7 +3836,7 @@
     <t xml:space="preserve">11.4116973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9890413284302</t>
+    <t xml:space="preserve">10.9890422821045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7969255447388</t>
@@ -3845,16 +3845,16 @@
     <t xml:space="preserve">11.2964277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8161382675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0658893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1235227584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2676105499268</t>
+    <t xml:space="preserve">10.8161373138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0658884048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1235237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2676095962524</t>
   </si>
   <si>
     <t xml:space="preserve">11.1619462966919</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">11.7479000091553</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382946014404</t>
+    <t xml:space="preserve">11.7382955551147</t>
   </si>
   <si>
     <t xml:space="preserve">11.6134195327759</t>
@@ -3890,19 +3890,19 @@
     <t xml:space="preserve">12.6604528427124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8141450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198093414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9678382873535</t>
+    <t xml:space="preserve">12.8141460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198083877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9678373336792</t>
   </si>
   <si>
     <t xml:space="preserve">12.823751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8045387268066</t>
+    <t xml:space="preserve">12.804539680481</t>
   </si>
   <si>
     <t xml:space="preserve">13.0446844100952</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">13.1311368942261</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2848291397095</t>
+    <t xml:space="preserve">13.2848300933838</t>
   </si>
   <si>
     <t xml:space="preserve">13.4577341079712</t>
@@ -3920,13 +3920,13 @@
     <t xml:space="preserve">13.7651205062866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.91881275177</t>
+    <t xml:space="preserve">13.9188117980957</t>
   </si>
   <si>
     <t xml:space="preserve">13.8611783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9092063903809</t>
+    <t xml:space="preserve">13.9092073440552</t>
   </si>
   <si>
     <t xml:space="preserve">14.0052652359009</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">13.957236289978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0436878204346</t>
+    <t xml:space="preserve">14.0436887741089</t>
   </si>
   <si>
     <t xml:space="preserve">13.976448059082</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">13.938024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6018218994141</t>
+    <t xml:space="preserve">13.6018209457397</t>
   </si>
   <si>
     <t xml:space="preserve">13.2752237319946</t>
@@ -3974,31 +3974,31 @@
     <t xml:space="preserve">13.1983766555786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1023197174072</t>
+    <t xml:space="preserve">13.1023187637329</t>
   </si>
   <si>
     <t xml:space="preserve">13.3232526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3040418624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3424654006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1503486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0062608718872</t>
+    <t xml:space="preserve">13.3040409088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3424644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1503477096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0062618255615</t>
   </si>
   <si>
     <t xml:space="preserve">12.7372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1695604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8621740341187</t>
+    <t xml:space="preserve">13.1695594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.862174987793</t>
   </si>
   <si>
     <t xml:space="preserve">12.8525686264038</t>
@@ -4013,7 +4013,7 @@
     <t xml:space="preserve">12.372278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0841045379639</t>
+    <t xml:space="preserve">12.0841035842896</t>
   </si>
   <si>
     <t xml:space="preserve">11.9496221542358</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">11.3444566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7873201370239</t>
+    <t xml:space="preserve">10.7873191833496</t>
   </si>
   <si>
     <t xml:space="preserve">10.7777147293091</t>
@@ -4040,10 +4040,10 @@
     <t xml:space="preserve">10.7296848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8929834365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6240224838257</t>
+    <t xml:space="preserve">10.8929843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6240215301514</t>
   </si>
   <si>
     <t xml:space="preserve">11.2195816040039</t>
@@ -4058,16 +4058,16 @@
     <t xml:space="preserve">11.3636684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1907634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9025897979736</t>
+    <t xml:space="preserve">11.1907644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9025907516479</t>
   </si>
   <si>
     <t xml:space="preserve">11.0274648666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2099761962891</t>
+    <t xml:space="preserve">11.2099752426147</t>
   </si>
   <si>
     <t xml:space="preserve">11.5749959945679</t>
@@ -4076,7 +4076,7 @@
     <t xml:space="preserve">11.5365724563599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1321325302124</t>
+    <t xml:space="preserve">12.1321334838867</t>
   </si>
   <si>
     <t xml:space="preserve">12.2570085525513</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">12.0072574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3818836212158</t>
+    <t xml:space="preserve">12.3818845748901</t>
   </si>
   <si>
     <t xml:space="preserve">12.3914890289307</t>
@@ -4106,7 +4106,7 @@
     <t xml:space="preserve">13.0158672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791667938232</t>
+    <t xml:space="preserve">13.1791658401489</t>
   </si>
   <si>
     <t xml:space="preserve">12.9582328796387</t>
@@ -4115,7 +4115,7 @@
     <t xml:space="preserve">12.7469053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0542907714844</t>
+    <t xml:space="preserve">13.0542898178101</t>
   </si>
   <si>
     <t xml:space="preserve">13.3328590393066</t>
@@ -4133,25 +4133,25 @@
     <t xml:space="preserve">13.8131494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2165937423706</t>
+    <t xml:space="preserve">14.2165927886963</t>
   </si>
   <si>
     <t xml:space="preserve">14.1109285354614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284191131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6210327148438</t>
+    <t xml:space="preserve">13.9284181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6210336685181</t>
   </si>
   <si>
     <t xml:space="preserve">13.7747259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.841965675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0244779586792</t>
+    <t xml:space="preserve">13.8419666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0244770050049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5720081329346</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">13.8515720367432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6402435302734</t>
+    <t xml:space="preserve">13.6402444839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.5441865921021</t>
@@ -4199,7 +4199,7 @@
     <t xml:space="preserve">14.0628995895386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0340814590454</t>
+    <t xml:space="preserve">14.0340824127197</t>
   </si>
   <si>
     <t xml:space="preserve">14.370285987854</t>
@@ -4211,7 +4211,7 @@
     <t xml:space="preserve">14.312650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3894968032837</t>
+    <t xml:space="preserve">14.389497756958</t>
   </si>
   <si>
     <t xml:space="preserve">14.0821113586426</t>
@@ -4223,25 +4223,25 @@
     <t xml:space="preserve">13.7170906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3991031646729</t>
+    <t xml:space="preserve">14.3991022109985</t>
   </si>
   <si>
     <t xml:space="preserve">14.8793926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1003265380859</t>
+    <t xml:space="preserve">15.1003274917603</t>
   </si>
   <si>
     <t xml:space="preserve">15.1675672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3500776290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3404722213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0234813690186</t>
+    <t xml:space="preserve">15.350076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3404731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0234804153442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0522985458374</t>
@@ -4259,7 +4259,7 @@
     <t xml:space="preserve">15.0619039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1291437149048</t>
+    <t xml:space="preserve">15.1291446685791</t>
   </si>
   <si>
     <t xml:space="preserve">15.0907211303711</t>
@@ -4271,13 +4271,13 @@
     <t xml:space="preserve">14.9850578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1387500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0138750076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1963844299316</t>
+    <t xml:space="preserve">15.1387510299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0138740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.196385383606</t>
   </si>
   <si>
     <t xml:space="preserve">15.4365301132202</t>
@@ -4286,7 +4286,7 @@
     <t xml:space="preserve">15.3116540908813</t>
   </si>
   <si>
-    <t xml:space="preserve">15.21559715271</t>
+    <t xml:space="preserve">15.2155961990356</t>
   </si>
   <si>
     <t xml:space="preserve">15.4557418823242</t>
@@ -4295,25 +4295,25 @@
     <t xml:space="preserve">14.68727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4855546951294</t>
+    <t xml:space="preserve">14.4855556488037</t>
   </si>
   <si>
     <t xml:space="preserve">14.8121528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922155380249</t>
+    <t xml:space="preserve">13.5922145843506</t>
   </si>
   <si>
     <t xml:space="preserve">11.7671117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.623025894165</t>
+    <t xml:space="preserve">11.6230249404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5173606872559</t>
+    <t xml:space="preserve">11.5173616409302</t>
   </si>
   <si>
     <t xml:space="preserve">11.526967048645</t>
@@ -4340,13 +4340,13 @@
     <t xml:space="preserve">11.3540620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4693326950073</t>
+    <t xml:space="preserve">11.469331741333</t>
   </si>
   <si>
     <t xml:space="preserve">11.2387933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3252449035645</t>
+    <t xml:space="preserve">11.3252458572388</t>
   </si>
   <si>
     <t xml:space="preserve">11.2772159576416</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">11.113917350769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2003698348999</t>
+    <t xml:space="preserve">11.2003688812256</t>
   </si>
   <si>
     <t xml:space="preserve">11.1427354812622</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">10.6432332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5663862228394</t>
+    <t xml:space="preserve">10.5663871765137</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452299118042</t>
@@ -5031,6 +5031,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.38500022888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46500015258789</t>
   </si>
 </sst>
 </file>
@@ -22108,7 +22111,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G644" t="s">
-        <v>458</v>
+        <v>550</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22134,7 +22137,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G645" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22160,7 +22163,7 @@
         <v>7.08500003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22186,7 +22189,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G647" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22238,7 +22241,7 @@
         <v>7.25500011444092</v>
       </c>
       <c r="G649" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22290,7 +22293,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G651" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22342,7 +22345,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G653" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22368,7 +22371,7 @@
         <v>7.20499992370605</v>
       </c>
       <c r="G654" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22394,7 +22397,7 @@
         <v>7.14499998092651</v>
       </c>
       <c r="G655" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22420,7 +22423,7 @@
         <v>7.14499998092651</v>
       </c>
       <c r="G656" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22446,7 +22449,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G657" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22472,7 +22475,7 @@
         <v>7.125</v>
       </c>
       <c r="G658" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22524,7 +22527,7 @@
         <v>7.125</v>
       </c>
       <c r="G660" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22550,7 +22553,7 @@
         <v>7.18499994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22576,7 +22579,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G662" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22628,7 +22631,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G664" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22680,7 +22683,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G666" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22706,7 +22709,7 @@
         <v>7.07499980926514</v>
       </c>
       <c r="G667" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22732,7 +22735,7 @@
         <v>6.97499990463257</v>
       </c>
       <c r="G668" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22758,7 +22761,7 @@
         <v>6.97499990463257</v>
       </c>
       <c r="G669" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22836,7 +22839,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22862,7 +22865,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G673" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22888,7 +22891,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G674" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22940,7 +22943,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G676" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22966,7 +22969,7 @@
         <v>7.25500011444092</v>
       </c>
       <c r="G677" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23096,7 +23099,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G682" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -23122,7 +23125,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G683" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -23148,7 +23151,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G684" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -23174,7 +23177,7 @@
         <v>6.91499996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -23226,7 +23229,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G687" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -23252,7 +23255,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G688" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -23278,7 +23281,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G689" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -23304,7 +23307,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G690" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -23330,7 +23333,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G691" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23356,7 +23359,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G692" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -23382,7 +23385,7 @@
         <v>5.7350001335144</v>
       </c>
       <c r="G693" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23408,7 +23411,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G694" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -23434,7 +23437,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G695" t="s">
-        <v>580</v>
+        <v>406</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23486,7 +23489,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G697" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -61324,7 +61327,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6493634259</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>209649</v>
@@ -61345,6 +61348,32 @@
         <v>1672</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6495486111</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>66235</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>9.56999969482422</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>9.35999965667725</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>9.42500019073486</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>9.46500015258789</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1678">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,3220 +38,3220 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14659810066223</t>
+    <t xml:space="preserve">2.06393694877625</t>
   </si>
   <si>
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19815945625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18187665939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14388394355774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11945986747742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06789827346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1086049079895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09774994850159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00819516181946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03370451927185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00765252113342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06247067451477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06138491630554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04618811607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04564523696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10534858703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04944467544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06355619430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02176427841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94035065174103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97020208835602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98214292526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95663285255432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97562992572784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95934689044952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98919880390167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99896800518036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98648500442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13845634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11674618721008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13031506538391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14062714576721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21986985206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15473937988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18676161766052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14931154251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19164633750916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19273233413696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20087337493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19544553756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19870233535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21607065200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23072481155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27143168449402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20358729362488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19218921661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17644906044006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15202522277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13302898406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11783170700073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16830801963806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18730401992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17102193832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16016674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11131882667542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09829258918762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11403250694275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11457490921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16505122184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17156457901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20901465415955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20304441452026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22529721260071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29314184188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30128335952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34470319747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30725312232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27360248565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26329040527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27414512634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29585576057434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28011560440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37184143066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40060687065125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37726879119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50318789482117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55800628662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57320356369019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62205171585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58568692207336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67307066917419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72425150871277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7259202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76096749305725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7470600605011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78155136108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85498404502869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87723636627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02410221099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05525517463684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06860733032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01075077056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90393924713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98182272911072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97069668769836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96179556846619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88168668746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82605576515198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79712772369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75484824180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84830832481384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92841672897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04857993125916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91061496734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83718204498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92619156837463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98404788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03745341300964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05748081207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03967905044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06415677070618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04412937164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10198569297791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11533713340759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13758993148804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22659921646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37123990058899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38014078140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41574501991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36456394195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36011362075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3334105014801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31560897827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36233901977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35121321678162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32895994186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33786106109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24440121650696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32673478126526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33118534088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40461897850037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42464566230774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41796970367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39794278144836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3578884601593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34453725814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42687082290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3934919834137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34898781776428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38681626319885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38236594200134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21992349624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2599778175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28000473976135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32228469848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27110409736633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29335641860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15984201431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40684390068054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33563613891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27555418014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44689750671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50697922706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67164731025696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76065707206726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86969375610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99430727958679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09889364242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18345260620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08331727981567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04548788070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20570611953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28581380844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43267965316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3280930519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35702180862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57286977767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7931694984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75978994369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74866437911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86437702178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06242275238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05129671096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82432222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8465747833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84212398529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74643898010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6730055809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47050905227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44603109359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43713045120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32141733169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28358840942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17900228500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31919240951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33921957015991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46160745620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45048189163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43490409851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76201486587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73976230621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7375373840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71751022338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75088930130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82654714584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69525814056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76646518707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69080781936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61069869995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62405061721802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83767366409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74421405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89107942581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87995290756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85102510452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87105178833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21151351928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50524568557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40733480453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36728143692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3450288772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34280300140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31832504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14698171615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22264003753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34057807922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39175891876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42736196517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28494739532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25824356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17368459701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01791858673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20261287689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15143251419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22709035873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21373987197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20483827590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24044179916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22931623458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15588331222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06687307357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13808107376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09802675247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99344110488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97341346740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96228647232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95338582992554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90665578842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83989906311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89552974700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84880018234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86215114593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78426790237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92668294906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02681922912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25156784057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19593715667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31164979934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23154163360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20706367492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41846084594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50302076339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53639888763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67436408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8078784942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76337337493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97254657745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04152870178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07490682601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24847650527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94139337539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00815010070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88576221466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.890212059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01927614212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02595233917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10828638076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23067426681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07935810089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12163782119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13721466064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11941194534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17504358291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19061994552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2173228263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09493398666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20842218399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27517986297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56446027755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40646839141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67349720001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68684864044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73357820510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9538779258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0540132522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16527605056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22090625762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27431154251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48125982284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28766441345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38334894180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38112306594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26986169815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45455741882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53911638259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52576494216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44565629959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46568250656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35442066192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6089653968811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36418914794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61564064025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54220819473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.758056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64011859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66682100296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72245216369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66833019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70666646957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75853395462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69313621520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59616708755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70215654373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06973791122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91188049316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97276878356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55783033370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72921705245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64803409576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.562340259552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6299934387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49694204330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4743914604187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57587099075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46762657165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47213697433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5149827003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2962384223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27819728851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2736873626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08876943588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04366731643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03239154815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06847333908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91287136077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09102487564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05043268203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06396293640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07298421859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96473932266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97601461410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12034130096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82266712188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62872886657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59039258956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73246335983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86325979232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88806629180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02111673355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84070825576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84747314453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71442317962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68059682846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50469923019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66706609725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56333112716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57009649276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51822900772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53852462768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61294269561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68285179138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6016674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64902448654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57911682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53176021575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61068820953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69187164306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86551475524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78884172439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93091201782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99856567382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85649490356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21956539154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10004472732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93316745758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76178026199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68736124038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64226007461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59941291809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61519861221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47989177703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41449451446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34458684921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35586166381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36939239501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53401517868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5159740447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39419889450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3378210067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25438213348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23183155059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32203578948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28144359588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24536180496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24987268447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14839267730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11682176589966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07397508621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06720876693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08073997497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15966844558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30850553512573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39194345474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34007596969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3603720664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22957611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14162731170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97926044464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83042335510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81463813781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75375032424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04014778137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33331108093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72795295715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93993234634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97375965118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89483070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03464651107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99405574798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9038519859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9466986656189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77756595611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76403474807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82492256164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70765686035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15642261505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33006572723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19701385498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27594232559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26015710830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15867710113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09553575515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1676983833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93767738342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00984048843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03013706207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95346307754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87002468109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77531051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74148464202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75952577590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15191221237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98503494262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84521818161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97150421142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.165442943573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17897319793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08425951004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0752387046814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42703437805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42252397537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35938119888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66607522964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51272773742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30525922775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23309564590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22407531738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67834138870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24662685394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0526876449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9218921661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79560708999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80913734436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54754543304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89032077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00307607650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11132049560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09327983856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31427955627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4089937210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49468755722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87354421615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83295202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08101320266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05846214294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26142168045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13062572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25691175460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02238082885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10356426239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38770723342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30652332305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20278882980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27044200897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21631908416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65831851959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48693180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34260511398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60419702529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44182968139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41927862167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2794623374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22082948684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4102578163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37417602539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35162496566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37868642807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62674713134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7891149520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73048114776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70342016220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5636043548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72146272659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59066581726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5500750541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22533988952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77431964874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99080896377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78334045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66156530380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76529884338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68862628936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86001348495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52302837371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44531869888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74244356155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81101036071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74701452255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77901268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69216156005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8064398765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7241587638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62816429138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86129379272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90243339538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90700483322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76072835922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63730716705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62359380722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59159517288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55959749221802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45903205871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36303806304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35846662521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25790214538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960765838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27618646621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31732654571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34018230438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48645925521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38589382171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34932518005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47731685638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73330116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63273572921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67387628555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58245325088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5870246887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53217077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54131317138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51388597488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5687403678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57331132888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64644956588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46817445755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37675142288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32646894454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41789245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.605309009552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78815507888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23504638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53674221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32189798355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11619663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59508514404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45338010787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35738515853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19282388687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08311653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24310731887817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12882852554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1882529258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16539716720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09682989120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03740549087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84084606170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68999814987183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71742486953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85455942153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81799030303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46829700469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21916961669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30145072937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20545625686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13003253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14374589920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04546642303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17345809936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24659633636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22145509719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10717630386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95404314994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78719615936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83976411819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90147471427917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81690883636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9220449924469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93118762969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05232286453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24888229370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09117746353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01118278503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01803874969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02946710586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95861434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94718623161316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92890191078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53121161460876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43293237686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31408214569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09923839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10838055610657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23180198669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45807361602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46264457702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3415093421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29808354377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5289261341095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46950149536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56549549102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59292268753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39179182052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31865358352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17923331260681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9918167591095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99638748168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07638263702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17237687110901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10609531402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02152895927429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9483904838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98953104019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83868336677551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80897068977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85011100769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89582228660583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95296168327332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14037895202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17466259002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23865842819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30036902427673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22951602935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29351234436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30722570419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25694298744202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2637996673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39407753944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62034940719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55635333061218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61120700836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57235240936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69120192527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74605584144592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65463304519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58835101127625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59977912902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66148972511292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51292729377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60206460952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66377544403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7757682800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70262980461121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69348740577698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7849109172821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88776111602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98146963119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85576343536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91747426986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94261574745178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02718162536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07975006103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15974473953247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22374057769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18260049819946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34487628936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28087997436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03632402420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09346294403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11631870269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06603622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32430553436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3768744468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4797248840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52543640136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45001268386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25802421569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29687881469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3723030090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.294593334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33116292953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38601684570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34259080886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33344841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34716176986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29230785369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16431570053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24431133270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27859449386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36316108703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05918025970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02032423019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98604106903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08432149887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12774658203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12546110153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10489082336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00432586669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96318578720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85119223594666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85804891586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73234272003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93575811386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18945741653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90833163261414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04407072067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96683955192566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84514284133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82876110076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84748363494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77025318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75387120246887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81471920013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9270544052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95747828483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01130628585815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05343151092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98322176933289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03704977035522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95981884002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99258327484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07215404510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13066148757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28980398178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24533748626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1821494102478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20321178436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19151020050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2359766960144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28044271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37171506881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37873601913452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40915966033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50511312484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39745807647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44660520553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33895063400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42788219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3319296836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31554698944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28746318817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34129047393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26639986038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14938449859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18916988372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24299716949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25469875335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20087194442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2149133682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16576623916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09555721282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14470386505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05811262130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03236865997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93173456192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97152042388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96215891838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93641567230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03938961029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08853578567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06981372833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22193479537964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2055516242981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25937938690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13300228118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14236402511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27810192108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22661447525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15172481536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43958425521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43256330490112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41384029388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70404052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11125516891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28911972045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44826126098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4763445854187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75250291824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60740232467651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50910997390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73377990722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83207321166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67761278152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57463836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60272264480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38273239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39209413528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48102569580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5699577331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46230316162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59336090087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57931900024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68229341506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82271194458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85547685623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05674362182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86951875686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90696334838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85079622268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80398988723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84143495559692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93504762649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83675479888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94909000396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0286602973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18312168121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25801181793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36098527908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22056674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12695407867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15503740310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37970781326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86181402206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25966787338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35796165466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4468936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77921915054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78389835357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88219213485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00857067108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84006595611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79326009750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32519674301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44221305847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58263158798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51710271835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45157384872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43753147125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27370929718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31115484237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4281702041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55922794342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54050636291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74177312850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09282207489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03197288513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84474802017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73241186141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83538579940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52646398544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61539697647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2783899307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57795143127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41880989074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46561574935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3813648223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69496726989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60135459899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65284204483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68560552597046</t>
+    <t xml:space="preserve">2.11351323127747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09785771369934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06132769584656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03784394264221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98826789855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02740693092346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01697015762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93086385726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95539093017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93034207820892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98304951190948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98200535774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96739363670349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96687197685242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0242760181427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97052478790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98409330844879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94391024112701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86563205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8943338394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581500530243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88128769397736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89955258369446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88389682769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91259920597076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92199242115021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9099897146225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0561089515686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0352349281311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04828119277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05819654464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13438749313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07176518440247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10255432128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06654596328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10725092887878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10829472541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11612248420715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11090421676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11403465270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13073444366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14482474327087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18396377563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11873173713684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10777282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09263896942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06915545463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05089020729065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03627848625183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08481121063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10307621955872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08742070198059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07698345184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03001618385315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01749181747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03262567520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03314709663391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0816798210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08794212341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12395024299622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11821007728577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1396062374115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20483756065369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21266579627991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25441455841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21840620040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18605089187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17613577842712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18657326698303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20744705200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19231343269348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28050684928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30816531181335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28572535514832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40679574012756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4595034122467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47411513328552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52108192443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48611783981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57013630867004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61934614181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62095069885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65464854240417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64127659797668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6744396686554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74504446983337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76644062995911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9076509475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93760442733765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95044183731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89481353759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79211497306824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86699891090393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8563015460968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84774327278137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77071952819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71723079681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6894166469574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64876461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73862624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81565022468567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93118596076965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79853367805481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72792840003967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81351017951965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86913871765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92048764228821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9397439956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92262768745422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616293907166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92690706253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98253464698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99537229537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01676821708679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10234975814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24142050743103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24997878074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28421187400818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23500204086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23072290420532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20504856109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18793153762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23286247253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22216486930847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2007691860199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20932745933533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11946630477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19862985610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20290899276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27351403236389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29276990890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28635120391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2670955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22858357429504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21574592590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29490947723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2628161907196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22002553939819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25639796257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25211882591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0959312915802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13444304466248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15369892120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19435095787048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14514088630676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16653656959534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03816342353821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27565360069275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20718789100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14942002296448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3141655921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3719334602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53026032447815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61584234237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72067999839783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84049510955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94105434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0223560333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92607736587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88970518112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04375219345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12077665328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26198673248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16142749786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18924236297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39677858352661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60859441757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57650089263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56580305099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67705965042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86748027801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85678195953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63854789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6599440574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65566396713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56366348266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49305820465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29835939407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2748236656189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26626634597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15500926971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1186375617981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01807880401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15286922454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17212581634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2898006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27910375595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26412677764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57864046096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55724430084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55510520935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53584957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56794309616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64068794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51445388793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58291959762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5101752281189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43315029144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44598865509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65138530731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56152486801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70273494720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6920371055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.664222240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68347883224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01082992553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29325151443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19911050796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16059923171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1392035484314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13706302642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11352825164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9487829208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0215277671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13492441177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18413352966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2183666229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08143615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05576038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97445774078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82468843460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00227165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95306205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02580642700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01296949386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00441122055054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0386438369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02794647216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95734167098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87175941467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94022512435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9017128944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80115413665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78189849853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77119970321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76264190673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71771097183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65352487564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70701313018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66208362579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67492055892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60003614425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73696708679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83324718475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04934215545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99585294723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10710954666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03008604049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00655078887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20980834960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29111099243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3232045173645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45585680007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58422994613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54143905639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74255609512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80888319015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84097528457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00786161422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7126030921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77678966522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65911388397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66339349746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7874870300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79390621185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87306928634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99074459075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84525537490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88590669631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90088367462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88376712799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.937255859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.952232837677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97790765762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86023187637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96934938430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03353643417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3116774559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1597695350647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41651487350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42935276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47428369522095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6860990524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78237867355347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88935661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9428448677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99419355392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19317293167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00703191757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09903287887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09689235687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98991537094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16749811172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24880027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23596429824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15893936157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17819547653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07121801376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35446834564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11911821365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3608865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29028177261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49781847000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38442182540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41009712219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46358585357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41154718399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4484076499939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49827766418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43539810180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3421630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4440712928772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79749774932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64571905136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70426225662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30530166625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47009086608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39203310012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30963897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37468671798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24675941467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2250771522522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32264852523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21857213973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22290849685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26410531997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05378437042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03643846511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03210163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85430431365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81093883514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80009746551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83478975296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68518018722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85647296905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81744384765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83045387268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83912658691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73505020141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74589157104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88465976715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59844923019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41197872161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37511873245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51171922683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63747835159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66132926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78925609588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61579561233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62230014801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49437284469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46184873580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29272508621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44883871078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34909915924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35560464859009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30573415756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32524871826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39680099487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46401739120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3859601020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43149280548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36427783966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31874370574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3946328163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47269010543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63964653015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56592559814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70252561569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76757431030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63097333908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98006343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86514568328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70469427108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53990602493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46835374832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42498922348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38379096984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3989691734314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.268874168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20599412918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13877820968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14961957931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16262865066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32091236114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30356550216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18647909164429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13227319717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05204677581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03036499023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11709594726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07806634902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04337406158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04771184921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95013904571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91978359222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87858724594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87208127975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88509225845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96097993850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10408592224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18431186676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13444137573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15395593643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02819728851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94363451004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78751945495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6444149017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62923717498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57069396972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8460636138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12793731689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50738286972046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71119928359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7437219619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66783428192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80226612091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76323699951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67650699615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71770334243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55508470535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54207468032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60061740875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.487868309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91935205459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08630800247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95838069915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0342698097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01909208297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92151975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86080932617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93019342422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70903062820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77841520309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79792928695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72420835494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64398288726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55291604995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52039098739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53773832321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91501522064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75456380844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6201319694519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74155426025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9280252456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9410343170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84996747970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84129476547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17954254150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17520666122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11449575424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40937900543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26193761825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06245708465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99307250976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98439979553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45968055725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00608253479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8196120262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69385290145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57243061065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58544063568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33392190933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66349744796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77191019058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87598657608032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85864067077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07112979888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16219758987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24459075927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60885858535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5698299407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80833864212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78665637969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9818000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85604095458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97746324539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75196361541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83002185821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10322237014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02516555786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92542457580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99047327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93843412399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36341381072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19862604141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05985736846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31137561798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15526151657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13357830047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9991455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94277143478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12490558624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09021282196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06852960586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09454965591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33305835723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.489173412323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43279790878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40677928924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27234649658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42412519454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2983660697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25933742523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94710779190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51345539093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72160863876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52212858200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40504217147827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50478267669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43106126785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59584951400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27184104919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19712352752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48280620574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54873323440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48720169067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51796770095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43446063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54433870315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46522569656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37292909622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59708023071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63663625717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64103126525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50038766860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3817195892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36853265762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33776807785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30700159072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21030950546265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11801147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11361646652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01692295074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15317296981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03450393676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07405996322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09603595733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23667907714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13998699188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1048264503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22788953781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4740161895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37732410430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41688013076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32897710800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33337306976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28063106536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28942108154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26305055618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31579256057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32018709182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39050912857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21909952163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13119649887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08285093307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17075347900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3509521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52675867080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99494791030884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28502655029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07845544815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88067436218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37963104248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24338150024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15108442306519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99285984039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88737678527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04120635986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93132877349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98846530914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9664888381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90056133270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84342527389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6544361114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50939655303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53576707839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66762065887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63246011734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29623317718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0566987991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13581085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04351329803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97099351882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9841787815094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88968396186829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01274681091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08306980133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0588960647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94901776313782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80178165435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64135932922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69190359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7512378692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66992831230164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77101564407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980613708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89627647399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08526706695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93363571166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85672044754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86331343650818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87430095672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80617642402649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79518914222717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77760887145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39523267745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30073761940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18646454811096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97989344596863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98868370056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1073522567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32491064071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32930564880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21283483505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17108154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39303517341614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33589863777161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42819595336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45456695556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26118135452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1908597946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05680823326111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87660813331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88100337982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95791816711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05021572113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98648619651794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90517640113831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83485412597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87441062927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72937154769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70080327987671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74035930633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78431057929993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83924961090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01944947242737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05241322517395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11394476890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17327857017517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10515475273132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16668653488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17987179756165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13152527809143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13811802864075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26337933540344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48093771934509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4194061756134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4721474647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43478894233704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5490620136261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60180330276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51390099525452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45017194747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46115970611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52049398422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37765216827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4633572101593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52269148826599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63037180900574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56005001068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55125951766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63916182518005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73805236816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82815194129944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70728659629822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76662015914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79079389572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87210321426392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92264747619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99956250190735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06109428405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02153778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17756462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11603307723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88089346885681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93583273887634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95780873298645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90946197509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15778636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20833015441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30722093582153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35117197036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27865266799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09405660629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13141536712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20393514633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12921857833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16438007354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21712017059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17536687850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16657733917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17976236343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12702035903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00395774841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08087158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11383533477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19514465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90286946296692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86551070213318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83254790306091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92704248428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96879625320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96659803390503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9468207359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85012769699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81057167053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70289134979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70948386192322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58861804008484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78420090675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02813053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75783014297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88834238052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81408548355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6970751285553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68132400512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69932532310486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62506890296936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60931754112244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66782236099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7758321762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80508470535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8568389415741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89734220504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82983708381653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88159155845642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80733466148376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83883738517761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91534423828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97159910202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12461280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08185863494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0211033821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04135513305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03010416030884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07285833358765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1156120300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20336961746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21012020111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23937273025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33163118362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22812175750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2753758430481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17186689376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25737428665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16511631011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14936494827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12236261367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411661148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10211038589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98960089683533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02785491943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07960796356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09085988998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0391058921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0526065826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00535202026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93784594535828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98510003089905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90184283256531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87709069252014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78033232688904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81858587265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80958485603333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78483271598816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88384175300598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93109560012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91309380531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05935668945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0436053276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09536075592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97384929656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98284983634949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11336183547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06385707855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99185109138489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26862525939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26187515258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24387359619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52289772033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91443204879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08544683456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23846101760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26546287536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53098678588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39147424697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29696607589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51298427581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60749292373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45898008346558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35997152328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38697385787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17545557022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18445634841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26996326446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35547065734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25196170806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37797212600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36447238922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46348094940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59849262237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62999534606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82351207733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64349603652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67949962615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62549448013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.580491065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61649370193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70650196075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61199331283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7200026512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79651021957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94502258300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01702880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11603784561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98102617263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89101791381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91802024841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13403940200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59757995605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98011350631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07462215423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16012954711914</t>
   </si>
   <si>
     <t xml:space="preserve">7.47965812683105</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33455801010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18477773666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65586614608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66054582595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88989782333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94606494903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86649417877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91798114776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76352024078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1800971031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04435873031616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04903936386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9788293838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95074605941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82436847686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98351001739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91330099105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78224277496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25333070755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09887027740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91632509231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76186370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89760208129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84611511230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59804153442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.228271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85850048065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69935894012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74148559570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30384540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89897060394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74450945854187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39346170425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29516839981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25304245948792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29750895500183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51983904838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08151531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94811725616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69302248954773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58068752288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75153064727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69770312309265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79131579399109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70238351821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8802478313446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82408022880554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15640592575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1189603805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47936964035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20789289474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10023784637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26406002044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18448925018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58702421188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55425977706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45596694946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36235332489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35767364501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4185209274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45128583908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40447950363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39979839324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26874113082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77425003051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62446928024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58234357833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48405027389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52149534225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85616064071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0667896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00828075408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99658012390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16040229797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30082082748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34762763977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60506296157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4646430015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27741765975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04338598251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13699913024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31252288818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4295392036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37103128433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51144981384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3242244720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26571607589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25401496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39443397521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35932922363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20720911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03168439865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12529706954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23061180114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17210340499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3359260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18380498886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21891021728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24231338500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44124031066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45294141769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14870071411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19550752639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0784912109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05508804321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09019231796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94977378845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01998281478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10189390182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11359596252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68063688278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28278255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30618619918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1704478263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39511823654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43724346160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71574115753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66357135772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74548149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88590097427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86249780654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81569147109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76888465881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7922887802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02631998062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82739305496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94440889358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2837553024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09652948379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08482789993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00291681289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04972314834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22524690628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33056163787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26035213470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2954568862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31886005401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21354484558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27205324172974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35396432876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49438381195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45927906036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50608491897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62310123443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66990756988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6816086769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70501279830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75181913375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72841548919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77522230148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55289173126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48268222808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61139965057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43587589263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34226274490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56459283828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64650392532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81032657623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65820598602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93904399871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90393924713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83372974395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85713291168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92734241485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84543132781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5411901473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51778697967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47098016738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5294885635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69331121444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02095508575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95708227157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94538116455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42514610290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35493659973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19111442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16771125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2379207611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20281600952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30813121795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28472805023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21451759338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17941379547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10920429229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26132297515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4953556060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4836540222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47195339202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51875877380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46025085449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33153247833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29642868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36663913726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53046131134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41344451904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34323596954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24962139129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39004135131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12090587615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13260650634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01559162139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09750175476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99218845367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03899383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56556510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36127376556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1974515914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4080810546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6889181137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86615467071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81889152526855</t>
+    <t xml:space="preserve">7.48415803909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57866621017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70017719268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53816318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49315929412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04311943054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15562915802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29064130783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22763538360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1646294593811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15112924575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99361515045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02961826324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1421275138855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26813888549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25013780593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44365501403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78118467330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72267913818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54266357421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43465423583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53366279602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2366361618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32214450836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99811506271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28614091873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13312768936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17813110351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09712409973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39865064620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30864286422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35814714431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38964939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19163227081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05212020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90810775756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39956283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40406322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62458276748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67858791351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60208034515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65158462524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50307178497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90360736846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77309560775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77759695053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71008968353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6830883026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56157732009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71459054946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64708423614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52107286453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01252889633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86401605606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68850040435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53998756408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67049837112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62099409103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38247346878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02694225311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67141103744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51839733123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55890130996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13811349868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74882936477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60031676292419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26278686523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16827869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12777495384216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17052912712097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38429760932922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92434525489807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79608416557312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55081224441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44280290603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60706734657288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55531287193298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64532065391541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55981302261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73082828521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67682337760925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99635148048401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96034789085388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30687856674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04585599899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94234657287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09986066818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02335357666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41038799285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37888479232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2843770980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19436931610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18986845016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24837303161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27987623214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23487234115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23037147521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10436105728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59040355682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44639158248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40588760375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31137943267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34738206863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66916036605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87167835235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81542301177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80417251586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96168661117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09669828414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14170169830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3892240524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25421190261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07419633865356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84917640686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93918418884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10794925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22045946121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16420412063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29921579360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11920070648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0629448890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05169439315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18670606613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15295314788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00669050216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83792543411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92793321609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02919244766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97293710708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13045072555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98418855667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01794099807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.040442943573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2317099571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24296140670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95043563842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99543952941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88293027877808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86042785644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8941798210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75916862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82667446136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90543127059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91668176651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50039625167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11786222457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14036417007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00985288619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22587156295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26637506484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53414821624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44547891616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52423524856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65924739837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63674545288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59174203872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54673767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5692400932312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79425954818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60299253463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71550273895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04178142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86176538467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85051441192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77175760269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81676149368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98552656173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08678483963013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01927900314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05303239822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07553434371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97427463531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03053045272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10928773880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24429893493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21054601669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25554990768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36805963516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41306400299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42431497573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44681692123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4918212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46931838989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51432323455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3005542755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23304748535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35680818557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18804407119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09803628921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31180477142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54807615280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40181350708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67183685302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63808345794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57057857513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59307909011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66058588027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58182859420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28930330276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26680135726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22179698944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27805185317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43556594848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7505931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65067291259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63942289352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10071182250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03320693969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87569189071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85319089889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92069578170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88694334030151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9882025718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96569967269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89819383621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86444234848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79693555831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94319820404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16821765899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15696716308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14571666717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19072151184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13446521759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01070404052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97695112228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04445743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20197200775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08946132659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0219554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9319486618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06695938110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80818796157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81943798065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70692825317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78568410873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68442678451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72942924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23572444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00079250335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84327697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04579544067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31581974029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48623180389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44078826904297</t>
   </si>
   <si>
     <t xml:space="preserve">9.99612808227539</t>
@@ -3260,10 +3260,10 @@
     <t xml:space="preserve">9.92523288726807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3033380508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5160217285156</t>
+    <t xml:space="preserve">10.303337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5160207748413</t>
   </si>
   <si>
     <t xml:space="preserve">10.5278367996216</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">10.7759675979614</t>
   </si>
   <si>
-    <t xml:space="preserve">10.728705406189</t>
+    <t xml:space="preserve">10.7287044525146</t>
   </si>
   <si>
     <t xml:space="preserve">10.5632848739624</t>
@@ -3293,46 +3293,46 @@
     <t xml:space="preserve">10.6341791152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5987319946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9768352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7050733566284</t>
+    <t xml:space="preserve">10.5987310409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9768362045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7050724029541</t>
   </si>
   <si>
     <t xml:space="preserve">10.6105480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269701004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4923906326294</t>
+    <t xml:space="preserve">10.3269691467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4923896789551</t>
   </si>
   <si>
     <t xml:space="preserve">10.6223640441895</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2797069549561</t>
+    <t xml:space="preserve">10.2797060012817</t>
   </si>
   <si>
     <t xml:space="preserve">10.1733636856079</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2442588806152</t>
+    <t xml:space="preserve">10.2442598342896</t>
   </si>
   <si>
     <t xml:space="preserve">10.3742332458496</t>
   </si>
   <si>
-    <t xml:space="preserve">10.291522026062</t>
+    <t xml:space="preserve">10.2915210723877</t>
   </si>
   <si>
     <t xml:space="preserve">10.3151540756226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3387861251831</t>
+    <t xml:space="preserve">10.3387851715088</t>
   </si>
   <si>
     <t xml:space="preserve">10.4805736541748</t>
@@ -3356,7 +3356,7 @@
     <t xml:space="preserve">10.3978633880615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3624172210693</t>
+    <t xml:space="preserve">10.3624153137207</t>
   </si>
   <si>
     <t xml:space="preserve">11.437650680542</t>
@@ -3365,7 +3365,7 @@
     <t xml:space="preserve">11.7590379714966</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1673917770386</t>
+    <t xml:space="preserve">12.1673908233643</t>
   </si>
   <si>
     <t xml:space="preserve">12.163610458374</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968482971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6815271377563</t>
+    <t xml:space="preserve">11.7968492507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6815280914307</t>
   </si>
   <si>
     <t xml:space="preserve">11.834659576416</t>
@@ -3401,7 +3401,7 @@
     <t xml:space="preserve">11.6456069946289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.721227645874</t>
+    <t xml:space="preserve">11.7212285995483</t>
   </si>
   <si>
     <t xml:space="preserve">12.3640050888062</t>
@@ -3410,22 +3410,22 @@
     <t xml:space="preserve">12.1182374954224</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3261947631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3072910308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5152463912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5719633102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1560478210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2147397994995</t>
+    <t xml:space="preserve">12.3261957168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3072900772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5152473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5719623565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1560468673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2147388458252</t>
   </si>
   <si>
     <t xml:space="preserve">13.9142322540283</t>
@@ -3434,16 +3434,16 @@
     <t xml:space="preserve">14.1599998474121</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0087575912476</t>
+    <t xml:space="preserve">14.0087585449219</t>
   </si>
   <si>
     <t xml:space="preserve">13.4416027069092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8008012771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1221895217896</t>
+    <t xml:space="preserve">13.800802230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1221885681152</t>
   </si>
   <si>
     <t xml:space="preserve">14.027663230896</t>
@@ -3458,10 +3458,10 @@
     <t xml:space="preserve">14.0465679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7062759399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0654745101929</t>
+    <t xml:space="preserve">13.7062749862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0654735565186</t>
   </si>
   <si>
     <t xml:space="preserve">13.7251806259155</t>
@@ -3473,13 +3473,13 @@
     <t xml:space="preserve">12.7610149383545</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2525510787964</t>
+    <t xml:space="preserve">13.2525501251221</t>
   </si>
   <si>
     <t xml:space="preserve">13.3848867416382</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1769285202026</t>
+    <t xml:space="preserve">13.176929473877</t>
   </si>
   <si>
     <t xml:space="preserve">13.6684646606445</t>
@@ -3488,13 +3488,13 @@
     <t xml:space="preserve">13.1958341598511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3659811019897</t>
+    <t xml:space="preserve">13.3659820556641</t>
   </si>
   <si>
     <t xml:space="preserve">14.7649660110474</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7858476638794</t>
+    <t xml:space="preserve">15.7858486175537</t>
   </si>
   <si>
     <t xml:space="preserve">15.8425636291504</t>
@@ -3503,16 +3503,16 @@
     <t xml:space="preserve">16.1261405944824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9201602935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.731107711792</t>
+    <t xml:space="preserve">16.9201583862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7311096191406</t>
   </si>
   <si>
     <t xml:space="preserve">16.9012546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6176776885986</t>
+    <t xml:space="preserve">16.61767578125</t>
   </si>
   <si>
     <t xml:space="preserve">16.7122039794922</t>
@@ -3530,13 +3530,13 @@
     <t xml:space="preserve">16.3530044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2584781646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614692687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047513961792</t>
+    <t xml:space="preserve">16.2584800720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614702224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047523498535</t>
   </si>
   <si>
     <t xml:space="preserve">16.2395725250244</t>
@@ -3551,22 +3551,22 @@
     <t xml:space="preserve">15.2375974655151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7460613250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8216829299927</t>
+    <t xml:space="preserve">14.7460622787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8216819763184</t>
   </si>
   <si>
     <t xml:space="preserve">14.5570087432861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9331378936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9520425796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6306533813477</t>
+    <t xml:space="preserve">13.9331369400024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9520435333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.630654335022</t>
   </si>
   <si>
     <t xml:space="preserve">14.2356204986572</t>
@@ -3587,16 +3587,16 @@
     <t xml:space="preserve">14.4624834060669</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1032848358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0843782424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5550327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8386116027832</t>
+    <t xml:space="preserve">14.1032838821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.084379196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5550336837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8386106491089</t>
   </si>
   <si>
     <t xml:space="preserve">13.6873693466187</t>
@@ -3605,19 +3605,19 @@
     <t xml:space="preserve">13.6495580673218</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2734308242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4435777664185</t>
+    <t xml:space="preserve">14.2734317779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4435768127441</t>
   </si>
   <si>
     <t xml:space="preserve">14.6137256622314</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5948190689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4246740341187</t>
+    <t xml:space="preserve">14.594820022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4246730804443</t>
   </si>
   <si>
     <t xml:space="preserve">13.2336444854736</t>
@@ -3629,31 +3629,31 @@
     <t xml:space="preserve">13.3470764160156</t>
   </si>
   <si>
-    <t xml:space="preserve">13.744086265564</t>
+    <t xml:space="preserve">13.7440853118896</t>
   </si>
   <si>
     <t xml:space="preserve">12.4774360656738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6664886474609</t>
+    <t xml:space="preserve">12.6664876937866</t>
   </si>
   <si>
     <t xml:space="preserve">13.4794130325317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7629909515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1013078689575</t>
+    <t xml:space="preserve">13.7629919052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1013088226318</t>
   </si>
   <si>
     <t xml:space="preserve">12.1749534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9122552871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6097736358643</t>
+    <t xml:space="preserve">12.9122562408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6097726821899</t>
   </si>
   <si>
     <t xml:space="preserve">12.0993328094482</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">12.4018154144287</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2127637863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9291849136353</t>
+    <t xml:space="preserve">12.2127628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9291858673096</t>
   </si>
   <si>
     <t xml:space="preserve">11.8535652160645</t>
@@ -3674,13 +3674,13 @@
     <t xml:space="preserve">12.2694787979126</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0426158905029</t>
+    <t xml:space="preserve">12.0426168441772</t>
   </si>
   <si>
     <t xml:space="preserve">12.288384437561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2316675186157</t>
+    <t xml:space="preserve">12.23166847229</t>
   </si>
   <si>
     <t xml:space="preserve">11.2675037384033</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">10.7381572723389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3620300292969</t>
+    <t xml:space="preserve">11.3620290756226</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804271697998</t>
@@ -3701,37 +3701,37 @@
     <t xml:space="preserve">11.6645135879517</t>
   </si>
   <si>
-    <t xml:space="preserve">12.950065612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0067825317383</t>
+    <t xml:space="preserve">12.9500665664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.006781578064</t>
   </si>
   <si>
     <t xml:space="preserve">13.0824031829834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5172233581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6212015151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6590127944946</t>
+    <t xml:space="preserve">13.51722240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6212005615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6590118408203</t>
   </si>
   <si>
     <t xml:space="preserve">12.9973297119141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9406137466431</t>
+    <t xml:space="preserve">12.9406147003174</t>
   </si>
   <si>
     <t xml:space="preserve">12.7042989730835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6759405136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7893724441528</t>
+    <t xml:space="preserve">12.6759414672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7893714904785</t>
   </si>
   <si>
     <t xml:space="preserve">12.6192264556885</t>
@@ -3740,13 +3740,13 @@
     <t xml:space="preserve">12.6003198623657</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7704677581787</t>
+    <t xml:space="preserve">12.7704668045044</t>
   </si>
   <si>
     <t xml:space="preserve">12.8933515548706</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7137508392334</t>
+    <t xml:space="preserve">12.7137517929077</t>
   </si>
   <si>
     <t xml:space="preserve">12.0615224838257</t>
@@ -3755,16 +3755,16 @@
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286783218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0237121582031</t>
+    <t xml:space="preserve">12.6286773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0237112045288</t>
   </si>
   <si>
     <t xml:space="preserve">12.146595954895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8630180358887</t>
+    <t xml:space="preserve">11.8630170822144</t>
   </si>
   <si>
     <t xml:space="preserve">11.8063011169434</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">11.5416288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8799457550049</t>
+    <t xml:space="preserve">10.8799467086792</t>
   </si>
   <si>
     <t xml:space="preserve">11.0028305053711</t>
@@ -5043,6 +5043,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.52000045776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39000034332275</t>
   </si>
 </sst>
 </file>
@@ -61466,7 +61469,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6494560185</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>85476</v>
@@ -61478,7 +61481,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="E2158" t="n">
-        <v>9.51500034332275</v>
+        <v>9.28999996185303</v>
       </c>
       <c r="F2158" t="n">
         <v>9.52000045776367</v>
@@ -61487,6 +61490,32 @@
         <v>1676</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6494212963</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>88829</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>9.46000003814697</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>9.31999969482422</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>9.39999961853027</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>9.39000034332275</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="1679">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,67 +38,67 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06393694877625</t>
+    <t xml:space="preserve">2.06393718719482</t>
   </si>
   <si>
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11351323127747</t>
+    <t xml:space="preserve">2.11351346969604</t>
   </si>
   <si>
     <t xml:space="preserve">2.09785771369934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06132769584656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03784394264221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98826789855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02740693092346</t>
+    <t xml:space="preserve">2.06132793426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03784441947937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98826777935028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02740740776062</t>
   </si>
   <si>
     <t xml:space="preserve">2.01697015762329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93086385726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95539093017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93034207820892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98304951190948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98200535774231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96739363670349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96687197685242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0242760181427</t>
+    <t xml:space="preserve">1.93086397647858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95539128780365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93034243583679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98304975032806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9820054769516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96739375591278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96687161922455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02427625656128</t>
   </si>
   <si>
     <t xml:space="preserve">1.97052478790283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98409330844879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94391024112701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86563205718994</t>
+    <t xml:space="preserve">1.9840931892395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9439103603363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86563193798065</t>
   </si>
   <si>
     <t xml:space="preserve">1.8943338394165</t>
@@ -107,67 +107,67 @@
     <t xml:space="preserve">1.90581500530243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88128769397736</t>
+    <t xml:space="preserve">1.88128757476807</t>
   </si>
   <si>
     <t xml:space="preserve">1.89955258369446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88389682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91259920597076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92199242115021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9099897146225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0561089515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0352349281311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04828119277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05819654464722</t>
+    <t xml:space="preserve">1.88389658927917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91259896755219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92199265956879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90998959541321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05610918998718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03523516654968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0482816696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0581967830658</t>
   </si>
   <si>
     <t xml:space="preserve">2.13438749313354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07176518440247</t>
+    <t xml:space="preserve">2.07176494598389</t>
   </si>
   <si>
     <t xml:space="preserve">2.10255432128906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06654596328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10725092887878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10829472541809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11612248420715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11090421676636</t>
+    <t xml:space="preserve">2.06654644012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10725164413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10829448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11612224578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11090397834778</t>
   </si>
   <si>
     <t xml:space="preserve">2.11403465270996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13073444366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14482474327087</t>
+    <t xml:space="preserve">2.13073468208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14482450485229</t>
   </si>
   <si>
     <t xml:space="preserve">2.18396377563477</t>
@@ -179,52 +179,52 @@
     <t xml:space="preserve">2.10777282714844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09263896942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06915545463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05089020729065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03627848625183</t>
+    <t xml:space="preserve">2.09263873100281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0691556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05089044570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03627872467041</t>
   </si>
   <si>
     <t xml:space="preserve">2.08481121063232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10307621955872</t>
+    <t xml:space="preserve">2.10307574272156</t>
   </si>
   <si>
     <t xml:space="preserve">2.08742070198059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07698345184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03001618385315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01749181747437</t>
+    <t xml:space="preserve">2.07698321342468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03001642227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01749157905579</t>
   </si>
   <si>
     <t xml:space="preserve">2.03262567520142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03314709663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0816798210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08794212341309</t>
+    <t xml:space="preserve">2.03314757347107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08168005943298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08794236183167</t>
   </si>
   <si>
     <t xml:space="preserve">2.12395024299622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11821007728577</t>
+    <t xml:space="preserve">2.11820960044861</t>
   </si>
   <si>
     <t xml:space="preserve">2.1396062374115</t>
@@ -236,19 +236,19 @@
     <t xml:space="preserve">2.21266579627991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25441455841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21840620040894</t>
+    <t xml:space="preserve">2.25441431999207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21840572357178</t>
   </si>
   <si>
     <t xml:space="preserve">2.18605089187622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17613577842712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18657326698303</t>
+    <t xml:space="preserve">2.1761360168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18657302856445</t>
   </si>
   <si>
     <t xml:space="preserve">2.20744705200195</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">2.30816531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28572535514832</t>
+    <t xml:space="preserve">2.28572559356689</t>
   </si>
   <si>
     <t xml:space="preserve">2.40679574012756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4595034122467</t>
+    <t xml:space="preserve">2.45950317382812</t>
   </si>
   <si>
     <t xml:space="preserve">2.47411513328552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52108192443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48611783981323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57013630867004</t>
+    <t xml:space="preserve">2.52108240127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48611736297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57013654708862</t>
   </si>
   <si>
     <t xml:space="preserve">2.61934614181519</t>
@@ -293,40 +293,40 @@
     <t xml:space="preserve">2.65464854240417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64127659797668</t>
+    <t xml:space="preserve">2.64127635955811</t>
   </si>
   <si>
     <t xml:space="preserve">2.6744396686554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74504446983337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76644062995911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9076509475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93760442733765</t>
+    <t xml:space="preserve">2.74504494667053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76644039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90765047073364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93760466575623</t>
   </si>
   <si>
     <t xml:space="preserve">2.95044183731079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89481353759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79211497306824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86699891090393</t>
+    <t xml:space="preserve">2.89481329917908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79211473464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86699914932251</t>
   </si>
   <si>
     <t xml:space="preserve">2.8563015460968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84774327278137</t>
+    <t xml:space="preserve">2.84774351119995</t>
   </si>
   <si>
     <t xml:space="preserve">2.77071952819824</t>
@@ -338,22 +338,22 @@
     <t xml:space="preserve">2.6894166469574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64876461029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73862624168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81565022468567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93118596076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79853367805481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72792840003967</t>
+    <t xml:space="preserve">2.64876484870911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73862600326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81564974784851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9311854839325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79853391647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72792816162109</t>
   </si>
   <si>
     <t xml:space="preserve">2.81351017951965</t>
@@ -362,19 +362,19 @@
     <t xml:space="preserve">2.86913871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92048764228821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9397439956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92262768745422</t>
+    <t xml:space="preserve">2.92048788070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93974375724792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92262744903564</t>
   </si>
   <si>
     <t xml:space="preserve">2.94616293907166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92690706253052</t>
+    <t xml:space="preserve">2.92690682411194</t>
   </si>
   <si>
     <t xml:space="preserve">2.98253464698792</t>
@@ -383,43 +383,43 @@
     <t xml:space="preserve">2.99537229537964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01676821708679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10234975814819</t>
+    <t xml:space="preserve">3.01676774024963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10234951972961</t>
   </si>
   <si>
     <t xml:space="preserve">3.24142050743103</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24997878074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28421187400818</t>
+    <t xml:space="preserve">3.24997854232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28421211242676</t>
   </si>
   <si>
     <t xml:space="preserve">3.23500204086304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23072290420532</t>
+    <t xml:space="preserve">3.2307231426239</t>
   </si>
   <si>
     <t xml:space="preserve">3.20504856109619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18793153762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23286247253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22216486930847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2007691860199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20932745933533</t>
+    <t xml:space="preserve">3.18793201446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23286271095276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22216463088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20076942443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20932769775391</t>
   </si>
   <si>
     <t xml:space="preserve">3.11946630477905</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">3.19862985610962</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20290899276733</t>
+    <t xml:space="preserve">3.20290875434875</t>
   </si>
   <si>
     <t xml:space="preserve">3.27351403236389</t>
@@ -443,25 +443,25 @@
     <t xml:space="preserve">3.2670955657959</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22858357429504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21574592590332</t>
+    <t xml:space="preserve">3.22858333587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21574640274048</t>
   </si>
   <si>
     <t xml:space="preserve">3.29490947723389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2628161907196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22002553939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25639796257019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25211882591248</t>
+    <t xml:space="preserve">3.26281642913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22002530097961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25639772415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2521185874939</t>
   </si>
   <si>
     <t xml:space="preserve">3.0959312915802</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">3.15369892120361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19435095787048</t>
+    <t xml:space="preserve">3.1943507194519</t>
   </si>
   <si>
     <t xml:space="preserve">3.14514088630676</t>
@@ -482,31 +482,31 @@
     <t xml:space="preserve">3.16653656959534</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03816342353821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27565360069275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20718789100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14942002296448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3141655921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3719334602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53026032447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61584234237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72067999839783</t>
+    <t xml:space="preserve">3.03816318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27565336227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20718765258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14942026138306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31416511535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37193369865417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53026056289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61584210395813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72068047523499</t>
   </si>
   <si>
     <t xml:space="preserve">3.84049510955811</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">3.94105434417725</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0223560333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92607736587524</t>
+    <t xml:space="preserve">4.02235746383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92607688903809</t>
   </si>
   <si>
     <t xml:space="preserve">3.88970518112183</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04375219345093</t>
+    <t xml:space="preserve">4.04375314712524</t>
   </si>
   <si>
     <t xml:space="preserve">4.12077665328979</t>
@@ -533,100 +533,100 @@
     <t xml:space="preserve">4.26198673248291</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16142749786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18924236297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39677858352661</t>
+    <t xml:space="preserve">4.16142797470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18924140930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39677810668945</t>
   </si>
   <si>
     <t xml:space="preserve">4.60859441757202</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57650089263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56580305099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67705965042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86748027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85678195953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63854789733887</t>
+    <t xml:space="preserve">4.57650136947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56580352783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6770601272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86747980117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85678291320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63854837417603</t>
   </si>
   <si>
     <t xml:space="preserve">4.6599440574646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65566396713257</t>
+    <t xml:space="preserve">4.65566444396973</t>
   </si>
   <si>
     <t xml:space="preserve">4.56366348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49305820465088</t>
+    <t xml:space="preserve">4.49305868148804</t>
   </si>
   <si>
     <t xml:space="preserve">4.29835939407349</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2748236656189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26626634597778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15500926971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1186375617981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01807880401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15286922454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17212581634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2898006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27910375595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26412677764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57864046096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55724430084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55510520935059</t>
+    <t xml:space="preserve">4.27482461929321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26626682281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15500974655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11863708496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0180778503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1528697013855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17212629318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28980016708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27910327911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26412630081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57864093780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55724477767944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55510568618774</t>
   </si>
   <si>
     <t xml:space="preserve">4.53584957122803</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56794309616089</t>
+    <t xml:space="preserve">4.56794261932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.64068794250488</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51445388793945</t>
+    <t xml:space="preserve">4.51445436477661</t>
   </si>
   <si>
     <t xml:space="preserve">4.58291959762573</t>
@@ -635,121 +635,121 @@
     <t xml:space="preserve">4.5101752281189</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43315029144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44598865509033</t>
+    <t xml:space="preserve">4.43315172195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44598817825317</t>
   </si>
   <si>
     <t xml:space="preserve">4.65138530731201</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56152486801147</t>
+    <t xml:space="preserve">4.56152391433716</t>
   </si>
   <si>
     <t xml:space="preserve">4.70273494720459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6920371055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.664222240448</t>
+    <t xml:space="preserve">4.69203662872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66422271728516</t>
   </si>
   <si>
     <t xml:space="preserve">4.68347883224487</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01082992553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29325151443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19911050796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16059923171997</t>
+    <t xml:space="preserve">5.01083040237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29325008392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19911003112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16059875488281</t>
   </si>
   <si>
     <t xml:space="preserve">5.1392035484314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13706302642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11352825164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9487829208374</t>
+    <t xml:space="preserve">5.13706350326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11352872848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94878339767456</t>
   </si>
   <si>
     <t xml:space="preserve">5.0215277671814</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13492441177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18413352966309</t>
+    <t xml:space="preserve">5.13492393493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18413305282593</t>
   </si>
   <si>
     <t xml:space="preserve">5.2183666229248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08143615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05576038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97445774078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82468843460083</t>
+    <t xml:space="preserve">5.08143472671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05576086044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97445678710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82468795776367</t>
   </si>
   <si>
     <t xml:space="preserve">5.00227165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95306205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02580642700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01296949386597</t>
+    <t xml:space="preserve">4.95306158065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02580690383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01296997070312</t>
   </si>
   <si>
     <t xml:space="preserve">5.00441122055054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0386438369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02794647216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95734167098999</t>
+    <t xml:space="preserve">5.03864336013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02794599533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95734119415283</t>
   </si>
   <si>
     <t xml:space="preserve">4.87175941467285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94022512435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9017128944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80115413665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78189849853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77119970321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76264190673828</t>
+    <t xml:space="preserve">4.94022464752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90171241760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80115461349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.781898021698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77120018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76264142990112</t>
   </si>
   <si>
     <t xml:space="preserve">4.71771097183228</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">4.70701313018799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66208362579346</t>
+    <t xml:space="preserve">4.6620831489563</t>
   </si>
   <si>
     <t xml:space="preserve">4.67492055892944</t>
@@ -782,13 +782,13 @@
     <t xml:space="preserve">4.99585294723511</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10710954666138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03008604049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00655078887939</t>
+    <t xml:space="preserve">5.10711050033569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03008556365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00655126571655</t>
   </si>
   <si>
     <t xml:space="preserve">5.20980834960938</t>
@@ -800,22 +800,22 @@
     <t xml:space="preserve">5.3232045173645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45585680007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58422994613647</t>
+    <t xml:space="preserve">5.45585632324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58422946929932</t>
   </si>
   <si>
     <t xml:space="preserve">5.54143905639648</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74255609512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80888319015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84097528457642</t>
+    <t xml:space="preserve">5.74255657196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80888223648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84097576141357</t>
   </si>
   <si>
     <t xml:space="preserve">6.00786161422729</t>
@@ -824,16 +824,16 @@
     <t xml:space="preserve">5.7126030921936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77678966522217</t>
+    <t xml:space="preserve">5.77678918838501</t>
   </si>
   <si>
     <t xml:space="preserve">5.65911388397217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66339349746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7874870300293</t>
+    <t xml:space="preserve">5.66339302062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78748750686646</t>
   </si>
   <si>
     <t xml:space="preserve">5.79390621185303</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">5.99074459075928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84525537490845</t>
+    <t xml:space="preserve">5.84525489807129</t>
   </si>
   <si>
     <t xml:space="preserve">5.88590669631958</t>
@@ -854,16 +854,16 @@
     <t xml:space="preserve">5.90088367462158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88376712799072</t>
+    <t xml:space="preserve">5.88376665115356</t>
   </si>
   <si>
     <t xml:space="preserve">5.937255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.952232837677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97790765762329</t>
+    <t xml:space="preserve">5.95223331451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97790718078613</t>
   </si>
   <si>
     <t xml:space="preserve">5.86023187637329</t>
@@ -872,76 +872,76 @@
     <t xml:space="preserve">5.96934938430786</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03353643417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3116774559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1597695350647</t>
+    <t xml:space="preserve">6.03353548049927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31167697906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15976905822754</t>
   </si>
   <si>
     <t xml:space="preserve">6.41651487350464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42935276031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47428369522095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6860990524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78237867355347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88935661315918</t>
+    <t xml:space="preserve">6.4293532371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47428417205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68609952926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78237915039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88935613632202</t>
   </si>
   <si>
     <t xml:space="preserve">6.9428448677063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99419355392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19317293167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00703191757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09903287887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09689235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98991537094116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16749811172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24880027770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23596429824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15893936157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17819547653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07121801376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35446834564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11911821365356</t>
+    <t xml:space="preserve">6.99419450759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1931734085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00703144073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09903240203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09689283370972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.989914894104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1674976348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24880170822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23596382141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15894031524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1781964302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07121849060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35446882247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11911773681641</t>
   </si>
   <si>
     <t xml:space="preserve">6.3608865737915</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">6.29028177261353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49781847000122</t>
+    <t xml:space="preserve">6.49781799316406</t>
   </si>
   <si>
     <t xml:space="preserve">6.38442182540894</t>
@@ -959,13 +959,13 @@
     <t xml:space="preserve">6.41009712219238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46358585357666</t>
+    <t xml:space="preserve">6.4635853767395</t>
   </si>
   <si>
     <t xml:space="preserve">6.41154718399048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4484076499939</t>
+    <t xml:space="preserve">6.44840717315674</t>
   </si>
   <si>
     <t xml:space="preserve">6.49827766418457</t>
@@ -983,19 +983,19 @@
     <t xml:space="preserve">6.79749774932861</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64571905136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70426225662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30530166625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47009086608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39203310012817</t>
+    <t xml:space="preserve">6.64571952819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70426273345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30530214309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47008991241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39203262329102</t>
   </si>
   <si>
     <t xml:space="preserve">6.30963897705078</t>
@@ -1004,31 +1004,31 @@
     <t xml:space="preserve">6.37468671798706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24675941467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2250771522522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32264852523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21857213973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22290849685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26410531997681</t>
+    <t xml:space="preserve">6.24675989151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22507667541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3226490020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21857166290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22290897369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26410484313965</t>
   </si>
   <si>
     <t xml:space="preserve">6.05378437042236</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03643846511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03210163116455</t>
+    <t xml:space="preserve">6.03643798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03210115432739</t>
   </si>
   <si>
     <t xml:space="preserve">5.85430431365967</t>
@@ -1037,22 +1037,22 @@
     <t xml:space="preserve">5.81093883514404</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80009746551514</t>
+    <t xml:space="preserve">5.80009794235229</t>
   </si>
   <si>
     <t xml:space="preserve">5.83478975296021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68518018722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85647296905518</t>
+    <t xml:space="preserve">5.68517923355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85647249221802</t>
   </si>
   <si>
     <t xml:space="preserve">5.81744384765625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83045387268066</t>
+    <t xml:space="preserve">5.83045291900635</t>
   </si>
   <si>
     <t xml:space="preserve">5.83912658691406</t>
@@ -1061,88 +1061,88 @@
     <t xml:space="preserve">5.73505020141602</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74589157104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88465976715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59844923019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41197872161865</t>
+    <t xml:space="preserve">5.74589061737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88466024398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59844970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41197919845581</t>
   </si>
   <si>
     <t xml:space="preserve">5.37511873245239</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51171922683716</t>
+    <t xml:space="preserve">5.51171875</t>
   </si>
   <si>
     <t xml:space="preserve">5.63747835159302</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66132926940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78925609588623</t>
+    <t xml:space="preserve">5.66132879257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78925704956055</t>
   </si>
   <si>
     <t xml:space="preserve">5.61579561233521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62230014801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49437284469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46184873580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29272508621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44883871078491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34909915924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35560464859009</t>
+    <t xml:space="preserve">5.62230062484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4943733215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46184968948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29272413253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44883966445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34909963607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35560369491577</t>
   </si>
   <si>
     <t xml:space="preserve">5.30573415756226</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32524871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39680099487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46401739120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3859601020813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43149280548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36427783966064</t>
+    <t xml:space="preserve">5.3252477645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39680147171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46401691436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38595962524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43149328231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36427736282349</t>
   </si>
   <si>
     <t xml:space="preserve">5.31874370574951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3946328163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47269010543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63964653015137</t>
+    <t xml:space="preserve">5.39463329315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47269058227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63964605331421</t>
   </si>
   <si>
     <t xml:space="preserve">5.56592559814453</t>
@@ -1154,43 +1154,43 @@
     <t xml:space="preserve">5.76757431030273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63097333908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98006343841553</t>
+    <t xml:space="preserve">5.63097286224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98006296157837</t>
   </si>
   <si>
     <t xml:space="preserve">5.86514568328857</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70469427108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53990602493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46835374832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42498922348022</t>
+    <t xml:space="preserve">5.70469379425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53990650177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46835327148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42498826980591</t>
   </si>
   <si>
     <t xml:space="preserve">5.38379096984863</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3989691734314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.268874168396</t>
+    <t xml:space="preserve">5.39896965026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26887321472168</t>
   </si>
   <si>
     <t xml:space="preserve">5.20599412918091</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13877820968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14961957931519</t>
+    <t xml:space="preserve">5.13877868652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14961910247803</t>
   </si>
   <si>
     <t xml:space="preserve">5.16262865066528</t>
@@ -1199,121 +1199,121 @@
     <t xml:space="preserve">5.32091236114502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30356550216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18647909164429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13227319717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05204677581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03036499023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11709594726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07806634902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04337406158447</t>
+    <t xml:space="preserve">5.30356597900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18647956848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13227367401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05204725265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03036546707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11709547042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0780668258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04337501525879</t>
   </si>
   <si>
     <t xml:space="preserve">5.04771184921265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95013904571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91978359222412</t>
+    <t xml:space="preserve">4.95013952255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91978406906128</t>
   </si>
   <si>
     <t xml:space="preserve">4.87858724594116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87208127975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88509225845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96097993850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10408592224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18431186676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13444137573242</t>
+    <t xml:space="preserve">4.87208223342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88509178161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96098041534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10408639907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18431091308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13444185256958</t>
   </si>
   <si>
     <t xml:space="preserve">5.15395593643188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02819728851318</t>
+    <t xml:space="preserve">5.02819681167603</t>
   </si>
   <si>
     <t xml:space="preserve">4.94363451004028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78751945495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6444149017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62923717498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57069396972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8460636138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12793731689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50738286972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71119928359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7437219619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66783428192139</t>
+    <t xml:space="preserve">4.78751993179321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64441442489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62923622131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5706934928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84606313705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12793636322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50738191604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7111988067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74372243881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66783380508423</t>
   </si>
   <si>
     <t xml:space="preserve">5.80226612091064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76323699951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67650699615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71770334243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55508470535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54207468032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60061740875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.487868309021</t>
+    <t xml:space="preserve">5.76323795318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67650747299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7177038192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55508375167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54207420349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6006178855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48786735534668</t>
   </si>
   <si>
     <t xml:space="preserve">5.91935205459595</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">6.08630800247192</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95838069915771</t>
+    <t xml:space="preserve">5.95838022232056</t>
   </si>
   <si>
     <t xml:space="preserve">6.0342698097229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01909208297729</t>
+    <t xml:space="preserve">6.01909255981445</t>
   </si>
   <si>
     <t xml:space="preserve">5.92151975631714</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">5.77841520309448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79792928695679</t>
+    <t xml:space="preserve">5.79792976379395</t>
   </si>
   <si>
     <t xml:space="preserve">5.72420835494995</t>
@@ -1355,22 +1355,22 @@
     <t xml:space="preserve">5.64398288726807</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55291604995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52039098739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53773832321167</t>
+    <t xml:space="preserve">5.55291509628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52039194107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53773880004883</t>
   </si>
   <si>
     <t xml:space="preserve">5.91501522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75456380844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6201319694519</t>
+    <t xml:space="preserve">5.75456476211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62013149261475</t>
   </si>
   <si>
     <t xml:space="preserve">5.74155426025391</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">5.84129476547241</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17954254150391</t>
+    <t xml:space="preserve">6.17954397201538</t>
   </si>
   <si>
     <t xml:space="preserve">6.17520666122437</t>
@@ -1397,22 +1397,22 @@
     <t xml:space="preserve">6.11449575424194</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40937900543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26193761825562</t>
+    <t xml:space="preserve">6.40937948226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2619366645813</t>
   </si>
   <si>
     <t xml:space="preserve">6.06245708465576</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99307250976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98439979553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45968055725098</t>
+    <t xml:space="preserve">5.99307298660278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98440027236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45968151092529</t>
   </si>
   <si>
     <t xml:space="preserve">6.00608253479004</t>
@@ -1427,16 +1427,16 @@
     <t xml:space="preserve">5.57243061065674</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58544063568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33392190933228</t>
+    <t xml:space="preserve">5.58543968200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33392143249512</t>
   </si>
   <si>
     <t xml:space="preserve">5.66349744796753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77191019058228</t>
+    <t xml:space="preserve">5.77191066741943</t>
   </si>
   <si>
     <t xml:space="preserve">5.87598657608032</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">6.16219758987427</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24459075927734</t>
+    <t xml:space="preserve">6.2445912361145</t>
   </si>
   <si>
     <t xml:space="preserve">6.60885858535767</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">6.5698299407959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80833864212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78665637969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9818000793457</t>
+    <t xml:space="preserve">6.80833911895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78665590286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98179960250854</t>
   </si>
   <si>
     <t xml:space="preserve">6.85604095458984</t>
@@ -1475,28 +1475,28 @@
     <t xml:space="preserve">6.97746324539185</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75196361541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83002185821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10322237014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02516555786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92542457580566</t>
+    <t xml:space="preserve">6.75196409225464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83002090454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10322189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02516508102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92542505264282</t>
   </si>
   <si>
     <t xml:space="preserve">6.99047327041626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93843412399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36341381072998</t>
+    <t xml:space="preserve">6.93843460083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36341333389282</t>
   </si>
   <si>
     <t xml:space="preserve">7.19862604141235</t>
@@ -1505,43 +1505,43 @@
     <t xml:space="preserve">7.05985736846924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31137561798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15526151657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13357830047607</t>
+    <t xml:space="preserve">7.3113751411438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15526056289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13357782363892</t>
   </si>
   <si>
     <t xml:space="preserve">6.9991455078125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94277143478394</t>
+    <t xml:space="preserve">6.94277191162109</t>
   </si>
   <si>
     <t xml:space="preserve">7.12490558624268</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09021282196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06852960586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09454965591431</t>
+    <t xml:space="preserve">7.09021234512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06853055953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09454917907715</t>
   </si>
   <si>
     <t xml:space="preserve">7.33305835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.489173412323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43279790878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40677928924561</t>
+    <t xml:space="preserve">7.48917245864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43279838562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40677833557129</t>
   </si>
   <si>
     <t xml:space="preserve">7.27234649658203</t>
@@ -1550,85 +1550,85 @@
     <t xml:space="preserve">7.42412519454956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2983660697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25933742523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94710779190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51345539093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72160863876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52212858200073</t>
+    <t xml:space="preserve">7.29836654663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25933790206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94710826873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51345634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72160816192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52212810516357</t>
   </si>
   <si>
     <t xml:space="preserve">6.40504217147827</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50478267669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43106126785278</t>
+    <t xml:space="preserve">6.50478219985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43106174468994</t>
   </si>
   <si>
     <t xml:space="preserve">6.59584951400757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27184104919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19712352752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48280620574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54873323440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48720169067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51796770095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43446063995361</t>
+    <t xml:space="preserve">6.27184152603149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19712400436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48280668258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54873371124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48720216751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51796817779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43446016311646</t>
   </si>
   <si>
     <t xml:space="preserve">6.54433870315552</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46522569656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37292909622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59708023071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63663625717163</t>
+    <t xml:space="preserve">6.46522665023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37292861938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59707975387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63663673400879</t>
   </si>
   <si>
     <t xml:space="preserve">6.64103126525879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50038766860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3817195892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36853265762329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33776807785034</t>
+    <t xml:space="preserve">6.5003867149353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38171911239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36853313446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33776760101318</t>
   </si>
   <si>
     <t xml:space="preserve">6.30700159072876</t>
@@ -1640,109 +1640,109 @@
     <t xml:space="preserve">6.11801147460938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11361646652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01692295074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15317296981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03450393676758</t>
+    <t xml:space="preserve">6.11361598968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01692390441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1531720161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03450441360474</t>
   </si>
   <si>
     <t xml:space="preserve">6.07405996322632</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09603595733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23667907714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13998699188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1048264503479</t>
+    <t xml:space="preserve">6.09603643417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2366795539856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13998746871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10482597351074</t>
   </si>
   <si>
     <t xml:space="preserve">6.22788953781128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4740161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37732410430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41688013076782</t>
+    <t xml:space="preserve">6.47401666641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37732315063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41688060760498</t>
   </si>
   <si>
     <t xml:space="preserve">6.32897710800171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33337306976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28063106536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28942108154297</t>
+    <t xml:space="preserve">6.33337259292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28063058853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28942155838013</t>
   </si>
   <si>
     <t xml:space="preserve">6.26305055618286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31579256057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32018709182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39050912857056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21909952163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13119649887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08285093307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17075347900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3509521484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52675867080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99494791030884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28502655029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07845544815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88067436218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37963104248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24338150024414</t>
+    <t xml:space="preserve">6.31579208374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32018756866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3905086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21909856796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13119697570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08285045623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17075252532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35095310211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52675819396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99494743347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28502607345581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07845592498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88067483901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37963056564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2433819770813</t>
   </si>
   <si>
     <t xml:space="preserve">5.15108442306519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99285984039307</t>
+    <t xml:space="preserve">4.99285936355591</t>
   </si>
   <si>
     <t xml:space="preserve">4.88737678527832</t>
@@ -1751,22 +1751,22 @@
     <t xml:space="preserve">5.04120635986328</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93132877349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98846530914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9664888381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90056133270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84342527389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6544361114502</t>
+    <t xml:space="preserve">4.93132829666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98846483230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96648979187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90056228637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84342575073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65443563461304</t>
   </si>
   <si>
     <t xml:space="preserve">4.50939655303955</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">4.63246011734009</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29623317718506</t>
+    <t xml:space="preserve">4.2962327003479</t>
   </si>
   <si>
     <t xml:space="preserve">4.0566987991333</t>
@@ -1790,136 +1790,136 @@
     <t xml:space="preserve">4.13581085205078</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04351329803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97099351882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9841787815094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88968396186829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01274681091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08306980133057</t>
+    <t xml:space="preserve">4.04351377487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97099375724792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98417901992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88968420028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01274728775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08306884765625</t>
   </si>
   <si>
     <t xml:space="preserve">4.0588960647583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94901776313782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80178165435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64135932922363</t>
+    <t xml:space="preserve">3.9490180015564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80178117752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64135956764221</t>
   </si>
   <si>
     <t xml:space="preserve">3.69190359115601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7512378692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66992831230164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77101564407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980613708496</t>
+    <t xml:space="preserve">3.75123739242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66992807388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77101492881775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980637550354</t>
   </si>
   <si>
     <t xml:space="preserve">3.89627647399902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08526706695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93363571166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85672044754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86331343650818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87430095672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80617642402649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79518914222717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77760887145996</t>
+    <t xml:space="preserve">4.08526659011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93363523483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8567202091217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8633131980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87430119514465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80617690086365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79518890380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77760815620422</t>
   </si>
   <si>
     <t xml:space="preserve">3.39523267745972</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30073761940002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18646454811096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97989344596863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98868370056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1073522567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32491064071655</t>
+    <t xml:space="preserve">3.30073738098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18646430969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97989368438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9886839389801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10735177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32491087913513</t>
   </si>
   <si>
     <t xml:space="preserve">3.32930564880371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21283483505249</t>
+    <t xml:space="preserve">3.21283507347107</t>
   </si>
   <si>
     <t xml:space="preserve">3.17108154296875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39303517341614</t>
+    <t xml:space="preserve">3.39303493499756</t>
   </si>
   <si>
     <t xml:space="preserve">3.33589863777161</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42819595336914</t>
+    <t xml:space="preserve">3.42819619178772</t>
   </si>
   <si>
     <t xml:space="preserve">3.45456695556641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26118135452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1908597946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05680823326111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87660813331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88100337982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95791816711426</t>
+    <t xml:space="preserve">3.26118111610413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19085955619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05680799484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87660837173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8810031414032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95791792869568</t>
   </si>
   <si>
     <t xml:space="preserve">3.05021572113037</t>
@@ -1928,34 +1928,34 @@
     <t xml:space="preserve">2.98648619651794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90517640113831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83485412597656</t>
+    <t xml:space="preserve">2.90517663955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83485436439514</t>
   </si>
   <si>
     <t xml:space="preserve">2.87441062927246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72937154769897</t>
+    <t xml:space="preserve">2.7293713092804</t>
   </si>
   <si>
     <t xml:space="preserve">2.70080327987671</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74035930633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78431057929993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83924961090088</t>
+    <t xml:space="preserve">2.74035954475403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78431081771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8392493724823</t>
   </si>
   <si>
     <t xml:space="preserve">3.01944947242737</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05241322517395</t>
+    <t xml:space="preserve">3.05241298675537</t>
   </si>
   <si>
     <t xml:space="preserve">3.11394476890564</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">3.10515475273132</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16668653488159</t>
+    <t xml:space="preserve">3.16668629646301</t>
   </si>
   <si>
     <t xml:space="preserve">3.17987179756165</t>
@@ -1976,22 +1976,22 @@
     <t xml:space="preserve">3.13152527809143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13811802864075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26337933540344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48093771934509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4194061756134</t>
+    <t xml:space="preserve">3.13811779022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26337909698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48093748092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41940593719482</t>
   </si>
   <si>
     <t xml:space="preserve">3.4721474647522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43478894233704</t>
+    <t xml:space="preserve">3.43478870391846</t>
   </si>
   <si>
     <t xml:space="preserve">3.5490620136261</t>
@@ -2003,100 +2003,100 @@
     <t xml:space="preserve">3.51390099525452</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45017194747925</t>
+    <t xml:space="preserve">3.45017170906067</t>
   </si>
   <si>
     <t xml:space="preserve">3.46115970611572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52049398422241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37765216827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4633572101593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52269148826599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63037180900574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56005001068115</t>
+    <t xml:space="preserve">3.52049374580383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37765192985535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46335744857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52269124984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63037204742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56005024909973</t>
   </si>
   <si>
     <t xml:space="preserve">3.55125951766968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63916182518005</t>
+    <t xml:space="preserve">3.63916158676147</t>
   </si>
   <si>
     <t xml:space="preserve">3.73805236816406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82815194129944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70728659629822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76662015914917</t>
+    <t xml:space="preserve">3.82815217971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70728635787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76662063598633</t>
   </si>
   <si>
     <t xml:space="preserve">3.79079389572144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87210321426392</t>
+    <t xml:space="preserve">3.87210369110107</t>
   </si>
   <si>
     <t xml:space="preserve">3.92264747619629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99956250190735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06109428405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02153778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17756462097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11603307723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88089346885681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93583273887634</t>
+    <t xml:space="preserve">3.99956226348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06109380722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02153730392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17756509780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11603260040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88089394569397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93583297729492</t>
   </si>
   <si>
     <t xml:space="preserve">3.95780873298645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90946197509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15778636932373</t>
+    <t xml:space="preserve">3.90946221351624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15778684616089</t>
   </si>
   <si>
     <t xml:space="preserve">4.20833015441895</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30722093582153</t>
+    <t xml:space="preserve">4.30722045898438</t>
   </si>
   <si>
     <t xml:space="preserve">4.35117197036743</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27865266799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09405660629272</t>
+    <t xml:space="preserve">4.27865219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09405755996704</t>
   </si>
   <si>
     <t xml:space="preserve">4.13141536712646</t>
@@ -2108,25 +2108,25 @@
     <t xml:space="preserve">4.12921857833862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16438007354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21712017059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17536687850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16657733917236</t>
+    <t xml:space="preserve">4.16437864303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21712064743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17536735534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16657686233521</t>
   </si>
   <si>
     <t xml:space="preserve">4.17976236343384</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12702035903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00395774841309</t>
+    <t xml:space="preserve">4.12702083587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00395679473877</t>
   </si>
   <si>
     <t xml:space="preserve">4.08087158203125</t>
@@ -2135,97 +2135,97 @@
     <t xml:space="preserve">4.11383533477783</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19514465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90286946296692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86551070213318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83254790306091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92704248428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96879625320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96659803390503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9468207359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85012769699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81057167053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70289134979248</t>
+    <t xml:space="preserve">4.19514513015747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90286922454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86551094055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83254766464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92704224586487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96879577636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96659898757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94682025909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85012793540955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81057238578796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70289158821106</t>
   </si>
   <si>
     <t xml:space="preserve">3.70948386192322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58861804008484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78420090675354</t>
+    <t xml:space="preserve">3.588618516922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78420066833496</t>
   </si>
   <si>
     <t xml:space="preserve">4.02813053131104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75783014297485</t>
+    <t xml:space="preserve">3.75783038139343</t>
   </si>
   <si>
     <t xml:space="preserve">3.88834238052368</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81408548355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6970751285553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68132400512695</t>
+    <t xml:space="preserve">3.81408524513245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69707536697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68132376670837</t>
   </si>
   <si>
     <t xml:space="preserve">3.69932532310486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62506890296936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60931754112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66782236099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7758321762085</t>
+    <t xml:space="preserve">3.62506914138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60931730270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66782259941101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77583193778992</t>
   </si>
   <si>
     <t xml:space="preserve">3.80508470535278</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8568389415741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89734220504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82983708381653</t>
+    <t xml:space="preserve">3.85683917999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89734292030334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82983684539795</t>
   </si>
   <si>
     <t xml:space="preserve">3.88159155845642</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80733466148376</t>
+    <t xml:space="preserve">3.80733489990234</t>
   </si>
   <si>
     <t xml:space="preserve">3.83883738517761</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">3.91534423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97159910202026</t>
+    <t xml:space="preserve">3.97159934043884</t>
   </si>
   <si>
     <t xml:space="preserve">4.12461280822754</t>
@@ -2249,31 +2249,31 @@
     <t xml:space="preserve">4.04135513305664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03010416030884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07285833358765</t>
+    <t xml:space="preserve">4.030104637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07285785675049</t>
   </si>
   <si>
     <t xml:space="preserve">4.1156120300293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20336961746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21012020111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23937273025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33163118362427</t>
+    <t xml:space="preserve">4.20337009429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.210120677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23937225341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33163070678711</t>
   </si>
   <si>
     <t xml:space="preserve">4.22812175750732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2753758430481</t>
+    <t xml:space="preserve">4.27537679672241</t>
   </si>
   <si>
     <t xml:space="preserve">4.17186689376831</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">4.25737428665161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16511631011963</t>
+    <t xml:space="preserve">4.16511678695679</t>
   </si>
   <si>
     <t xml:space="preserve">4.14936494827271</t>
@@ -2294,22 +2294,22 @@
     <t xml:space="preserve">4.17411661148071</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10211038589478</t>
+    <t xml:space="preserve">4.10211086273193</t>
   </si>
   <si>
     <t xml:space="preserve">3.98960089683533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02785491943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07960796356201</t>
+    <t xml:space="preserve">4.02785396575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07960844039917</t>
   </si>
   <si>
     <t xml:space="preserve">4.09085988998413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0391058921814</t>
+    <t xml:space="preserve">4.03910541534424</t>
   </si>
   <si>
     <t xml:space="preserve">4.0526065826416</t>
@@ -2318,52 +2318,52 @@
     <t xml:space="preserve">4.00535202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93784594535828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98510003089905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90184283256531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87709069252014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78033232688904</t>
+    <t xml:space="preserve">3.93784618377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98510050773621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90184378623962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87709093093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78033256530762</t>
   </si>
   <si>
     <t xml:space="preserve">3.81858587265015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80958485603333</t>
+    <t xml:space="preserve">3.8095850944519</t>
   </si>
   <si>
     <t xml:space="preserve">3.78483271598816</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88384175300598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93109560012817</t>
+    <t xml:space="preserve">3.8838415145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93109536170959</t>
   </si>
   <si>
     <t xml:space="preserve">3.91309380531311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05935668945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0436053276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09536075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97384929656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98284983634949</t>
+    <t xml:space="preserve">4.05935716629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04360580444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09536027908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9738495349884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98285055160522</t>
   </si>
   <si>
     <t xml:space="preserve">4.11336183547974</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">3.99185109138489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26862525939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26187515258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24387359619141</t>
+    <t xml:space="preserve">4.26862573623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26187467575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24387311935425</t>
   </si>
   <si>
     <t xml:space="preserve">4.52289772033691</t>
@@ -2390,19 +2390,19 @@
     <t xml:space="preserve">4.91443204879761</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08544683456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23846101760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26546287536621</t>
+    <t xml:space="preserve">5.08544778823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23846054077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26546335220337</t>
   </si>
   <si>
     <t xml:space="preserve">5.53098678588867</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39147424697876</t>
+    <t xml:space="preserve">5.3914737701416</t>
   </si>
   <si>
     <t xml:space="preserve">5.29696607589722</t>
@@ -2414,43 +2414,43 @@
     <t xml:space="preserve">5.60749292373657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45898008346558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35997152328491</t>
+    <t xml:space="preserve">5.45898056030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3599705696106</t>
   </si>
   <si>
     <t xml:space="preserve">5.38697385787964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17545557022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18445634841919</t>
+    <t xml:space="preserve">5.17545509338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18445587158203</t>
   </si>
   <si>
     <t xml:space="preserve">5.26996326446533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35547065734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25196170806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37797212600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36447238922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46348094940186</t>
+    <t xml:space="preserve">5.35547113418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25196218490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3779730796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36447143554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4634804725647</t>
   </si>
   <si>
     <t xml:space="preserve">5.59849262237549</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62999534606934</t>
+    <t xml:space="preserve">5.62999486923218</t>
   </si>
   <si>
     <t xml:space="preserve">5.82351207733154</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">5.62549448013306</t>
   </si>
   <si>
-    <t xml:space="preserve">5.580491065979</t>
+    <t xml:space="preserve">5.58049058914185</t>
   </si>
   <si>
     <t xml:space="preserve">5.61649370193481</t>
@@ -2474,22 +2474,22 @@
     <t xml:space="preserve">5.70650196075439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61199331283569</t>
+    <t xml:space="preserve">5.61199378967285</t>
   </si>
   <si>
     <t xml:space="preserve">5.7200026512146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79651021957397</t>
+    <t xml:space="preserve">5.79650974273682</t>
   </si>
   <si>
     <t xml:space="preserve">5.94502258300781</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01702880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11603784561157</t>
+    <t xml:space="preserve">6.01702928543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11603736877441</t>
   </si>
   <si>
     <t xml:space="preserve">5.98102617263794</t>
@@ -2504,16 +2504,16 @@
     <t xml:space="preserve">6.13403940200806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59757995605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98011350631714</t>
+    <t xml:space="preserve">6.59758043289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9801139831543</t>
   </si>
   <si>
     <t xml:space="preserve">7.07462215423584</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16012954711914</t>
+    <t xml:space="preserve">7.16012907028198</t>
   </si>
   <si>
     <t xml:space="preserve">7.47965812683105</t>
@@ -2522,73 +2522,73 @@
     <t xml:space="preserve">7.48415803909302</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57866621017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70017719268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53816318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49315929412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04311943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15562915802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29064130783081</t>
+    <t xml:space="preserve">7.57866716384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7001781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53816270828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49315881729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04311895370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15562868118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29064178466797</t>
   </si>
   <si>
     <t xml:space="preserve">7.22763538360596</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1646294593811</t>
+    <t xml:space="preserve">7.16462993621826</t>
   </si>
   <si>
     <t xml:space="preserve">7.15112924575806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99361515045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02961826324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1421275138855</t>
+    <t xml:space="preserve">6.99361419677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02961874008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14212799072266</t>
   </si>
   <si>
     <t xml:space="preserve">7.26813888549805</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25013780593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44365501403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78118467330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72267913818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54266357421875</t>
+    <t xml:space="preserve">7.25013828277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44365549087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78118515014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72267818450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54266214370728</t>
   </si>
   <si>
     <t xml:space="preserve">7.43465423583984</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53366279602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2366361618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32214450836182</t>
+    <t xml:space="preserve">7.53366327285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23663568496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3221435546875</t>
   </si>
   <si>
     <t xml:space="preserve">6.99811506271362</t>
@@ -2603,25 +2603,25 @@
     <t xml:space="preserve">7.17813110351562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09712409973145</t>
+    <t xml:space="preserve">7.0971245765686</t>
   </si>
   <si>
     <t xml:space="preserve">7.39865064620972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30864286422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35814714431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38964939117432</t>
+    <t xml:space="preserve">7.30864238739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35814666748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38964986801147</t>
   </si>
   <si>
     <t xml:space="preserve">7.19163227081299</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05212020874023</t>
+    <t xml:space="preserve">7.05211973190308</t>
   </si>
   <si>
     <t xml:space="preserve">6.90810775756836</t>
@@ -2636,31 +2636,31 @@
     <t xml:space="preserve">6.62458276748657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67858791351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60208034515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65158462524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50307178497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90360736846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77309560775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77759695053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71008968353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6830883026123</t>
+    <t xml:space="preserve">6.67858695983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60208082199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6515851020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50307130813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90360689163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77309513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77759647369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71009016036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68308782577515</t>
   </si>
   <si>
     <t xml:space="preserve">6.56157732009888</t>
@@ -2669,13 +2669,13 @@
     <t xml:space="preserve">6.71459054946899</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64708423614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52107286453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01252889633179</t>
+    <t xml:space="preserve">6.64708518981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52107334136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01252841949463</t>
   </si>
   <si>
     <t xml:space="preserve">5.86401605606079</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">5.67049837112427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62099409103394</t>
+    <t xml:space="preserve">5.62099456787109</t>
   </si>
   <si>
     <t xml:space="preserve">5.38247346878052</t>
@@ -2699,19 +2699,19 @@
     <t xml:space="preserve">5.02694225311279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67141103744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51839733123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55890130996704</t>
+    <t xml:space="preserve">4.67141056060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51839780807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55890083312988</t>
   </si>
   <si>
     <t xml:space="preserve">4.13811349868774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74882936477661</t>
+    <t xml:space="preserve">3.74882960319519</t>
   </si>
   <si>
     <t xml:space="preserve">3.60031676292419</t>
@@ -2723,22 +2723,22 @@
     <t xml:space="preserve">3.16827869415283</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12777495384216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17052912712097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38429760932922</t>
+    <t xml:space="preserve">3.12777519226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17052865028381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38429713249207</t>
   </si>
   <si>
     <t xml:space="preserve">3.92434525489807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79608416557312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55081224441528</t>
+    <t xml:space="preserve">3.79608392715454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5508120059967</t>
   </si>
   <si>
     <t xml:space="preserve">3.44280290603638</t>
@@ -2750,22 +2750,22 @@
     <t xml:space="preserve">3.55531287193298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64532065391541</t>
+    <t xml:space="preserve">3.64532089233398</t>
   </si>
   <si>
     <t xml:space="preserve">3.55981302261353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73082828521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67682337760925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99635148048401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96034789085388</t>
+    <t xml:space="preserve">3.73082780838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67682361602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99635124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96034860610962</t>
   </si>
   <si>
     <t xml:space="preserve">4.30687856674194</t>
@@ -2774,10 +2774,10 @@
     <t xml:space="preserve">4.04585599899292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94234657287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09986066818237</t>
+    <t xml:space="preserve">3.94234704971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09986019134521</t>
   </si>
   <si>
     <t xml:space="preserve">4.02335357666016</t>
@@ -2789,40 +2789,40 @@
     <t xml:space="preserve">4.37888479232788</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2843770980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19436931610107</t>
+    <t xml:space="preserve">4.28437662124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19436883926392</t>
   </si>
   <si>
     <t xml:space="preserve">4.18986845016479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24837303161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27987623214722</t>
+    <t xml:space="preserve">4.24837350845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27987670898438</t>
   </si>
   <si>
     <t xml:space="preserve">4.23487234115601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23037147521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10436105728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59040355682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44639158248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40588760375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31137943267822</t>
+    <t xml:space="preserve">4.23037195205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10436058044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59040403366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44639110565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40588712692261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31137895584106</t>
   </si>
   <si>
     <t xml:space="preserve">4.34738206863403</t>
@@ -2831,40 +2831,40 @@
     <t xml:space="preserve">4.66916036605835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87167835235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81542301177979</t>
+    <t xml:space="preserve">4.8716778755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81542348861694</t>
   </si>
   <si>
     <t xml:space="preserve">4.80417251586914</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96168661117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09669828414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14170169830322</t>
+    <t xml:space="preserve">4.96168565750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09669780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14170217514038</t>
   </si>
   <si>
     <t xml:space="preserve">5.3892240524292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25421190261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07419633865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84917640686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93918418884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10794925689697</t>
+    <t xml:space="preserve">5.25421237945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07419586181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84917593002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93918466567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10794973373413</t>
   </si>
   <si>
     <t xml:space="preserve">5.22045946121216</t>
@@ -2876,28 +2876,28 @@
     <t xml:space="preserve">5.29921579360962</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11920070648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0629448890686</t>
+    <t xml:space="preserve">5.11919975280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06294536590576</t>
   </si>
   <si>
     <t xml:space="preserve">5.05169439315796</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18670606613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15295314788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00669050216675</t>
+    <t xml:space="preserve">5.18670558929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15295362472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00669002532959</t>
   </si>
   <si>
     <t xml:space="preserve">4.83792543411255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92793321609497</t>
+    <t xml:space="preserve">4.92793369293213</t>
   </si>
   <si>
     <t xml:space="preserve">5.02919244766235</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">4.97293710708618</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13045072555542</t>
+    <t xml:space="preserve">5.13045120239258</t>
   </si>
   <si>
     <t xml:space="preserve">4.98418855667114</t>
@@ -2915,22 +2915,22 @@
     <t xml:space="preserve">5.01794099807739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.040442943573</t>
+    <t xml:space="preserve">5.04044342041016</t>
   </si>
   <si>
     <t xml:space="preserve">5.2317099571228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24296140670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95043563842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99543952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88293027877808</t>
+    <t xml:space="preserve">5.24296092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95043516159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9954400062561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88292980194092</t>
   </si>
   <si>
     <t xml:space="preserve">4.86042785644531</t>
@@ -2942,25 +2942,25 @@
     <t xml:space="preserve">4.75916862487793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82667446136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90543127059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91668176651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50039625167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11786222457886</t>
+    <t xml:space="preserve">4.8266749382019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90543174743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91668224334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50039577484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1178617477417</t>
   </si>
   <si>
     <t xml:space="preserve">4.14036417007446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00985288619995</t>
+    <t xml:space="preserve">4.00985240936279</t>
   </si>
   <si>
     <t xml:space="preserve">4.22587156295776</t>
@@ -2969,28 +2969,28 @@
     <t xml:space="preserve">4.26637506484985</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53414821624756</t>
+    <t xml:space="preserve">4.53414869308472</t>
   </si>
   <si>
     <t xml:space="preserve">5.44547891616821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52423524856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65924739837646</t>
+    <t xml:space="preserve">5.52423572540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65924787521362</t>
   </si>
   <si>
     <t xml:space="preserve">5.63674545288086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59174203872681</t>
+    <t xml:space="preserve">5.59174156188965</t>
   </si>
   <si>
     <t xml:space="preserve">5.54673767089844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5692400932312</t>
+    <t xml:space="preserve">5.56923961639404</t>
   </si>
   <si>
     <t xml:space="preserve">5.79425954818726</t>
@@ -3020,34 +3020,34 @@
     <t xml:space="preserve">5.98552656173706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08678483963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01927900314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05303239822388</t>
+    <t xml:space="preserve">6.08678531646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01927947998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05303144454956</t>
   </si>
   <si>
     <t xml:space="preserve">6.07553434371948</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97427463531494</t>
+    <t xml:space="preserve">5.9742751121521</t>
   </si>
   <si>
     <t xml:space="preserve">6.03053045272827</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10928773880005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24429893493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21054601669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25554990768433</t>
+    <t xml:space="preserve">6.10928726196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24429941177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21054649353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25555038452148</t>
   </si>
   <si>
     <t xml:space="preserve">6.36805963516235</t>
@@ -3059,25 +3059,25 @@
     <t xml:space="preserve">6.42431497573853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44681692123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4918212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46931838989258</t>
+    <t xml:space="preserve">6.44681644439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49182081222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46931934356689</t>
   </si>
   <si>
     <t xml:space="preserve">6.51432323455811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3005542755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23304748535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35680818557739</t>
+    <t xml:space="preserve">6.30055379867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23304843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35680913925171</t>
   </si>
   <si>
     <t xml:space="preserve">6.18804407119751</t>
@@ -3086,34 +3086,34 @@
     <t xml:space="preserve">6.09803628921509</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31180477142334</t>
+    <t xml:space="preserve">6.3118052482605</t>
   </si>
   <si>
     <t xml:space="preserve">6.39056205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54807615280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40181350708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67183685302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63808345794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57057857513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59307909011841</t>
+    <t xml:space="preserve">6.54807567596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40181303024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67183637619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63808393478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57057809829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59307956695557</t>
   </si>
   <si>
     <t xml:space="preserve">6.66058588027954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58182859420776</t>
+    <t xml:space="preserve">6.58182907104492</t>
   </si>
   <si>
     <t xml:space="preserve">6.28930330276489</t>
@@ -3122,58 +3122,58 @@
     <t xml:space="preserve">6.26680135726929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22179698944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27805185317993</t>
+    <t xml:space="preserve">6.22179651260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27805137634277</t>
   </si>
   <si>
     <t xml:space="preserve">6.43556594848633</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7505931854248</t>
+    <t xml:space="preserve">6.75059366226196</t>
   </si>
   <si>
     <t xml:space="preserve">7.65067291259766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63942289352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10071182250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03320693969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87569189071655</t>
+    <t xml:space="preserve">7.63942241668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1007137298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03320598602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87569236755371</t>
   </si>
   <si>
     <t xml:space="preserve">7.85319089889526</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92069578170776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88694334030151</t>
+    <t xml:space="preserve">7.92069721221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88694381713867</t>
   </si>
   <si>
     <t xml:space="preserve">7.9882025718689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96569967269897</t>
+    <t xml:space="preserve">7.96570110321045</t>
   </si>
   <si>
     <t xml:space="preserve">7.89819383621216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86444234848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79693555831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94319820404053</t>
+    <t xml:space="preserve">7.86444139480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79693651199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94319868087769</t>
   </si>
   <si>
     <t xml:space="preserve">8.16821765899658</t>
@@ -3182,10 +3182,10 @@
     <t xml:space="preserve">8.15696716308594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14571666717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19072151184082</t>
+    <t xml:space="preserve">8.14571571350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1907205581665</t>
   </si>
   <si>
     <t xml:space="preserve">8.13446521759033</t>
@@ -3194,52 +3194,52 @@
     <t xml:space="preserve">8.01070404052734</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97695112228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04445743560791</t>
+    <t xml:space="preserve">7.97695207595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04445648193359</t>
   </si>
   <si>
     <t xml:space="preserve">8.20197200775146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08946132659912</t>
+    <t xml:space="preserve">8.08946228027344</t>
   </si>
   <si>
     <t xml:space="preserve">8.0219554901123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9319486618042</t>
+    <t xml:space="preserve">7.93194818496704</t>
   </si>
   <si>
     <t xml:space="preserve">8.06695938110352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80818796157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81943798065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70692825317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78568410873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68442678451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72942924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23572444915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00079250335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84327697753906</t>
+    <t xml:space="preserve">7.80818653106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8194375038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70692729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78568458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68442583084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72942876815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2357234954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00079154968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84327602386475</t>
   </si>
   <si>
     <t xml:space="preserve">9.04579544067383</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">9.31581974029541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48623180389404</t>
+    <t xml:space="preserve">9.48623085021973</t>
   </si>
   <si>
     <t xml:space="preserve">9.44078826904297</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">9.99612808227539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92523288726807</t>
+    <t xml:space="preserve">9.92523384094238</t>
   </si>
   <si>
     <t xml:space="preserve">10.303337097168</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">10.5278367996216</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5514688491821</t>
+    <t xml:space="preserve">10.5514678955078</t>
   </si>
   <si>
     <t xml:space="preserve">10.7523365020752</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">10.7759675979614</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7287044525146</t>
+    <t xml:space="preserve">10.728705406189</t>
   </si>
   <si>
     <t xml:space="preserve">10.5632848739624</t>
@@ -3296,10 +3296,10 @@
     <t xml:space="preserve">10.5987310409546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9768362045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7050724029541</t>
+    <t xml:space="preserve">10.9768352508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7050733566284</t>
   </si>
   <si>
     <t xml:space="preserve">10.6105480194092</t>
@@ -3308,10 +3308,10 @@
     <t xml:space="preserve">10.3269691467285</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4923896789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6223640441895</t>
+    <t xml:space="preserve">10.4923906326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6223630905151</t>
   </si>
   <si>
     <t xml:space="preserve">10.2797060012817</t>
@@ -3320,16 +3320,16 @@
     <t xml:space="preserve">10.1733636856079</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2442598342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3742332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2915210723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3151540756226</t>
+    <t xml:space="preserve">10.2442588806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3742322921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.291522026062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3151531219482</t>
   </si>
   <si>
     <t xml:space="preserve">10.3387851715088</t>
@@ -3338,13 +3338,13 @@
     <t xml:space="preserve">10.4805736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4451274871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7168884277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4096794128418</t>
+    <t xml:space="preserve">10.4451265335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7168893814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4096784591675</t>
   </si>
   <si>
     <t xml:space="preserve">10.2560758590698</t>
@@ -3353,16 +3353,16 @@
     <t xml:space="preserve">10.6459941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3978633880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3624153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.437650680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7590379714966</t>
+    <t xml:space="preserve">10.3978643417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.362416267395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4376497268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7590389251709</t>
   </si>
   <si>
     <t xml:space="preserve">12.1673908233643</t>
@@ -3377,16 +3377,16 @@
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968492507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6815280914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.834659576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7023229598999</t>
+    <t xml:space="preserve">11.7968482971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6815271377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8346605300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7023239135742</t>
   </si>
   <si>
     <t xml:space="preserve">11.6077966690063</t>
@@ -3395,22 +3395,22 @@
     <t xml:space="preserve">11.5699863433838</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9102811813354</t>
+    <t xml:space="preserve">11.9102802276611</t>
   </si>
   <si>
     <t xml:space="preserve">11.6456069946289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7212285995483</t>
+    <t xml:space="preserve">11.721227645874</t>
   </si>
   <si>
     <t xml:space="preserve">12.3640050888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1182374954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3261957168579</t>
+    <t xml:space="preserve">12.118236541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3261947631836</t>
   </si>
   <si>
     <t xml:space="preserve">12.3072900772095</t>
@@ -3422,10 +3422,10 @@
     <t xml:space="preserve">12.5719623565674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1560468673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2147388458252</t>
+    <t xml:space="preserve">12.1560478210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2147397994995</t>
   </si>
   <si>
     <t xml:space="preserve">13.9142322540283</t>
@@ -3440,7 +3440,7 @@
     <t xml:space="preserve">13.4416027069092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.800802230835</t>
+    <t xml:space="preserve">13.8008012771606</t>
   </si>
   <si>
     <t xml:space="preserve">14.1221885681152</t>
@@ -3449,28 +3449,28 @@
     <t xml:space="preserve">14.027663230896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9540176391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3490524291992</t>
+    <t xml:space="preserve">14.9540185928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3490514755249</t>
   </si>
   <si>
     <t xml:space="preserve">14.0465679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7062749862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0654735565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7251806259155</t>
+    <t xml:space="preserve">13.7062740325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0654745101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7251815795898</t>
   </si>
   <si>
     <t xml:space="preserve">13.3281707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7610149383545</t>
+    <t xml:space="preserve">12.7610139846802</t>
   </si>
   <si>
     <t xml:space="preserve">13.2525501251221</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">13.3848867416382</t>
   </si>
   <si>
-    <t xml:space="preserve">13.176929473877</t>
+    <t xml:space="preserve">13.1769285202026</t>
   </si>
   <si>
     <t xml:space="preserve">13.6684646606445</t>
@@ -3488,22 +3488,22 @@
     <t xml:space="preserve">13.1958341598511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3659820556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7649660110474</t>
+    <t xml:space="preserve">13.3659811019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7649669647217</t>
   </si>
   <si>
     <t xml:space="preserve">15.7858486175537</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8425636291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1261405944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9201583862305</t>
+    <t xml:space="preserve">15.8425626754761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1261386871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9201602935791</t>
   </si>
   <si>
     <t xml:space="preserve">16.7311096191406</t>
@@ -3512,13 +3512,13 @@
     <t xml:space="preserve">16.9012546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.61767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7122039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3719100952148</t>
+    <t xml:space="preserve">16.6176776885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7122020721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3719081878662</t>
   </si>
   <si>
     <t xml:space="preserve">16.1450462341309</t>
@@ -3527,13 +3527,13 @@
     <t xml:space="preserve">16.504243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3530044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2584800720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614702224731</t>
+    <t xml:space="preserve">16.3530025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2584781646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614683151245</t>
   </si>
   <si>
     <t xml:space="preserve">15.8047523498535</t>
@@ -3545,10 +3545,10 @@
     <t xml:space="preserve">16.0883312225342</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1828575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2375974655151</t>
+    <t xml:space="preserve">16.1828594207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2375984191895</t>
   </si>
   <si>
     <t xml:space="preserve">14.7460622787476</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">13.630654335022</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2356204986572</t>
+    <t xml:space="preserve">14.2356214523315</t>
   </si>
   <si>
     <t xml:space="preserve">14.3679571151733</t>
@@ -3587,34 +3587,34 @@
     <t xml:space="preserve">14.4624834060669</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1032838821411</t>
+    <t xml:space="preserve">14.1032848358154</t>
   </si>
   <si>
     <t xml:space="preserve">14.084379196167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5550336837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8386106491089</t>
+    <t xml:space="preserve">13.5550327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8386116027832</t>
   </si>
   <si>
     <t xml:space="preserve">13.6873693466187</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6495580673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2734317779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4435768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6137256622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.594820022583</t>
+    <t xml:space="preserve">13.6495590209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2734308242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4435777664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6137247085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5948190689087</t>
   </si>
   <si>
     <t xml:space="preserve">14.4246730804443</t>
@@ -3623,10 +3623,10 @@
     <t xml:space="preserve">13.2336444854736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4226961135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3470764160156</t>
+    <t xml:space="preserve">13.4226970672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3470754623413</t>
   </si>
   <si>
     <t xml:space="preserve">13.7440853118896</t>
@@ -3638,31 +3638,31 @@
     <t xml:space="preserve">12.6664876937866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4794130325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7629919052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1013088226318</t>
+    <t xml:space="preserve">13.4794120788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7629909515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1013078689575</t>
   </si>
   <si>
     <t xml:space="preserve">12.1749534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9122562408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6097726821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0993328094482</t>
+    <t xml:space="preserve">12.9122552871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6097736358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0993318557739</t>
   </si>
   <si>
     <t xml:space="preserve">12.4018154144287</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2127628326416</t>
+    <t xml:space="preserve">12.2127637863159</t>
   </si>
   <si>
     <t xml:space="preserve">11.9291858673096</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">11.8535652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2694787979126</t>
+    <t xml:space="preserve">12.2694797515869</t>
   </si>
   <si>
     <t xml:space="preserve">12.0426168441772</t>
@@ -3689,31 +3689,31 @@
     <t xml:space="preserve">11.0973558425903</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7381572723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3620290756226</t>
+    <t xml:space="preserve">10.7381563186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3620300292969</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804271697998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6645135879517</t>
+    <t xml:space="preserve">11.6645126342773</t>
   </si>
   <si>
     <t xml:space="preserve">12.9500665664673</t>
   </si>
   <si>
-    <t xml:space="preserve">13.006781578064</t>
+    <t xml:space="preserve">13.0067825317383</t>
   </si>
   <si>
     <t xml:space="preserve">13.0824031829834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.51722240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6212005615234</t>
+    <t xml:space="preserve">13.5172233581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6212015151978</t>
   </si>
   <si>
     <t xml:space="preserve">13.6590118408203</t>
@@ -3722,28 +3722,28 @@
     <t xml:space="preserve">12.9973297119141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9406147003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7042989730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6759414672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7893714904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6192264556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6003198623657</t>
+    <t xml:space="preserve">12.9406137466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7042999267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6759405136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7893724441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6192255020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.60032081604</t>
   </si>
   <si>
     <t xml:space="preserve">12.7704668045044</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8933515548706</t>
+    <t xml:space="preserve">12.8933506011963</t>
   </si>
   <si>
     <t xml:space="preserve">12.7137517929077</t>
@@ -3755,7 +3755,7 @@
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286773681641</t>
+    <t xml:space="preserve">12.6286783218384</t>
   </si>
   <si>
     <t xml:space="preserve">12.0237112045288</t>
@@ -3767,25 +3767,25 @@
     <t xml:space="preserve">11.8630170822144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8063011169434</t>
+    <t xml:space="preserve">11.8063020706177</t>
   </si>
   <si>
     <t xml:space="preserve">11.5416288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8799467086792</t>
+    <t xml:space="preserve">10.8799457550049</t>
   </si>
   <si>
     <t xml:space="preserve">11.0028305053711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3431243896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8252077102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834173202515</t>
+    <t xml:space="preserve">11.3431234359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8252067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834163665771</t>
   </si>
   <si>
     <t xml:space="preserve">12.089879989624</t>
@@ -3797,31 +3797,31 @@
     <t xml:space="preserve">11.6518430709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8151416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8247480392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.940016746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4107007980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1129217147827</t>
+    <t xml:space="preserve">11.8151407241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8247470855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9400177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.410701751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1129207611084</t>
   </si>
   <si>
     <t xml:space="preserve">11.920804977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.016863822937</t>
+    <t xml:space="preserve">12.0168628692627</t>
   </si>
   <si>
     <t xml:space="preserve">12.2377967834473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050384521484</t>
+    <t xml:space="preserve">12.3050374984741</t>
   </si>
   <si>
     <t xml:space="preserve">12.4010953903198</t>
@@ -3833,7 +3833,7 @@
     <t xml:space="preserve">11.4116973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9890413284302</t>
+    <t xml:space="preserve">10.9890422821045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7969255447388</t>
@@ -3842,16 +3842,16 @@
     <t xml:space="preserve">11.2964277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8161382675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0658893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1235227584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2676105499268</t>
+    <t xml:space="preserve">10.8161373138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0658884048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1235237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2676095962524</t>
   </si>
   <si>
     <t xml:space="preserve">11.1619462966919</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">11.7479000091553</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382946014404</t>
+    <t xml:space="preserve">11.7382955551147</t>
   </si>
   <si>
     <t xml:space="preserve">11.6134195327759</t>
@@ -3887,19 +3887,19 @@
     <t xml:space="preserve">12.6604528427124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8141450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198093414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9678382873535</t>
+    <t xml:space="preserve">12.8141460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198083877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9678373336792</t>
   </si>
   <si>
     <t xml:space="preserve">12.823751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8045387268066</t>
+    <t xml:space="preserve">12.804539680481</t>
   </si>
   <si>
     <t xml:space="preserve">13.0446844100952</t>
@@ -3908,7 +3908,7 @@
     <t xml:space="preserve">13.1311368942261</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2848291397095</t>
+    <t xml:space="preserve">13.2848300933838</t>
   </si>
   <si>
     <t xml:space="preserve">13.4577341079712</t>
@@ -3917,13 +3917,13 @@
     <t xml:space="preserve">13.7651205062866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.91881275177</t>
+    <t xml:space="preserve">13.9188117980957</t>
   </si>
   <si>
     <t xml:space="preserve">13.8611783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9092063903809</t>
+    <t xml:space="preserve">13.9092073440552</t>
   </si>
   <si>
     <t xml:space="preserve">14.0052652359009</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">13.957236289978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0436878204346</t>
+    <t xml:space="preserve">14.0436887741089</t>
   </si>
   <si>
     <t xml:space="preserve">13.976448059082</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">13.938024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6018218994141</t>
+    <t xml:space="preserve">13.6018209457397</t>
   </si>
   <si>
     <t xml:space="preserve">13.2752237319946</t>
@@ -3971,31 +3971,31 @@
     <t xml:space="preserve">13.1983766555786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1023197174072</t>
+    <t xml:space="preserve">13.1023187637329</t>
   </si>
   <si>
     <t xml:space="preserve">13.3232526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3040418624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3424654006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1503486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0062608718872</t>
+    <t xml:space="preserve">13.3040409088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3424644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1503477096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0062618255615</t>
   </si>
   <si>
     <t xml:space="preserve">12.7372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1695604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8621740341187</t>
+    <t xml:space="preserve">13.1695594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.862174987793</t>
   </si>
   <si>
     <t xml:space="preserve">12.8525686264038</t>
@@ -4010,7 +4010,7 @@
     <t xml:space="preserve">12.372278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0841045379639</t>
+    <t xml:space="preserve">12.0841035842896</t>
   </si>
   <si>
     <t xml:space="preserve">11.9496221542358</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">11.3444566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7873201370239</t>
+    <t xml:space="preserve">10.7873191833496</t>
   </si>
   <si>
     <t xml:space="preserve">10.7777147293091</t>
@@ -4037,10 +4037,10 @@
     <t xml:space="preserve">10.7296848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8929834365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6240224838257</t>
+    <t xml:space="preserve">10.8929843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6240215301514</t>
   </si>
   <si>
     <t xml:space="preserve">11.2195816040039</t>
@@ -4055,16 +4055,16 @@
     <t xml:space="preserve">11.3636684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1907634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9025897979736</t>
+    <t xml:space="preserve">11.1907644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9025907516479</t>
   </si>
   <si>
     <t xml:space="preserve">11.0274648666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2099761962891</t>
+    <t xml:space="preserve">11.2099752426147</t>
   </si>
   <si>
     <t xml:space="preserve">11.5749959945679</t>
@@ -4073,7 +4073,7 @@
     <t xml:space="preserve">11.5365724563599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1321325302124</t>
+    <t xml:space="preserve">12.1321334838867</t>
   </si>
   <si>
     <t xml:space="preserve">12.2570085525513</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">12.0072574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3818836212158</t>
+    <t xml:space="preserve">12.3818845748901</t>
   </si>
   <si>
     <t xml:space="preserve">12.3914890289307</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">13.0158672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791667938232</t>
+    <t xml:space="preserve">13.1791658401489</t>
   </si>
   <si>
     <t xml:space="preserve">12.9582328796387</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">12.7469053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0542907714844</t>
+    <t xml:space="preserve">13.0542898178101</t>
   </si>
   <si>
     <t xml:space="preserve">13.3328590393066</t>
@@ -4130,25 +4130,25 @@
     <t xml:space="preserve">13.8131494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2165937423706</t>
+    <t xml:space="preserve">14.2165927886963</t>
   </si>
   <si>
     <t xml:space="preserve">14.1109285354614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284191131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6210327148438</t>
+    <t xml:space="preserve">13.9284181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6210336685181</t>
   </si>
   <si>
     <t xml:space="preserve">13.7747259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.841965675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0244779586792</t>
+    <t xml:space="preserve">13.8419666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0244770050049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5720081329346</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">13.8515720367432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6402435302734</t>
+    <t xml:space="preserve">13.6402444839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.5441865921021</t>
@@ -4196,7 +4196,7 @@
     <t xml:space="preserve">14.0628995895386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0340814590454</t>
+    <t xml:space="preserve">14.0340824127197</t>
   </si>
   <si>
     <t xml:space="preserve">14.370285987854</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">14.312650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3894968032837</t>
+    <t xml:space="preserve">14.389497756958</t>
   </si>
   <si>
     <t xml:space="preserve">14.0821113586426</t>
@@ -4220,25 +4220,25 @@
     <t xml:space="preserve">13.7170906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3991031646729</t>
+    <t xml:space="preserve">14.3991022109985</t>
   </si>
   <si>
     <t xml:space="preserve">14.8793926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1003265380859</t>
+    <t xml:space="preserve">15.1003274917603</t>
   </si>
   <si>
     <t xml:space="preserve">15.1675672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3500776290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3404722213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0234813690186</t>
+    <t xml:space="preserve">15.350076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3404731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0234804153442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0522985458374</t>
@@ -4256,7 +4256,7 @@
     <t xml:space="preserve">15.0619039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1291437149048</t>
+    <t xml:space="preserve">15.1291446685791</t>
   </si>
   <si>
     <t xml:space="preserve">15.0907211303711</t>
@@ -4268,13 +4268,13 @@
     <t xml:space="preserve">14.9850578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1387500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0138750076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1963844299316</t>
+    <t xml:space="preserve">15.1387510299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0138740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.196385383606</t>
   </si>
   <si>
     <t xml:space="preserve">15.4365301132202</t>
@@ -4283,7 +4283,7 @@
     <t xml:space="preserve">15.3116540908813</t>
   </si>
   <si>
-    <t xml:space="preserve">15.21559715271</t>
+    <t xml:space="preserve">15.2155961990356</t>
   </si>
   <si>
     <t xml:space="preserve">15.4557418823242</t>
@@ -4292,25 +4292,25 @@
     <t xml:space="preserve">14.68727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4855546951294</t>
+    <t xml:space="preserve">14.4855556488037</t>
   </si>
   <si>
     <t xml:space="preserve">14.8121528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922155380249</t>
+    <t xml:space="preserve">13.5922145843506</t>
   </si>
   <si>
     <t xml:space="preserve">11.7671117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.623025894165</t>
+    <t xml:space="preserve">11.6230249404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5173606872559</t>
+    <t xml:space="preserve">11.5173616409302</t>
   </si>
   <si>
     <t xml:space="preserve">11.526967048645</t>
@@ -4337,13 +4337,13 @@
     <t xml:space="preserve">11.3540620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4693326950073</t>
+    <t xml:space="preserve">11.469331741333</t>
   </si>
   <si>
     <t xml:space="preserve">11.2387933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3252449035645</t>
+    <t xml:space="preserve">11.3252458572388</t>
   </si>
   <si>
     <t xml:space="preserve">11.2772159576416</t>
@@ -4352,7 +4352,7 @@
     <t xml:space="preserve">11.113917350769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2003698348999</t>
+    <t xml:space="preserve">11.2003688812256</t>
   </si>
   <si>
     <t xml:space="preserve">11.1427354812622</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">10.6432332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5663862228394</t>
+    <t xml:space="preserve">10.5663871765137</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452299118042</t>
@@ -5046,6 +5046,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.39000034332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22999954223633</t>
   </si>
 </sst>
 </file>
@@ -61495,7 +61498,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6494212963</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>88829</v>
@@ -61516,6 +61519,32 @@
         <v>1677</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6494791667</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>74676</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>9.46500015258789</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>9.23999977111816</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>9.43000030517578</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>9.22999954223633</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06393694877625</t>
+    <t xml:space="preserve">2.06393671035767</t>
   </si>
   <si>
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11351346969604</t>
+    <t xml:space="preserve">2.11351323127747</t>
   </si>
   <si>
     <t xml:space="preserve">2.09785747528076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06132769584656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03784441947937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98826777935028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02740716934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01697015762329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93086397647858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95539116859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9303423166275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98304951190948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98200595378876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96739387512207</t>
+    <t xml:space="preserve">2.06132793426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03784418106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9882675409317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02740693092346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01696991920471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93086373806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95539152622223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93034243583679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98304927349091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98200571537018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96739375591278</t>
   </si>
   <si>
     <t xml:space="preserve">1.96687185764313</t>
@@ -92,37 +92,37 @@
     <t xml:space="preserve">1.97052478790283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98409330844879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9439103603363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86563193798065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8943338394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90581488609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88128769397736</t>
+    <t xml:space="preserve">1.98409295082092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94391000270844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86563205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89433395862579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581476688385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88128757476807</t>
   </si>
   <si>
     <t xml:space="preserve">1.89955270290375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88389694690704</t>
+    <t xml:space="preserve">1.88389682769775</t>
   </si>
   <si>
     <t xml:space="preserve">1.91259908676147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92199265956879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9099897146225</t>
+    <t xml:space="preserve">1.92199230194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90998947620392</t>
   </si>
   <si>
     <t xml:space="preserve">2.05610918998718</t>
@@ -131,40 +131,40 @@
     <t xml:space="preserve">2.0352349281311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04828143119812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05819654464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13438773155212</t>
+    <t xml:space="preserve">2.04828119277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05819606781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13438749313354</t>
   </si>
   <si>
     <t xml:space="preserve">2.07176494598389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10255479812622</t>
+    <t xml:space="preserve">2.10255455970764</t>
   </si>
   <si>
     <t xml:space="preserve">2.06654620170593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10725092887878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10829472541809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11612224578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1109037399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11403512954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13073444366455</t>
+    <t xml:space="preserve">2.10725116729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10829401016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11612248420715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11090421676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11403489112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13073468208313</t>
   </si>
   <si>
     <t xml:space="preserve">2.14482426643372</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">2.18396353721619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11873197555542</t>
+    <t xml:space="preserve">2.11873173713684</t>
   </si>
   <si>
     <t xml:space="preserve">2.10777282714844</t>
@@ -182,16 +182,16 @@
     <t xml:space="preserve">2.09263896942139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06915545463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05089044570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03627896308899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08481121063232</t>
+    <t xml:space="preserve">2.06915521621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05089020729065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03627872467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08481073379517</t>
   </si>
   <si>
     <t xml:space="preserve">2.10307574272156</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">2.08742046356201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0769829750061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03001618385315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01749205589294</t>
+    <t xml:space="preserve">2.07698321342468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03001594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01749181747437</t>
   </si>
   <si>
     <t xml:space="preserve">2.03262567520142</t>
@@ -230,73 +230,73 @@
     <t xml:space="preserve">2.1396062374115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20483732223511</t>
+    <t xml:space="preserve">2.20483756065369</t>
   </si>
   <si>
     <t xml:space="preserve">2.21266579627991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25441431999207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21840596199036</t>
+    <t xml:space="preserve">2.25441408157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21840620040894</t>
   </si>
   <si>
     <t xml:space="preserve">2.18605089187622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17613577842712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18657302856445</t>
+    <t xml:space="preserve">2.17613554000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18657326698303</t>
   </si>
   <si>
     <t xml:space="preserve">2.20744705200195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19231343269348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28050708770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30816507339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28572559356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40679574012756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4595034122467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47411489486694</t>
+    <t xml:space="preserve">2.1923131942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28050637245178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30816531181335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28572535514832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40679550170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45950317382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47411513328552</t>
   </si>
   <si>
     <t xml:space="preserve">2.52108216285706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48611736297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57013630867004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61934614181519</t>
+    <t xml:space="preserve">2.48611760139465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57013607025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61934638023376</t>
   </si>
   <si>
     <t xml:space="preserve">2.62095069885254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65464901924133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64127635955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67443919181824</t>
+    <t xml:space="preserve">2.65464878082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64127659797668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67443943023682</t>
   </si>
   <si>
     <t xml:space="preserve">2.74504494667053</t>
@@ -305,37 +305,37 @@
     <t xml:space="preserve">2.76644062995911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90765070915222</t>
+    <t xml:space="preserve">2.90765047073364</t>
   </si>
   <si>
     <t xml:space="preserve">2.93760466575623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95044159889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89481353759766</t>
+    <t xml:space="preserve">2.95044183731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89481377601624</t>
   </si>
   <si>
     <t xml:space="preserve">2.79211497306824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86699891090393</t>
+    <t xml:space="preserve">2.86699914932251</t>
   </si>
   <si>
     <t xml:space="preserve">2.8563015460968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84774327278137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77071952819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71723079681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68941617012024</t>
+    <t xml:space="preserve">2.84774351119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77071928977966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71723055839539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68941640853882</t>
   </si>
   <si>
     <t xml:space="preserve">2.64876508712769</t>
@@ -347,22 +347,22 @@
     <t xml:space="preserve">2.81564998626709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9311854839325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79853391647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72792816162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81351041793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86913871765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92048788070679</t>
+    <t xml:space="preserve">2.93118572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79853367805481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72792840003967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81351017951965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86913895606995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92048811912537</t>
   </si>
   <si>
     <t xml:space="preserve">2.93974375724792</t>
@@ -371,79 +371,79 @@
     <t xml:space="preserve">2.92262744903564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94616270065308</t>
+    <t xml:space="preserve">2.94616293907166</t>
   </si>
   <si>
     <t xml:space="preserve">2.92690682411194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98253488540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99537205696106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01676774024963</t>
+    <t xml:space="preserve">2.98253464698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99537253379822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01676797866821</t>
   </si>
   <si>
     <t xml:space="preserve">3.10234999656677</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24142074584961</t>
+    <t xml:space="preserve">3.24142050743103</t>
   </si>
   <si>
     <t xml:space="preserve">3.24997878074646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2842116355896</t>
+    <t xml:space="preserve">3.28421187400818</t>
   </si>
   <si>
     <t xml:space="preserve">3.23500204086304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23072290420532</t>
+    <t xml:space="preserve">3.2307231426239</t>
   </si>
   <si>
     <t xml:space="preserve">3.20504832267761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18793201446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23286247253418</t>
+    <t xml:space="preserve">3.18793177604675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23286271095276</t>
   </si>
   <si>
     <t xml:space="preserve">3.22216486930847</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2007691860199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20932745933533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11946630477905</t>
+    <t xml:space="preserve">3.20076942443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20932722091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11946606636047</t>
   </si>
   <si>
     <t xml:space="preserve">3.19862961769104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20290899276733</t>
+    <t xml:space="preserve">3.20290875434875</t>
   </si>
   <si>
     <t xml:space="preserve">3.27351427078247</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29277014732361</t>
+    <t xml:space="preserve">3.29276990890503</t>
   </si>
   <si>
     <t xml:space="preserve">3.28635120391846</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2670955657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22858333587646</t>
+    <t xml:space="preserve">3.26709532737732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22858357429504</t>
   </si>
   <si>
     <t xml:space="preserve">3.2157461643219</t>
@@ -455,16 +455,16 @@
     <t xml:space="preserve">3.26281642913818</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22002482414246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25639796257019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25211834907532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0959312915802</t>
+    <t xml:space="preserve">3.22002506256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25639772415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25211882591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09593152999878</t>
   </si>
   <si>
     <t xml:space="preserve">3.13444304466248</t>
@@ -473,34 +473,34 @@
     <t xml:space="preserve">3.15369915962219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19435048103333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14514112472534</t>
+    <t xml:space="preserve">3.1943507194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14514088630676</t>
   </si>
   <si>
     <t xml:space="preserve">3.16653633117676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03816318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27565360069275</t>
+    <t xml:space="preserve">3.03816342353821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27565336227417</t>
   </si>
   <si>
     <t xml:space="preserve">3.20718789100647</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14942026138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3141655921936</t>
+    <t xml:space="preserve">3.14942002296448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31416535377502</t>
   </si>
   <si>
     <t xml:space="preserve">3.37193369865417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53026032447815</t>
+    <t xml:space="preserve">3.53026056289673</t>
   </si>
   <si>
     <t xml:space="preserve">3.61584234237671</t>
@@ -512,16 +512,16 @@
     <t xml:space="preserve">3.84049558639526</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94105362892151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0223560333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92607665061951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88970494270325</t>
+    <t xml:space="preserve">3.94105386734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02235698699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92607688903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88970565795898</t>
   </si>
   <si>
     <t xml:space="preserve">4.04375267028809</t>
@@ -530,10 +530,10 @@
     <t xml:space="preserve">4.12077617645264</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26198673248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16142797470093</t>
+    <t xml:space="preserve">4.26198625564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16142749786377</t>
   </si>
   <si>
     <t xml:space="preserve">4.18924236297607</t>
@@ -542,91 +542,91 @@
     <t xml:space="preserve">4.39677810668945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60859394073486</t>
+    <t xml:space="preserve">4.60859441757202</t>
   </si>
   <si>
     <t xml:space="preserve">4.57650136947632</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56580400466919</t>
+    <t xml:space="preserve">4.56580352783203</t>
   </si>
   <si>
     <t xml:space="preserve">4.6770601272583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86747980117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85678339004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63854837417603</t>
+    <t xml:space="preserve">4.86748027801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85678243637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63854789733887</t>
   </si>
   <si>
     <t xml:space="preserve">4.65994310379028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65566396713257</t>
+    <t xml:space="preserve">4.65566444396973</t>
   </si>
   <si>
     <t xml:space="preserve">4.56366348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49305820465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29835891723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2748236656189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26626586914062</t>
+    <t xml:space="preserve">4.49305868148804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29835939407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27482414245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26626682281494</t>
   </si>
   <si>
     <t xml:space="preserve">4.15500926971436</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1186375617981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01807832717896</t>
+    <t xml:space="preserve">4.11863660812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0180778503418</t>
   </si>
   <si>
     <t xml:space="preserve">4.1528697013855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17212629318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28980112075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27910375595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26412630081177</t>
+    <t xml:space="preserve">4.17212581634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2898006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27910327911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26412582397461</t>
   </si>
   <si>
     <t xml:space="preserve">4.57864093780518</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55724573135376</t>
+    <t xml:space="preserve">4.55724430084229</t>
   </si>
   <si>
     <t xml:space="preserve">4.55510568618774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53585004806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56794309616089</t>
+    <t xml:space="preserve">4.53584957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56794261932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.64068698883057</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51445436477661</t>
+    <t xml:space="preserve">4.51445388793945</t>
   </si>
   <si>
     <t xml:space="preserve">4.58291959762573</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">4.43315172195435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44598817825317</t>
+    <t xml:space="preserve">4.44598865509033</t>
   </si>
   <si>
     <t xml:space="preserve">4.65138530731201</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56152391433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70273494720459</t>
+    <t xml:space="preserve">4.56152439117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70273447036743</t>
   </si>
   <si>
     <t xml:space="preserve">4.69203662872314</t>
@@ -656,37 +656,37 @@
     <t xml:space="preserve">4.664222240448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68347835540771</t>
+    <t xml:space="preserve">4.68347883224487</t>
   </si>
   <si>
     <t xml:space="preserve">5.01082992553711</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29325008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19911050796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16059875488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13920259475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13706350326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11352872848511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94878244400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02152729034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13492393493652</t>
+    <t xml:space="preserve">5.29325151443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19911003112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16059923171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13920307159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13706398010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11352825164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9487829208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02152824401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13492441177368</t>
   </si>
   <si>
     <t xml:space="preserve">5.18413400650024</t>
@@ -695,94 +695,94 @@
     <t xml:space="preserve">5.2183666229248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08143520355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05576038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97445678710938</t>
+    <t xml:space="preserve">5.0814356803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05576086044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97445726394653</t>
   </si>
   <si>
     <t xml:space="preserve">4.82468891143799</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00227117538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95306205749512</t>
+    <t xml:space="preserve">5.00227165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95306158065796</t>
   </si>
   <si>
     <t xml:space="preserve">5.02580642700195</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01296997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0044116973877</t>
+    <t xml:space="preserve">5.01296949386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00441122055054</t>
   </si>
   <si>
     <t xml:space="preserve">5.0386438369751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02794694900513</t>
+    <t xml:space="preserve">5.02794647216797</t>
   </si>
   <si>
     <t xml:space="preserve">4.95734167098999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87175893783569</t>
+    <t xml:space="preserve">4.87175941467285</t>
   </si>
   <si>
     <t xml:space="preserve">4.94022464752197</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90171241760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80115413665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.781898021698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77119970321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76264142990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71771097183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65352439880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70701360702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6620831489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67492055892944</t>
+    <t xml:space="preserve">4.9017128944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80115461349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78189897537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77120065689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76264190673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71771144866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65352535247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70701313018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66208362579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67492008209229</t>
   </si>
   <si>
     <t xml:space="preserve">4.60003566741943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73696756362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83324766159058</t>
+    <t xml:space="preserve">4.73696708679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83324718475342</t>
   </si>
   <si>
     <t xml:space="preserve">5.04934215545654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99585342407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10711002349854</t>
+    <t xml:space="preserve">4.99585294723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10711097717285</t>
   </si>
   <si>
     <t xml:space="preserve">5.03008556365967</t>
@@ -791,31 +791,31 @@
     <t xml:space="preserve">5.00655078887939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20980787277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29111051559448</t>
+    <t xml:space="preserve">5.20980834960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29111099243164</t>
   </si>
   <si>
     <t xml:space="preserve">5.3232045173645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45585632324219</t>
+    <t xml:space="preserve">5.45585680007935</t>
   </si>
   <si>
     <t xml:space="preserve">5.58422994613647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54143905639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74255704879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80888271331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84097576141357</t>
+    <t xml:space="preserve">5.54143857955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74255609512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80888319015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84097623825073</t>
   </si>
   <si>
     <t xml:space="preserve">6.00786113739014</t>
@@ -824,40 +824,40 @@
     <t xml:space="preserve">5.7126030921936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77678966522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65911388397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66339302062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7874870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79390668869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87306928634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99074411392212</t>
+    <t xml:space="preserve">5.77678918838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65911436080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66339349746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78748655319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79390573501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87306976318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99074506759644</t>
   </si>
   <si>
     <t xml:space="preserve">5.84525489807129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88590669631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90088319778442</t>
+    <t xml:space="preserve">5.88590717315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90088367462158</t>
   </si>
   <si>
     <t xml:space="preserve">5.88376760482788</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93725633621216</t>
+    <t xml:space="preserve">5.93725538253784</t>
   </si>
   <si>
     <t xml:space="preserve">5.952232837677</t>
@@ -866,55 +866,55 @@
     <t xml:space="preserve">5.97790718078613</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86023187637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96934843063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03353548049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31167650222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15977001190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41651582717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42935228347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47428417205811</t>
+    <t xml:space="preserve">5.86023139953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96934938430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03353595733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3116774559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1597695350647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41651439666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42935276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47428321838379</t>
   </si>
   <si>
     <t xml:space="preserve">6.6860990524292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78237915039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88935661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9428448677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99419450759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19317293167114</t>
+    <t xml:space="preserve">6.78237867355347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88935613632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94284534454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99419403076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19317245483398</t>
   </si>
   <si>
     <t xml:space="preserve">7.00703144073486</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09903192520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09689235687256</t>
+    <t xml:space="preserve">7.09903240203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09689283370972</t>
   </si>
   <si>
     <t xml:space="preserve">6.989914894104</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">7.1674976348877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24880170822144</t>
+    <t xml:space="preserve">7.24880123138428</t>
   </si>
   <si>
     <t xml:space="preserve">7.23596382141113</t>
@@ -938,52 +938,52 @@
     <t xml:space="preserve">7.07121801376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35446834564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11911773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36088705062866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29028224945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49781847000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38442277908325</t>
+    <t xml:space="preserve">6.35446882247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11911821365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3608865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29028177261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49781894683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38442230224609</t>
   </si>
   <si>
     <t xml:space="preserve">6.41009664535522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46358489990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41154670715332</t>
+    <t xml:space="preserve">6.46358585357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41154718399048</t>
   </si>
   <si>
     <t xml:space="preserve">6.4484076499939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49827718734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43539810180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34216260910034</t>
+    <t xml:space="preserve">6.49827766418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43539762496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3421630859375</t>
   </si>
   <si>
     <t xml:space="preserve">6.44407081604004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79749822616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64571952819824</t>
+    <t xml:space="preserve">6.79749774932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64571905136108</t>
   </si>
   <si>
     <t xml:space="preserve">6.70426225662231</t>
@@ -995,19 +995,19 @@
     <t xml:space="preserve">6.47009038925171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39203214645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30963897705078</t>
+    <t xml:space="preserve">6.39203262329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30963945388794</t>
   </si>
   <si>
     <t xml:space="preserve">6.37468671798706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24675989151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22507667541504</t>
+    <t xml:space="preserve">6.24675941467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22507619857788</t>
   </si>
   <si>
     <t xml:space="preserve">6.3226490020752</t>
@@ -1016,43 +1016,43 @@
     <t xml:space="preserve">6.21857213973999</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22290849685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26410436630249</t>
+    <t xml:space="preserve">6.22290897369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26410531997681</t>
   </si>
   <si>
     <t xml:space="preserve">6.05378389358521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03643798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03210163116455</t>
+    <t xml:space="preserve">6.03643751144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03210067749023</t>
   </si>
   <si>
     <t xml:space="preserve">5.85430383682251</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81093788146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80009794235229</t>
+    <t xml:space="preserve">5.8109393119812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80009746551514</t>
   </si>
   <si>
     <t xml:space="preserve">5.83478975296021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68517923355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85647296905518</t>
+    <t xml:space="preserve">5.68518018722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85647201538086</t>
   </si>
   <si>
     <t xml:space="preserve">5.81744337081909</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83045339584351</t>
+    <t xml:space="preserve">5.83045291900635</t>
   </si>
   <si>
     <t xml:space="preserve">5.83912658691406</t>
@@ -1064,16 +1064,16 @@
     <t xml:space="preserve">5.74589109420776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88466024398804</t>
+    <t xml:space="preserve">5.88465976715088</t>
   </si>
   <si>
     <t xml:space="preserve">5.59844970703125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41197967529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37511968612671</t>
+    <t xml:space="preserve">5.41197872161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37511825561523</t>
   </si>
   <si>
     <t xml:space="preserve">5.51171875</t>
@@ -1082,13 +1082,13 @@
     <t xml:space="preserve">5.63747835159302</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66132831573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78925609588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61579608917236</t>
+    <t xml:space="preserve">5.66132879257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78925704956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61579561233521</t>
   </si>
   <si>
     <t xml:space="preserve">5.62230062484741</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">5.4943733215332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46184968948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29272413253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44883918762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34909915924072</t>
+    <t xml:space="preserve">5.46184921264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.292724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44883966445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34909963607788</t>
   </si>
   <si>
     <t xml:space="preserve">5.35560464859009</t>
@@ -1115,10 +1115,10 @@
     <t xml:space="preserve">5.30573463439941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32524871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39680147171021</t>
+    <t xml:space="preserve">5.32524824142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39680051803589</t>
   </si>
   <si>
     <t xml:space="preserve">5.46401691436768</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">5.43149280548096</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36427688598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31874465942383</t>
+    <t xml:space="preserve">5.36427783966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31874418258667</t>
   </si>
   <si>
     <t xml:space="preserve">5.3946328163147</t>
@@ -1148,106 +1148,106 @@
     <t xml:space="preserve">5.56592559814453</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70252513885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76757335662842</t>
+    <t xml:space="preserve">5.70252561569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76757383346558</t>
   </si>
   <si>
     <t xml:space="preserve">5.63097286224365</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98006248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86514568328857</t>
+    <t xml:space="preserve">5.98006343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86514520645142</t>
   </si>
   <si>
     <t xml:space="preserve">5.70469379425049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53990602493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46835422515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42498874664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38379192352295</t>
+    <t xml:space="preserve">5.53990650177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46835374832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42498826980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38379144668579</t>
   </si>
   <si>
     <t xml:space="preserve">5.3989691734314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26887321472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20599412918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13877868652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14961910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16262865066528</t>
+    <t xml:space="preserve">5.26887369155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20599460601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13877773284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14961957931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16262817382812</t>
   </si>
   <si>
     <t xml:space="preserve">5.32091236114502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30356645584106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18647956848145</t>
+    <t xml:space="preserve">5.30356597900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1864800453186</t>
   </si>
   <si>
     <t xml:space="preserve">5.13227319717407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05204772949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03036546707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11709642410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0780668258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04337453842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04771184921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95013904571533</t>
+    <t xml:space="preserve">5.05204677581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03036499023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11709547042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07806634902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04337501525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04771137237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95013952255249</t>
   </si>
   <si>
     <t xml:space="preserve">4.91978406906128</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87858724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87208223342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88509178161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96098041534424</t>
+    <t xml:space="preserve">4.878586769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8720817565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88509225845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9609808921814</t>
   </si>
   <si>
     <t xml:space="preserve">5.10408639907837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1843113899231</t>
+    <t xml:space="preserve">5.18431186676025</t>
   </si>
   <si>
     <t xml:space="preserve">5.13444185256958</t>
@@ -1256,31 +1256,31 @@
     <t xml:space="preserve">5.15395641326904</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02819728851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94363451004028</t>
+    <t xml:space="preserve">5.02819681167603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94363498687744</t>
   </si>
   <si>
     <t xml:space="preserve">4.78751993179321</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64441442489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62923669815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5706934928894</t>
+    <t xml:space="preserve">4.64441537857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62923717498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57069396972656</t>
   </si>
   <si>
     <t xml:space="preserve">4.84606266021729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12793684005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5073823928833</t>
+    <t xml:space="preserve">5.12793636322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50738191604614</t>
   </si>
   <si>
     <t xml:space="preserve">5.7111988067627</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">5.74372291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66783285140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80226612091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76323747634888</t>
+    <t xml:space="preserve">5.66783428192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80226516723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76323699951172</t>
   </si>
   <si>
     <t xml:space="preserve">5.67650747299194</t>
@@ -1304,43 +1304,43 @@
     <t xml:space="preserve">5.7177038192749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55508422851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54207468032837</t>
+    <t xml:space="preserve">5.55508470535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54207420349121</t>
   </si>
   <si>
     <t xml:space="preserve">5.6006178855896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48786783218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91935157775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08630847930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95838022232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03426933288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01909208297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92152070999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86080884933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9301929473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7090311050415</t>
+    <t xml:space="preserve">5.487868309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91935205459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08630752563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95838069915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0342698097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01909255981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92151975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86080932617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93019342422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70903062820435</t>
   </si>
   <si>
     <t xml:space="preserve">5.77841520309448</t>
@@ -1349,40 +1349,40 @@
     <t xml:space="preserve">5.79792928695679</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72420883178711</t>
+    <t xml:space="preserve">5.72420787811279</t>
   </si>
   <si>
     <t xml:space="preserve">5.64398288726807</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55291557312012</t>
+    <t xml:space="preserve">5.55291604995728</t>
   </si>
   <si>
     <t xml:space="preserve">5.52039194107056</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53773784637451</t>
+    <t xml:space="preserve">5.53773832321167</t>
   </si>
   <si>
     <t xml:space="preserve">5.91501569747925</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75456380844116</t>
+    <t xml:space="preserve">5.75456476211548</t>
   </si>
   <si>
     <t xml:space="preserve">5.6201319694519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74155473709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9280252456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9410343170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84996795654297</t>
+    <t xml:space="preserve">5.74155378341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92802572250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94103479385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84996747970581</t>
   </si>
   <si>
     <t xml:space="preserve">5.84129476547241</t>
@@ -1394,25 +1394,25 @@
     <t xml:space="preserve">6.17520666122437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11449480056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40937900543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2619366645813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06245756149292</t>
+    <t xml:space="preserve">6.11449575424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40937852859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26193714141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06245708465576</t>
   </si>
   <si>
     <t xml:space="preserve">5.99307298660278</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98439931869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45968103408813</t>
+    <t xml:space="preserve">5.98439979553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45968055725098</t>
   </si>
   <si>
     <t xml:space="preserve">6.00608253479004</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">5.6938533782959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57243013381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58544015884399</t>
+    <t xml:space="preserve">5.57243061065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58543968200684</t>
   </si>
   <si>
     <t xml:space="preserve">5.33392190933228</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">5.66349744796753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77191066741943</t>
+    <t xml:space="preserve">5.77191019058228</t>
   </si>
   <si>
     <t xml:space="preserve">5.87598657608032</t>
@@ -1448,28 +1448,28 @@
     <t xml:space="preserve">6.07113027572632</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16219711303711</t>
+    <t xml:space="preserve">6.16219663619995</t>
   </si>
   <si>
     <t xml:space="preserve">6.2445912361145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60885858535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56983041763306</t>
+    <t xml:space="preserve">6.60885906219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5698299407959</t>
   </si>
   <si>
     <t xml:space="preserve">6.80833911895752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78665637969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98179960250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85604095458984</t>
+    <t xml:space="preserve">6.78665590286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9818000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85604047775269</t>
   </si>
   <si>
     <t xml:space="preserve">6.977463722229</t>
@@ -1478,10 +1478,10 @@
     <t xml:space="preserve">6.75196409225464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83002185821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10322189331055</t>
+    <t xml:space="preserve">6.83002138137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10322237014771</t>
   </si>
   <si>
     <t xml:space="preserve">7.02516508102417</t>
@@ -1490,19 +1490,19 @@
     <t xml:space="preserve">6.92542505264282</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99047374725342</t>
+    <t xml:space="preserve">6.99047327041626</t>
   </si>
   <si>
     <t xml:space="preserve">6.93843460083008</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36341238021851</t>
+    <t xml:space="preserve">7.36341381072998</t>
   </si>
   <si>
     <t xml:space="preserve">7.19862604141235</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05985689163208</t>
+    <t xml:space="preserve">7.05985736846924</t>
   </si>
   <si>
     <t xml:space="preserve">7.31137561798096</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">7.15526056289673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13357782363892</t>
+    <t xml:space="preserve">7.13357830047607</t>
   </si>
   <si>
     <t xml:space="preserve">6.99914598464966</t>
@@ -1520,22 +1520,22 @@
     <t xml:space="preserve">6.94277191162109</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12490558624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09021234512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06852960586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09454870223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33305835723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.489173412323</t>
+    <t xml:space="preserve">7.12490463256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09021282196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06853008270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09454965591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33305788040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48917436599731</t>
   </si>
   <si>
     <t xml:space="preserve">7.43279790878296</t>
@@ -1547,46 +1547,46 @@
     <t xml:space="preserve">7.27234649658203</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42412614822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29836559295654</t>
+    <t xml:space="preserve">7.4241247177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2983660697937</t>
   </si>
   <si>
     <t xml:space="preserve">7.25933742523193</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94710731506348</t>
+    <t xml:space="preserve">6.94710826873779</t>
   </si>
   <si>
     <t xml:space="preserve">6.51345586776733</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72160816192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52212810516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40504264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50478172302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43106174468994</t>
+    <t xml:space="preserve">6.72160768508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52212858200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40504217147827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50478219985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43106126785278</t>
   </si>
   <si>
     <t xml:space="preserve">6.59584951400757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27184104919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19712352752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48280715942383</t>
+    <t xml:space="preserve">6.27184152603149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19712400436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48280668258667</t>
   </si>
   <si>
     <t xml:space="preserve">6.54873323440552</t>
@@ -1595,28 +1595,28 @@
     <t xml:space="preserve">6.48720169067383</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51796817779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43446016311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54433822631836</t>
+    <t xml:space="preserve">6.51796770095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43446111679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54433870315552</t>
   </si>
   <si>
     <t xml:space="preserve">6.46522617340088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37292861938477</t>
+    <t xml:space="preserve">6.37292909622192</t>
   </si>
   <si>
     <t xml:space="preserve">6.59708023071289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63663578033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64103126525879</t>
+    <t xml:space="preserve">6.63663673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64103174209595</t>
   </si>
   <si>
     <t xml:space="preserve">6.50038719177246</t>
@@ -1628,22 +1628,22 @@
     <t xml:space="preserve">6.36853361129761</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33776807785034</t>
+    <t xml:space="preserve">6.33776760101318</t>
   </si>
   <si>
     <t xml:space="preserve">6.30700159072876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21030950546265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11801195144653</t>
+    <t xml:space="preserve">6.2103099822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11801147460938</t>
   </si>
   <si>
     <t xml:space="preserve">6.11361598968506</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01692342758179</t>
+    <t xml:space="preserve">6.01692390441895</t>
   </si>
   <si>
     <t xml:space="preserve">6.15317249298096</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">6.03450393676758</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07405996322632</t>
+    <t xml:space="preserve">6.07406044006348</t>
   </si>
   <si>
     <t xml:space="preserve">6.09603595733643</t>
@@ -1661,19 +1661,19 @@
     <t xml:space="preserve">6.2366795539856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13998699188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10482597351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22788953781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4740161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37732362747192</t>
+    <t xml:space="preserve">6.13998746871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1048264503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22788906097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47401666641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37732410430908</t>
   </si>
   <si>
     <t xml:space="preserve">6.41688013076782</t>
@@ -1685,28 +1685,28 @@
     <t xml:space="preserve">6.33337306976318</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28063106536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28942108154297</t>
+    <t xml:space="preserve">6.28063058853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28942155838013</t>
   </si>
   <si>
     <t xml:space="preserve">6.26305055618286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31579256057739</t>
+    <t xml:space="preserve">6.31579160690308</t>
   </si>
   <si>
     <t xml:space="preserve">6.32018756866455</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39050912857056</t>
+    <t xml:space="preserve">6.3905086517334</t>
   </si>
   <si>
     <t xml:space="preserve">6.2190990447998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13119697570801</t>
+    <t xml:space="preserve">6.13119745254517</t>
   </si>
   <si>
     <t xml:space="preserve">6.08285045623779</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">6.35095262527466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52675771713257</t>
+    <t xml:space="preserve">6.52675867080688</t>
   </si>
   <si>
     <t xml:space="preserve">5.994948387146</t>
@@ -1727,25 +1727,25 @@
     <t xml:space="preserve">6.28502607345581</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07845592498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88067531585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37963056564331</t>
+    <t xml:space="preserve">6.07845544815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88067436218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37963104248047</t>
   </si>
   <si>
     <t xml:space="preserve">5.24338245391846</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15108442306519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99285984039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88737678527832</t>
+    <t xml:space="preserve">5.15108394622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99285936355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88737630844116</t>
   </si>
   <si>
     <t xml:space="preserve">5.04120635986328</t>
@@ -1754,10 +1754,10 @@
     <t xml:space="preserve">4.93132877349854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98846530914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96648979187012</t>
+    <t xml:space="preserve">4.98846435546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96648931503296</t>
   </si>
   <si>
     <t xml:space="preserve">4.90056228637695</t>
@@ -1775,43 +1775,43 @@
     <t xml:space="preserve">4.53576707839966</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66762065887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63245916366577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29623222351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05669832229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13581132888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04351329803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97099351882935</t>
+    <t xml:space="preserve">4.66762113571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63246011734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2962327003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0566987991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13581085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04351377487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97099328041077</t>
   </si>
   <si>
     <t xml:space="preserve">3.98417901992798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88968420028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01274728775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08306980133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05889558792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9490180015564</t>
+    <t xml:space="preserve">3.88968372344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0127477645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08306884765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0588960647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94901752471924</t>
   </si>
   <si>
     <t xml:space="preserve">3.80178141593933</t>
@@ -1820,61 +1820,61 @@
     <t xml:space="preserve">3.64135932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69190335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75123739242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66992783546448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77101516723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980613708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8962767124176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08526706695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93363523483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8567202091217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86331295967102</t>
+    <t xml:space="preserve">3.69190359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7512378692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66992831230164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77101588249207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980637550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89627695083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08526659011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93363571166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85672068595886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8633131980896</t>
   </si>
   <si>
     <t xml:space="preserve">3.87430119514465</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80617690086365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79518890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77760863304138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39523267745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30073761940002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18646430969238</t>
+    <t xml:space="preserve">3.80617666244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79518961906433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7776083946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39523243904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30073738098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18646454811096</t>
   </si>
   <si>
     <t xml:space="preserve">2.97989344596863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98868370056152</t>
+    <t xml:space="preserve">2.9886839389801</t>
   </si>
   <si>
     <t xml:space="preserve">3.10735201835632</t>
@@ -1886,16 +1886,16 @@
     <t xml:space="preserve">3.32930564880371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21283531188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17108130455017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39303517341614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33589863777161</t>
+    <t xml:space="preserve">3.21283507347107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17108154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39303493499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33589887619019</t>
   </si>
   <si>
     <t xml:space="preserve">3.42819619178772</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">3.45456695556641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26118135452271</t>
+    <t xml:space="preserve">3.26118111610413</t>
   </si>
   <si>
     <t xml:space="preserve">3.19085955619812</t>
@@ -1913,10 +1913,10 @@
     <t xml:space="preserve">3.05680799484253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87660837173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88100290298462</t>
+    <t xml:space="preserve">2.87660813331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88100337982178</t>
   </si>
   <si>
     <t xml:space="preserve">2.95791792869568</t>
@@ -1925,52 +1925,52 @@
     <t xml:space="preserve">3.05021572113037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98648619651794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90517663955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83485436439514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87441086769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7293713092804</t>
+    <t xml:space="preserve">2.98648643493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90517687797546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83485460281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87441062927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72937178611755</t>
   </si>
   <si>
     <t xml:space="preserve">2.70080327987671</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74035930633545</t>
+    <t xml:space="preserve">2.74035906791687</t>
   </si>
   <si>
     <t xml:space="preserve">2.78431081771851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83924984931946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01944947242737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05241298675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11394476890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17327880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10515475273132</t>
+    <t xml:space="preserve">2.83924961090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01944971084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05241322517395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11394453048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17327857017517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1051549911499</t>
   </si>
   <si>
     <t xml:space="preserve">3.16668653488159</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17987179756165</t>
+    <t xml:space="preserve">3.17987155914307</t>
   </si>
   <si>
     <t xml:space="preserve">3.13152527809143</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">3.13811802864075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26337885856628</t>
+    <t xml:space="preserve">3.26337933540344</t>
   </si>
   <si>
     <t xml:space="preserve">3.48093771934509</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">3.41940569877625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47214722633362</t>
+    <t xml:space="preserve">3.4721474647522</t>
   </si>
   <si>
     <t xml:space="preserve">3.43478870391846</t>
@@ -2006,13 +2006,13 @@
     <t xml:space="preserve">3.45017170906067</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46115946769714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52049398422241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3776524066925</t>
+    <t xml:space="preserve">3.46115970611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52049374580383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37765192985535</t>
   </si>
   <si>
     <t xml:space="preserve">3.4633572101593</t>
@@ -2021,13 +2021,13 @@
     <t xml:space="preserve">3.52269124984741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63037204742432</t>
+    <t xml:space="preserve">3.63037180900574</t>
   </si>
   <si>
     <t xml:space="preserve">3.56005001068115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55125975608826</t>
+    <t xml:space="preserve">3.55125951766968</t>
   </si>
   <si>
     <t xml:space="preserve">3.63916182518005</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">3.73805236816406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8281524181366</t>
+    <t xml:space="preserve">3.82815217971802</t>
   </si>
   <si>
     <t xml:space="preserve">3.70728635787964</t>
@@ -2051,37 +2051,37 @@
     <t xml:space="preserve">3.87210369110107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92264771461487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99956274032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06109428405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02153778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17756509780884</t>
+    <t xml:space="preserve">3.92264747619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99956226348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06109380722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02153730392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17756462097168</t>
   </si>
   <si>
     <t xml:space="preserve">4.11603307723999</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88089370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93583250045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95780849456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90946269035339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15778636932373</t>
+    <t xml:space="preserve">3.88089346885681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93583297729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95780873298645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90946221351624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15778684616089</t>
   </si>
   <si>
     <t xml:space="preserve">4.20833015441895</t>
@@ -2090,25 +2090,25 @@
     <t xml:space="preserve">4.30722093582153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35117197036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27865219116211</t>
+    <t xml:space="preserve">4.35117149353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27865266799927</t>
   </si>
   <si>
     <t xml:space="preserve">4.09405708312988</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13141584396362</t>
+    <t xml:space="preserve">4.13141489028931</t>
   </si>
   <si>
     <t xml:space="preserve">4.20393514633179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12921810150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16437959671021</t>
+    <t xml:space="preserve">4.12921857833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16437864303589</t>
   </si>
   <si>
     <t xml:space="preserve">4.21712064743042</t>
@@ -2120,193 +2120,193 @@
     <t xml:space="preserve">4.16657686233521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17976188659668</t>
+    <t xml:space="preserve">4.17976236343384</t>
   </si>
   <si>
     <t xml:space="preserve">4.12702083587646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00395774841309</t>
+    <t xml:space="preserve">4.00395679473877</t>
   </si>
   <si>
     <t xml:space="preserve">4.08087158203125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11383581161499</t>
+    <t xml:space="preserve">4.11383485794067</t>
   </si>
   <si>
     <t xml:space="preserve">4.19514513015747</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90286874771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86551094055176</t>
+    <t xml:space="preserve">3.9028697013855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8655104637146</t>
   </si>
   <si>
     <t xml:space="preserve">3.83254766464233</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92704319953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96879601478577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96659827232361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94682049751282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85012817382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81057190895081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7028911113739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70948362350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58861804008484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78420090675354</t>
+    <t xml:space="preserve">3.92704272270203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96879577636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96659851074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94682025909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85012769699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81057167053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70289134979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70948386192322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58861827850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78420066833496</t>
   </si>
   <si>
     <t xml:space="preserve">4.02813053131104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75783061981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8883421421051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81408548355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69707536697388</t>
+    <t xml:space="preserve">3.75783038139343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88834190368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8140857219696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6970751285553</t>
   </si>
   <si>
     <t xml:space="preserve">3.68132376670837</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69932579994202</t>
+    <t xml:space="preserve">3.69932532310486</t>
   </si>
   <si>
     <t xml:space="preserve">3.62506914138794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60931754112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66782236099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7758321762085</t>
+    <t xml:space="preserve">3.60931730270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66782259941101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77583193778992</t>
   </si>
   <si>
     <t xml:space="preserve">3.8050844669342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85683917999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89734292030334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82983732223511</t>
+    <t xml:space="preserve">3.85683870315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89734244346619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82983708381653</t>
   </si>
   <si>
     <t xml:space="preserve">3.88159155845642</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80733466148376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83883714675903</t>
+    <t xml:space="preserve">3.80733489990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83883738517761</t>
   </si>
   <si>
     <t xml:space="preserve">3.91534423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97159886360168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12461280822754</t>
+    <t xml:space="preserve">3.97159934043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12461233139038</t>
   </si>
   <si>
     <t xml:space="preserve">4.08185863494873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02110433578491</t>
+    <t xml:space="preserve">4.02110385894775</t>
   </si>
   <si>
     <t xml:space="preserve">4.04135513305664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03010416030884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07285833358765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11561250686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20336961746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21012020111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23937225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33163070678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22812128067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2753758430481</t>
+    <t xml:space="preserve">4.030104637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07285785675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1156120300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20337009429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21011972427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23937273025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33163118362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22812175750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27537631988525</t>
   </si>
   <si>
     <t xml:space="preserve">4.17186689376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25737428665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16511631011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14936447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12236261367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17411661148071</t>
+    <t xml:space="preserve">4.25737476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16511678695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14936494827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12236213684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411708831787</t>
   </si>
   <si>
     <t xml:space="preserve">4.10211038589478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98960089683533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02785396575928</t>
+    <t xml:space="preserve">3.98960137367249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02785444259644</t>
   </si>
   <si>
     <t xml:space="preserve">4.07960844039917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09085941314697</t>
+    <t xml:space="preserve">4.09086036682129</t>
   </si>
   <si>
     <t xml:space="preserve">4.03910541534424</t>
@@ -2318,13 +2318,13 @@
     <t xml:space="preserve">4.00535202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93784642219543</t>
+    <t xml:space="preserve">3.93784618377686</t>
   </si>
   <si>
     <t xml:space="preserve">3.98510050773621</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90184330940247</t>
+    <t xml:space="preserve">3.90184283256531</t>
   </si>
   <si>
     <t xml:space="preserve">3.87709093093872</t>
@@ -2342,49 +2342,49 @@
     <t xml:space="preserve">3.78483295440674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88384175300598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93109512329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91309380531311</t>
+    <t xml:space="preserve">3.8838415145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93109583854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91309428215027</t>
   </si>
   <si>
     <t xml:space="preserve">4.05935716629028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0436053276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09536075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97384929656982</t>
+    <t xml:space="preserve">4.04360580444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09536027908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9738495349884</t>
   </si>
   <si>
     <t xml:space="preserve">3.98285055160522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11336183547974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0638575553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99185085296631</t>
+    <t xml:space="preserve">4.11336231231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06385707855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99185109138489</t>
   </si>
   <si>
     <t xml:space="preserve">4.26862525939941</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26187467575073</t>
+    <t xml:space="preserve">4.26187515258789</t>
   </si>
   <si>
     <t xml:space="preserve">4.24387311935425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52289772033691</t>
+    <t xml:space="preserve">4.52289724349976</t>
   </si>
   <si>
     <t xml:space="preserve">4.91443204879761</t>
@@ -2393,16 +2393,16 @@
     <t xml:space="preserve">5.08544731140137</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23846101760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26546287536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53098678588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39147424697876</t>
+    <t xml:space="preserve">5.23846054077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26546335220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53098630905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3914737701416</t>
   </si>
   <si>
     <t xml:space="preserve">5.29696607589722</t>
@@ -2411,22 +2411,22 @@
     <t xml:space="preserve">5.51298475265503</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60749292373657</t>
+    <t xml:space="preserve">5.60749244689941</t>
   </si>
   <si>
     <t xml:space="preserve">5.45898008346558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3599705696106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3869743347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17545557022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18445634841919</t>
+    <t xml:space="preserve">5.35997152328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38697385787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17545509338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18445587158203</t>
   </si>
   <si>
     <t xml:space="preserve">5.26996374130249</t>
@@ -2441,7 +2441,7 @@
     <t xml:space="preserve">5.3779730796814</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36447143554688</t>
+    <t xml:space="preserve">5.36447191238403</t>
   </si>
   <si>
     <t xml:space="preserve">5.46348094940186</t>
@@ -2450,13 +2450,13 @@
     <t xml:space="preserve">5.59849214553833</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62999486923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82351207733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6434965133667</t>
+    <t xml:space="preserve">5.62999534606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8235125541687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64349603652954</t>
   </si>
   <si>
     <t xml:space="preserve">5.67949962615967</t>
@@ -2465,22 +2465,22 @@
     <t xml:space="preserve">5.62549448013306</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58049011230469</t>
+    <t xml:space="preserve">5.58049058914185</t>
   </si>
   <si>
     <t xml:space="preserve">5.61649370193481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70650196075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61199331283569</t>
+    <t xml:space="preserve">5.70650148391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61199378967285</t>
   </si>
   <si>
     <t xml:space="preserve">5.72000312805176</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79651021957397</t>
+    <t xml:space="preserve">5.79650974273682</t>
   </si>
   <si>
     <t xml:space="preserve">5.94502305984497</t>
@@ -2492,10 +2492,10 @@
     <t xml:space="preserve">6.11603784561157</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98102617263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89101839065552</t>
+    <t xml:space="preserve">5.98102569580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89101791381836</t>
   </si>
   <si>
     <t xml:space="preserve">5.91802024841309</t>
@@ -2513,31 +2513,31 @@
     <t xml:space="preserve">7.07462215423584</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1601300239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4796576499939</t>
+    <t xml:space="preserve">7.16012954711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47965860366821</t>
   </si>
   <si>
     <t xml:space="preserve">7.48415803909302</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57866668701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7001781463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53816223144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49315881729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04311943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15562915802002</t>
+    <t xml:space="preserve">7.57866621017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70017766952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53816318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4931583404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04311895370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15562868118286</t>
   </si>
   <si>
     <t xml:space="preserve">7.29064130783081</t>
@@ -2546,19 +2546,19 @@
     <t xml:space="preserve">7.22763538360596</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16462993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1511287689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99361515045166</t>
+    <t xml:space="preserve">7.1646294593811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15112972259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9936146736145</t>
   </si>
   <si>
     <t xml:space="preserve">7.02961874008179</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14212846755981</t>
+    <t xml:space="preserve">7.14212799072266</t>
   </si>
   <si>
     <t xml:space="preserve">7.26813888549805</t>
@@ -2570,19 +2570,19 @@
     <t xml:space="preserve">7.44365501403809</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78118467330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72267818450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54266309738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43465423583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53366327285767</t>
+    <t xml:space="preserve">7.78118515014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72268009185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54266262054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43465375900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53366279602051</t>
   </si>
   <si>
     <t xml:space="preserve">7.2366361618042</t>
@@ -2597,61 +2597,61 @@
     <t xml:space="preserve">7.28614091873169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13312721252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17813158035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09712409973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39865159988403</t>
+    <t xml:space="preserve">7.13312768936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17813110351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0971245765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39865064620972</t>
   </si>
   <si>
     <t xml:space="preserve">7.30864238739014</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35814666748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38965034484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19163179397583</t>
+    <t xml:space="preserve">7.35814762115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38964986801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19163274765015</t>
   </si>
   <si>
     <t xml:space="preserve">7.05212020874023</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90810775756836</t>
+    <t xml:space="preserve">6.90810823440552</t>
   </si>
   <si>
     <t xml:space="preserve">6.3995623588562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40406274795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62458276748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67858695983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60208129882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65158462524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50307178497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90360689163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77309560775757</t>
+    <t xml:space="preserve">6.40406322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62458229064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67858743667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60208082199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6515851020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50307130813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90360736846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77309513092041</t>
   </si>
   <si>
     <t xml:space="preserve">6.77759647369385</t>
@@ -2660,13 +2660,13 @@
     <t xml:space="preserve">6.71009016036987</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68308734893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56157732009888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71459054946899</t>
+    <t xml:space="preserve">6.68308782577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56157684326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71459007263184</t>
   </si>
   <si>
     <t xml:space="preserve">6.64708471298218</t>
@@ -2675,31 +2675,31 @@
     <t xml:space="preserve">6.52107334136963</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01252841949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86401510238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68850088119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53998756408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67049884796143</t>
+    <t xml:space="preserve">6.01252794265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86401605606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68849992752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53998804092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67049837112427</t>
   </si>
   <si>
     <t xml:space="preserve">5.62099409103394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38247299194336</t>
+    <t xml:space="preserve">5.38247346878052</t>
   </si>
   <si>
     <t xml:space="preserve">5.02694225311279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67141103744507</t>
+    <t xml:space="preserve">4.67141056060791</t>
   </si>
   <si>
     <t xml:space="preserve">4.51839733123779</t>
@@ -2708,43 +2708,43 @@
     <t xml:space="preserve">4.55890083312988</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1381139755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74882936477661</t>
+    <t xml:space="preserve">4.13811349868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74882960319519</t>
   </si>
   <si>
     <t xml:space="preserve">3.60031652450562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26278686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16827869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12777495384216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17052888870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38429760932922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92434549331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79608368873596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55081224441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4428026676178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6070671081543</t>
+    <t xml:space="preserve">3.26278710365295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16827845573425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12777519226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17052865028381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38429713249207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92434525489807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79608392715454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5508120059967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44280290603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60706758499146</t>
   </si>
   <si>
     <t xml:space="preserve">3.5553126335144</t>
@@ -2753,19 +2753,19 @@
     <t xml:space="preserve">3.64532065391541</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5598132610321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73082780838013</t>
+    <t xml:space="preserve">3.55981278419495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73082804679871</t>
   </si>
   <si>
     <t xml:space="preserve">3.67682337760925</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99635076522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96034860610962</t>
+    <t xml:space="preserve">3.99635124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96034812927246</t>
   </si>
   <si>
     <t xml:space="preserve">4.30687856674194</t>
@@ -2774,7 +2774,7 @@
     <t xml:space="preserve">4.04585599899292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94234681129456</t>
+    <t xml:space="preserve">3.94234657287598</t>
   </si>
   <si>
     <t xml:space="preserve">4.09986066818237</t>
@@ -2795,37 +2795,37 @@
     <t xml:space="preserve">4.19436883926392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18986892700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24837350845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27987623214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23487281799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23037242889404</t>
+    <t xml:space="preserve">4.18986845016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24837303161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27987670898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23487234115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23037147521973</t>
   </si>
   <si>
     <t xml:space="preserve">4.10436105728149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59040403366089</t>
+    <t xml:space="preserve">4.59040355682373</t>
   </si>
   <si>
     <t xml:space="preserve">4.44639110565186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40588712692261</t>
+    <t xml:space="preserve">4.40588760375977</t>
   </si>
   <si>
     <t xml:space="preserve">4.31137943267822</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34738302230835</t>
+    <t xml:space="preserve">4.34738206863403</t>
   </si>
   <si>
     <t xml:space="preserve">4.66916036605835</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">4.87167835235596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81542301177979</t>
+    <t xml:space="preserve">4.81542348861694</t>
   </si>
   <si>
     <t xml:space="preserve">4.80417251586914</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">5.09669828414917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14170169830322</t>
+    <t xml:space="preserve">5.14170217514038</t>
   </si>
   <si>
     <t xml:space="preserve">5.3892240524292</t>
@@ -2858,49 +2858,49 @@
     <t xml:space="preserve">5.07419586181641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84917640686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93918418884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10794925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22045946121216</t>
+    <t xml:space="preserve">4.84917593002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93918466567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10794973373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.220458984375</t>
   </si>
   <si>
     <t xml:space="preserve">5.16420412063599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29921531677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11920022964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06294536590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05169439315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18670606613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15295314788818</t>
+    <t xml:space="preserve">5.29921579360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11919975280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0629448890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05169486999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18670558929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15295362472534</t>
   </si>
   <si>
     <t xml:space="preserve">5.00669050216675</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83792495727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92793321609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0291919708252</t>
+    <t xml:space="preserve">4.83792543411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92793369293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02919292449951</t>
   </si>
   <si>
     <t xml:space="preserve">4.97293710708618</t>
@@ -2909,55 +2909,55 @@
     <t xml:space="preserve">5.13045120239258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98418807983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01794147491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04044342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23171043395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24296140670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95043516159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9954400062561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88292980194092</t>
+    <t xml:space="preserve">4.98418855667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01794099807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.040442943573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2317099571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24296092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95043468475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99543952941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88293027877808</t>
   </si>
   <si>
     <t xml:space="preserve">4.86042785644531</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89418029785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75916814804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82667446136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90543174743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91668272018433</t>
+    <t xml:space="preserve">4.8941798210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75916862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8266749382019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90543127059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91668224334717</t>
   </si>
   <si>
     <t xml:space="preserve">4.50039577484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11786222457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14036417007446</t>
+    <t xml:space="preserve">4.1178617477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1403636932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.00985240936279</t>
@@ -2975,52 +2975,52 @@
     <t xml:space="preserve">5.44547891616821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52423572540283</t>
+    <t xml:space="preserve">5.52423524856567</t>
   </si>
   <si>
     <t xml:space="preserve">5.65924787521362</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63674592971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59174156188965</t>
+    <t xml:space="preserve">5.63674545288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59174203872681</t>
   </si>
   <si>
     <t xml:space="preserve">5.54673767089844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56923913955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79425954818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60299205780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71550226211548</t>
+    <t xml:space="preserve">5.56923961639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7942590713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60299253463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71550321578979</t>
   </si>
   <si>
     <t xml:space="preserve">6.04178142547607</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86176538467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85051441192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77175807952881</t>
+    <t xml:space="preserve">5.86176586151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85051393508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77175760269165</t>
   </si>
   <si>
     <t xml:space="preserve">5.81676149368286</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98552656173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08678531646729</t>
+    <t xml:space="preserve">5.98552703857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08678483963013</t>
   </si>
   <si>
     <t xml:space="preserve">6.01927900314331</t>
@@ -3032,13 +3032,13 @@
     <t xml:space="preserve">6.07553434371948</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97427558898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03052949905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10928773880005</t>
+    <t xml:space="preserve">5.9742751121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03053045272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10928726196289</t>
   </si>
   <si>
     <t xml:space="preserve">6.24429941177368</t>
@@ -3047,19 +3047,19 @@
     <t xml:space="preserve">6.21054601669312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25554990768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36805963516235</t>
+    <t xml:space="preserve">6.25555038452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36806011199951</t>
   </si>
   <si>
     <t xml:space="preserve">6.41306400299072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42431545257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44681692123413</t>
+    <t xml:space="preserve">6.42431497573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44681644439697</t>
   </si>
   <si>
     <t xml:space="preserve">6.49182081222534</t>
@@ -3074,10 +3074,10 @@
     <t xml:space="preserve">6.30055379867554</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23304843902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35680866241455</t>
+    <t xml:space="preserve">6.23304796218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35680913925171</t>
   </si>
   <si>
     <t xml:space="preserve">6.18804407119751</t>
@@ -3089,16 +3089,16 @@
     <t xml:space="preserve">6.3118052482605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54807567596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40181350708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67183637619019</t>
+    <t xml:space="preserve">6.39056158065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54807615280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40181303024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67183685302734</t>
   </si>
   <si>
     <t xml:space="preserve">6.63808393478394</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">6.57057809829712</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59307956695557</t>
+    <t xml:space="preserve">6.59308004379272</t>
   </si>
   <si>
     <t xml:space="preserve">6.66058540344238</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">6.26680135726929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22179651260376</t>
+    <t xml:space="preserve">6.22179698944092</t>
   </si>
   <si>
     <t xml:space="preserve">6.27805185317993</t>
@@ -3131,61 +3131,61 @@
     <t xml:space="preserve">6.43556594848633</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75059366226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65067338943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63942193984985</t>
+    <t xml:space="preserve">6.7505931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6506724357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63942289352417</t>
   </si>
   <si>
     <t xml:space="preserve">8.10071277618408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03320693969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87569284439087</t>
+    <t xml:space="preserve">8.03320598602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87569236755371</t>
   </si>
   <si>
     <t xml:space="preserve">7.85319089889526</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92069721221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88694429397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98820161819458</t>
+    <t xml:space="preserve">7.92069625854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88694381713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9882025718689</t>
   </si>
   <si>
     <t xml:space="preserve">7.96570110321045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89819383621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86444139480591</t>
+    <t xml:space="preserve">7.89819478988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86444234848022</t>
   </si>
   <si>
     <t xml:space="preserve">7.79693555831909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94319772720337</t>
+    <t xml:space="preserve">7.94319868087769</t>
   </si>
   <si>
     <t xml:space="preserve">8.16821765899658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15696811676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14571666717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19072151184082</t>
+    <t xml:space="preserve">8.15696716308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14571571350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1907205581665</t>
   </si>
   <si>
     <t xml:space="preserve">8.13446521759033</t>
@@ -3194,13 +3194,13 @@
     <t xml:space="preserve">8.01070404052734</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97695255279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04445743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20197296142578</t>
+    <t xml:space="preserve">7.97695207595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04445648193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20197200775146</t>
   </si>
   <si>
     <t xml:space="preserve">8.08946132659912</t>
@@ -3209,58 +3209,58 @@
     <t xml:space="preserve">8.0219554901123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93194818496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0669584274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80818700790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81943702697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70692825317383</t>
+    <t xml:space="preserve">7.93194723129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06695938110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80818653106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81943845748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70692682266235</t>
   </si>
   <si>
     <t xml:space="preserve">7.78568458557129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68442535400391</t>
+    <t xml:space="preserve">7.68442678451538</t>
   </si>
   <si>
     <t xml:space="preserve">7.72942972183228</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23572444915771</t>
+    <t xml:space="preserve">8.2357234954834</t>
   </si>
   <si>
     <t xml:space="preserve">9.00079154968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84327793121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04579544067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31581974029541</t>
+    <t xml:space="preserve">8.84327697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04579448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31582069396973</t>
   </si>
   <si>
     <t xml:space="preserve">9.48623085021973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44078731536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99612712860107</t>
+    <t xml:space="preserve">9.44078826904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99612808227539</t>
   </si>
   <si>
     <t xml:space="preserve">9.92523384094238</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3033380508423</t>
+    <t xml:space="preserve">10.303337097168</t>
   </si>
   <si>
     <t xml:space="preserve">10.5160207748413</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">10.5278367996216</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5514688491821</t>
+    <t xml:space="preserve">10.5514678955078</t>
   </si>
   <si>
     <t xml:space="preserve">10.7523365020752</t>
@@ -3293,10 +3293,10 @@
     <t xml:space="preserve">10.6341791152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5987300872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9768362045288</t>
+    <t xml:space="preserve">10.5987310409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9768352508545</t>
   </si>
   <si>
     <t xml:space="preserve">10.7050733566284</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">10.4923906326294</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6223640441895</t>
+    <t xml:space="preserve">10.6223630905151</t>
   </si>
   <si>
     <t xml:space="preserve">10.2797060012817</t>
@@ -3323,13 +3323,13 @@
     <t xml:space="preserve">10.2442588806152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3742332458496</t>
+    <t xml:space="preserve">10.3742322921753</t>
   </si>
   <si>
     <t xml:space="preserve">10.291522026062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3151540756226</t>
+    <t xml:space="preserve">10.3151531219482</t>
   </si>
   <si>
     <t xml:space="preserve">10.3387851715088</t>
@@ -3338,10 +3338,10 @@
     <t xml:space="preserve">10.4805736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4451274871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7168884277344</t>
+    <t xml:space="preserve">10.4451265335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7168893814087</t>
   </si>
   <si>
     <t xml:space="preserve">10.4096784591675</t>
@@ -3356,16 +3356,16 @@
     <t xml:space="preserve">10.3978643417358</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3624153137207</t>
+    <t xml:space="preserve">10.362416267395</t>
   </si>
   <si>
     <t xml:space="preserve">11.4376497268677</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7590379714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1673898696899</t>
+    <t xml:space="preserve">11.7590389251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1673908233643</t>
   </si>
   <si>
     <t xml:space="preserve">12.163610458374</t>
@@ -3377,19 +3377,19 @@
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968492507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6815280914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.834659576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7023229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6077976226807</t>
+    <t xml:space="preserve">11.7968482971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6815271377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8346605300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7023239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6077966690063</t>
   </si>
   <si>
     <t xml:space="preserve">11.5699863433838</t>
@@ -3407,10 +3407,10 @@
     <t xml:space="preserve">12.3640050888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1182374954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3261957168579</t>
+    <t xml:space="preserve">12.118236541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3261947631836</t>
   </si>
   <si>
     <t xml:space="preserve">12.3072900772095</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">12.5719623565674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1560468673706</t>
+    <t xml:space="preserve">12.1560478210449</t>
   </si>
   <si>
     <t xml:space="preserve">13.2147397994995</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">13.9142322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1600008010864</t>
+    <t xml:space="preserve">14.1599998474121</t>
   </si>
   <si>
     <t xml:space="preserve">14.0087585449219</t>
@@ -3446,13 +3446,13 @@
     <t xml:space="preserve">14.1221885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0276641845703</t>
+    <t xml:space="preserve">14.027663230896</t>
   </si>
   <si>
     <t xml:space="preserve">14.9540185928345</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3490524291992</t>
+    <t xml:space="preserve">14.3490514755249</t>
   </si>
   <si>
     <t xml:space="preserve">14.0465679168701</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">14.0654745101929</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7251806259155</t>
+    <t xml:space="preserve">13.7251815795898</t>
   </si>
   <si>
     <t xml:space="preserve">13.3281707763672</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">13.2525501251221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3848857879639</t>
+    <t xml:space="preserve">13.3848867416382</t>
   </si>
   <si>
     <t xml:space="preserve">13.1769285202026</t>
@@ -3497,10 +3497,10 @@
     <t xml:space="preserve">15.7858486175537</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8425636291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1261405944824</t>
+    <t xml:space="preserve">15.8425626754761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1261386871338</t>
   </si>
   <si>
     <t xml:space="preserve">16.9201602935791</t>
@@ -3512,13 +3512,13 @@
     <t xml:space="preserve">16.9012546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.61767578125</t>
+    <t xml:space="preserve">16.6176776885986</t>
   </si>
   <si>
     <t xml:space="preserve">16.7122020721436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3719100952148</t>
+    <t xml:space="preserve">16.3719081878662</t>
   </si>
   <si>
     <t xml:space="preserve">16.1450462341309</t>
@@ -3527,13 +3527,13 @@
     <t xml:space="preserve">16.504243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3530044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2584800720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614702224731</t>
+    <t xml:space="preserve">16.3530025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2584781646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614683151245</t>
   </si>
   <si>
     <t xml:space="preserve">15.8047523498535</t>
@@ -3542,13 +3542,13 @@
     <t xml:space="preserve">16.2395725250244</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0883331298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1828575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2375974655151</t>
+    <t xml:space="preserve">16.0883312225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1828594207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2375984191895</t>
   </si>
   <si>
     <t xml:space="preserve">14.7460622787476</t>
@@ -3569,13 +3569,13 @@
     <t xml:space="preserve">13.630654335022</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2356204986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.367956161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4813890457153</t>
+    <t xml:space="preserve">14.2356214523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3679571151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.481388092041</t>
   </si>
   <si>
     <t xml:space="preserve">14.197811126709</t>
@@ -3587,31 +3587,31 @@
     <t xml:space="preserve">14.4624834060669</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1032838821411</t>
+    <t xml:space="preserve">14.1032848358154</t>
   </si>
   <si>
     <t xml:space="preserve">14.084379196167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5550336837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8386106491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.687370300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6495580673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2734317779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4435768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6137256622314</t>
+    <t xml:space="preserve">13.5550327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8386116027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6873693466187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6495590209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2734308242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4435777664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6137247085571</t>
   </si>
   <si>
     <t xml:space="preserve">14.5948190689087</t>
@@ -3626,7 +3626,7 @@
     <t xml:space="preserve">13.4226970672607</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3470764160156</t>
+    <t xml:space="preserve">13.3470754623413</t>
   </si>
   <si>
     <t xml:space="preserve">13.7440853118896</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve">12.6664876937866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4794130325317</t>
+    <t xml:space="preserve">13.4794120788574</t>
   </si>
   <si>
     <t xml:space="preserve">13.7629909515381</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">12.1749534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9122562408447</t>
+    <t xml:space="preserve">12.9122552871704</t>
   </si>
   <si>
     <t xml:space="preserve">12.6097736358643</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">11.8535652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2694787979126</t>
+    <t xml:space="preserve">12.2694797515869</t>
   </si>
   <si>
     <t xml:space="preserve">12.0426168441772</t>
@@ -3689,16 +3689,16 @@
     <t xml:space="preserve">11.0973558425903</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7381572723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3620290756226</t>
+    <t xml:space="preserve">10.7381563186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3620300292969</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804271697998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6645135879517</t>
+    <t xml:space="preserve">11.6645126342773</t>
   </si>
   <si>
     <t xml:space="preserve">12.9500665664673</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">13.0824031829834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.51722240448</t>
+    <t xml:space="preserve">13.5172233581543</t>
   </si>
   <si>
     <t xml:space="preserve">13.6212015151978</t>
@@ -3725,16 +3725,16 @@
     <t xml:space="preserve">12.9406137466431</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7042989730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6759414672852</t>
+    <t xml:space="preserve">12.7042999267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6759405136108</t>
   </si>
   <si>
     <t xml:space="preserve">12.7893724441528</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6192264556885</t>
+    <t xml:space="preserve">12.6192255020142</t>
   </si>
   <si>
     <t xml:space="preserve">12.60032081604</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">12.8933506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7137508392334</t>
+    <t xml:space="preserve">12.7137517929077</t>
   </si>
   <si>
     <t xml:space="preserve">12.0615224838257</t>
@@ -3755,7 +3755,7 @@
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286773681641</t>
+    <t xml:space="preserve">12.6286783218384</t>
   </si>
   <si>
     <t xml:space="preserve">12.0237112045288</t>
@@ -3773,19 +3773,19 @@
     <t xml:space="preserve">11.5416288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8799467086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0028314590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3431243896484</t>
+    <t xml:space="preserve">10.8799457550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0028305053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3431234359741</t>
   </si>
   <si>
     <t xml:space="preserve">11.8252067565918</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6834173202515</t>
+    <t xml:space="preserve">11.6834163665771</t>
   </si>
   <si>
     <t xml:space="preserve">12.089879989624</t>
@@ -61785,7 +61785,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6493518519</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>97774</v>
@@ -61806,6 +61806,32 @@
         <v>1687</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6496412037</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>42890</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>9.77499961853027</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>9.59000015258789</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>9.70499992370605</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>9.625</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -44,109 +44,109 @@
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11351299285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09785747528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06132769584656</t>
+    <t xml:space="preserve">2.11351323127747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09785771369934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06132745742798</t>
   </si>
   <si>
     <t xml:space="preserve">2.03784418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98826777935028</t>
+    <t xml:space="preserve">1.98826801776886</t>
   </si>
   <si>
     <t xml:space="preserve">2.02740693092346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01696991920471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93086397647858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95539128780365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93034195899963</t>
+    <t xml:space="preserve">2.01697015762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93086361885071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9553906917572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9303423166275</t>
   </si>
   <si>
     <t xml:space="preserve">1.98304963111877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98200571537018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96739399433136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96687173843384</t>
+    <t xml:space="preserve">1.98200583457947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96739423274994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96687185764313</t>
   </si>
   <si>
     <t xml:space="preserve">2.0242760181427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97052454948425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9840931892395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94391024112701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86563193798065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8943338394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90581500530243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88128733634949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89955234527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88389682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91259908676147</t>
+    <t xml:space="preserve">1.97052490711212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98409307003021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94391059875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86563205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89433395862579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581488609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88128757476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89955282211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88389706611633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91259932518005</t>
   </si>
   <si>
     <t xml:space="preserve">1.9219925403595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90998959541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05610918998718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0352349281311</t>
+    <t xml:space="preserve">1.90998947620392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0561089515686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03523516654968</t>
   </si>
   <si>
     <t xml:space="preserve">2.04828119277954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05819630622864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13438749313354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07176446914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10255432128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06654620170593</t>
+    <t xml:space="preserve">2.05819654464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13438773155212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07176470756531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10255455970764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06654644012451</t>
   </si>
   <si>
     <t xml:space="preserve">2.10725116729736</t>
@@ -155,10 +155,10 @@
     <t xml:space="preserve">2.10829448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11612272262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1109037399292</t>
+    <t xml:space="preserve">2.11612224578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11090421676636</t>
   </si>
   <si>
     <t xml:space="preserve">2.11403512954712</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">2.13073444366455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14482474327087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18396401405334</t>
+    <t xml:space="preserve">2.14482426643372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18396353721619</t>
   </si>
   <si>
     <t xml:space="preserve">2.11873149871826</t>
@@ -182,73 +182,73 @@
     <t xml:space="preserve">2.09263896942139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06915545463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05089068412781</t>
+    <t xml:space="preserve">2.0691556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05089044570923</t>
   </si>
   <si>
     <t xml:space="preserve">2.03627848625183</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08481097221375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10307621955872</t>
+    <t xml:space="preserve">2.08481121063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10307574272156</t>
   </si>
   <si>
     <t xml:space="preserve">2.08742046356201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0769829750061</t>
+    <t xml:space="preserve">2.07698345184326</t>
   </si>
   <si>
     <t xml:space="preserve">2.03001618385315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01749205589294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03262519836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03314805030823</t>
+    <t xml:space="preserve">2.01749181747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03262543678284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03314733505249</t>
   </si>
   <si>
     <t xml:space="preserve">2.08168005943298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08794188499451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12395048141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11820983886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13960576057434</t>
+    <t xml:space="preserve">2.08794236183167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12395024299622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11821031570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13960599899292</t>
   </si>
   <si>
     <t xml:space="preserve">2.20483803749084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21266603469849</t>
+    <t xml:space="preserve">2.21266579627991</t>
   </si>
   <si>
     <t xml:space="preserve">2.25441431999207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21840596199036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18605089187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17613577842712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18657279014587</t>
+    <t xml:space="preserve">2.2184054851532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1860511302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1761360168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18657302856445</t>
   </si>
   <si>
     <t xml:space="preserve">2.20744729042053</t>
@@ -260,13 +260,13 @@
     <t xml:space="preserve">2.28050684928894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30816555023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28572511672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40679574012756</t>
+    <t xml:space="preserve">2.30816507339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28572535514832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40679550170898</t>
   </si>
   <si>
     <t xml:space="preserve">2.45950317382812</t>
@@ -278,13 +278,13 @@
     <t xml:space="preserve">2.52108216285706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48611783981323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57013654708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61934614181519</t>
+    <t xml:space="preserve">2.48611807823181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57013630867004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61934638023376</t>
   </si>
   <si>
     <t xml:space="preserve">2.62095093727112</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">2.65464878082275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64127659797668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67443943023682</t>
+    <t xml:space="preserve">2.64127612113953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6744396686554</t>
   </si>
   <si>
     <t xml:space="preserve">2.74504494667053</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">2.95044183731079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89481353759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79211497306824</t>
+    <t xml:space="preserve">2.89481329917908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79211521148682</t>
   </si>
   <si>
     <t xml:space="preserve">2.86699891090393</t>
@@ -329,13 +329,13 @@
     <t xml:space="preserve">2.84774327278137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77071952819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71723031997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68941617012024</t>
+    <t xml:space="preserve">2.77071928977966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71723055839539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68941640853882</t>
   </si>
   <si>
     <t xml:space="preserve">2.64876508712769</t>
@@ -344,52 +344,52 @@
     <t xml:space="preserve">2.73862624168396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81564974784851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93118596076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79853391647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72792816162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81351017951965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86913847923279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92048788070679</t>
+    <t xml:space="preserve">2.81565022468567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93118572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79853367805481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72792863845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81351041793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86913871765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92048764228821</t>
   </si>
   <si>
     <t xml:space="preserve">2.93974375724792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92262768745422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616293907166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92690682411194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98253488540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99537229537964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01676774024963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10234975814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24142074584961</t>
+    <t xml:space="preserve">2.92262721061707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616270065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92690658569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98253440856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99537205696106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01676821708679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10234999656677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24142050743103</t>
   </si>
   <si>
     <t xml:space="preserve">3.24997878074646</t>
@@ -404,52 +404,52 @@
     <t xml:space="preserve">3.23072290420532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20504832267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18793201446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23286271095276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22216510772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20076966285706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20932769775391</t>
+    <t xml:space="preserve">3.20504856109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18793177604675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2328622341156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22216463088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2007691860199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20932745933533</t>
   </si>
   <si>
     <t xml:space="preserve">3.11946630477905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19862961769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20290923118591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27351427078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29276990890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28635120391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26709532737732</t>
+    <t xml:space="preserve">3.19862985610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20290875434875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27351403236389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29276967048645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28635144233704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2670955657959</t>
   </si>
   <si>
     <t xml:space="preserve">3.22858357429504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2157461643219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29490900039673</t>
+    <t xml:space="preserve">3.21574568748474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29490947723389</t>
   </si>
   <si>
     <t xml:space="preserve">3.2628161907196</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">3.22002553939819</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25639724731445</t>
+    <t xml:space="preserve">3.25639748573303</t>
   </si>
   <si>
     <t xml:space="preserve">3.25211834907532</t>
@@ -467,94 +467,94 @@
     <t xml:space="preserve">3.0959312915802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13444304466248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15369915962219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19435095787048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14514064788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16653680801392</t>
+    <t xml:space="preserve">3.13444352149963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15369892120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1943507194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14514112472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16653633117676</t>
   </si>
   <si>
     <t xml:space="preserve">3.03816342353821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27565360069275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20718812942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14942002296448</t>
+    <t xml:space="preserve">3.27565383911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20718789100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14942026138306</t>
   </si>
   <si>
     <t xml:space="preserve">3.31416583061218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3719334602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53026056289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61584210395813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72068023681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84049582481384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94105434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02235698699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92607688903809</t>
+    <t xml:space="preserve">3.37193322181702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53026008605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61584186553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72068071365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84049558639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94105386734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02235746383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92607760429382</t>
   </si>
   <si>
     <t xml:space="preserve">3.88970494270325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04375267028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12077713012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26198625564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16142845153809</t>
+    <t xml:space="preserve">4.04375219345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12077665328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26198720932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16142797470093</t>
   </si>
   <si>
     <t xml:space="preserve">4.18924188613892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39677858352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60859489440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57650136947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56580352783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6770601272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86747980117798</t>
+    <t xml:space="preserve">4.39677810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60859394073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.576500415802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56580305099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67706060409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86748027801514</t>
   </si>
   <si>
     <t xml:space="preserve">4.85678195953369</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">4.63854837417603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6599440574646</t>
+    <t xml:space="preserve">4.65994358062744</t>
   </si>
   <si>
     <t xml:space="preserve">4.65566444396973</t>
@@ -572,16 +572,16 @@
     <t xml:space="preserve">4.56366348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49305772781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29835939407349</t>
+    <t xml:space="preserve">4.4930591583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29835891723633</t>
   </si>
   <si>
     <t xml:space="preserve">4.27482414245605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26626586914062</t>
+    <t xml:space="preserve">4.26626539230347</t>
   </si>
   <si>
     <t xml:space="preserve">4.15500926971436</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">4.11863708496094</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01807880401611</t>
+    <t xml:space="preserve">4.01807832717896</t>
   </si>
   <si>
     <t xml:space="preserve">4.1528697013855</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">4.27910327911377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26412677764893</t>
+    <t xml:space="preserve">4.26412630081177</t>
   </si>
   <si>
     <t xml:space="preserve">4.57863998413086</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">4.55724477767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55510520935059</t>
+    <t xml:space="preserve">4.5551061630249</t>
   </si>
   <si>
     <t xml:space="preserve">4.53585004806519</t>
@@ -623,16 +623,16 @@
     <t xml:space="preserve">4.56794309616089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64068698883057</t>
+    <t xml:space="preserve">4.64068746566772</t>
   </si>
   <si>
     <t xml:space="preserve">4.51445388793945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58292007446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51017427444458</t>
+    <t xml:space="preserve">4.58291959762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51017475128174</t>
   </si>
   <si>
     <t xml:space="preserve">4.43315076828003</t>
@@ -641,61 +641,61 @@
     <t xml:space="preserve">4.44598817825317</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65138578414917</t>
+    <t xml:space="preserve">4.65138530731201</t>
   </si>
   <si>
     <t xml:space="preserve">4.56152391433716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70273494720459</t>
+    <t xml:space="preserve">4.70273399353027</t>
   </si>
   <si>
     <t xml:space="preserve">4.69203662872314</t>
   </si>
   <si>
-    <t xml:space="preserve">4.664222240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68347883224487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01082992553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29325103759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19911050796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16059875488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13920259475708</t>
+    <t xml:space="preserve">4.66422271728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68347835540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01083040237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2932505607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19911003112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16059923171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13920307159424</t>
   </si>
   <si>
     <t xml:space="preserve">5.13706350326538</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11352777481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94878244400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02152729034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13492345809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18413352966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2183666229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08143520355225</t>
+    <t xml:space="preserve">5.11352872848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9487829208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0215277671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13492393493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18413400650024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21836614608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0814356803894</t>
   </si>
   <si>
     <t xml:space="preserve">5.05576038360596</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">4.97445821762085</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82468843460083</t>
+    <t xml:space="preserve">4.82468891143799</t>
   </si>
   <si>
     <t xml:space="preserve">5.00227165222168</t>
@@ -722,13 +722,13 @@
     <t xml:space="preserve">5.0044116973877</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0386438369751</t>
+    <t xml:space="preserve">5.03864336013794</t>
   </si>
   <si>
     <t xml:space="preserve">5.02794647216797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95734214782715</t>
+    <t xml:space="preserve">4.95734119415283</t>
   </si>
   <si>
     <t xml:space="preserve">4.87175941467285</t>
@@ -740,28 +740,28 @@
     <t xml:space="preserve">4.9017128944397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80115365982056</t>
+    <t xml:space="preserve">4.80115461349487</t>
   </si>
   <si>
     <t xml:space="preserve">4.781898021698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77119922637939</t>
+    <t xml:space="preserve">4.77120018005371</t>
   </si>
   <si>
     <t xml:space="preserve">4.76264190673828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71771097183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65352535247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7070140838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66208410263062</t>
+    <t xml:space="preserve">4.71771144866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65352487564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70701360702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66208362579346</t>
   </si>
   <si>
     <t xml:space="preserve">4.67492055892944</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">4.73696708679199</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83324718475342</t>
+    <t xml:space="preserve">4.83324670791626</t>
   </si>
   <si>
     <t xml:space="preserve">5.04934167861938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99585342407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10710954666138</t>
+    <t xml:space="preserve">4.99585294723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10711050033569</t>
   </si>
   <si>
     <t xml:space="preserve">5.03008651733398</t>
@@ -791,31 +791,31 @@
     <t xml:space="preserve">5.00655126571655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20980834960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2911114692688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3232045173645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45585632324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58422994613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54143905639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74255704879761</t>
+    <t xml:space="preserve">5.20980882644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29111194610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32320404052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4558572769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58423042297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54143857955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74255657196045</t>
   </si>
   <si>
     <t xml:space="preserve">5.80888319015503</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84097576141357</t>
+    <t xml:space="preserve">5.84097528457642</t>
   </si>
   <si>
     <t xml:space="preserve">6.00786113739014</t>
@@ -824,28 +824,28 @@
     <t xml:space="preserve">5.7126030921936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77678966522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65911436080933</t>
+    <t xml:space="preserve">5.77678918838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65911388397217</t>
   </si>
   <si>
     <t xml:space="preserve">5.66339302062988</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7874870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79390621185303</t>
+    <t xml:space="preserve">5.78748750686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79390573501587</t>
   </si>
   <si>
     <t xml:space="preserve">5.87306976318359</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99074459075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84525537490845</t>
+    <t xml:space="preserve">5.99074411392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84525442123413</t>
   </si>
   <si>
     <t xml:space="preserve">5.88590717315674</t>
@@ -854,10 +854,10 @@
     <t xml:space="preserve">5.90088367462158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88376760482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93725538253784</t>
+    <t xml:space="preserve">5.88376712799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.937255859375</t>
   </si>
   <si>
     <t xml:space="preserve">5.952232837677</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">5.97790718078613</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86023235321045</t>
+    <t xml:space="preserve">5.86023187637329</t>
   </si>
   <si>
     <t xml:space="preserve">5.9693489074707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03353548049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3116774559021</t>
+    <t xml:space="preserve">6.03353643417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31167697906494</t>
   </si>
   <si>
     <t xml:space="preserve">6.15977001190186</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">6.4165153503418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42935371398926</t>
+    <t xml:space="preserve">6.42935276031494</t>
   </si>
   <si>
     <t xml:space="preserve">6.47428369522095</t>
@@ -893,16 +893,16 @@
     <t xml:space="preserve">6.68609857559204</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78237915039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88935661315918</t>
+    <t xml:space="preserve">6.78237962722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88935708999634</t>
   </si>
   <si>
     <t xml:space="preserve">6.94284582138062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99419498443604</t>
+    <t xml:space="preserve">6.99419403076172</t>
   </si>
   <si>
     <t xml:space="preserve">7.19317293167114</t>
@@ -911,25 +911,25 @@
     <t xml:space="preserve">7.00703191757202</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09903335571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09689140319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.989914894104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16749811172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24880075454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23596334457397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15893983840942</t>
+    <t xml:space="preserve">7.09903287887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0968918800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98991537094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1674976348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24880123138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23596382141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15894031524658</t>
   </si>
   <si>
     <t xml:space="preserve">7.17819595336914</t>
@@ -938,25 +938,25 @@
     <t xml:space="preserve">7.07121801376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35446882247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11911725997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36088800430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29028129577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49781799316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38442277908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41009664535522</t>
+    <t xml:space="preserve">6.35446834564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11911773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36088705062866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29028224945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49781847000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38442230224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41009712219238</t>
   </si>
   <si>
     <t xml:space="preserve">6.4635853767395</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">6.41154718399048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4484076499939</t>
+    <t xml:space="preserve">6.44840717315674</t>
   </si>
   <si>
     <t xml:space="preserve">6.49827766418457</t>
@@ -977,85 +977,85 @@
     <t xml:space="preserve">6.3421630859375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44407081604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79749774932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64571905136108</t>
+    <t xml:space="preserve">6.4440712928772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79749822616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6457200050354</t>
   </si>
   <si>
     <t xml:space="preserve">6.70426273345947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30530261993408</t>
+    <t xml:space="preserve">6.30530309677124</t>
   </si>
   <si>
     <t xml:space="preserve">6.47009038925171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39203262329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30963897705078</t>
+    <t xml:space="preserve">6.39203214645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30963850021362</t>
   </si>
   <si>
     <t xml:space="preserve">6.37468671798706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24675893783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22507667541504</t>
+    <t xml:space="preserve">6.24675941467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22507619857788</t>
   </si>
   <si>
     <t xml:space="preserve">6.32264852523804</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21857118606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22290897369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26410531997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05378389358521</t>
+    <t xml:space="preserve">6.21857213973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22290849685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26410579681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05378437042236</t>
   </si>
   <si>
     <t xml:space="preserve">6.03643846511841</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03210115432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85430431365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81093883514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80009794235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83478879928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68517923355103</t>
+    <t xml:space="preserve">6.03210163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85430383682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8109393119812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80009698867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83478975296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68517971038818</t>
   </si>
   <si>
     <t xml:space="preserve">5.85647249221802</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81744432449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83045291900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83912563323975</t>
+    <t xml:space="preserve">5.81744384765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83045244216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83912754058838</t>
   </si>
   <si>
     <t xml:space="preserve">5.73504972457886</t>
@@ -1064,10 +1064,10 @@
     <t xml:space="preserve">5.74589109420776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88465976715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59844875335693</t>
+    <t xml:space="preserve">5.88465929031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59844970703125</t>
   </si>
   <si>
     <t xml:space="preserve">5.41197919845581</t>
@@ -1076,40 +1076,40 @@
     <t xml:space="preserve">5.37511873245239</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51171827316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63747787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66132926940918</t>
+    <t xml:space="preserve">5.51171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63747835159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66132879257202</t>
   </si>
   <si>
     <t xml:space="preserve">5.78925657272339</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61579513549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62230014801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49437379837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46184873580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.292724609375</t>
+    <t xml:space="preserve">5.61579561233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6222996711731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4943733215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46184921264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29272413253784</t>
   </si>
   <si>
     <t xml:space="preserve">5.44883918762207</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34909915924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35560417175293</t>
+    <t xml:space="preserve">5.34909963607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35560464859009</t>
   </si>
   <si>
     <t xml:space="preserve">5.3057336807251</t>
@@ -1118,34 +1118,34 @@
     <t xml:space="preserve">5.32524824142456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39680194854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46401739120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38595962524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43149280548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36427736282349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31874370574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39463329315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47269058227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63964653015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56592559814453</t>
+    <t xml:space="preserve">5.39680099487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46401786804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3859601020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43149328231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36427688598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31874418258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3946328163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47268962860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63964605331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56592512130737</t>
   </si>
   <si>
     <t xml:space="preserve">5.70252561569214</t>
@@ -1157,43 +1157,43 @@
     <t xml:space="preserve">5.63097381591797</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98006343841553</t>
+    <t xml:space="preserve">5.98006296157837</t>
   </si>
   <si>
     <t xml:space="preserve">5.86514520645142</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70469427108765</t>
+    <t xml:space="preserve">5.70469379425049</t>
   </si>
   <si>
     <t xml:space="preserve">5.53990602493286</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46835327148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42498826980591</t>
+    <t xml:space="preserve">5.46835374832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42498874664307</t>
   </si>
   <si>
     <t xml:space="preserve">5.38379144668579</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3989691734314</t>
+    <t xml:space="preserve">5.39896965026855</t>
   </si>
   <si>
     <t xml:space="preserve">5.26887321472168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20599365234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13877868652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14961910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16262865066528</t>
+    <t xml:space="preserve">5.20599508285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13877820968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14961957931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16262912750244</t>
   </si>
   <si>
     <t xml:space="preserve">5.32091188430786</t>
@@ -1202,31 +1202,31 @@
     <t xml:space="preserve">5.30356550216675</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1864800453186</t>
+    <t xml:space="preserve">5.18647956848145</t>
   </si>
   <si>
     <t xml:space="preserve">5.13227319717407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05204725265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03036546707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11709642410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07806634902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04337501525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04771089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95013952255249</t>
+    <t xml:space="preserve">5.05204772949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03036451339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11709499359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0780668258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04337453842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04771137237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95013904571533</t>
   </si>
   <si>
     <t xml:space="preserve">4.91978406906128</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">4.88509178161621</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9609808921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10408592224121</t>
+    <t xml:space="preserve">4.96098041534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10408639907837</t>
   </si>
   <si>
     <t xml:space="preserve">5.18431186676025</t>
@@ -1259,40 +1259,40 @@
     <t xml:space="preserve">5.02819681167603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94363451004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78752040863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64441442489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62923717498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57069444656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84606313705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12793636322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5073823928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71119976043701</t>
+    <t xml:space="preserve">4.94363498687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78751993179321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6444149017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62923622131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57069396972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8460636138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12793684005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50738286972046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71119928359985</t>
   </si>
   <si>
     <t xml:space="preserve">5.74372291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66783428192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80226612091064</t>
+    <t xml:space="preserve">5.66783332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80226564407349</t>
   </si>
   <si>
     <t xml:space="preserve">5.76323747634888</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">5.67650651931763</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71770477294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55508470535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54207420349121</t>
+    <t xml:space="preserve">5.71770334243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55508375167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54207468032837</t>
   </si>
   <si>
     <t xml:space="preserve">5.6006178855896</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">5.91935157775879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08630847930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95838022232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03427028656006</t>
+    <t xml:space="preserve">6.08630895614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95838069915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03426933288574</t>
   </si>
   <si>
     <t xml:space="preserve">6.01909208297729</t>
@@ -1334,10 +1334,10 @@
     <t xml:space="preserve">5.9215202331543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86080932617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93019390106201</t>
+    <t xml:space="preserve">5.86080980300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93019342422485</t>
   </si>
   <si>
     <t xml:space="preserve">5.7090311050415</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">5.79792976379395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72420835494995</t>
+    <t xml:space="preserve">5.72420787811279</t>
   </si>
   <si>
     <t xml:space="preserve">5.64398336410522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55291652679443</t>
+    <t xml:space="preserve">5.55291557312012</t>
   </si>
   <si>
     <t xml:space="preserve">5.52039194107056</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">5.53773784637451</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91501474380493</t>
+    <t xml:space="preserve">5.91501569747925</t>
   </si>
   <si>
     <t xml:space="preserve">5.75456428527832</t>
@@ -1376,310 +1376,313 @@
     <t xml:space="preserve">5.74155473709106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92802619934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9410343170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84996843338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84129428863525</t>
+    <t xml:space="preserve">5.9280252456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94103479385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84996700286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84129476547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17954397201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17520666122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1144962310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40937852859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26193714141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0624566078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99307203292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98440027236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45968055725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00608253479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8196120262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6938533782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57243013381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58543968200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33392143249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66349744796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77190971374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87598705291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85864114761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07113027572632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16219711303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24459075927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60885953903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56983041763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80833864212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78665637969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9818000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85604095458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97746324539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75196361541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83002138137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10322237014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02516508102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92542505264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99047327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93843460083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36341285705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1986255645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05985736846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3113751411438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15526056289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13357830047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99914598464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94277143478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12490510940552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09021377563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06852960586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09454965591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33305740356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48917245864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43279838562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40677928924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27234745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42412567138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29836559295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25933742523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94710826873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51345539093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72160911560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52212858200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40504264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50478219985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43106126785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59584951400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27184057235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19712448120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48280715942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54873323440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48720216751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51796770095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43446063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54433917999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46522617340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37292909622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59708023071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63663625717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64103126525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50038766860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38171863555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36853361129761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33776760101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30700206756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21030950546265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11801195144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11361646652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01692342758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15317249298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03450393676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07405948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09603548049927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2366795539856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13998699188232</t>
   </si>
   <si>
     <t xml:space="preserve">6.17954349517822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17520666122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11449575424194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40937900543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2619366645813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06245708465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99307203292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98440027236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45968008041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00608253479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81961250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69385290145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57243061065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58543968200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33392190933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66349744796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77191066741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87598705291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85864067077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07113027572632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16219711303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24459075927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60885906219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5698299407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80833911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78665590286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98179960250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85604047775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97746276855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75196361541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83002185821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10322189331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02516555786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92542505264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99047422409058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93843507766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36341381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19862604141235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05985736846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31137561798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15526056289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13357782363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9991455078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94277143478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12490558624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09021282196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06853055953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09454965591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33305788040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48917245864868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43279790878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40677881240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27234649658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42412567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29836654663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25933790206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94710779190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51345586776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72160863876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52212762832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40504312515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50478267669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43106174468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59584903717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27184152603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19712400436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48280668258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54873371124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48720264434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51796770095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43446016311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54433917999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46522665023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37292861938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59707975387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63663625717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64103126525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50038719177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38171911239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36853361129761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33776807785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30700159072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21030902862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11801195144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11361598968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01692295074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1531720161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03450393676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07405948638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09603595733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2366795539856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13998746871948</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.1048264503479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22789001464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47401666641235</t>
+    <t xml:space="preserve">6.22788953781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4740161895752</t>
   </si>
   <si>
     <t xml:space="preserve">6.37732362747192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41688013076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32897758483887</t>
+    <t xml:space="preserve">6.41688060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32897710800171</t>
   </si>
   <si>
     <t xml:space="preserve">6.33337259292603</t>
@@ -1688,40 +1691,40 @@
     <t xml:space="preserve">6.28063106536865</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28942108154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26305055618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31579256057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32018756866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39050912857056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2190990447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13119602203369</t>
+    <t xml:space="preserve">6.28942155838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26305103302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31579208374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32018709182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39050960540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21909952163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13119697570801</t>
   </si>
   <si>
     <t xml:space="preserve">6.08285045623779</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17075252532959</t>
+    <t xml:space="preserve">6.17075300216675</t>
   </si>
   <si>
     <t xml:space="preserve">6.35095262527466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52675819396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99494743347168</t>
+    <t xml:space="preserve">6.52675867080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.994948387146</t>
   </si>
   <si>
     <t xml:space="preserve">6.28502607345581</t>
@@ -1733,31 +1736,28 @@
     <t xml:space="preserve">5.88067483901978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37963008880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24338245391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15108489990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99285936355591</t>
+    <t xml:space="preserve">5.37963056564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2433819770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15108394622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99285984039307</t>
   </si>
   <si>
     <t xml:space="preserve">4.88737678527832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04120683670044</t>
+    <t xml:space="preserve">5.04120588302612</t>
   </si>
   <si>
     <t xml:space="preserve">4.93132829666138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87858724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98846530914307</t>
+    <t xml:space="preserve">4.98846483230591</t>
   </si>
   <si>
     <t xml:space="preserve">4.96648979187012</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">4.90056228637695</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84342575073242</t>
+    <t xml:space="preserve">4.84342622756958</t>
   </si>
   <si>
     <t xml:space="preserve">4.65443563461304</t>
@@ -1775,163 +1775,163 @@
     <t xml:space="preserve">4.50939655303955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5357666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66762065887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63246059417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29623222351074</t>
+    <t xml:space="preserve">4.53576707839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66762113571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63246011734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29623317718506</t>
   </si>
   <si>
     <t xml:space="preserve">4.05669832229614</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13581085205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04351329803467</t>
+    <t xml:space="preserve">4.13581132888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04351282119751</t>
   </si>
   <si>
     <t xml:space="preserve">3.97099351882935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9841787815094</t>
+    <t xml:space="preserve">3.98417949676514</t>
   </si>
   <si>
     <t xml:space="preserve">3.88968443870544</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0127477645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08306884765625</t>
+    <t xml:space="preserve">4.01274681091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08306932449341</t>
   </si>
   <si>
     <t xml:space="preserve">4.0588960647583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94901847839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80178165435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64135956764221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69190359115601</t>
+    <t xml:space="preserve">3.94901823997498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80178093910217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64135932922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69190311431885</t>
   </si>
   <si>
     <t xml:space="preserve">3.75123739242554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66992807388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77101516723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980613708496</t>
+    <t xml:space="preserve">3.66992855072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77101564407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980637550354</t>
   </si>
   <si>
     <t xml:space="preserve">3.8962767124176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08526659011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93363499641418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8567202091217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8633131980896</t>
+    <t xml:space="preserve">4.08526706695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93363547325134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85672044754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86331367492676</t>
   </si>
   <si>
     <t xml:space="preserve">3.87430119514465</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80617690086365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79518890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77760815620422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39523243904114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3007378578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18646430969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97989368438721</t>
+    <t xml:space="preserve">3.80617666244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79518866539001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77760791778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39523267745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30073738098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18646454811096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97989392280579</t>
   </si>
   <si>
     <t xml:space="preserve">2.98868370056152</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10735201835632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32491087913513</t>
+    <t xml:space="preserve">3.1073522567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32491064071655</t>
   </si>
   <si>
     <t xml:space="preserve">3.32930588722229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21283531188965</t>
+    <t xml:space="preserve">3.21283483505249</t>
   </si>
   <si>
     <t xml:space="preserve">3.17108154296875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39303493499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33589816093445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4281964302063</t>
+    <t xml:space="preserve">3.39303469657898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33589863777161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42819595336914</t>
   </si>
   <si>
     <t xml:space="preserve">3.45456695556641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26118135452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19085955619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05680799484253</t>
+    <t xml:space="preserve">3.26118111610413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19085931777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05680823326111</t>
   </si>
   <si>
     <t xml:space="preserve">2.87660813331604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88100290298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9579176902771</t>
+    <t xml:space="preserve">2.8810031414032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95791792869568</t>
   </si>
   <si>
     <t xml:space="preserve">3.05021572113037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98648595809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90517663955688</t>
+    <t xml:space="preserve">2.98648643493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90517640113831</t>
   </si>
   <si>
     <t xml:space="preserve">2.83485436439514</t>
@@ -1943,10 +1943,10 @@
     <t xml:space="preserve">2.72937154769897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70080351829529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74035954475403</t>
+    <t xml:space="preserve">2.70080327987671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74035906791687</t>
   </si>
   <si>
     <t xml:space="preserve">2.78431081771851</t>
@@ -1955,19 +1955,19 @@
     <t xml:space="preserve">2.83924961090088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01944947242737</t>
+    <t xml:space="preserve">3.01944971084595</t>
   </si>
   <si>
     <t xml:space="preserve">3.05241322517395</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11394500732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17327857017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10515451431274</t>
+    <t xml:space="preserve">3.11394476890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17327880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10515475273132</t>
   </si>
   <si>
     <t xml:space="preserve">3.16668629646301</t>
@@ -1976,16 +1976,16 @@
     <t xml:space="preserve">3.17987179756165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13152527809143</t>
+    <t xml:space="preserve">3.13152551651001</t>
   </si>
   <si>
     <t xml:space="preserve">3.13811802864075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26337909698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48093748092651</t>
+    <t xml:space="preserve">3.26337933540344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48093771934509</t>
   </si>
   <si>
     <t xml:space="preserve">3.41940593719482</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">3.4721474647522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43478894233704</t>
+    <t xml:space="preserve">3.43478870391846</t>
   </si>
   <si>
     <t xml:space="preserve">3.54906177520752</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">3.51390099525452</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45017170906067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46115970611572</t>
+    <t xml:space="preserve">3.45017147064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46115946769714</t>
   </si>
   <si>
     <t xml:space="preserve">3.52049374580383</t>
@@ -2018,58 +2018,58 @@
     <t xml:space="preserve">3.37765216827393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4633572101593</t>
+    <t xml:space="preserve">3.46335697174072</t>
   </si>
   <si>
     <t xml:space="preserve">3.52269148826599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63037204742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56005001068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55125975608826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63916158676147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73805236816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82815217971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70728659629822</t>
+    <t xml:space="preserve">3.63037157058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56004977226257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55125951766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63916230201721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73805260658264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82815194129944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70728635787964</t>
   </si>
   <si>
     <t xml:space="preserve">3.76662063598633</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79079389572144</t>
+    <t xml:space="preserve">3.79079413414001</t>
   </si>
   <si>
     <t xml:space="preserve">3.87210369110107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92264723777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99956226348877</t>
+    <t xml:space="preserve">3.92264747619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99956202507019</t>
   </si>
   <si>
     <t xml:space="preserve">4.06109380722046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02153730392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17756509780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11603307723999</t>
+    <t xml:space="preserve">4.02153825759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17756414413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11603260040283</t>
   </si>
   <si>
     <t xml:space="preserve">3.88089394569397</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">3.93583297729492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95780873298645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90946245193481</t>
+    <t xml:space="preserve">3.95780825614929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90946197509766</t>
   </si>
   <si>
     <t xml:space="preserve">4.15778636932373</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">4.20833015441895</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30722093582153</t>
+    <t xml:space="preserve">4.30722045898438</t>
   </si>
   <si>
     <t xml:space="preserve">4.35117197036743</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">4.27865219116211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09405755996704</t>
+    <t xml:space="preserve">4.09405708312988</t>
   </si>
   <si>
     <t xml:space="preserve">4.13141584396362</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">4.16437911987305</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21712064743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17536783218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16657686233521</t>
+    <t xml:space="preserve">4.21712112426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17536735534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16657638549805</t>
   </si>
   <si>
     <t xml:space="preserve">4.17976236343384</t>
@@ -2129,28 +2129,28 @@
     <t xml:space="preserve">4.12702083587646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00395679473877</t>
+    <t xml:space="preserve">4.00395774841309</t>
   </si>
   <si>
     <t xml:space="preserve">4.08087158203125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11383581161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19514560699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90286922454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86551070213318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83254766464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92704224586487</t>
+    <t xml:space="preserve">4.11383533477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19514465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90286946296692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86551094055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83254742622375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92704272270203</t>
   </si>
   <si>
     <t xml:space="preserve">3.96879601478577</t>
@@ -2159,13 +2159,13 @@
     <t xml:space="preserve">3.96659851074219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94682049751282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85012817382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81057238578796</t>
+    <t xml:space="preserve">3.94682025909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85012793540955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81057214736938</t>
   </si>
   <si>
     <t xml:space="preserve">3.70289134979248</t>
@@ -2174,67 +2174,67 @@
     <t xml:space="preserve">3.70948386192322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58861827850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78420066833496</t>
+    <t xml:space="preserve">3.58861804008484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78420114517212</t>
   </si>
   <si>
     <t xml:space="preserve">4.02813053131104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75783038139343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88834238052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81408524513245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69707536697388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68132376670837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69932532310486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62506914138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60931730270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66782259941101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77583193778992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80508470535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85683917999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89734292030334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82983684539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88159155845642</t>
+    <t xml:space="preserve">3.75782990455627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88834261894226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8140857219696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69707489013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68132400512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69932556152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62506890296936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60931754112244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66782236099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77583265304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80508422851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85683941841125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89734268188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82983708381653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.881591796875</t>
   </si>
   <si>
     <t xml:space="preserve">3.80733489990234</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83883738517761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91534423828125</t>
+    <t xml:space="preserve">3.83883762359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91534447669983</t>
   </si>
   <si>
     <t xml:space="preserve">3.97159934043884</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">4.030104637146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07285785675049</t>
+    <t xml:space="preserve">4.07285833358765</t>
   </si>
   <si>
     <t xml:space="preserve">4.1156120300293</t>
@@ -2264,37 +2264,37 @@
     <t xml:space="preserve">4.20337009429932</t>
   </si>
   <si>
-    <t xml:space="preserve">4.210120677948</t>
+    <t xml:space="preserve">4.21012020111084</t>
   </si>
   <si>
     <t xml:space="preserve">4.23937225341797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33163070678711</t>
+    <t xml:space="preserve">4.33163118362427</t>
   </si>
   <si>
     <t xml:space="preserve">4.22812175750732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27537679672241</t>
+    <t xml:space="preserve">4.27537631988525</t>
   </si>
   <si>
     <t xml:space="preserve">4.17186689376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25737428665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16511678695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14936494827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12236261367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17411661148071</t>
+    <t xml:space="preserve">4.25737476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16511631011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14936447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12236166000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411708831787</t>
   </si>
   <si>
     <t xml:space="preserve">4.10211086273193</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">4.02785396575928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07960844039917</t>
+    <t xml:space="preserve">4.07960891723633</t>
   </si>
   <si>
     <t xml:space="preserve">4.09085988998413</t>
@@ -2318,64 +2318,64 @@
     <t xml:space="preserve">4.0526065826416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00535202026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93784618377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98510050773621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90184378623962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87709093093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78033256530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81858587265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8095850944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78483271598816</t>
+    <t xml:space="preserve">4.00535154342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93784642219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98510026931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90184354782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87709069252014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78033185005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81858563423157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80958485603333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78483295440674</t>
   </si>
   <si>
     <t xml:space="preserve">3.8838415145874</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93109536170959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91309380531311</t>
+    <t xml:space="preserve">3.93109560012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91309404373169</t>
   </si>
   <si>
     <t xml:space="preserve">4.05935716629028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04360580444336</t>
+    <t xml:space="preserve">4.0436053276062</t>
   </si>
   <si>
     <t xml:space="preserve">4.09536027908325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9738495349884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98285055160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11336183547974</t>
+    <t xml:space="preserve">3.97384977340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98285031318665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11336231231689</t>
   </si>
   <si>
     <t xml:space="preserve">4.06385707855225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99185109138489</t>
+    <t xml:space="preserve">3.99185037612915</t>
   </si>
   <si>
     <t xml:space="preserve">4.26862573623657</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">4.26187467575073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24387311935425</t>
+    <t xml:space="preserve">4.24387359619141</t>
   </si>
   <si>
     <t xml:space="preserve">4.52289772033691</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">5.23846054077148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26546335220337</t>
+    <t xml:space="preserve">5.26546287536621</t>
   </si>
   <si>
     <t xml:space="preserve">5.53098678588867</t>
@@ -2408,10 +2408,10 @@
     <t xml:space="preserve">5.3914737701416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29696607589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51298427581787</t>
+    <t xml:space="preserve">5.29696655273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51298475265503</t>
   </si>
   <si>
     <t xml:space="preserve">5.60749292373657</t>
@@ -2420,52 +2420,52 @@
     <t xml:space="preserve">5.45898056030273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3599705696106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38697385787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17545509338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18445587158203</t>
+    <t xml:space="preserve">5.35997152328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3869743347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17545461654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18445682525635</t>
   </si>
   <si>
     <t xml:space="preserve">5.26996326446533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35547113418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25196218490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3779730796814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36447143554688</t>
+    <t xml:space="preserve">5.35547065734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25196170806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37797260284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36447191238403</t>
   </si>
   <si>
     <t xml:space="preserve">5.4634804725647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59849262237549</t>
+    <t xml:space="preserve">5.59849214553833</t>
   </si>
   <si>
     <t xml:space="preserve">5.62999486923218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82351207733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64349603652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67949962615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62549448013306</t>
+    <t xml:space="preserve">5.82351160049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6434965133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67949867248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62549495697021</t>
   </si>
   <si>
     <t xml:space="preserve">5.58049058914185</t>
@@ -2477,22 +2477,22 @@
     <t xml:space="preserve">5.70650196075439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61199378967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7200026512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79650974273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94502258300781</t>
+    <t xml:space="preserve">5.61199331283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72000312805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79650926589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94502305984497</t>
   </si>
   <si>
     <t xml:space="preserve">6.01702928543091</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11603736877441</t>
+    <t xml:space="preserve">6.11603832244873</t>
   </si>
   <si>
     <t xml:space="preserve">5.98102617263794</t>
@@ -2504,49 +2504,49 @@
     <t xml:space="preserve">5.91802024841309</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13403940200806</t>
+    <t xml:space="preserve">6.13403987884521</t>
   </si>
   <si>
     <t xml:space="preserve">6.59758043289185</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9801139831543</t>
+    <t xml:space="preserve">6.98011350631714</t>
   </si>
   <si>
     <t xml:space="preserve">7.07462215423584</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16012907028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47965812683105</t>
+    <t xml:space="preserve">7.16012954711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47965860366821</t>
   </si>
   <si>
     <t xml:space="preserve">7.48415803909302</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57866716384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7001781463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53816270828247</t>
+    <t xml:space="preserve">7.57866668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70017671585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53816223144531</t>
   </si>
   <si>
     <t xml:space="preserve">7.49315881729126</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04311895370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15562868118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29064178466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22763538360596</t>
+    <t xml:space="preserve">7.04311943054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15562915802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29064083099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22763586044312</t>
   </si>
   <si>
     <t xml:space="preserve">7.16462993621826</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">7.15112924575806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99361419677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02961874008179</t>
+    <t xml:space="preserve">6.9936146736145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02961826324463</t>
   </si>
   <si>
     <t xml:space="preserve">7.14212799072266</t>
@@ -2567,34 +2567,34 @@
     <t xml:space="preserve">7.26813888549805</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25013828277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44365549087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78118515014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72267818450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54266214370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43465423583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53366327285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23663568496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3221435546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99811506271362</t>
+    <t xml:space="preserve">7.25013780593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44365501403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78118467330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72267866134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54266405105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43465375900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53366184234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2366361618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32214450836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99811601638794</t>
   </si>
   <si>
     <t xml:space="preserve">7.28614091873169</t>
@@ -2603,19 +2603,19 @@
     <t xml:space="preserve">7.13312768936157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17813110351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0971245765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39865064620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30864238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35814666748047</t>
+    <t xml:space="preserve">7.17813158035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09712409973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39865112304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30864286422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35814809799194</t>
   </si>
   <si>
     <t xml:space="preserve">7.38964986801147</t>
@@ -2624,19 +2624,19 @@
     <t xml:space="preserve">7.19163227081299</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05211973190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90810775756836</t>
+    <t xml:space="preserve">7.05212020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9081072807312</t>
   </si>
   <si>
     <t xml:space="preserve">6.39956283569336</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40406322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62458276748657</t>
+    <t xml:space="preserve">6.40406274795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62458324432373</t>
   </si>
   <si>
     <t xml:space="preserve">6.67858695983887</t>
@@ -2645,34 +2645,34 @@
     <t xml:space="preserve">6.60208082199097</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6515851020813</t>
+    <t xml:space="preserve">6.65158462524414</t>
   </si>
   <si>
     <t xml:space="preserve">6.50307130813599</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90360689163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77309513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77759647369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71009016036987</t>
+    <t xml:space="preserve">6.90360736846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77309608459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77759599685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71008968353271</t>
   </si>
   <si>
     <t xml:space="preserve">6.68308782577515</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56157732009888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71459054946899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64708518981934</t>
+    <t xml:space="preserve">6.56157684326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71459102630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64708423614502</t>
   </si>
   <si>
     <t xml:space="preserve">6.52107334136963</t>
@@ -2681,37 +2681,37 @@
     <t xml:space="preserve">6.01252841949463</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86401605606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68850040435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53998756408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67049837112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62099456787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38247346878052</t>
+    <t xml:space="preserve">5.86401557922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68850088119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53998708724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67049932479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62099409103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38247299194336</t>
   </si>
   <si>
     <t xml:space="preserve">5.02694225311279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67141056060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51839780807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55890083312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13811349868774</t>
+    <t xml:space="preserve">4.67141103744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51839685440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55890130996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1381139755249</t>
   </si>
   <si>
     <t xml:space="preserve">3.74882960319519</t>
@@ -2720,28 +2720,28 @@
     <t xml:space="preserve">3.60031676292419</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26278686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16827869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12777519226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17052865028381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38429713249207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92434525489807</t>
+    <t xml:space="preserve">3.26278710365295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16827845573425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12777495384216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17052912712097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38429760932922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92434501647949</t>
   </si>
   <si>
     <t xml:space="preserve">3.79608392715454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5508120059967</t>
+    <t xml:space="preserve">3.55081248283386</t>
   </si>
   <si>
     <t xml:space="preserve">3.44280290603638</t>
@@ -2750,25 +2750,25 @@
     <t xml:space="preserve">3.60706734657288</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55531287193298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64532089233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55981302261353</t>
+    <t xml:space="preserve">3.5553126335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64532041549683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55981278419495</t>
   </si>
   <si>
     <t xml:space="preserve">3.73082780838013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67682361602783</t>
+    <t xml:space="preserve">3.67682313919067</t>
   </si>
   <si>
     <t xml:space="preserve">3.99635124206543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96034860610962</t>
+    <t xml:space="preserve">3.9603488445282</t>
   </si>
   <si>
     <t xml:space="preserve">4.30687856674194</t>
@@ -2777,10 +2777,10 @@
     <t xml:space="preserve">4.04585599899292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94234704971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09986019134521</t>
+    <t xml:space="preserve">3.94234657287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09986066818237</t>
   </si>
   <si>
     <t xml:space="preserve">4.02335357666016</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">4.28437662124634</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19436883926392</t>
+    <t xml:space="preserve">4.19436836242676</t>
   </si>
   <si>
     <t xml:space="preserve">4.18986845016479</t>
@@ -2807,16 +2807,16 @@
     <t xml:space="preserve">4.27987670898438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23487234115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23037195205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10436058044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59040403366089</t>
+    <t xml:space="preserve">4.23487281799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23037242889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10436105728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59040355682373</t>
   </si>
   <si>
     <t xml:space="preserve">4.44639110565186</t>
@@ -2828,13 +2828,13 @@
     <t xml:space="preserve">4.31137895584106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34738206863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66916036605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8716778755188</t>
+    <t xml:space="preserve">4.34738254547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66916084289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87167835235596</t>
   </si>
   <si>
     <t xml:space="preserve">4.81542348861694</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">4.80417251586914</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96168565750122</t>
+    <t xml:space="preserve">4.96168613433838</t>
   </si>
   <si>
     <t xml:space="preserve">5.09669780731201</t>
@@ -2855,22 +2855,22 @@
     <t xml:space="preserve">5.3892240524292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25421237945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07419586181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84917593002319</t>
+    <t xml:space="preserve">5.25421190261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07419633865356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84917640686035</t>
   </si>
   <si>
     <t xml:space="preserve">4.93918466567993</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10794973373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22045946121216</t>
+    <t xml:space="preserve">5.10794925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.220458984375</t>
   </si>
   <si>
     <t xml:space="preserve">5.16420412063599</t>
@@ -2879,31 +2879,31 @@
     <t xml:space="preserve">5.29921579360962</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11919975280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06294536590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05169439315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18670558929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15295362472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00669002532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83792543411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92793369293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02919244766235</t>
+    <t xml:space="preserve">5.11920022964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0629448890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0516939163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18670606613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15295267105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00669050216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83792591094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92793321609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02919292449951</t>
   </si>
   <si>
     <t xml:space="preserve">4.97293710708618</t>
@@ -2912,10 +2912,10 @@
     <t xml:space="preserve">5.13045120239258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98418855667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01794099807739</t>
+    <t xml:space="preserve">4.98418807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01794147491455</t>
   </si>
   <si>
     <t xml:space="preserve">5.04044342041016</t>
@@ -2927,10 +2927,10 @@
     <t xml:space="preserve">5.24296092987061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95043516159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9954400062561</t>
+    <t xml:space="preserve">4.95043563842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99543952941895</t>
   </si>
   <si>
     <t xml:space="preserve">4.88292980194092</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">4.86042785644531</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8941798210144</t>
+    <t xml:space="preserve">4.89418029785156</t>
   </si>
   <si>
     <t xml:space="preserve">4.75916862487793</t>
@@ -2948,16 +2948,16 @@
     <t xml:space="preserve">4.8266749382019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90543174743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91668224334717</t>
+    <t xml:space="preserve">4.90543127059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91668272018433</t>
   </si>
   <si>
     <t xml:space="preserve">4.50039577484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1178617477417</t>
+    <t xml:space="preserve">4.11786270141602</t>
   </si>
   <si>
     <t xml:space="preserve">4.14036417007446</t>
@@ -2969,13 +2969,13 @@
     <t xml:space="preserve">4.22587156295776</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26637506484985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53414869308472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44547891616821</t>
+    <t xml:space="preserve">4.2663745880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53414821624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44547939300537</t>
   </si>
   <si>
     <t xml:space="preserve">5.52423572540283</t>
@@ -2993,13 +2993,13 @@
     <t xml:space="preserve">5.54673767089844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56923961639404</t>
+    <t xml:space="preserve">5.56924057006836</t>
   </si>
   <si>
     <t xml:space="preserve">5.79425954818726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60299253463745</t>
+    <t xml:space="preserve">5.60299301147461</t>
   </si>
   <si>
     <t xml:space="preserve">5.71550273895264</t>
@@ -3008,10 +3008,10 @@
     <t xml:space="preserve">6.04178142547607</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86176538467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85051441192627</t>
+    <t xml:space="preserve">5.86176490783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85051488876343</t>
   </si>
   <si>
     <t xml:space="preserve">5.77175760269165</t>
@@ -3026,13 +3026,13 @@
     <t xml:space="preserve">6.08678531646729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01927947998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05303144454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07553434371948</t>
+    <t xml:space="preserve">6.01927900314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05303239822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07553386688232</t>
   </si>
   <si>
     <t xml:space="preserve">5.9742751121521</t>
@@ -3044,25 +3044,25 @@
     <t xml:space="preserve">6.10928726196289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24429941177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21054649353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25555038452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36805963516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41306400299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42431497573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44681644439697</t>
+    <t xml:space="preserve">6.24429893493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21054601669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25554990768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36806011199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41306447982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42431449890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44681692123413</t>
   </si>
   <si>
     <t xml:space="preserve">6.49182081222534</t>
@@ -3074,13 +3074,13 @@
     <t xml:space="preserve">6.51432323455811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30055379867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23304843902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35680913925171</t>
+    <t xml:space="preserve">6.3005542755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23304796218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35680961608887</t>
   </si>
   <si>
     <t xml:space="preserve">6.18804407119751</t>
@@ -3089,7 +3089,7 @@
     <t xml:space="preserve">6.09803628921509</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3118052482605</t>
+    <t xml:space="preserve">6.31180477142334</t>
   </si>
   <si>
     <t xml:space="preserve">6.39056205749512</t>
@@ -3098,7 +3098,7 @@
     <t xml:space="preserve">6.54807567596436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40181303024292</t>
+    <t xml:space="preserve">6.40181350708008</t>
   </si>
   <si>
     <t xml:space="preserve">6.67183637619019</t>
@@ -3113,13 +3113,13 @@
     <t xml:space="preserve">6.59307956695557</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66058588027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58182907104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28930330276489</t>
+    <t xml:space="preserve">6.66058540344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58182859420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28930377960205</t>
   </si>
   <si>
     <t xml:space="preserve">6.26680135726929</t>
@@ -3128,13 +3128,13 @@
     <t xml:space="preserve">6.22179651260376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27805137634277</t>
+    <t xml:space="preserve">6.27805233001709</t>
   </si>
   <si>
     <t xml:space="preserve">6.43556594848633</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75059366226196</t>
+    <t xml:space="preserve">6.7505931854248</t>
   </si>
   <si>
     <t xml:space="preserve">7.65067291259766</t>
@@ -3143,37 +3143,37 @@
     <t xml:space="preserve">7.63942241668701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1007137298584</t>
+    <t xml:space="preserve">8.10071277618408</t>
   </si>
   <si>
     <t xml:space="preserve">8.03320598602295</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87569236755371</t>
+    <t xml:space="preserve">7.87569284439087</t>
   </si>
   <si>
     <t xml:space="preserve">7.85319089889526</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92069721221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88694381713867</t>
+    <t xml:space="preserve">7.9206976890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88694334030151</t>
   </si>
   <si>
     <t xml:space="preserve">7.9882025718689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96570110321045</t>
+    <t xml:space="preserve">7.96570062637329</t>
   </si>
   <si>
     <t xml:space="preserve">7.89819383621216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86444139480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79693651199341</t>
+    <t xml:space="preserve">7.86444234848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79693603515625</t>
   </si>
   <si>
     <t xml:space="preserve">7.94319868087769</t>
@@ -3185,28 +3185,28 @@
     <t xml:space="preserve">8.15696716308594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14571571350098</t>
+    <t xml:space="preserve">8.14571666717529</t>
   </si>
   <si>
     <t xml:space="preserve">8.1907205581665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13446521759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01070404052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97695207595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04445648193359</t>
+    <t xml:space="preserve">8.13446617126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01070308685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97695112228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04445743560791</t>
   </si>
   <si>
     <t xml:space="preserve">8.20197200775146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08946228027344</t>
+    <t xml:space="preserve">8.08946132659912</t>
   </si>
   <si>
     <t xml:space="preserve">8.0219554901123</t>
@@ -3215,34 +3215,34 @@
     <t xml:space="preserve">7.93194818496704</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06695938110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80818653106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8194375038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70692729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78568458557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68442583084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72942876815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2357234954834</t>
+    <t xml:space="preserve">8.0669584274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80818748474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81943798065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70692825317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78568363189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68442535400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72942972183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23572540283203</t>
   </si>
   <si>
     <t xml:space="preserve">9.00079154968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84327602386475</t>
+    <t xml:space="preserve">8.84327793121338</t>
   </si>
   <si>
     <t xml:space="preserve">9.04579544067383</t>
@@ -3251,28 +3251,28 @@
     <t xml:space="preserve">9.31581974029541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48623085021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44078826904297</t>
+    <t xml:space="preserve">9.48622989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44078731536865</t>
   </si>
   <si>
     <t xml:space="preserve">9.99612808227539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92523384094238</t>
+    <t xml:space="preserve">9.92523288726807</t>
   </si>
   <si>
     <t xml:space="preserve">10.303337097168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5160207748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5278367996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5514678955078</t>
+    <t xml:space="preserve">10.5160217285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5278377532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5514688491821</t>
   </si>
   <si>
     <t xml:space="preserve">10.7523365020752</t>
@@ -3299,7 +3299,7 @@
     <t xml:space="preserve">10.5987310409546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9768352508545</t>
+    <t xml:space="preserve">10.9768362045288</t>
   </si>
   <si>
     <t xml:space="preserve">10.7050733566284</t>
@@ -3308,46 +3308,46 @@
     <t xml:space="preserve">10.6105480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269691467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4923906326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6223630905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797060012817</t>
+    <t xml:space="preserve">10.3269701004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4923896789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6223640441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797069549561</t>
   </si>
   <si>
     <t xml:space="preserve">10.1733636856079</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2442588806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3742322921753</t>
+    <t xml:space="preserve">10.2442598342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3742332458496</t>
   </si>
   <si>
     <t xml:space="preserve">10.291522026062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3151531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3387851715088</t>
+    <t xml:space="preserve">10.3151540756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3387861251831</t>
   </si>
   <si>
     <t xml:space="preserve">10.4805736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4451265335083</t>
+    <t xml:space="preserve">10.4451274871826</t>
   </si>
   <si>
     <t xml:space="preserve">10.7168893814087</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4096784591675</t>
+    <t xml:space="preserve">10.4096794128418</t>
   </si>
   <si>
     <t xml:space="preserve">10.2560758590698</t>
@@ -3356,13 +3356,13 @@
     <t xml:space="preserve">10.6459941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3978643417358</t>
+    <t xml:space="preserve">10.3978633880615</t>
   </si>
   <si>
     <t xml:space="preserve">10.362416267395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4376497268677</t>
+    <t xml:space="preserve">11.437650680542</t>
   </si>
   <si>
     <t xml:space="preserve">11.7590389251709</t>
@@ -3374,28 +3374,28 @@
     <t xml:space="preserve">12.163610458374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0048055648804</t>
+    <t xml:space="preserve">12.0048065185547</t>
   </si>
   <si>
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968482971191</t>
+    <t xml:space="preserve">11.7968492507935</t>
   </si>
   <si>
     <t xml:space="preserve">11.6815271377563</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8346605300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7023239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6077966690063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5699863433838</t>
+    <t xml:space="preserve">11.834659576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7023220062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.607795715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5699872970581</t>
   </si>
   <si>
     <t xml:space="preserve">11.9102802276611</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">12.3640050888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.118236541748</t>
+    <t xml:space="preserve">12.1182374954224</t>
   </si>
   <si>
     <t xml:space="preserve">12.3261947631836</t>
@@ -3419,16 +3419,16 @@
     <t xml:space="preserve">12.3072900772095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5152473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5719623565674</t>
+    <t xml:space="preserve">12.5152463912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5719633102417</t>
   </si>
   <si>
     <t xml:space="preserve">12.1560478210449</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2147397994995</t>
+    <t xml:space="preserve">13.2147388458252</t>
   </si>
   <si>
     <t xml:space="preserve">13.9142322540283</t>
@@ -3437,13 +3437,13 @@
     <t xml:space="preserve">14.1599998474121</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0087585449219</t>
+    <t xml:space="preserve">14.0087575912476</t>
   </si>
   <si>
     <t xml:space="preserve">13.4416027069092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8008012771606</t>
+    <t xml:space="preserve">13.800802230835</t>
   </si>
   <si>
     <t xml:space="preserve">14.1221885681152</t>
@@ -3452,31 +3452,31 @@
     <t xml:space="preserve">14.027663230896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9540185928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3490514755249</t>
+    <t xml:space="preserve">14.9540176391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3490524291992</t>
   </si>
   <si>
     <t xml:space="preserve">14.0465679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7062740325928</t>
+    <t xml:space="preserve">13.7062759399414</t>
   </si>
   <si>
     <t xml:space="preserve">14.0654745101929</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7251815795898</t>
+    <t xml:space="preserve">13.7251806259155</t>
   </si>
   <si>
     <t xml:space="preserve">13.3281707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7610139846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2525501251221</t>
+    <t xml:space="preserve">12.7610149383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2525510787964</t>
   </si>
   <si>
     <t xml:space="preserve">13.3848867416382</t>
@@ -3494,16 +3494,16 @@
     <t xml:space="preserve">13.3659811019897</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7649669647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7858486175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8425626754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1261386871338</t>
+    <t xml:space="preserve">14.7649660110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7858476638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8425636291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1261405944824</t>
   </si>
   <si>
     <t xml:space="preserve">16.9201602935791</t>
@@ -3518,28 +3518,28 @@
     <t xml:space="preserve">16.6176776885986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7122020721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3719081878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1450462341309</t>
+    <t xml:space="preserve">16.7122039794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3719100952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1450443267822</t>
   </si>
   <si>
     <t xml:space="preserve">16.504243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3530025482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2584781646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614683151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047523498535</t>
+    <t xml:space="preserve">16.3530044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2584800720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614692687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047533035278</t>
   </si>
   <si>
     <t xml:space="preserve">16.2395725250244</t>
@@ -3551,7 +3551,7 @@
     <t xml:space="preserve">16.1828594207764</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2375984191895</t>
+    <t xml:space="preserve">15.2375974655151</t>
   </si>
   <si>
     <t xml:space="preserve">14.7460622787476</t>
@@ -3560,19 +3560,19 @@
     <t xml:space="preserve">14.8216819763184</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5570087432861</t>
+    <t xml:space="preserve">14.5570096969604</t>
   </si>
   <si>
     <t xml:space="preserve">13.9331369400024</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9520435333252</t>
+    <t xml:space="preserve">13.9520425796509</t>
   </si>
   <si>
     <t xml:space="preserve">13.630654335022</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2356214523315</t>
+    <t xml:space="preserve">14.2356204986572</t>
   </si>
   <si>
     <t xml:space="preserve">14.3679571151733</t>
@@ -3605,10 +3605,10 @@
     <t xml:space="preserve">13.6873693466187</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6495590209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2734308242798</t>
+    <t xml:space="preserve">13.6495580673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2734317779541</t>
   </si>
   <si>
     <t xml:space="preserve">14.4435777664185</t>
@@ -3626,22 +3626,22 @@
     <t xml:space="preserve">13.2336444854736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4226970672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3470754623413</t>
+    <t xml:space="preserve">13.4226961135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3470764160156</t>
   </si>
   <si>
     <t xml:space="preserve">13.7440853118896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4774360656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6664876937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4794120788574</t>
+    <t xml:space="preserve">12.4774370193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6664886474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4794130325317</t>
   </si>
   <si>
     <t xml:space="preserve">13.7629909515381</t>
@@ -3659,22 +3659,22 @@
     <t xml:space="preserve">12.6097736358643</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0993318557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4018154144287</t>
+    <t xml:space="preserve">12.0993328094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.401816368103</t>
   </si>
   <si>
     <t xml:space="preserve">12.2127637863159</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9291858673096</t>
+    <t xml:space="preserve">11.9291849136353</t>
   </si>
   <si>
     <t xml:space="preserve">11.8535652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2694797515869</t>
+    <t xml:space="preserve">12.2694787979126</t>
   </si>
   <si>
     <t xml:space="preserve">12.0426168441772</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">11.0973558425903</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7381563186646</t>
+    <t xml:space="preserve">10.7381572723389</t>
   </si>
   <si>
     <t xml:space="preserve">11.3620300292969</t>
@@ -3701,13 +3701,13 @@
     <t xml:space="preserve">12.0804271697998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6645126342773</t>
+    <t xml:space="preserve">11.6645135879517</t>
   </si>
   <si>
     <t xml:space="preserve">12.9500665664673</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0067825317383</t>
+    <t xml:space="preserve">13.006781578064</t>
   </si>
   <si>
     <t xml:space="preserve">13.0824031829834</t>
@@ -3725,43 +3725,43 @@
     <t xml:space="preserve">12.9973297119141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9406137466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7042999267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6759405136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7893724441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6192255020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.60032081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7704668045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8933506011963</t>
+    <t xml:space="preserve">12.9406147003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7042989730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6759414672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7893714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6192264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6003198623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7704677581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8933515548706</t>
   </si>
   <si>
     <t xml:space="preserve">12.7137517929077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0615224838257</t>
+    <t xml:space="preserve">12.0615215301514</t>
   </si>
   <si>
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286783218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0237112045288</t>
+    <t xml:space="preserve">12.6286773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0237121582031</t>
   </si>
   <si>
     <t xml:space="preserve">12.146595954895</t>
@@ -3770,10 +3770,10 @@
     <t xml:space="preserve">11.8630170822144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8063020706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5416288375854</t>
+    <t xml:space="preserve">11.8063011169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5416297912598</t>
   </si>
   <si>
     <t xml:space="preserve">10.8799457550049</t>
@@ -3782,16 +3782,16 @@
     <t xml:space="preserve">11.0028305053711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3431234359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8252067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834163665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.089879989624</t>
+    <t xml:space="preserve">11.3431243896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8252077102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834173202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0898790359497</t>
   </si>
   <si>
     <t xml:space="preserve">12.0937099456787</t>
@@ -3800,31 +3800,31 @@
     <t xml:space="preserve">11.6518430709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8151407241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8247470855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9400177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.410701751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1129207611084</t>
+    <t xml:space="preserve">11.8151416778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8247480392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.940016746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4107007980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1129217147827</t>
   </si>
   <si>
     <t xml:space="preserve">11.920804977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0168628692627</t>
+    <t xml:space="preserve">12.016863822937</t>
   </si>
   <si>
     <t xml:space="preserve">12.2377967834473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050374984741</t>
+    <t xml:space="preserve">12.3050384521484</t>
   </si>
   <si>
     <t xml:space="preserve">12.4010953903198</t>
@@ -3836,7 +3836,7 @@
     <t xml:space="preserve">11.4116973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9890422821045</t>
+    <t xml:space="preserve">10.9890413284302</t>
   </si>
   <si>
     <t xml:space="preserve">10.7969255447388</t>
@@ -3845,16 +3845,16 @@
     <t xml:space="preserve">11.2964277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8161373138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0658884048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1235237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2676095962524</t>
+    <t xml:space="preserve">10.8161382675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0658893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1235227584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2676105499268</t>
   </si>
   <si>
     <t xml:space="preserve">11.1619462966919</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">11.7479000091553</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382955551147</t>
+    <t xml:space="preserve">11.7382946014404</t>
   </si>
   <si>
     <t xml:space="preserve">11.6134195327759</t>
@@ -3890,19 +3890,19 @@
     <t xml:space="preserve">12.6604528427124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8141460418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198083877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9678373336792</t>
+    <t xml:space="preserve">12.8141450881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198093414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9678382873535</t>
   </si>
   <si>
     <t xml:space="preserve">12.823751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.804539680481</t>
+    <t xml:space="preserve">12.8045387268066</t>
   </si>
   <si>
     <t xml:space="preserve">13.0446844100952</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">13.1311368942261</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2848300933838</t>
+    <t xml:space="preserve">13.2848291397095</t>
   </si>
   <si>
     <t xml:space="preserve">13.4577341079712</t>
@@ -3920,13 +3920,13 @@
     <t xml:space="preserve">13.7651205062866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9188117980957</t>
+    <t xml:space="preserve">13.91881275177</t>
   </si>
   <si>
     <t xml:space="preserve">13.8611783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9092073440552</t>
+    <t xml:space="preserve">13.9092063903809</t>
   </si>
   <si>
     <t xml:space="preserve">14.0052652359009</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">13.957236289978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0436887741089</t>
+    <t xml:space="preserve">14.0436878204346</t>
   </si>
   <si>
     <t xml:space="preserve">13.976448059082</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">13.938024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6018209457397</t>
+    <t xml:space="preserve">13.6018218994141</t>
   </si>
   <si>
     <t xml:space="preserve">13.2752237319946</t>
@@ -3974,31 +3974,31 @@
     <t xml:space="preserve">13.1983766555786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1023187637329</t>
+    <t xml:space="preserve">13.1023197174072</t>
   </si>
   <si>
     <t xml:space="preserve">13.3232526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3040409088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3424644470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1503477096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0062618255615</t>
+    <t xml:space="preserve">13.3040418624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3424654006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1503486633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0062608718872</t>
   </si>
   <si>
     <t xml:space="preserve">12.7372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1695594787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.862174987793</t>
+    <t xml:space="preserve">13.1695604324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8621740341187</t>
   </si>
   <si>
     <t xml:space="preserve">12.8525686264038</t>
@@ -4013,7 +4013,7 @@
     <t xml:space="preserve">12.372278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0841035842896</t>
+    <t xml:space="preserve">12.0841045379639</t>
   </si>
   <si>
     <t xml:space="preserve">11.9496221542358</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">11.3444566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7873191833496</t>
+    <t xml:space="preserve">10.7873201370239</t>
   </si>
   <si>
     <t xml:space="preserve">10.7777147293091</t>
@@ -4040,10 +4040,10 @@
     <t xml:space="preserve">10.7296848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8929843902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6240215301514</t>
+    <t xml:space="preserve">10.8929834365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6240224838257</t>
   </si>
   <si>
     <t xml:space="preserve">11.2195816040039</t>
@@ -4058,16 +4058,16 @@
     <t xml:space="preserve">11.3636684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1907644271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9025907516479</t>
+    <t xml:space="preserve">11.1907634735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9025897979736</t>
   </si>
   <si>
     <t xml:space="preserve">11.0274648666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2099752426147</t>
+    <t xml:space="preserve">11.2099761962891</t>
   </si>
   <si>
     <t xml:space="preserve">11.5749959945679</t>
@@ -4076,7 +4076,7 @@
     <t xml:space="preserve">11.5365724563599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1321334838867</t>
+    <t xml:space="preserve">12.1321325302124</t>
   </si>
   <si>
     <t xml:space="preserve">12.2570085525513</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">12.0072574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3818845748901</t>
+    <t xml:space="preserve">12.3818836212158</t>
   </si>
   <si>
     <t xml:space="preserve">12.3914890289307</t>
@@ -4106,7 +4106,7 @@
     <t xml:space="preserve">13.0158672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791658401489</t>
+    <t xml:space="preserve">13.1791667938232</t>
   </si>
   <si>
     <t xml:space="preserve">12.9582328796387</t>
@@ -4115,7 +4115,7 @@
     <t xml:space="preserve">12.7469053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0542898178101</t>
+    <t xml:space="preserve">13.0542907714844</t>
   </si>
   <si>
     <t xml:space="preserve">13.3328590393066</t>
@@ -4133,25 +4133,25 @@
     <t xml:space="preserve">13.8131494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2165927886963</t>
+    <t xml:space="preserve">14.2165937423706</t>
   </si>
   <si>
     <t xml:space="preserve">14.1109285354614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284181594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6210336685181</t>
+    <t xml:space="preserve">13.9284191131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6210327148438</t>
   </si>
   <si>
     <t xml:space="preserve">13.7747259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8419666290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0244770050049</t>
+    <t xml:space="preserve">13.841965675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0244779586792</t>
   </si>
   <si>
     <t xml:space="preserve">14.5720081329346</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">13.8515720367432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6402444839478</t>
+    <t xml:space="preserve">13.6402435302734</t>
   </si>
   <si>
     <t xml:space="preserve">13.5441865921021</t>
@@ -4199,7 +4199,7 @@
     <t xml:space="preserve">14.0628995895386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0340824127197</t>
+    <t xml:space="preserve">14.0340814590454</t>
   </si>
   <si>
     <t xml:space="preserve">14.370285987854</t>
@@ -4211,7 +4211,7 @@
     <t xml:space="preserve">14.312650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.389497756958</t>
+    <t xml:space="preserve">14.3894968032837</t>
   </si>
   <si>
     <t xml:space="preserve">14.0821113586426</t>
@@ -4223,25 +4223,25 @@
     <t xml:space="preserve">13.7170906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3991022109985</t>
+    <t xml:space="preserve">14.3991031646729</t>
   </si>
   <si>
     <t xml:space="preserve">14.8793926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1003274917603</t>
+    <t xml:space="preserve">15.1003265380859</t>
   </si>
   <si>
     <t xml:space="preserve">15.1675672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">15.350076675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3404731750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0234804153442</t>
+    <t xml:space="preserve">15.3500776290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3404722213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0234813690186</t>
   </si>
   <si>
     <t xml:space="preserve">15.0522985458374</t>
@@ -4259,7 +4259,7 @@
     <t xml:space="preserve">15.0619039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1291446685791</t>
+    <t xml:space="preserve">15.1291437149048</t>
   </si>
   <si>
     <t xml:space="preserve">15.0907211303711</t>
@@ -4271,13 +4271,13 @@
     <t xml:space="preserve">14.9850578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1387510299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0138740539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.196385383606</t>
+    <t xml:space="preserve">15.1387500762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0138750076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1963844299316</t>
   </si>
   <si>
     <t xml:space="preserve">15.4365301132202</t>
@@ -4286,7 +4286,7 @@
     <t xml:space="preserve">15.3116540908813</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2155961990356</t>
+    <t xml:space="preserve">15.21559715271</t>
   </si>
   <si>
     <t xml:space="preserve">15.4557418823242</t>
@@ -4295,25 +4295,25 @@
     <t xml:space="preserve">14.68727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4855556488037</t>
+    <t xml:space="preserve">14.4855546951294</t>
   </si>
   <si>
     <t xml:space="preserve">14.8121528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922145843506</t>
+    <t xml:space="preserve">13.5922155380249</t>
   </si>
   <si>
     <t xml:space="preserve">11.7671117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6230249404907</t>
+    <t xml:space="preserve">11.623025894165</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5173616409302</t>
+    <t xml:space="preserve">11.5173606872559</t>
   </si>
   <si>
     <t xml:space="preserve">11.526967048645</t>
@@ -4340,13 +4340,13 @@
     <t xml:space="preserve">11.3540620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.469331741333</t>
+    <t xml:space="preserve">11.4693326950073</t>
   </si>
   <si>
     <t xml:space="preserve">11.2387933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3252458572388</t>
+    <t xml:space="preserve">11.3252449035645</t>
   </si>
   <si>
     <t xml:space="preserve">11.2772159576416</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">11.113917350769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2003688812256</t>
+    <t xml:space="preserve">11.2003698348999</t>
   </si>
   <si>
     <t xml:space="preserve">11.1427354812622</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">10.6432332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5663871765137</t>
+    <t xml:space="preserve">10.5663862228394</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452299118042</t>
@@ -22165,7 +22165,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G644" t="s">
-        <v>458</v>
+        <v>550</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22191,7 +22191,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G645" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22217,7 +22217,7 @@
         <v>7.08500003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22243,7 +22243,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G647" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22295,7 +22295,7 @@
         <v>7.25500011444092</v>
       </c>
       <c r="G649" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22347,7 +22347,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G651" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22399,7 +22399,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G653" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22425,7 +22425,7 @@
         <v>7.20499992370605</v>
       </c>
       <c r="G654" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22451,7 +22451,7 @@
         <v>7.14499998092651</v>
       </c>
       <c r="G655" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22477,7 +22477,7 @@
         <v>7.14499998092651</v>
       </c>
       <c r="G656" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22503,7 +22503,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G657" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22529,7 +22529,7 @@
         <v>7.125</v>
       </c>
       <c r="G658" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22581,7 +22581,7 @@
         <v>7.125</v>
       </c>
       <c r="G660" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22607,7 +22607,7 @@
         <v>7.18499994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22633,7 +22633,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G662" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22685,7 +22685,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G664" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22737,7 +22737,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G666" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22763,7 +22763,7 @@
         <v>7.07499980926514</v>
       </c>
       <c r="G667" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22789,7 +22789,7 @@
         <v>6.97499990463257</v>
       </c>
       <c r="G668" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22815,7 +22815,7 @@
         <v>6.97499990463257</v>
       </c>
       <c r="G669" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22893,7 +22893,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22919,7 +22919,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G673" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22945,7 +22945,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G674" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22997,7 +22997,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G676" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23023,7 +23023,7 @@
         <v>7.25500011444092</v>
       </c>
       <c r="G677" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23153,7 +23153,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G682" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -23179,7 +23179,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G683" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -23205,7 +23205,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G684" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -23231,7 +23231,7 @@
         <v>6.91499996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -23283,7 +23283,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G687" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -23309,7 +23309,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G688" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -23335,7 +23335,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G689" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -23361,7 +23361,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G690" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -23387,7 +23387,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G691" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23413,7 +23413,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G692" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -23439,7 +23439,7 @@
         <v>5.7350001335144</v>
       </c>
       <c r="G693" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23465,7 +23465,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G694" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -23491,7 +23491,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G695" t="s">
-        <v>580</v>
+        <v>406</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23543,7 +23543,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G697" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -61901,7 +61901,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6494907407</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>42170</v>
@@ -61922,6 +61922,32 @@
         <v>1691</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6493634259</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>64846</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>9.91499996185303</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>9.67000007629395</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>9.78499984741211</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>1686</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1693">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,61 +44,61 @@
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11351323127747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09785771369934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06132745742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03784418106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98826801776886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02740693092346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01697015762329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93086361885071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9553906917572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9303423166275</t>
+    <t xml:space="preserve">2.11351346969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09785747528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06132769584656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03784441947937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98826777935028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02740716934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01696991920471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93086373806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95539116859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93034219741821</t>
   </si>
   <si>
     <t xml:space="preserve">1.98304963111877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98200583457947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96739423274994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96687185764313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0242760181427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97052490711212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98409307003021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94391059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86563205718994</t>
+    <t xml:space="preserve">1.98200571537018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96739387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96687161922455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02427625656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97052454948425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9840931892395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9439103603363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86563217639923</t>
   </si>
   <si>
     <t xml:space="preserve">1.89433395862579</t>
@@ -110,46 +110,46 @@
     <t xml:space="preserve">1.88128757476807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89955282211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88389706611633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91259932518005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9219925403595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90998947620392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0561089515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03523516654968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04828119277954</t>
+    <t xml:space="preserve">1.89955258369446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88389694690704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91259896755219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92199230194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90998983383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05610918998718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0352349281311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04828143119812</t>
   </si>
   <si>
     <t xml:space="preserve">2.05819654464722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13438773155212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07176470756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10255455970764</t>
+    <t xml:space="preserve">2.13438749313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07176494598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10255408287048</t>
   </si>
   <si>
     <t xml:space="preserve">2.06654644012451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10725116729736</t>
+    <t xml:space="preserve">2.10725092887878</t>
   </si>
   <si>
     <t xml:space="preserve">2.10829448699951</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">2.11403512954712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13073444366455</t>
+    <t xml:space="preserve">2.13073468208313</t>
   </si>
   <si>
     <t xml:space="preserve">2.14482426643372</t>
@@ -173,10 +173,10 @@
     <t xml:space="preserve">2.18396353721619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11873149871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10777282714844</t>
+    <t xml:space="preserve">2.11873173713684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10777306556702</t>
   </si>
   <si>
     <t xml:space="preserve">2.09263896942139</t>
@@ -188,31 +188,31 @@
     <t xml:space="preserve">2.05089044570923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03627848625183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08481121063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10307574272156</t>
+    <t xml:space="preserve">2.03627872467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0848114490509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10307645797729</t>
   </si>
   <si>
     <t xml:space="preserve">2.08742046356201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07698345184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03001618385315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01749181747437</t>
+    <t xml:space="preserve">2.07698321342468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03001666069031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01749205589294</t>
   </si>
   <si>
     <t xml:space="preserve">2.03262543678284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03314733505249</t>
+    <t xml:space="preserve">2.03314757347107</t>
   </si>
   <si>
     <t xml:space="preserve">2.08168005943298</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">2.08794236183167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12395024299622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11821031570435</t>
+    <t xml:space="preserve">2.12395048141479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11821007728577</t>
   </si>
   <si>
     <t xml:space="preserve">2.13960599899292</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">2.25441431999207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2184054851532</t>
+    <t xml:space="preserve">2.21840620040894</t>
   </si>
   <si>
     <t xml:space="preserve">2.1860511302948</t>
@@ -251,28 +251,28 @@
     <t xml:space="preserve">2.18657302856445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20744729042053</t>
+    <t xml:space="preserve">2.20744705200195</t>
   </si>
   <si>
     <t xml:space="preserve">2.1923131942749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28050684928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30816507339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28572535514832</t>
+    <t xml:space="preserve">2.28050708770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30816531181335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28572559356689</t>
   </si>
   <si>
     <t xml:space="preserve">2.40679550170898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45950317382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47411489486694</t>
+    <t xml:space="preserve">2.45950293540955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47411465644836</t>
   </si>
   <si>
     <t xml:space="preserve">2.52108216285706</t>
@@ -281,46 +281,46 @@
     <t xml:space="preserve">2.48611807823181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57013630867004</t>
+    <t xml:space="preserve">2.57013654708862</t>
   </si>
   <si>
     <t xml:space="preserve">2.61934638023376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62095093727112</t>
+    <t xml:space="preserve">2.62095069885254</t>
   </si>
   <si>
     <t xml:space="preserve">2.65464878082275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64127612113953</t>
+    <t xml:space="preserve">2.64127683639526</t>
   </si>
   <si>
     <t xml:space="preserve">2.6744396686554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74504494667053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76644015312195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9076509475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93760442733765</t>
+    <t xml:space="preserve">2.74504446983337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76644039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90765070915222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93760418891907</t>
   </si>
   <si>
     <t xml:space="preserve">2.95044183731079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89481329917908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79211521148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86699891090393</t>
+    <t xml:space="preserve">2.89481353759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79211497306824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86699914932251</t>
   </si>
   <si>
     <t xml:space="preserve">2.8563015460968</t>
@@ -335,58 +335,58 @@
     <t xml:space="preserve">2.71723055839539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68941640853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64876508712769</t>
+    <t xml:space="preserve">2.68941617012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64876484870911</t>
   </si>
   <si>
     <t xml:space="preserve">2.73862624168396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81565022468567</t>
+    <t xml:space="preserve">2.81564974784851</t>
   </si>
   <si>
     <t xml:space="preserve">2.93118572235107</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79853367805481</t>
+    <t xml:space="preserve">2.79853343963623</t>
   </si>
   <si>
     <t xml:space="preserve">2.72792863845825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81351041793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86913871765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92048764228821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93974375724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92262721061707</t>
+    <t xml:space="preserve">2.81351065635681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86913895606995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92048811912537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9397439956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92262744903564</t>
   </si>
   <si>
     <t xml:space="preserve">2.94616270065308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92690658569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98253440856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99537205696106</t>
+    <t xml:space="preserve">2.92690682411194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98253512382507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99537229537964</t>
   </si>
   <si>
     <t xml:space="preserve">3.01676821708679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10234999656677</t>
+    <t xml:space="preserve">3.10235023498535</t>
   </si>
   <si>
     <t xml:space="preserve">3.24142050743103</t>
@@ -401,22 +401,22 @@
     <t xml:space="preserve">3.23500227928162</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23072290420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20504856109619</t>
+    <t xml:space="preserve">3.2307231426239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20504808425903</t>
   </si>
   <si>
     <t xml:space="preserve">3.18793177604675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2328622341156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22216463088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2007691860199</t>
+    <t xml:space="preserve">3.23286247253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22216486930847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20076942443848</t>
   </si>
   <si>
     <t xml:space="preserve">3.20932745933533</t>
@@ -425,55 +425,55 @@
     <t xml:space="preserve">3.11946630477905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19862985610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20290875434875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27351403236389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29276967048645</t>
+    <t xml:space="preserve">3.19862961769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20290899276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27351379394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29277014732361</t>
   </si>
   <si>
     <t xml:space="preserve">3.28635144233704</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2670955657959</t>
+    <t xml:space="preserve">3.26709532737732</t>
   </si>
   <si>
     <t xml:space="preserve">3.22858357429504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21574568748474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29490947723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2628161907196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22002553939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25639748573303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25211834907532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0959312915802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13444352149963</t>
+    <t xml:space="preserve">3.2157461643219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29490971565247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26281642913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22002506256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25639724731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25211811065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09593152999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13444328308105</t>
   </si>
   <si>
     <t xml:space="preserve">3.15369892120361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1943507194519</t>
+    <t xml:space="preserve">3.19435048103333</t>
   </si>
   <si>
     <t xml:space="preserve">3.14514112472534</t>
@@ -485,94 +485,94 @@
     <t xml:space="preserve">3.03816342353821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27565383911133</t>
+    <t xml:space="preserve">3.27565336227417</t>
   </si>
   <si>
     <t xml:space="preserve">3.20718789100647</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14942026138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31416583061218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37193322181702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53026008605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61584186553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72068071365356</t>
+    <t xml:space="preserve">3.14942002296448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31416535377502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3719334602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53026056289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61584234237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72067999839783</t>
   </si>
   <si>
     <t xml:space="preserve">3.84049558639526</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94105386734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02235746383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92607760429382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88970494270325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04375219345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12077665328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26198720932007</t>
+    <t xml:space="preserve">3.94105410575867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02235698699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92607712745667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88970446586609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04375267028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12077713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26198768615723</t>
   </si>
   <si>
     <t xml:space="preserve">4.16142797470093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18924188613892</t>
+    <t xml:space="preserve">4.18924236297607</t>
   </si>
   <si>
     <t xml:space="preserve">4.39677810668945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60859394073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.576500415802</t>
+    <t xml:space="preserve">4.60859441757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57650089263916</t>
   </si>
   <si>
     <t xml:space="preserve">4.56580305099487</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67706060409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86748027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85678195953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63854837417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65994358062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65566444396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56366348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4930591583252</t>
+    <t xml:space="preserve">4.67705965042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86747980117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85678243637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63854742050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6599440574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65566539764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56366395950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49305820465088</t>
   </si>
   <si>
     <t xml:space="preserve">4.29835891723633</t>
@@ -581,22 +581,22 @@
     <t xml:space="preserve">4.27482414245605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26626539230347</t>
+    <t xml:space="preserve">4.26626634597778</t>
   </si>
   <si>
     <t xml:space="preserve">4.15500926971436</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11863708496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01807832717896</t>
+    <t xml:space="preserve">4.1186375617981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0180778503418</t>
   </si>
   <si>
     <t xml:space="preserve">4.1528697013855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17212581634521</t>
+    <t xml:space="preserve">4.17212629318237</t>
   </si>
   <si>
     <t xml:space="preserve">4.28980112075806</t>
@@ -608,37 +608,37 @@
     <t xml:space="preserve">4.26412630081177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57863998413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55724477767944</t>
+    <t xml:space="preserve">4.57864046096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5572452545166</t>
   </si>
   <si>
     <t xml:space="preserve">4.5551061630249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53585004806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56794309616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64068746566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51445388793945</t>
+    <t xml:space="preserve">4.53584909439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56794261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64068794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51445436477661</t>
   </si>
   <si>
     <t xml:space="preserve">4.58291959762573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51017475128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43315076828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44598817825317</t>
+    <t xml:space="preserve">4.5101752281189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43315124511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44598865509033</t>
   </si>
   <si>
     <t xml:space="preserve">4.65138530731201</t>
@@ -647,19 +647,19 @@
     <t xml:space="preserve">4.56152391433716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70273399353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69203662872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66422271728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68347835540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01083040237427</t>
+    <t xml:space="preserve">4.70273447036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69203758239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.664222240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68347883224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01082992553711</t>
   </si>
   <si>
     <t xml:space="preserve">5.2932505607605</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">5.19911003112793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16059923171997</t>
+    <t xml:space="preserve">5.16059875488281</t>
   </si>
   <si>
     <t xml:space="preserve">5.13920307159424</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13706350326538</t>
+    <t xml:space="preserve">5.1370644569397</t>
   </si>
   <si>
     <t xml:space="preserve">5.11352872848511</t>
@@ -683,88 +683,88 @@
     <t xml:space="preserve">4.9487829208374</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0215277671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13492393493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18413400650024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21836614608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0814356803894</t>
+    <t xml:space="preserve">5.02152824401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13492441177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18413305282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2183666229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08143520355225</t>
   </si>
   <si>
     <t xml:space="preserve">5.05576038360596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97445821762085</t>
+    <t xml:space="preserve">4.97445726394653</t>
   </si>
   <si>
     <t xml:space="preserve">4.82468891143799</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00227165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95306205749512</t>
+    <t xml:space="preserve">5.00227117538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95306158065796</t>
   </si>
   <si>
     <t xml:space="preserve">5.02580690383911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01296949386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0044116973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03864336013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02794647216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95734119415283</t>
+    <t xml:space="preserve">5.01296901702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00441026687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03864431381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02794599533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95734071731567</t>
   </si>
   <si>
     <t xml:space="preserve">4.87175941467285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94022464752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9017128944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80115461349487</t>
+    <t xml:space="preserve">4.94022512435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90171241760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80115365982056</t>
   </si>
   <si>
     <t xml:space="preserve">4.781898021698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77120018005371</t>
+    <t xml:space="preserve">4.77120065689087</t>
   </si>
   <si>
     <t xml:space="preserve">4.76264190673828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71771144866943</t>
+    <t xml:space="preserve">4.71771049499512</t>
   </si>
   <si>
     <t xml:space="preserve">4.65352487564087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70701360702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66208362579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67492055892944</t>
+    <t xml:space="preserve">4.70701313018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6620831489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67492008209229</t>
   </si>
   <si>
     <t xml:space="preserve">4.60003614425659</t>
@@ -779,22 +779,22 @@
     <t xml:space="preserve">5.04934167861938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99585294723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10711050033569</t>
+    <t xml:space="preserve">4.99585342407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10710954666138</t>
   </si>
   <si>
     <t xml:space="preserve">5.03008651733398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00655126571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20980882644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29111194610596</t>
+    <t xml:space="preserve">5.00655031204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20980834960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29111099243164</t>
   </si>
   <si>
     <t xml:space="preserve">5.32320404052734</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">5.4558572769165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58423042297363</t>
+    <t xml:space="preserve">5.58422994613647</t>
   </si>
   <si>
     <t xml:space="preserve">5.54143857955933</t>
@@ -815,52 +815,52 @@
     <t xml:space="preserve">5.80888319015503</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84097528457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00786113739014</t>
+    <t xml:space="preserve">5.84097623825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00786161422729</t>
   </si>
   <si>
     <t xml:space="preserve">5.7126030921936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77678918838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65911388397217</t>
+    <t xml:space="preserve">5.77678871154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65911436080933</t>
   </si>
   <si>
     <t xml:space="preserve">5.66339302062988</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78748750686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79390573501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87306976318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99074411392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84525442123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88590717315674</t>
+    <t xml:space="preserve">5.78748655319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79390668869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87306928634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99074459075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84525489807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88590669631958</t>
   </si>
   <si>
     <t xml:space="preserve">5.90088367462158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88376712799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.937255859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.952232837677</t>
+    <t xml:space="preserve">5.88376665115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93725633621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95223331451416</t>
   </si>
   <si>
     <t xml:space="preserve">5.97790718078613</t>
@@ -875,19 +875,19 @@
     <t xml:space="preserve">6.03353643417358</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31167697906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15977001190186</t>
+    <t xml:space="preserve">6.3116774559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1597695350647</t>
   </si>
   <si>
     <t xml:space="preserve">6.4165153503418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42935276031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47428369522095</t>
+    <t xml:space="preserve">6.4293532371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47428417205811</t>
   </si>
   <si>
     <t xml:space="preserve">6.68609857559204</t>
@@ -896,73 +896,73 @@
     <t xml:space="preserve">6.78237962722778</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88935708999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94284582138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99419403076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19317293167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00703191757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09903287887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0968918800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98991537094116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1674976348877</t>
+    <t xml:space="preserve">6.88935613632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9428448677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99419450759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19317197799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00703239440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09903240203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09689235687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98991441726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16749858856201</t>
   </si>
   <si>
     <t xml:space="preserve">7.24880123138428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23596382141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15894031524658</t>
+    <t xml:space="preserve">7.23596334457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15893888473511</t>
   </si>
   <si>
     <t xml:space="preserve">7.17819595336914</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07121801376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35446834564209</t>
+    <t xml:space="preserve">7.07121849060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35446786880493</t>
   </si>
   <si>
     <t xml:space="preserve">6.11911773681641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36088705062866</t>
+    <t xml:space="preserve">6.3608865737915</t>
   </si>
   <si>
     <t xml:space="preserve">6.29028224945068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49781847000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38442230224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41009712219238</t>
+    <t xml:space="preserve">6.49781894683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38442277908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41009616851807</t>
   </si>
   <si>
     <t xml:space="preserve">6.4635853767395</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41154718399048</t>
+    <t xml:space="preserve">6.41154670715332</t>
   </si>
   <si>
     <t xml:space="preserve">6.44840717315674</t>
@@ -974,40 +974,40 @@
     <t xml:space="preserve">6.43539762496948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3421630859375</t>
+    <t xml:space="preserve">6.34216260910034</t>
   </si>
   <si>
     <t xml:space="preserve">6.4440712928772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79749822616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6457200050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70426273345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30530309677124</t>
+    <t xml:space="preserve">6.79749774932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64571952819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70426225662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30530261993408</t>
   </si>
   <si>
     <t xml:space="preserve">6.47009038925171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39203214645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30963850021362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37468671798706</t>
+    <t xml:space="preserve">6.39203262329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30963897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3746862411499</t>
   </si>
   <si>
     <t xml:space="preserve">6.24675941467285</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22507619857788</t>
+    <t xml:space="preserve">6.22507572174072</t>
   </si>
   <si>
     <t xml:space="preserve">6.32264852523804</t>
@@ -1016,46 +1016,46 @@
     <t xml:space="preserve">6.21857213973999</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22290849685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26410579681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05378437042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03643846511841</t>
+    <t xml:space="preserve">6.22290897369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26410531997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05378389358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03643751144409</t>
   </si>
   <si>
     <t xml:space="preserve">6.03210163116455</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85430383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8109393119812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80009698867798</t>
+    <t xml:space="preserve">5.85430431365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81093883514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80009841918945</t>
   </si>
   <si>
     <t xml:space="preserve">5.83478975296021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68517971038818</t>
+    <t xml:space="preserve">5.68517923355103</t>
   </si>
   <si>
     <t xml:space="preserve">5.85647249221802</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81744384765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83045244216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83912754058838</t>
+    <t xml:space="preserve">5.81744432449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83045339584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83912658691406</t>
   </si>
   <si>
     <t xml:space="preserve">5.73504972457886</t>
@@ -1064,22 +1064,22 @@
     <t xml:space="preserve">5.74589109420776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88465929031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59844970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41197919845581</t>
+    <t xml:space="preserve">5.88466024398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59844923019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41197824478149</t>
   </si>
   <si>
     <t xml:space="preserve">5.37511873245239</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63747835159302</t>
+    <t xml:space="preserve">5.51171922683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63747787475586</t>
   </si>
   <si>
     <t xml:space="preserve">5.66132879257202</t>
@@ -1088,37 +1088,37 @@
     <t xml:space="preserve">5.78925657272339</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61579561233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6222996711731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4943733215332</t>
+    <t xml:space="preserve">5.61579513549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62230014801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49437284469604</t>
   </si>
   <si>
     <t xml:space="preserve">5.46184921264648</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29272413253784</t>
+    <t xml:space="preserve">5.292724609375</t>
   </si>
   <si>
     <t xml:space="preserve">5.44883918762207</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34909963607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35560464859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3057336807251</t>
+    <t xml:space="preserve">5.34909915924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35560417175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30573463439941</t>
   </si>
   <si>
     <t xml:space="preserve">5.32524824142456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39680099487305</t>
+    <t xml:space="preserve">5.39680051803589</t>
   </si>
   <si>
     <t xml:space="preserve">5.46401786804199</t>
@@ -1130,28 +1130,28 @@
     <t xml:space="preserve">5.43149328231812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36427688598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31874418258667</t>
+    <t xml:space="preserve">5.36427736282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31874370574951</t>
   </si>
   <si>
     <t xml:space="preserve">5.3946328163147</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47268962860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63964605331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56592512130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70252561569214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76757431030273</t>
+    <t xml:space="preserve">5.47269058227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63964653015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56592559814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7025260925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76757383346558</t>
   </si>
   <si>
     <t xml:space="preserve">5.63097381591797</t>
@@ -1160,31 +1160,31 @@
     <t xml:space="preserve">5.98006296157837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86514520645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70469379425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53990602493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46835374832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42498874664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38379144668579</t>
+    <t xml:space="preserve">5.86514472961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7046947479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5399055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46835327148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42498779296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38379096984863</t>
   </si>
   <si>
     <t xml:space="preserve">5.39896965026855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26887321472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20599508285522</t>
+    <t xml:space="preserve">5.26887369155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20599460601807</t>
   </si>
   <si>
     <t xml:space="preserve">5.13877820968628</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">5.16262912750244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32091188430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30356550216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18647956848145</t>
+    <t xml:space="preserve">5.32091236114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30356597900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1864800453186</t>
   </si>
   <si>
     <t xml:space="preserve">5.13227319717407</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">5.05204772949219</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03036451339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11709499359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0780668258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04337453842163</t>
+    <t xml:space="preserve">5.03036499023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11709594726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07806634902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04337549209595</t>
   </si>
   <si>
     <t xml:space="preserve">5.04771137237549</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95013904571533</t>
+    <t xml:space="preserve">4.95013952255249</t>
   </si>
   <si>
     <t xml:space="preserve">4.91978406906128</t>
@@ -1238,19 +1238,19 @@
     <t xml:space="preserve">4.8720817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88509178161621</t>
+    <t xml:space="preserve">4.88509225845337</t>
   </si>
   <si>
     <t xml:space="preserve">4.96098041534424</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10408639907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18431186676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13444185256958</t>
+    <t xml:space="preserve">5.10408592224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18431091308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13444232940674</t>
   </si>
   <si>
     <t xml:space="preserve">5.15395593643188</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">5.02819681167603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94363498687744</t>
+    <t xml:space="preserve">4.94363403320312</t>
   </si>
   <si>
     <t xml:space="preserve">4.78751993179321</t>
@@ -1268,49 +1268,49 @@
     <t xml:space="preserve">4.6444149017334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62923622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57069396972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8460636138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12793684005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50738286972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71119928359985</t>
+    <t xml:space="preserve">4.62923669815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5706934928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84606313705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12793636322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5073823928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7111988067627</t>
   </si>
   <si>
     <t xml:space="preserve">5.74372291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66783332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80226564407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76323747634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67650651931763</t>
+    <t xml:space="preserve">5.66783380508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80226612091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76323699951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67650699615479</t>
   </si>
   <si>
     <t xml:space="preserve">5.71770334243774</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55508375167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54207468032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6006178855896</t>
+    <t xml:space="preserve">5.55508422851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54207420349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60061740875244</t>
   </si>
   <si>
     <t xml:space="preserve">5.487868309021</t>
@@ -1319,49 +1319,49 @@
     <t xml:space="preserve">5.91935157775879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08630895614624</t>
+    <t xml:space="preserve">6.08630847930908</t>
   </si>
   <si>
     <t xml:space="preserve">5.95838069915771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03426933288574</t>
+    <t xml:space="preserve">6.0342698097229</t>
   </si>
   <si>
     <t xml:space="preserve">6.01909208297729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9215202331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86080980300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93019342422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7090311050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77841472625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79792976379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72420787811279</t>
+    <t xml:space="preserve">5.92151975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86080837249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93019390106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70903062820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77841520309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79792881011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72420835494995</t>
   </si>
   <si>
     <t xml:space="preserve">5.64398336410522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55291557312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52039194107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53773784637451</t>
+    <t xml:space="preserve">5.55291604995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5203914642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53773832321167</t>
   </si>
   <si>
     <t xml:space="preserve">5.91501569747925</t>
@@ -1370,28 +1370,28 @@
     <t xml:space="preserve">5.75456428527832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62013149261475</t>
+    <t xml:space="preserve">5.6201319694519</t>
   </si>
   <si>
     <t xml:space="preserve">5.74155473709106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9280252456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94103479385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84996700286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84129476547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17954397201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17520666122437</t>
+    <t xml:space="preserve">5.92802476882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94103384017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84996747970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84129428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17954301834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17520713806152</t>
   </si>
   <si>
     <t xml:space="preserve">6.1144962310791</t>
@@ -1400,46 +1400,46 @@
     <t xml:space="preserve">6.40937852859497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26193714141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0624566078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99307203292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98440027236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45968055725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00608253479004</t>
+    <t xml:space="preserve">6.2619366645813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06245708465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99307298660278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98439979553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45968103408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0060830116272</t>
   </si>
   <si>
     <t xml:space="preserve">5.8196120262146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6938533782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57243013381958</t>
+    <t xml:space="preserve">5.69385290145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5724310874939</t>
   </si>
   <si>
     <t xml:space="preserve">5.58543968200684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33392143249512</t>
+    <t xml:space="preserve">5.33392190933228</t>
   </si>
   <si>
     <t xml:space="preserve">5.66349744796753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77190971374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87598705291748</t>
+    <t xml:space="preserve">5.77191019058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87598752975464</t>
   </si>
   <si>
     <t xml:space="preserve">5.85864114761353</t>
@@ -1451,13 +1451,13 @@
     <t xml:space="preserve">6.16219711303711</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24459075927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60885953903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56983041763306</t>
+    <t xml:space="preserve">6.2445912361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60885858535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5698299407959</t>
   </si>
   <si>
     <t xml:space="preserve">6.80833864212036</t>
@@ -1466,16 +1466,16 @@
     <t xml:space="preserve">6.78665637969971</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9818000793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85604095458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97746324539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75196361541748</t>
+    <t xml:space="preserve">6.98179960250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85604047775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97746276855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75196409225464</t>
   </si>
   <si>
     <t xml:space="preserve">6.83002138137817</t>
@@ -1493,61 +1493,61 @@
     <t xml:space="preserve">6.99047327041626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93843460083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36341285705566</t>
+    <t xml:space="preserve">6.93843412399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36341333389282</t>
   </si>
   <si>
     <t xml:space="preserve">7.1986255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05985736846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3113751411438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15526056289673</t>
+    <t xml:space="preserve">7.05985689163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31137561798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15526151657104</t>
   </si>
   <si>
     <t xml:space="preserve">7.13357830047607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99914598464966</t>
+    <t xml:space="preserve">6.9991455078125</t>
   </si>
   <si>
     <t xml:space="preserve">6.94277143478394</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12490510940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09021377563477</t>
+    <t xml:space="preserve">7.12490558624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09021282196045</t>
   </si>
   <si>
     <t xml:space="preserve">7.06852960586548</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09454965591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33305740356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48917245864868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43279838562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40677928924561</t>
+    <t xml:space="preserve">7.09454917907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33305788040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48917198181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43279695510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40677976608276</t>
   </si>
   <si>
     <t xml:space="preserve">7.27234745025635</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42412567138672</t>
+    <t xml:space="preserve">7.4241247177124</t>
   </si>
   <si>
     <t xml:space="preserve">7.29836559295654</t>
@@ -1556,19 +1556,19 @@
     <t xml:space="preserve">7.25933742523193</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94710826873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51345539093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72160911560059</t>
+    <t xml:space="preserve">6.94710779190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51345586776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72160816192627</t>
   </si>
   <si>
     <t xml:space="preserve">6.52212858200073</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40504264831543</t>
+    <t xml:space="preserve">6.40504312515259</t>
   </si>
   <si>
     <t xml:space="preserve">6.50478219985962</t>
@@ -1580,19 +1580,19 @@
     <t xml:space="preserve">6.59584951400757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27184057235718</t>
+    <t xml:space="preserve">6.27184104919434</t>
   </si>
   <si>
     <t xml:space="preserve">6.19712448120117</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48280715942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54873323440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48720216751099</t>
+    <t xml:space="preserve">6.48280668258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54873371124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48720169067383</t>
   </si>
   <si>
     <t xml:space="preserve">6.51796770095825</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">6.43446063995361</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54433917999268</t>
+    <t xml:space="preserve">6.54433870315552</t>
   </si>
   <si>
     <t xml:space="preserve">6.46522617340088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37292909622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59708023071289</t>
+    <t xml:space="preserve">6.37292861938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59707975387573</t>
   </si>
   <si>
     <t xml:space="preserve">6.63663625717163</t>
@@ -1622,25 +1622,25 @@
     <t xml:space="preserve">6.50038766860962</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38171863555908</t>
+    <t xml:space="preserve">6.38171911239624</t>
   </si>
   <si>
     <t xml:space="preserve">6.36853361129761</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33776760101318</t>
+    <t xml:space="preserve">6.33776712417603</t>
   </si>
   <si>
     <t xml:space="preserve">6.30700206756592</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21030950546265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11801195144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11361646652222</t>
+    <t xml:space="preserve">6.21030855178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11801147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11361694335938</t>
   </si>
   <si>
     <t xml:space="preserve">6.01692342758179</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">6.03450393676758</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07405948638916</t>
+    <t xml:space="preserve">6.07406044006348</t>
   </si>
   <si>
     <t xml:space="preserve">6.09603548049927</t>
@@ -1661,13 +1661,13 @@
     <t xml:space="preserve">6.2366795539856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13998699188232</t>
+    <t xml:space="preserve">6.13998746871948</t>
   </si>
   <si>
     <t xml:space="preserve">6.17954349517822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1048264503479</t>
+    <t xml:space="preserve">6.10482597351074</t>
   </si>
   <si>
     <t xml:space="preserve">6.22788953781128</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">6.37732362747192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41688060760498</t>
+    <t xml:space="preserve">6.41688013076782</t>
   </si>
   <si>
     <t xml:space="preserve">6.32897710800171</t>
@@ -1688,40 +1688,40 @@
     <t xml:space="preserve">6.33337259292603</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28063106536865</t>
+    <t xml:space="preserve">6.28063154220581</t>
   </si>
   <si>
     <t xml:space="preserve">6.28942155838013</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26305103302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31579208374023</t>
+    <t xml:space="preserve">6.26305055618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31579256057739</t>
   </si>
   <si>
     <t xml:space="preserve">6.32018709182739</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39050960540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21909952163696</t>
+    <t xml:space="preserve">6.39050912857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2190990447998</t>
   </si>
   <si>
     <t xml:space="preserve">6.13119697570801</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08285045623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17075300216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35095262527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52675867080688</t>
+    <t xml:space="preserve">6.08285093307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17075347900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35095310211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52675819396973</t>
   </si>
   <si>
     <t xml:space="preserve">5.994948387146</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">6.07845544815063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88067483901978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37963056564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2433819770813</t>
+    <t xml:space="preserve">5.88067531585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37963008880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24338245391846</t>
   </si>
   <si>
     <t xml:space="preserve">5.15108394622803</t>
@@ -1748,22 +1748,22 @@
     <t xml:space="preserve">4.99285984039307</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88737678527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04120588302612</t>
+    <t xml:space="preserve">4.88737726211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04120635986328</t>
   </si>
   <si>
     <t xml:space="preserve">4.93132829666138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98846483230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96648979187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90056228637695</t>
+    <t xml:space="preserve">4.98846530914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9664888381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90056276321411</t>
   </si>
   <si>
     <t xml:space="preserve">4.84342622756958</t>
@@ -1775,82 +1775,82 @@
     <t xml:space="preserve">4.50939655303955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53576707839966</t>
+    <t xml:space="preserve">4.53576755523682</t>
   </si>
   <si>
     <t xml:space="preserve">4.66762113571167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63246011734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29623317718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05669832229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13581132888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04351282119751</t>
+    <t xml:space="preserve">4.63245964050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2962327003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0566987991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13581085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04351329803467</t>
   </si>
   <si>
     <t xml:space="preserve">3.97099351882935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98417949676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88968443870544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01274681091309</t>
+    <t xml:space="preserve">3.98417973518372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88968396186829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0127477645874</t>
   </si>
   <si>
     <t xml:space="preserve">4.08306932449341</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0588960647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94901823997498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80178093910217</t>
+    <t xml:space="preserve">4.05889654159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94901847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80178165435791</t>
   </si>
   <si>
     <t xml:space="preserve">3.64135932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69190311431885</t>
+    <t xml:space="preserve">3.69190335273743</t>
   </si>
   <si>
     <t xml:space="preserve">3.75123739242554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66992855072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77101564407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980637550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8962767124176</t>
+    <t xml:space="preserve">3.66992807388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77101588249207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980589866638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89627718925476</t>
   </si>
   <si>
     <t xml:space="preserve">4.08526706695557</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93363547325134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85672044754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86331367492676</t>
+    <t xml:space="preserve">3.93363523483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85672092437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8633131980896</t>
   </si>
   <si>
     <t xml:space="preserve">3.87430119514465</t>
@@ -1859,43 +1859,43 @@
     <t xml:space="preserve">3.80617666244507</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79518866539001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77760791778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39523267745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30073738098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18646454811096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97989392280579</t>
+    <t xml:space="preserve">3.79518842697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77760863304138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3952329158783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30073761940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18646430969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97989368438721</t>
   </si>
   <si>
     <t xml:space="preserve">2.98868370056152</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1073522567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32491064071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32930588722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21283483505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17108154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39303469657898</t>
+    <t xml:space="preserve">3.10735201835632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32491087913513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32930564880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21283531188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17108130455017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39303517341614</t>
   </si>
   <si>
     <t xml:space="preserve">3.33589863777161</t>
@@ -1907,37 +1907,37 @@
     <t xml:space="preserve">3.45456695556641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26118111610413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19085931777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05680823326111</t>
+    <t xml:space="preserve">3.26118135452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19085955619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05680847167969</t>
   </si>
   <si>
     <t xml:space="preserve">2.87660813331604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8810031414032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95791792869568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05021572113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98648643493652</t>
+    <t xml:space="preserve">2.88100290298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95791816711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05021524429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98648619651794</t>
   </si>
   <si>
     <t xml:space="preserve">2.90517640113831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83485436439514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87441062927246</t>
+    <t xml:space="preserve">2.83485412597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87441039085388</t>
   </si>
   <si>
     <t xml:space="preserve">2.72937154769897</t>
@@ -1946,19 +1946,19 @@
     <t xml:space="preserve">2.70080327987671</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74035906791687</t>
+    <t xml:space="preserve">2.74035978317261</t>
   </si>
   <si>
     <t xml:space="preserve">2.78431081771851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83924961090088</t>
+    <t xml:space="preserve">2.83924984931946</t>
   </si>
   <si>
     <t xml:space="preserve">3.01944971084595</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05241322517395</t>
+    <t xml:space="preserve">3.05241298675537</t>
   </si>
   <si>
     <t xml:space="preserve">3.11394476890564</t>
@@ -1967,22 +1967,22 @@
     <t xml:space="preserve">3.17327880859375</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10515475273132</t>
+    <t xml:space="preserve">3.10515427589417</t>
   </si>
   <si>
     <t xml:space="preserve">3.16668629646301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17987179756165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13152551651001</t>
+    <t xml:space="preserve">3.17987155914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13152527809143</t>
   </si>
   <si>
     <t xml:space="preserve">3.13811802864075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26337933540344</t>
+    <t xml:space="preserve">3.26337909698486</t>
   </si>
   <si>
     <t xml:space="preserve">3.48093771934509</t>
@@ -1991,37 +1991,37 @@
     <t xml:space="preserve">3.41940593719482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4721474647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43478870391846</t>
+    <t xml:space="preserve">3.47214722633362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43478894233704</t>
   </si>
   <si>
     <t xml:space="preserve">3.54906177520752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60180330276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51390099525452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45017147064209</t>
+    <t xml:space="preserve">3.60180306434631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51390075683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45017170906067</t>
   </si>
   <si>
     <t xml:space="preserve">3.46115946769714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52049374580383</t>
+    <t xml:space="preserve">3.52049398422241</t>
   </si>
   <si>
     <t xml:space="preserve">3.37765216827393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46335697174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52269148826599</t>
+    <t xml:space="preserve">3.4633572101593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52269124984741</t>
   </si>
   <si>
     <t xml:space="preserve">3.63037157058716</t>
@@ -2033,28 +2033,28 @@
     <t xml:space="preserve">3.55125951766968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63916230201721</t>
+    <t xml:space="preserve">3.63916182518005</t>
   </si>
   <si>
     <t xml:space="preserve">3.73805260658264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82815194129944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70728635787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76662063598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79079413414001</t>
+    <t xml:space="preserve">3.82815289497375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70728659629822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76662015914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7907931804657</t>
   </si>
   <si>
     <t xml:space="preserve">3.87210369110107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92264747619629</t>
+    <t xml:space="preserve">3.92264723777771</t>
   </si>
   <si>
     <t xml:space="preserve">3.99956202507019</t>
@@ -2063,52 +2063,52 @@
     <t xml:space="preserve">4.06109380722046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02153825759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17756414413452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11603260040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88089394569397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93583297729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95780825614929</t>
+    <t xml:space="preserve">4.02153730392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17756462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11603307723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88089346885681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93583226203918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95780873298645</t>
   </si>
   <si>
     <t xml:space="preserve">3.90946197509766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15778636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20833015441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30722045898438</t>
+    <t xml:space="preserve">4.15778684616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2083306312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30722093582153</t>
   </si>
   <si>
     <t xml:space="preserve">4.35117197036743</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27865219116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09405708312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13141584396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20393514633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12921810150146</t>
+    <t xml:space="preserve">4.27865171432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09405755996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13141536712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20393562316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12921905517578</t>
   </si>
   <si>
     <t xml:space="preserve">4.16437911987305</t>
@@ -2129,151 +2129,151 @@
     <t xml:space="preserve">4.12702083587646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00395774841309</t>
+    <t xml:space="preserve">4.00395679473877</t>
   </si>
   <si>
     <t xml:space="preserve">4.08087158203125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11383533477783</t>
+    <t xml:space="preserve">4.11383485794067</t>
   </si>
   <si>
     <t xml:space="preserve">4.19514465332031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90286946296692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86551094055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83254742622375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92704272270203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96879601478577</t>
+    <t xml:space="preserve">3.9028697013855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86551070213318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83254766464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92704319953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96879553794861</t>
   </si>
   <si>
     <t xml:space="preserve">3.96659851074219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94682025909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85012793540955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81057214736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70289134979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70948386192322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58861804008484</t>
+    <t xml:space="preserve">3.94682049751282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85012745857239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81057262420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7028911113739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70948433876038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58861780166626</t>
   </si>
   <si>
     <t xml:space="preserve">3.78420114517212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02813053131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75782990455627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88834261894226</t>
+    <t xml:space="preserve">4.02813005447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75783014297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88834190368652</t>
   </si>
   <si>
     <t xml:space="preserve">3.8140857219696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69707489013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68132400512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69932556152344</t>
+    <t xml:space="preserve">3.6970751285553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68132376670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69932532310486</t>
   </si>
   <si>
     <t xml:space="preserve">3.62506890296936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60931754112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66782236099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77583265304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80508422851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85683941841125</t>
+    <t xml:space="preserve">3.60931777954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66782212257385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7758321762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8050844669342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85683870315552</t>
   </si>
   <si>
     <t xml:space="preserve">3.89734268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82983708381653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.881591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80733489990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83883762359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91534447669983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97159934043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12461280822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08185863494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0211033821106</t>
+    <t xml:space="preserve">3.82983684539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88159132003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80733513832092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83883714675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91534423828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97159910202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12461233139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08185911178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02110385894775</t>
   </si>
   <si>
     <t xml:space="preserve">4.04135513305664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.030104637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07285833358765</t>
+    <t xml:space="preserve">4.03010416030884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07285785675049</t>
   </si>
   <si>
     <t xml:space="preserve">4.1156120300293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20337009429932</t>
+    <t xml:space="preserve">4.20336961746216</t>
   </si>
   <si>
     <t xml:space="preserve">4.21012020111084</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23937225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33163118362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22812175750732</t>
+    <t xml:space="preserve">4.23937273025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33163166046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22812223434448</t>
   </si>
   <si>
     <t xml:space="preserve">4.27537631988525</t>
@@ -2282,31 +2282,31 @@
     <t xml:space="preserve">4.17186689376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25737476348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16511631011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14936447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12236166000366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17411708831787</t>
+    <t xml:space="preserve">4.25737524032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16511583328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14936494827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12236213684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411661148071</t>
   </si>
   <si>
     <t xml:space="preserve">4.10211086273193</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98960089683533</t>
+    <t xml:space="preserve">3.98960065841675</t>
   </si>
   <si>
     <t xml:space="preserve">4.02785396575928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07960891723633</t>
+    <t xml:space="preserve">4.07960844039917</t>
   </si>
   <si>
     <t xml:space="preserve">4.09085988998413</t>
@@ -2318,10 +2318,10 @@
     <t xml:space="preserve">4.0526065826416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00535154342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93784642219543</t>
+    <t xml:space="preserve">4.00535202026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93784666061401</t>
   </si>
   <si>
     <t xml:space="preserve">3.98510026931763</t>
@@ -2330,13 +2330,13 @@
     <t xml:space="preserve">3.90184354782104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87709069252014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78033185005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81858563423157</t>
+    <t xml:space="preserve">3.87709093093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78033208847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81858587265015</t>
   </si>
   <si>
     <t xml:space="preserve">3.80958485603333</t>
@@ -2351,10 +2351,10 @@
     <t xml:space="preserve">3.93109560012817</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91309404373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05935716629028</t>
+    <t xml:space="preserve">3.91309356689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05935668945312</t>
   </si>
   <si>
     <t xml:space="preserve">4.0436053276062</t>
@@ -2363,82 +2363,82 @@
     <t xml:space="preserve">4.09536027908325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97384977340698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98285031318665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11336231231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06385707855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99185037612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26862573623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26187467575073</t>
+    <t xml:space="preserve">3.97384929656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98285007476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11336135864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06385660171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99185132980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26862525939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26187562942505</t>
   </si>
   <si>
     <t xml:space="preserve">4.24387359619141</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52289772033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91443204879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08544778823853</t>
+    <t xml:space="preserve">4.52289724349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91443252563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08544731140137</t>
   </si>
   <si>
     <t xml:space="preserve">5.23846054077148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26546287536621</t>
+    <t xml:space="preserve">5.26546335220337</t>
   </si>
   <si>
     <t xml:space="preserve">5.53098678588867</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3914737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29696655273438</t>
+    <t xml:space="preserve">5.39147329330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29696559906006</t>
   </si>
   <si>
     <t xml:space="preserve">5.51298475265503</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60749292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45898056030273</t>
+    <t xml:space="preserve">5.60749340057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45898008346558</t>
   </si>
   <si>
     <t xml:space="preserve">5.35997152328491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3869743347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17545461654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18445682525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26996326446533</t>
+    <t xml:space="preserve">5.38697338104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17545557022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18445587158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26996374130249</t>
   </si>
   <si>
     <t xml:space="preserve">5.35547065734863</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25196170806885</t>
+    <t xml:space="preserve">5.25196218490601</t>
   </si>
   <si>
     <t xml:space="preserve">5.37797260284424</t>
@@ -2447,13 +2447,13 @@
     <t xml:space="preserve">5.36447191238403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4634804725647</t>
+    <t xml:space="preserve">5.46347999572754</t>
   </si>
   <si>
     <t xml:space="preserve">5.59849214553833</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62999486923218</t>
+    <t xml:space="preserve">5.62999534606934</t>
   </si>
   <si>
     <t xml:space="preserve">5.82351160049438</t>
@@ -2462,22 +2462,22 @@
     <t xml:space="preserve">5.6434965133667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67949867248535</t>
+    <t xml:space="preserve">5.67949962615967</t>
   </si>
   <si>
     <t xml:space="preserve">5.62549495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58049058914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61649370193481</t>
+    <t xml:space="preserve">5.580491065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61649322509766</t>
   </si>
   <si>
     <t xml:space="preserve">5.70650196075439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61199331283569</t>
+    <t xml:space="preserve">5.61199378967285</t>
   </si>
   <si>
     <t xml:space="preserve">5.72000312805176</t>
@@ -2489,28 +2489,28 @@
     <t xml:space="preserve">5.94502305984497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01702928543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11603832244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98102617263794</t>
+    <t xml:space="preserve">6.01702833175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11603784561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98102569580078</t>
   </si>
   <si>
     <t xml:space="preserve">5.89101791381836</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91802024841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13403987884521</t>
+    <t xml:space="preserve">5.91802072525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13403940200806</t>
   </si>
   <si>
     <t xml:space="preserve">6.59758043289185</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98011350631714</t>
+    <t xml:space="preserve">6.9801139831543</t>
   </si>
   <si>
     <t xml:space="preserve">7.07462215423584</t>
@@ -2522,16 +2522,16 @@
     <t xml:space="preserve">7.47965860366821</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48415803909302</t>
+    <t xml:space="preserve">7.48415851593018</t>
   </si>
   <si>
     <t xml:space="preserve">7.57866668701172</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70017671585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53816223144531</t>
+    <t xml:space="preserve">7.70017719268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53816366195679</t>
   </si>
   <si>
     <t xml:space="preserve">7.49315881729126</t>
@@ -2540,13 +2540,13 @@
     <t xml:space="preserve">7.04311943054199</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15562915802002</t>
+    <t xml:space="preserve">7.15562868118286</t>
   </si>
   <si>
     <t xml:space="preserve">7.29064083099365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22763586044312</t>
+    <t xml:space="preserve">7.22763538360596</t>
   </si>
   <si>
     <t xml:space="preserve">7.16462993621826</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">7.15112924575806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9936146736145</t>
+    <t xml:space="preserve">6.99361515045166</t>
   </si>
   <si>
     <t xml:space="preserve">7.02961826324463</t>
@@ -2573,19 +2573,19 @@
     <t xml:space="preserve">7.44365501403809</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78118467330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72267866134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54266405105591</t>
+    <t xml:space="preserve">7.78118515014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72268009185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54266357421875</t>
   </si>
   <si>
     <t xml:space="preserve">7.43465375900269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53366184234619</t>
+    <t xml:space="preserve">7.53366279602051</t>
   </si>
   <si>
     <t xml:space="preserve">7.2366361618042</t>
@@ -2597,28 +2597,28 @@
     <t xml:space="preserve">6.99811601638794</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28614091873169</t>
+    <t xml:space="preserve">7.28614044189453</t>
   </si>
   <si>
     <t xml:space="preserve">7.13312768936157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17813158035278</t>
+    <t xml:space="preserve">7.17813110351562</t>
   </si>
   <si>
     <t xml:space="preserve">7.09712409973145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39865112304688</t>
+    <t xml:space="preserve">7.39865064620972</t>
   </si>
   <si>
     <t xml:space="preserve">7.30864286422729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35814809799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38964986801147</t>
+    <t xml:space="preserve">7.35814762115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38965034484863</t>
   </si>
   <si>
     <t xml:space="preserve">7.19163227081299</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">7.05212020874023</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9081072807312</t>
+    <t xml:space="preserve">6.90810775756836</t>
   </si>
   <si>
     <t xml:space="preserve">6.39956283569336</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40406274795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62458324432373</t>
+    <t xml:space="preserve">6.40406322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62458229064941</t>
   </si>
   <si>
     <t xml:space="preserve">6.67858695983887</t>
@@ -2648,13 +2648,13 @@
     <t xml:space="preserve">6.65158462524414</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50307130813599</t>
+    <t xml:space="preserve">6.50307178497314</t>
   </si>
   <si>
     <t xml:space="preserve">6.90360736846924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77309608459473</t>
+    <t xml:space="preserve">6.77309560775757</t>
   </si>
   <si>
     <t xml:space="preserve">6.77759599685669</t>
@@ -2663,19 +2663,19 @@
     <t xml:space="preserve">6.71008968353271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68308782577515</t>
+    <t xml:space="preserve">6.68308734893799</t>
   </si>
   <si>
     <t xml:space="preserve">6.56157684326172</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71459102630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64708423614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52107334136963</t>
+    <t xml:space="preserve">6.71459054946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64708471298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52107286453247</t>
   </si>
   <si>
     <t xml:space="preserve">6.01252841949463</t>
@@ -2684,10 +2684,10 @@
     <t xml:space="preserve">5.86401557922363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68850088119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53998708724976</t>
+    <t xml:space="preserve">5.68850040435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53998756408691</t>
   </si>
   <si>
     <t xml:space="preserve">5.67049932479858</t>
@@ -2696,28 +2696,28 @@
     <t xml:space="preserve">5.62099409103394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38247299194336</t>
+    <t xml:space="preserve">5.38247346878052</t>
   </si>
   <si>
     <t xml:space="preserve">5.02694225311279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67141103744507</t>
+    <t xml:space="preserve">4.67141056060791</t>
   </si>
   <si>
     <t xml:space="preserve">4.51839685440063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55890130996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1381139755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74882960319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60031676292419</t>
+    <t xml:space="preserve">4.55890083312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13811349868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74882984161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60031652450562</t>
   </si>
   <si>
     <t xml:space="preserve">3.26278710365295</t>
@@ -2729,7 +2729,7 @@
     <t xml:space="preserve">3.12777495384216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17052912712097</t>
+    <t xml:space="preserve">3.17052865028381</t>
   </si>
   <si>
     <t xml:space="preserve">3.38429760932922</t>
@@ -2738,16 +2738,16 @@
     <t xml:space="preserve">3.92434501647949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79608392715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55081248283386</t>
+    <t xml:space="preserve">3.79608416557312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55081224441528</t>
   </si>
   <si>
     <t xml:space="preserve">3.44280290603638</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60706734657288</t>
+    <t xml:space="preserve">3.6070671081543</t>
   </si>
   <si>
     <t xml:space="preserve">3.5553126335144</t>
@@ -2759,43 +2759,43 @@
     <t xml:space="preserve">3.55981278419495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73082780838013</t>
+    <t xml:space="preserve">3.73082828521729</t>
   </si>
   <si>
     <t xml:space="preserve">3.67682313919067</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99635124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9603488445282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30687856674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04585599899292</t>
+    <t xml:space="preserve">3.99635171890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96034812927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3068790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04585552215576</t>
   </si>
   <si>
     <t xml:space="preserve">3.94234657287598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09986066818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02335357666016</t>
+    <t xml:space="preserve">4.09986019134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.023353099823</t>
   </si>
   <si>
     <t xml:space="preserve">4.41038799285889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37888479232788</t>
+    <t xml:space="preserve">4.37888526916504</t>
   </si>
   <si>
     <t xml:space="preserve">4.28437662124634</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19436836242676</t>
+    <t xml:space="preserve">4.19436883926392</t>
   </si>
   <si>
     <t xml:space="preserve">4.18986845016479</t>
@@ -2807,13 +2807,13 @@
     <t xml:space="preserve">4.27987670898438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23487281799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23037242889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10436105728149</t>
+    <t xml:space="preserve">4.23487234115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23037195205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10436058044434</t>
   </si>
   <si>
     <t xml:space="preserve">4.59040355682373</t>
@@ -2822,19 +2822,19 @@
     <t xml:space="preserve">4.44639110565186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40588712692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31137895584106</t>
+    <t xml:space="preserve">4.40588760375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31137943267822</t>
   </si>
   <si>
     <t xml:space="preserve">4.34738254547119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66916084289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87167835235596</t>
+    <t xml:space="preserve">4.66916036605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87167882919312</t>
   </si>
   <si>
     <t xml:space="preserve">4.81542348861694</t>
@@ -2855,25 +2855,25 @@
     <t xml:space="preserve">5.3892240524292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25421190261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07419633865356</t>
+    <t xml:space="preserve">5.25421237945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07419586181641</t>
   </si>
   <si>
     <t xml:space="preserve">4.84917640686035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93918466567993</t>
+    <t xml:space="preserve">4.93918514251709</t>
   </si>
   <si>
     <t xml:space="preserve">5.10794925689697</t>
   </si>
   <si>
-    <t xml:space="preserve">5.220458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16420412063599</t>
+    <t xml:space="preserve">5.22045946121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16420459747314</t>
   </si>
   <si>
     <t xml:space="preserve">5.29921579360962</t>
@@ -2882,52 +2882,52 @@
     <t xml:space="preserve">5.11920022964478</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0629448890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0516939163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18670606613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15295267105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00669050216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83792591094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92793321609497</t>
+    <t xml:space="preserve">5.06294536590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05169439315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18670558929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15295314788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00669002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83792543411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92793369293213</t>
   </si>
   <si>
     <t xml:space="preserve">5.02919292449951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97293710708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13045120239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98418807983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01794147491455</t>
+    <t xml:space="preserve">4.97293758392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13045072555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98418855667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01794099807739</t>
   </si>
   <si>
     <t xml:space="preserve">5.04044342041016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2317099571228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24296092987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95043563842773</t>
+    <t xml:space="preserve">5.23170948028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24296045303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95043516159058</t>
   </si>
   <si>
     <t xml:space="preserve">4.99543952941895</t>
@@ -2939,25 +2939,25 @@
     <t xml:space="preserve">4.86042785644531</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89418029785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75916862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8266749382019</t>
+    <t xml:space="preserve">4.89418077468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75916814804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82667446136475</t>
   </si>
   <si>
     <t xml:space="preserve">4.90543127059937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91668272018433</t>
+    <t xml:space="preserve">4.91668319702148</t>
   </si>
   <si>
     <t xml:space="preserve">4.50039577484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11786270141602</t>
+    <t xml:space="preserve">4.11786127090454</t>
   </si>
   <si>
     <t xml:space="preserve">4.14036417007446</t>
@@ -2966,52 +2966,52 @@
     <t xml:space="preserve">4.00985240936279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22587156295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2663745880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53414821624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44547939300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52423572540283</t>
+    <t xml:space="preserve">4.22587203979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26637506484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53414869308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44547891616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52423620223999</t>
   </si>
   <si>
     <t xml:space="preserve">5.65924787521362</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63674545288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59174156188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54673767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56924057006836</t>
+    <t xml:space="preserve">5.63674592971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59174203872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5467381477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56923961639404</t>
   </si>
   <si>
     <t xml:space="preserve">5.79425954818726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60299301147461</t>
+    <t xml:space="preserve">5.60299253463745</t>
   </si>
   <si>
     <t xml:space="preserve">5.71550273895264</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04178142547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86176490783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85051488876343</t>
+    <t xml:space="preserve">6.04178094863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86176538467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85051441192627</t>
   </si>
   <si>
     <t xml:space="preserve">5.77175760269165</t>
@@ -3020,31 +3020,31 @@
     <t xml:space="preserve">5.81676149368286</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98552656173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08678531646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01927900314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05303239822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07553386688232</t>
+    <t xml:space="preserve">5.9855260848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08678483963013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01927947998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05303192138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07553339004517</t>
   </si>
   <si>
     <t xml:space="preserve">5.9742751121521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03053045272827</t>
+    <t xml:space="preserve">6.03052997589111</t>
   </si>
   <si>
     <t xml:space="preserve">6.10928726196289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24429893493652</t>
+    <t xml:space="preserve">6.24429941177368</t>
   </si>
   <si>
     <t xml:space="preserve">6.21054601669312</t>
@@ -3056,13 +3056,13 @@
     <t xml:space="preserve">6.36806011199951</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41306447982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42431449890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44681692123413</t>
+    <t xml:space="preserve">6.41306400299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42431497573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44681644439697</t>
   </si>
   <si>
     <t xml:space="preserve">6.49182081222534</t>
@@ -3074,13 +3074,13 @@
     <t xml:space="preserve">6.51432323455811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3005542755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23304796218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35680961608887</t>
+    <t xml:space="preserve">6.30055379867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23304843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35680913925171</t>
   </si>
   <si>
     <t xml:space="preserve">6.18804407119751</t>
@@ -3098,7 +3098,7 @@
     <t xml:space="preserve">6.54807567596436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40181350708008</t>
+    <t xml:space="preserve">6.40181303024292</t>
   </si>
   <si>
     <t xml:space="preserve">6.67183637619019</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">6.63808393478394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57057809829712</t>
+    <t xml:space="preserve">6.57057762145996</t>
   </si>
   <si>
     <t xml:space="preserve">6.59307956695557</t>
@@ -3116,16 +3116,16 @@
     <t xml:space="preserve">6.66058540344238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58182859420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28930377960205</t>
+    <t xml:space="preserve">6.58182907104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28930330276489</t>
   </si>
   <si>
     <t xml:space="preserve">6.26680135726929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22179651260376</t>
+    <t xml:space="preserve">6.22179698944092</t>
   </si>
   <si>
     <t xml:space="preserve">6.27805233001709</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">6.43556594848633</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7505931854248</t>
+    <t xml:space="preserve">6.75059366226196</t>
   </si>
   <si>
     <t xml:space="preserve">7.65067291259766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63942241668701</t>
+    <t xml:space="preserve">7.63942289352417</t>
   </si>
   <si>
     <t xml:space="preserve">8.10071277618408</t>
@@ -3149,43 +3149,43 @@
     <t xml:space="preserve">8.03320598602295</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87569284439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85319089889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9206976890564</t>
+    <t xml:space="preserve">7.87569332122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85319137573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92069625854492</t>
   </si>
   <si>
     <t xml:space="preserve">7.88694334030151</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9882025718689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96570062637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89819383621216</t>
+    <t xml:space="preserve">7.98820209503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96570014953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89819431304932</t>
   </si>
   <si>
     <t xml:space="preserve">7.86444234848022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79693603515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94319868087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16821765899658</t>
+    <t xml:space="preserve">7.79693555831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94319820404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1682186126709</t>
   </si>
   <si>
     <t xml:space="preserve">8.15696716308594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14571666717529</t>
+    <t xml:space="preserve">8.14571571350098</t>
   </si>
   <si>
     <t xml:space="preserve">8.1907205581665</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">8.13446617126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01070308685303</t>
+    <t xml:space="preserve">8.01070404052734</t>
   </si>
   <si>
     <t xml:space="preserve">7.97695112228394</t>
@@ -3203,55 +3203,55 @@
     <t xml:space="preserve">8.04445743560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20197200775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08946132659912</t>
+    <t xml:space="preserve">8.20197105407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08946228027344</t>
   </si>
   <si>
     <t xml:space="preserve">8.0219554901123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93194818496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0669584274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80818748474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81943798065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70692825317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78568363189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68442535400391</t>
+    <t xml:space="preserve">7.93194723129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06695938110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80818653106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8194375038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70692682266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78568458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68442583084106</t>
   </si>
   <si>
     <t xml:space="preserve">7.72942972183228</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23572540283203</t>
+    <t xml:space="preserve">8.23572254180908</t>
   </si>
   <si>
     <t xml:space="preserve">9.00079154968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84327793121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04579544067383</t>
+    <t xml:space="preserve">8.8432788848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04579448699951</t>
   </si>
   <si>
     <t xml:space="preserve">9.31581974029541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48622989654541</t>
+    <t xml:space="preserve">9.48623180389404</t>
   </si>
   <si>
     <t xml:space="preserve">9.44078731536865</t>
@@ -3266,10 +3266,10 @@
     <t xml:space="preserve">10.303337097168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5160217285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5278377532959</t>
+    <t xml:space="preserve">10.5160207748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5278367996216</t>
   </si>
   <si>
     <t xml:space="preserve">10.5514688491821</t>
@@ -3284,7 +3284,7 @@
     <t xml:space="preserve">10.7759675979614</t>
   </si>
   <si>
-    <t xml:space="preserve">10.728705406189</t>
+    <t xml:space="preserve">10.7287044525146</t>
   </si>
   <si>
     <t xml:space="preserve">10.5632848739624</t>
@@ -3296,10 +3296,10 @@
     <t xml:space="preserve">10.6341791152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5987310409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9768362045288</t>
+    <t xml:space="preserve">10.5987319946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9768352508545</t>
   </si>
   <si>
     <t xml:space="preserve">10.7050733566284</t>
@@ -3314,19 +3314,19 @@
     <t xml:space="preserve">10.4923896789551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6223640441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797069549561</t>
+    <t xml:space="preserve">10.6223630905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797060012817</t>
   </si>
   <si>
     <t xml:space="preserve">10.1733636856079</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2442598342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3742332458496</t>
+    <t xml:space="preserve">10.2442588806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3742322921753</t>
   </si>
   <si>
     <t xml:space="preserve">10.291522026062</t>
@@ -3335,22 +3335,22 @@
     <t xml:space="preserve">10.3151540756226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3387861251831</t>
+    <t xml:space="preserve">10.3387851715088</t>
   </si>
   <si>
     <t xml:space="preserve">10.4805736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4451274871826</t>
+    <t xml:space="preserve">10.4451265335083</t>
   </si>
   <si>
     <t xml:space="preserve">10.7168893814087</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4096794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2560758590698</t>
+    <t xml:space="preserve">10.4096784591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2560749053955</t>
   </si>
   <si>
     <t xml:space="preserve">10.6459941864014</t>
@@ -3359,16 +3359,16 @@
     <t xml:space="preserve">10.3978633880615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.362416267395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.437650680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7590389251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1673908233643</t>
+    <t xml:space="preserve">10.3624172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4376497268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7590379714966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1673917770386</t>
   </si>
   <si>
     <t xml:space="preserve">12.163610458374</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968492507935</t>
+    <t xml:space="preserve">11.7968482971191</t>
   </si>
   <si>
     <t xml:space="preserve">11.6815271377563</t>
@@ -3389,16 +3389,16 @@
     <t xml:space="preserve">11.834659576416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7023220062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.607795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5699872970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9102802276611</t>
+    <t xml:space="preserve">11.7023239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6077966690063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5699863433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9102811813354</t>
   </si>
   <si>
     <t xml:space="preserve">11.6456069946289</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">12.3640050888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1182374954224</t>
+    <t xml:space="preserve">12.118236541748</t>
   </si>
   <si>
     <t xml:space="preserve">12.3261947631836</t>
@@ -3425,10 +3425,10 @@
     <t xml:space="preserve">12.5719633102417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1560478210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2147388458252</t>
+    <t xml:space="preserve">12.1560468673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2147397994995</t>
   </si>
   <si>
     <t xml:space="preserve">13.9142322540283</t>
@@ -3437,13 +3437,13 @@
     <t xml:space="preserve">14.1599998474121</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0087575912476</t>
+    <t xml:space="preserve">14.0087585449219</t>
   </si>
   <si>
     <t xml:space="preserve">13.4416027069092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.800802230835</t>
+    <t xml:space="preserve">13.8008012771606</t>
   </si>
   <si>
     <t xml:space="preserve">14.1221885681152</t>
@@ -3452,16 +3452,16 @@
     <t xml:space="preserve">14.027663230896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9540176391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3490524291992</t>
+    <t xml:space="preserve">14.9540185928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3490514755249</t>
   </si>
   <si>
     <t xml:space="preserve">14.0465679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7062759399414</t>
+    <t xml:space="preserve">13.7062749862671</t>
   </si>
   <si>
     <t xml:space="preserve">14.0654745101929</t>
@@ -3473,10 +3473,10 @@
     <t xml:space="preserve">13.3281707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7610149383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2525510787964</t>
+    <t xml:space="preserve">12.7610139846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2525501251221</t>
   </si>
   <si>
     <t xml:space="preserve">13.3848867416382</t>
@@ -3491,16 +3491,16 @@
     <t xml:space="preserve">13.1958341598511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3659811019897</t>
+    <t xml:space="preserve">13.3659820556641</t>
   </si>
   <si>
     <t xml:space="preserve">14.7649660110474</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7858476638794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8425636291504</t>
+    <t xml:space="preserve">15.7858486175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8425626754761</t>
   </si>
   <si>
     <t xml:space="preserve">16.1261405944824</t>
@@ -3518,61 +3518,61 @@
     <t xml:space="preserve">16.6176776885986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7122039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3719100952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1450443267822</t>
+    <t xml:space="preserve">16.7122020721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3719081878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1450481414795</t>
   </si>
   <si>
     <t xml:space="preserve">16.504243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3530044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2584800720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614692687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047533035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2395725250244</t>
+    <t xml:space="preserve">16.3530025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2584781646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614683151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047523498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.239574432373</t>
   </si>
   <si>
     <t xml:space="preserve">16.0883312225342</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1828594207764</t>
+    <t xml:space="preserve">16.1828575134277</t>
   </si>
   <si>
     <t xml:space="preserve">15.2375974655151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7460622787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8216819763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5570096969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9331369400024</t>
+    <t xml:space="preserve">14.7460613250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8216829299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5570087432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9331378936768</t>
   </si>
   <si>
     <t xml:space="preserve">13.9520425796509</t>
   </si>
   <si>
-    <t xml:space="preserve">13.630654335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2356204986572</t>
+    <t xml:space="preserve">13.6306533813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2356214523315</t>
   </si>
   <si>
     <t xml:space="preserve">14.3679571151733</t>
@@ -3581,13 +3581,13 @@
     <t xml:space="preserve">14.481388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">14.197811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271556854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4624834060669</t>
+    <t xml:space="preserve">14.1978101730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271566390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4624843597412</t>
   </si>
   <si>
     <t xml:space="preserve">14.1032848358154</t>
@@ -3605,10 +3605,10 @@
     <t xml:space="preserve">13.6873693466187</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6495580673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2734317779541</t>
+    <t xml:space="preserve">13.6495590209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2734308242798</t>
   </si>
   <si>
     <t xml:space="preserve">14.4435777664185</t>
@@ -3626,22 +3626,22 @@
     <t xml:space="preserve">13.2336444854736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4226961135864</t>
+    <t xml:space="preserve">13.4226970672607</t>
   </si>
   <si>
     <t xml:space="preserve">13.3470764160156</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7440853118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4774370193481</t>
+    <t xml:space="preserve">13.744086265564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4774360656738</t>
   </si>
   <si>
     <t xml:space="preserve">12.6664886474609</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4794130325317</t>
+    <t xml:space="preserve">13.4794120788574</t>
   </si>
   <si>
     <t xml:space="preserve">13.7629909515381</t>
@@ -3656,34 +3656,34 @@
     <t xml:space="preserve">12.9122552871704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6097736358643</t>
+    <t xml:space="preserve">12.6097726821899</t>
   </si>
   <si>
     <t xml:space="preserve">12.0993328094482</t>
   </si>
   <si>
-    <t xml:space="preserve">12.401816368103</t>
+    <t xml:space="preserve">12.4018154144287</t>
   </si>
   <si>
     <t xml:space="preserve">12.2127637863159</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9291849136353</t>
+    <t xml:space="preserve">11.9291858673096</t>
   </si>
   <si>
     <t xml:space="preserve">11.8535652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2694787979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0426168441772</t>
+    <t xml:space="preserve">12.2694797515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0426158905029</t>
   </si>
   <si>
     <t xml:space="preserve">12.288384437561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.23166847229</t>
+    <t xml:space="preserve">12.2316675186157</t>
   </si>
   <si>
     <t xml:space="preserve">11.2675037384033</t>
@@ -3695,19 +3695,19 @@
     <t xml:space="preserve">10.7381572723389</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3620300292969</t>
+    <t xml:space="preserve">11.3620290756226</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804271697998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6645135879517</t>
+    <t xml:space="preserve">11.6645126342773</t>
   </si>
   <si>
     <t xml:space="preserve">12.9500665664673</t>
   </si>
   <si>
-    <t xml:space="preserve">13.006781578064</t>
+    <t xml:space="preserve">13.0067825317383</t>
   </si>
   <si>
     <t xml:space="preserve">13.0824031829834</t>
@@ -3725,25 +3725,25 @@
     <t xml:space="preserve">12.9973297119141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9406147003174</t>
+    <t xml:space="preserve">12.9406137466431</t>
   </si>
   <si>
     <t xml:space="preserve">12.7042989730835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6759414672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7893714904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6192264556885</t>
+    <t xml:space="preserve">12.6759405136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7893724441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6192255020142</t>
   </si>
   <si>
     <t xml:space="preserve">12.6003198623657</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7704677581787</t>
+    <t xml:space="preserve">12.7704668045044</t>
   </si>
   <si>
     <t xml:space="preserve">12.8933515548706</t>
@@ -3752,13 +3752,13 @@
     <t xml:space="preserve">12.7137517929077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0615215301514</t>
+    <t xml:space="preserve">12.0615224838257</t>
   </si>
   <si>
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286773681641</t>
+    <t xml:space="preserve">12.6286783218384</t>
   </si>
   <si>
     <t xml:space="preserve">12.0237121582031</t>
@@ -3767,13 +3767,13 @@
     <t xml:space="preserve">12.146595954895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8630170822144</t>
+    <t xml:space="preserve">11.8630180358887</t>
   </si>
   <si>
     <t xml:space="preserve">11.8063011169434</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5416297912598</t>
+    <t xml:space="preserve">11.5416288375854</t>
   </si>
   <si>
     <t xml:space="preserve">10.8799457550049</t>
@@ -3785,13 +3785,13 @@
     <t xml:space="preserve">11.3431243896484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8252077102661</t>
+    <t xml:space="preserve">11.8252067565918</t>
   </si>
   <si>
     <t xml:space="preserve">11.6834173202515</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0898790359497</t>
+    <t xml:space="preserve">12.089879989624</t>
   </si>
   <si>
     <t xml:space="preserve">12.0937099456787</t>
@@ -3800,31 +3800,31 @@
     <t xml:space="preserve">11.6518430709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8151416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8247480392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.940016746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4107007980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1129217147827</t>
+    <t xml:space="preserve">11.8151407241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8247470855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9400177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.410701751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1129207611084</t>
   </si>
   <si>
     <t xml:space="preserve">11.920804977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.016863822937</t>
+    <t xml:space="preserve">12.0168628692627</t>
   </si>
   <si>
     <t xml:space="preserve">12.2377967834473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050384521484</t>
+    <t xml:space="preserve">12.3050374984741</t>
   </si>
   <si>
     <t xml:space="preserve">12.4010953903198</t>
@@ -3836,7 +3836,7 @@
     <t xml:space="preserve">11.4116973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9890413284302</t>
+    <t xml:space="preserve">10.9890422821045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7969255447388</t>
@@ -3845,16 +3845,16 @@
     <t xml:space="preserve">11.2964277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8161382675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0658893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1235227584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2676105499268</t>
+    <t xml:space="preserve">10.8161373138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0658884048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1235237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2676095962524</t>
   </si>
   <si>
     <t xml:space="preserve">11.1619462966919</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">11.7479000091553</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382946014404</t>
+    <t xml:space="preserve">11.7382955551147</t>
   </si>
   <si>
     <t xml:space="preserve">11.6134195327759</t>
@@ -3890,19 +3890,19 @@
     <t xml:space="preserve">12.6604528427124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8141450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198093414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9678382873535</t>
+    <t xml:space="preserve">12.8141460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198083877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9678373336792</t>
   </si>
   <si>
     <t xml:space="preserve">12.823751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8045387268066</t>
+    <t xml:space="preserve">12.804539680481</t>
   </si>
   <si>
     <t xml:space="preserve">13.0446844100952</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">13.1311368942261</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2848291397095</t>
+    <t xml:space="preserve">13.2848300933838</t>
   </si>
   <si>
     <t xml:space="preserve">13.4577341079712</t>
@@ -3920,13 +3920,13 @@
     <t xml:space="preserve">13.7651205062866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.91881275177</t>
+    <t xml:space="preserve">13.9188117980957</t>
   </si>
   <si>
     <t xml:space="preserve">13.8611783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9092063903809</t>
+    <t xml:space="preserve">13.9092073440552</t>
   </si>
   <si>
     <t xml:space="preserve">14.0052652359009</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">13.957236289978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0436878204346</t>
+    <t xml:space="preserve">14.0436887741089</t>
   </si>
   <si>
     <t xml:space="preserve">13.976448059082</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">13.938024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6018218994141</t>
+    <t xml:space="preserve">13.6018209457397</t>
   </si>
   <si>
     <t xml:space="preserve">13.2752237319946</t>
@@ -3974,31 +3974,31 @@
     <t xml:space="preserve">13.1983766555786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1023197174072</t>
+    <t xml:space="preserve">13.1023187637329</t>
   </si>
   <si>
     <t xml:space="preserve">13.3232526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3040418624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3424654006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1503486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0062608718872</t>
+    <t xml:space="preserve">13.3040409088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3424644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1503477096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0062618255615</t>
   </si>
   <si>
     <t xml:space="preserve">12.7372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1695604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8621740341187</t>
+    <t xml:space="preserve">13.1695594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.862174987793</t>
   </si>
   <si>
     <t xml:space="preserve">12.8525686264038</t>
@@ -4013,7 +4013,7 @@
     <t xml:space="preserve">12.372278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0841045379639</t>
+    <t xml:space="preserve">12.0841035842896</t>
   </si>
   <si>
     <t xml:space="preserve">11.9496221542358</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">11.3444566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7873201370239</t>
+    <t xml:space="preserve">10.7873191833496</t>
   </si>
   <si>
     <t xml:space="preserve">10.7777147293091</t>
@@ -4040,10 +4040,10 @@
     <t xml:space="preserve">10.7296848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8929834365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6240224838257</t>
+    <t xml:space="preserve">10.8929843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6240215301514</t>
   </si>
   <si>
     <t xml:space="preserve">11.2195816040039</t>
@@ -4058,16 +4058,16 @@
     <t xml:space="preserve">11.3636684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1907634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9025897979736</t>
+    <t xml:space="preserve">11.1907644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9025907516479</t>
   </si>
   <si>
     <t xml:space="preserve">11.0274648666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2099761962891</t>
+    <t xml:space="preserve">11.2099752426147</t>
   </si>
   <si>
     <t xml:space="preserve">11.5749959945679</t>
@@ -4076,7 +4076,7 @@
     <t xml:space="preserve">11.5365724563599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1321325302124</t>
+    <t xml:space="preserve">12.1321334838867</t>
   </si>
   <si>
     <t xml:space="preserve">12.2570085525513</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">12.0072574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3818836212158</t>
+    <t xml:space="preserve">12.3818845748901</t>
   </si>
   <si>
     <t xml:space="preserve">12.3914890289307</t>
@@ -4106,7 +4106,7 @@
     <t xml:space="preserve">13.0158672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791667938232</t>
+    <t xml:space="preserve">13.1791658401489</t>
   </si>
   <si>
     <t xml:space="preserve">12.9582328796387</t>
@@ -4115,7 +4115,7 @@
     <t xml:space="preserve">12.7469053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0542907714844</t>
+    <t xml:space="preserve">13.0542898178101</t>
   </si>
   <si>
     <t xml:space="preserve">13.3328590393066</t>
@@ -4133,25 +4133,25 @@
     <t xml:space="preserve">13.8131494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2165937423706</t>
+    <t xml:space="preserve">14.2165927886963</t>
   </si>
   <si>
     <t xml:space="preserve">14.1109285354614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284191131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6210327148438</t>
+    <t xml:space="preserve">13.9284181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6210336685181</t>
   </si>
   <si>
     <t xml:space="preserve">13.7747259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.841965675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0244779586792</t>
+    <t xml:space="preserve">13.8419666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0244770050049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5720081329346</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">13.8515720367432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6402435302734</t>
+    <t xml:space="preserve">13.6402444839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.5441865921021</t>
@@ -4199,7 +4199,7 @@
     <t xml:space="preserve">14.0628995895386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0340814590454</t>
+    <t xml:space="preserve">14.0340824127197</t>
   </si>
   <si>
     <t xml:space="preserve">14.370285987854</t>
@@ -4211,7 +4211,7 @@
     <t xml:space="preserve">14.312650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3894968032837</t>
+    <t xml:space="preserve">14.389497756958</t>
   </si>
   <si>
     <t xml:space="preserve">14.0821113586426</t>
@@ -4223,25 +4223,25 @@
     <t xml:space="preserve">13.7170906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3991031646729</t>
+    <t xml:space="preserve">14.3991022109985</t>
   </si>
   <si>
     <t xml:space="preserve">14.8793926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1003265380859</t>
+    <t xml:space="preserve">15.1003274917603</t>
   </si>
   <si>
     <t xml:space="preserve">15.1675672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3500776290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3404722213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0234813690186</t>
+    <t xml:space="preserve">15.350076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3404731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0234804153442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0522985458374</t>
@@ -4259,7 +4259,7 @@
     <t xml:space="preserve">15.0619039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1291437149048</t>
+    <t xml:space="preserve">15.1291446685791</t>
   </si>
   <si>
     <t xml:space="preserve">15.0907211303711</t>
@@ -4271,13 +4271,13 @@
     <t xml:space="preserve">14.9850578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1387500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0138750076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1963844299316</t>
+    <t xml:space="preserve">15.1387510299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0138740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.196385383606</t>
   </si>
   <si>
     <t xml:space="preserve">15.4365301132202</t>
@@ -4286,7 +4286,7 @@
     <t xml:space="preserve">15.3116540908813</t>
   </si>
   <si>
-    <t xml:space="preserve">15.21559715271</t>
+    <t xml:space="preserve">15.2155961990356</t>
   </si>
   <si>
     <t xml:space="preserve">15.4557418823242</t>
@@ -4295,25 +4295,25 @@
     <t xml:space="preserve">14.68727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4855546951294</t>
+    <t xml:space="preserve">14.4855556488037</t>
   </si>
   <si>
     <t xml:space="preserve">14.8121528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922155380249</t>
+    <t xml:space="preserve">13.5922145843506</t>
   </si>
   <si>
     <t xml:space="preserve">11.7671117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.623025894165</t>
+    <t xml:space="preserve">11.6230249404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5173606872559</t>
+    <t xml:space="preserve">11.5173616409302</t>
   </si>
   <si>
     <t xml:space="preserve">11.526967048645</t>
@@ -4340,13 +4340,13 @@
     <t xml:space="preserve">11.3540620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4693326950073</t>
+    <t xml:space="preserve">11.469331741333</t>
   </si>
   <si>
     <t xml:space="preserve">11.2387933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3252449035645</t>
+    <t xml:space="preserve">11.3252458572388</t>
   </si>
   <si>
     <t xml:space="preserve">11.2772159576416</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">11.113917350769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2003698348999</t>
+    <t xml:space="preserve">11.2003688812256</t>
   </si>
   <si>
     <t xml:space="preserve">11.1427354812622</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">10.6432332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5663862228394</t>
+    <t xml:space="preserve">10.5663871765137</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452299118042</t>
@@ -5088,6 +5088,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0100002288818</t>
   </si>
 </sst>
 </file>
@@ -61927,7 +61930,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6493634259</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>64846</v>
@@ -61948,6 +61951,32 @@
         <v>1686</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6495601852</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>70439</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>10.0600004196167</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>9.77000045776367</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>9.80000019073486</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>10.0100002288818</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1694">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06393694877625</t>
+    <t xml:space="preserve">2.06393718719482</t>
   </si>
   <si>
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11351299285889</t>
+    <t xml:space="preserve">2.11351346969604</t>
   </si>
   <si>
     <t xml:space="preserve">2.09785771369934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06132793426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03784394264221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98826777935028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02740669250488</t>
+    <t xml:space="preserve">2.06132769584656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03784441947937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98826801776886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02740740776062</t>
   </si>
   <si>
     <t xml:space="preserve">2.01697015762329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93086397647858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95539116859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93034207820892</t>
+    <t xml:space="preserve">1.93086385726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95539128780365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93034219741821</t>
   </si>
   <si>
     <t xml:space="preserve">1.9830493927002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98200607299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96739399433136</t>
+    <t xml:space="preserve">1.98200559616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96739363670349</t>
   </si>
   <si>
     <t xml:space="preserve">1.96687185764313</t>
@@ -95,40 +95,40 @@
     <t xml:space="preserve">1.98409330844879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94391024112701</t>
+    <t xml:space="preserve">1.94391012191772</t>
   </si>
   <si>
     <t xml:space="preserve">1.86563217639923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89433395862579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90581488609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88128793239594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89955270290375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88389682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91259872913361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92199218273163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90998935699463</t>
+    <t xml:space="preserve">1.8943338394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581500530243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88128769397736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89955294132233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88389706611633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91259920597076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9219925403595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90998947620392</t>
   </si>
   <si>
     <t xml:space="preserve">2.05610918998718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0352349281311</t>
+    <t xml:space="preserve">2.03523516654968</t>
   </si>
   <si>
     <t xml:space="preserve">2.04828119277954</t>
@@ -143,10 +143,10 @@
     <t xml:space="preserve">2.07176494598389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10255432128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06654620170593</t>
+    <t xml:space="preserve">2.10255408287048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06654596328735</t>
   </si>
   <si>
     <t xml:space="preserve">2.10725116729736</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">2.10829472541809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11612248420715</t>
+    <t xml:space="preserve">2.11612224578857</t>
   </si>
   <si>
     <t xml:space="preserve">2.1109037399292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11403489112854</t>
+    <t xml:space="preserve">2.11403512954712</t>
   </si>
   <si>
     <t xml:space="preserve">2.13073444366455</t>
@@ -170,25 +170,25 @@
     <t xml:space="preserve">2.14482426643372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18396377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11873149871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10777282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09263873100281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06915545463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05089020729065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03627848625183</t>
+    <t xml:space="preserve">2.18396353721619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11873173713684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10777258872986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09263920783997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06915593147278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05089044570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03627872467041</t>
   </si>
   <si>
     <t xml:space="preserve">2.0848114490509</t>
@@ -197,19 +197,19 @@
     <t xml:space="preserve">2.10307621955872</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08742022514343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07698273658752</t>
+    <t xml:space="preserve">2.08741998672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07698321342468</t>
   </si>
   <si>
     <t xml:space="preserve">2.03001642227173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01749205589294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03262591362</t>
+    <t xml:space="preserve">2.01749181747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03262543678284</t>
   </si>
   <si>
     <t xml:space="preserve">2.03314757347107</t>
@@ -224,37 +224,37 @@
     <t xml:space="preserve">2.12395024299622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11820936203003</t>
+    <t xml:space="preserve">2.11820983886719</t>
   </si>
   <si>
     <t xml:space="preserve">2.13960576057434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20483779907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21266531944275</t>
+    <t xml:space="preserve">2.20483803749084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21266555786133</t>
   </si>
   <si>
     <t xml:space="preserve">2.25441431999207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21840596199036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18605065345764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17613554000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18657302856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20744681358337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1923131942749</t>
+    <t xml:space="preserve">2.21840620040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1860511302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17613625526428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18657326698303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20744729042053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19231295585632</t>
   </si>
   <si>
     <t xml:space="preserve">2.28050661087036</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">2.30816507339478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28572559356689</t>
+    <t xml:space="preserve">2.28572511672974</t>
   </si>
   <si>
     <t xml:space="preserve">2.40679550170898</t>
@@ -272,76 +272,76 @@
     <t xml:space="preserve">2.4595034122467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47411489486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52108216285706</t>
+    <t xml:space="preserve">2.47411513328552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52108240127563</t>
   </si>
   <si>
     <t xml:space="preserve">2.48611760139465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57013630867004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61934638023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62095069885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65464854240417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64127683639526</t>
+    <t xml:space="preserve">2.57013654708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61934614181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62095093727112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6546483039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64127659797668</t>
   </si>
   <si>
     <t xml:space="preserve">2.67443943023682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74504446983337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76644039154053</t>
+    <t xml:space="preserve">2.74504470825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76644015312195</t>
   </si>
   <si>
     <t xml:space="preserve">2.90765070915222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93760418891907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95044159889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89481353759766</t>
+    <t xml:space="preserve">2.93760395050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95044183731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8948130607605</t>
   </si>
   <si>
     <t xml:space="preserve">2.79211497306824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86699914932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85630178451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84774327278137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77071952819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71723031997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68941617012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64876484870911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73862624168396</t>
+    <t xml:space="preserve">2.86699938774109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8563015460968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84774351119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77071976661682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71723079681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68941640853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64876508712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73862648010254</t>
   </si>
   <si>
     <t xml:space="preserve">2.81564998626709</t>
@@ -353,37 +353,37 @@
     <t xml:space="preserve">2.79853343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72792840003967</t>
+    <t xml:space="preserve">2.72792816162109</t>
   </si>
   <si>
     <t xml:space="preserve">2.81351017951965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86913871765137</t>
+    <t xml:space="preserve">2.86913895606995</t>
   </si>
   <si>
     <t xml:space="preserve">2.92048811912537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93974351882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92262721061707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616293907166</t>
+    <t xml:space="preserve">2.9397439956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92262744903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616317749023</t>
   </si>
   <si>
     <t xml:space="preserve">2.92690658569336</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98253488540649</t>
+    <t xml:space="preserve">2.98253512382507</t>
   </si>
   <si>
     <t xml:space="preserve">2.99537229537964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01676774024963</t>
+    <t xml:space="preserve">3.01676797866821</t>
   </si>
   <si>
     <t xml:space="preserve">3.10234975814819</t>
@@ -395,13 +395,13 @@
     <t xml:space="preserve">3.24997901916504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28421211242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23500204086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2307231426239</t>
+    <t xml:space="preserve">3.2842116355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2350025177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23072290420532</t>
   </si>
   <si>
     <t xml:space="preserve">3.20504832267761</t>
@@ -410,124 +410,124 @@
     <t xml:space="preserve">3.18793177604675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23286271095276</t>
+    <t xml:space="preserve">3.23286247253418</t>
   </si>
   <si>
     <t xml:space="preserve">3.22216486930847</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2007691860199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20932722091675</t>
+    <t xml:space="preserve">3.20076894760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20932769775391</t>
   </si>
   <si>
     <t xml:space="preserve">3.11946630477905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19862961769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20290875434875</t>
+    <t xml:space="preserve">3.19862985610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20290899276733</t>
   </si>
   <si>
     <t xml:space="preserve">3.27351403236389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29276990890503</t>
+    <t xml:space="preserve">3.29276967048645</t>
   </si>
   <si>
     <t xml:space="preserve">3.28635120391846</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26709508895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22858309745789</t>
+    <t xml:space="preserve">3.2670955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22858357429504</t>
   </si>
   <si>
     <t xml:space="preserve">3.21574592590332</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29490923881531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26281642913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22002530097961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25639772415161</t>
+    <t xml:space="preserve">3.29490947723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26281595230103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22002553939819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25639796257019</t>
   </si>
   <si>
     <t xml:space="preserve">3.25211834907532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0959312915802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13444304466248</t>
+    <t xml:space="preserve">3.09593152999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1344428062439</t>
   </si>
   <si>
     <t xml:space="preserve">3.15369892120361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19435095787048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14514088630676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16653656959534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03816318511963</t>
+    <t xml:space="preserve">3.1943507194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14514112472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16653633117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03816366195679</t>
   </si>
   <si>
     <t xml:space="preserve">3.27565360069275</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20718789100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1494197845459</t>
+    <t xml:space="preserve">3.20718765258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14942002296448</t>
   </si>
   <si>
     <t xml:space="preserve">3.31416535377502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3719334602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53026008605957</t>
+    <t xml:space="preserve">3.37193369865417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53026032447815</t>
   </si>
   <si>
     <t xml:space="preserve">3.61584210395813</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72068023681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84049534797668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94105362892151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02235651016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92607736587524</t>
+    <t xml:space="preserve">3.72067999839783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84049510955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94105434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02235746383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92607712745667</t>
   </si>
   <si>
     <t xml:space="preserve">3.88970470428467</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04375219345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12077617645264</t>
+    <t xml:space="preserve">4.04375267028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12077713012695</t>
   </si>
   <si>
     <t xml:space="preserve">4.26198720932007</t>
@@ -536,28 +536,28 @@
     <t xml:space="preserve">4.16142797470093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18924236297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39677858352661</t>
+    <t xml:space="preserve">4.18924188613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39677906036377</t>
   </si>
   <si>
     <t xml:space="preserve">4.60859441757202</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57649993896484</t>
+    <t xml:space="preserve">4.57650089263916</t>
   </si>
   <si>
     <t xml:space="preserve">4.56580305099487</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67705965042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86747980117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85678195953369</t>
+    <t xml:space="preserve">4.6770601272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86748027801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85678243637085</t>
   </si>
   <si>
     <t xml:space="preserve">4.63854789733887</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">4.49305820465088</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29835891723633</t>
+    <t xml:space="preserve">4.29835939407349</t>
   </si>
   <si>
     <t xml:space="preserve">4.27482414245605</t>
@@ -587,52 +587,52 @@
     <t xml:space="preserve">4.15500926971436</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11863708496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01807737350464</t>
+    <t xml:space="preserve">4.1186375617981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0180778503418</t>
   </si>
   <si>
     <t xml:space="preserve">4.1528697013855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17212533950806</t>
+    <t xml:space="preserve">4.17212581634521</t>
   </si>
   <si>
     <t xml:space="preserve">4.2898006439209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27910327911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26412582397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57863998413086</t>
+    <t xml:space="preserve">4.27910375595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26412677764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57864046096802</t>
   </si>
   <si>
     <t xml:space="preserve">4.55724477767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55510520935059</t>
+    <t xml:space="preserve">4.55510568618774</t>
   </si>
   <si>
     <t xml:space="preserve">4.53584957122803</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56794214248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64068794250488</t>
+    <t xml:space="preserve">4.56794309616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64068746566772</t>
   </si>
   <si>
     <t xml:space="preserve">4.51445388793945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58292007446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51017475128174</t>
+    <t xml:space="preserve">4.58291959762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5101752281189</t>
   </si>
   <si>
     <t xml:space="preserve">4.43315124511719</t>
@@ -650,10 +650,10 @@
     <t xml:space="preserve">4.70273447036743</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6920371055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66422271728516</t>
+    <t xml:space="preserve">4.69203662872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.664222240448</t>
   </si>
   <si>
     <t xml:space="preserve">4.68347835540771</t>
@@ -662,76 +662,76 @@
     <t xml:space="preserve">5.01082992553711</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29325103759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19911003112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16059923171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13920307159424</t>
+    <t xml:space="preserve">5.2932505607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19911050796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16059875488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13920259475708</t>
   </si>
   <si>
     <t xml:space="preserve">5.13706398010254</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11352777481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9487829208374</t>
+    <t xml:space="preserve">5.11352872848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94878244400024</t>
   </si>
   <si>
     <t xml:space="preserve">5.02152729034424</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13492441177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18413352966309</t>
+    <t xml:space="preserve">5.13492393493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18413400650024</t>
   </si>
   <si>
     <t xml:space="preserve">5.2183666229248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08143472671509</t>
+    <t xml:space="preserve">5.0814356803894</t>
   </si>
   <si>
     <t xml:space="preserve">5.05576038360596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97445726394653</t>
+    <t xml:space="preserve">4.97445821762085</t>
   </si>
   <si>
     <t xml:space="preserve">4.82468843460083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00227212905884</t>
+    <t xml:space="preserve">5.00227117538452</t>
   </si>
   <si>
     <t xml:space="preserve">4.95306205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02580738067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01296901702881</t>
+    <t xml:space="preserve">5.02580690383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01296949386597</t>
   </si>
   <si>
     <t xml:space="preserve">5.00441122055054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03864336013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02794599533081</t>
+    <t xml:space="preserve">5.0386438369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02794694900513</t>
   </si>
   <si>
     <t xml:space="preserve">4.95734119415283</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87175941467285</t>
+    <t xml:space="preserve">4.87175893783569</t>
   </si>
   <si>
     <t xml:space="preserve">4.94022464752197</t>
@@ -743,10 +743,10 @@
     <t xml:space="preserve">4.80115413665771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78189754486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77119922637939</t>
+    <t xml:space="preserve">4.781898021698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77119970321655</t>
   </si>
   <si>
     <t xml:space="preserve">4.76264238357544</t>
@@ -755,64 +755,64 @@
     <t xml:space="preserve">4.71771144866943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65352439880371</t>
+    <t xml:space="preserve">4.65352487564087</t>
   </si>
   <si>
     <t xml:space="preserve">4.70701360702515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66208362579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67492008209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60003519058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73696708679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83324670791626</t>
+    <t xml:space="preserve">4.6620831489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67492055892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60003614425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73696804046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83324718475342</t>
   </si>
   <si>
     <t xml:space="preserve">5.04934167861938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99585247039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10711002349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03008556365967</t>
+    <t xml:space="preserve">4.99585342407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10711050033569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03008604049683</t>
   </si>
   <si>
     <t xml:space="preserve">5.00655078887939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20980787277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29111099243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3232045173645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45585680007935</t>
+    <t xml:space="preserve">5.20980834960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2911114692688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32320356369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45585632324219</t>
   </si>
   <si>
     <t xml:space="preserve">5.58422994613647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54143905639648</t>
+    <t xml:space="preserve">5.54143953323364</t>
   </si>
   <si>
     <t xml:space="preserve">5.74255609512329</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80888319015503</t>
+    <t xml:space="preserve">5.80888271331787</t>
   </si>
   <si>
     <t xml:space="preserve">5.84097623825073</t>
@@ -821,37 +821,37 @@
     <t xml:space="preserve">6.00786066055298</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71260356903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77678918838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65911436080933</t>
+    <t xml:space="preserve">5.7126030921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77678966522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65911483764648</t>
   </si>
   <si>
     <t xml:space="preserve">5.66339302062988</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7874870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79390573501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87306976318359</t>
+    <t xml:space="preserve">5.78748750686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79390621185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87306928634644</t>
   </si>
   <si>
     <t xml:space="preserve">5.99074459075928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84525442123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88590621948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90088319778442</t>
+    <t xml:space="preserve">5.84525489807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88590669631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90088367462158</t>
   </si>
   <si>
     <t xml:space="preserve">5.88376712799072</t>
@@ -866,25 +866,25 @@
     <t xml:space="preserve">5.97790718078613</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86023235321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96934938430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03353548049927</t>
+    <t xml:space="preserve">5.86023187637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96934843063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03353595733643</t>
   </si>
   <si>
     <t xml:space="preserve">6.3116774559021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15976905822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4165153503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42935228347778</t>
+    <t xml:space="preserve">6.1597695350647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41651630401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42935180664062</t>
   </si>
   <si>
     <t xml:space="preserve">6.47428321838379</t>
@@ -893,61 +893,61 @@
     <t xml:space="preserve">6.68609857559204</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78237915039062</t>
+    <t xml:space="preserve">6.78237771987915</t>
   </si>
   <si>
     <t xml:space="preserve">6.88935613632202</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94284534454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99419355392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19317245483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00703191757202</t>
+    <t xml:space="preserve">6.9428448677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99419450759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19317293167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00703144073486</t>
   </si>
   <si>
     <t xml:space="preserve">7.09903240203857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09689235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98991441726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1674976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24880075454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23596286773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15893936157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17819547653198</t>
+    <t xml:space="preserve">7.09689331054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.989914894104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16749811172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24880123138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23596334457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15893983840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17819595336914</t>
   </si>
   <si>
     <t xml:space="preserve">7.07121706008911</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35446929931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11911821365356</t>
+    <t xml:space="preserve">6.35446882247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11911869049072</t>
   </si>
   <si>
     <t xml:space="preserve">6.3608865737915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29028177261353</t>
+    <t xml:space="preserve">6.29028224945068</t>
   </si>
   <si>
     <t xml:space="preserve">6.49781847000122</t>
@@ -962,34 +962,34 @@
     <t xml:space="preserve">6.4635853767395</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41154718399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4484076499939</t>
+    <t xml:space="preserve">6.41154766082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44840717315674</t>
   </si>
   <si>
     <t xml:space="preserve">6.49827718734741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539762496948</t>
+    <t xml:space="preserve">6.4353985786438</t>
   </si>
   <si>
     <t xml:space="preserve">6.34216260910034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44407081604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79749774932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64571857452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70426225662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30530166625977</t>
+    <t xml:space="preserve">6.44407033920288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79749822616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64571905136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70426273345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30530261993408</t>
   </si>
   <si>
     <t xml:space="preserve">6.47009038925171</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">6.39203262329102</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30963945388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37468671798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24675989151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22507619857788</t>
+    <t xml:space="preserve">6.30963897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37468719482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24675893783569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22507667541504</t>
   </si>
   <si>
     <t xml:space="preserve">6.32264852523804</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">6.21857166290283</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22290849685669</t>
+    <t xml:space="preserve">6.22290897369385</t>
   </si>
   <si>
     <t xml:space="preserve">6.26410531997681</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">6.05378389358521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03643751144409</t>
+    <t xml:space="preserve">6.03643798828125</t>
   </si>
   <si>
     <t xml:space="preserve">6.03210115432739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85430383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81093883514404</t>
+    <t xml:space="preserve">5.85430431365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8109393119812</t>
   </si>
   <si>
     <t xml:space="preserve">5.80009746551514</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">5.68517971038818</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85647201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81744337081909</t>
+    <t xml:space="preserve">5.85647249221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81744384765625</t>
   </si>
   <si>
     <t xml:space="preserve">5.83045291900635</t>
@@ -1058,94 +1058,94 @@
     <t xml:space="preserve">5.83912658691406</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73505020141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74589157104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88465976715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59844923019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41197872161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37511825561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51171875</t>
+    <t xml:space="preserve">5.73505067825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74589109420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88466024398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59844970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41197967529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37511920928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51171922683716</t>
   </si>
   <si>
     <t xml:space="preserve">5.63747787475586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66132879257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78925704956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61579561233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62230062484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4943733215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46184921264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.292724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44883966445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34909915924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35560417175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30573415756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32524824142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39680099487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46401643753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3859601020813</t>
+    <t xml:space="preserve">5.66132831573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78925657272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61579608917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62230014801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49437284469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46184873580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29272508621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44883918762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34909963607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35560464859009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3057336807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32524919509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39680051803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46401739120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38596057891846</t>
   </si>
   <si>
     <t xml:space="preserve">5.43149280548096</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36427736282349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31874370574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3946328163147</t>
+    <t xml:space="preserve">5.36427688598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31874465942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39463186264038</t>
   </si>
   <si>
     <t xml:space="preserve">5.47269010543823</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63964605331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56592559814453</t>
+    <t xml:space="preserve">5.63964653015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56592512130737</t>
   </si>
   <si>
     <t xml:space="preserve">5.70252561569214</t>
@@ -1154,64 +1154,64 @@
     <t xml:space="preserve">5.76757383346558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63097286224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98006296157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86514520645142</t>
+    <t xml:space="preserve">5.63097238540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98006343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86514568328857</t>
   </si>
   <si>
     <t xml:space="preserve">5.70469379425049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53990650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46835374832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42498826980591</t>
+    <t xml:space="preserve">5.53990602493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46835327148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42498874664307</t>
   </si>
   <si>
     <t xml:space="preserve">5.38379144668579</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3989691734314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26887321472168</t>
+    <t xml:space="preserve">5.39896965026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26887369155884</t>
   </si>
   <si>
     <t xml:space="preserve">5.20599460601807</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13877773284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14961910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16262817382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32091236114502</t>
+    <t xml:space="preserve">5.13877868652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14962005615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16262912750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32091283798218</t>
   </si>
   <si>
     <t xml:space="preserve">5.30356550216675</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18648052215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13227319717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05204725265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03036499023438</t>
+    <t xml:space="preserve">5.1864800453186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13227367401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05204772949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03036594390869</t>
   </si>
   <si>
     <t xml:space="preserve">5.11709547042847</t>
@@ -1223,64 +1223,64 @@
     <t xml:space="preserve">5.04337453842163</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04771184921265</t>
+    <t xml:space="preserve">5.04771137237549</t>
   </si>
   <si>
     <t xml:space="preserve">4.95013904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91978359222412</t>
+    <t xml:space="preserve">4.91978406906128</t>
   </si>
   <si>
     <t xml:space="preserve">4.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8720817565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88509225845337</t>
+    <t xml:space="preserve">4.87208223342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88509178161621</t>
   </si>
   <si>
     <t xml:space="preserve">4.9609808921814</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10408639907837</t>
+    <t xml:space="preserve">5.10408592224121</t>
   </si>
   <si>
     <t xml:space="preserve">5.1843113899231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13444185256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15395641326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02819633483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94363451004028</t>
+    <t xml:space="preserve">5.13444137573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15395593643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02819681167603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94363403320312</t>
   </si>
   <si>
     <t xml:space="preserve">4.78752040863037</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6444149017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62923622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5706934928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84606266021729</t>
+    <t xml:space="preserve">4.64441442489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62923717498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57069396972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84606313705444</t>
   </si>
   <si>
     <t xml:space="preserve">5.12793684005737</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50738191604614</t>
+    <t xml:space="preserve">5.50738286972046</t>
   </si>
   <si>
     <t xml:space="preserve">5.71119928359985</t>
@@ -1289,31 +1289,31 @@
     <t xml:space="preserve">5.74372291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66783380508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80226516723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76323699951172</t>
+    <t xml:space="preserve">5.66783332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80226612091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76323747634888</t>
   </si>
   <si>
     <t xml:space="preserve">5.67650699615479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7177038192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55508422851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54207372665405</t>
+    <t xml:space="preserve">5.71770429611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55508470535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54207420349121</t>
   </si>
   <si>
     <t xml:space="preserve">5.60061740875244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.487868309021</t>
+    <t xml:space="preserve">5.48786783218384</t>
   </si>
   <si>
     <t xml:space="preserve">5.91935205459595</t>
@@ -1322,40 +1322,40 @@
     <t xml:space="preserve">6.08630800247192</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0342698097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01909208297729</t>
+    <t xml:space="preserve">5.95838069915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03426933288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01909160614014</t>
   </si>
   <si>
     <t xml:space="preserve">5.92151975631714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86080932617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93019342422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70903062820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77841520309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79792881011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72420787811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64398241043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55291604995728</t>
+    <t xml:space="preserve">5.86080837249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93019390106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7090311050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77841567993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79792928695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72420835494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64398288726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55291557312012</t>
   </si>
   <si>
     <t xml:space="preserve">5.52039194107056</t>
@@ -1364,16 +1364,16 @@
     <t xml:space="preserve">5.53773832321167</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91501522064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75456476211548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62013149261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74155378341675</t>
+    <t xml:space="preserve">5.91501569747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75456380844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6201319694519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74155473709106</t>
   </si>
   <si>
     <t xml:space="preserve">5.9280252456665</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">5.9410343170166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84996747970581</t>
+    <t xml:space="preserve">5.84996795654297</t>
   </si>
   <si>
     <t xml:space="preserve">5.84129476547241</t>
@@ -1391,13 +1391,13 @@
     <t xml:space="preserve">6.17954349517822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17520666122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11449527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40937852859497</t>
+    <t xml:space="preserve">6.17520761489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11449575424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40937900543213</t>
   </si>
   <si>
     <t xml:space="preserve">6.2619366645813</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">6.0624566078186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99307250976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98439931869507</t>
+    <t xml:space="preserve">5.99307298660278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98439979553223</t>
   </si>
   <si>
     <t xml:space="preserve">5.45968055725098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00608253479004</t>
+    <t xml:space="preserve">6.00608205795288</t>
   </si>
   <si>
     <t xml:space="preserve">5.81961154937744</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">5.5724310874939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58543968200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33392190933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66349649429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77191019058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87598657608032</t>
+    <t xml:space="preserve">5.58544015884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33392143249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66349744796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77191066741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87598705291748</t>
   </si>
   <si>
     <t xml:space="preserve">5.85864067077637</t>
@@ -1451,16 +1451,16 @@
     <t xml:space="preserve">6.16219711303711</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24459075927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60885858535767</t>
+    <t xml:space="preserve">6.2445912361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60885810852051</t>
   </si>
   <si>
     <t xml:space="preserve">6.5698299407959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80833864212036</t>
+    <t xml:space="preserve">6.8083381652832</t>
   </si>
   <si>
     <t xml:space="preserve">6.78665637969971</t>
@@ -1472,85 +1472,85 @@
     <t xml:space="preserve">6.85604095458984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.977463722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75196409225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83002185821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10322189331055</t>
+    <t xml:space="preserve">6.97746324539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75196361541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83002138137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10322141647339</t>
   </si>
   <si>
     <t xml:space="preserve">7.02516508102417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92542505264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99047327041626</t>
+    <t xml:space="preserve">6.92542552947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99047374725342</t>
   </si>
   <si>
     <t xml:space="preserve">6.93843412399292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36341381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1986255645752</t>
+    <t xml:space="preserve">7.36341333389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19862604141235</t>
   </si>
   <si>
     <t xml:space="preserve">7.05985736846924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3113751411438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15526056289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13357830047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9991455078125</t>
+    <t xml:space="preserve">7.31137561798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15526103973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13357782363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99914598464966</t>
   </si>
   <si>
     <t xml:space="preserve">6.94277143478394</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12490510940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09021282196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06853008270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09454965591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33305740356445</t>
+    <t xml:space="preserve">7.12490463256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09021329879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06852960586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09455013275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33305788040161</t>
   </si>
   <si>
     <t xml:space="preserve">7.489173412323</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43279790878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40677881240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27234649658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4241247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29836559295654</t>
+    <t xml:space="preserve">7.43279695510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40677928924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27234697341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42412567138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2983660697937</t>
   </si>
   <si>
     <t xml:space="preserve">7.25933742523193</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">6.94710779190063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51345539093018</t>
+    <t xml:space="preserve">6.51345586776733</t>
   </si>
   <si>
     <t xml:space="preserve">6.72160816192627</t>
@@ -1568,16 +1568,16 @@
     <t xml:space="preserve">6.52212810516357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40504217147827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50478172302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43106174468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59584951400757</t>
+    <t xml:space="preserve">6.40504312515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50478267669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43106126785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59584999084473</t>
   </si>
   <si>
     <t xml:space="preserve">6.27184152603149</t>
@@ -1592,37 +1592,37 @@
     <t xml:space="preserve">6.54873323440552</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48720169067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51796817779541</t>
+    <t xml:space="preserve">6.48720216751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51796770095825</t>
   </si>
   <si>
     <t xml:space="preserve">6.43446063995361</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54433870315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46522617340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37292909622192</t>
+    <t xml:space="preserve">6.54433822631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46522569656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37292957305908</t>
   </si>
   <si>
     <t xml:space="preserve">6.59708023071289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63663673400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64103174209595</t>
+    <t xml:space="preserve">6.63663625717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64103078842163</t>
   </si>
   <si>
     <t xml:space="preserve">6.50038766860962</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38171911239624</t>
+    <t xml:space="preserve">6.3817195892334</t>
   </si>
   <si>
     <t xml:space="preserve">6.36853361129761</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">6.33776760101318</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30700159072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2103099822998</t>
+    <t xml:space="preserve">6.30700206756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21030902862549</t>
   </si>
   <si>
     <t xml:space="preserve">6.11801147460938</t>
@@ -1643,13 +1643,13 @@
     <t xml:space="preserve">6.11361646652222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01692390441895</t>
+    <t xml:space="preserve">6.01692342758179</t>
   </si>
   <si>
     <t xml:space="preserve">6.15317249298096</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03450393676758</t>
+    <t xml:space="preserve">6.03450345993042</t>
   </si>
   <si>
     <t xml:space="preserve">6.07405996322632</t>
@@ -1658,13 +1658,13 @@
     <t xml:space="preserve">6.09603595733643</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2366795539856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13998699188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10482597351074</t>
+    <t xml:space="preserve">6.23668003082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13998746871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1048264503479</t>
   </si>
   <si>
     <t xml:space="preserve">6.22788953781128</t>
@@ -1676,13 +1676,13 @@
     <t xml:space="preserve">6.37732362747192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41688013076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32897663116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33337306976318</t>
+    <t xml:space="preserve">6.41687965393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32897710800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33337259292603</t>
   </si>
   <si>
     <t xml:space="preserve">6.28063106536865</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">6.28942155838013</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26305103302002</t>
+    <t xml:space="preserve">6.26305055618286</t>
   </si>
   <si>
     <t xml:space="preserve">6.31579208374023</t>
@@ -1700,10 +1700,10 @@
     <t xml:space="preserve">6.32018709182739</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3905086517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2190990447998</t>
+    <t xml:space="preserve">6.39050912857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21909952163696</t>
   </si>
   <si>
     <t xml:space="preserve">6.13119745254517</t>
@@ -1715,25 +1715,25 @@
     <t xml:space="preserve">6.17075300216675</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35095310211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52675867080688</t>
+    <t xml:space="preserve">6.35095262527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52675771713257</t>
   </si>
   <si>
     <t xml:space="preserve">5.99494791030884</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28502607345581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07845592498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88067436218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37963104248047</t>
+    <t xml:space="preserve">6.28502655029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07845544815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88067483901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37963056564331</t>
   </si>
   <si>
     <t xml:space="preserve">5.2433819770813</t>
@@ -1745,16 +1745,16 @@
     <t xml:space="preserve">4.99285984039307</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88737678527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04120588302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93132877349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98846435546875</t>
+    <t xml:space="preserve">4.88737726211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04120635986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93132829666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98846530914307</t>
   </si>
   <si>
     <t xml:space="preserve">4.96648931503296</t>
@@ -1763,19 +1763,19 @@
     <t xml:space="preserve">4.90056228637695</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84342622756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65443563461304</t>
+    <t xml:space="preserve">4.84342575073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65443515777588</t>
   </si>
   <si>
     <t xml:space="preserve">4.50939655303955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53576707839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66762113571167</t>
+    <t xml:space="preserve">4.53576755523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66762065887451</t>
   </si>
   <si>
     <t xml:space="preserve">4.63246011734009</t>
@@ -1784,34 +1784,34 @@
     <t xml:space="preserve">4.2962327003479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0566987991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13581037521362</t>
+    <t xml:space="preserve">4.05669832229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13581085205078</t>
   </si>
   <si>
     <t xml:space="preserve">4.04351329803467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97099375724792</t>
+    <t xml:space="preserve">3.97099351882935</t>
   </si>
   <si>
     <t xml:space="preserve">3.98417901992798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88968372344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01274728775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08306884765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0588960647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94901752471924</t>
+    <t xml:space="preserve">3.88968420028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0127477645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08306932449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05889654159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94901847839355</t>
   </si>
   <si>
     <t xml:space="preserve">3.80178141593933</t>
@@ -1820,19 +1820,19 @@
     <t xml:space="preserve">3.64135956764221</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69190359115601</t>
+    <t xml:space="preserve">3.69190335273743</t>
   </si>
   <si>
     <t xml:space="preserve">3.75123763084412</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66992831230164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77101588249207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980637550354</t>
+    <t xml:space="preserve">3.66992783546448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77101564407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980589866638</t>
   </si>
   <si>
     <t xml:space="preserve">3.89627647399902</t>
@@ -1841,40 +1841,40 @@
     <t xml:space="preserve">4.08526706695557</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93363523483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85672068595886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86331272125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87430119514465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80617642402649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79518914222717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7776083946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39523243904114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30073738098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18646454811096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97989320755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98868370056152</t>
+    <t xml:space="preserve">3.93363475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85672044754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8633131980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87430047988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80617618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79518938064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77760863304138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39523267745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3007378578186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18646478652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97989368438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9886839389801</t>
   </si>
   <si>
     <t xml:space="preserve">3.10735201835632</t>
@@ -1883,40 +1883,40 @@
     <t xml:space="preserve">3.32491064071655</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32930588722229</t>
+    <t xml:space="preserve">3.32930564880371</t>
   </si>
   <si>
     <t xml:space="preserve">3.21283507347107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17108154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39303493499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33589863777161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42819619178772</t>
+    <t xml:space="preserve">3.17108130455017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39303517341614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33589839935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42819595336914</t>
   </si>
   <si>
     <t xml:space="preserve">3.45456695556641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26118111610413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19085955619812</t>
+    <t xml:space="preserve">3.26118159294128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1908597946167</t>
   </si>
   <si>
     <t xml:space="preserve">3.05680823326111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87660837173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88100337982178</t>
+    <t xml:space="preserve">2.87660813331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88100290298462</t>
   </si>
   <si>
     <t xml:space="preserve">2.95791792869568</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">2.98648643493652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90517663955688</t>
+    <t xml:space="preserve">2.90517640113831</t>
   </si>
   <si>
     <t xml:space="preserve">2.83485436439514</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">2.72937154769897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70080327987671</t>
+    <t xml:space="preserve">2.70080280303955</t>
   </si>
   <si>
     <t xml:space="preserve">2.74035930633545</t>
@@ -1949,37 +1949,37 @@
     <t xml:space="preserve">2.78431081771851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8392493724823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01944947242737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05241298675537</t>
+    <t xml:space="preserve">2.83924961090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01944971084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05241322517395</t>
   </si>
   <si>
     <t xml:space="preserve">3.11394476890564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17327857017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1051549911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16668653488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17987155914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13152551651001</t>
+    <t xml:space="preserve">3.17327880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10515451431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16668629646301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17987203598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13152527809143</t>
   </si>
   <si>
     <t xml:space="preserve">3.13811779022217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26337933540344</t>
+    <t xml:space="preserve">3.26337885856628</t>
   </si>
   <si>
     <t xml:space="preserve">3.48093771934509</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">3.41940569877625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4721474647522</t>
+    <t xml:space="preserve">3.47214722633362</t>
   </si>
   <si>
     <t xml:space="preserve">3.43478870391846</t>
@@ -1997,28 +1997,28 @@
     <t xml:space="preserve">3.5490620136261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60180354118347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51390099525452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45017147064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46115970611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52049374580383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37765192985535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4633572101593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52269148826599</t>
+    <t xml:space="preserve">3.60180330276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5139012336731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45017170906067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46115946769714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52049398422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3776524066925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46335744857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52269124984741</t>
   </si>
   <si>
     <t xml:space="preserve">3.63037180900574</t>
@@ -2027,37 +2027,37 @@
     <t xml:space="preserve">3.56005001068115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5512592792511</t>
+    <t xml:space="preserve">3.55125951766968</t>
   </si>
   <si>
     <t xml:space="preserve">3.63916182518005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73805236816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82815217971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70728635787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76662039756775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79079365730286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87210321426392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92264747619629</t>
+    <t xml:space="preserve">3.7380518913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82815265655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70728659629822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76662015914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79079389572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87210369110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92264771461487</t>
   </si>
   <si>
     <t xml:space="preserve">3.99956226348877</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06109380722046</t>
+    <t xml:space="preserve">4.0610933303833</t>
   </si>
   <si>
     <t xml:space="preserve">4.02153730392456</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">4.17756462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11603307723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88089346885681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93583345413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95780873298645</t>
+    <t xml:space="preserve">4.11603212356567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88089370727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9358332157135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95780849456787</t>
   </si>
   <si>
     <t xml:space="preserve">3.90946221351624</t>
@@ -2084,31 +2084,31 @@
     <t xml:space="preserve">4.15778684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2083306312561</t>
+    <t xml:space="preserve">4.20833015441895</t>
   </si>
   <si>
     <t xml:space="preserve">4.30722093582153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35117149353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27865314483643</t>
+    <t xml:space="preserve">4.35117197036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27865266799927</t>
   </si>
   <si>
     <t xml:space="preserve">4.09405708312988</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13141536712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20393514633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12921857833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16437911987305</t>
+    <t xml:space="preserve">4.13141584396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20393419265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12921810150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16437959671021</t>
   </si>
   <si>
     <t xml:space="preserve">4.21712064743042</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">4.17536687850952</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16657686233521</t>
+    <t xml:space="preserve">4.16657638549805</t>
   </si>
   <si>
     <t xml:space="preserve">4.17976236343384</t>
@@ -2126,79 +2126,79 @@
     <t xml:space="preserve">4.12702083587646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00395679473877</t>
+    <t xml:space="preserve">4.00395774841309</t>
   </si>
   <si>
     <t xml:space="preserve">4.08087158203125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11383485794067</t>
+    <t xml:space="preserve">4.11383533477783</t>
   </si>
   <si>
     <t xml:space="preserve">4.19514513015747</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9028697013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86551094055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83254766464233</t>
+    <t xml:space="preserve">3.90286946296692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8655104637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83254742622375</t>
   </si>
   <si>
     <t xml:space="preserve">3.92704272270203</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96879577636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96659851074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94682025909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85012793540955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81057167053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7028911113739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7094841003418</t>
+    <t xml:space="preserve">3.96879601478577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96659874916077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94682049751282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8501284122467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81057190895081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70289134979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70948433876038</t>
   </si>
   <si>
     <t xml:space="preserve">3.58861827850342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78420066833496</t>
+    <t xml:space="preserve">3.78420090675354</t>
   </si>
   <si>
     <t xml:space="preserve">4.02813053131104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75783038139343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88834190368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81408524513245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6970751285553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68132400512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69932532310486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62506890296936</t>
+    <t xml:space="preserve">3.75783061981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8883421421051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81408548355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69707536697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68132376670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69932556152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62506914138794</t>
   </si>
   <si>
     <t xml:space="preserve">3.60931754112244</t>
@@ -2207,46 +2207,46 @@
     <t xml:space="preserve">3.66782236099243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77583193778992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8050844669342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85683846473694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89734244346619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82983708381653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88159155845642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80733489990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83883714675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91534423828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97159934043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12461233139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08185863494873</t>
+    <t xml:space="preserve">3.77583241462708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80508422851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85683941841125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89734268188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82983660697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88159132003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80733466148376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83883762359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91534447669983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.971599817276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12461280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08185911178589</t>
   </si>
   <si>
     <t xml:space="preserve">4.02110385894775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04135513305664</t>
+    <t xml:space="preserve">4.04135465621948</t>
   </si>
   <si>
     <t xml:space="preserve">4.030104637146</t>
@@ -2255,10 +2255,10 @@
     <t xml:space="preserve">4.07285833358765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1156120300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20336961746216</t>
+    <t xml:space="preserve">4.11561250686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20337009429932</t>
   </si>
   <si>
     <t xml:space="preserve">4.21012020111084</t>
@@ -2273,16 +2273,16 @@
     <t xml:space="preserve">4.22812175750732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2753758430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17186689376831</t>
+    <t xml:space="preserve">4.27537631988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17186641693115</t>
   </si>
   <si>
     <t xml:space="preserve">4.25737428665161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16511678695679</t>
+    <t xml:space="preserve">4.16511631011963</t>
   </si>
   <si>
     <t xml:space="preserve">4.14936494827271</t>
@@ -2291,16 +2291,16 @@
     <t xml:space="preserve">4.12236261367798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17411708831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10211038589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98960089683533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02785444259644</t>
+    <t xml:space="preserve">4.17411661148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10210990905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98960041999817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02785396575928</t>
   </si>
   <si>
     <t xml:space="preserve">4.07960844039917</t>
@@ -2309,25 +2309,25 @@
     <t xml:space="preserve">4.09086036682129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03910541534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05260610580444</t>
+    <t xml:space="preserve">4.0391058921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0526065826416</t>
   </si>
   <si>
     <t xml:space="preserve">4.00535202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93784618377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98510050773621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90184330940247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87709093093872</t>
+    <t xml:space="preserve">3.93784642219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98510003089905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90184354782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87709069252014</t>
   </si>
   <si>
     <t xml:space="preserve">3.78033256530762</t>
@@ -2336,19 +2336,19 @@
     <t xml:space="preserve">3.81858587265015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8095850944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78483295440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8838415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93109536170959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91309380531311</t>
+    <t xml:space="preserve">3.80958461761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78483247756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88384175300598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93109512329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91309404373169</t>
   </si>
   <si>
     <t xml:space="preserve">4.05935716629028</t>
@@ -2360,19 +2360,19 @@
     <t xml:space="preserve">4.09536027908325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9738495349884</t>
+    <t xml:space="preserve">3.97384977340698</t>
   </si>
   <si>
     <t xml:space="preserve">3.98285007476807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11336231231689</t>
+    <t xml:space="preserve">4.11336183547974</t>
   </si>
   <si>
     <t xml:space="preserve">4.06385707855225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99185109138489</t>
+    <t xml:space="preserve">3.99185085296631</t>
   </si>
   <si>
     <t xml:space="preserve">4.26862573623657</t>
@@ -2381,13 +2381,13 @@
     <t xml:space="preserve">4.26187515258789</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24387359619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52289724349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91443204879761</t>
+    <t xml:space="preserve">4.24387311935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52289819717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91443252563477</t>
   </si>
   <si>
     <t xml:space="preserve">5.08544731140137</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">5.23846054077148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26546335220337</t>
+    <t xml:space="preserve">5.26546287536621</t>
   </si>
   <si>
     <t xml:space="preserve">5.53098630905151</t>
@@ -2405,64 +2405,64 @@
     <t xml:space="preserve">5.3914737701416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29696607589722</t>
+    <t xml:space="preserve">5.29696655273438</t>
   </si>
   <si>
     <t xml:space="preserve">5.51298475265503</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60749244689941</t>
+    <t xml:space="preserve">5.60749292373657</t>
   </si>
   <si>
     <t xml:space="preserve">5.45898008346558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35997152328491</t>
+    <t xml:space="preserve">5.35997104644775</t>
   </si>
   <si>
     <t xml:space="preserve">5.38697385787964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17545509338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18445587158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26996374130249</t>
+    <t xml:space="preserve">5.17545557022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18445634841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26996326446533</t>
   </si>
   <si>
     <t xml:space="preserve">5.35547065734863</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25196170806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3779730796814</t>
+    <t xml:space="preserve">5.25196266174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37797260284424</t>
   </si>
   <si>
     <t xml:space="preserve">5.36447191238403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46348094940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59849214553833</t>
+    <t xml:space="preserve">5.4634804725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59849262237549</t>
   </si>
   <si>
     <t xml:space="preserve">5.62999534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8235125541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64349603652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67949962615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6254940032959</t>
+    <t xml:space="preserve">5.82351207733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6434965133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67949914932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62549448013306</t>
   </si>
   <si>
     <t xml:space="preserve">5.58049058914185</t>
@@ -2471,19 +2471,19 @@
     <t xml:space="preserve">5.61649370193481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70650196075439</t>
+    <t xml:space="preserve">5.70650243759155</t>
   </si>
   <si>
     <t xml:space="preserve">5.61199378967285</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7200026512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79650974273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94502305984497</t>
+    <t xml:space="preserve">5.72000312805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79651021957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94502258300781</t>
   </si>
   <si>
     <t xml:space="preserve">6.01702880859375</t>
@@ -2492,46 +2492,46 @@
     <t xml:space="preserve">6.11603784561157</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98102617263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8910174369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91802024841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13403940200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59758043289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9801139831543</t>
+    <t xml:space="preserve">5.98102569580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89101791381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91802072525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1340389251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59757995605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98011445999146</t>
   </si>
   <si>
     <t xml:space="preserve">7.07462215423584</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16012907028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47965812683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48415803909302</t>
+    <t xml:space="preserve">7.16012954711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4796576499939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48415851593018</t>
   </si>
   <si>
     <t xml:space="preserve">7.57866668701172</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7001781463623</t>
+    <t xml:space="preserve">7.70017862319946</t>
   </si>
   <si>
     <t xml:space="preserve">7.53816318511963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49315881729126</t>
+    <t xml:space="preserve">7.4931583404541</t>
   </si>
   <si>
     <t xml:space="preserve">7.04311895370483</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">7.15562868118286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29064130783081</t>
+    <t xml:space="preserve">7.29064178466797</t>
   </si>
   <si>
     <t xml:space="preserve">7.22763538360596</t>
@@ -2549,13 +2549,13 @@
     <t xml:space="preserve">7.16462993621826</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15112972259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9936146736145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02961874008179</t>
+    <t xml:space="preserve">7.1511287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99361562728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02961826324463</t>
   </si>
   <si>
     <t xml:space="preserve">7.14212799072266</t>
@@ -2564,34 +2564,34 @@
     <t xml:space="preserve">7.26813888549805</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25013780593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44365501403809</t>
+    <t xml:space="preserve">7.25013828277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44365453720093</t>
   </si>
   <si>
     <t xml:space="preserve">7.78118515014648</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72267913818359</t>
+    <t xml:space="preserve">7.72267770767212</t>
   </si>
   <si>
     <t xml:space="preserve">7.54266309738159</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43465375900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53366231918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2366361618042</t>
+    <t xml:space="preserve">7.434654712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53366327285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23663663864136</t>
   </si>
   <si>
     <t xml:space="preserve">7.32214403152466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99811506271362</t>
+    <t xml:space="preserve">6.99811553955078</t>
   </si>
   <si>
     <t xml:space="preserve">7.28614091873169</t>
@@ -2603,40 +2603,40 @@
     <t xml:space="preserve">7.17813110351562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0971245765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39865064620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30864238739014</t>
+    <t xml:space="preserve">7.09712409973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39865112304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30864286422729</t>
   </si>
   <si>
     <t xml:space="preserve">7.35814714431763</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38964986801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19163274765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05211973190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90810823440552</t>
+    <t xml:space="preserve">7.38964939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19163227081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05212020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9081072807312</t>
   </si>
   <si>
     <t xml:space="preserve">6.39956283569336</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40406274795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62458229064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67858743667603</t>
+    <t xml:space="preserve">6.40406322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62458276748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67858695983887</t>
   </si>
   <si>
     <t xml:space="preserve">6.60208034515381</t>
@@ -2645,13 +2645,13 @@
     <t xml:space="preserve">6.6515851020813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50307130813599</t>
+    <t xml:space="preserve">6.50307178497314</t>
   </si>
   <si>
     <t xml:space="preserve">6.90360736846924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77309513092041</t>
+    <t xml:space="preserve">6.77309560775757</t>
   </si>
   <si>
     <t xml:space="preserve">6.77759599685669</t>
@@ -2660,7 +2660,7 @@
     <t xml:space="preserve">6.71009016036987</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6830883026123</t>
+    <t xml:space="preserve">6.68308782577515</t>
   </si>
   <si>
     <t xml:space="preserve">6.56157684326172</t>
@@ -2669,13 +2669,13 @@
     <t xml:space="preserve">6.71459054946899</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64708423614502</t>
+    <t xml:space="preserve">6.64708518981934</t>
   </si>
   <si>
     <t xml:space="preserve">6.52107334136963</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01252794265747</t>
+    <t xml:space="preserve">6.01252841949463</t>
   </si>
   <si>
     <t xml:space="preserve">5.86401557922363</t>
@@ -2684,22 +2684,22 @@
     <t xml:space="preserve">5.68850040435791</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53998804092407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67049837112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62099409103394</t>
+    <t xml:space="preserve">5.53998756408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67049932479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62099361419678</t>
   </si>
   <si>
     <t xml:space="preserve">5.38247346878052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02694272994995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67141008377075</t>
+    <t xml:space="preserve">5.02694177627563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67141056060791</t>
   </si>
   <si>
     <t xml:space="preserve">4.51839733123779</t>
@@ -2708,37 +2708,37 @@
     <t xml:space="preserve">4.55890083312988</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13811349868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74882960319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60031676292419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26278686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16827845573425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12777519226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17052888870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38429713249207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92434573173523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79608392715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5508120059967</t>
+    <t xml:space="preserve">4.1381139755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74883008003235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60031652450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26278710365295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16827869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12777471542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17052912712097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3842978477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92434477806091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79608416557312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55081248283386</t>
   </si>
   <si>
     <t xml:space="preserve">3.44280290603638</t>
@@ -2750,22 +2750,22 @@
     <t xml:space="preserve">3.5553126335144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64532065391541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55981278419495</t>
+    <t xml:space="preserve">3.64532089233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55981302261353</t>
   </si>
   <si>
     <t xml:space="preserve">3.73082804679871</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67682361602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99635171890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96034812927246</t>
+    <t xml:space="preserve">3.67682313919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99635124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96034860610962</t>
   </si>
   <si>
     <t xml:space="preserve">4.30687856674194</t>
@@ -2774,31 +2774,31 @@
     <t xml:space="preserve">4.04585599899292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94234704971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09986019134521</t>
+    <t xml:space="preserve">3.9423463344574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09986066818237</t>
   </si>
   <si>
     <t xml:space="preserve">4.02335357666016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41038799285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37888431549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28437662124634</t>
+    <t xml:space="preserve">4.41038751602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37888479232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28437614440918</t>
   </si>
   <si>
     <t xml:space="preserve">4.19436883926392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18986845016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24837303161621</t>
+    <t xml:space="preserve">4.18986892700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24837350845337</t>
   </si>
   <si>
     <t xml:space="preserve">4.27987670898438</t>
@@ -2807,19 +2807,19 @@
     <t xml:space="preserve">4.23487234115601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23037147521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10436105728149</t>
+    <t xml:space="preserve">4.23037195205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10436058044434</t>
   </si>
   <si>
     <t xml:space="preserve">4.59040355682373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44639110565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40588760375977</t>
+    <t xml:space="preserve">4.44639158248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40588665008545</t>
   </si>
   <si>
     <t xml:space="preserve">4.31137943267822</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">4.34738206863403</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66915988922119</t>
+    <t xml:space="preserve">4.66916036605835</t>
   </si>
   <si>
     <t xml:space="preserve">4.87167835235596</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">4.96168565750122</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09669828414917</t>
+    <t xml:space="preserve">5.09669780731201</t>
   </si>
   <si>
     <t xml:space="preserve">5.14170217514038</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">5.3892240524292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25421190261841</t>
+    <t xml:space="preserve">5.25421237945557</t>
   </si>
   <si>
     <t xml:space="preserve">5.07419586181641</t>
@@ -2861,13 +2861,13 @@
     <t xml:space="preserve">4.84917593002319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93918466567993</t>
+    <t xml:space="preserve">4.93918514251709</t>
   </si>
   <si>
     <t xml:space="preserve">5.10794925689697</t>
   </si>
   <si>
-    <t xml:space="preserve">5.220458984375</t>
+    <t xml:space="preserve">5.22045946121216</t>
   </si>
   <si>
     <t xml:space="preserve">5.16420412063599</t>
@@ -2879,34 +2879,34 @@
     <t xml:space="preserve">5.11920022964478</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0629448890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05169486999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18670558929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15295314788818</t>
+    <t xml:space="preserve">5.06294536590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05169439315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18670606613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15295267105103</t>
   </si>
   <si>
     <t xml:space="preserve">5.00669002532959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83792495727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92793369293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02919292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97293758392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13045120239258</t>
+    <t xml:space="preserve">4.83792543411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92793321609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02919244766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97293710708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13045167922974</t>
   </si>
   <si>
     <t xml:space="preserve">4.98418855667114</t>
@@ -2915,13 +2915,13 @@
     <t xml:space="preserve">5.01794099807739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.040442943573</t>
+    <t xml:space="preserve">5.04044342041016</t>
   </si>
   <si>
     <t xml:space="preserve">5.2317099571228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24296092987061</t>
+    <t xml:space="preserve">5.24296140670776</t>
   </si>
   <si>
     <t xml:space="preserve">4.95043516159058</t>
@@ -2939,16 +2939,16 @@
     <t xml:space="preserve">4.8941798210144</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75916910171509</t>
+    <t xml:space="preserve">4.75916862487793</t>
   </si>
   <si>
     <t xml:space="preserve">4.8266749382019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90543174743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91668224334717</t>
+    <t xml:space="preserve">4.90543079376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91668272018433</t>
   </si>
   <si>
     <t xml:space="preserve">4.50039577484131</t>
@@ -2957,10 +2957,10 @@
     <t xml:space="preserve">4.1178617477417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14036417007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00985288619995</t>
+    <t xml:space="preserve">4.1403636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00985240936279</t>
   </si>
   <si>
     <t xml:space="preserve">4.22587156295776</t>
@@ -2975,10 +2975,10 @@
     <t xml:space="preserve">5.44547891616821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52423524856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65924787521362</t>
+    <t xml:space="preserve">5.52423572540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65924739837646</t>
   </si>
   <si>
     <t xml:space="preserve">5.63674592971802</t>
@@ -2990,19 +2990,19 @@
     <t xml:space="preserve">5.54673767089844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56923961639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7942590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60299253463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71550273895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04178142547607</t>
+    <t xml:space="preserve">5.56923913955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79425954818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60299205780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71550226211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04178190231323</t>
   </si>
   <si>
     <t xml:space="preserve">5.86176586151123</t>
@@ -3011,49 +3011,49 @@
     <t xml:space="preserve">5.85051441192627</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77175712585449</t>
+    <t xml:space="preserve">5.77175760269165</t>
   </si>
   <si>
     <t xml:space="preserve">5.81676149368286</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98552656173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08678483963013</t>
+    <t xml:space="preserve">5.9855260848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08678531646729</t>
   </si>
   <si>
     <t xml:space="preserve">6.01927900314331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05303192138672</t>
+    <t xml:space="preserve">6.05303239822388</t>
   </si>
   <si>
     <t xml:space="preserve">6.07553434371948</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9742751121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03053092956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10928726196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24429893493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21054649353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25555038452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36806011199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41306400299072</t>
+    <t xml:space="preserve">5.97427558898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03052997589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10928678512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24429941177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21054601669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25554943084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36805963516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41306352615356</t>
   </si>
   <si>
     <t xml:space="preserve">6.42431497573853</t>
@@ -3065,22 +3065,22 @@
     <t xml:space="preserve">6.49182081222534</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46931934356689</t>
+    <t xml:space="preserve">6.46931886672974</t>
   </si>
   <si>
     <t xml:space="preserve">6.51432323455811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3005542755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23304796218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35680913925171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18804407119751</t>
+    <t xml:space="preserve">6.30055379867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23304843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35680818557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18804454803467</t>
   </si>
   <si>
     <t xml:space="preserve">6.09803628921509</t>
@@ -3089,7 +3089,7 @@
     <t xml:space="preserve">6.31180477142334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39056158065796</t>
+    <t xml:space="preserve">6.39056205749512</t>
   </si>
   <si>
     <t xml:space="preserve">6.54807567596436</t>
@@ -3104,16 +3104,16 @@
     <t xml:space="preserve">6.63808393478394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57057809829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59308004379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66058588027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58182907104492</t>
+    <t xml:space="preserve">6.57057857513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59307956695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66058540344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58182859420776</t>
   </si>
   <si>
     <t xml:space="preserve">6.28930330276489</t>
@@ -3125,61 +3125,61 @@
     <t xml:space="preserve">6.22179698944092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27805137634277</t>
+    <t xml:space="preserve">6.27805233001709</t>
   </si>
   <si>
     <t xml:space="preserve">6.43556594848633</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7505931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65067291259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63942289352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1007137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03320598602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87569236755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85319185256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92069625854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88694381713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98820352554321</t>
+    <t xml:space="preserve">6.75059366226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65067338943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63942193984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10071277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03320693969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87569284439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85319042205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92069721221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88694334030151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98820161819458</t>
   </si>
   <si>
     <t xml:space="preserve">7.96570014953613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89819478988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86444139480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79693651199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94319868087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16821765899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15696620941162</t>
+    <t xml:space="preserve">7.89819383621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86444234848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79693555831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.943199634552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1682186126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15696716308594</t>
   </si>
   <si>
     <t xml:space="preserve">8.14571666717529</t>
@@ -3188,13 +3188,13 @@
     <t xml:space="preserve">8.1907205581665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13446521759033</t>
+    <t xml:space="preserve">8.13446617126465</t>
   </si>
   <si>
     <t xml:space="preserve">8.01070404052734</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97695207595825</t>
+    <t xml:space="preserve">7.97695255279541</t>
   </si>
   <si>
     <t xml:space="preserve">8.04445743560791</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">8.20197105407715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08946228027344</t>
+    <t xml:space="preserve">8.08946132659912</t>
   </si>
   <si>
     <t xml:space="preserve">8.0219554901123</t>
@@ -3212,25 +3212,25 @@
     <t xml:space="preserve">7.93194723129272</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0669584274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80818653106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8194375038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70692777633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78568458557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68442630767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72942972183228</t>
+    <t xml:space="preserve">8.06695938110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80818700790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81943702697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70692825317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78568410873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68442535400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72942924499512</t>
   </si>
   <si>
     <t xml:space="preserve">8.2357234954834</t>
@@ -3239,25 +3239,25 @@
     <t xml:space="preserve">9.00079154968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84327602386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04579448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31582069396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48623085021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44078826904297</t>
+    <t xml:space="preserve">8.84327793121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04579639434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31581878662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48622989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44078731536865</t>
   </si>
   <si>
     <t xml:space="preserve">9.99612808227539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92523384094238</t>
+    <t xml:space="preserve">9.92523288726807</t>
   </si>
   <si>
     <t xml:space="preserve">10.303337097168</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">10.5278367996216</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5514678955078</t>
+    <t xml:space="preserve">10.5514688491821</t>
   </si>
   <si>
     <t xml:space="preserve">10.7523365020752</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">10.7759675979614</t>
   </si>
   <si>
-    <t xml:space="preserve">10.728705406189</t>
+    <t xml:space="preserve">10.7287044525146</t>
   </si>
   <si>
     <t xml:space="preserve">10.5632848739624</t>
@@ -3296,10 +3296,10 @@
     <t xml:space="preserve">10.5987310409546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9768352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7050733566284</t>
+    <t xml:space="preserve">10.9768362045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7050724029541</t>
   </si>
   <si>
     <t xml:space="preserve">10.6105480194092</t>
@@ -3308,10 +3308,10 @@
     <t xml:space="preserve">10.3269691467285</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4923906326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6223630905151</t>
+    <t xml:space="preserve">10.4923896789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6223640441895</t>
   </si>
   <si>
     <t xml:space="preserve">10.2797060012817</t>
@@ -3320,16 +3320,16 @@
     <t xml:space="preserve">10.1733636856079</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2442588806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3742322921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.291522026062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3151531219482</t>
+    <t xml:space="preserve">10.2442598342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3742332458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2915210723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3151540756226</t>
   </si>
   <si>
     <t xml:space="preserve">10.3387851715088</t>
@@ -3338,13 +3338,13 @@
     <t xml:space="preserve">10.4805736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4451265335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7168893814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4096784591675</t>
+    <t xml:space="preserve">10.4451274871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7168884277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4096794128418</t>
   </si>
   <si>
     <t xml:space="preserve">10.2560758590698</t>
@@ -3353,16 +3353,16 @@
     <t xml:space="preserve">10.6459941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3978643417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.362416267395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4376497268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7590389251709</t>
+    <t xml:space="preserve">10.3978633880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3624153137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.437650680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7590379714966</t>
   </si>
   <si>
     <t xml:space="preserve">12.1673908233643</t>
@@ -3377,16 +3377,16 @@
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968482971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6815271377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8346605300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7023239135742</t>
+    <t xml:space="preserve">11.7968492507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6815280914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.834659576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7023229598999</t>
   </si>
   <si>
     <t xml:space="preserve">11.6077966690063</t>
@@ -3395,22 +3395,22 @@
     <t xml:space="preserve">11.5699863433838</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9102802276611</t>
+    <t xml:space="preserve">11.9102811813354</t>
   </si>
   <si>
     <t xml:space="preserve">11.6456069946289</t>
   </si>
   <si>
-    <t xml:space="preserve">11.721227645874</t>
+    <t xml:space="preserve">11.7212285995483</t>
   </si>
   <si>
     <t xml:space="preserve">12.3640050888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.118236541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3261947631836</t>
+    <t xml:space="preserve">12.1182374954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3261957168579</t>
   </si>
   <si>
     <t xml:space="preserve">12.3072900772095</t>
@@ -3422,10 +3422,10 @@
     <t xml:space="preserve">12.5719623565674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1560478210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2147397994995</t>
+    <t xml:space="preserve">12.1560468673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2147388458252</t>
   </si>
   <si>
     <t xml:space="preserve">13.9142322540283</t>
@@ -3440,7 +3440,7 @@
     <t xml:space="preserve">13.4416027069092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8008012771606</t>
+    <t xml:space="preserve">13.800802230835</t>
   </si>
   <si>
     <t xml:space="preserve">14.1221885681152</t>
@@ -3449,28 +3449,28 @@
     <t xml:space="preserve">14.027663230896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9540185928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3490514755249</t>
+    <t xml:space="preserve">14.9540176391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3490524291992</t>
   </si>
   <si>
     <t xml:space="preserve">14.0465679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7062740325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0654745101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7251815795898</t>
+    <t xml:space="preserve">13.7062749862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0654735565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7251806259155</t>
   </si>
   <si>
     <t xml:space="preserve">13.3281707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7610139846802</t>
+    <t xml:space="preserve">12.7610149383545</t>
   </si>
   <si>
     <t xml:space="preserve">13.2525501251221</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">13.3848867416382</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1769285202026</t>
+    <t xml:space="preserve">13.176929473877</t>
   </si>
   <si>
     <t xml:space="preserve">13.6684646606445</t>
@@ -3488,22 +3488,22 @@
     <t xml:space="preserve">13.1958341598511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3659811019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7649669647217</t>
+    <t xml:space="preserve">13.3659820556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7649660110474</t>
   </si>
   <si>
     <t xml:space="preserve">15.7858486175537</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8425626754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1261386871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9201602935791</t>
+    <t xml:space="preserve">15.8425636291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1261405944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9201583862305</t>
   </si>
   <si>
     <t xml:space="preserve">16.7311096191406</t>
@@ -3512,13 +3512,13 @@
     <t xml:space="preserve">16.9012546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6176776885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7122020721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3719081878662</t>
+    <t xml:space="preserve">16.61767578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7122039794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3719100952148</t>
   </si>
   <si>
     <t xml:space="preserve">16.1450462341309</t>
@@ -3527,13 +3527,13 @@
     <t xml:space="preserve">16.504243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3530025482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2584781646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614683151245</t>
+    <t xml:space="preserve">16.3530044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2584800720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614702224731</t>
   </si>
   <si>
     <t xml:space="preserve">15.8047523498535</t>
@@ -3545,10 +3545,10 @@
     <t xml:space="preserve">16.0883312225342</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1828594207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2375984191895</t>
+    <t xml:space="preserve">16.1828575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2375974655151</t>
   </si>
   <si>
     <t xml:space="preserve">14.7460622787476</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">13.630654335022</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2356214523315</t>
+    <t xml:space="preserve">14.2356204986572</t>
   </si>
   <si>
     <t xml:space="preserve">14.3679571151733</t>
@@ -3587,34 +3587,34 @@
     <t xml:space="preserve">14.4624834060669</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1032848358154</t>
+    <t xml:space="preserve">14.1032838821411</t>
   </si>
   <si>
     <t xml:space="preserve">14.084379196167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5550327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8386116027832</t>
+    <t xml:space="preserve">13.5550336837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8386106491089</t>
   </si>
   <si>
     <t xml:space="preserve">13.6873693466187</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6495590209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2734308242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4435777664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6137247085571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5948190689087</t>
+    <t xml:space="preserve">13.6495580673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2734317779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4435768127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6137256622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.594820022583</t>
   </si>
   <si>
     <t xml:space="preserve">14.4246730804443</t>
@@ -3623,10 +3623,10 @@
     <t xml:space="preserve">13.2336444854736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4226970672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3470754623413</t>
+    <t xml:space="preserve">13.4226961135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3470764160156</t>
   </si>
   <si>
     <t xml:space="preserve">13.7440853118896</t>
@@ -3638,31 +3638,31 @@
     <t xml:space="preserve">12.6664876937866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4794120788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7629909515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1013078689575</t>
+    <t xml:space="preserve">13.4794130325317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7629919052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1013088226318</t>
   </si>
   <si>
     <t xml:space="preserve">12.1749534606934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9122552871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6097736358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0993318557739</t>
+    <t xml:space="preserve">12.9122562408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6097726821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0993328094482</t>
   </si>
   <si>
     <t xml:space="preserve">12.4018154144287</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2127637863159</t>
+    <t xml:space="preserve">12.2127628326416</t>
   </si>
   <si>
     <t xml:space="preserve">11.9291858673096</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">11.8535652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2694797515869</t>
+    <t xml:space="preserve">12.2694787979126</t>
   </si>
   <si>
     <t xml:space="preserve">12.0426168441772</t>
@@ -3689,31 +3689,31 @@
     <t xml:space="preserve">11.0973558425903</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7381563186646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3620300292969</t>
+    <t xml:space="preserve">10.7381572723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3620290756226</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804271697998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6645126342773</t>
+    <t xml:space="preserve">11.6645135879517</t>
   </si>
   <si>
     <t xml:space="preserve">12.9500665664673</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0067825317383</t>
+    <t xml:space="preserve">13.006781578064</t>
   </si>
   <si>
     <t xml:space="preserve">13.0824031829834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5172233581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6212015151978</t>
+    <t xml:space="preserve">13.51722240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6212005615234</t>
   </si>
   <si>
     <t xml:space="preserve">13.6590118408203</t>
@@ -3722,28 +3722,28 @@
     <t xml:space="preserve">12.9973297119141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9406137466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7042999267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6759405136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7893724441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6192255020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.60032081604</t>
+    <t xml:space="preserve">12.9406147003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7042989730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6759414672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7893714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6192264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6003198623657</t>
   </si>
   <si>
     <t xml:space="preserve">12.7704668045044</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8933506011963</t>
+    <t xml:space="preserve">12.8933515548706</t>
   </si>
   <si>
     <t xml:space="preserve">12.7137517929077</t>
@@ -3755,7 +3755,7 @@
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286783218384</t>
+    <t xml:space="preserve">12.6286773681641</t>
   </si>
   <si>
     <t xml:space="preserve">12.0237112045288</t>
@@ -3767,25 +3767,25 @@
     <t xml:space="preserve">11.8630170822144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8063020706177</t>
+    <t xml:space="preserve">11.8063011169434</t>
   </si>
   <si>
     <t xml:space="preserve">11.5416288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8799457550049</t>
+    <t xml:space="preserve">10.8799467086792</t>
   </si>
   <si>
     <t xml:space="preserve">11.0028305053711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3431234359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8252067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834163665771</t>
+    <t xml:space="preserve">11.3431243896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8252077102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834173202515</t>
   </si>
   <si>
     <t xml:space="preserve">12.089879989624</t>
@@ -3797,31 +3797,31 @@
     <t xml:space="preserve">11.6518430709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8151407241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8247470855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9400177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.410701751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1129207611084</t>
+    <t xml:space="preserve">11.8151416778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8247480392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.940016746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4107007980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1129217147827</t>
   </si>
   <si>
     <t xml:space="preserve">11.920804977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0168628692627</t>
+    <t xml:space="preserve">12.016863822937</t>
   </si>
   <si>
     <t xml:space="preserve">12.2377967834473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050374984741</t>
+    <t xml:space="preserve">12.3050384521484</t>
   </si>
   <si>
     <t xml:space="preserve">12.4010953903198</t>
@@ -3833,7 +3833,7 @@
     <t xml:space="preserve">11.4116973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9890422821045</t>
+    <t xml:space="preserve">10.9890413284302</t>
   </si>
   <si>
     <t xml:space="preserve">10.7969255447388</t>
@@ -3842,16 +3842,16 @@
     <t xml:space="preserve">11.2964277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8161373138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0658884048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1235237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2676095962524</t>
+    <t xml:space="preserve">10.8161382675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0658893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1235227584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2676105499268</t>
   </si>
   <si>
     <t xml:space="preserve">11.1619462966919</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">11.7479000091553</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382955551147</t>
+    <t xml:space="preserve">11.7382946014404</t>
   </si>
   <si>
     <t xml:space="preserve">11.6134195327759</t>
@@ -3887,19 +3887,19 @@
     <t xml:space="preserve">12.6604528427124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8141460418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198083877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9678373336792</t>
+    <t xml:space="preserve">12.8141450881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198093414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9678382873535</t>
   </si>
   <si>
     <t xml:space="preserve">12.823751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.804539680481</t>
+    <t xml:space="preserve">12.8045387268066</t>
   </si>
   <si>
     <t xml:space="preserve">13.0446844100952</t>
@@ -3908,7 +3908,7 @@
     <t xml:space="preserve">13.1311368942261</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2848300933838</t>
+    <t xml:space="preserve">13.2848291397095</t>
   </si>
   <si>
     <t xml:space="preserve">13.4577341079712</t>
@@ -3917,13 +3917,13 @@
     <t xml:space="preserve">13.7651205062866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9188117980957</t>
+    <t xml:space="preserve">13.91881275177</t>
   </si>
   <si>
     <t xml:space="preserve">13.8611783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9092073440552</t>
+    <t xml:space="preserve">13.9092063903809</t>
   </si>
   <si>
     <t xml:space="preserve">14.0052652359009</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">13.957236289978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0436887741089</t>
+    <t xml:space="preserve">14.0436878204346</t>
   </si>
   <si>
     <t xml:space="preserve">13.976448059082</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">13.938024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6018209457397</t>
+    <t xml:space="preserve">13.6018218994141</t>
   </si>
   <si>
     <t xml:space="preserve">13.2752237319946</t>
@@ -3971,31 +3971,31 @@
     <t xml:space="preserve">13.1983766555786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1023187637329</t>
+    <t xml:space="preserve">13.1023197174072</t>
   </si>
   <si>
     <t xml:space="preserve">13.3232526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3040409088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3424644470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1503477096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0062618255615</t>
+    <t xml:space="preserve">13.3040418624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3424654006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1503486633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0062608718872</t>
   </si>
   <si>
     <t xml:space="preserve">12.7372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1695594787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.862174987793</t>
+    <t xml:space="preserve">13.1695604324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8621740341187</t>
   </si>
   <si>
     <t xml:space="preserve">12.8525686264038</t>
@@ -4010,7 +4010,7 @@
     <t xml:space="preserve">12.372278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0841035842896</t>
+    <t xml:space="preserve">12.0841045379639</t>
   </si>
   <si>
     <t xml:space="preserve">11.9496221542358</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">11.3444566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7873191833496</t>
+    <t xml:space="preserve">10.7873201370239</t>
   </si>
   <si>
     <t xml:space="preserve">10.7777147293091</t>
@@ -4037,10 +4037,10 @@
     <t xml:space="preserve">10.7296848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8929843902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6240215301514</t>
+    <t xml:space="preserve">10.8929834365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6240224838257</t>
   </si>
   <si>
     <t xml:space="preserve">11.2195816040039</t>
@@ -4055,16 +4055,16 @@
     <t xml:space="preserve">11.3636684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1907644271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9025907516479</t>
+    <t xml:space="preserve">11.1907634735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9025897979736</t>
   </si>
   <si>
     <t xml:space="preserve">11.0274648666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2099752426147</t>
+    <t xml:space="preserve">11.2099761962891</t>
   </si>
   <si>
     <t xml:space="preserve">11.5749959945679</t>
@@ -4073,7 +4073,7 @@
     <t xml:space="preserve">11.5365724563599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1321334838867</t>
+    <t xml:space="preserve">12.1321325302124</t>
   </si>
   <si>
     <t xml:space="preserve">12.2570085525513</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">12.0072574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3818845748901</t>
+    <t xml:space="preserve">12.3818836212158</t>
   </si>
   <si>
     <t xml:space="preserve">12.3914890289307</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">13.0158672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791658401489</t>
+    <t xml:space="preserve">13.1791667938232</t>
   </si>
   <si>
     <t xml:space="preserve">12.9582328796387</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">12.7469053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0542898178101</t>
+    <t xml:space="preserve">13.0542907714844</t>
   </si>
   <si>
     <t xml:space="preserve">13.3328590393066</t>
@@ -4130,25 +4130,25 @@
     <t xml:space="preserve">13.8131494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2165927886963</t>
+    <t xml:space="preserve">14.2165937423706</t>
   </si>
   <si>
     <t xml:space="preserve">14.1109285354614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284181594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6210336685181</t>
+    <t xml:space="preserve">13.9284191131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6210327148438</t>
   </si>
   <si>
     <t xml:space="preserve">13.7747259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8419666290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0244770050049</t>
+    <t xml:space="preserve">13.841965675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0244779586792</t>
   </si>
   <si>
     <t xml:space="preserve">14.5720081329346</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">13.8515720367432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6402444839478</t>
+    <t xml:space="preserve">13.6402435302734</t>
   </si>
   <si>
     <t xml:space="preserve">13.5441865921021</t>
@@ -4196,7 +4196,7 @@
     <t xml:space="preserve">14.0628995895386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0340824127197</t>
+    <t xml:space="preserve">14.0340814590454</t>
   </si>
   <si>
     <t xml:space="preserve">14.370285987854</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">14.312650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.389497756958</t>
+    <t xml:space="preserve">14.3894968032837</t>
   </si>
   <si>
     <t xml:space="preserve">14.0821113586426</t>
@@ -4220,25 +4220,25 @@
     <t xml:space="preserve">13.7170906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3991022109985</t>
+    <t xml:space="preserve">14.3991031646729</t>
   </si>
   <si>
     <t xml:space="preserve">14.8793926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1003274917603</t>
+    <t xml:space="preserve">15.1003265380859</t>
   </si>
   <si>
     <t xml:space="preserve">15.1675672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">15.350076675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3404731750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0234804153442</t>
+    <t xml:space="preserve">15.3500776290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3404722213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0234813690186</t>
   </si>
   <si>
     <t xml:space="preserve">15.0522985458374</t>
@@ -4256,7 +4256,7 @@
     <t xml:space="preserve">15.0619039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1291446685791</t>
+    <t xml:space="preserve">15.1291437149048</t>
   </si>
   <si>
     <t xml:space="preserve">15.0907211303711</t>
@@ -4268,13 +4268,13 @@
     <t xml:space="preserve">14.9850578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1387510299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0138740539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.196385383606</t>
+    <t xml:space="preserve">15.1387500762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0138750076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1963844299316</t>
   </si>
   <si>
     <t xml:space="preserve">15.4365301132202</t>
@@ -4283,7 +4283,7 @@
     <t xml:space="preserve">15.3116540908813</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2155961990356</t>
+    <t xml:space="preserve">15.21559715271</t>
   </si>
   <si>
     <t xml:space="preserve">15.4557418823242</t>
@@ -4292,25 +4292,25 @@
     <t xml:space="preserve">14.68727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4855556488037</t>
+    <t xml:space="preserve">14.4855546951294</t>
   </si>
   <si>
     <t xml:space="preserve">14.8121528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922145843506</t>
+    <t xml:space="preserve">13.5922155380249</t>
   </si>
   <si>
     <t xml:space="preserve">11.7671117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6230249404907</t>
+    <t xml:space="preserve">11.623025894165</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5173616409302</t>
+    <t xml:space="preserve">11.5173606872559</t>
   </si>
   <si>
     <t xml:space="preserve">11.526967048645</t>
@@ -4337,13 +4337,13 @@
     <t xml:space="preserve">11.3540620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.469331741333</t>
+    <t xml:space="preserve">11.4693326950073</t>
   </si>
   <si>
     <t xml:space="preserve">11.2387933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3252458572388</t>
+    <t xml:space="preserve">11.3252449035645</t>
   </si>
   <si>
     <t xml:space="preserve">11.2772159576416</t>
@@ -4352,7 +4352,7 @@
     <t xml:space="preserve">11.113917350769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2003688812256</t>
+    <t xml:space="preserve">11.2003698348999</t>
   </si>
   <si>
     <t xml:space="preserve">11.1427354812622</t>
@@ -4379,7 +4379,7 @@
     <t xml:space="preserve">10.6432332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5663871765137</t>
+    <t xml:space="preserve">10.5663862228394</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452299118042</t>
@@ -5091,6 +5091,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1999998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1000003814697</t>
   </si>
 </sst>
 </file>
@@ -61982,7 +61985,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6494444444</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>116972</v>
@@ -62003,6 +62006,32 @@
         <v>1692</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6504050926</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>101243</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>10.1199998855591</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>9.90999984741211</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>10.1099996566772</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>10.1000003814697</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1697">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06393694877625</t>
+    <t xml:space="preserve">2.06393718719482</t>
   </si>
   <si>
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11351323127747</t>
+    <t xml:space="preserve">2.11351299285889</t>
   </si>
   <si>
     <t xml:space="preserve">2.09785771369934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06132769584656</t>
+    <t xml:space="preserve">2.06132793426514</t>
   </si>
   <si>
     <t xml:space="preserve">2.03784441947937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98826801776886</t>
+    <t xml:space="preserve">1.98826777935028</t>
   </si>
   <si>
     <t xml:space="preserve">2.02740693092346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01696991920471</t>
+    <t xml:space="preserve">2.01697015762329</t>
   </si>
   <si>
     <t xml:space="preserve">1.93086361885071</t>
@@ -71,49 +71,49 @@
     <t xml:space="preserve">1.95539093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93034207820892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98304915428162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98200583457947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96739375591278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96687185764313</t>
+    <t xml:space="preserve">1.93034195899963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98304963111877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98200559616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96739387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96687197685242</t>
   </si>
   <si>
     <t xml:space="preserve">2.0242760181427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97052466869354</t>
+    <t xml:space="preserve">1.97052478790283</t>
   </si>
   <si>
     <t xml:space="preserve">1.98409307003021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94391000270844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86563193798065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89433419704437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90581488609314</t>
+    <t xml:space="preserve">1.9439103603363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86563205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89433407783508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90581476688385</t>
   </si>
   <si>
     <t xml:space="preserve">1.88128769397736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89955246448517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88389694690704</t>
+    <t xml:space="preserve">1.89955258369446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88389682769775</t>
   </si>
   <si>
     <t xml:space="preserve">1.91259908676147</t>
@@ -122,37 +122,37 @@
     <t xml:space="preserve">1.9219925403595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9099897146225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05610942840576</t>
+    <t xml:space="preserve">1.90998983383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05610918998718</t>
   </si>
   <si>
     <t xml:space="preserve">2.0352349281311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04828095436096</t>
+    <t xml:space="preserve">2.0482816696167</t>
   </si>
   <si>
     <t xml:space="preserve">2.05819654464722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13438749313354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07176470756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10255455970764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06654644012451</t>
+    <t xml:space="preserve">2.1343879699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07176494598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10255408287048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06654620170593</t>
   </si>
   <si>
     <t xml:space="preserve">2.10725116729736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10829472541809</t>
+    <t xml:space="preserve">2.10829496383667</t>
   </si>
   <si>
     <t xml:space="preserve">2.11612248420715</t>
@@ -164,43 +164,43 @@
     <t xml:space="preserve">2.11403512954712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13073468208313</t>
+    <t xml:space="preserve">2.13073420524597</t>
   </si>
   <si>
     <t xml:space="preserve">2.14482402801514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18396377563477</t>
+    <t xml:space="preserve">2.18396353721619</t>
   </si>
   <si>
     <t xml:space="preserve">2.11873197555542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10777258872986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09263920783997</t>
+    <t xml:space="preserve">2.10777282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09263896942139</t>
   </si>
   <si>
     <t xml:space="preserve">2.0691556930542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05089068412781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03627824783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08481121063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10307645797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08742022514343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07698345184326</t>
+    <t xml:space="preserve">2.05089020729065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03627872467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0848114490509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10307621955872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08742070198059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07698321342468</t>
   </si>
   <si>
     <t xml:space="preserve">2.03001618385315</t>
@@ -209,13 +209,13 @@
     <t xml:space="preserve">2.01749181747437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03262567520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03314733505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08168029785156</t>
+    <t xml:space="preserve">2.03262591362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03314757347107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08167958259583</t>
   </si>
   <si>
     <t xml:space="preserve">2.08794236183167</t>
@@ -224,10 +224,10 @@
     <t xml:space="preserve">2.12395024299622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11821007728577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13960576057434</t>
+    <t xml:space="preserve">2.11820983886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13960599899292</t>
   </si>
   <si>
     <t xml:space="preserve">2.20483779907227</t>
@@ -236,28 +236,28 @@
     <t xml:space="preserve">2.21266579627991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25441384315491</t>
+    <t xml:space="preserve">2.25441408157349</t>
   </si>
   <si>
     <t xml:space="preserve">2.21840596199036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1860511302948</t>
+    <t xml:space="preserve">2.18605065345764</t>
   </si>
   <si>
     <t xml:space="preserve">2.17613577842712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18657302856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20744729042053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1923131942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28050661087036</t>
+    <t xml:space="preserve">2.18657326698303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20744705200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19231367111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28050684928894</t>
   </si>
   <si>
     <t xml:space="preserve">2.30816507339478</t>
@@ -266,13 +266,13 @@
     <t xml:space="preserve">2.28572535514832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40679550170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45950365066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47411513328552</t>
+    <t xml:space="preserve">2.40679597854614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45950317382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47411465644836</t>
   </si>
   <si>
     <t xml:space="preserve">2.52108216285706</t>
@@ -281,19 +281,19 @@
     <t xml:space="preserve">2.48611783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57013654708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61934590339661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62095046043396</t>
+    <t xml:space="preserve">2.57013630867004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61934614181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62095069885254</t>
   </si>
   <si>
     <t xml:space="preserve">2.65464878082275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64127659797668</t>
+    <t xml:space="preserve">2.64127635955811</t>
   </si>
   <si>
     <t xml:space="preserve">2.67443943023682</t>
@@ -302,70 +302,70 @@
     <t xml:space="preserve">2.74504470825195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76643991470337</t>
+    <t xml:space="preserve">2.76644039154053</t>
   </si>
   <si>
     <t xml:space="preserve">2.9076509475708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93760395050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95044183731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8948130607605</t>
+    <t xml:space="preserve">2.93760442733765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95044159889221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89481329917908</t>
   </si>
   <si>
     <t xml:space="preserve">2.79211497306824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86699914932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85630178451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84774327278137</t>
+    <t xml:space="preserve">2.86699891090393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85630130767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84774303436279</t>
   </si>
   <si>
     <t xml:space="preserve">2.77071928977966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71723031997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6894166469574</t>
+    <t xml:space="preserve">2.71723055839539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68941617012024</t>
   </si>
   <si>
     <t xml:space="preserve">2.64876508712769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73862600326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81564998626709</t>
+    <t xml:space="preserve">2.7386257648468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81564974784851</t>
   </si>
   <si>
     <t xml:space="preserve">2.93118572235107</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79853367805481</t>
+    <t xml:space="preserve">2.79853320121765</t>
   </si>
   <si>
     <t xml:space="preserve">2.72792840003967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81351041793823</t>
+    <t xml:space="preserve">2.81351017951965</t>
   </si>
   <si>
     <t xml:space="preserve">2.86913871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92048811912537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93974375724792</t>
+    <t xml:space="preserve">2.92048788070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9397439956665</t>
   </si>
   <si>
     <t xml:space="preserve">2.92262744903564</t>
@@ -374,31 +374,31 @@
     <t xml:space="preserve">2.94616270065308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92690634727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98253488540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99537229537964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01676821708679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10234999656677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24142074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24997854232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2842116355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23500227928162</t>
+    <t xml:space="preserve">2.92690682411194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98253512382507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99537205696106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01676797866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10234951972961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24142050743103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24997878074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28421187400818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2350025177002</t>
   </si>
   <si>
     <t xml:space="preserve">3.23072290420532</t>
@@ -407,28 +407,28 @@
     <t xml:space="preserve">3.20504832267761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18793177604675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2328622341156</t>
+    <t xml:space="preserve">3.18793201446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23286271095276</t>
   </si>
   <si>
     <t xml:space="preserve">3.22216486930847</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2007691860199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20932745933533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11946606636047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19862961769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20290899276733</t>
+    <t xml:space="preserve">3.20076894760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20932769775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11946630477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19862937927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20290923118591</t>
   </si>
   <si>
     <t xml:space="preserve">3.27351403236389</t>
@@ -437,13 +437,13 @@
     <t xml:space="preserve">3.29276990890503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28635120391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26709580421448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22858333587646</t>
+    <t xml:space="preserve">3.28635144233704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26709532737732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22858309745789</t>
   </si>
   <si>
     <t xml:space="preserve">3.2157461643219</t>
@@ -452,31 +452,31 @@
     <t xml:space="preserve">3.29490947723389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2628161907196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22002506256104</t>
+    <t xml:space="preserve">3.26281642913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22002530097961</t>
   </si>
   <si>
     <t xml:space="preserve">3.25639772415161</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25211811065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09593105316162</t>
+    <t xml:space="preserve">3.2521185874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0959312915802</t>
   </si>
   <si>
     <t xml:space="preserve">3.13444304466248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15369892120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1943507194519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14514088630676</t>
+    <t xml:space="preserve">3.15369915962219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19435095787048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14514112472534</t>
   </si>
   <si>
     <t xml:space="preserve">3.16653633117676</t>
@@ -488,28 +488,28 @@
     <t xml:space="preserve">3.27565383911133</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20718765258789</t>
+    <t xml:space="preserve">3.20718812942505</t>
   </si>
   <si>
     <t xml:space="preserve">3.14942002296448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31416511535645</t>
+    <t xml:space="preserve">3.31416535377502</t>
   </si>
   <si>
     <t xml:space="preserve">3.37193369865417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53026008605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61584234237671</t>
+    <t xml:space="preserve">3.53026032447815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61584258079529</t>
   </si>
   <si>
     <t xml:space="preserve">3.72067999839783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84049510955811</t>
+    <t xml:space="preserve">3.84049487113953</t>
   </si>
   <si>
     <t xml:space="preserve">3.94105434417725</t>
@@ -518,28 +518,28 @@
     <t xml:space="preserve">4.02235698699951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92607712745667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88970518112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04375267028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12077665328979</t>
+    <t xml:space="preserve">3.92607736587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88970470428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04375219345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12077617645264</t>
   </si>
   <si>
     <t xml:space="preserve">4.26198720932007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16142845153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18924188613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39677810668945</t>
+    <t xml:space="preserve">4.16142797470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18924236297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39677858352661</t>
   </si>
   <si>
     <t xml:space="preserve">4.60859441757202</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">4.57650089263916</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56580305099487</t>
+    <t xml:space="preserve">4.56580257415771</t>
   </si>
   <si>
     <t xml:space="preserve">4.6770601272583</t>
@@ -557,16 +557,16 @@
     <t xml:space="preserve">4.86747980117798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85678243637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63854837417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65994453430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65566444396973</t>
+    <t xml:space="preserve">4.85678291320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63854885101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65994358062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65566492080688</t>
   </si>
   <si>
     <t xml:space="preserve">4.56366348266602</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">4.29835891723633</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2748236656189</t>
+    <t xml:space="preserve">4.27482414245605</t>
   </si>
   <si>
     <t xml:space="preserve">4.26626586914062</t>
@@ -587,13 +587,13 @@
     <t xml:space="preserve">4.15500926971436</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1186375617981</t>
+    <t xml:space="preserve">4.11863708496094</t>
   </si>
   <si>
     <t xml:space="preserve">4.01807832717896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15286922454834</t>
+    <t xml:space="preserve">4.1528697013855</t>
   </si>
   <si>
     <t xml:space="preserve">4.17212581634521</t>
@@ -602,52 +602,52 @@
     <t xml:space="preserve">4.28980112075806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27910280227661</t>
+    <t xml:space="preserve">4.27910375595093</t>
   </si>
   <si>
     <t xml:space="preserve">4.26412630081177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57863998413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55724573135376</t>
+    <t xml:space="preserve">4.57864141464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55724477767944</t>
   </si>
   <si>
     <t xml:space="preserve">4.55510568618774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53585004806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56794214248657</t>
+    <t xml:space="preserve">4.53584957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56794261932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.64068794250488</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51445436477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58291912078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5101752281189</t>
+    <t xml:space="preserve">4.51445388793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58292007446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51017475128174</t>
   </si>
   <si>
     <t xml:space="preserve">4.43315076828003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44598913192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65138530731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56152439117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70273447036743</t>
+    <t xml:space="preserve">4.44598865509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65138483047485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56152391433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70273494720459</t>
   </si>
   <si>
     <t xml:space="preserve">4.69203662872314</t>
@@ -659,10 +659,10 @@
     <t xml:space="preserve">4.68347883224487</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01082992553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29325103759766</t>
+    <t xml:space="preserve">5.01082944869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29325151443481</t>
   </si>
   <si>
     <t xml:space="preserve">5.19911050796509</t>
@@ -677,67 +677,67 @@
     <t xml:space="preserve">5.13706350326538</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11352825164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94878244400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02152729034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13492393493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18413352966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21836566925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08143520355225</t>
+    <t xml:space="preserve">5.11352872848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9487829208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0215277671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13492298126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18413305282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21836614608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08143472671509</t>
   </si>
   <si>
     <t xml:space="preserve">5.05576038360596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97445726394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82468891143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00227212905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95306253433228</t>
+    <t xml:space="preserve">4.97445774078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82468843460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00227165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95306205749512</t>
   </si>
   <si>
     <t xml:space="preserve">5.02580690383911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01296997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00441122055054</t>
+    <t xml:space="preserve">5.01296949386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0044116973877</t>
   </si>
   <si>
     <t xml:space="preserve">5.0386438369751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02794599533081</t>
+    <t xml:space="preserve">5.02794647216797</t>
   </si>
   <si>
     <t xml:space="preserve">4.95734119415283</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87175989151001</t>
+    <t xml:space="preserve">4.87175941467285</t>
   </si>
   <si>
     <t xml:space="preserve">4.94022512435913</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9017128944397</t>
+    <t xml:space="preserve">4.90171337127686</t>
   </si>
   <si>
     <t xml:space="preserve">4.80115413665771</t>
@@ -746,10 +746,10 @@
     <t xml:space="preserve">4.78189754486084</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77120018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76264238357544</t>
+    <t xml:space="preserve">4.77119970321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76264190673828</t>
   </si>
   <si>
     <t xml:space="preserve">4.71771097183228</t>
@@ -758,28 +758,28 @@
     <t xml:space="preserve">4.65352487564087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70701265335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66208362579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67492008209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60003566741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73696756362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83324718475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04934215545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99585294723511</t>
+    <t xml:space="preserve">4.7070140838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6620831489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67492055892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60003614425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73696804046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83324813842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0493426322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99585390090942</t>
   </si>
   <si>
     <t xml:space="preserve">5.10711002349854</t>
@@ -788,16 +788,16 @@
     <t xml:space="preserve">5.03008604049683</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00655126571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20980834960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29111099243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3232045173645</t>
+    <t xml:space="preserve">5.00655078887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20980882644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29111194610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32320499420166</t>
   </si>
   <si>
     <t xml:space="preserve">5.45585680007935</t>
@@ -809,28 +809,28 @@
     <t xml:space="preserve">5.54143857955933</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74255657196045</t>
+    <t xml:space="preserve">5.74255609512329</t>
   </si>
   <si>
     <t xml:space="preserve">5.80888271331787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84097623825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00786066055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71260356903076</t>
+    <t xml:space="preserve">5.84097576141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00786018371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71260261535645</t>
   </si>
   <si>
     <t xml:space="preserve">5.77678966522217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65911388397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66339302062988</t>
+    <t xml:space="preserve">5.65911483764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66339349746704</t>
   </si>
   <si>
     <t xml:space="preserve">5.78748750686646</t>
@@ -842,25 +842,25 @@
     <t xml:space="preserve">5.87306928634644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99074459075928</t>
+    <t xml:space="preserve">5.99074411392212</t>
   </si>
   <si>
     <t xml:space="preserve">5.84525489807129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88590669631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90088367462158</t>
+    <t xml:space="preserve">5.88590621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90088319778442</t>
   </si>
   <si>
     <t xml:space="preserve">5.88376712799072</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93725633621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95223331451416</t>
+    <t xml:space="preserve">5.937255859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.952232837677</t>
   </si>
   <si>
     <t xml:space="preserve">5.97790718078613</t>
@@ -872,28 +872,28 @@
     <t xml:space="preserve">5.9693489074707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03353643417358</t>
+    <t xml:space="preserve">6.03353595733643</t>
   </si>
   <si>
     <t xml:space="preserve">6.31167697906494</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15977001190186</t>
+    <t xml:space="preserve">6.1597695350647</t>
   </si>
   <si>
     <t xml:space="preserve">6.4165153503418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42935180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47428417205811</t>
+    <t xml:space="preserve">6.42935276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47428369522095</t>
   </si>
   <si>
     <t xml:space="preserve">6.6860990524292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78237915039062</t>
+    <t xml:space="preserve">6.78237867355347</t>
   </si>
   <si>
     <t xml:space="preserve">6.88935661315918</t>
@@ -902,16 +902,16 @@
     <t xml:space="preserve">6.94284534454346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99419403076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19317293167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00703191757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09903287887573</t>
+    <t xml:space="preserve">6.99419450759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19317245483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00703144073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09903192520142</t>
   </si>
   <si>
     <t xml:space="preserve">7.09689283370972</t>
@@ -920,16 +920,16 @@
     <t xml:space="preserve">6.989914894104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16749811172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24880075454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23596286773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15893888473511</t>
+    <t xml:space="preserve">7.1674976348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24880170822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23596382141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15893983840942</t>
   </si>
   <si>
     <t xml:space="preserve">7.17819547653198</t>
@@ -938,22 +938,22 @@
     <t xml:space="preserve">7.07121753692627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35446834564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11911773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36088705062866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29028177261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49781847000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38442277908325</t>
+    <t xml:space="preserve">6.35446882247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11911821365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3608865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29028224945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49781799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38442230224609</t>
   </si>
   <si>
     <t xml:space="preserve">6.41009664535522</t>
@@ -965,16 +965,16 @@
     <t xml:space="preserve">6.41154718399048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4484076499939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49827766418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43539762496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34216260910034</t>
+    <t xml:space="preserve">6.44840717315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49827718734741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43539810180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3421630859375</t>
   </si>
   <si>
     <t xml:space="preserve">6.44407081604004</t>
@@ -983,31 +983,31 @@
     <t xml:space="preserve">6.79749822616577</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64571952819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70426273345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30530261993408</t>
+    <t xml:space="preserve">6.64571905136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70426225662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30530214309692</t>
   </si>
   <si>
     <t xml:space="preserve">6.47009038925171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39203214645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30963945388794</t>
+    <t xml:space="preserve">6.39203310012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30963850021362</t>
   </si>
   <si>
     <t xml:space="preserve">6.37468719482422</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24675941467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22507619857788</t>
+    <t xml:space="preserve">6.24675893783569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2250771522522</t>
   </si>
   <si>
     <t xml:space="preserve">6.32264852523804</t>
@@ -1016,22 +1016,22 @@
     <t xml:space="preserve">6.21857166290283</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22290802001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26410579681396</t>
+    <t xml:space="preserve">6.22290849685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26410531997681</t>
   </si>
   <si>
     <t xml:space="preserve">6.05378437042236</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03643798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03210115432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85430479049683</t>
+    <t xml:space="preserve">6.03643846511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03210163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85430431365967</t>
   </si>
   <si>
     <t xml:space="preserve">5.81093835830688</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">5.80009794235229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83478927612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68518018722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85647296905518</t>
+    <t xml:space="preserve">5.83479022979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68517971038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85647201538086</t>
   </si>
   <si>
     <t xml:space="preserve">5.81744384765625</t>
@@ -1055,10 +1055,10 @@
     <t xml:space="preserve">5.83045291900635</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8391261100769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73505020141602</t>
+    <t xml:space="preserve">5.83912658691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73505067825317</t>
   </si>
   <si>
     <t xml:space="preserve">5.74589109420776</t>
@@ -1067,13 +1067,13 @@
     <t xml:space="preserve">5.88465976715088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59844970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41197919845581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37511873245239</t>
+    <t xml:space="preserve">5.59844923019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41197824478149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37511920928955</t>
   </si>
   <si>
     <t xml:space="preserve">5.51171875</t>
@@ -1082,85 +1082,85 @@
     <t xml:space="preserve">5.63747835159302</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66132831573486</t>
+    <t xml:space="preserve">5.66132926940918</t>
   </si>
   <si>
     <t xml:space="preserve">5.78925609588623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61579608917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62230062484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49437284469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46184873580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.292724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44883918762207</t>
+    <t xml:space="preserve">5.61579513549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62230014801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4943733215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46184921264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29272413253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44883871078491</t>
   </si>
   <si>
     <t xml:space="preserve">5.34909915924072</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35560464859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30573415756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32524824142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39680004119873</t>
+    <t xml:space="preserve">5.35560417175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3057336807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32524871826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39680147171021</t>
   </si>
   <si>
     <t xml:space="preserve">5.46401739120483</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38595962524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43149375915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36427736282349</t>
+    <t xml:space="preserve">5.3859601020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43149328231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36427783966064</t>
   </si>
   <si>
     <t xml:space="preserve">5.31874370574951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3946328163147</t>
+    <t xml:space="preserve">5.39463329315186</t>
   </si>
   <si>
     <t xml:space="preserve">5.47268962860107</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63964557647705</t>
+    <t xml:space="preserve">5.63964653015137</t>
   </si>
   <si>
     <t xml:space="preserve">5.56592559814453</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7025260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76757383346558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63097286224365</t>
+    <t xml:space="preserve">5.70252561569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76757335662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63097333908081</t>
   </si>
   <si>
     <t xml:space="preserve">5.98006296157837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86514520645142</t>
+    <t xml:space="preserve">5.86514568328857</t>
   </si>
   <si>
     <t xml:space="preserve">5.70469379425049</t>
@@ -1169,31 +1169,31 @@
     <t xml:space="preserve">5.53990650177002</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46835422515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42498874664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38379144668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3989691734314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26887321472168</t>
+    <t xml:space="preserve">5.46835327148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42498826980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38379096984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39896965026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26887369155884</t>
   </si>
   <si>
     <t xml:space="preserve">5.20599412918091</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13877773284912</t>
+    <t xml:space="preserve">5.13877820968628</t>
   </si>
   <si>
     <t xml:space="preserve">5.14961910247803</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16262817382812</t>
+    <t xml:space="preserve">5.16262912750244</t>
   </si>
   <si>
     <t xml:space="preserve">5.32091236114502</t>
@@ -1202,19 +1202,19 @@
     <t xml:space="preserve">5.30356597900391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1864800453186</t>
+    <t xml:space="preserve">5.18647956848145</t>
   </si>
   <si>
     <t xml:space="preserve">5.13227319717407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05204725265503</t>
+    <t xml:space="preserve">5.05204772949219</t>
   </si>
   <si>
     <t xml:space="preserve">5.03036546707153</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11709547042847</t>
+    <t xml:space="preserve">5.11709642410278</t>
   </si>
   <si>
     <t xml:space="preserve">5.07806634902954</t>
@@ -1223,16 +1223,16 @@
     <t xml:space="preserve">5.04337453842163</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04771089553833</t>
+    <t xml:space="preserve">5.04771137237549</t>
   </si>
   <si>
     <t xml:space="preserve">4.95013952255249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91978454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.878586769104</t>
+    <t xml:space="preserve">4.91978406906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87858724594116</t>
   </si>
   <si>
     <t xml:space="preserve">4.8720817565918</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">5.10408639907837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18431186676025</t>
+    <t xml:space="preserve">5.1843113899231</t>
   </si>
   <si>
     <t xml:space="preserve">5.13444137573242</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15395545959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02819633483887</t>
+    <t xml:space="preserve">5.15395593643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02819728851318</t>
   </si>
   <si>
     <t xml:space="preserve">4.94363451004028</t>
@@ -1265,64 +1265,64 @@
     <t xml:space="preserve">4.78751945495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64441442489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62923717498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57069444656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84606313705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12793684005737</t>
+    <t xml:space="preserve">4.6444149017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62923669815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5706934928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84606266021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12793636322021</t>
   </si>
   <si>
     <t xml:space="preserve">5.5073823928833</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71119928359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74372339248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66783380508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8022665977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76323699951172</t>
+    <t xml:space="preserve">5.7111988067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74372291564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66783332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80226564407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76323747634888</t>
   </si>
   <si>
     <t xml:space="preserve">5.67650699615479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71770334243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55508470535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54207515716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60061740875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.487868309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91935253143311</t>
+    <t xml:space="preserve">5.7177038192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55508422851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54207468032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6006178855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48786783218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91935157775879</t>
   </si>
   <si>
     <t xml:space="preserve">6.08630800247192</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9583797454834</t>
+    <t xml:space="preserve">5.95838069915771</t>
   </si>
   <si>
     <t xml:space="preserve">6.0342698097229</t>
@@ -1337,43 +1337,43 @@
     <t xml:space="preserve">5.86080932617188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93019390106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7090311050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77841472625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79792976379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72420787811279</t>
+    <t xml:space="preserve">5.93019342422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70903015136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77841520309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79792928695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72420835494995</t>
   </si>
   <si>
     <t xml:space="preserve">5.64398288726807</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55291604995728</t>
+    <t xml:space="preserve">5.55291557312012</t>
   </si>
   <si>
     <t xml:space="preserve">5.52039194107056</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53773832321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91501569747925</t>
+    <t xml:space="preserve">5.53773880004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91501522064209</t>
   </si>
   <si>
     <t xml:space="preserve">5.75456428527832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6201319694519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74155473709106</t>
+    <t xml:space="preserve">5.62013149261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74155426025391</t>
   </si>
   <si>
     <t xml:space="preserve">5.9280252456665</t>
@@ -1385,310 +1385,310 @@
     <t xml:space="preserve">5.84996747970581</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84129476547241</t>
+    <t xml:space="preserve">5.84129524230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17954301834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17520666122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11449575424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40937900543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2619366645813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06245708465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99307346343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98440027236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45968103408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00608205795288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81961154937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6938533782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57243061065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58544015884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33392190933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66349792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77190971374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87598657608032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85864067077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07112979888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16219758987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24459075927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60885858535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5698299407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8083381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78665637969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9818000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.856041431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.977463722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75196361541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83002185821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10322189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02516555786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92542505264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99047374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93843460083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36341333389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1986255645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05985736846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31137609481812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15526103973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13357830047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9991455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94277143478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12490558624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09021329879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06852960586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09454965591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33305835723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48917293548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43279886245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40677833557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27234649658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42412614822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2983660697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25933742523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94710779190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51345586776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72160863876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52212858200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40504264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50478267669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43106174468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59584951400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27184057235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19712352752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48280620574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54873418807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48720216751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51796817779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43446063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54433822631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46522617340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37292861938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59707975387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63663625717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64103126525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50038719177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3817195892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36853313446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33776807785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30700159072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21030950546265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11801147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11361598968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01692342758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15317249298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03450441360474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07406044006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09603595733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23667907714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13998746871948</t>
   </si>
   <si>
     <t xml:space="preserve">6.17954349517822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17520666122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11449575424194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40937852859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26193714141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06245756149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99307298660278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98439979553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45968055725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0060830116272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81961250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69385290145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57243013381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58543968200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33392190933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66349744796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77191019058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87598752975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85864114761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07112979888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16219711303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24459075927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60885906219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56983041763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80833911895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78665590286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98180055618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85604095458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97746276855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75196409225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83002090454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10322189331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02516555786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92542552947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99047327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93843507766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36341381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19862651824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05985736846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31137657165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15526056289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13357830047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99914598464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94277143478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12490558624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09021329879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06852960586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09454917907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33305740356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48917388916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43279886245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40677785873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27234697341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42412567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2983660697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25933790206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94710779190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51345539093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72160863876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52212858200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40504264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50478315353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43106174468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59584903717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27184057235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19712400436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48280715942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54873323440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48720169067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51796770095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43446063995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54433870315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46522617340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37292909622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59708023071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63663673400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64103078842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50038719177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38171863555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36853408813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33776807785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30700206756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21030950546265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11801242828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11361646652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01692342758179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1531720161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03450393676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07405996322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09603548049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2366795539856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13998699188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17954397201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10482692718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22788953781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47401571273804</t>
+    <t xml:space="preserve">6.10482597351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22789001464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4740161895752</t>
   </si>
   <si>
     <t xml:space="preserve">6.37732410430908</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41688013076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32897758483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33337211608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28063106536865</t>
+    <t xml:space="preserve">6.41687965393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32897710800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33337259292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28063154220581</t>
   </si>
   <si>
     <t xml:space="preserve">6.28942155838013</t>
@@ -1697,16 +1697,16 @@
     <t xml:space="preserve">6.26305055618286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31579208374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32018709182739</t>
+    <t xml:space="preserve">6.31579256057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32018756866455</t>
   </si>
   <si>
     <t xml:space="preserve">6.39050912857056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21909952163696</t>
+    <t xml:space="preserve">6.2190990447998</t>
   </si>
   <si>
     <t xml:space="preserve">6.13119649887085</t>
@@ -1715,34 +1715,34 @@
     <t xml:space="preserve">6.08285045623779</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17075300216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35095262527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52675867080688</t>
+    <t xml:space="preserve">6.17075252532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35095310211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52675771713257</t>
   </si>
   <si>
     <t xml:space="preserve">5.99494791030884</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28502607345581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07845497131348</t>
+    <t xml:space="preserve">6.28502655029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07845544815063</t>
   </si>
   <si>
     <t xml:space="preserve">5.88067483901978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37963104248047</t>
+    <t xml:space="preserve">5.37963056564331</t>
   </si>
   <si>
     <t xml:space="preserve">5.2433819770813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15108394622803</t>
+    <t xml:space="preserve">5.15108442306519</t>
   </si>
   <si>
     <t xml:space="preserve">4.99285936355591</t>
@@ -1751,10 +1751,10 @@
     <t xml:space="preserve">4.88737678527832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04120635986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93132829666138</t>
+    <t xml:space="preserve">5.04120683670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93132877349854</t>
   </si>
   <si>
     <t xml:space="preserve">4.98846530914307</t>
@@ -1766,22 +1766,22 @@
     <t xml:space="preserve">4.90056228637695</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84342622756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6544361114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50939607620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53576707839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66762113571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63246059417725</t>
+    <t xml:space="preserve">4.84342575073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65443563461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50939655303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5357666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66762065887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63246011734009</t>
   </si>
   <si>
     <t xml:space="preserve">4.2962327003479</t>
@@ -1790,19 +1790,19 @@
     <t xml:space="preserve">4.05669832229614</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13581085205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04351282119751</t>
+    <t xml:space="preserve">4.13581132888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04351329803467</t>
   </si>
   <si>
     <t xml:space="preserve">3.97099351882935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98417901992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88968443870544</t>
+    <t xml:space="preserve">3.98417925834656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88968467712402</t>
   </si>
   <si>
     <t xml:space="preserve">4.01274728775024</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">4.0588960647583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94901871681213</t>
+    <t xml:space="preserve">3.9490180015564</t>
   </si>
   <si>
     <t xml:space="preserve">3.80178141593933</t>
@@ -1823,37 +1823,37 @@
     <t xml:space="preserve">3.64135932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69190335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75123763084412</t>
+    <t xml:space="preserve">3.69190311431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75123739242554</t>
   </si>
   <si>
     <t xml:space="preserve">3.66992807388306</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77101516723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980637550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89627623558044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08526754379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93363547325134</t>
+    <t xml:space="preserve">3.77101564407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980613708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89627695083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08526706695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93363523483276</t>
   </si>
   <si>
     <t xml:space="preserve">3.85672044754028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8633131980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87430119514465</t>
+    <t xml:space="preserve">3.86331367492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87430095672607</t>
   </si>
   <si>
     <t xml:space="preserve">3.80617666244507</t>
@@ -1868,10 +1868,10 @@
     <t xml:space="preserve">3.39523267745972</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30073738098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18646454811096</t>
+    <t xml:space="preserve">3.30073761940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18646430969238</t>
   </si>
   <si>
     <t xml:space="preserve">2.97989368438721</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">2.9886839389801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10735201835632</t>
+    <t xml:space="preserve">3.1073522567749</t>
   </si>
   <si>
     <t xml:space="preserve">3.32491087913513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32930588722229</t>
+    <t xml:space="preserve">3.32930564880371</t>
   </si>
   <si>
     <t xml:space="preserve">3.21283507347107</t>
@@ -1895,13 +1895,13 @@
     <t xml:space="preserve">3.17108154296875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39303517341614</t>
+    <t xml:space="preserve">3.39303493499756</t>
   </si>
   <si>
     <t xml:space="preserve">3.33589863777161</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42819619178772</t>
+    <t xml:space="preserve">3.4281964302063</t>
   </si>
   <si>
     <t xml:space="preserve">3.45456695556641</t>
@@ -1910,40 +1910,40 @@
     <t xml:space="preserve">3.26118135452271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19085931777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05680823326111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87660813331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88100337982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95791792869568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05021572113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98648619651794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90517640113831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83485412597656</t>
+    <t xml:space="preserve">3.1908597946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05680799484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87660837173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8810031414032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95791816711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05021548271179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98648643493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90517663955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83485436439514</t>
   </si>
   <si>
     <t xml:space="preserve">2.87441062927246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7293713092804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70080304145813</t>
+    <t xml:space="preserve">2.72937154769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70080351829529</t>
   </si>
   <si>
     <t xml:space="preserve">2.74035930633545</t>
@@ -1952,37 +1952,37 @@
     <t xml:space="preserve">2.78431081771851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83924961090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01944947242737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05241346359253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11394476890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17327857017517</t>
+    <t xml:space="preserve">2.83924984931946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01944971084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05241298675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11394500732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17327880859375</t>
   </si>
   <si>
     <t xml:space="preserve">3.10515475273132</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16668605804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17987132072449</t>
+    <t xml:space="preserve">3.16668629646301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17987155914307</t>
   </si>
   <si>
     <t xml:space="preserve">3.13152527809143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13811779022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26337933540344</t>
+    <t xml:space="preserve">3.13811826705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26337885856628</t>
   </si>
   <si>
     <t xml:space="preserve">3.48093771934509</t>
@@ -1994,16 +1994,16 @@
     <t xml:space="preserve">3.47214722633362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43478894233704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54906225204468</t>
+    <t xml:space="preserve">3.43478870391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5490620136261</t>
   </si>
   <si>
     <t xml:space="preserve">3.60180330276489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51390075683594</t>
+    <t xml:space="preserve">3.51390099525452</t>
   </si>
   <si>
     <t xml:space="preserve">3.45017170906067</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">3.52049374580383</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3776524066925</t>
+    <t xml:space="preserve">3.37765216827393</t>
   </si>
   <si>
     <t xml:space="preserve">3.4633572101593</t>
@@ -2024,37 +2024,37 @@
     <t xml:space="preserve">3.52269124984741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63037180900574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56005024909973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5512592792511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63916206359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73805260658264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82815194129944</t>
+    <t xml:space="preserve">3.63037204742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56005001068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55125951766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63916182518005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73805212974548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82815289497375</t>
   </si>
   <si>
     <t xml:space="preserve">3.70728635787964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76662039756775</t>
+    <t xml:space="preserve">3.76662063598633</t>
   </si>
   <si>
     <t xml:space="preserve">3.79079365730286</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87210321426392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92264747619629</t>
+    <t xml:space="preserve">3.87210392951965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92264795303345</t>
   </si>
   <si>
     <t xml:space="preserve">3.99956202507019</t>
@@ -2063,19 +2063,19 @@
     <t xml:space="preserve">4.06109380722046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02153730392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17756462097168</t>
+    <t xml:space="preserve">4.02153778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17756509780884</t>
   </si>
   <si>
     <t xml:space="preserve">4.11603260040283</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88089442253113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93583297729492</t>
+    <t xml:space="preserve">3.88089323043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93583273887634</t>
   </si>
   <si>
     <t xml:space="preserve">3.95780873298645</t>
@@ -2087,40 +2087,40 @@
     <t xml:space="preserve">4.15778636932373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20833015441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30722045898438</t>
+    <t xml:space="preserve">4.20832967758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30722093582153</t>
   </si>
   <si>
     <t xml:space="preserve">4.35117197036743</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27865219116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09405755996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13141584396362</t>
+    <t xml:space="preserve">4.27865266799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09405708312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13141632080078</t>
   </si>
   <si>
     <t xml:space="preserve">4.20393514633179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12921857833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16437911987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21712112426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17536687850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16657638549805</t>
+    <t xml:space="preserve">4.12921905517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16437959671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21712017059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17536735534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16657686233521</t>
   </si>
   <si>
     <t xml:space="preserve">4.17976236343384</t>
@@ -2129,31 +2129,31 @@
     <t xml:space="preserve">4.12702083587646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00395774841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08087205886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11383485794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19514465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90286946296692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86551094055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83254742622375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92704319953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96879601478577</t>
+    <t xml:space="preserve">4.00395679473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08087158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11383533477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19514560699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90286922454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86551117897034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83254790306091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92704296112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96879577636719</t>
   </si>
   <si>
     <t xml:space="preserve">3.96659851074219</t>
@@ -2162,16 +2162,16 @@
     <t xml:space="preserve">3.94682025909424</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85012793540955</t>
+    <t xml:space="preserve">3.85012769699097</t>
   </si>
   <si>
     <t xml:space="preserve">3.81057214736938</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7028911113739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70948362350464</t>
+    <t xml:space="preserve">3.70289134979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70948386192322</t>
   </si>
   <si>
     <t xml:space="preserve">3.58861804008484</t>
@@ -2183,22 +2183,22 @@
     <t xml:space="preserve">4.02813053131104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75783038139343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88834166526794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8140857219696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6970751285553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68132400512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69932532310486</t>
+    <t xml:space="preserve">3.75783085823059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8883421421051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81408548355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69707536697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68132376670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69932579994202</t>
   </si>
   <si>
     <t xml:space="preserve">3.62506890296936</t>
@@ -2207,46 +2207,46 @@
     <t xml:space="preserve">3.60931754112244</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66782236099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77583265304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80508422851562</t>
+    <t xml:space="preserve">3.66782212257385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7758321762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80508470535278</t>
   </si>
   <si>
     <t xml:space="preserve">3.85683941841125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89734315872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82983660697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88159084320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8073353767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83883762359619</t>
+    <t xml:space="preserve">3.89734244346619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82983684539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88159132003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80733489990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83883690834045</t>
   </si>
   <si>
     <t xml:space="preserve">3.91534447669983</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97159934043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12461233139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08185911178589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0211033821106</t>
+    <t xml:space="preserve">3.97159910202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1246132850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08185863494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02110385894775</t>
   </si>
   <si>
     <t xml:space="preserve">4.04135513305664</t>
@@ -2258,25 +2258,25 @@
     <t xml:space="preserve">4.07285833358765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11561250686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20337009429932</t>
+    <t xml:space="preserve">4.1156120300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20336961746216</t>
   </si>
   <si>
     <t xml:space="preserve">4.21012020111084</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23937225341797</t>
+    <t xml:space="preserve">4.23937273025513</t>
   </si>
   <si>
     <t xml:space="preserve">4.33163118362427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22812175750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2753758430481</t>
+    <t xml:space="preserve">4.22812223434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27537631988525</t>
   </si>
   <si>
     <t xml:space="preserve">4.17186689376831</t>
@@ -2285,16 +2285,16 @@
     <t xml:space="preserve">4.25737476348877</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16511678695679</t>
+    <t xml:space="preserve">4.16511583328247</t>
   </si>
   <si>
     <t xml:space="preserve">4.14936447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12236213684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17411708831787</t>
+    <t xml:space="preserve">4.12236261367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411661148071</t>
   </si>
   <si>
     <t xml:space="preserve">4.10211086273193</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">3.98960089683533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02785396575928</t>
+    <t xml:space="preserve">4.02785444259644</t>
   </si>
   <si>
     <t xml:space="preserve">4.07960844039917</t>
@@ -2315,25 +2315,25 @@
     <t xml:space="preserve">4.03910541534424</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0526065826416</t>
+    <t xml:space="preserve">4.05260610580444</t>
   </si>
   <si>
     <t xml:space="preserve">4.00535202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93784642219543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98510074615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90184354782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87709069252014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78033232688904</t>
+    <t xml:space="preserve">3.93784618377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98510050773621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90184330940247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8770911693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78033185005188</t>
   </si>
   <si>
     <t xml:space="preserve">3.81858563423157</t>
@@ -2342,19 +2342,19 @@
     <t xml:space="preserve">3.80958533287048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78483247756958</t>
+    <t xml:space="preserve">3.78483271598816</t>
   </si>
   <si>
     <t xml:space="preserve">3.8838415145874</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93109512329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91309404373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05935668945312</t>
+    <t xml:space="preserve">3.93109536170959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91309428215027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05935716629028</t>
   </si>
   <si>
     <t xml:space="preserve">4.0436053276062</t>
@@ -2363,22 +2363,22 @@
     <t xml:space="preserve">4.09536027908325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97384977340698</t>
+    <t xml:space="preserve">3.97384929656982</t>
   </si>
   <si>
     <t xml:space="preserve">3.98285031318665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11336231231689</t>
+    <t xml:space="preserve">4.11336183547974</t>
   </si>
   <si>
     <t xml:space="preserve">4.06385707855225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99185132980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26862573623657</t>
+    <t xml:space="preserve">3.99185061454773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26862525939941</t>
   </si>
   <si>
     <t xml:space="preserve">4.26187467575073</t>
@@ -2393,16 +2393,16 @@
     <t xml:space="preserve">4.91443204879761</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08544731140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23846054077148</t>
+    <t xml:space="preserve">5.08544778823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23846101760864</t>
   </si>
   <si>
     <t xml:space="preserve">5.26546287536621</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53098630905151</t>
+    <t xml:space="preserve">5.53098678588867</t>
   </si>
   <si>
     <t xml:space="preserve">5.3914737701416</t>
@@ -2420,22 +2420,22 @@
     <t xml:space="preserve">5.45898008346558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35997104644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3869743347168</t>
+    <t xml:space="preserve">5.35997152328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38697338104248</t>
   </si>
   <si>
     <t xml:space="preserve">5.17545509338379</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18445682525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26996278762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35547065734863</t>
+    <t xml:space="preserve">5.18445587158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26996326446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35547113418579</t>
   </si>
   <si>
     <t xml:space="preserve">5.25196218490601</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">5.37797260284424</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36447191238403</t>
+    <t xml:space="preserve">5.36447238922119</t>
   </si>
   <si>
     <t xml:space="preserve">5.46348094940186</t>
@@ -2453,16 +2453,16 @@
     <t xml:space="preserve">5.59849262237549</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62999534606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82351160049438</t>
+    <t xml:space="preserve">5.62999486923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82351207733154</t>
   </si>
   <si>
     <t xml:space="preserve">5.6434965133667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67949914932251</t>
+    <t xml:space="preserve">5.67949962615967</t>
   </si>
   <si>
     <t xml:space="preserve">5.62549448013306</t>
@@ -2471,16 +2471,16 @@
     <t xml:space="preserve">5.58049058914185</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61649370193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70650196075439</t>
+    <t xml:space="preserve">5.61649322509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70650243759155</t>
   </si>
   <si>
     <t xml:space="preserve">5.61199331283569</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72000360488892</t>
+    <t xml:space="preserve">5.7200026512146</t>
   </si>
   <si>
     <t xml:space="preserve">5.79650974273682</t>
@@ -2489,22 +2489,22 @@
     <t xml:space="preserve">5.94502305984497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01702880859375</t>
+    <t xml:space="preserve">6.01702928543091</t>
   </si>
   <si>
     <t xml:space="preserve">6.11603832244873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98102569580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89101791381836</t>
+    <t xml:space="preserve">5.98102617263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89101839065552</t>
   </si>
   <si>
     <t xml:space="preserve">5.91802024841309</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13403987884521</t>
+    <t xml:space="preserve">6.13403940200806</t>
   </si>
   <si>
     <t xml:space="preserve">6.59758043289185</t>
@@ -2513,28 +2513,28 @@
     <t xml:space="preserve">6.9801139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07462215423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1601300239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4796576499939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48415803909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57866621017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70017766952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53816318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49315786361694</t>
+    <t xml:space="preserve">7.074622631073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16012954711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47965860366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48415851593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57866668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7001781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53816270828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49315929412842</t>
   </si>
   <si>
     <t xml:space="preserve">7.04311895370483</t>
@@ -2543,40 +2543,40 @@
     <t xml:space="preserve">7.15562915802002</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29064130783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22763586044312</t>
+    <t xml:space="preserve">7.29064178466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22763538360596</t>
   </si>
   <si>
     <t xml:space="preserve">7.16462993621826</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15112924575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99361515045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02961778640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14212799072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26813936233521</t>
+    <t xml:space="preserve">7.1511287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9936146736145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02961874008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14212846755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26813888549805</t>
   </si>
   <si>
     <t xml:space="preserve">7.25013780593872</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44365406036377</t>
+    <t xml:space="preserve">7.44365501403809</t>
   </si>
   <si>
     <t xml:space="preserve">7.78118467330933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72267866134644</t>
+    <t xml:space="preserve">7.72267913818359</t>
   </si>
   <si>
     <t xml:space="preserve">7.54266309738159</t>
@@ -2588,19 +2588,19 @@
     <t xml:space="preserve">7.53366279602051</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23663663864136</t>
+    <t xml:space="preserve">7.2366361618042</t>
   </si>
   <si>
     <t xml:space="preserve">7.32214450836182</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99811553955078</t>
+    <t xml:space="preserve">6.99811506271362</t>
   </si>
   <si>
     <t xml:space="preserve">7.28614091873169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13312721252441</t>
+    <t xml:space="preserve">7.13312768936157</t>
   </si>
   <si>
     <t xml:space="preserve">7.17813110351562</t>
@@ -2609,61 +2609,61 @@
     <t xml:space="preserve">7.09712409973145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39865064620972</t>
+    <t xml:space="preserve">7.39865159988403</t>
   </si>
   <si>
     <t xml:space="preserve">7.30864238739014</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35814762115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38964986801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19163274765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05212068557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9081072807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39956283569336</t>
+    <t xml:space="preserve">7.35814714431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38964939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19163227081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05212020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90810775756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39956331253052</t>
   </si>
   <si>
     <t xml:space="preserve">6.40406322479248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62458324432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67858695983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60208034515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65158462524414</t>
+    <t xml:space="preserve">6.62458276748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67858743667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60208082199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6515851020813</t>
   </si>
   <si>
     <t xml:space="preserve">6.50307178497314</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90360736846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77309513092041</t>
+    <t xml:space="preserve">6.90360689163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77309560775757</t>
   </si>
   <si>
     <t xml:space="preserve">6.77759647369385</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71008968353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68308734893799</t>
+    <t xml:space="preserve">6.71009016036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68308782577515</t>
   </si>
   <si>
     <t xml:space="preserve">6.56157684326172</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">6.64708471298218</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52107381820679</t>
+    <t xml:space="preserve">6.52107286453247</t>
   </si>
   <si>
     <t xml:space="preserve">6.01252841949463</t>
@@ -2690,16 +2690,16 @@
     <t xml:space="preserve">5.53998756408691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67049884796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62099409103394</t>
+    <t xml:space="preserve">5.67049837112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62099456787109</t>
   </si>
   <si>
     <t xml:space="preserve">5.38247299194336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02694177627563</t>
+    <t xml:space="preserve">5.02694225311279</t>
   </si>
   <si>
     <t xml:space="preserve">4.67141103744507</t>
@@ -2708,67 +2708,67 @@
     <t xml:space="preserve">4.51839733123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55890130996704</t>
+    <t xml:space="preserve">4.55890083312988</t>
   </si>
   <si>
     <t xml:space="preserve">4.1381139755249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74882984161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60031652450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26278710365295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16827845573425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12777519226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17052912712097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38429760932922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92434501647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79608392715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55081248283386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44280290603638</t>
+    <t xml:space="preserve">3.74882960319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60031676292419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2627866268158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16827869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12777495384216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17052888870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38429737091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92434549331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79608416557312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5508120059967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4428026676178</t>
   </si>
   <si>
     <t xml:space="preserve">3.6070671081543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5553126335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64532065391541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55981278419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73082828521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67682290077209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99635124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9603488445282</t>
+    <t xml:space="preserve">3.55531239509583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64532089233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55981302261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73082804679871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67682361602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99635100364685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96034860610962</t>
   </si>
   <si>
     <t xml:space="preserve">4.30687856674194</t>
@@ -2783,31 +2783,31 @@
     <t xml:space="preserve">4.09986066818237</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02335405349731</t>
+    <t xml:space="preserve">4.02335357666016</t>
   </si>
   <si>
     <t xml:space="preserve">4.41038799285889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37888431549072</t>
+    <t xml:space="preserve">4.37888479232788</t>
   </si>
   <si>
     <t xml:space="preserve">4.28437662124634</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19436836242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18986845016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24837350845337</t>
+    <t xml:space="preserve">4.19436883926392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18986892700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24837303161621</t>
   </si>
   <si>
     <t xml:space="preserve">4.27987670898438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23487281799316</t>
+    <t xml:space="preserve">4.23487234115601</t>
   </si>
   <si>
     <t xml:space="preserve">4.23037195205688</t>
@@ -2819,28 +2819,28 @@
     <t xml:space="preserve">4.59040355682373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4463906288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40588712692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31137943267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34738254547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66916036605835</t>
+    <t xml:space="preserve">4.44639110565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40588760375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31137895584106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34738206863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66916084289551</t>
   </si>
   <si>
     <t xml:space="preserve">4.87167835235596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81542301177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8041729927063</t>
+    <t xml:space="preserve">4.8154239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80417203903198</t>
   </si>
   <si>
     <t xml:space="preserve">4.96168613433838</t>
@@ -2852,22 +2852,22 @@
     <t xml:space="preserve">5.14170217514038</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3892240524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25421190261841</t>
+    <t xml:space="preserve">5.38922357559204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25421285629272</t>
   </si>
   <si>
     <t xml:space="preserve">5.07419586181641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84917688369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93918514251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10794973373413</t>
+    <t xml:space="preserve">4.84917640686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93918418884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10794925689697</t>
   </si>
   <si>
     <t xml:space="preserve">5.22045946121216</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">5.16420412063599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29921579360962</t>
+    <t xml:space="preserve">5.29921627044678</t>
   </si>
   <si>
     <t xml:space="preserve">5.11920022964478</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">5.15295314788818</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00669050216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83792591094971</t>
+    <t xml:space="preserve">5.00669002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83792543411255</t>
   </si>
   <si>
     <t xml:space="preserve">4.92793369293213</t>
@@ -2906,13 +2906,13 @@
     <t xml:space="preserve">5.02919244766235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97293758392334</t>
+    <t xml:space="preserve">4.97293710708618</t>
   </si>
   <si>
     <t xml:space="preserve">5.13045120239258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98418807983398</t>
+    <t xml:space="preserve">4.98418855667114</t>
   </si>
   <si>
     <t xml:space="preserve">5.01794147491455</t>
@@ -2924,13 +2924,13 @@
     <t xml:space="preserve">5.2317099571228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24296045303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95043516159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99543905258179</t>
+    <t xml:space="preserve">5.24296140670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95043563842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99543952941895</t>
   </si>
   <si>
     <t xml:space="preserve">4.88292980194092</t>
@@ -2939,22 +2939,22 @@
     <t xml:space="preserve">4.86042737960815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89418077468872</t>
+    <t xml:space="preserve">4.89418029785156</t>
   </si>
   <si>
     <t xml:space="preserve">4.75916862487793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8266749382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90543079376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91668272018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50039577484131</t>
+    <t xml:space="preserve">4.82667446136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90543127059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91668224334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50039625167847</t>
   </si>
   <si>
     <t xml:space="preserve">4.11786222457886</t>
@@ -2966,22 +2966,22 @@
     <t xml:space="preserve">4.00985240936279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22587156295776</t>
+    <t xml:space="preserve">4.22587203979492</t>
   </si>
   <si>
     <t xml:space="preserve">4.26637506484985</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53414821624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44547891616821</t>
+    <t xml:space="preserve">4.53414869308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44547843933105</t>
   </si>
   <si>
     <t xml:space="preserve">5.52423572540283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65924787521362</t>
+    <t xml:space="preserve">5.65924692153931</t>
   </si>
   <si>
     <t xml:space="preserve">5.63674592971802</t>
@@ -2990,19 +2990,19 @@
     <t xml:space="preserve">5.59174203872681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5467381477356</t>
+    <t xml:space="preserve">5.54673719406128</t>
   </si>
   <si>
     <t xml:space="preserve">5.5692400932312</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7942590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60299253463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71550273895264</t>
+    <t xml:space="preserve">5.79425954818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60299205780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71550226211548</t>
   </si>
   <si>
     <t xml:space="preserve">6.04178142547607</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">5.86176538467407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85051488876343</t>
+    <t xml:space="preserve">5.85051441192627</t>
   </si>
   <si>
     <t xml:space="preserve">5.77175760269165</t>
@@ -3023,40 +3023,40 @@
     <t xml:space="preserve">5.98552656173706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08678483963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01927900314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05303192138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07553434371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97427463531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03053045272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10928678512573</t>
+    <t xml:space="preserve">6.08678531646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01927947998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05303239822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07553386688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9742751121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03052997589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10928726196289</t>
   </si>
   <si>
     <t xml:space="preserve">6.24429893493652</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21054601669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25555038452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36806011199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41306400299072</t>
+    <t xml:space="preserve">6.21054649353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25554990768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36805963516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41306352615356</t>
   </si>
   <si>
     <t xml:space="preserve">6.42431497573853</t>
@@ -3071,10 +3071,10 @@
     <t xml:space="preserve">6.46931886672974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51432275772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3005542755127</t>
+    <t xml:space="preserve">6.51432323455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30055379867554</t>
   </si>
   <si>
     <t xml:space="preserve">6.23304796218872</t>
@@ -3095,13 +3095,13 @@
     <t xml:space="preserve">6.39056205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54807615280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40181303024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67183637619019</t>
+    <t xml:space="preserve">6.54807567596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40181350708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67183685302734</t>
   </si>
   <si>
     <t xml:space="preserve">6.63808345794678</t>
@@ -3113,22 +3113,22 @@
     <t xml:space="preserve">6.59307956695557</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66058588027954</t>
+    <t xml:space="preserve">6.66058540344238</t>
   </si>
   <si>
     <t xml:space="preserve">6.58182859420776</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28930377960205</t>
+    <t xml:space="preserve">6.28930330276489</t>
   </si>
   <si>
     <t xml:space="preserve">6.26680135726929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22179651260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27805233001709</t>
+    <t xml:space="preserve">6.22179746627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27805185317993</t>
   </si>
   <si>
     <t xml:space="preserve">6.43556594848633</t>
@@ -3140,43 +3140,43 @@
     <t xml:space="preserve">7.65067291259766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63942193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10071277618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03320598602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87569284439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85318994522095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9206976890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88694429397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9882025718689</t>
+    <t xml:space="preserve">7.6394214630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10071182250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03320693969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87569236755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85319042205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92069721221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88694334030151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98820161819458</t>
   </si>
   <si>
     <t xml:space="preserve">7.96570062637329</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89819478988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86444139480591</t>
+    <t xml:space="preserve">7.89819383621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86444187164307</t>
   </si>
   <si>
     <t xml:space="preserve">7.79693698883057</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94319868087769</t>
+    <t xml:space="preserve">7.94319820404053</t>
   </si>
   <si>
     <t xml:space="preserve">8.1682186126709</t>
@@ -3197,28 +3197,28 @@
     <t xml:space="preserve">8.01070404052734</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97695207595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04445648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20197105407715</t>
+    <t xml:space="preserve">7.97695112228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04445743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20197200775146</t>
   </si>
   <si>
     <t xml:space="preserve">8.08946132659912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02195453643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93194723129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06695938110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80818748474121</t>
+    <t xml:space="preserve">8.02195644378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9319486618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06696033477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80818653106689</t>
   </si>
   <si>
     <t xml:space="preserve">7.81943798065186</t>
@@ -3227,22 +3227,22 @@
     <t xml:space="preserve">7.70692825317383</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78568458557129</t>
+    <t xml:space="preserve">7.78568363189697</t>
   </si>
   <si>
     <t xml:space="preserve">7.68442535400391</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72942972183228</t>
+    <t xml:space="preserve">7.72942924499512</t>
   </si>
   <si>
     <t xml:space="preserve">8.23572444915771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00079154968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84327793121338</t>
+    <t xml:space="preserve">9.00079250335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84327697753906</t>
   </si>
   <si>
     <t xml:space="preserve">9.04579544067383</t>
@@ -3251,7 +3251,7 @@
     <t xml:space="preserve">9.31581974029541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48622989654541</t>
+    <t xml:space="preserve">9.48623085021973</t>
   </si>
   <si>
     <t xml:space="preserve">9.44078731536865</t>
@@ -3260,19 +3260,19 @@
     <t xml:space="preserve">9.99612808227539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92523288726807</t>
+    <t xml:space="preserve">9.92523384094238</t>
   </si>
   <si>
     <t xml:space="preserve">10.303337097168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5160217285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5278377532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5514688491821</t>
+    <t xml:space="preserve">10.5160207748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5278367996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5514678955078</t>
   </si>
   <si>
     <t xml:space="preserve">10.7523365020752</t>
@@ -3299,7 +3299,7 @@
     <t xml:space="preserve">10.5987310409546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9768362045288</t>
+    <t xml:space="preserve">10.9768352508545</t>
   </si>
   <si>
     <t xml:space="preserve">10.7050733566284</t>
@@ -3308,46 +3308,46 @@
     <t xml:space="preserve">10.6105480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269701004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4923896789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6223640441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2797069549561</t>
+    <t xml:space="preserve">10.3269691467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4923906326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6223630905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2797060012817</t>
   </si>
   <si>
     <t xml:space="preserve">10.1733636856079</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2442598342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3742332458496</t>
+    <t xml:space="preserve">10.2442588806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3742322921753</t>
   </si>
   <si>
     <t xml:space="preserve">10.291522026062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3151540756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3387861251831</t>
+    <t xml:space="preserve">10.3151531219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3387851715088</t>
   </si>
   <si>
     <t xml:space="preserve">10.4805736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4451274871826</t>
+    <t xml:space="preserve">10.4451265335083</t>
   </si>
   <si>
     <t xml:space="preserve">10.7168893814087</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4096794128418</t>
+    <t xml:space="preserve">10.4096784591675</t>
   </si>
   <si>
     <t xml:space="preserve">10.2560758590698</t>
@@ -3356,13 +3356,13 @@
     <t xml:space="preserve">10.6459941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3978633880615</t>
+    <t xml:space="preserve">10.3978643417358</t>
   </si>
   <si>
     <t xml:space="preserve">10.362416267395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.437650680542</t>
+    <t xml:space="preserve">11.4376497268677</t>
   </si>
   <si>
     <t xml:space="preserve">11.7590389251709</t>
@@ -3374,28 +3374,28 @@
     <t xml:space="preserve">12.163610458374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0048065185547</t>
+    <t xml:space="preserve">12.0048055648804</t>
   </si>
   <si>
     <t xml:space="preserve">11.8157539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7968492507935</t>
+    <t xml:space="preserve">11.7968482971191</t>
   </si>
   <si>
     <t xml:space="preserve">11.6815271377563</t>
   </si>
   <si>
-    <t xml:space="preserve">11.834659576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7023220062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.607795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5699872970581</t>
+    <t xml:space="preserve">11.8346605300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7023239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6077966690063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5699863433838</t>
   </si>
   <si>
     <t xml:space="preserve">11.9102802276611</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">12.3640050888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1182374954224</t>
+    <t xml:space="preserve">12.118236541748</t>
   </si>
   <si>
     <t xml:space="preserve">12.3261947631836</t>
@@ -3419,16 +3419,16 @@
     <t xml:space="preserve">12.3072900772095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5152463912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5719633102417</t>
+    <t xml:space="preserve">12.5152473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5719623565674</t>
   </si>
   <si>
     <t xml:space="preserve">12.1560478210449</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2147388458252</t>
+    <t xml:space="preserve">13.2147397994995</t>
   </si>
   <si>
     <t xml:space="preserve">13.9142322540283</t>
@@ -3437,13 +3437,13 @@
     <t xml:space="preserve">14.1599998474121</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0087575912476</t>
+    <t xml:space="preserve">14.0087585449219</t>
   </si>
   <si>
     <t xml:space="preserve">13.4416027069092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.800802230835</t>
+    <t xml:space="preserve">13.8008012771606</t>
   </si>
   <si>
     <t xml:space="preserve">14.1221885681152</t>
@@ -3452,31 +3452,31 @@
     <t xml:space="preserve">14.027663230896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9540176391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3490524291992</t>
+    <t xml:space="preserve">14.9540185928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3490514755249</t>
   </si>
   <si>
     <t xml:space="preserve">14.0465679168701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7062759399414</t>
+    <t xml:space="preserve">13.7062740325928</t>
   </si>
   <si>
     <t xml:space="preserve">14.0654745101929</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7251806259155</t>
+    <t xml:space="preserve">13.7251815795898</t>
   </si>
   <si>
     <t xml:space="preserve">13.3281707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7610149383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2525510787964</t>
+    <t xml:space="preserve">12.7610139846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2525501251221</t>
   </si>
   <si>
     <t xml:space="preserve">13.3848867416382</t>
@@ -3494,16 +3494,16 @@
     <t xml:space="preserve">13.3659811019897</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7649660110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7858476638794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8425636291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1261405944824</t>
+    <t xml:space="preserve">14.7649669647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7858486175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8425626754761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1261386871338</t>
   </si>
   <si>
     <t xml:space="preserve">16.9201602935791</t>
@@ -3518,28 +3518,28 @@
     <t xml:space="preserve">16.6176776885986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7122039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3719100952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1450443267822</t>
+    <t xml:space="preserve">16.7122020721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3719081878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1450462341309</t>
   </si>
   <si>
     <t xml:space="preserve">16.504243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3530044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2584800720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8614692687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8047533035278</t>
+    <t xml:space="preserve">16.3530025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2584781646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8614683151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8047523498535</t>
   </si>
   <si>
     <t xml:space="preserve">16.2395725250244</t>
@@ -3551,7 +3551,7 @@
     <t xml:space="preserve">16.1828594207764</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2375974655151</t>
+    <t xml:space="preserve">15.2375984191895</t>
   </si>
   <si>
     <t xml:space="preserve">14.7460622787476</t>
@@ -3560,19 +3560,19 @@
     <t xml:space="preserve">14.8216819763184</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5570096969604</t>
+    <t xml:space="preserve">14.5570087432861</t>
   </si>
   <si>
     <t xml:space="preserve">13.9331369400024</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9520425796509</t>
+    <t xml:space="preserve">13.9520435333252</t>
   </si>
   <si>
     <t xml:space="preserve">13.630654335022</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2356204986572</t>
+    <t xml:space="preserve">14.2356214523315</t>
   </si>
   <si>
     <t xml:space="preserve">14.3679571151733</t>
@@ -3605,10 +3605,10 @@
     <t xml:space="preserve">13.6873693466187</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6495580673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2734317779541</t>
+    <t xml:space="preserve">13.6495590209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2734308242798</t>
   </si>
   <si>
     <t xml:space="preserve">14.4435777664185</t>
@@ -3626,22 +3626,22 @@
     <t xml:space="preserve">13.2336444854736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4226961135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3470764160156</t>
+    <t xml:space="preserve">13.4226970672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3470754623413</t>
   </si>
   <si>
     <t xml:space="preserve">13.7440853118896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4774370193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6664886474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4794130325317</t>
+    <t xml:space="preserve">12.4774360656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6664876937866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4794120788574</t>
   </si>
   <si>
     <t xml:space="preserve">13.7629909515381</t>
@@ -3659,22 +3659,22 @@
     <t xml:space="preserve">12.6097736358643</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0993328094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.401816368103</t>
+    <t xml:space="preserve">12.0993318557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4018154144287</t>
   </si>
   <si>
     <t xml:space="preserve">12.2127637863159</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9291849136353</t>
+    <t xml:space="preserve">11.9291858673096</t>
   </si>
   <si>
     <t xml:space="preserve">11.8535652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2694787979126</t>
+    <t xml:space="preserve">12.2694797515869</t>
   </si>
   <si>
     <t xml:space="preserve">12.0426168441772</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">11.0973558425903</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7381572723389</t>
+    <t xml:space="preserve">10.7381563186646</t>
   </si>
   <si>
     <t xml:space="preserve">11.3620300292969</t>
@@ -3701,13 +3701,13 @@
     <t xml:space="preserve">12.0804271697998</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6645135879517</t>
+    <t xml:space="preserve">11.6645126342773</t>
   </si>
   <si>
     <t xml:space="preserve">12.9500665664673</t>
   </si>
   <si>
-    <t xml:space="preserve">13.006781578064</t>
+    <t xml:space="preserve">13.0067825317383</t>
   </si>
   <si>
     <t xml:space="preserve">13.0824031829834</t>
@@ -3725,43 +3725,43 @@
     <t xml:space="preserve">12.9973297119141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9406147003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7042989730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6759414672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7893714904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6192264556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6003198623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7704677581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8933515548706</t>
+    <t xml:space="preserve">12.9406137466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7042999267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6759405136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7893724441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6192255020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.60032081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7704668045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8933506011963</t>
   </si>
   <si>
     <t xml:space="preserve">12.7137517929077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0615215301514</t>
+    <t xml:space="preserve">12.0615224838257</t>
   </si>
   <si>
     <t xml:space="preserve">12.2600269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6286773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0237121582031</t>
+    <t xml:space="preserve">12.6286783218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0237112045288</t>
   </si>
   <si>
     <t xml:space="preserve">12.146595954895</t>
@@ -3770,10 +3770,10 @@
     <t xml:space="preserve">11.8630170822144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8063011169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5416297912598</t>
+    <t xml:space="preserve">11.8063020706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5416288375854</t>
   </si>
   <si>
     <t xml:space="preserve">10.8799457550049</t>
@@ -3782,16 +3782,16 @@
     <t xml:space="preserve">11.0028305053711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3431243896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8252077102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834173202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0898790359497</t>
+    <t xml:space="preserve">11.3431234359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8252067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834163665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.089879989624</t>
   </si>
   <si>
     <t xml:space="preserve">12.0937099456787</t>
@@ -3800,31 +3800,31 @@
     <t xml:space="preserve">11.6518430709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8151416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8247480392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.940016746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4107007980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1129217147827</t>
+    <t xml:space="preserve">11.8151407241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8247470855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9400177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.410701751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1129207611084</t>
   </si>
   <si>
     <t xml:space="preserve">11.920804977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.016863822937</t>
+    <t xml:space="preserve">12.0168628692627</t>
   </si>
   <si>
     <t xml:space="preserve">12.2377967834473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3050384521484</t>
+    <t xml:space="preserve">12.3050374984741</t>
   </si>
   <si>
     <t xml:space="preserve">12.4010953903198</t>
@@ -3836,7 +3836,7 @@
     <t xml:space="preserve">11.4116973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9890413284302</t>
+    <t xml:space="preserve">10.9890422821045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7969255447388</t>
@@ -3845,16 +3845,16 @@
     <t xml:space="preserve">11.2964277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8161382675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0658893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1235227584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2676105499268</t>
+    <t xml:space="preserve">10.8161373138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0658884048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1235237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2676095962524</t>
   </si>
   <si>
     <t xml:space="preserve">11.1619462966919</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">11.7479000091553</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7382946014404</t>
+    <t xml:space="preserve">11.7382955551147</t>
   </si>
   <si>
     <t xml:space="preserve">11.6134195327759</t>
@@ -3890,19 +3890,19 @@
     <t xml:space="preserve">12.6604528427124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8141450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198093414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9678382873535</t>
+    <t xml:space="preserve">12.8141460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198083877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9678373336792</t>
   </si>
   <si>
     <t xml:space="preserve">12.823751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8045387268066</t>
+    <t xml:space="preserve">12.804539680481</t>
   </si>
   <si>
     <t xml:space="preserve">13.0446844100952</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">13.1311368942261</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2848291397095</t>
+    <t xml:space="preserve">13.2848300933838</t>
   </si>
   <si>
     <t xml:space="preserve">13.4577341079712</t>
@@ -3920,13 +3920,13 @@
     <t xml:space="preserve">13.7651205062866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.91881275177</t>
+    <t xml:space="preserve">13.9188117980957</t>
   </si>
   <si>
     <t xml:space="preserve">13.8611783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9092063903809</t>
+    <t xml:space="preserve">13.9092073440552</t>
   </si>
   <si>
     <t xml:space="preserve">14.0052652359009</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">13.957236289978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0436878204346</t>
+    <t xml:space="preserve">14.0436887741089</t>
   </si>
   <si>
     <t xml:space="preserve">13.976448059082</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">13.938024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6018218994141</t>
+    <t xml:space="preserve">13.6018209457397</t>
   </si>
   <si>
     <t xml:space="preserve">13.2752237319946</t>
@@ -3974,31 +3974,31 @@
     <t xml:space="preserve">13.1983766555786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1023197174072</t>
+    <t xml:space="preserve">13.1023187637329</t>
   </si>
   <si>
     <t xml:space="preserve">13.3232526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3040418624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3424654006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1503486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0062608718872</t>
+    <t xml:space="preserve">13.3040409088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3424644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1503477096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0062618255615</t>
   </si>
   <si>
     <t xml:space="preserve">12.7372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1695604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8621740341187</t>
+    <t xml:space="preserve">13.1695594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.862174987793</t>
   </si>
   <si>
     <t xml:space="preserve">12.8525686264038</t>
@@ -4013,7 +4013,7 @@
     <t xml:space="preserve">12.372278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0841045379639</t>
+    <t xml:space="preserve">12.0841035842896</t>
   </si>
   <si>
     <t xml:space="preserve">11.9496221542358</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">11.3444566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7873201370239</t>
+    <t xml:space="preserve">10.7873191833496</t>
   </si>
   <si>
     <t xml:space="preserve">10.7777147293091</t>
@@ -4040,10 +4040,10 @@
     <t xml:space="preserve">10.7296848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8929834365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6240224838257</t>
+    <t xml:space="preserve">10.8929843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6240215301514</t>
   </si>
   <si>
     <t xml:space="preserve">11.2195816040039</t>
@@ -4058,16 +4058,16 @@
     <t xml:space="preserve">11.3636684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1907634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9025897979736</t>
+    <t xml:space="preserve">11.1907644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9025907516479</t>
   </si>
   <si>
     <t xml:space="preserve">11.0274648666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2099761962891</t>
+    <t xml:space="preserve">11.2099752426147</t>
   </si>
   <si>
     <t xml:space="preserve">11.5749959945679</t>
@@ -4076,7 +4076,7 @@
     <t xml:space="preserve">11.5365724563599</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1321325302124</t>
+    <t xml:space="preserve">12.1321334838867</t>
   </si>
   <si>
     <t xml:space="preserve">12.2570085525513</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">12.0072574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3818836212158</t>
+    <t xml:space="preserve">12.3818845748901</t>
   </si>
   <si>
     <t xml:space="preserve">12.3914890289307</t>
@@ -4106,7 +4106,7 @@
     <t xml:space="preserve">13.0158672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791667938232</t>
+    <t xml:space="preserve">13.1791658401489</t>
   </si>
   <si>
     <t xml:space="preserve">12.9582328796387</t>
@@ -4115,7 +4115,7 @@
     <t xml:space="preserve">12.7469053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0542907714844</t>
+    <t xml:space="preserve">13.0542898178101</t>
   </si>
   <si>
     <t xml:space="preserve">13.3328590393066</t>
@@ -4133,25 +4133,25 @@
     <t xml:space="preserve">13.8131494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2165937423706</t>
+    <t xml:space="preserve">14.2165927886963</t>
   </si>
   <si>
     <t xml:space="preserve">14.1109285354614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9284191131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6210327148438</t>
+    <t xml:space="preserve">13.9284181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6210336685181</t>
   </si>
   <si>
     <t xml:space="preserve">13.7747259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.841965675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0244779586792</t>
+    <t xml:space="preserve">13.8419666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0244770050049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5720081329346</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">13.8515720367432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6402435302734</t>
+    <t xml:space="preserve">13.6402444839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.5441865921021</t>
@@ -4199,7 +4199,7 @@
     <t xml:space="preserve">14.0628995895386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0340814590454</t>
+    <t xml:space="preserve">14.0340824127197</t>
   </si>
   <si>
     <t xml:space="preserve">14.370285987854</t>
@@ -4211,7 +4211,7 @@
     <t xml:space="preserve">14.312650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3894968032837</t>
+    <t xml:space="preserve">14.389497756958</t>
   </si>
   <si>
     <t xml:space="preserve">14.0821113586426</t>
@@ -4223,25 +4223,25 @@
     <t xml:space="preserve">13.7170906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3991031646729</t>
+    <t xml:space="preserve">14.3991022109985</t>
   </si>
   <si>
     <t xml:space="preserve">14.8793926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1003265380859</t>
+    <t xml:space="preserve">15.1003274917603</t>
   </si>
   <si>
     <t xml:space="preserve">15.1675672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3500776290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3404722213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0234813690186</t>
+    <t xml:space="preserve">15.350076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3404731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0234804153442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0522985458374</t>
@@ -4259,7 +4259,7 @@
     <t xml:space="preserve">15.0619039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1291437149048</t>
+    <t xml:space="preserve">15.1291446685791</t>
   </si>
   <si>
     <t xml:space="preserve">15.0907211303711</t>
@@ -4271,13 +4271,13 @@
     <t xml:space="preserve">14.9850578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1387500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0138750076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1963844299316</t>
+    <t xml:space="preserve">15.1387510299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0138740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.196385383606</t>
   </si>
   <si>
     <t xml:space="preserve">15.4365301132202</t>
@@ -4286,7 +4286,7 @@
     <t xml:space="preserve">15.3116540908813</t>
   </si>
   <si>
-    <t xml:space="preserve">15.21559715271</t>
+    <t xml:space="preserve">15.2155961990356</t>
   </si>
   <si>
     <t xml:space="preserve">15.4557418823242</t>
@@ -4295,25 +4295,25 @@
     <t xml:space="preserve">14.68727684021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4855546951294</t>
+    <t xml:space="preserve">14.4855556488037</t>
   </si>
   <si>
     <t xml:space="preserve">14.8121528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922155380249</t>
+    <t xml:space="preserve">13.5922145843506</t>
   </si>
   <si>
     <t xml:space="preserve">11.7671117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.623025894165</t>
+    <t xml:space="preserve">11.6230249404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5173606872559</t>
+    <t xml:space="preserve">11.5173616409302</t>
   </si>
   <si>
     <t xml:space="preserve">11.526967048645</t>
@@ -4340,13 +4340,13 @@
     <t xml:space="preserve">11.3540620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4693326950073</t>
+    <t xml:space="preserve">11.469331741333</t>
   </si>
   <si>
     <t xml:space="preserve">11.2387933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3252449035645</t>
+    <t xml:space="preserve">11.3252458572388</t>
   </si>
   <si>
     <t xml:space="preserve">11.2772159576416</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">11.113917350769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2003698348999</t>
+    <t xml:space="preserve">11.2003688812256</t>
   </si>
   <si>
     <t xml:space="preserve">11.1427354812622</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">10.6432332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5663862228394</t>
+    <t xml:space="preserve">10.5663871765137</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452299118042</t>
@@ -5100,6 +5100,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1700000762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2200002670288</t>
   </si>
 </sst>
 </file>
@@ -62043,7 +62046,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.6496180556</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>76589</v>
@@ -62064,6 +62067,32 @@
         <v>1695</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6495717593</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>61493</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>10.2299995422363</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>10.0100002288818</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>10.0200004577637</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>10.2200002670288</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ELN.MI.xlsx
+++ b/data/ELN.MI.xlsx
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06393718719482</t>
+    <t xml:space="preserve">2.06393671035767</t>
   </si>
   <si>
     <t xml:space="preserve">ELN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11351299285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09785771369934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06132793426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03784441947937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98826777935028</t>
+    <t xml:space="preserve">2.11351323127747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09785747528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06132769584656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03784418106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98826789855957</t>
   </si>
   <si>
     <t xml:space="preserve">2.02740693092346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01697015762329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93086361885071</t>
+    <t xml:space="preserve">2.01697039604187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93086397647858</t>
   </si>
   <si>
     <t xml:space="preserve">1.95539093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93034195899963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98304963111877</t>
+    <t xml:space="preserve">1.9303423166275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98304951190948</t>
   </si>
   <si>
     <t xml:space="preserve">1.98200559616089</t>
@@ -83,10 +83,10 @@
     <t xml:space="preserve">1.96739387512207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96687197685242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0242760181427</t>
+    <t xml:space="preserve">1.96687173843384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02427554130554</t>
   </si>
   <si>
     <t xml:space="preserve">1.97052478790283</t>
@@ -95,13 +95,13 @@
     <t xml:space="preserve">1.98409307003021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9439103603363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86563205718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89433407783508</t>
+    <t xml:space="preserve">1.94391012191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86563217639923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8943338394165</t>
   </si>
   <si>
     <t xml:space="preserve">1.90581476688385</t>
@@ -110,19 +110,19 @@
     <t xml:space="preserve">1.88128769397736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89955258369446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88389682769775</t>
+    <t xml:space="preserve">1.89955246448517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88389670848846</t>
   </si>
   <si>
     <t xml:space="preserve">1.91259908676147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9219925403595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90998983383179</t>
+    <t xml:space="preserve">1.92199242115021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90998959541321</t>
   </si>
   <si>
     <t xml:space="preserve">2.05610918998718</t>
@@ -131,28 +131,28 @@
     <t xml:space="preserve">2.0352349281311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0482816696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05819654464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1343879699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07176494598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10255408287048</t>
+    <t xml:space="preserve">2.04828143119812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05819630622864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13438749313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07176518440247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10255432128906</t>
   </si>
   <si>
     <t xml:space="preserve">2.06654620170593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10725116729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10829496383667</t>
+    <t xml:space="preserve">2.10725092887878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10829424858093</t>
   </si>
   <si>
     <t xml:space="preserve">2.11612248420715</t>
@@ -164,19 +164,19 @@
     <t xml:space="preserve">2.11403512954712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13073420524597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14482402801514</t>
+    <t xml:space="preserve">2.13073444366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14482450485229</t>
   </si>
   <si>
     <t xml:space="preserve">2.18396353721619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11873197555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10777282714844</t>
+    <t xml:space="preserve">2.11873149871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10777258872986</t>
   </si>
   <si>
     <t xml:space="preserve">2.09263896942139</t>
@@ -185,79 +185,79 @@
     <t xml:space="preserve">2.0691556930542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05089020729065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03627872467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0848114490509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10307621955872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08742070198059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07698321342468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03001618385315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01749181747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03262591362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03314757347107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08167958259583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08794236183167</t>
+    <t xml:space="preserve">2.05089068412781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03627848625183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08481121063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10307598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08742022514343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07698345184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03001642227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01749205589294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03262543678284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03314709663391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08168029785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08794188499451</t>
   </si>
   <si>
     <t xml:space="preserve">2.12395024299622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11820983886719</t>
+    <t xml:space="preserve">2.11821007728577</t>
   </si>
   <si>
     <t xml:space="preserve">2.13960599899292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20483779907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21266579627991</t>
+    <t xml:space="preserve">2.20483803749084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21266555786133</t>
   </si>
   <si>
     <t xml:space="preserve">2.25441408157349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21840596199036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18605065345764</t>
+    <t xml:space="preserve">2.21840620040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18605136871338</t>
   </si>
   <si>
     <t xml:space="preserve">2.17613577842712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18657326698303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20744705200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19231367111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28050684928894</t>
+    <t xml:space="preserve">2.18657302856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20744729042053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1923131942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28050708770752</t>
   </si>
   <si>
     <t xml:space="preserve">2.30816507339478</t>
@@ -266,40 +266,40 @@
     <t xml:space="preserve">2.28572535514832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40679597854614</t>
+    <t xml:space="preserve">2.40679550170898</t>
   </si>
   <si>
     <t xml:space="preserve">2.45950317382812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47411465644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52108216285706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48611783981323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57013630867004</t>
+    <t xml:space="preserve">2.47411513328552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52108192443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48611760139465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57013607025146</t>
   </si>
   <si>
     <t xml:space="preserve">2.61934614181519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62095069885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65464878082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64127635955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67443943023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74504470825195</t>
+    <t xml:space="preserve">2.62095046043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65464854240417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64127683639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67443990707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74504446983337</t>
   </si>
   <si>
     <t xml:space="preserve">2.76644039154053</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">2.93760442733765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95044159889221</t>
+    <t xml:space="preserve">2.95044183731079</t>
   </si>
   <si>
     <t xml:space="preserve">2.89481329917908</t>
@@ -320,43 +320,43 @@
     <t xml:space="preserve">2.79211497306824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86699891090393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85630130767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84774303436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77071928977966</t>
+    <t xml:space="preserve">2.86699914932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8563015460968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84774351119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77071952819824</t>
   </si>
   <si>
     <t xml:space="preserve">2.71723055839539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68941617012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64876508712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7386257648468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81564974784851</t>
+    <t xml:space="preserve">2.6894166469574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64876484870911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73862624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81564998626709</t>
   </si>
   <si>
     <t xml:space="preserve">2.93118572235107</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79853320121765</t>
+    <t xml:space="preserve">2.79853367805481</t>
   </si>
   <si>
     <t xml:space="preserve">2.72792840003967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81351017951965</t>
+    <t xml:space="preserve">2.81351065635681</t>
   </si>
   <si>
     <t xml:space="preserve">2.86913871765137</t>
@@ -365,19 +365,19 @@
     <t xml:space="preserve">2.92048788070679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9397439956665</t>
+    <t xml:space="preserve">2.93974375724792</t>
   </si>
   <si>
     <t xml:space="preserve">2.92262744903564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94616270065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92690682411194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98253512382507</t>
+    <t xml:space="preserve">2.94616293907166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92690706253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98253464698792</t>
   </si>
   <si>
     <t xml:space="preserve">2.99537205696106</t>
@@ -386,10 +386,10 @@
     <t xml:space="preserve">3.01676797866821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10234951972961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24142050743103</t>
+    <t xml:space="preserve">3.10234999656677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24142098426819</t>
   </si>
   <si>
     <t xml:space="preserve">3.24997878074646</t>
@@ -398,37 +398,37 @@
     <t xml:space="preserve">3.28421187400818</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2350025177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23072290420532</t>
+    <t xml:space="preserve">3.23500180244446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2307231426239</t>
   </si>
   <si>
     <t xml:space="preserve">3.20504832267761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18793201446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23286271095276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22216486930847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20076894760132</t>
+    <t xml:space="preserve">3.18793177604675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2328622341156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22216510772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2007691860199</t>
   </si>
   <si>
     <t xml:space="preserve">3.20932769775391</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11946630477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19862937927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20290923118591</t>
+    <t xml:space="preserve">3.11946606636047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19862961769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20290899276733</t>
   </si>
   <si>
     <t xml:space="preserve">3.27351403236389</t>
@@ -437,13 +437,13 @@
     <t xml:space="preserve">3.29276990890503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28635144233704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26709532737732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22858309745789</t>
+    <t xml:space="preserve">3.28635120391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2670955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22858357429504</t>
   </si>
   <si>
     <t xml:space="preserve">3.2157461643219</t>
@@ -452,40 +452,40 @@
     <t xml:space="preserve">3.29490947723389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26281642913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22002530097961</t>
+    <t xml:space="preserve">3.2628161907196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22002553939819</t>
   </si>
   <si>
     <t xml:space="preserve">3.25639772415161</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2521185874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0959312915802</t>
+    <t xml:space="preserve">3.25211882591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09593152999878</t>
   </si>
   <si>
     <t xml:space="preserve">3.13444304466248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15369915962219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19435095787048</t>
+    <t xml:space="preserve">3.15369892120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1943507194519</t>
   </si>
   <si>
     <t xml:space="preserve">3.14514112472534</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16653633117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03816342353821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27565383911133</t>
+    <t xml:space="preserve">3.16653656959534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03816318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27565360069275</t>
   </si>
   <si>
     <t xml:space="preserve">3.20718812942505</t>
@@ -494,22 +494,22 @@
     <t xml:space="preserve">3.14942002296448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31416535377502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37193369865417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53026032447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61584258079529</t>
+    <t xml:space="preserve">3.3141655921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37193322181702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53026008605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61584210395813</t>
   </si>
   <si>
     <t xml:space="preserve">3.72067999839783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84049487113953</t>
+    <t xml:space="preserve">3.84049534797668</t>
   </si>
   <si>
     <t xml:space="preserve">3.94105434417725</t>
@@ -524,19 +524,19 @@
     <t xml:space="preserve">3.88970470428467</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04375219345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12077617645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26198720932007</t>
+    <t xml:space="preserve">4.04375267028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12077713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26198673248291</t>
   </si>
   <si>
     <t xml:space="preserve">4.16142797470093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18924236297607</t>
+    <t xml:space="preserve">4.18924188613892</t>
   </si>
   <si>
     <t xml:space="preserve">4.39677858352661</t>
@@ -545,49 +545,49 @@
     <t xml:space="preserve">4.60859441757202</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57650089263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56580257415771</t>
+    <t xml:space="preserve">4.57650136947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56580305099487</t>
   </si>
   <si>
     <t xml:space="preserve">4.6770601272583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86747980117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85678291320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63854885101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65994358062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65566492080688</t>
+    <t xml:space="preserve">4.86748027801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85678243637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63854789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6599440574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65566444396973</t>
   </si>
   <si>
     <t xml:space="preserve">4.56366348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49305820465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29835891723633</t>
+    <t xml:space="preserve">4.49305868148804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29835939407349</t>
   </si>
   <si>
     <t xml:space="preserve">4.27482414245605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26626586914062</t>
+    <t xml:space="preserve">4.26626634597778</t>
   </si>
   <si>
     <t xml:space="preserve">4.15500926971436</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11863708496094</t>
+    <t xml:space="preserve">4.11863660812378</t>
   </si>
   <si>
     <t xml:space="preserve">4.01807832717896</t>
@@ -599,43 +599,43 @@
     <t xml:space="preserve">4.17212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28980112075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27910375595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26412630081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57864141464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55724477767944</t>
+    <t xml:space="preserve">4.2898006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27910327911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26412725448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57864046096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5572452545166</t>
   </si>
   <si>
     <t xml:space="preserve">4.55510568618774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53584957122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56794261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64068794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51445388793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58292007446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51017475128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43315076828003</t>
+    <t xml:space="preserve">4.53585004806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56794357299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64068746566772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51445484161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58291912078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5101752281189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43315029144287</t>
   </si>
   <si>
     <t xml:space="preserve">4.44598865509033</t>
@@ -644,37 +644,37 @@
     <t xml:space="preserve">4.65138483047485</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56152391433716</t>
+    <t xml:space="preserve">4.56152439117432</t>
   </si>
   <si>
     <t xml:space="preserve">4.70273494720459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69203662872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.664222240448</t>
+    <t xml:space="preserve">4.6920371055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66422271728516</t>
   </si>
   <si>
     <t xml:space="preserve">4.68347883224487</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01082944869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29325151443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19911050796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16059875488281</t>
+    <t xml:space="preserve">5.01082992553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29325103759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19911003112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16059923171997</t>
   </si>
   <si>
     <t xml:space="preserve">5.1392035484314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13706350326538</t>
+    <t xml:space="preserve">5.13706302642822</t>
   </si>
   <si>
     <t xml:space="preserve">5.11352872848511</t>
@@ -683,28 +683,28 @@
     <t xml:space="preserve">4.9487829208374</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0215277671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13492298126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18413305282593</t>
+    <t xml:space="preserve">5.02152729034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13492441177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18413352966309</t>
   </si>
   <si>
     <t xml:space="preserve">5.21836614608765</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08143472671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05576038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97445774078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82468843460083</t>
+    <t xml:space="preserve">5.08143520355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05576086044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97445726394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82468938827515</t>
   </si>
   <si>
     <t xml:space="preserve">5.00227165222168</t>
@@ -713,19 +713,19 @@
     <t xml:space="preserve">4.95306205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02580690383911</t>
+    <t xml:space="preserve">5.02580738067627</t>
   </si>
   <si>
     <t xml:space="preserve">5.01296949386597</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0044116973877</t>
+    <t xml:space="preserve">5.00441122055054</t>
   </si>
   <si>
     <t xml:space="preserve">5.0386438369751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02794647216797</t>
+    <t xml:space="preserve">5.02794551849365</t>
   </si>
   <si>
     <t xml:space="preserve">4.95734119415283</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">4.87175941467285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94022512435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90171337127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80115413665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78189754486084</t>
+    <t xml:space="preserve">4.94022464752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9017128944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8011531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.781898021698</t>
   </si>
   <si>
     <t xml:space="preserve">4.77119970321655</t>
@@ -752,52 +752,52 @@
     <t xml:space="preserve">4.76264190673828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71771097183228</t>
+    <t xml:space="preserve">4.71771049499512</t>
   </si>
   <si>
     <t xml:space="preserve">4.65352487564087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7070140838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6620831489563</t>
+    <t xml:space="preserve">4.70701360702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66208267211914</t>
   </si>
   <si>
     <t xml:space="preserve">4.67492055892944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60003614425659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73696804046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83324813842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0493426322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99585390090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10711002349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03008604049683</t>
+    <t xml:space="preserve">4.60003662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73696660995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83324670791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04934167861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99585342407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10710954666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03008651733398</t>
   </si>
   <si>
     <t xml:space="preserve">5.00655078887939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20980882644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29111194610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32320499420166</t>
+    <t xml:space="preserve">5.20980834960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2911114692688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3232045173645</t>
   </si>
   <si>
     <t xml:space="preserve">5.45585680007935</t>
@@ -806,40 +806,40 @@
     <t xml:space="preserve">5.58422994613647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54143857955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74255609512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80888271331787</t>
+    <t xml:space="preserve">5.54143905639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74255657196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80888223648071</t>
   </si>
   <si>
     <t xml:space="preserve">5.84097576141357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00786018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71260261535645</t>
+    <t xml:space="preserve">6.00786113739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7126030921936</t>
   </si>
   <si>
     <t xml:space="preserve">5.77678966522217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65911483764648</t>
+    <t xml:space="preserve">5.65911436080933</t>
   </si>
   <si>
     <t xml:space="preserve">5.66339349746704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78748750686646</t>
+    <t xml:space="preserve">5.7874870300293</t>
   </si>
   <si>
     <t xml:space="preserve">5.79390573501587</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87306928634644</t>
+    <t xml:space="preserve">5.87306976318359</t>
   </si>
   <si>
     <t xml:space="preserve">5.99074411392212</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">5.84525489807129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88590621948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90088319778442</t>
+    <t xml:space="preserve">5.88590669631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90088367462158</t>
   </si>
   <si>
     <t xml:space="preserve">5.88376712799072</t>
@@ -863,46 +863,46 @@
     <t xml:space="preserve">5.952232837677</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97790718078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86023187637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9693489074707</t>
+    <t xml:space="preserve">5.97790765762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86023235321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96934938430786</t>
   </si>
   <si>
     <t xml:space="preserve">6.03353595733643</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31167697906494</t>
+    <t xml:space="preserve">6.3116774559021</t>
   </si>
   <si>
     <t xml:space="preserve">6.1597695350647</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4165153503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42935276031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47428369522095</t>
+    <t xml:space="preserve">6.41651439666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42935228347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47428417205811</t>
   </si>
   <si>
     <t xml:space="preserve">6.6860990524292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78237867355347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88935661315918</t>
+    <t xml:space="preserve">6.78237819671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88935613632202</t>
   </si>
   <si>
     <t xml:space="preserve">6.94284534454346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99419450759888</t>
+    <t xml:space="preserve">6.99419355392456</t>
   </si>
   <si>
     <t xml:space="preserve">7.19317245483398</t>
@@ -914,76 +914,76 @@
     <t xml:space="preserve">7.09903192520142</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09689283370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.989914894104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1674976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24880170822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23596382141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15893983840942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17819547653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07121753692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35446882247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11911821365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3608865737915</t>
+    <t xml:space="preserve">7.09689331054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98991584777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16749858856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24880218505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23596334457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15893936157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17819595336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07121706008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35446834564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11911773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36088752746582</t>
   </si>
   <si>
     <t xml:space="preserve">6.29028224945068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49781799316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38442230224609</t>
+    <t xml:space="preserve">6.49781847000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38442182540894</t>
   </si>
   <si>
     <t xml:space="preserve">6.41009664535522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4635853767395</t>
+    <t xml:space="preserve">6.46358585357666</t>
   </si>
   <si>
     <t xml:space="preserve">6.41154718399048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44840717315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49827718734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43539810180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3421630859375</t>
+    <t xml:space="preserve">6.44840812683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49827766418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43539762496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34216213226318</t>
   </si>
   <si>
     <t xml:space="preserve">6.44407081604004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79749822616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64571905136108</t>
+    <t xml:space="preserve">6.79749774932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64571952819824</t>
   </si>
   <si>
     <t xml:space="preserve">6.70426225662231</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">6.47009038925171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39203310012817</t>
+    <t xml:space="preserve">6.39203262329102</t>
   </si>
   <si>
     <t xml:space="preserve">6.30963850021362</t>
@@ -1004,28 +1004,28 @@
     <t xml:space="preserve">6.37468719482422</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24675893783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2250771522522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32264852523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21857166290283</t>
+    <t xml:space="preserve">6.24675941467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22507667541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32264804840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21857213973999</t>
   </si>
   <si>
     <t xml:space="preserve">6.22290849685669</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26410531997681</t>
+    <t xml:space="preserve">6.26410579681396</t>
   </si>
   <si>
     <t xml:space="preserve">6.05378437042236</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03643846511841</t>
+    <t xml:space="preserve">6.03643798828125</t>
   </si>
   <si>
     <t xml:space="preserve">6.03210163116455</t>
@@ -1034,31 +1034,31 @@
     <t xml:space="preserve">5.85430431365967</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81093835830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80009794235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83479022979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68517971038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85647201538086</t>
+    <t xml:space="preserve">5.81093883514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80009746551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83478927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68518018722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85647296905518</t>
   </si>
   <si>
     <t xml:space="preserve">5.81744384765625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83045291900635</t>
+    <t xml:space="preserve">5.83045339584351</t>
   </si>
   <si>
     <t xml:space="preserve">5.83912658691406</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73505067825317</t>
+    <t xml:space="preserve">5.73505020141602</t>
   </si>
   <si>
     <t xml:space="preserve">5.74589109420776</t>
@@ -1070,43 +1070,43 @@
     <t xml:space="preserve">5.59844923019409</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41197824478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37511920928955</t>
+    <t xml:space="preserve">5.41197872161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37511873245239</t>
   </si>
   <si>
     <t xml:space="preserve">5.51171875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63747835159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66132926940918</t>
+    <t xml:space="preserve">5.63747882843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66132879257202</t>
   </si>
   <si>
     <t xml:space="preserve">5.78925609588623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61579513549805</t>
+    <t xml:space="preserve">5.61579561233521</t>
   </si>
   <si>
     <t xml:space="preserve">5.62230014801025</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4943733215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46184921264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29272413253784</t>
+    <t xml:space="preserve">5.49437236785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46184873580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.292724609375</t>
   </si>
   <si>
     <t xml:space="preserve">5.44883871078491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34909915924072</t>
+    <t xml:space="preserve">5.34909963607788</t>
   </si>
   <si>
     <t xml:space="preserve">5.35560417175293</t>
@@ -1115,64 +1115,64 @@
     <t xml:space="preserve">5.3057336807251</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32524871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39680147171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46401739120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3859601020813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43149328231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36427783966064</t>
+    <t xml:space="preserve">5.32524824142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39680051803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46401786804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38595962524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43149280548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36427736282349</t>
   </si>
   <si>
     <t xml:space="preserve">5.31874370574951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39463329315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47268962860107</t>
+    <t xml:space="preserve">5.3946328163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47269010543823</t>
   </si>
   <si>
     <t xml:space="preserve">5.63964653015137</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56592559814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70252561569214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76757335662842</t>
+    <t xml:space="preserve">5.56592512130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7025260925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76757383346558</t>
   </si>
   <si>
     <t xml:space="preserve">5.63097333908081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98006296157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86514568328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70469379425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53990650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46835327148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42498826980591</t>
+    <t xml:space="preserve">5.98006391525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86514520645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7046947479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5399055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46835374832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42498874664307</t>
   </si>
   <si>
     <t xml:space="preserve">5.38379096984863</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">5.13877820968628</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14961910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16262912750244</t>
+    <t xml:space="preserve">5.14961957931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16262865066528</t>
   </si>
   <si>
     <t xml:space="preserve">5.32091236114502</t>
@@ -1205,19 +1205,19 @@
     <t xml:space="preserve">5.18647956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13227319717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05204772949219</t>
+    <t xml:space="preserve">5.13227367401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05204677581787</t>
   </si>
   <si>
     <t xml:space="preserve">5.03036546707153</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11709642410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07806634902954</t>
+    <t xml:space="preserve">5.11709594726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0780668258667</t>
   </si>
   <si>
     <t xml:space="preserve">5.04337453842163</t>
@@ -1229,10 +1229,10 @@
     <t xml:space="preserve">4.95013952255249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91978406906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87858724594116</t>
+    <t xml:space="preserve">4.91978454589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.878586769104</t>
   </si>
   <si>
     <t xml:space="preserve">4.8720817565918</t>
@@ -1247,10 +1247,10 @@
     <t xml:space="preserve">5.10408639907837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1843113899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13444137573242</t>
+    <t xml:space="preserve">5.18431186676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13444089889526</t>
   </si>
   <si>
     <t xml:space="preserve">5.15395593643188</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">5.02819728851318</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94363451004028</t>
+    <t xml:space="preserve">4.94363498687744</t>
   </si>
   <si>
     <t xml:space="preserve">4.78751945495605</t>
@@ -1268,49 +1268,49 @@
     <t xml:space="preserve">4.6444149017334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62923669815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5706934928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84606266021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12793636322021</t>
+    <t xml:space="preserve">4.62923765182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57069396972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84606313705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12793684005737</t>
   </si>
   <si>
     <t xml:space="preserve">5.5073823928833</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7111988067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74372291564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66783332824707</t>
+    <t xml:space="preserve">5.71119928359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74372243881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66783380508423</t>
   </si>
   <si>
     <t xml:space="preserve">5.80226564407349</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76323747634888</t>
+    <t xml:space="preserve">5.76323699951172</t>
   </si>
   <si>
     <t xml:space="preserve">5.67650699615479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7177038192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55508422851562</t>
+    <t xml:space="preserve">5.71770334243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55508518218994</t>
   </si>
   <si>
     <t xml:space="preserve">5.54207468032837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6006178855896</t>
+    <t xml:space="preserve">5.60061740875244</t>
   </si>
   <si>
     <t xml:space="preserve">5.48786783218384</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">5.91935157775879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08630800247192</t>
+    <t xml:space="preserve">6.08630752563477</t>
   </si>
   <si>
     <t xml:space="preserve">5.95838069915771</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">6.0342698097229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01909208297729</t>
+    <t xml:space="preserve">6.01909160614014</t>
   </si>
   <si>
     <t xml:space="preserve">5.92151975631714</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">5.93019342422485</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70903015136719</t>
+    <t xml:space="preserve">5.7090311050415</t>
   </si>
   <si>
     <t xml:space="preserve">5.77841520309448</t>
@@ -1349,31 +1349,31 @@
     <t xml:space="preserve">5.79792928695679</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72420835494995</t>
+    <t xml:space="preserve">5.72420787811279</t>
   </si>
   <si>
     <t xml:space="preserve">5.64398288726807</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55291557312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52039194107056</t>
+    <t xml:space="preserve">5.55291604995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5203914642334</t>
   </si>
   <si>
     <t xml:space="preserve">5.53773880004883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91501522064209</t>
+    <t xml:space="preserve">5.91501569747925</t>
   </si>
   <si>
     <t xml:space="preserve">5.75456428527832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62013149261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74155426025391</t>
+    <t xml:space="preserve">5.62013244628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74155473709106</t>
   </si>
   <si>
     <t xml:space="preserve">5.9280252456665</t>
@@ -1382,46 +1382,46 @@
     <t xml:space="preserve">5.9410343170166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84996747970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84129524230957</t>
+    <t xml:space="preserve">5.84996795654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84129476547241</t>
   </si>
   <si>
     <t xml:space="preserve">6.17954301834106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17520666122437</t>
+    <t xml:space="preserve">6.17520618438721</t>
   </si>
   <si>
     <t xml:space="preserve">6.11449575424194</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40937900543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2619366645813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06245708465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99307346343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98440027236938</t>
+    <t xml:space="preserve">6.40937852859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26193714141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06245756149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99307250976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98439979553223</t>
   </si>
   <si>
     <t xml:space="preserve">5.45968103408813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00608205795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81961154937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6938533782959</t>
+    <t xml:space="preserve">6.00608253479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8196120262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69385290145874</t>
   </si>
   <si>
     <t xml:space="preserve">5.57243061065674</t>
@@ -1436,31 +1436,31 @@
     <t xml:space="preserve">5.66349792480469</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77190971374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87598657608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85864067077637</t>
+    <t xml:space="preserve">5.77191066741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87598752975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85864114761353</t>
   </si>
   <si>
     <t xml:space="preserve">6.07112979888916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16219758987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24459075927734</t>
+    <t xml:space="preserve">6.16219711303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2445912361145</t>
   </si>
   <si>
     <t xml:space="preserve">6.60885858535767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5698299407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8083381652832</t>
+    <t xml:space="preserve">6.56983041763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80833911895752</t>
   </si>
   <si>
     <t xml:space="preserve">6.78665637969971</t>
@@ -1469,52 +1469,52 @@
     <t xml:space="preserve">6.9818000793457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.856041431427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.977463722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75196361541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83002185821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10322189331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02516555786133</t>
+    <t xml:space="preserve">6.85604047775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97746324539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75196409225464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83002042770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10322237014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02516603469849</t>
   </si>
   <si>
     <t xml:space="preserve">6.92542505264282</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99047374725342</t>
+    <t xml:space="preserve">6.99047327041626</t>
   </si>
   <si>
     <t xml:space="preserve">6.93843460083008</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36341333389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1986255645752</t>
+    <t xml:space="preserve">7.36341381072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19862651824951</t>
   </si>
   <si>
     <t xml:space="preserve">7.05985736846924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31137609481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15526103973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13357830047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9991455078125</t>
+    <t xml:space="preserve">7.31137657165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15526056289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13357782363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99914598464966</t>
   </si>
   <si>
     <t xml:space="preserve">6.94277143478394</t>
@@ -1526,19 +1526,19 @@
     <t xml:space="preserve">7.09021329879761</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06852960586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09454965591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33305835723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48917293548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43279886245728</t>
+    <t xml:space="preserve">7.06852865219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09454917907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33305788040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.489173412323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43279838562012</t>
   </si>
   <si>
     <t xml:space="preserve">7.40677833557129</t>
@@ -1547,31 +1547,31 @@
     <t xml:space="preserve">7.27234649658203</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42412614822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2983660697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25933742523193</t>
+    <t xml:space="preserve">7.42412519454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29836559295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25933837890625</t>
   </si>
   <si>
     <t xml:space="preserve">6.94710779190063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51345586776733</t>
+    <t xml:space="preserve">6.51345539093018</t>
   </si>
   <si>
     <t xml:space="preserve">6.72160863876343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52212858200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40504264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50478267669678</t>
+    <t xml:space="preserve">6.52212905883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40504217147827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50478315353394</t>
   </si>
   <si>
     <t xml:space="preserve">6.43106174468994</t>
@@ -1580,34 +1580,34 @@
     <t xml:space="preserve">6.59584951400757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27184057235718</t>
+    <t xml:space="preserve">6.27184104919434</t>
   </si>
   <si>
     <t xml:space="preserve">6.19712352752686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48280620574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54873418807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48720216751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51796817779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43446063995361</t>
+    <t xml:space="preserve">6.48280668258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54873371124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48720169067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51796770095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43446016311646</t>
   </si>
   <si>
     <t xml:space="preserve">6.54433822631836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46522617340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37292861938477</t>
+    <t xml:space="preserve">6.46522569656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37292909622192</t>
   </si>
   <si>
     <t xml:space="preserve">6.59707975387573</t>
@@ -1616,40 +1616,40 @@
     <t xml:space="preserve">6.63663625717163</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64103126525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50038719177246</t>
+    <t xml:space="preserve">6.64103078842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50038766860962</t>
   </si>
   <si>
     <t xml:space="preserve">6.3817195892334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36853313446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33776807785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30700159072876</t>
+    <t xml:space="preserve">6.36853361129761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33776760101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30700206756592</t>
   </si>
   <si>
     <t xml:space="preserve">6.21030950546265</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11801147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11361598968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01692342758179</t>
+    <t xml:space="preserve">6.11801195144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11361646652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01692390441895</t>
   </si>
   <si>
     <t xml:space="preserve">6.15317249298096</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03450441360474</t>
+    <t xml:space="preserve">6.03450393676758</t>
   </si>
   <si>
     <t xml:space="preserve">6.07406044006348</t>
@@ -1661,34 +1661,34 @@
     <t xml:space="preserve">6.23667907714844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13998746871948</t>
+    <t xml:space="preserve">6.13998699188232</t>
   </si>
   <si>
     <t xml:space="preserve">6.17954349517822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10482597351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22789001464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4740161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37732410430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41687965393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32897710800171</t>
+    <t xml:space="preserve">6.1048264503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22788906097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47401666641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37732362747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41688060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32897758483887</t>
   </si>
   <si>
     <t xml:space="preserve">6.33337259292603</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28063154220581</t>
+    <t xml:space="preserve">6.28063106536865</t>
   </si>
   <si>
     <t xml:space="preserve">6.28942155838013</t>
@@ -1697,16 +1697,16 @@
     <t xml:space="preserve">6.26305055618286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31579256057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32018756866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39050912857056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2190990447998</t>
+    <t xml:space="preserve">6.31579208374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32018709182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39050960540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21909952163696</t>
   </si>
   <si>
     <t xml:space="preserve">6.13119649887085</t>
@@ -1718,43 +1718,43 @@
     <t xml:space="preserve">6.17075252532959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35095310211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52675771713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99494791030884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28502655029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07845544815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88067483901978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37963056564331</t>
+    <t xml:space="preserve">6.35095262527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52675819396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.994948387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28502607345581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07845497131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88067531585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37963008880615</t>
   </si>
   <si>
     <t xml:space="preserve">5.2433819770813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15108442306519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99285936355591</t>
+    <t xml:space="preserve">5.15108489990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99285984039307</t>
   </si>
   <si>
     <t xml:space="preserve">4.88737678527832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04120683670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93132877349854</t>
+    <t xml:space="preserve">5.04120635986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93132829666138</t>
   </si>
   <si>
     <t xml:space="preserve">4.98846530914307</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">4.96648979187012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90056228637695</t>
+    <t xml:space="preserve">4.90056180953979</t>
   </si>
   <si>
     <t xml:space="preserve">4.84342575073242</t>
@@ -1772,22 +1772,22 @@
     <t xml:space="preserve">4.65443563461304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50939655303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5357666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66762065887451</t>
+    <t xml:space="preserve">4.50939607620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53576755523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66762113571167</t>
   </si>
   <si>
     <t xml:space="preserve">4.63246011734009</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2962327003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05669832229614</t>
+    <t xml:space="preserve">4.29623317718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0566987991333</t>
   </si>
   <si>
     <t xml:space="preserve">4.13581132888794</t>
@@ -1799,10 +1799,10 @@
     <t xml:space="preserve">3.97099351882935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98417925834656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88968467712402</t>
+    <t xml:space="preserve">3.9841787815094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88968443870544</t>
   </si>
   <si>
     <t xml:space="preserve">4.01274728775024</t>
@@ -1814,52 +1814,52 @@
     <t xml:space="preserve">4.0588960647583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9490180015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80178141593933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64135932922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69190311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75123739242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66992807388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77101564407349</t>
+    <t xml:space="preserve">3.94901823997498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80178165435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64135956764221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69190359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75123763084412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66992783546448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77101588249207</t>
   </si>
   <si>
     <t xml:space="preserve">3.77980613708496</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89627695083618</t>
+    <t xml:space="preserve">3.8962767124176</t>
   </si>
   <si>
     <t xml:space="preserve">4.08526706695557</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93363523483276</t>
+    <t xml:space="preserve">3.93363475799561</t>
   </si>
   <si>
     <t xml:space="preserve">3.85672044754028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86331367492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87430095672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80617666244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79518866539001</t>
+    <t xml:space="preserve">3.86331343650818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87430119514465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80617713928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79518914222717</t>
   </si>
   <si>
     <t xml:space="preserve">3.7776083946228</t>
@@ -1871,97 +1871,97 @@
     <t xml:space="preserve">3.30073761940002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18646430969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97989368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9886839389801</t>
+    <t xml:space="preserve">3.18646454811096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97989344596863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98868370056152</t>
   </si>
   <si>
     <t xml:space="preserve">3.1073522567749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32491087913513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32930564880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21283507347107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17108154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39303493499756</t>
+    <t xml:space="preserve">3.32491064071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32930541038513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21283483505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17108130455017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39303517341614</t>
   </si>
   <si>
     <t xml:space="preserve">3.33589863777161</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4281964302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45456695556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26118135452271</t>
+    <t xml:space="preserve">3.42819619178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45456671714783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26118111610413</t>
   </si>
   <si>
     <t xml:space="preserve">3.1908597946167</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05680799484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87660837173462</t>
+    <t xml:space="preserve">3.05680823326111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87660789489746</t>
   </si>
   <si>
     <t xml:space="preserve">2.8810031414032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95791816711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05021548271179</t>
+    <t xml:space="preserve">2.95791792869568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05021572113037</t>
   </si>
   <si>
     <t xml:space="preserve">2.98648643493652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90517663955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83485436439514</t>
+    <t xml:space="preserve">2.90517640113831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83485412597656</t>
   </si>
   <si>
     <t xml:space="preserve">2.87441062927246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72937154769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70080351829529</t>
+    <t xml:space="preserve">2.7293713092804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70080304145813</t>
   </si>
   <si>
     <t xml:space="preserve">2.74035930633545</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78431081771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83924984931946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01944971084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05241298675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11394500732422</t>
+    <t xml:space="preserve">2.78431057929993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83924961090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01944947242737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05241322517395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11394453048706</t>
   </si>
   <si>
     <t xml:space="preserve">3.17327880859375</t>
@@ -1979,43 +1979,43 @@
     <t xml:space="preserve">3.13152527809143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13811826705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26337885856628</t>
+    <t xml:space="preserve">3.13811779022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26337909698486</t>
   </si>
   <si>
     <t xml:space="preserve">3.48093771934509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41940593719482</t>
+    <t xml:space="preserve">3.4194061756134</t>
   </si>
   <si>
     <t xml:space="preserve">3.47214722633362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43478870391846</t>
+    <t xml:space="preserve">3.43478894233704</t>
   </si>
   <si>
     <t xml:space="preserve">3.5490620136261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60180330276489</t>
+    <t xml:space="preserve">3.60180306434631</t>
   </si>
   <si>
     <t xml:space="preserve">3.51390099525452</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45017170906067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46115970611572</t>
+    <t xml:space="preserve">3.45017218589783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46115946769714</t>
   </si>
   <si>
     <t xml:space="preserve">3.52049374580383</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37765216827393</t>
+    <t xml:space="preserve">3.3776524066925</t>
   </si>
   <si>
     <t xml:space="preserve">3.4633572101593</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">3.52269124984741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63037204742432</t>
+    <t xml:space="preserve">3.63037180900574</t>
   </si>
   <si>
     <t xml:space="preserve">3.56005001068115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55125951766968</t>
+    <t xml:space="preserve">3.5512592792511</t>
   </si>
   <si>
     <t xml:space="preserve">3.63916182518005</t>
@@ -2039,25 +2039,25 @@
     <t xml:space="preserve">3.73805212974548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82815289497375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70728635787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76662063598633</t>
+    <t xml:space="preserve">3.82815217971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7072868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76662039756775</t>
   </si>
   <si>
     <t xml:space="preserve">3.79079365730286</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87210392951965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92264795303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99956202507019</t>
+    <t xml:space="preserve">3.87210321426392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92264747619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99956250190735</t>
   </si>
   <si>
     <t xml:space="preserve">4.06109380722046</t>
@@ -2066,28 +2066,28 @@
     <t xml:space="preserve">4.02153778076172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17756509780884</t>
+    <t xml:space="preserve">4.17756414413452</t>
   </si>
   <si>
     <t xml:space="preserve">4.11603260040283</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88089323043823</t>
+    <t xml:space="preserve">3.88089370727539</t>
   </si>
   <si>
     <t xml:space="preserve">3.93583273887634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95780873298645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90946173667908</t>
+    <t xml:space="preserve">3.95780849456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90946197509766</t>
   </si>
   <si>
     <t xml:space="preserve">4.15778636932373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20832967758179</t>
+    <t xml:space="preserve">4.20833015441895</t>
   </si>
   <si>
     <t xml:space="preserve">4.30722093582153</t>
@@ -2096,25 +2096,25 @@
     <t xml:space="preserve">4.35117197036743</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27865266799927</t>
+    <t xml:space="preserve">4.27865219116211</t>
   </si>
   <si>
     <t xml:space="preserve">4.09405708312988</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13141632080078</t>
+    <t xml:space="preserve">4.13141536712646</t>
   </si>
   <si>
     <t xml:space="preserve">4.20393514633179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12921905517578</t>
+    <t xml:space="preserve">4.12921857833862</t>
   </si>
   <si>
     <t xml:space="preserve">4.16437959671021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21712017059326</t>
+    <t xml:space="preserve">4.21712064743042</t>
   </si>
   <si>
     <t xml:space="preserve">4.17536735534668</t>
@@ -2123,37 +2123,37 @@
     <t xml:space="preserve">4.16657686233521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17976236343384</t>
+    <t xml:space="preserve">4.179762840271</t>
   </si>
   <si>
     <t xml:space="preserve">4.12702083587646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00395679473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08087158203125</t>
+    <t xml:space="preserve">4.00395774841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08087205886841</t>
   </si>
   <si>
     <t xml:space="preserve">4.11383533477783</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19514560699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90286922454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86551117897034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83254790306091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92704296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96879577636719</t>
+    <t xml:space="preserve">4.19514513015747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90286946296692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86551094055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83254742622375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92704248428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96879625320435</t>
   </si>
   <si>
     <t xml:space="preserve">3.96659851074219</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">3.94682025909424</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85012769699097</t>
+    <t xml:space="preserve">3.85012817382812</t>
   </si>
   <si>
     <t xml:space="preserve">3.81057214736938</t>
@@ -2174,16 +2174,16 @@
     <t xml:space="preserve">3.70948386192322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58861804008484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78420066833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02813053131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75783085823059</t>
+    <t xml:space="preserve">3.58861827850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78420090675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02812957763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75782990455627</t>
   </si>
   <si>
     <t xml:space="preserve">3.8883421421051</t>
@@ -2195,31 +2195,31 @@
     <t xml:space="preserve">3.69707536697388</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68132376670837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69932579994202</t>
+    <t xml:space="preserve">3.68132400512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69932532310486</t>
   </si>
   <si>
     <t xml:space="preserve">3.62506890296936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60931754112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66782212257385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7758321762085</t>
+    <t xml:space="preserve">3.60931777954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66782236099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77583241462708</t>
   </si>
   <si>
     <t xml:space="preserve">3.80508470535278</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85683941841125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89734244346619</t>
+    <t xml:space="preserve">3.85683917999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89734292030334</t>
   </si>
   <si>
     <t xml:space="preserve">3.82983684539795</t>
@@ -2228,31 +2228,31 @@
     <t xml:space="preserve">3.88159132003784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80733489990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83883690834045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91534447669983</t>
+    <t xml:space="preserve">3.80733442306519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83883738517761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91534423828125</t>
   </si>
   <si>
     <t xml:space="preserve">3.97159910202026</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1246132850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08185863494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02110385894775</t>
+    <t xml:space="preserve">4.12461233139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08185911178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0211033821106</t>
   </si>
   <si>
     <t xml:space="preserve">4.04135513305664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.030104637146</t>
+    <t xml:space="preserve">4.03010416030884</t>
   </si>
   <si>
     <t xml:space="preserve">4.07285833358765</t>
@@ -2267,34 +2267,34 @@
     <t xml:space="preserve">4.21012020111084</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23937273025513</t>
+    <t xml:space="preserve">4.23937225341797</t>
   </si>
   <si>
     <t xml:space="preserve">4.33163118362427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22812223434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27537631988525</t>
+    <t xml:space="preserve">4.22812175750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2753758430481</t>
   </si>
   <si>
     <t xml:space="preserve">4.17186689376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25737476348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16511583328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14936447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12236261367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17411661148071</t>
+    <t xml:space="preserve">4.25737428665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16511631011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14936494827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12236213684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411708831787</t>
   </si>
   <si>
     <t xml:space="preserve">4.10211086273193</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">3.98960089683533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02785444259644</t>
+    <t xml:space="preserve">4.02785396575928</t>
   </si>
   <si>
     <t xml:space="preserve">4.07960844039917</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">4.09085988998413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03910541534424</t>
+    <t xml:space="preserve">4.0391058921814</t>
   </si>
   <si>
     <t xml:space="preserve">4.05260610580444</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">4.00535202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93784618377686</t>
+    <t xml:space="preserve">3.93784642219543</t>
   </si>
   <si>
     <t xml:space="preserve">3.98510050773621</t>
@@ -2330,40 +2330,40 @@
     <t xml:space="preserve">3.90184330940247</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8770911693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78033185005188</t>
+    <t xml:space="preserve">3.87709093093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78033256530762</t>
   </si>
   <si>
     <t xml:space="preserve">3.81858563423157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80958533287048</t>
+    <t xml:space="preserve">3.80958461761475</t>
   </si>
   <si>
     <t xml:space="preserve">3.78483271598816</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8838415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93109536170959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91309428215027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05935716629028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0436053276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09536027908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97384929656982</t>
+    <t xml:space="preserve">3.88384199142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93109512329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91309380531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05935668945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04360580444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09536075592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97384977340698</t>
   </si>
   <si>
     <t xml:space="preserve">3.98285031318665</t>
@@ -2375,31 +2375,31 @@
     <t xml:space="preserve">4.06385707855225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99185061454773</t>
+    <t xml:space="preserve">3.99185109138489</t>
   </si>
   <si>
     <t xml:space="preserve">4.26862525939941</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26187467575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24387311935425</t>
+    <t xml:space="preserve">4.26187515258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24387359619141</t>
   </si>
   <si>
     <t xml:space="preserve">4.52289772033691</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91443204879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08544778823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23846101760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26546287536621</t>
+    <t xml:space="preserve">4.91443157196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08544731140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23846054077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26546335220337</t>
   </si>
   <si>
     <t xml:space="preserve">5.53098678588867</t>
@@ -2408,16 +2408,16 @@
     <t xml:space="preserve">5.3914737701416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29696655273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51298475265503</t>
+    <t xml:space="preserve">5.29696607589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51298427581787</t>
   </si>
   <si>
     <t xml:space="preserve">5.60749292373657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45898008346558</t>
+    <t xml:space="preserve">5.45898056030273</t>
   </si>
   <si>
     <t xml:space="preserve">5.35997152328491</t>
@@ -2426,16 +2426,16 @@
     <t xml:space="preserve">5.38697338104248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17545509338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18445587158203</t>
+    <t xml:space="preserve">5.17545557022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18445634841919</t>
   </si>
   <si>
     <t xml:space="preserve">5.26996326446533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35547113418579</t>
+    <t xml:space="preserve">5.35547065734863</t>
   </si>
   <si>
     <t xml:space="preserve">5.25196218490601</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">5.59849262237549</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62999486923218</t>
+    <t xml:space="preserve">5.62999534606934</t>
   </si>
   <si>
     <t xml:space="preserve">5.82351207733154</t>
@@ -2462,16 +2462,16 @@
     <t xml:space="preserve">5.6434965133667</t>
   </si>
   <si>
-    <t xml:spa